--- a/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
+++ b/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="28860" windowHeight="17520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -532,6 +532,14 @@
       <color indexed="81"/>
       <name val="Palatino Linotype"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Palatino Linotype"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -634,7 +642,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -686,6 +694,7 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
@@ -1022,11 +1031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI55"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M54" sqref="M54"/>
+      <selection pane="topRight" activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5184,7 +5193,7 @@
         <v>0.20440019883823521</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:21">
       <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
@@ -5208,12 +5217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:21">
       <c r="G51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:21">
       <c r="G52" s="1">
         <f>G39^0.5</f>
         <v>10.105564624604625</v>
@@ -5227,7 +5236,7 @@
         <v>10.270072875910556</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:21">
       <c r="G53">
         <f>G$52*$J53</f>
         <v>102.12243638206041</v>
@@ -5244,8 +5253,19 @@
         <f t="array" ref="J53:J55">TRANSPOSE(G52:I52)</f>
         <v>10.105564624604625</v>
       </c>
+      <c r="S53">
+        <v>0.33</v>
+      </c>
+      <c r="T53">
+        <f>S53/S$57</f>
+        <v>0.28695652173913044</v>
+      </c>
+      <c r="U53">
+        <f>S53/S57</f>
+        <v>0.28695652173913044</v>
+      </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:21">
       <c r="G54">
         <f>G$52*$J54</f>
         <v>52.423383374083372</v>
@@ -5261,8 +5281,19 @@
       <c r="J54">
         <v>5.1875758872933249</v>
       </c>
+      <c r="S54">
+        <v>0.32</v>
+      </c>
+      <c r="T54">
+        <f t="shared" ref="T54:T55" si="25">S54/S$57</f>
+        <v>0.27826086956521739</v>
+      </c>
+      <c r="U54">
+        <f>S54*(1-S$55)</f>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:21">
       <c r="G55">
         <f>G$52*$J55</f>
         <v>103.7848851469132</v>
@@ -5277,6 +5308,32 @@
       </c>
       <c r="J55">
         <v>10.270072875910556</v>
+      </c>
+      <c r="S55" s="33">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="25"/>
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="U55">
+        <f>S55</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="S57">
+        <f>SUM(S53:S55)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T57">
+        <f>SUM(T53:T55)</f>
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <f>SUM(U53:U55)</f>
+        <v>0.94695652173913047</v>
       </c>
     </row>
   </sheetData>

--- a/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
+++ b/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="28860" windowHeight="17520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$15</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$55</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -594,7 +594,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -603,6 +603,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -696,7 +698,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="48">
     <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Accent3" xfId="5" builtinId="37"/>
@@ -722,6 +724,7 @@
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
@@ -741,6 +744,7 @@
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1033,13 +1037,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U53" sqref="U53"/>
+      <selection pane="topRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.33203125" customWidth="1"/>
     <col min="5" max="8" width="6.83203125" customWidth="1"/>
     <col min="9" max="9" width="6.83203125" style="5" customWidth="1"/>
@@ -1161,109 +1166,109 @@
       </c>
       <c r="C4" s="22">
         <f>$C44</f>
-        <v>0.46633773903771369</v>
+        <v>0.37525792595872431</v>
       </c>
       <c r="J4" t="s">
         <v>80</v>
       </c>
       <c r="K4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" ref="K4:AI4" si="0">linf*(1-EXP(-vonbk*age))</f>
         <v>19.793516300140091</v>
       </c>
       <c r="L4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>35.598960092080048</v>
       </c>
       <c r="M4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>48.219863304633819</v>
       </c>
       <c r="N4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>58.297859215250313</v>
       </c>
       <c r="O4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>66.345302402468292</v>
       </c>
       <c r="P4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>72.771316307006472</v>
       </c>
       <c r="Q4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>77.902592631753492</v>
       </c>
       <c r="R4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="S4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>85.271846238409012</v>
       </c>
       <c r="T4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>87.884468525065458</v>
       </c>
       <c r="U4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>89.970689794452838</v>
       </c>
       <c r="V4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>91.636571313979459</v>
       </c>
       <c r="W4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>92.966804725852967</v>
       </c>
       <c r="X4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>94.029017679969584</v>
       </c>
       <c r="Y4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>94.877211951608004</v>
       </c>
       <c r="Z4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>95.554508834170107</v>
       </c>
       <c r="AA4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>96.095341379811089</v>
       </c>
       <c r="AB4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>96.527204939138343</v>
       </c>
       <c r="AC4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>96.872054995552304</v>
       </c>
       <c r="AD4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>97.147423358638946</v>
       </c>
       <c r="AE4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>97.367309462696838</v>
       </c>
       <c r="AF4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>97.542892083066874</v>
       </c>
       <c r="AG4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>97.683097653164623</v>
       </c>
       <c r="AH4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>97.795054074848096</v>
       </c>
       <c r="AI4" s="1">
-        <f>linf*(1-EXP(-vonbk*age))</f>
+        <f t="shared" si="0"/>
         <v>97.884453093356598</v>
       </c>
     </row>
@@ -1276,109 +1281,109 @@
       </c>
       <c r="C5" s="22">
         <f>$C45</f>
-        <v>0.14368774721897648</v>
+        <v>0.24948414051706141</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" ref="K5:AI5" si="1">0.00001*len^3</f>
         <v>7.7547688877270149E-2</v>
       </c>
       <c r="L5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>0.45114062302389013</v>
       </c>
       <c r="M5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>1.1211866673146547</v>
       </c>
       <c r="N5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>1.9813345892591618</v>
       </c>
       <c r="O5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>2.9203206124948746</v>
       </c>
       <c r="P5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>3.8537247471550278</v>
       </c>
       <c r="Q5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>4.7277634002826563</v>
       </c>
       <c r="R5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>5.5136800000000008</v>
       </c>
       <c r="S5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>6.2003613190327593</v>
       </c>
       <c r="T5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>6.7879149497799078</v>
       </c>
       <c r="U5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>7.2828799393382431</v>
       </c>
       <c r="V5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>7.6949622499586763</v>
       </c>
       <c r="W5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>8.0349598962254518</v>
       </c>
       <c r="X5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>8.3135343813632918</v>
       </c>
       <c r="Y5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>8.5405480865639891</v>
       </c>
       <c r="Z5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>8.724761289990024</v>
       </c>
       <c r="AA5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>8.8737461724953501</v>
       </c>
       <c r="AB5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>8.9939235686508034</v>
       </c>
       <c r="AC5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>9.0906625791293632</v>
       </c>
       <c r="AD5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>9.1684064683953039</v>
       </c>
       <c r="AE5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>9.2308035438579932</v>
       </c>
       <c r="AF5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>9.2808314179412932</v>
       </c>
       <c r="AG5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>9.3209090332404063</v>
       </c>
       <c r="AH5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>9.3529943822889159</v>
       </c>
       <c r="AI5" s="9">
-        <f>0.00001*len^3</f>
+        <f t="shared" si="1"/>
         <v>9.3786678620287827</v>
       </c>
     </row>
@@ -1392,105 +1397,105 @@
       </c>
       <c r="C6" s="22">
         <f>$C46</f>
-        <v>0.38997451374330983</v>
+        <v>0.37525793352421427</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:AH6" si="0">EXP(-M*(age-1))</f>
+        <f t="shared" ref="K6:AH6" si="2">EXP(-M*(age-1))</f>
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.86070797642505781</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.74081822068171788</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63762815162177333</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54881163609402639</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.47236655274101469</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.40656965974059917</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.34993774911115533</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.30119421191220214</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25924026064589156</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.22313016014842982</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.19204990862075413</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16529888822158656</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14227407158651359</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12245642825298191</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10539922456186433</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.0717953289412512E-2</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.8081666001153169E-2</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7205512739749784E-2</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.7844320874838456E-2</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.9787068367863944E-2</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.2852126867040187E-2</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6883167401240015E-2</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1745636378067953E-2</v>
       </c>
       <c r="AI6" s="1">
@@ -1507,7 +1512,7 @@
       </c>
       <c r="C7" s="23">
         <f>spr</f>
-        <v>0.39999998979865592</v>
+        <v>0.39999855522103445</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -1518,99 +1523,99 @@
       </c>
       <c r="L7" s="1">
         <f>K7*EXP(-K8)</f>
-        <v>0.85973985850115997</v>
+        <v>0.85900827925841472</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" ref="M7:AH7" si="1">L7*EXP(-L8)</f>
-        <v>0.73427477761809856</v>
+        <f t="shared" ref="M7:AH7" si="3">L7*EXP(-L8)</f>
+        <v>0.72936528936255107</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.61261255596307529</v>
+        <f t="shared" si="3"/>
+        <v>0.59437660857517127</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.50777726321701377</v>
+        <f t="shared" si="3"/>
+        <v>0.4791557486424079</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.41871127055150842</v>
+        <f t="shared" si="3"/>
+        <v>0.38436277876920294</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.34204775912796986</v>
+        <f t="shared" si="3"/>
+        <v>0.30505155612601553</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.27837002480360323</v>
+        <f t="shared" si="3"/>
+        <v>0.24338143204333321</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.22373609727115656</v>
+        <f t="shared" si="3"/>
+        <v>0.19523019947119899</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1778177594548784</v>
+        <f t="shared" si="3"/>
+        <v>0.15715041457524606</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.14067875322997433</v>
+        <f t="shared" si="3"/>
+        <v>0.12676713971690712</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11113766758531746</v>
+        <f t="shared" si="3"/>
+        <v>0.10239017874408822</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="1"/>
-        <v>8.7763135831975259E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.2765654137124944E-2</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="1"/>
-        <v>6.9296713150253708E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.6934286147931288E-2</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="1"/>
-        <v>5.4714328103356857E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.4146789719211719E-2</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="1"/>
-        <v>4.3200379068391602E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.3809997570385346E-2</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="1"/>
-        <v>3.4109394290713781E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.5450337216877535E-2</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6931482446999343E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.868772143813518E-2</v>
       </c>
       <c r="AC7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.126404534752999E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.3216102618967307E-2</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6789224829186739E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.8788560049267523E-2</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3256060586061132E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.5205635217165262E-2</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0466404035734258E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.2306089767026372E-2</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="1"/>
-        <v>8.2638013661943503E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.9595231708173929E-3</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5247189645251443E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.0604459486215609E-3</v>
       </c>
       <c r="AI7" s="1">
         <f>AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>2.4479485182073345E-2</v>
+        <v>3.4212785794285813E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1620,110 +1625,110 @@
       </c>
       <c r="C8" s="26">
         <f>SUMXMY2(B4:B7,C4:C7)</f>
-        <v>5.6862710830727428E-2</v>
+        <v>1.0545192280660786E-2</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:AI8" si="2">M+f1_*flt1_ +f2_*flt2_ +f3_*flt3_</f>
-        <v>0.15112542560887685</v>
+        <f t="shared" ref="K8:AI8" si="4">M+f1_*flt1_ +f2_*flt2_ +f3_*flt3_</f>
+        <v>0.15197671879239133</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15774653838470212</v>
+        <f t="shared" si="4"/>
+        <v>0.16360387087929923</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18115062461469172</v>
+        <f t="shared" si="4"/>
+        <v>0.20466154968398695</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18768979718052739</v>
+        <f t="shared" si="4"/>
+        <v>0.21548744132458728</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19286130256656703</v>
+        <f t="shared" si="4"/>
+        <v>0.22043885531855648</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20223121674083044</v>
+        <f t="shared" si="4"/>
+        <v>0.2311060441822208</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20599912074974389</v>
+        <f t="shared" si="4"/>
+        <v>0.22585090692859816</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.21848403301267455</v>
+        <f t="shared" si="4"/>
+        <v>0.22045051945419322</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.22970801758370327</v>
+        <f t="shared" si="4"/>
+        <v>0.21697597109200883</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23428025742728831</v>
+        <f t="shared" si="4"/>
+        <v>0.2148515434060404</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23570926375668266</v>
+        <f t="shared" si="4"/>
+        <v>0.21356106061683644</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23612813412232952</v>
+        <f t="shared" si="4"/>
+        <v>0.21277762707482792</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23624407145173471</v>
+        <f t="shared" si="4"/>
+        <v>0.21230183590258897</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23627186092177055</v>
+        <f t="shared" si="4"/>
+        <v>0.2120126476001975</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23627634491716029</v>
+        <f t="shared" si="4"/>
+        <v>0.21183664035799113</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23627643119814634</v>
+        <f t="shared" si="4"/>
+        <v>0.21172928097010918</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23627688527441762</v>
+        <f t="shared" si="4"/>
+        <v>0.21166355863034145</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23627831890526785</v>
+        <f t="shared" si="4"/>
+        <v>0.21162309045235206</v>
       </c>
       <c r="AC8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23628033314252259</v>
+        <f t="shared" si="4"/>
+        <v>0.21159793971293653</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23628245084541052</v>
+        <f t="shared" si="4"/>
+        <v>0.21158207948478536</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23628433877310392</v>
+        <f t="shared" si="4"/>
+        <v>0.21157185425169875</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23628581631201961</v>
+        <f t="shared" si="4"/>
+        <v>0.21156504683102398</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23628681378163124</v>
+        <f t="shared" si="4"/>
+        <v>0.21156031243350348</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.2362873299429378</v>
+        <f t="shared" si="4"/>
+        <v>0.2115568354032214</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23628740048943764</v>
+        <f t="shared" si="4"/>
+        <v>0.21155412101985654</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1825,104 +1830,104 @@
         <v>55</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" ref="K10:AI10" si="3">EXP(-za)</f>
-        <v>0.85973985850115997</v>
+        <f t="shared" ref="K10:AI10" si="5">EXP(-za)</f>
+        <v>0.85900827925841472</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.85406622754260486</v>
+        <f t="shared" si="5"/>
+        <v>0.84907829991139905</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.8343096816566663</v>
+        <f t="shared" si="5"/>
+        <v>0.81492308071671893</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.82887178572229536</v>
+        <f t="shared" si="5"/>
+        <v>0.80614839435056385</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.82459633560347045</v>
+        <f t="shared" si="5"/>
+        <v>0.80216668558859638</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.81690602375579546</v>
+        <f t="shared" si="5"/>
+        <v>0.79365529904545939</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.8138337918461761</v>
+        <f t="shared" si="5"/>
+        <v>0.79783704477414086</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.80373631258971856</v>
+        <f t="shared" si="5"/>
+        <v>0.80215732906214032</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.79476562621619562</v>
+        <f t="shared" si="5"/>
+        <v>0.80494931112555368</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.79114006194455411</v>
+        <f t="shared" si="5"/>
+        <v>0.80666118546069143</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.79001032518133962</v>
+        <f t="shared" si="5"/>
+        <v>0.80770283981119351</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78967948256248777</v>
+        <f t="shared" si="5"/>
+        <v>0.80833586924374468</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78958793453921261</v>
+        <f t="shared" si="5"/>
+        <v>0.8087205598234688</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78956599261384364</v>
+        <f t="shared" si="5"/>
+        <v>0.80895446616913258</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78956245221151045</v>
+        <f t="shared" si="5"/>
+        <v>0.80909686054464658</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78956238408728652</v>
+        <f t="shared" si="5"/>
+        <v>0.80918372935133942</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78956202556582455</v>
+        <f t="shared" si="5"/>
+        <v>0.80923691254697727</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.789560893626158</v>
+        <f t="shared" si="5"/>
+        <v>0.80926966155303159</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78955930326479284</v>
+        <f t="shared" si="5"/>
+        <v>0.80929001553936408</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78955763121454658</v>
+        <f t="shared" si="5"/>
+        <v>0.80930285116543865</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78955614058823609</v>
+        <f t="shared" si="5"/>
+        <v>0.80931112651803816</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78955497398917418</v>
+        <f t="shared" si="5"/>
+        <v>0.80931663585808533</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78955418643247366</v>
+        <f t="shared" si="5"/>
+        <v>0.80932046749382969</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78955377889525835</v>
+        <f t="shared" si="5"/>
+        <v>0.80932328153049526</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.78955372319500483</v>
+        <f t="shared" si="5"/>
+        <v>0.80932547834712898</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1934,110 +1939,110 @@
       </c>
       <c r="C11" s="18">
         <f>$C34</f>
-        <v>0.33333010826615006</v>
+        <v>0.25841295705322731</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
       </c>
       <c r="K11" s="1">
         <f>1-sa</f>
-        <v>0.14026014149884003</v>
+        <v>0.14099172074158528</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ref="L11:AI11" si="4">1-sa</f>
-        <v>0.14593377245739514</v>
+        <f t="shared" ref="L11:AI11" si="6">1-sa</f>
+        <v>0.15092170008860095</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1656903183433337</v>
+        <f t="shared" si="6"/>
+        <v>0.18507691928328107</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.17112821427770464</v>
+        <f t="shared" si="6"/>
+        <v>0.19385160564943615</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.17540366439652955</v>
+        <f t="shared" si="6"/>
+        <v>0.19783331441140362</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.18309397624420454</v>
+        <f t="shared" si="6"/>
+        <v>0.20634470095454061</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1861662081538239</v>
+        <f t="shared" si="6"/>
+        <v>0.20216295522585914</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.19626368741028144</v>
+        <f t="shared" si="6"/>
+        <v>0.19784267093785968</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.20523437378380438</v>
+        <f t="shared" si="6"/>
+        <v>0.19505068887444632</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.20885993805544589</v>
+        <f t="shared" si="6"/>
+        <v>0.19333881453930857</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.20998967481866038</v>
+        <f t="shared" si="6"/>
+        <v>0.19229716018880649</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21032051743751223</v>
+        <f t="shared" si="6"/>
+        <v>0.19166413075625532</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21041206546078739</v>
+        <f t="shared" si="6"/>
+        <v>0.1912794401765312</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21043400738615636</v>
+        <f t="shared" si="6"/>
+        <v>0.19104553383086742</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21043754778848955</v>
+        <f t="shared" si="6"/>
+        <v>0.19090313945535342</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21043761591271348</v>
+        <f t="shared" si="6"/>
+        <v>0.19081627064866058</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21043797443417545</v>
+        <f t="shared" si="6"/>
+        <v>0.19076308745302273</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.210439106373842</v>
+        <f t="shared" si="6"/>
+        <v>0.19073033844696841</v>
       </c>
       <c r="AC11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21044069673520716</v>
+        <f t="shared" si="6"/>
+        <v>0.19070998446063592</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21044236878545342</v>
+        <f t="shared" si="6"/>
+        <v>0.19069714883456135</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21044385941176391</v>
+        <f t="shared" si="6"/>
+        <v>0.19068887348196184</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21044502601082582</v>
+        <f t="shared" si="6"/>
+        <v>0.19068336414191467</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21044581356752634</v>
+        <f t="shared" si="6"/>
+        <v>0.19067953250617031</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21044622110474165</v>
+        <f t="shared" si="6"/>
+        <v>0.19067671846950474</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.21044627680499517</v>
+        <f t="shared" si="6"/>
+        <v>0.19067452165287102</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -2049,110 +2054,110 @@
       </c>
       <c r="C12" s="18">
         <f>$C35</f>
-        <v>0.33332988062930163</v>
+        <v>0.48317407867273576</v>
       </c>
       <c r="J12" t="s">
         <v>85</v>
       </c>
       <c r="K12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>1.5618055299195349E-11</v>
+        <f t="shared" ref="K12:AI12" si="7">1/(1+EXP(($E18-len)/2.5))</f>
+        <v>0.99963578667333364</v>
       </c>
       <c r="L12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>8.6958844766999485E-9</v>
+        <f t="shared" si="7"/>
+        <v>0.99999934562463089</v>
       </c>
       <c r="M12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>1.3545299926786416E-6</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999579900867</v>
       </c>
       <c r="N12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>7.6292752615683731E-5</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999992541966</v>
       </c>
       <c r="O12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>1.9040256337351216E-3</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999701705</v>
       </c>
       <c r="P12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>2.4328594283902095E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999977174</v>
       </c>
       <c r="Q12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.16260622391362409</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999997069</v>
       </c>
       <c r="R12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999999423</v>
       </c>
       <c r="S12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.78730198394011408</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999999845</v>
       </c>
       <c r="T12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.91323480063075901</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999999956</v>
       </c>
       <c r="U12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.96039068767942826</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999999978</v>
       </c>
       <c r="V12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.97925787840790035</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999999978</v>
       </c>
       <c r="W12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.98771144058640681</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="X12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99193086459256363</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99423910442267971</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99560027379947402</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99645312990255264</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99701415439587071</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99739787669880464</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99766863984790277</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99786451513138141</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99800906271781975</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99811744125747615</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99819973880010859</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <f>1/(1+EXP(($E18-len)/2.5))</f>
-        <v>0.99826286813593224</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2165,7 +2170,7 @@
       </c>
       <c r="C13" s="18">
         <f>$C36</f>
-        <v>0.33334001110454831</v>
+        <v>0.25841296427403693</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2177,7 +2182,7 @@
       </c>
       <c r="C14" s="29">
         <f>spr</f>
-        <v>0.39999998979865592</v>
+        <v>0.39999855522103445</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2187,7 +2192,7 @@
       </c>
       <c r="C15" s="26">
         <f>SUMXMY2(B11:B14,C11:C14)</f>
-        <v>2.6198301292943236E-14</v>
+        <v>3.3679871921936735E-2</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2248,10 +2253,10 @@
         <v>100</v>
       </c>
       <c r="E18">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
@@ -2266,104 +2271,104 @@
         <v>16</v>
       </c>
       <c r="K18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>7.2652944388434264E-6</v>
+        <f t="shared" ref="K18:AI18" si="8">((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
+        <v>4.5391552007444657E-5</v>
       </c>
       <c r="L18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>8.8462288061508167E-5</v>
+        <f t="shared" si="8"/>
+        <v>5.5288891334603083E-4</v>
       </c>
       <c r="M18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>1.0710513189880126E-3</v>
+        <f t="shared" si="8"/>
+        <v>6.6940231124641893E-3</v>
       </c>
       <c r="N18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>1.2143993275266399E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.5869569398736056E-2</v>
       </c>
       <c r="O18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>8.080980179978986E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.50006256851532582</v>
       </c>
       <c r="P18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.16676516839952416</v>
+        <f t="shared" si="8"/>
+        <v>0.92423435819677513</v>
       </c>
       <c r="Q18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.29462633480883599</v>
+        <f t="shared" si="8"/>
+        <v>0.99338177825514906</v>
       </c>
       <c r="R18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.57970844798563714</v>
+        <f t="shared" si="8"/>
+        <v>0.99949732411316172</v>
       </c>
       <c r="S18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.82131701849586347</v>
+        <f t="shared" si="8"/>
+        <v>0.99997973051085998</v>
       </c>
       <c r="T18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.92711389728575633</v>
+        <f t="shared" si="8"/>
+        <v>0.99999640256489186</v>
       </c>
       <c r="U18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.96670383893409162</v>
+        <f t="shared" si="8"/>
+        <v>0.99997482361930579</v>
       </c>
       <c r="V18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.98252759253581201</v>
+        <f t="shared" si="8"/>
+        <v>0.99995010533943796</v>
       </c>
       <c r="W18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.98960351287686554</v>
+        <f t="shared" si="8"/>
+        <v>0.99992512994639815</v>
       </c>
       <c r="X18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.99312273717911248</v>
+        <f t="shared" si="8"/>
+        <v>0.99990013402239852</v>
       </c>
       <c r="Y18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.99503658893298308</v>
+        <f t="shared" si="8"/>
+        <v>0.99987513698679642</v>
       </c>
       <c r="Z18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.99615492427162566</v>
+        <f t="shared" si="8"/>
+        <v>0.99985014043357634</v>
       </c>
       <c r="AA18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.99684629457111096</v>
+        <f t="shared" si="8"/>
+        <v>0.9998251444935623</v>
       </c>
       <c r="AB18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.99729254011791779</v>
+        <f t="shared" si="8"/>
+        <v>0.99980014917747839</v>
       </c>
       <c r="AC18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.99758986237681757</v>
+        <f t="shared" si="8"/>
+        <v>0.99977515448619114</v>
       </c>
       <c r="AD18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.99779230716347</v>
+        <f t="shared" si="8"/>
+        <v>0.99975016041975662</v>
       </c>
       <c r="AE18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.99793185268600393</v>
+        <f t="shared" si="8"/>
+        <v>0.9997251669781656</v>
       </c>
       <c r="AF18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.9980282882693009</v>
+        <f t="shared" si="8"/>
+        <v>0.99970017416140255</v>
       </c>
       <c r="AG18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.99809434627651172</v>
+        <f t="shared" si="8"/>
+        <v>0.99967518196945226</v>
       </c>
       <c r="AH18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.99813849998325277</v>
+        <f t="shared" si="8"/>
+        <v>0.99965019040229885</v>
       </c>
       <c r="AI18" s="4">
-        <f>((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr+(1-sr)*dmr)</f>
-        <v>0.99816655559959722</v>
+        <f t="shared" si="8"/>
+        <v>0.99962519945992701</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2392,103 +2397,103 @@
         <v>17</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" ref="K18:T20" si="5">(EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g</f>
+        <f t="shared" ref="K19:T20" si="9">(EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g</f>
         <v>3.0007350071316975E-2</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.20628691029874971</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.82469244423305887</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.92451379123971533</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.60271373782445525</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.36782407656213434</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.22320983733581354</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.13538925175123626</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.2118013086893454E-2</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.9807106637333357E-2</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" ref="U18:AI20" si="6">(EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g</f>
+        <f t="shared" ref="U19:AI20" si="10">(EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g</f>
         <v>3.0209537943414012E-2</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.8323011013099209E-2</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1113467959422852E-2</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.7406590532098857E-3</v>
       </c>
       <c r="Y19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.0884163824456031E-3</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.479749885624884E-3</v>
       </c>
       <c r="AA19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.5040443340503991E-3</v>
       </c>
       <c r="AB19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.1224900216863752E-4</v>
       </c>
       <c r="AC19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.5330698910753529E-4</v>
       </c>
       <c r="AD19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.3559765312700423E-4</v>
       </c>
       <c r="AE19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.0355026594913339E-4</v>
       </c>
       <c r="AF19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2345947709080986E-4</v>
       </c>
       <c r="AG19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.4881958087665658E-5</v>
       </c>
       <c r="AH19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.5418203439485613E-5</v>
       </c>
       <c r="AI19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.7547532895113808E-5</v>
       </c>
     </row>
@@ -2518,103 +2523,103 @@
         <v>18</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.5408090239048184E-5</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.5288927514315434E-4</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.6940231405857222E-3</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.5869569404394432E-2</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.50006256851681752</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.92423435819698607</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99338177825517815</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.9994973241131675</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99997973051086153</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99999640256489231</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99997482361930601</v>
       </c>
       <c r="V20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99995010533943818</v>
       </c>
       <c r="W20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99992512994639815</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99990013402239852</v>
       </c>
       <c r="Y20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99987513698679642</v>
       </c>
       <c r="Z20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99985014043357634</v>
       </c>
       <c r="AA20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.9998251444935623</v>
       </c>
       <c r="AB20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99980014917747839</v>
       </c>
       <c r="AC20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99977515448619114</v>
       </c>
       <c r="AD20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99975016041975662</v>
       </c>
       <c r="AE20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.9997251669781656</v>
       </c>
       <c r="AF20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99970017416140255</v>
       </c>
       <c r="AG20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99967518196945226</v>
       </c>
       <c r="AH20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99965019040229885</v>
       </c>
       <c r="AI20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99962519945992701</v>
       </c>
     </row>
@@ -2666,104 +2671,104 @@
         <v>23</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:AI22" si="7">wa*flt1_*(1-EXP(-za))/za</f>
-        <v>5.2290020791317078E-7</v>
+        <f t="shared" ref="K22:AI22" si="11">wa*flt1_*(1-EXP(-za))/za</f>
+        <v>3.2655808350543217E-6</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="7"/>
-        <v>3.6920372546282119E-5</v>
+        <f t="shared" si="11"/>
+        <v>2.3009539672437534E-4</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0983620059477007E-3</v>
+        <f t="shared" si="11"/>
+        <v>6.787051360975121E-3</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.1938164713962566E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.13522994726863335</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="7"/>
-        <v>0.21462887139252881</v>
+        <f t="shared" si="11"/>
+        <v>1.3105879209331885</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="7"/>
-        <v>0.58185115363647832</v>
+        <f t="shared" si="11"/>
+        <v>3.1801295895148693</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="7"/>
-        <v>1.2588175346368473</v>
+        <f t="shared" si="11"/>
+        <v>4.2038930844753279</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.8712528329964999</v>
+        <f t="shared" si="11"/>
+        <v>4.9457485563634975</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="7"/>
-        <v>4.5498991129489008</v>
+        <f t="shared" si="11"/>
+        <v>5.5737058202817948</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="7"/>
-        <v>5.6103368249002683</v>
+        <f t="shared" si="11"/>
+        <v>6.1082303046212862</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="7"/>
-        <v>6.2721709036127908</v>
+        <f t="shared" si="11"/>
+        <v>6.5575712507721953</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="7"/>
-        <v>6.7341867424669246</v>
+        <f t="shared" si="11"/>
+        <v>6.9310607701675107</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="7"/>
-        <v>7.0819794560458593</v>
+        <f t="shared" si="11"/>
+        <v>7.2387860179234256</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="7"/>
-        <v>7.3534737431210937</v>
+        <f t="shared" si="11"/>
+        <v>7.4906144439321123</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="7"/>
-        <v>7.5688131043567184</v>
+        <f t="shared" si="11"/>
+        <v>7.6956180045381997</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" si="7"/>
-        <v>7.7407565701045238</v>
+        <f t="shared" si="11"/>
+        <v>7.8618172879284858</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="7"/>
-        <v>7.8784008986592111</v>
+        <f t="shared" si="11"/>
+        <v>7.9961200483677413</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="7"/>
-        <v>7.9886673921822871</v>
+        <f t="shared" si="11"/>
+        <v>8.104367324155465</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" si="7"/>
-        <v>8.0769932856485163</v>
+        <f t="shared" si="11"/>
+        <v>8.19143282470956</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="7"/>
-        <v>8.1477130400572992</v>
+        <f t="shared" si="11"/>
+        <v>8.2613431173784324</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="7"/>
-        <v>8.2043034287023833</v>
+        <f t="shared" si="11"/>
+        <v>8.3174001148777066</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="7"/>
-        <v>8.2495592833775238</v>
+        <f t="shared" si="11"/>
+        <v>8.3622960478271651</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="7"/>
-        <v>8.285727948057712</v>
+        <f t="shared" si="11"/>
+        <v>8.3982163541531687</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="7"/>
-        <v>8.3146156394944022</v>
+        <f t="shared" si="11"/>
+        <v>8.426928978432386</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="7"/>
-        <v>8.3376728896662371</v>
+        <f t="shared" si="11"/>
+        <v>8.4498602722864771</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2778,104 +2783,104 @@
         <v>24</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" ref="K23:AI23" si="8">wa*flt2_*(1-EXP(-za))/za</f>
-        <v>2.1596990628934233E-3</v>
+        <f t="shared" ref="K23:AI23" si="12">wa*flt2_*(1-EXP(-za))/za</f>
+        <v>2.1588031906815412E-3</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="8"/>
-        <v>8.6095326568489311E-2</v>
+        <f t="shared" si="12"/>
+        <v>8.5850280804110821E-2</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="8"/>
-        <v>0.84572123788951037</v>
+        <f t="shared" si="12"/>
+        <v>0.8361533687560635</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="8"/>
-        <v>1.67013727468504</v>
+        <f t="shared" si="12"/>
+        <v>1.6478537077416682</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="8"/>
-        <v>1.6007930528344858</v>
+        <f t="shared" si="12"/>
+        <v>1.5796210200624421</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2833547037245752</v>
+        <f t="shared" si="12"/>
+        <v>1.2656186379972079</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="8"/>
-        <v>0.95368412102085387</v>
+        <f t="shared" si="12"/>
+        <v>0.94460187624045111</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="8"/>
-        <v>0.67057289573541767</v>
+        <f t="shared" si="12"/>
+        <v>0.66993795805300171</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="8"/>
-        <v>0.45491407883576507</v>
+        <f t="shared" si="12"/>
+        <v>0.45771092505901934</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="8"/>
-        <v>0.30140271365497412</v>
+        <f t="shared" si="12"/>
+        <v>0.30423437261107672</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="8"/>
-        <v>0.19600561957961396</v>
+        <f t="shared" si="12"/>
+        <v>0.1981061851135778</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="8"/>
-        <v>0.12558484747286192</v>
+        <f t="shared" si="12"/>
+        <v>0.12700423965766686</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" si="8"/>
-        <v>7.9532207343578507E-2</v>
+        <f t="shared" si="12"/>
+        <v>8.045404007360292E-2</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="8"/>
-        <v>4.991050703350354E-2</v>
+        <f t="shared" si="12"/>
+        <v>5.0496720970001067E-2</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="8"/>
-        <v>3.1098815697525189E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.1466819764729079E-2</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" si="8"/>
-        <v>1.9269231875154336E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.9498262521711916E-2</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="8"/>
-        <v>1.188695217862463E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.2028622323982512E-2</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="8"/>
-        <v>7.3074384536294095E-3</v>
+        <f t="shared" si="12"/>
+        <v>7.3946788373168548E-3</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="8"/>
-        <v>4.4798539003555668E-3</v>
+        <f t="shared" si="12"/>
+        <v>4.5333963465475184E-3</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="8"/>
-        <v>2.7404033434260031E-3</v>
+        <f t="shared" si="12"/>
+        <v>2.773180212049248E-3</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="8"/>
-        <v>1.6734490840680815E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.6934744280831789E-3</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0204984040298106E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.0327143317838466E-3</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="8"/>
-        <v>6.2163615618795196E-4</v>
+        <f t="shared" si="12"/>
+        <v>6.2907922131657243E-4</v>
       </c>
       <c r="AH23" s="1">
-        <f t="shared" si="8"/>
-        <v>3.7833918303123432E-4</v>
+        <f t="shared" si="12"/>
+        <v>3.8286990628042661E-4</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" si="8"/>
-        <v>2.3010420145644874E-4</v>
+        <f t="shared" si="12"/>
+        <v>2.3286007989363263E-4</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2884,104 +2889,104 @@
         <v>25</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" ref="K24:AI24" si="9">wa*flt3_*(1-EXP(-za))/za</f>
-        <v>3.2681262991893478E-6</v>
+        <f t="shared" ref="K24:AI24" si="13">wa*flt3_*(1-EXP(-za))/za</f>
+        <v>3.2667706364552806E-6</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="9"/>
-        <v>2.3075231787963681E-4</v>
+        <f t="shared" si="13"/>
+        <v>2.3009554729323399E-4</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="9"/>
-        <v>6.8647137202548477E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.7870513894874645E-3</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="9"/>
-        <v>0.13705863241549826</v>
+        <f t="shared" si="13"/>
+        <v>0.13522994727871884</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="9"/>
-        <v>1.3281540396834972</v>
+        <f t="shared" si="13"/>
+        <v>1.3105879209370981</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="9"/>
-        <v>3.2246951369307695</v>
+        <f t="shared" si="13"/>
+        <v>3.180129589515595</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="9"/>
-        <v>4.2443130613823463</v>
+        <f t="shared" si="13"/>
+        <v>4.2038930844754514</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="9"/>
-        <v>4.9504359189594833</v>
+        <f t="shared" si="13"/>
+        <v>4.9457485563635268</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="9"/>
-        <v>5.5396476468375591</v>
+        <f t="shared" si="13"/>
+        <v>5.5737058202818037</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="9"/>
-        <v>6.0513780005914297</v>
+        <f t="shared" si="13"/>
+        <v>6.1082303046212889</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="9"/>
-        <v>6.4880398116200713</v>
+        <f t="shared" si="13"/>
+        <v>6.5575712507721962</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="9"/>
-        <v>6.8535996277985536</v>
+        <f t="shared" si="13"/>
+        <v>6.9310607701675115</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" si="9"/>
-        <v>7.1558448769830809</v>
+        <f t="shared" si="13"/>
+        <v>7.2387860179234256</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="9"/>
-        <v>7.4036562712901439</v>
+        <f t="shared" si="13"/>
+        <v>7.4906144439321123</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="9"/>
-        <v>7.6056178473411276</v>
+        <f t="shared" si="13"/>
+        <v>7.6956180045381997</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" si="9"/>
-        <v>7.7694707470730213</v>
+        <f t="shared" si="13"/>
+        <v>7.8618172879284858</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="9"/>
-        <v>7.9019437196877123</v>
+        <f t="shared" si="13"/>
+        <v>7.9961200483677413</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="9"/>
-        <v>8.0087542312195925</v>
+        <f t="shared" si="13"/>
+        <v>8.104367324155465</v>
       </c>
       <c r="AC24" s="1">
-        <f t="shared" si="9"/>
-        <v>8.094686518469203</v>
+        <f t="shared" si="13"/>
+        <v>8.19143282470956</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="9"/>
-        <v>8.1637003616594424</v>
+        <f t="shared" si="13"/>
+        <v>8.2613431173784324</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="9"/>
-        <v>8.2190468147926481</v>
+        <f t="shared" si="13"/>
+        <v>8.3174001148777066</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="9"/>
-        <v>8.2633788533677208</v>
+        <f t="shared" si="13"/>
+        <v>8.3622960478271651</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="9"/>
-        <v>8.2988513311638776</v>
+        <f t="shared" si="13"/>
+        <v>8.3982163541531687</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" si="9"/>
-        <v>8.3272082053562393</v>
+        <f t="shared" si="13"/>
+        <v>8.426928978432386</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="9"/>
-        <v>8.3498569237853175</v>
+        <f t="shared" si="13"/>
+        <v>8.4498602722864771</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3000,103 +3005,103 @@
       </c>
       <c r="K26">
         <f>qa1_/wa</f>
-        <v>6.74295024756614E-6</v>
+        <v>4.2110614543555917E-5</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="K26:AI26" si="10">qa1_/wa</f>
-        <v>8.1837836501651065E-5</v>
+        <f t="shared" ref="L26:AI26" si="14">qa1_/wa</f>
+        <v>5.1003032088331945E-4</v>
       </c>
       <c r="M26">
-        <f t="shared" si="10"/>
-        <v>9.7964240743102921E-4</v>
+        <f t="shared" si="14"/>
+        <v>6.0534535049642842E-3</v>
       </c>
       <c r="N26">
-        <f t="shared" si="10"/>
-        <v>1.1072417971648815E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.825194896496356E-2</v>
       </c>
       <c r="O26">
-        <f t="shared" si="10"/>
-        <v>7.3494968488808529E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.44878220402434965</v>
       </c>
       <c r="P26">
-        <f t="shared" si="10"/>
-        <v>0.1509840976748596</v>
+        <f t="shared" si="14"/>
+        <v>0.82520932297060579</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="10"/>
-        <v>0.26626068778348488</v>
+        <f t="shared" si="14"/>
+        <v>0.88919278071825503</v>
       </c>
       <c r="R26">
-        <f t="shared" si="10"/>
-        <v>0.5207507205707439</v>
+        <f t="shared" si="14"/>
+        <v>0.89699593671803524</v>
       </c>
       <c r="S26">
-        <f t="shared" si="10"/>
-        <v>0.73381193108576348</v>
+        <f t="shared" si="14"/>
+        <v>0.89893242240135751</v>
       </c>
       <c r="T26">
-        <f t="shared" si="10"/>
-        <v>0.82651843259794799</v>
+        <f t="shared" si="14"/>
+        <v>0.89986842054044003</v>
       </c>
       <c r="U26">
-        <f t="shared" si="10"/>
-        <v>0.86122124157695645</v>
+        <f t="shared" si="14"/>
+        <v>0.90040908341103965</v>
       </c>
       <c r="V26">
-        <f t="shared" si="10"/>
-        <v>0.87514227149107704</v>
+        <f t="shared" si="14"/>
+        <v>0.90072706597160135</v>
       </c>
       <c r="W26">
-        <f t="shared" si="10"/>
-        <v>0.8813957440375938</v>
+        <f t="shared" si="14"/>
+        <v>0.90091128162617939</v>
       </c>
       <c r="X26">
-        <f t="shared" si="10"/>
-        <v>0.88451835354233987</v>
+        <f t="shared" si="14"/>
+        <v>0.90101443024329764</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="10"/>
-        <v>0.88622100451187591</v>
+        <f t="shared" si="14"/>
+        <v>0.90106840059187354</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="10"/>
-        <v>0.88721700374605605</v>
+        <f t="shared" si="14"/>
+        <v>0.90109253727645255</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="10"/>
-        <v>0.88783257324609255</v>
+        <f t="shared" si="14"/>
+        <v>0.90109857696314799</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="10"/>
-        <v>0.88822940635470438</v>
+        <f t="shared" si="14"/>
+        <v>0.90109363975518164</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="10"/>
-        <v>0.88849335406991548</v>
+        <f t="shared" si="14"/>
+        <v>0.90108204472528941</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="10"/>
-        <v>0.88867275552665903</v>
+        <f t="shared" si="14"/>
+        <v>0.90106641168848289</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="10"/>
-        <v>0.88879623423048315</v>
+        <f t="shared" si="14"/>
+        <v>0.90104832968869231</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="10"/>
-        <v>0.88888149260311311</v>
+        <f t="shared" si="14"/>
+        <v>0.90102876253753994</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="10"/>
-        <v>0.88893990044415072</v>
+        <f t="shared" si="14"/>
+        <v>0.90100829481365896</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="10"/>
-        <v>0.88897900497397753</v>
+        <f t="shared" si="14"/>
+        <v>0.90098728107758164</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="10"/>
-        <v>0.88900396221757672</v>
+        <f t="shared" si="14"/>
+        <v>0.90096593637751587</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3104,110 +3109,113 @@
         <v>14</v>
       </c>
       <c r="B27" s="28">
-        <v>5.4647652312432703E-2</v>
+        <v>3.0787693388999178E-2</v>
+      </c>
+      <c r="C27">
+        <v>3.0826511509620572E-2</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:AI27" si="11">qa2_/wa</f>
-        <v>2.78499474860101E-2</v>
+        <f t="shared" ref="K27:AI27" si="15">qa2_/wa</f>
+        <v>2.7838394953306003E-2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="11"/>
-        <v>0.19083922434519965</v>
+        <f t="shared" si="15"/>
+        <v>0.19029605498320337</v>
       </c>
       <c r="M27">
-        <f t="shared" si="11"/>
-        <v>0.75430903929235138</v>
+        <f t="shared" si="15"/>
+        <v>0.74577534065645623</v>
       </c>
       <c r="N27">
-        <f t="shared" si="11"/>
-        <v>0.84293550606690759</v>
+        <f t="shared" si="15"/>
+        <v>0.83168876002806524</v>
       </c>
       <c r="O27">
-        <f t="shared" si="11"/>
-        <v>0.54815661197792387</v>
+        <f t="shared" si="15"/>
+        <v>0.5409067118534453</v>
       </c>
       <c r="P27">
-        <f t="shared" si="11"/>
-        <v>0.33301670148393409</v>
+        <f t="shared" si="15"/>
+        <v>0.3284143837547136</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="11"/>
-        <v>0.20171993398904786</v>
+        <f t="shared" si="15"/>
+        <v>0.1997988892980509</v>
       </c>
       <c r="R27">
-        <f t="shared" si="11"/>
-        <v>0.12161984296067554</v>
+        <f t="shared" si="15"/>
+        <v>0.12150468617203058</v>
       </c>
       <c r="S27">
-        <f t="shared" si="11"/>
-        <v>7.3368962779532101E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.3820040721501223E-2</v>
       </c>
       <c r="T27">
-        <f t="shared" si="11"/>
-        <v>4.4402841798238328E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.4820003618481E-2</v>
       </c>
       <c r="U27">
-        <f t="shared" si="11"/>
-        <v>2.6913202086566865E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.7201627208422535E-2</v>
       </c>
       <c r="V27">
-        <f t="shared" si="11"/>
-        <v>1.632039812456992E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.6504855453754682E-2</v>
       </c>
       <c r="W27">
-        <f t="shared" si="11"/>
-        <v>9.8982706038072462E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.0012998336357281E-2</v>
       </c>
       <c r="X27">
-        <f t="shared" si="11"/>
-        <v>6.0035244631199787E-3</v>
+        <f t="shared" si="15"/>
+        <v>6.0740376660017347E-3</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="11"/>
-        <v>3.6413138105796652E-3</v>
+        <f t="shared" si="15"/>
+        <v>3.6844028563263703E-3</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="11"/>
-        <v>2.2085683762215996E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.2348190252588804E-3</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="11"/>
-        <v>1.3395641420834046E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.355529230852452E-3</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="11"/>
-        <v>8.1248616333589913E-4</v>
+        <f t="shared" si="15"/>
+        <v>8.2218608829318139E-4</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="11"/>
-        <v>4.9279729187623358E-4</v>
+        <f t="shared" si="15"/>
+        <v>4.986871206676878E-4</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="11"/>
-        <v>2.9889636251103523E-4</v>
+        <f t="shared" si="15"/>
+        <v>3.0247134238744355E-4</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="11"/>
-        <v>1.8128964354154886E-4</v>
+        <f t="shared" si="15"/>
+        <v>1.8345904774563049E-4</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="11"/>
-        <v>1.0995764905900868E-4</v>
+        <f t="shared" si="15"/>
+        <v>1.1127390265784259E-4</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="11"/>
-        <v>6.6692653470928754E-5</v>
+        <f t="shared" si="15"/>
+        <v>6.7491187723551203E-5</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="11"/>
-        <v>4.0451129078797235E-5</v>
+        <f t="shared" si="15"/>
+        <v>4.0935543274295071E-5</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="11"/>
-        <v>2.4534849174909673E-5</v>
+        <f t="shared" si="15"/>
+        <v>2.4828694577873729E-5</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3215,110 +3223,113 @@
         <v>15</v>
       </c>
       <c r="B28" s="28">
-        <v>3.7443720663791223E-2</v>
+        <v>6.5781326112657759E-2</v>
+      </c>
+      <c r="C28">
+        <v>6.5872059610417921E-2</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:AI28" si="12">qa3_/wa</f>
-        <v>4.2143439043832831E-5</v>
+        <f t="shared" ref="K28:AI28" si="16">qa3_/wa</f>
+        <v>4.212595737863179E-5</v>
       </c>
       <c r="L28">
-        <f t="shared" si="12"/>
-        <v>5.1148645478422668E-4</v>
+        <f t="shared" si="16"/>
+        <v>5.1003065463481724E-4</v>
       </c>
       <c r="M28">
-        <f t="shared" si="12"/>
-        <v>6.1227215060418701E-3</v>
+        <f t="shared" si="16"/>
+        <v>6.0534535303947892E-3</v>
       </c>
       <c r="N28">
-        <f t="shared" si="12"/>
-        <v>6.9174905217167626E-2</v>
+        <f t="shared" si="16"/>
+        <v>6.8251948970053808E-2</v>
       </c>
       <c r="O28">
-        <f t="shared" si="12"/>
-        <v>0.4547973376624681</v>
+        <f t="shared" si="16"/>
+        <v>0.44878220402568836</v>
       </c>
       <c r="P28">
-        <f t="shared" si="12"/>
-        <v>0.83677360177614324</v>
+        <f t="shared" si="16"/>
+        <v>0.82520932297079408</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="12"/>
-        <v>0.89774227304365395</v>
+        <f t="shared" si="16"/>
+        <v>0.88919278071828123</v>
       </c>
       <c r="R28">
-        <f t="shared" si="12"/>
-        <v>0.89784606994955862</v>
+        <f t="shared" si="16"/>
+        <v>0.89699593671804057</v>
       </c>
       <c r="S28">
-        <f t="shared" si="12"/>
-        <v>0.89343948873317114</v>
+        <f t="shared" si="16"/>
+        <v>0.89893242240135895</v>
       </c>
       <c r="T28">
-        <f t="shared" si="12"/>
-        <v>0.8914929025131112</v>
+        <f t="shared" si="16"/>
+        <v>0.89986842054044047</v>
       </c>
       <c r="U28">
-        <f t="shared" si="12"/>
-        <v>0.89086183840202171</v>
+        <f t="shared" si="16"/>
+        <v>0.90040908341103976</v>
       </c>
       <c r="V28">
-        <f t="shared" si="12"/>
-        <v>0.89066059132848363</v>
+        <f t="shared" si="16"/>
+        <v>0.90072706597160146</v>
       </c>
       <c r="W28">
-        <f t="shared" si="12"/>
-        <v>0.89058874834517232</v>
+        <f t="shared" si="16"/>
+        <v>0.90091128162617939</v>
       </c>
       <c r="X28">
-        <f t="shared" si="12"/>
-        <v>0.89055459828098504</v>
+        <f t="shared" si="16"/>
+        <v>0.90101443024329764</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="12"/>
-        <v>0.8905304168132141</v>
+        <f t="shared" si="16"/>
+        <v>0.90106840059187354</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="12"/>
-        <v>0.89050811693690535</v>
+        <f t="shared" si="16"/>
+        <v>0.90109253727645255</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="12"/>
-        <v>0.89048566029307985</v>
+        <f t="shared" si="16"/>
+        <v>0.90109857696314799</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="12"/>
-        <v>0.89046278524479405</v>
+        <f t="shared" si="16"/>
+        <v>0.90109363975518164</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="12"/>
-        <v>0.8904396624568649</v>
+        <f t="shared" si="16"/>
+        <v>0.90108204472528941</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="12"/>
-        <v>0.89041649601823225</v>
+        <f t="shared" si="16"/>
+        <v>0.90106641168848289</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="12"/>
-        <v>0.89039342845308966</v>
+        <f t="shared" si="16"/>
+        <v>0.90104832968869231</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="12"/>
-        <v>0.8903705369966447</v>
+        <f t="shared" si="16"/>
+        <v>0.90102876253753994</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="12"/>
-        <v>0.89034785143469952</v>
+        <f t="shared" si="16"/>
+        <v>0.90100829481365896</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="12"/>
-        <v>0.89032537228129494</v>
+        <f t="shared" si="16"/>
+        <v>0.90098728107758164</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="12"/>
-        <v>0.89030308425690274</v>
+        <f t="shared" si="16"/>
+        <v>0.90096593637751587</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3326,7 +3337,10 @@
         <v>19</v>
       </c>
       <c r="B29" s="28">
-        <v>3.1750810347871743E-2</v>
+        <v>3.0787694006063286E-2</v>
+      </c>
+      <c r="C29">
+        <v>3.0717558531607573E-2</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3348,11 +3362,11 @@
       <c r="C31" s="12"/>
       <c r="G31">
         <f>SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-33.027820942948772</v>
+        <v>-49.079690806817631</v>
       </c>
       <c r="H31">
         <f>Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-12.753499360411233</v>
+        <v>-18.951970709822817</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>52</v>
@@ -3361,100 +3375,100 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <f>K31*sa-K$7*K18*K$10</f>
-        <v>-6.2462632128205121E-6</v>
+        <f t="shared" ref="L31:AH31" si="17">K31*sa-K$7*K18*K$10</f>
+        <v>-3.8991718982783872E-5</v>
       </c>
       <c r="M31">
-        <f>L31*sa-L$7*L18*L$10</f>
-        <v>-7.0166944766584117E-5</v>
+        <f t="shared" si="17"/>
+        <v>-4.3503323402386499E-4</v>
       </c>
       <c r="N31">
-        <f>M31*sa-M$7*M18*M$10</f>
-        <v>-7.1429888690022572E-4</v>
+        <f t="shared" si="17"/>
+        <v>-4.3294720984077481E-3</v>
       </c>
       <c r="O31">
-        <f>N31*sa-N$7*N18*N$10</f>
-        <v>-6.7554519145041556E-3</v>
+        <f t="shared" si="17"/>
+        <v>-3.9826298607956542E-2</v>
       </c>
       <c r="P31">
-        <f>O31*sa-O$7*O18*O$10</f>
-        <v>-3.9354544146756654E-2</v>
+        <f t="shared" si="17"/>
+        <v>-0.22381379132458709</v>
       </c>
       <c r="Q31">
-        <f>P31*sa-P$7*P18*P$10</f>
-        <v>-8.9069710040988459E-2</v>
+        <f t="shared" si="17"/>
+        <v>-0.46050606304316027</v>
       </c>
       <c r="R31">
-        <f>Q31*sa-Q$7*Q18*Q$10</f>
-        <v>-0.15360370044030988</v>
+        <f t="shared" si="17"/>
+        <v>-0.61116899330511409</v>
       </c>
       <c r="S31">
-        <f>R31*sa-R$7*R18*R$10</f>
-        <v>-0.25178064687699353</v>
+        <f t="shared" si="17"/>
+        <v>-0.68709212209979187</v>
       </c>
       <c r="T31">
-        <f>S31*sa-S$7*S18*S$10</f>
-        <v>-0.34523850859779992</v>
+        <f t="shared" si="17"/>
+        <v>-0.71139777495034473</v>
       </c>
       <c r="U31">
-        <f>T31*sa-T$7*T18*T$10</f>
-        <v>-0.40316721361481128</v>
+        <f t="shared" si="17"/>
+        <v>-0.70136468674310593</v>
       </c>
       <c r="V31">
-        <f>U31*sa-U$7*U18*U$10</f>
-        <v>-0.42581008653841151</v>
+        <f t="shared" si="17"/>
+        <v>-0.66932583464532402</v>
       </c>
       <c r="W31">
-        <f>V31*sa-V$7*V18*V$10</f>
-        <v>-0.4224442092982118</v>
+        <f t="shared" si="17"/>
+        <v>-0.62405908827158252</v>
       </c>
       <c r="X31">
-        <f>W31*sa-W$7*W18*W$10</f>
-        <v>-0.40212385220282448</v>
+        <f t="shared" si="17"/>
+        <v>-0.5717646613850732</v>
       </c>
       <c r="Y31">
-        <f>X31*sa-X$7*X18*X$10</f>
-        <v>-0.37183993812692295</v>
+        <f t="shared" si="17"/>
+        <v>-0.51675437479415809</v>
       </c>
       <c r="Z31">
-        <f>Y31*sa-Y$7*Y18*Y$10</f>
-        <v>-0.33657678587518658</v>
+        <f t="shared" si="17"/>
+        <v>-0.46195375947663692</v>
       </c>
       <c r="AA31">
-        <f>Z31*sa-Z$7*Z18*Z$10</f>
-        <v>-0.29972648990066414</v>
+        <f t="shared" si="17"/>
+        <v>-0.40927505870305525</v>
       </c>
       <c r="AB31">
-        <f>AA31*sa-AA$7*AA18*AA$10</f>
-        <v>-0.26349886369399822</v>
+        <f t="shared" si="17"/>
+        <v>-0.35989659347079322</v>
       </c>
       <c r="AC31">
-        <f>AB31*sa-AB$7*AB18*AB$10</f>
-        <v>-0.22925445302711864</v>
+        <f t="shared" si="17"/>
+        <v>-0.31447218258430565</v>
       </c>
       <c r="AD31">
-        <f>AC31*sa-AC$7*AC18*AC$10</f>
-        <v>-0.19775836336424019</v>
+        <f t="shared" si="17"/>
+        <v>-0.27328756950352651</v>
       </c>
       <c r="AE31">
-        <f>AD31*sa-AD$7*AD18*AD$10</f>
-        <v>-0.16936812542298019</v>
+        <f t="shared" si="17"/>
+        <v>-0.23637650698592094</v>
       </c>
       <c r="AF31">
-        <f>AE31*sa-AE$7*AE18*AE$10</f>
-        <v>-0.14417020383327686</v>
+        <f t="shared" si="17"/>
+        <v>-0.20360614707691949</v>
       </c>
       <c r="AG31">
-        <f>AF31*sa-AF$7*AF18*AF$10</f>
-        <v>-0.12207769552748728</v>
+        <f t="shared" si="17"/>
+        <v>-0.17473915918534058</v>
       </c>
       <c r="AH31">
-        <f>AG31*sa-AG$7*AG18*AG$10</f>
-        <v>-0.10289919093208803</v>
+        <f t="shared" si="17"/>
+        <v>-0.14947829749420263</v>
       </c>
       <c r="AI31">
         <f>(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-0.5021656823483438</v>
+        <v>-0.81383039081007091</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3467,11 +3481,11 @@
       </c>
       <c r="G32">
         <f>SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-16.247991347172114</v>
+        <v>-16.996357177698648</v>
       </c>
       <c r="H32">
         <f>Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-6.2740665698796789</v>
+        <v>-6.5630907226637794</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -3480,100 +3494,100 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <f>K32*sa-K$7*K19*K$10</f>
-        <v>-2.5798514904308827E-2</v>
+        <f t="shared" ref="L32:AH32" si="18">K32*sa-K$7*K19*K$10</f>
+        <v>-2.5776562149866865E-2</v>
       </c>
       <c r="M32">
-        <f>L32*sa-L$7*L19*L$10</f>
-        <v>-0.17299522594216774</v>
+        <f t="shared" si="18"/>
+        <v>-0.17146442745920967</v>
       </c>
       <c r="N32">
-        <f>M32*sa-M$7*M19*M$10</f>
-        <v>-0.64860780799316664</v>
+        <f t="shared" si="18"/>
+        <v>-0.62840367100529471</v>
       </c>
       <c r="O32">
-        <f>N32*sa-N$7*N19*N$10</f>
-        <v>-1.0042867044370529</v>
+        <f t="shared" si="18"/>
+        <v>-0.94707058775372066</v>
       </c>
       <c r="P32">
-        <f>O32*sa-O$7*O19*O$10</f>
-        <v>-1.0727708933758111</v>
+        <f t="shared" si="18"/>
+        <v>-0.98330831761341875</v>
       </c>
       <c r="Q32">
-        <f>P32*sa-P$7*P19*P$10</f>
-        <v>-0.9988706050796391</v>
+        <f t="shared" si="18"/>
+        <v>-0.89672510916241599</v>
       </c>
       <c r="R32">
-        <f>Q32*sa-Q$7*Q19*Q$10</f>
-        <v>-0.86496350483654871</v>
+        <f t="shared" si="18"/>
+        <v>-0.77363974832562965</v>
       </c>
       <c r="S32">
-        <f>R32*sa-R$7*R19*R$10</f>
-        <v>-0.71773472437485875</v>
+        <f t="shared" si="18"/>
+        <v>-0.64917285309971251</v>
       </c>
       <c r="T32">
-        <f>S32*sa-S$7*S19*S$10</f>
-        <v>-0.58243073539968104</v>
+        <f t="shared" si="18"/>
+        <v>-0.53656742305101413</v>
       </c>
       <c r="U32">
-        <f>T32*sa-T$7*T19*T$10</f>
-        <v>-0.46713309633244121</v>
+        <f t="shared" si="18"/>
+        <v>-0.4397009357944679</v>
       </c>
       <c r="V32">
-        <f>U32*sa-U$7*U19*U$10</f>
-        <v>-0.37224283938547609</v>
+        <f t="shared" si="18"/>
+        <v>-0.35851919813251165</v>
       </c>
       <c r="W32">
-        <f>V32*sa-V$7*V19*V$10</f>
-        <v>-0.29552653960178332</v>
+        <f t="shared" si="18"/>
+        <v>-0.29145836261344682</v>
       </c>
       <c r="X32">
-        <f>W32*sa-W$7*W19*W$10</f>
-        <v>-0.23410783238570507</v>
+        <f t="shared" si="18"/>
+        <v>-0.23652041618298222</v>
       </c>
       <c r="Y32">
-        <f>X32*sa-X$7*X19*X$10</f>
-        <v>-0.18521156485144874</v>
+        <f t="shared" si="18"/>
+        <v>-0.1917329112366872</v>
       </c>
       <c r="Z32">
-        <f>Y32*sa-Y$7*Y19*Y$10</f>
-        <v>-0.14641270584215801</v>
+        <f t="shared" si="18"/>
+        <v>-0.15532626566567354</v>
       </c>
       <c r="AA32">
-        <f>Z32*sa-Z$7*Z19*Z$10</f>
-        <v>-0.11568649535989865</v>
+        <f t="shared" si="18"/>
+        <v>-0.12578365563440011</v>
       </c>
       <c r="AB32">
-        <f>AA32*sa-AA$7*AA19*AA$10</f>
-        <v>-9.138203880042195E-2</v>
+        <f t="shared" si="18"/>
+        <v>-0.1018360440290399</v>
       </c>
       <c r="AC32">
-        <f>AB32*sa-AB$7*AB19*AB$10</f>
-        <v>-7.2170936990327783E-2</v>
+        <f t="shared" si="18"/>
+        <v>-8.2436072521177461E-2</v>
       </c>
       <c r="AD32">
-        <f>AC32*sa-AC$7*AC19*AC$10</f>
-        <v>-5.6992403648057188E-2</v>
+        <f t="shared" si="18"/>
+        <v>-6.6726144371860321E-2</v>
       </c>
       <c r="AE32">
-        <f>AD32*sa-AD$7*AD19*AD$10</f>
-        <v>-4.5003150970029333E-2</v>
+        <f t="shared" si="18"/>
+        <v>-5.4007314045288718E-2</v>
       </c>
       <c r="AF32">
-        <f>AE32*sa-AE$7*AE19*AE$10</f>
-        <v>-3.5534592132897391E-2</v>
+        <f t="shared" si="18"/>
+        <v>-4.3711522622709054E-2</v>
       </c>
       <c r="AG32">
-        <f>AF32*sa-AF$7*AF19*AF$10</f>
-        <v>-2.8057506226295031E-2</v>
+        <f t="shared" si="18"/>
+        <v>-3.5377859521400747E-2</v>
       </c>
       <c r="AH32">
-        <f>AG32*sa-AG$7*AG19*AG$10</f>
-        <v>-2.2153398651080517E-2</v>
+        <f t="shared" si="18"/>
+        <v>-2.8632728943360622E-2</v>
       </c>
       <c r="AI32">
         <f>(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-8.3118908370411429E-2</v>
+        <v>-0.12153829418246669</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3582,15 +3596,15 @@
       </c>
       <c r="B33" s="1">
         <f>SUMPRODUCT(lz,wa,ma)</f>
-        <v>4.8520909821798455</v>
+        <v>4.8520735804265502</v>
       </c>
       <c r="G33">
         <f>SUMPRODUCT(dlz3_,wa,ma)</f>
-        <v>-45.502669621360624</v>
+        <v>-49.079690885129232</v>
       </c>
       <c r="H33">
         <f>Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-17.570589016921524</v>
+        <v>-18.951970740062599</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -3599,100 +3613,100 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <f>K33*sa-K$7*K20*K$10</f>
-        <v>-3.9039145076927187E-5</v>
+        <f t="shared" ref="L33:AH33" si="19">K33*sa-K$7*K20*K$10</f>
+        <v>-3.9005925460655596E-5</v>
       </c>
       <c r="M33">
-        <f>L33*sa-L$7*L20*L$10</f>
-        <v>-4.385433862544509E-4</v>
+        <f t="shared" si="19"/>
+        <v>-4.3504507509284211E-4</v>
       </c>
       <c r="N33">
-        <f>M33*sa-M$7*M20*M$10</f>
-        <v>-4.4643388655116207E-3</v>
+        <f t="shared" si="19"/>
+        <v>-4.3294816607812731E-3</v>
       </c>
       <c r="O33">
-        <f>N33*sa-N$7*N20*N$10</f>
-        <v>-4.220611978300972E-2</v>
+        <f t="shared" si="19"/>
+        <v>-3.9826306281285272E-2</v>
       </c>
       <c r="P33">
-        <f>O33*sa-O$7*O20*O$10</f>
-        <v>-0.24386026690902671</v>
+        <f t="shared" si="19"/>
+        <v>-0.22381379741513843</v>
       </c>
       <c r="Q33">
-        <f>P33*sa-P$7*P20*P$10</f>
-        <v>-0.51459401682955019</v>
+        <f t="shared" si="19"/>
+        <v>-0.4605060679024921</v>
       </c>
       <c r="R33">
-        <f>Q33*sa-Q$7*Q20*Q$10</f>
-        <v>-0.6901256078196556</v>
+        <f t="shared" si="19"/>
+        <v>-0.61116899720306983</v>
       </c>
       <c r="S33">
-        <f>R33*sa-R$7*R20*R$10</f>
-        <v>-0.7721117413966655</v>
+        <f t="shared" si="19"/>
+        <v>-0.68709212523744978</v>
       </c>
       <c r="T33">
-        <f>S33*sa-S$7*S20*S$10</f>
-        <v>-0.78866268609640999</v>
+        <f t="shared" si="19"/>
+        <v>-0.71139777748137178</v>
       </c>
       <c r="U33">
-        <f>T33*sa-T$7*T20*T$10</f>
-        <v>-0.76372991224870224</v>
+        <f t="shared" si="19"/>
+        <v>-0.70136468878742364</v>
       </c>
       <c r="V33">
-        <f>U33*sa-U$7*U20*U$10</f>
-        <v>-0.71423671146313827</v>
+        <f t="shared" si="19"/>
+        <v>-0.66932583629781939</v>
       </c>
       <c r="W33">
-        <f>V33*sa-V$7*V20*V$10</f>
-        <v>-0.65171144669636194</v>
+        <f t="shared" si="19"/>
+        <v>-0.62405908960798961</v>
       </c>
       <c r="X33">
-        <f>W33*sa-W$7*W20*W$10</f>
-        <v>-0.58386072021024282</v>
+        <f t="shared" si="19"/>
+        <v>-0.57176466246616575</v>
       </c>
       <c r="Y33">
-        <f>X33*sa-X$7*X20*X$10</f>
-        <v>-0.51570336600266997</v>
+        <f t="shared" si="19"/>
+        <v>-0.51675437566886662</v>
       </c>
       <c r="Z33">
-        <f>Y33*sa-Y$7*Y20*Y$10</f>
-        <v>-0.45037496408179617</v>
+        <f t="shared" si="19"/>
+        <v>-0.46195376018443685</v>
       </c>
       <c r="AA33">
-        <f>Z33*sa-Z$7*Z20*Z$10</f>
-        <v>-0.38970325157623287</v>
+        <f t="shared" si="19"/>
+        <v>-0.40927505927583308</v>
       </c>
       <c r="AB33">
-        <f>AA33*sa-AA$7*AA20*AA$10</f>
-        <v>-0.33462122089254687</v>
+        <f t="shared" si="19"/>
+        <v>-0.35989659393432494</v>
       </c>
       <c r="AC33">
-        <f>AB33*sa-AB$7*AB20*AB$10</f>
-        <v>-0.28546309373611078</v>
+        <f t="shared" si="19"/>
+        <v>-0.31447218295943719</v>
       </c>
       <c r="AD33">
-        <f>AC33*sa-AC$7*AC20*AC$10</f>
-        <v>-0.24217501393676327</v>
+        <f t="shared" si="19"/>
+        <v>-0.27328756980712154</v>
       </c>
       <c r="AE33">
-        <f>AD33*sa-AD$7*AD20*AD$10</f>
-        <v>-0.20446351804826174</v>
+        <f t="shared" si="19"/>
+        <v>-0.23637650723162379</v>
       </c>
       <c r="AF33">
-        <f>AE33*sa-AE$7*AE20*AE$10</f>
-        <v>-0.17189871519661573</v>
+        <f t="shared" si="19"/>
+        <v>-0.20360614727577089</v>
       </c>
       <c r="AG33">
-        <f>AF33*sa-AF$7*AF20*AF$10</f>
-        <v>-0.14398467389087116</v>
+        <f t="shared" si="19"/>
+        <v>-0.1747391593462751</v>
       </c>
       <c r="AH33">
-        <f>AG33*sa-AG$7*AG20*AG$10</f>
-        <v>-0.12020624299169998</v>
+        <f t="shared" si="19"/>
+        <v>-0.14947829762445067</v>
       </c>
       <c r="AI33">
         <f>(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-0.5672693645112965</v>
+        <v>-0.8138303913629138</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -3701,11 +3715,11 @@
       </c>
       <c r="B34" s="1">
         <f>f1_*SUMPRODUCT(lz,ta1_)</f>
-        <v>6.7937773263169687E-2</v>
+        <v>6.0995221285221717E-2</v>
       </c>
       <c r="C34" s="10">
         <f>phi_t1/SUM(phi_t1,phi_t2,phi_t3)</f>
-        <v>0.33333010826615006</v>
+        <v>0.25841295705322731</v>
       </c>
       <c r="G34" t="s">
         <v>57</v>
@@ -3718,126 +3732,126 @@
       </c>
       <c r="B35" s="1">
         <f>f2_*SUMPRODUCT(lz,ta2_)</f>
-        <v>6.7937726867299014E-2</v>
+        <v>0.11404733796632423</v>
       </c>
       <c r="C35" s="10">
         <f>phi_t2/SUM(phi_t1,phi_t2,phi_t3)</f>
-        <v>0.33332988062930163</v>
+        <v>0.48317407867273576</v>
       </c>
       <c r="G35" s="1">
         <f>SUM(dqa11_)</f>
-        <v>123.19747723150974</v>
+        <v>137.4084926040556</v>
       </c>
       <c r="H35" s="1">
         <f>SUM(dqa12_)</f>
-        <v>126.3716357612762</v>
+        <v>141.92146068490834</v>
       </c>
       <c r="I35" s="11">
         <f>SUM(dqa13_)</f>
-        <v>122.62844808931212</v>
+        <v>137.40849260405466</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>62</v>
       </c>
       <c r="K35">
         <f>flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>1.9473378773355118E-12</v>
+        <v>7.5991458553258747E-11</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="K35:AI35" si="13">flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>1.8989762763812101E-9</v>
+        <f t="shared" ref="L35:AI35" si="20">flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
+        <v>7.4066112649766338E-8</v>
       </c>
       <c r="M35">
-        <f t="shared" si="13"/>
-        <v>7.5753362445511414E-7</v>
+        <f t="shared" si="20"/>
+        <v>2.9428931251104205E-5</v>
       </c>
       <c r="N35">
-        <f t="shared" si="13"/>
-        <v>1.873629937970735E-4</v>
+        <f t="shared" si="20"/>
+        <v>7.3201566582624319E-3</v>
       </c>
       <c r="O35">
-        <f t="shared" si="13"/>
-        <v>1.3082098159091136E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.50412636455546866</v>
       </c>
       <c r="P35">
-        <f t="shared" si="13"/>
-        <v>7.7402435174200965E-2</v>
+        <f t="shared" si="20"/>
+        <v>2.3960659894751637</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="13"/>
-        <v>0.30962752102368157</v>
+        <f t="shared" si="20"/>
+        <v>3.5630682569194243</v>
       </c>
       <c r="R35">
-        <f t="shared" si="13"/>
-        <v>1.4412469298630965</v>
+        <f t="shared" si="20"/>
+        <v>4.3637973900479512</v>
       </c>
       <c r="S35">
-        <f t="shared" si="13"/>
-        <v>3.3348592879416774</v>
+        <f t="shared" si="20"/>
+        <v>5.0491855067432923</v>
       </c>
       <c r="T35">
-        <f t="shared" si="13"/>
-        <v>4.7570094563371894</v>
+        <f t="shared" si="20"/>
+        <v>5.6454278537903626</v>
       </c>
       <c r="U35">
-        <f t="shared" si="13"/>
-        <v>5.6535798711083398</v>
+        <f t="shared" si="20"/>
+        <v>6.1565569056829492</v>
       </c>
       <c r="V35">
-        <f t="shared" si="13"/>
-        <v>6.2633079592955134</v>
+        <f t="shared" si="20"/>
+        <v>6.5884698005544049</v>
       </c>
       <c r="W35">
-        <f t="shared" si="13"/>
-        <v>6.712912019681017</v>
+        <f t="shared" si="20"/>
+        <v>6.9492958745598514</v>
       </c>
       <c r="X35">
-        <f t="shared" si="13"/>
-        <v>7.0598232796408178</v>
+        <f t="shared" si="20"/>
+        <v>7.2480526662468492</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="13"/>
-        <v>7.3333183778832263</v>
+        <f t="shared" si="20"/>
+        <v>7.4936861067749199</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="13"/>
-        <v>7.5509867654263472</v>
+        <f t="shared" si="20"/>
+        <v>7.6945234758923098</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="13"/>
-        <v>7.7248843317826008</v>
+        <f t="shared" si="20"/>
+        <v>7.8580094232575695</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="13"/>
-        <v>7.863977130778987</v>
+        <f t="shared" si="20"/>
+        <v>7.9906192237875393</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="13"/>
-        <v>7.9752292825929354</v>
+        <f t="shared" si="20"/>
+        <v>8.0978759257291291</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="13"/>
-        <v>8.0641645523898671</v>
+        <f t="shared" si="20"/>
+        <v>8.18442319511378</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="13"/>
-        <v>8.1352048562945498</v>
+        <f t="shared" si="20"/>
+        <v>8.254123462604646</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="13"/>
-        <v>8.1919022531319712</v>
+        <f t="shared" si="20"/>
+        <v>8.3101630606320711</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="13"/>
-        <v>8.2371120814317536</v>
+        <f t="shared" si="20"/>
+        <v>8.3551539683607459</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="13"/>
-        <v>8.273128457581107</v>
+        <f t="shared" si="20"/>
+        <v>8.3912268209169678</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="13"/>
-        <v>8.2245301615634077</v>
+        <f t="shared" si="20"/>
+        <v>8.3072916726785966</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -3846,126 +3860,126 @@
       </c>
       <c r="B36" s="1">
         <f>f3_*SUMPRODUCT(lz,ta3_)</f>
-        <v>6.7939791613066916E-2</v>
+        <v>6.0995222989605608E-2</v>
       </c>
       <c r="C36" s="10">
         <f>phi_t3/SUM(phi_t1,phi_t2,phi_t3)</f>
-        <v>0.33334001110454831</v>
+        <v>0.25841296427403693</v>
       </c>
       <c r="G36" s="1">
         <f>SUM(dqa21_)</f>
-        <v>126.3716357612762</v>
+        <v>141.92146068490834</v>
       </c>
       <c r="H36" s="1">
         <f>SUM(dqa22_)</f>
-        <v>2.9621234626507031</v>
+        <v>2.9730494024317755</v>
       </c>
       <c r="I36" s="11">
         <f>SUM(dqa23_)</f>
-        <v>125.81771941796431</v>
+        <v>141.92146068486642</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K36">
-        <f t="shared" ref="K36:AI36" si="14">flt2_*qa2_+lz*wa*flt2_^2/za*(sa-oa/za)</f>
-        <v>3.3219275925296563E-5</v>
+        <f t="shared" ref="K36:AI36" si="21">flt2_*qa2_+lz*wa*flt2_^2/za*(sa-oa/za)</f>
+        <v>3.3210086412017938E-5</v>
       </c>
       <c r="L36">
-        <f t="shared" si="14"/>
-        <v>1.0326342972041557E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.031067578412727E-2</v>
       </c>
       <c r="M36">
-        <f t="shared" si="14"/>
-        <v>0.44912309177420762</v>
+        <f t="shared" si="21"/>
+        <v>0.44666724568426142</v>
       </c>
       <c r="N36">
-        <f t="shared" si="14"/>
-        <v>1.0858943392328331</v>
+        <f t="shared" si="21"/>
+        <v>1.0869559022189095</v>
       </c>
       <c r="O36">
-        <f t="shared" si="14"/>
-        <v>0.72773204893726406</v>
+        <f t="shared" si="21"/>
+        <v>0.7323402385867368</v>
       </c>
       <c r="P36">
-        <f t="shared" si="14"/>
-        <v>0.37655137542503103</v>
+        <f t="shared" si="21"/>
+        <v>0.37950269363964428</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="14"/>
-        <v>0.17771459305307732</v>
+        <f t="shared" si="21"/>
+        <v>0.17989472351343327</v>
       </c>
       <c r="R36">
-        <f t="shared" si="14"/>
-        <v>7.8611758744981081E-2</v>
+        <f t="shared" si="21"/>
+        <v>8.0069973139530112E-2</v>
       </c>
       <c r="S36">
-        <f t="shared" si="14"/>
-        <v>3.3337477489825761E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.4049896676572079E-2</v>
       </c>
       <c r="T36">
-        <f t="shared" si="14"/>
-        <v>1.3729365279871902E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.4004983896324381E-2</v>
       </c>
       <c r="U36">
-        <f t="shared" si="14"/>
-        <v>5.5210898017048629E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.6188563835489098E-3</v>
       </c>
       <c r="V36">
-        <f t="shared" si="14"/>
-        <v>2.1782510899764364E-3</v>
+        <f t="shared" si="21"/>
+        <v>2.2121857167051741E-3</v>
       </c>
       <c r="W36">
-        <f t="shared" si="14"/>
-        <v>8.4661839856718288E-4</v>
+        <f t="shared" si="21"/>
+        <v>8.5843030277643595E-4</v>
       </c>
       <c r="X36">
-        <f t="shared" si="14"/>
-        <v>3.252315744536339E-4</v>
+        <f t="shared" si="21"/>
+        <v>3.2939181920639478E-4</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="14"/>
-        <v>1.2380343048410994E-4</v>
+        <f t="shared" si="21"/>
+        <v>1.2528936227013192E-4</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="14"/>
-        <v>4.6791362842376777E-5</v>
+        <f t="shared" si="21"/>
+        <v>4.7329036448110664E-5</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="14"/>
-        <v>1.7585586754953108E-5</v>
+        <f t="shared" si="21"/>
+        <v>1.7782209068844278E-5</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="14"/>
-        <v>6.5799697176928448E-6</v>
+        <f t="shared" si="21"/>
+        <v>6.6524379948985889E-6</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="14"/>
-        <v>2.45341736819546E-6</v>
+        <f t="shared" si="21"/>
+        <v>2.4802688028012363E-6</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="14"/>
-        <v>9.1225637883498251E-7</v>
+        <f t="shared" si="21"/>
+        <v>9.2223785082610458E-7</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="14"/>
-        <v>3.384621212213062E-7</v>
+        <f t="shared" si="21"/>
+        <v>3.4217876827308521E-7</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="14"/>
-        <v>1.2535680817904542E-7</v>
+        <f t="shared" si="21"/>
+        <v>1.2674150981331357E-7</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="14"/>
-        <v>4.6364562793555851E-8</v>
+        <f t="shared" si="21"/>
+        <v>4.6880368971055735E-8</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="14"/>
-        <v>1.7129632884462202E-8</v>
+        <f t="shared" si="21"/>
+        <v>1.7321649920367821E-8</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="14"/>
-        <v>6.2642703072888087E-9</v>
+        <f t="shared" si="21"/>
+        <v>6.308854163722762E-9</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -3974,122 +3988,122 @@
       </c>
       <c r="B37" s="1">
         <f>SUMPRODUCT(lz,qa1_)</f>
-        <v>8.4370892275734519</v>
+        <v>11.403971758770538</v>
       </c>
       <c r="G37" s="1">
         <f>SUM(dqa31_)</f>
-        <v>122.62844808931212</v>
+        <v>137.40849260405466</v>
       </c>
       <c r="H37" s="1">
         <f>SUM(dqa32_)</f>
-        <v>125.81771941796431</v>
+        <v>141.92146068486642</v>
       </c>
       <c r="I37" s="1">
         <f>SUM(dqa33_)</f>
-        <v>135.70135732748759</v>
+        <v>137.40849260406148</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K37">
-        <f t="shared" ref="K37:AI37" si="15">flt3_*qa3_+lz*wa*flt3_^2/za*(sa-oa/za)</f>
-        <v>7.6067885820944087E-11</v>
+        <f t="shared" ref="K37:AI37" si="22">flt3_*qa3_+lz*wa*flt3_^2/za*(sa-oa/za)</f>
+        <v>7.6046843012894936E-11</v>
       </c>
       <c r="L37">
-        <f t="shared" si="15"/>
-        <v>7.4178754023117143E-8</v>
+        <f t="shared" si="22"/>
+        <v>7.406620958394106E-8</v>
       </c>
       <c r="M37">
-        <f t="shared" si="15"/>
-        <v>2.9590736347612658E-5</v>
+        <f t="shared" si="22"/>
+        <v>2.9428931498365567E-5</v>
       </c>
       <c r="N37">
-        <f t="shared" si="15"/>
-        <v>7.3130075125066923E-3</v>
+        <f t="shared" si="22"/>
+        <v>7.3201566593543094E-3</v>
       </c>
       <c r="O37">
-        <f t="shared" si="15"/>
-        <v>0.5009541916082807</v>
+        <f t="shared" si="22"/>
+        <v>0.50412636455847637</v>
       </c>
       <c r="P37">
-        <f t="shared" si="15"/>
-        <v>2.3774322529661505</v>
+        <f t="shared" si="22"/>
+        <v>2.3960659894762575</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="15"/>
-        <v>3.5198877039410581</v>
+        <f t="shared" si="22"/>
+        <v>3.5630682569196335</v>
       </c>
       <c r="R37">
-        <f t="shared" si="15"/>
-        <v>4.2843249995930339</v>
+        <f t="shared" si="22"/>
+        <v>4.3637973900480027</v>
       </c>
       <c r="S37">
-        <f t="shared" si="15"/>
-        <v>4.9435424069532177</v>
+        <f t="shared" si="22"/>
+        <v>5.0491855067433082</v>
       </c>
       <c r="T37">
-        <f t="shared" si="15"/>
-        <v>5.5343256186244734</v>
+        <f t="shared" si="22"/>
+        <v>5.6454278537903679</v>
       </c>
       <c r="U37">
-        <f t="shared" si="15"/>
-        <v>6.049434480137557</v>
+        <f t="shared" si="22"/>
+        <v>6.1565569056829519</v>
       </c>
       <c r="V37">
-        <f t="shared" si="15"/>
-        <v>6.4874035737421449</v>
+        <f t="shared" si="22"/>
+        <v>6.5884698005544067</v>
       </c>
       <c r="W37">
-        <f t="shared" si="15"/>
-        <v>6.8536743466075283</v>
+        <f t="shared" si="22"/>
+        <v>6.9492958745598514</v>
       </c>
       <c r="X37">
-        <f t="shared" si="15"/>
-        <v>7.1565091872826869</v>
+        <f t="shared" si="22"/>
+        <v>7.2480526662468492</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="15"/>
-        <v>7.4048109925691339</v>
+        <f t="shared" si="22"/>
+        <v>7.4936861067749199</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="15"/>
-        <v>7.6071111283744637</v>
+        <f t="shared" si="22"/>
+        <v>7.6945234758923098</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="15"/>
-        <v>7.7711214562227786</v>
+        <f t="shared" si="22"/>
+        <v>7.8580094232575695</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="15"/>
-        <v>7.9035734806481015</v>
+        <f t="shared" si="22"/>
+        <v>7.9906192237875393</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="15"/>
-        <v>8.0102081755159951</v>
+        <f t="shared" si="22"/>
+        <v>8.0978759257291291</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="15"/>
-        <v>8.095842368798376</v>
+        <f t="shared" si="22"/>
+        <v>8.18442319511378</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="15"/>
-        <v>8.1644695551248372</v>
+        <f t="shared" si="22"/>
+        <v>8.254123462604646</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="15"/>
-        <v>8.2193712088698376</v>
+        <f t="shared" si="22"/>
+        <v>8.3101630606320711</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="15"/>
-        <v>8.2632255103423429</v>
+        <f t="shared" si="22"/>
+        <v>8.3551539683607459</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="15"/>
-        <v>8.2982069002297614</v>
+        <f t="shared" si="22"/>
+        <v>8.3912268209169678</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="15"/>
-        <v>8.2485851168321513</v>
+        <f t="shared" si="22"/>
+        <v>8.3072916726785966</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4098,7 +4112,7 @@
       </c>
       <c r="B38" s="1">
         <f>SUMPRODUCT(lz,qa2_)</f>
-        <v>3.794061162208926</v>
+        <v>3.5484911859250294</v>
       </c>
       <c r="G38" t="s">
         <v>69</v>
@@ -4107,104 +4121,104 @@
         <v>60</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:AI38" si="16">flt1_*qa1_+lz*wa*flt2_*flt1_/za*(sa-oa/za)</f>
-        <v>-7.6440937560323037E-9</v>
+        <f t="shared" ref="K38:AI38" si="23">flt1_*qa1_+lz*wa*flt2_*flt1_/za*(sa-oa/za)</f>
+        <v>-4.7606926709027299E-8</v>
       </c>
       <c r="L38">
-        <f t="shared" si="16"/>
-        <v>-3.1846642305766726E-6</v>
+        <f t="shared" si="23"/>
+        <v>-1.9703841193112173E-5</v>
       </c>
       <c r="M38">
-        <f t="shared" si="16"/>
-        <v>-3.2134562869033412E-4</v>
+        <f t="shared" si="23"/>
+        <v>-1.9262022199289192E-3</v>
       </c>
       <c r="N38">
-        <f t="shared" si="16"/>
-        <v>-5.7519040482935423E-3</v>
+        <f t="shared" si="23"/>
+        <v>-2.5561847199012975E-2</v>
       </c>
       <c r="O38">
-        <f t="shared" si="16"/>
-        <v>-1.4443822312497637E-2</v>
+        <f t="shared" si="23"/>
+        <v>0.47307835373947793</v>
       </c>
       <c r="P38">
-        <f t="shared" si="16"/>
-        <v>5.3735619322940124E-2</v>
+        <f t="shared" si="23"/>
+        <v>2.7230361087979573</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="16"/>
-        <v>0.32447512244606885</v>
+        <f t="shared" si="23"/>
+        <v>4.0383310001771173</v>
       </c>
       <c r="R38">
-        <f t="shared" si="16"/>
-        <v>1.6123518536485406</v>
+        <f t="shared" si="23"/>
+        <v>4.8647696507974993</v>
       </c>
       <c r="S38">
-        <f t="shared" si="16"/>
-        <v>3.6967112462173475</v>
+        <f t="shared" si="23"/>
+        <v>5.5305286826307247</v>
       </c>
       <c r="T38">
-        <f t="shared" si="16"/>
-        <v>5.1775462164450623</v>
+        <f t="shared" si="23"/>
+        <v>6.0851584911777588</v>
       </c>
       <c r="U38">
-        <f t="shared" si="16"/>
-        <v>6.0505269283860939</v>
+        <f t="shared" si="23"/>
+        <v>6.5452963793789767</v>
       </c>
       <c r="V38">
-        <f t="shared" si="16"/>
-        <v>6.6099372089612851</v>
+        <f t="shared" si="23"/>
+        <v>6.9244436727479801</v>
       </c>
       <c r="W38">
-        <f t="shared" si="16"/>
-        <v>7.0050338938459422</v>
+        <f t="shared" si="23"/>
+        <v>7.2350325928987802</v>
       </c>
       <c r="X38">
-        <f t="shared" si="16"/>
-        <v>7.3012521144571432</v>
+        <f t="shared" si="23"/>
+        <v>7.4882362397597193</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="16"/>
-        <v>7.5304327267266986</v>
+        <f t="shared" si="23"/>
+        <v>7.6938353507511783</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="16"/>
-        <v>7.7105944684955965</v>
+        <f t="shared" si="23"/>
+        <v>7.8602271324102384</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="16"/>
-        <v>7.8533606047163556</v>
+        <f t="shared" si="23"/>
+        <v>7.9945162251867012</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="16"/>
-        <v>7.966944122930804</v>
+        <f t="shared" si="23"/>
+        <v>8.102645350179321</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="16"/>
-        <v>8.0574809745440437</v>
+        <f t="shared" si="23"/>
+        <v>8.1895402597731035</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="16"/>
-        <v>8.1297033415993631</v>
+        <f t="shared" si="23"/>
+        <v>8.2592539791355222</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="16"/>
-        <v>8.1873250873606978</v>
+        <f t="shared" si="23"/>
+        <v>8.3151018005728083</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="16"/>
-        <v>8.2332884103242829</v>
+        <f t="shared" si="23"/>
+        <v>8.3597826867947767</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="16"/>
-        <v>8.2699357569629672</v>
+        <f t="shared" si="23"/>
+        <v>8.395485440749658</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="16"/>
-        <v>8.2991367988332474</v>
+        <f t="shared" si="23"/>
+        <v>8.4239796696328746</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="16"/>
-        <v>8.3223835293495423</v>
+        <f t="shared" si="23"/>
+        <v>8.4466894184832295</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4213,239 +4227,239 @@
       </c>
       <c r="B39" s="1">
         <f>SUMPRODUCT(lz,qa3_)</f>
-        <v>12.143531392176159</v>
+        <v>11.403971760118671</v>
       </c>
       <c r="G39" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
-        <v>102.12243638206041</v>
+        <v>104.65857013892038</v>
       </c>
       <c r="H39" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
-        <v>106.34487593082083</v>
+        <v>109.99756890612824</v>
       </c>
       <c r="I39" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
-        <v>99.680039646617274</v>
+        <v>104.65857012830291</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K39">
-        <f t="shared" ref="K39:AI39" si="17">flt1_*qa1_+lz*wa*flt3_*flt1_/za*(sa-oa/za)</f>
-        <v>-7.7740141219676842E-12</v>
+        <f t="shared" ref="K39:AI39" si="24">flt1_*qa1_+lz*wa*flt3_*flt1_/za*(sa-oa/za)</f>
+        <v>7.5965138807048583E-11</v>
       </c>
       <c r="L39">
-        <f t="shared" si="17"/>
-        <v>-5.2782161980610841E-9</v>
+        <f t="shared" si="24"/>
+        <v>7.4066077868985193E-8</v>
       </c>
       <c r="M39">
-        <f t="shared" si="17"/>
-        <v>-1.4415071252459254E-6</v>
+        <f t="shared" si="24"/>
+        <v>2.9428931183872598E-5</v>
       </c>
       <c r="N39">
-        <f t="shared" si="17"/>
-        <v>-2.2747232285455743E-4</v>
+        <f t="shared" si="24"/>
+        <v>7.3201566580431889E-3</v>
       </c>
       <c r="O39">
-        <f t="shared" si="17"/>
-        <v>-9.0298606087405413E-3</v>
+        <f t="shared" si="24"/>
+        <v>0.50412636455501747</v>
       </c>
       <c r="P39">
-        <f t="shared" si="17"/>
-        <v>-1.1759910288461045E-2</v>
+        <f t="shared" si="24"/>
+        <v>2.3960659894750398</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="17"/>
-        <v>0.16435517243316333</v>
+        <f t="shared" si="24"/>
+        <v>3.5630682569194061</v>
       </c>
       <c r="R39">
-        <f t="shared" si="17"/>
-        <v>1.279588499922371</v>
+        <f t="shared" si="24"/>
+        <v>4.3637973900479485</v>
       </c>
       <c r="S39">
-        <f t="shared" si="17"/>
-        <v>3.2474004957349685</v>
+        <f t="shared" si="24"/>
+        <v>5.0491855067432914</v>
       </c>
       <c r="T39">
-        <f t="shared" si="17"/>
-        <v>4.7220732481995791</v>
+        <f t="shared" si="24"/>
+        <v>5.6454278537903626</v>
       </c>
       <c r="U39">
-        <f t="shared" si="17"/>
-        <v>5.6394774687236611</v>
+        <f t="shared" si="24"/>
+        <v>6.1565569056829492</v>
       </c>
       <c r="V39">
-        <f t="shared" si="17"/>
-        <v>6.2570446074548949</v>
+        <f t="shared" si="24"/>
+        <v>6.5884698005544049</v>
       </c>
       <c r="W39">
-        <f t="shared" si="17"/>
-        <v>6.7098305676637722</v>
+        <f t="shared" si="24"/>
+        <v>6.9492958745598514</v>
       </c>
       <c r="X39">
-        <f t="shared" si="17"/>
-        <v>7.0581644305404057</v>
+        <f t="shared" si="24"/>
+        <v>7.2480526662468492</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="17"/>
-        <v>7.332355918619065</v>
+        <f t="shared" si="24"/>
+        <v>7.4936861067749199</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="17"/>
-        <v>7.5503932264317584</v>
+        <f t="shared" si="24"/>
+        <v>7.6945234758923098</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="17"/>
-        <v>7.7244998293307319</v>
+        <f t="shared" si="24"/>
+        <v>7.8580094232575695</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="17"/>
-        <v>7.8637179918089997</v>
+        <f t="shared" si="24"/>
+        <v>7.9906192237875393</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="17"/>
-        <v>7.975049004375018</v>
+        <f t="shared" si="24"/>
+        <v>8.0978759257291291</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="17"/>
-        <v>8.064035909882735</v>
+        <f t="shared" si="24"/>
+        <v>8.18442319511378</v>
       </c>
       <c r="AE39">
-        <f t="shared" si="17"/>
-        <v>8.1351111755248908</v>
+        <f t="shared" si="24"/>
+        <v>8.254123462604646</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="17"/>
-        <v>8.1918329149242162</v>
+        <f t="shared" si="24"/>
+        <v>8.3101630606320711</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="17"/>
-        <v>8.2370600896222665</v>
+        <f t="shared" si="24"/>
+        <v>8.3551539683607459</v>
       </c>
       <c r="AH39">
-        <f t="shared" si="17"/>
-        <v>8.2730890659041147</v>
+        <f t="shared" si="24"/>
+        <v>8.3912268209169678</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="17"/>
-        <v>8.2243871622286662</v>
+        <f t="shared" si="24"/>
+        <v>8.3072916726785966</v>
       </c>
     </row>
     <row r="40" spans="1:35">
       <c r="G40" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
-        <v>106.34487593082083</v>
+        <v>109.99756890612824</v>
       </c>
       <c r="H40" s="1">
         <f>re*phi_q2+f2_*phi_q2*$H32+f2_*re*H36</f>
-        <v>26.910943586427127</v>
+        <v>25.124605857598642</v>
       </c>
       <c r="I40" s="1">
         <f>re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
-        <v>108.12561369114297</v>
+        <v>105.64780902756542</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>65</v>
       </c>
       <c r="K40">
-        <f t="shared" ref="K40:AI40" si="18">flt1_*qa1_+lz*wa*flt1_*flt2_/za*(sa-oa/za)</f>
-        <v>-7.6440937560323037E-9</v>
+        <f t="shared" ref="K40:AI40" si="25">flt1_*qa1_+lz*wa*flt1_*flt2_/za*(sa-oa/za)</f>
+        <v>-4.7606926709027292E-8</v>
       </c>
       <c r="L40">
-        <f t="shared" si="18"/>
-        <v>-3.184664230576673E-6</v>
+        <f t="shared" si="25"/>
+        <v>-1.9703841193112177E-5</v>
       </c>
       <c r="M40">
-        <f t="shared" si="18"/>
-        <v>-3.2134562869033412E-4</v>
+        <f t="shared" si="25"/>
+        <v>-1.9262022199289187E-3</v>
       </c>
       <c r="N40">
-        <f t="shared" si="18"/>
-        <v>-5.7519040482935423E-3</v>
+        <f t="shared" si="25"/>
+        <v>-2.5561847199012975E-2</v>
       </c>
       <c r="O40">
-        <f t="shared" si="18"/>
-        <v>-1.4443822312497637E-2</v>
+        <f t="shared" si="25"/>
+        <v>0.47307835373947793</v>
       </c>
       <c r="P40">
-        <f t="shared" si="18"/>
-        <v>5.3735619322940124E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.7230361087979573</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="18"/>
-        <v>0.32447512244606885</v>
+        <f t="shared" si="25"/>
+        <v>4.0383310001771173</v>
       </c>
       <c r="R40">
-        <f t="shared" si="18"/>
-        <v>1.6123518536485406</v>
+        <f t="shared" si="25"/>
+        <v>4.8647696507974993</v>
       </c>
       <c r="S40">
-        <f t="shared" si="18"/>
-        <v>3.6967112462173475</v>
+        <f t="shared" si="25"/>
+        <v>5.5305286826307247</v>
       </c>
       <c r="T40">
-        <f t="shared" si="18"/>
-        <v>5.1775462164450623</v>
+        <f t="shared" si="25"/>
+        <v>6.0851584911777588</v>
       </c>
       <c r="U40">
-        <f t="shared" si="18"/>
-        <v>6.0505269283860939</v>
+        <f t="shared" si="25"/>
+        <v>6.5452963793789767</v>
       </c>
       <c r="V40">
-        <f t="shared" si="18"/>
-        <v>6.6099372089612851</v>
+        <f t="shared" si="25"/>
+        <v>6.9244436727479801</v>
       </c>
       <c r="W40">
-        <f t="shared" si="18"/>
-        <v>7.0050338938459422</v>
+        <f t="shared" si="25"/>
+        <v>7.2350325928987802</v>
       </c>
       <c r="X40">
-        <f t="shared" si="18"/>
-        <v>7.3012521144571432</v>
+        <f t="shared" si="25"/>
+        <v>7.4882362397597193</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="18"/>
-        <v>7.5304327267266986</v>
+        <f t="shared" si="25"/>
+        <v>7.6938353507511783</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="18"/>
-        <v>7.7105944684955965</v>
+        <f t="shared" si="25"/>
+        <v>7.8602271324102384</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="18"/>
-        <v>7.8533606047163556</v>
+        <f t="shared" si="25"/>
+        <v>7.9945162251867012</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="18"/>
-        <v>7.966944122930804</v>
+        <f t="shared" si="25"/>
+        <v>8.102645350179321</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="18"/>
-        <v>8.0574809745440437</v>
+        <f t="shared" si="25"/>
+        <v>8.1895402597731035</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="18"/>
-        <v>8.1297033415993631</v>
+        <f t="shared" si="25"/>
+        <v>8.2592539791355222</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="18"/>
-        <v>8.1873250873606978</v>
+        <f t="shared" si="25"/>
+        <v>8.3151018005728083</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="18"/>
-        <v>8.2332884103242829</v>
+        <f t="shared" si="25"/>
+        <v>8.3597826867947767</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="18"/>
-        <v>8.2699357569629672</v>
+        <f t="shared" si="25"/>
+        <v>8.395485440749658</v>
       </c>
       <c r="AH40">
-        <f t="shared" si="18"/>
-        <v>8.2991367988332474</v>
+        <f t="shared" si="25"/>
+        <v>8.4239796696328746</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="18"/>
-        <v>8.3223835293495423</v>
+        <f t="shared" si="25"/>
+        <v>8.4466894184832295</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -4456,118 +4470,118 @@
       <c r="C41" s="16"/>
       <c r="G41" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
-        <v>99.680039646617274</v>
+        <v>104.65857012830291</v>
       </c>
       <c r="H41" s="1">
         <f>re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>108.12561369114297</v>
+        <v>105.64780902756542</v>
       </c>
       <c r="I41" s="1">
         <f>re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>105.47439687651371</v>
+        <v>104.65857074079418</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
       </c>
       <c r="K41">
-        <f t="shared" ref="K41:AI41" si="19">flt1_*qa1_+lz*wa*flt3_*flt2_/za*(sa-oa/za)</f>
-        <v>-4.7795530847138868E-8</v>
+        <f t="shared" ref="K41:AI41" si="26">flt1_*qa1_+lz*wa*flt3_*flt2_/za*(sa-oa/za)</f>
+        <v>-4.7624326110532381E-8</v>
       </c>
       <c r="L41">
-        <f t="shared" si="19"/>
-        <v>-1.9921297349795791E-5</v>
+        <f t="shared" si="26"/>
+        <v>-1.9703854170076816E-5</v>
       </c>
       <c r="M41">
-        <f t="shared" si="19"/>
-        <v>-2.0145719556534272E-3</v>
+        <f t="shared" si="26"/>
+        <v>-1.9262022282117393E-3</v>
       </c>
       <c r="N41">
-        <f t="shared" si="19"/>
-        <v>-3.7333029189299843E-2</v>
+        <f t="shared" si="26"/>
+        <v>-2.5561847201684567E-2</v>
       </c>
       <c r="O41">
-        <f t="shared" si="19"/>
-        <v>-0.17936417878854485</v>
+        <f t="shared" si="26"/>
+        <v>0.47307835373893414</v>
       </c>
       <c r="P41">
-        <f t="shared" si="19"/>
-        <v>-0.14292449680722916</v>
+        <f t="shared" si="26"/>
+        <v>2.723036108797908</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="19"/>
-        <v>0.21441633452637915</v>
+        <f t="shared" si="26"/>
+        <v>4.0383310001771138</v>
       </c>
       <c r="R41">
-        <f t="shared" si="19"/>
-        <v>1.5745969892076195</v>
+        <f t="shared" si="26"/>
+        <v>4.8647696507974985</v>
       </c>
       <c r="S41">
-        <f t="shared" si="19"/>
-        <v>3.6879668246587305</v>
+        <f t="shared" si="26"/>
+        <v>5.5305286826307247</v>
       </c>
       <c r="T41">
-        <f t="shared" si="19"/>
-        <v>5.175669347325413</v>
+        <f t="shared" si="26"/>
+        <v>6.0851584911777588</v>
       </c>
       <c r="U41">
-        <f t="shared" si="19"/>
-        <v>6.0500862276846226</v>
+        <f t="shared" si="26"/>
+        <v>6.5452963793789767</v>
       </c>
       <c r="V41">
-        <f t="shared" si="19"/>
-        <v>6.6098204046439033</v>
+        <f t="shared" si="26"/>
+        <v>6.9244436727479801</v>
       </c>
       <c r="W41">
-        <f t="shared" si="19"/>
-        <v>7.0049992884531598</v>
+        <f t="shared" si="26"/>
+        <v>7.2350325928987802</v>
       </c>
       <c r="X41">
-        <f t="shared" si="19"/>
-        <v>7.3012408552886763</v>
+        <f t="shared" si="26"/>
+        <v>7.4882362397597193</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="19"/>
-        <v>7.530428772164357</v>
+        <f t="shared" si="26"/>
+        <v>7.6938353507511783</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="19"/>
-        <v>7.710592990986207</v>
+        <f t="shared" si="26"/>
+        <v>7.8602271324102384</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="19"/>
-        <v>7.8533600245780359</v>
+        <f t="shared" si="26"/>
+        <v>7.9945162251867012</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="19"/>
-        <v>7.9669438858897585</v>
+        <f t="shared" si="26"/>
+        <v>8.102645350179321</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="19"/>
-        <v>8.0574808745538551</v>
+        <f t="shared" si="26"/>
+        <v>8.1895402597731035</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="19"/>
-        <v>8.1297032983317195</v>
+        <f t="shared" si="26"/>
+        <v>8.2592539791355222</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="19"/>
-        <v>8.1873250682524326</v>
+        <f t="shared" si="26"/>
+        <v>8.3151018005728083</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="19"/>
-        <v>8.2332884017469112</v>
+        <f t="shared" si="26"/>
+        <v>8.3597826867947767</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="19"/>
-        <v>8.2699357530622866</v>
+        <f t="shared" si="26"/>
+        <v>8.395485440749658</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="19"/>
-        <v>8.299136797040811</v>
+        <f t="shared" si="26"/>
+        <v>8.4239796696328746</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="19"/>
-        <v>8.3223835254030281</v>
+        <f t="shared" si="26"/>
+        <v>8.4466894184832295</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -4576,110 +4590,110 @@
       </c>
       <c r="B42" s="1">
         <f>phif/phie</f>
-        <v>0.39999998979865592</v>
+        <v>0.39999855522103445</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
       </c>
       <c r="K42">
-        <f t="shared" ref="K42:AI42" si="20">flt1_*qa1_+lz*wa*flt1_*flt3_/za*(sa-oa/za)</f>
-        <v>-7.7740141219676842E-12</v>
+        <f t="shared" ref="K42:AI42" si="27">flt1_*qa1_+lz*wa*flt1_*flt3_/za*(sa-oa/za)</f>
+        <v>7.5965138807048583E-11</v>
       </c>
       <c r="L42">
-        <f t="shared" si="20"/>
-        <v>-5.2782161980610858E-9</v>
+        <f t="shared" si="27"/>
+        <v>7.4066077868985193E-8</v>
       </c>
       <c r="M42">
-        <f t="shared" si="20"/>
-        <v>-1.4415071252459254E-6</v>
+        <f t="shared" si="27"/>
+        <v>2.9428931183872598E-5</v>
       </c>
       <c r="N42">
-        <f t="shared" si="20"/>
-        <v>-2.2747232285455743E-4</v>
+        <f t="shared" si="27"/>
+        <v>7.3201566580431889E-3</v>
       </c>
       <c r="O42">
-        <f t="shared" si="20"/>
-        <v>-9.0298606087405413E-3</v>
+        <f t="shared" si="27"/>
+        <v>0.50412636455501747</v>
       </c>
       <c r="P42">
-        <f t="shared" si="20"/>
-        <v>-1.1759910288461045E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.3960659894750398</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="20"/>
-        <v>0.16435517243316339</v>
+        <f t="shared" si="27"/>
+        <v>3.5630682569194061</v>
       </c>
       <c r="R42">
-        <f t="shared" si="20"/>
-        <v>1.279588499922371</v>
+        <f t="shared" si="27"/>
+        <v>4.3637973900479485</v>
       </c>
       <c r="S42">
-        <f t="shared" si="20"/>
-        <v>3.2474004957349685</v>
+        <f t="shared" si="27"/>
+        <v>5.0491855067432914</v>
       </c>
       <c r="T42">
-        <f t="shared" si="20"/>
-        <v>4.7220732481995782</v>
+        <f t="shared" si="27"/>
+        <v>5.6454278537903626</v>
       </c>
       <c r="U42">
-        <f t="shared" si="20"/>
-        <v>5.6394774687236611</v>
+        <f t="shared" si="27"/>
+        <v>6.1565569056829492</v>
       </c>
       <c r="V42">
-        <f t="shared" si="20"/>
-        <v>6.2570446074548949</v>
+        <f t="shared" si="27"/>
+        <v>6.5884698005544049</v>
       </c>
       <c r="W42">
-        <f t="shared" si="20"/>
-        <v>6.7098305676637722</v>
+        <f t="shared" si="27"/>
+        <v>6.9492958745598514</v>
       </c>
       <c r="X42">
-        <f t="shared" si="20"/>
-        <v>7.0581644305404057</v>
+        <f t="shared" si="27"/>
+        <v>7.2480526662468492</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="20"/>
-        <v>7.332355918619065</v>
+        <f t="shared" si="27"/>
+        <v>7.4936861067749199</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="20"/>
-        <v>7.5503932264317584</v>
+        <f t="shared" si="27"/>
+        <v>7.6945234758923098</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="20"/>
-        <v>7.7244998293307319</v>
+        <f t="shared" si="27"/>
+        <v>7.8580094232575695</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="20"/>
-        <v>7.8637179918089997</v>
+        <f t="shared" si="27"/>
+        <v>7.9906192237875393</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="20"/>
-        <v>7.975049004375018</v>
+        <f t="shared" si="27"/>
+        <v>8.0978759257291291</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="20"/>
-        <v>8.064035909882735</v>
+        <f t="shared" si="27"/>
+        <v>8.18442319511378</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="20"/>
-        <v>8.1351111755248908</v>
+        <f t="shared" si="27"/>
+        <v>8.254123462604646</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="20"/>
-        <v>8.1918329149242162</v>
+        <f t="shared" si="27"/>
+        <v>8.3101630606320711</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="20"/>
-        <v>8.2370600896222665</v>
+        <f t="shared" si="27"/>
+        <v>8.3551539683607459</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="20"/>
-        <v>8.2730890659041147</v>
+        <f t="shared" si="27"/>
+        <v>8.3912268209169678</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="20"/>
-        <v>8.2243871622286662</v>
+        <f t="shared" si="27"/>
+        <v>8.3072916726785966</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -4688,110 +4702,110 @@
       </c>
       <c r="B43" s="11">
         <f>MAX(0,Ro*(reck-1/spr)/(reck-1))</f>
-        <v>7.1197043830082487</v>
+        <v>7.1196976633991707</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>61</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43:AI43" si="21">flt1_*qa1_+lz*wa*flt2_*flt3_/za*(sa-oa/za)</f>
-        <v>-4.7795530847138868E-8</v>
+        <f t="shared" ref="K43:AI43" si="28">flt1_*qa1_+lz*wa*flt2_*flt3_/za*(sa-oa/za)</f>
+        <v>-4.7624326110532381E-8</v>
       </c>
       <c r="L43">
-        <f t="shared" si="21"/>
-        <v>-1.9921297349795788E-5</v>
+        <f t="shared" si="28"/>
+        <v>-1.9703854170076816E-5</v>
       </c>
       <c r="M43">
-        <f t="shared" si="21"/>
-        <v>-2.0145719556534276E-3</v>
+        <f t="shared" si="28"/>
+        <v>-1.9262022282117402E-3</v>
       </c>
       <c r="N43">
-        <f t="shared" si="21"/>
-        <v>-3.7333029189299843E-2</v>
+        <f t="shared" si="28"/>
+        <v>-2.556184720168456E-2</v>
       </c>
       <c r="O43">
-        <f t="shared" si="21"/>
-        <v>-0.17936417878854485</v>
+        <f t="shared" si="28"/>
+        <v>0.47307835373893414</v>
       </c>
       <c r="P43">
-        <f t="shared" si="21"/>
-        <v>-0.14292449680722916</v>
+        <f t="shared" si="28"/>
+        <v>2.723036108797908</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="21"/>
-        <v>0.21441633452637918</v>
+        <f t="shared" si="28"/>
+        <v>4.0383310001771138</v>
       </c>
       <c r="R43">
-        <f t="shared" si="21"/>
-        <v>1.5745969892076195</v>
+        <f t="shared" si="28"/>
+        <v>4.8647696507974985</v>
       </c>
       <c r="S43">
-        <f t="shared" si="21"/>
-        <v>3.6879668246587305</v>
+        <f t="shared" si="28"/>
+        <v>5.5305286826307247</v>
       </c>
       <c r="T43">
-        <f t="shared" si="21"/>
-        <v>5.175669347325413</v>
+        <f t="shared" si="28"/>
+        <v>6.0851584911777588</v>
       </c>
       <c r="U43">
-        <f t="shared" si="21"/>
-        <v>6.0500862276846226</v>
+        <f t="shared" si="28"/>
+        <v>6.5452963793789767</v>
       </c>
       <c r="V43">
-        <f t="shared" si="21"/>
-        <v>6.6098204046439033</v>
+        <f t="shared" si="28"/>
+        <v>6.9244436727479801</v>
       </c>
       <c r="W43">
-        <f t="shared" si="21"/>
-        <v>7.0049992884531598</v>
+        <f t="shared" si="28"/>
+        <v>7.2350325928987802</v>
       </c>
       <c r="X43">
-        <f t="shared" si="21"/>
-        <v>7.3012408552886763</v>
+        <f t="shared" si="28"/>
+        <v>7.4882362397597193</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="21"/>
-        <v>7.530428772164357</v>
+        <f t="shared" si="28"/>
+        <v>7.6938353507511783</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="21"/>
-        <v>7.710592990986207</v>
+        <f t="shared" si="28"/>
+        <v>7.8602271324102384</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="21"/>
-        <v>7.8533600245780359</v>
+        <f t="shared" si="28"/>
+        <v>7.9945162251867012</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="21"/>
-        <v>7.9669438858897585</v>
+        <f t="shared" si="28"/>
+        <v>8.102645350179321</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="21"/>
-        <v>8.0574808745538551</v>
+        <f t="shared" si="28"/>
+        <v>8.1895402597731035</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="21"/>
-        <v>8.1297032983317195</v>
+        <f t="shared" si="28"/>
+        <v>8.2592539791355222</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="21"/>
-        <v>8.1873250682524326</v>
+        <f t="shared" si="28"/>
+        <v>8.3151018005728083</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="21"/>
-        <v>8.2332884017469112</v>
+        <f t="shared" si="28"/>
+        <v>8.3597826867947767</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="21"/>
-        <v>8.2699357530622866</v>
+        <f t="shared" si="28"/>
+        <v>8.395485440749658</v>
       </c>
       <c r="AH43">
-        <f t="shared" si="21"/>
-        <v>8.299136797040811</v>
+        <f t="shared" si="28"/>
+        <v>8.4239796696328746</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="21"/>
-        <v>8.3223835254030281</v>
+        <f t="shared" si="28"/>
+        <v>8.4466894184832295</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -4800,11 +4814,11 @@
       </c>
       <c r="B44" s="1">
         <f>f1_*re*phi_q1</f>
-        <v>3.2826615854237193</v>
+        <v>2.4997399888109619</v>
       </c>
       <c r="C44" s="20">
         <f>ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.46633773903771369</v>
+        <v>0.37525792595872431</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -4813,11 +4827,11 @@
       </c>
       <c r="B45" s="1">
         <f>f2_*re*phi_q2</f>
-        <v>1.0114520198710797</v>
+        <v>1.6619115533171394</v>
       </c>
       <c r="C45" s="20">
         <f>ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.14368774721897648</v>
+        <v>0.24948414051706141</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>89</v>
@@ -4829,11 +4843,11 @@
       </c>
       <c r="B46" s="1">
         <f>f3_*re*phi_q3</f>
-        <v>2.7451227906217746</v>
+        <v>2.4997400392076532</v>
       </c>
       <c r="C46" s="20">
         <f>ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.38997451374330983</v>
+        <v>0.37525793352421427</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>70</v>
@@ -4844,104 +4858,104 @@
         <v>76</v>
       </c>
       <c r="K46">
-        <f>lz*qa1_</f>
-        <v>5.2290020791317078E-7</v>
+        <f t="shared" ref="K46:AI46" si="29">lz*qa1_</f>
+        <v>3.2655808350543217E-6</v>
       </c>
       <c r="L46">
-        <f>lz*qa1_</f>
-        <v>3.1741915868750699E-5</v>
+        <f t="shared" si="29"/>
+        <v>1.9765385080548794E-4</v>
       </c>
       <c r="M46">
-        <f>lz*qa1_</f>
-        <v>8.0649951766141657E-4</v>
+        <f t="shared" si="29"/>
+        <v>4.9502396798161152E-3</v>
       </c>
       <c r="N46">
-        <f>lz*qa1_</f>
-        <v>1.3439595158559556E-2</v>
+        <f t="shared" si="29"/>
+        <v>8.0377517435329546E-2</v>
       </c>
       <c r="O46">
-        <f>lz*qa1_</f>
-        <v>0.1089836609230547</v>
+        <f t="shared" si="29"/>
+        <v>0.62797573641643889</v>
       </c>
       <c r="P46">
-        <f>lz*qa1_</f>
-        <v>0.24362763581099076</v>
+        <f t="shared" si="29"/>
+        <v>1.2223234458721</v>
       </c>
       <c r="Q46">
-        <f>lz*qa1_</f>
-        <v>0.43057571687352919</v>
+        <f t="shared" si="29"/>
+        <v>1.282404127206594</v>
       </c>
       <c r="R46">
-        <f>lz*qa1_</f>
-        <v>0.79927072233865171</v>
+        <f t="shared" si="29"/>
+        <v>1.203703366173996</v>
       </c>
       <c r="S46">
-        <f>lz*qa1_</f>
-        <v>1.0179766705086843</v>
+        <f t="shared" si="29"/>
+        <v>1.0881556990873975</v>
       </c>
       <c r="T46">
-        <f>lz*qa1_</f>
-        <v>0.99761752399096215</v>
+        <f t="shared" si="29"/>
+        <v>0.95991092469231665</v>
       </c>
       <c r="U46">
-        <f>lz*qa1_</f>
-        <v>0.88236118276556896</v>
+        <f t="shared" si="29"/>
+        <v>0.83128455095021225</v>
       </c>
       <c r="V46">
-        <f>lz*qa1_</f>
-        <v>0.74842180764174093</v>
+        <f t="shared" si="29"/>
+        <v>0.70967255114358918</v>
       </c>
       <c r="W46">
-        <f>lz*qa1_</f>
-        <v>0.62153672496021106</v>
+        <f t="shared" si="29"/>
+        <v>0.59912285993210612</v>
       </c>
       <c r="X46">
-        <f>lz*qa1_</f>
-        <v>0.50957156063498488</v>
+        <f t="shared" si="29"/>
+        <v>0.5013789306139792</v>
       </c>
       <c r="Y46">
-        <f>lz*qa1_</f>
-        <v>0.41412252354476048</v>
+        <f t="shared" si="29"/>
+        <v>0.41669300985110957</v>
       </c>
       <c r="Z46">
-        <f>lz*qa1_</f>
-        <v>0.33440361810465824</v>
+        <f t="shared" si="29"/>
+        <v>0.34442619628296045</v>
       </c>
       <c r="AA46">
-        <f>lz*qa1_</f>
-        <v>0.26872748263268081</v>
+        <f t="shared" si="29"/>
+        <v>0.28346515214127155</v>
       </c>
       <c r="AB46">
-        <f>lz*qa1_</f>
-        <v>0.21514665564747329</v>
+        <f t="shared" si="29"/>
+        <v>0.23249583222769699</v>
       </c>
       <c r="AC46">
-        <f>lz*qa1_</f>
-        <v>0.17174955149772531</v>
+        <f t="shared" si="29"/>
+        <v>0.19017314505483437</v>
       </c>
       <c r="AD46">
-        <f>lz*qa1_</f>
-        <v>0.13679378607321857</v>
+        <f t="shared" si="29"/>
+        <v>0.15521874124846763</v>
       </c>
       <c r="AE46">
-        <f>lz*qa1_</f>
-        <v>0.10875674331730786</v>
+        <f t="shared" si="29"/>
+        <v>0.12647135210203886</v>
       </c>
       <c r="AF46">
-        <f>lz*qa1_</f>
-        <v>8.6343220576571525E-2</v>
+        <f t="shared" si="29"/>
+        <v>0.10290716582301095</v>
       </c>
       <c r="AG46">
-        <f>lz*qa1_</f>
-        <v>6.8471609937074032E-2</v>
+        <f t="shared" si="29"/>
+        <v>8.3642230372726056E-2</v>
       </c>
       <c r="AH46">
-        <f>lz*qa1_</f>
-        <v>5.4250530345746485E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.792480554352695E-2</v>
       </c>
       <c r="AI46">
-        <f>lz*qa1_</f>
-        <v>0.20410193995555931</v>
+        <f t="shared" si="29"/>
+        <v>0.28909325948738285</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -4950,125 +4964,125 @@
       </c>
       <c r="B47" s="1">
         <f>SUM(B44:B46)</f>
-        <v>7.0392363959165731</v>
+        <v>6.6613915813357547</v>
       </c>
       <c r="F47" t="s">
         <v>86</v>
       </c>
       <c r="G47" s="31">
         <f>G39/G53</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H47" s="31">
-        <f t="shared" ref="H47:I47" si="22">H39/H53</f>
-        <v>2.028577117427997</v>
+        <f t="shared" ref="H47:I47" si="30">H39/H53</f>
+        <v>2.1450926732367432</v>
       </c>
       <c r="I47" s="31">
-        <f t="shared" si="22"/>
-        <v>0.96044852297629579</v>
+        <f t="shared" si="30"/>
+        <v>0.99999999702313569</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>77</v>
       </c>
       <c r="K47">
-        <f>lz*qa2_</f>
-        <v>2.1596990628934233E-3</v>
+        <f t="shared" ref="K47:AI47" si="31">lz*qa2_</f>
+        <v>2.1588031906815412E-3</v>
       </c>
       <c r="L47">
-        <f>lz*qa2_</f>
-        <v>7.4019583881604165E-2</v>
+        <f t="shared" si="31"/>
+        <v>7.3746101987390955E-2</v>
       </c>
       <c r="M47">
-        <f>lz*qa2_</f>
-        <v>0.62099177387822324</v>
+        <f t="shared" si="31"/>
+        <v>0.60986124375423811</v>
       </c>
       <c r="N47">
-        <f>lz*qa2_</f>
-        <v>1.0231470646540071</v>
+        <f t="shared" si="31"/>
+        <v>0.97944569823551419</v>
       </c>
       <c r="O47">
-        <f>lz*qa2_</f>
-        <v>0.81284631534510376</v>
+        <f t="shared" si="31"/>
+        <v>0.75688449243930345</v>
       </c>
       <c r="P47">
-        <f>lz*qa2_</f>
-        <v>0.53735507856477149</v>
+        <f t="shared" si="31"/>
+        <v>0.48645669656270074</v>
       </c>
       <c r="Q47">
-        <f>lz*qa2_</f>
-        <v>0.32620551651111068</v>
+        <f t="shared" si="31"/>
+        <v>0.28815227226670354</v>
       </c>
       <c r="R47">
-        <f>lz*qa2_</f>
-        <v>0.18666739361849227</v>
+        <f t="shared" si="31"/>
+        <v>0.16305045961112605</v>
       </c>
       <c r="S47">
-        <f>lz*qa2_</f>
-        <v>0.10178070059241733</v>
+        <f t="shared" si="31"/>
+        <v>8.9358995199419353E-2</v>
       </c>
       <c r="T47">
-        <f>lz*qa2_</f>
-        <v>5.3594755235747783E-2</v>
+        <f t="shared" si="31"/>
+        <v>4.781055778387059E-2</v>
       </c>
       <c r="U47">
-        <f>lz*qa2_</f>
-        <v>2.7573826188528737E-2</v>
+        <f t="shared" si="31"/>
+        <v>2.5113354447076384E-2</v>
       </c>
       <c r="V47">
-        <f>lz*qa2_</f>
-        <v>1.3957207032191722E-2</v>
+        <f t="shared" si="31"/>
+        <v>1.3003986799805528E-2</v>
       </c>
       <c r="W47">
-        <f>lz*qa2_</f>
-        <v>6.9799959161113007E-3</v>
+        <f t="shared" si="31"/>
+        <v>6.6588312546662096E-3</v>
       </c>
       <c r="X47">
-        <f>lz*qa2_</f>
-        <v>3.4586340890844151E-3</v>
+        <f t="shared" si="31"/>
+        <v>3.3799619709382936E-3</v>
       </c>
       <c r="Y47">
-        <f>lz*qa2_</f>
-        <v>1.7015508057002177E-3</v>
+        <f t="shared" si="31"/>
+        <v>1.7038272729331205E-3</v>
       </c>
       <c r="Z47">
-        <f>lz*qa2_</f>
-        <v>8.3243812136340166E-4</v>
+        <f t="shared" si="31"/>
+        <v>8.5421883370293472E-4</v>
       </c>
       <c r="AA47">
-        <f>lz*qa2_</f>
-        <v>4.0545673877556671E-4</v>
+        <f t="shared" si="31"/>
+        <v>4.264187176396412E-4</v>
       </c>
       <c r="AB47">
-        <f>lz*qa2_</f>
-        <v>1.9680015044644847E-4</v>
+        <f t="shared" si="31"/>
+        <v>2.1213648660941927E-4</v>
       </c>
       <c r="AC47">
-        <f>lz*qa2_</f>
-        <v>9.5259816487469869E-5</v>
+        <f t="shared" si="31"/>
+        <v>1.0524779479389867E-4</v>
       </c>
       <c r="AD47">
-        <f>lz*qa2_</f>
-        <v>4.6009247855434201E-5</v>
+        <f t="shared" si="31"/>
+        <v>5.2104062941527744E-5</v>
       </c>
       <c r="AE47">
-        <f>lz*qa2_</f>
-        <v>2.2183342446094997E-5</v>
+        <f t="shared" si="31"/>
+        <v>2.5750354403030386E-5</v>
       </c>
       <c r="AF47">
-        <f>lz*qa2_</f>
-        <v>1.0680948614397978E-5</v>
+        <f t="shared" si="31"/>
+        <v>1.2708675270626672E-5</v>
       </c>
       <c r="AG47">
-        <f>lz*qa2_</f>
-        <v>5.1370777167818016E-6</v>
+        <f t="shared" si="31"/>
+        <v>6.2653290809821656E-6</v>
       </c>
       <c r="AH47">
-        <f>lz*qa2_</f>
-        <v>2.4685568425468444E-6</v>
+        <f t="shared" si="31"/>
+        <v>3.0861021849271816E-6</v>
       </c>
       <c r="AI47">
-        <f>lz*qa2_</f>
-        <v>5.6328323898859568E-6</v>
+        <f t="shared" si="31"/>
+        <v>7.9667920334411347E-6</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -5079,118 +5093,118 @@
       </c>
       <c r="G48" s="31">
         <f>G40/G54</f>
-        <v>2.028577117427997</v>
+        <v>2.1450926732367432</v>
       </c>
       <c r="H48" s="31">
-        <f t="shared" ref="H48:I48" si="23">H40/H54</f>
+        <f t="shared" ref="H48:I48" si="32">H40/H54</f>
         <v>1</v>
       </c>
       <c r="I48" s="31">
-        <f t="shared" si="23"/>
-        <v>2.0295072036324142</v>
+        <f t="shared" si="32"/>
+        <v>2.060266810353844</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K48">
-        <f>lz*qa3_</f>
-        <v>3.2681262991893478E-6</v>
+        <f t="shared" ref="K48:AI48" si="33">lz*qa3_</f>
+        <v>3.2667706364552806E-6</v>
       </c>
       <c r="L48">
-        <f>lz*qa3_</f>
-        <v>1.9838696512265364E-4</v>
+        <f t="shared" si="33"/>
+        <v>1.9765398014538413E-4</v>
       </c>
       <c r="M48">
-        <f>lz*qa3_</f>
-        <v>5.0405861403520387E-3</v>
+        <f t="shared" si="33"/>
+        <v>4.9502397006120288E-3</v>
       </c>
       <c r="N48">
-        <f>lz*qa3_</f>
-        <v>8.3963839120861999E-2</v>
+        <f t="shared" si="33"/>
+        <v>8.0377517441324112E-2</v>
       </c>
       <c r="O48">
-        <f>lz*qa3_</f>
-        <v>0.67440642340110735</v>
+        <f t="shared" si="33"/>
+        <v>0.62797573641831217</v>
       </c>
       <c r="P48">
-        <f>lz*qa3_</f>
-        <v>1.3502161979255529</v>
+        <f t="shared" si="33"/>
+        <v>1.2223234458723788</v>
       </c>
       <c r="Q48">
-        <f>lz*qa3_</f>
-        <v>1.4517577716834051</v>
+        <f t="shared" si="33"/>
+        <v>1.2824041272066318</v>
       </c>
       <c r="R48">
-        <f>lz*qa3_</f>
-        <v>1.3780529695493997</v>
+        <f t="shared" si="33"/>
+        <v>1.2037033661740031</v>
       </c>
       <c r="S48">
-        <f>lz*qa3_</f>
-        <v>1.2394191447607816</v>
+        <f t="shared" si="33"/>
+        <v>1.0881556990873993</v>
       </c>
       <c r="T48">
-        <f>lz*qa3_</f>
-        <v>1.07604247767971</v>
+        <f t="shared" si="33"/>
+        <v>0.95991092469231709</v>
       </c>
       <c r="U48">
-        <f>lz*qa3_</f>
-        <v>0.91272935160514923</v>
+        <f t="shared" si="33"/>
+        <v>0.83128455095021236</v>
       </c>
       <c r="V48">
-        <f>lz*qa3_</f>
-        <v>0.76169307719713109</v>
+        <f t="shared" si="33"/>
+        <v>0.70967255114358929</v>
       </c>
       <c r="W48">
-        <f>lz*qa3_</f>
-        <v>0.62801938593121043</v>
+        <f t="shared" si="33"/>
+        <v>0.59912285993210612</v>
       </c>
       <c r="X48">
-        <f>lz*qa3_</f>
-        <v>0.51304904489467007</v>
+        <f t="shared" si="33"/>
+        <v>0.5013789306139792</v>
       </c>
       <c r="Y48">
-        <f>lz*qa3_</f>
-        <v>0.41613627032816913</v>
+        <f t="shared" si="33"/>
+        <v>0.41669300985110957</v>
       </c>
       <c r="Z48">
-        <f>lz*qa3_</f>
-        <v>0.33564408143433422</v>
+        <f t="shared" si="33"/>
+        <v>0.34442619628296045</v>
       </c>
       <c r="AA48">
-        <f>lz*qa3_</f>
-        <v>0.26953051399785766</v>
+        <f t="shared" si="33"/>
+        <v>0.28346515214127155</v>
       </c>
       <c r="AB48">
-        <f>lz*qa3_</f>
-        <v>0.21568762400042218</v>
+        <f t="shared" si="33"/>
+        <v>0.23249583222769699</v>
       </c>
       <c r="AC48">
-        <f>lz*qa3_</f>
-        <v>0.17212578120276878</v>
+        <f t="shared" si="33"/>
+        <v>0.19017314505483437</v>
       </c>
       <c r="AD48">
-        <f>lz*qa3_</f>
-        <v>0.13706220081001347</v>
+        <f t="shared" si="33"/>
+        <v>0.15521874124846763</v>
       </c>
       <c r="AE48">
-        <f>lz*qa3_</f>
-        <v>0.10895218253656411</v>
+        <f t="shared" si="33"/>
+        <v>0.12647135210203886</v>
       </c>
       <c r="AF48">
-        <f>lz*qa3_</f>
-        <v>8.6487861779689035E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.10290716582301095</v>
       </c>
       <c r="AG48">
-        <f>lz*qa3_</f>
-        <v>6.8580058968315857E-2</v>
+        <f t="shared" si="33"/>
+        <v>8.3642230372726056E-2</v>
       </c>
       <c r="AH48">
-        <f>lz*qa3_</f>
-        <v>5.4332693299037248E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.792480554352695E-2</v>
       </c>
       <c r="AI48">
-        <f>lz*qa3_</f>
-        <v>0.20440019883823521</v>
+        <f t="shared" si="33"/>
+        <v>0.28909325948738285</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -5199,59 +5213,83 @@
       </c>
       <c r="B49" s="1">
         <f>ye_2</f>
-        <v>1.0114520198710797</v>
+        <v>1.6619115533171394</v>
       </c>
       <c r="F49" t="s">
         <v>88</v>
       </c>
       <c r="G49" s="31">
         <f>G41/G55</f>
-        <v>0.96044852297629579</v>
+        <v>0.99999999702313569</v>
       </c>
       <c r="H49" s="31">
-        <f t="shared" ref="H49:I49" si="24">H41/H55</f>
-        <v>2.0295072036324142</v>
+        <f t="shared" ref="H49:I49" si="34">H41/H55</f>
+        <v>2.060266810353844</v>
       </c>
       <c r="I49" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:21">
+      <c r="B51">
+        <f>1000000*(C51-B7)^2</f>
+        <v>2.0873862593703405E-6</v>
+      </c>
+      <c r="C51">
+        <f>spr</f>
+        <v>0.39999855522103445</v>
+      </c>
       <c r="G51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:21">
+      <c r="B52">
+        <f>-(ye_1)</f>
+        <v>-2.4997399888109619</v>
+      </c>
+      <c r="C52">
+        <f>-LN(ye_1)</f>
+        <v>-0.9161867219896993</v>
+      </c>
       <c r="G52" s="1">
         <f>G39^0.5</f>
-        <v>10.105564624604625</v>
+        <v>10.230277129135866</v>
       </c>
       <c r="H52" s="1">
         <f>H40^0.5</f>
-        <v>5.1875758872933249</v>
+        <v>5.0124450977141528</v>
       </c>
       <c r="I52" s="11">
         <f>I41^0.5</f>
-        <v>10.270072875910556</v>
+        <v>10.230277158552166</v>
       </c>
     </row>
     <row r="53" spans="1:21">
+      <c r="B53">
+        <f>-(ye_2)</f>
+        <v>-1.6619115533171394</v>
+      </c>
+      <c r="C53">
+        <f>-LN(ye_2)</f>
+        <v>-0.5079684779998157</v>
+      </c>
       <c r="G53">
-        <f>G$52*$J53</f>
-        <v>102.12243638206041</v>
+        <f t="shared" ref="G53:I55" si="35">G$52*$J53</f>
+        <v>104.65857013892037</v>
       </c>
       <c r="H53">
-        <f>H$52*$J53</f>
-        <v>52.423383374083372</v>
+        <f t="shared" si="35"/>
+        <v>51.278702444194288</v>
       </c>
       <c r="I53">
-        <f>I$52*$J53</f>
-        <v>103.7848851469132</v>
+        <f t="shared" si="35"/>
+        <v>104.65857043985727</v>
       </c>
       <c r="J53">
         <f t="array" ref="J53:J55">TRANSPOSE(G52:I52)</f>
-        <v>10.105564624604625</v>
+        <v>10.230277129135866</v>
       </c>
       <c r="S53">
         <v>0.33</v>
@@ -5266,26 +5304,34 @@
       </c>
     </row>
     <row r="54" spans="1:21">
+      <c r="B54">
+        <f>-(ye_3)</f>
+        <v>-2.4997400392076532</v>
+      </c>
+      <c r="C54">
+        <f>-LN(ye_3)</f>
+        <v>-0.91618674215047247</v>
+      </c>
       <c r="G54">
-        <f>G$52*$J54</f>
-        <v>52.423383374083372</v>
+        <f t="shared" si="35"/>
+        <v>51.278702444194288</v>
       </c>
       <c r="H54">
-        <f>H$52*$J54</f>
-        <v>26.910943586427127</v>
+        <f t="shared" si="35"/>
+        <v>25.124605857598642</v>
       </c>
       <c r="I54">
-        <f>I$52*$J54</f>
-        <v>53.276782411818807</v>
+        <f t="shared" si="35"/>
+        <v>51.278702591641881</v>
       </c>
       <c r="J54">
-        <v>5.1875758872933249</v>
+        <v>5.0124450977141528</v>
       </c>
       <c r="S54">
         <v>0.32</v>
       </c>
       <c r="T54">
-        <f t="shared" ref="T54:T55" si="25">S54/S$57</f>
+        <f t="shared" ref="T54:T55" si="36">S54/S$57</f>
         <v>0.27826086956521739</v>
       </c>
       <c r="U54">
@@ -5294,27 +5340,35 @@
       </c>
     </row>
     <row r="55" spans="1:21">
+      <c r="B55">
+        <f>SUM(B51:B54)</f>
+        <v>-6.6613894939494953</v>
+      </c>
+      <c r="C55">
+        <f>SUM(C52:C54,B51)</f>
+        <v>-2.340339854753728</v>
+      </c>
       <c r="G55">
-        <f>G$52*$J55</f>
-        <v>103.7848851469132</v>
+        <f t="shared" si="35"/>
+        <v>104.65857043985727</v>
       </c>
       <c r="H55">
-        <f>H$52*$J55</f>
-        <v>53.276782411818807</v>
+        <f t="shared" si="35"/>
+        <v>51.278702591641881</v>
       </c>
       <c r="I55">
-        <f>I$52*$J55</f>
-        <v>105.47439687651371</v>
+        <f t="shared" si="35"/>
+        <v>104.65857074079418</v>
       </c>
       <c r="J55">
-        <v>10.270072875910556</v>
+        <v>10.230277158552166</v>
       </c>
       <c r="S55" s="33">
         <f>0.5</f>
         <v>0.5</v>
       </c>
       <c r="T55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.43478260869565222</v>
       </c>
       <c r="U55">
@@ -5344,6 +5398,46 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!K46:AI46</xm:f>
+              <xm:sqref>J46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!K47:AI47</xm:f>
+              <xm:sqref>J47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!K48:AI48</xm:f>
+              <xm:sqref>J48</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!K35:AI35</xm:f>
+              <xm:sqref>J35</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FFFF6600"/>
           <x14:colorNegative theme="5"/>
@@ -5368,46 +5462,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!K35:AI35</xm:f>
-              <xm:sqref>J35</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!K46:AI46</xm:f>
-              <xm:sqref>J46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!K47:AI47</xm:f>
-              <xm:sqref>J47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!K48:AI48</xm:f>
-              <xm:sqref>J48</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
+++ b/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
@@ -4,67 +4,67 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Proof of Concept" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="age">Sheet1!$K$3:$AI$3</definedName>
-    <definedName name="ah">Sheet1!$G$18:$G$20</definedName>
-    <definedName name="Bo">Sheet1!$B$18</definedName>
-    <definedName name="daq21_">Sheet1!$K$38:$AI$38</definedName>
-    <definedName name="dlz1_">Sheet1!$K$31:$AI$31</definedName>
-    <definedName name="dlz2_">Sheet1!$K$32:$AI$32</definedName>
-    <definedName name="dlz3_">Sheet1!$K$33:$AI$33</definedName>
-    <definedName name="dmr">Sheet1!$F$18:$F$20</definedName>
-    <definedName name="dphif" localSheetId="0">Sheet1!$G$31:$G$33</definedName>
-    <definedName name="dqa1_">Sheet1!$K$35:$AI$35</definedName>
-    <definedName name="dqa11_">Sheet1!$K$35:$AI$35</definedName>
-    <definedName name="dqa12_">Sheet1!$K$40:$AI$40</definedName>
-    <definedName name="dqa13_">Sheet1!$K$42:$AI$42</definedName>
-    <definedName name="dqa2_">Sheet1!$K$36:$AI$36</definedName>
-    <definedName name="dqa21_">Sheet1!$K$38:$AI$38</definedName>
-    <definedName name="dqa22_">Sheet1!$K$36:$AI$36</definedName>
-    <definedName name="dqa23_">Sheet1!$K$43:$AI$43</definedName>
-    <definedName name="dqa3_">Sheet1!$K$37:$AI$37</definedName>
-    <definedName name="dqa31_">Sheet1!$K$39:$AI$39</definedName>
-    <definedName name="dqa32_">Sheet1!$K$41:$AI$41</definedName>
-    <definedName name="dqa33_">Sheet1!$K$37:$AI$37</definedName>
-    <definedName name="dre">Sheet1!$H$31:$H$33</definedName>
-    <definedName name="f1_">Sheet1!$B$27</definedName>
-    <definedName name="f2_">Sheet1!$B$28</definedName>
-    <definedName name="f3_">Sheet1!$B$29</definedName>
-    <definedName name="flt1_">Sheet1!$K$18:$AI$18</definedName>
-    <definedName name="flt2_">Sheet1!$K$19:$AI$19</definedName>
-    <definedName name="flt3_">Sheet1!$K$20:$AI$20</definedName>
-    <definedName name="g">Sheet1!$I$18:$I$20</definedName>
-    <definedName name="gamma">Sheet1!$I$18:$I$20</definedName>
-    <definedName name="gh">Sheet1!$H$18:$H$20</definedName>
-    <definedName name="len">Sheet1!$K$4:$AI$4</definedName>
-    <definedName name="linf">Sheet1!$B$22</definedName>
-    <definedName name="lx">Sheet1!$K$6:$AI$6</definedName>
-    <definedName name="lz">Sheet1!$K$7:$AI$7</definedName>
-    <definedName name="M">Sheet1!$B$20</definedName>
-    <definedName name="ma">Sheet1!$K$9:$AI$9</definedName>
-    <definedName name="oa">Sheet1!$K$11:$AI$11</definedName>
-    <definedName name="phi_q1">Sheet1!$B$37</definedName>
-    <definedName name="phi_q2">Sheet1!$B$38</definedName>
-    <definedName name="phi_q3">Sheet1!$B$39</definedName>
-    <definedName name="phi_t1">Sheet1!$B$34</definedName>
-    <definedName name="phi_t2">Sheet1!$B$35</definedName>
-    <definedName name="phi_t3">Sheet1!$B$36</definedName>
-    <definedName name="phie">Sheet1!$B$32</definedName>
-    <definedName name="phif">Sheet1!$B$33</definedName>
-    <definedName name="qa1_">Sheet1!$K$22:$AI$22</definedName>
-    <definedName name="qa2_">Sheet1!$K$23:$AI$23</definedName>
-    <definedName name="qa3_">Sheet1!$K$24:$AI$24</definedName>
-    <definedName name="re">Sheet1!$B$43</definedName>
-    <definedName name="reck">Sheet1!$B$19</definedName>
-    <definedName name="Ro">Sheet1!$B$21</definedName>
-    <definedName name="sa">Sheet1!$K$10:$AI$10</definedName>
-    <definedName name="slim">Sheet1!$E$18:$E$20</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$27,Sheet1!$B$28,Sheet1!$B$29</definedName>
+    <definedName name="age">'Proof of Concept'!$K$3:$AI$3</definedName>
+    <definedName name="ah">'Proof of Concept'!$G$18:$G$20</definedName>
+    <definedName name="Bo">'Proof of Concept'!$B$18</definedName>
+    <definedName name="daq21_">'Proof of Concept'!$K$38:$AI$38</definedName>
+    <definedName name="dlz1_">'Proof of Concept'!$K$31:$AI$31</definedName>
+    <definedName name="dlz2_">'Proof of Concept'!$K$32:$AI$32</definedName>
+    <definedName name="dlz3_">'Proof of Concept'!$K$33:$AI$33</definedName>
+    <definedName name="dmr">'Proof of Concept'!$F$18:$F$20</definedName>
+    <definedName name="dphif" localSheetId="0">'Proof of Concept'!$G$31:$G$33</definedName>
+    <definedName name="dqa1_">'Proof of Concept'!$K$35:$AI$35</definedName>
+    <definedName name="dqa11_">'Proof of Concept'!$K$35:$AI$35</definedName>
+    <definedName name="dqa12_">'Proof of Concept'!$K$40:$AI$40</definedName>
+    <definedName name="dqa13_">'Proof of Concept'!$K$42:$AI$42</definedName>
+    <definedName name="dqa2_">'Proof of Concept'!$K$36:$AI$36</definedName>
+    <definedName name="dqa21_">'Proof of Concept'!$K$38:$AI$38</definedName>
+    <definedName name="dqa22_">'Proof of Concept'!$K$36:$AI$36</definedName>
+    <definedName name="dqa23_">'Proof of Concept'!$K$43:$AI$43</definedName>
+    <definedName name="dqa3_">'Proof of Concept'!$K$37:$AI$37</definedName>
+    <definedName name="dqa31_">'Proof of Concept'!$K$39:$AI$39</definedName>
+    <definedName name="dqa32_">'Proof of Concept'!$K$41:$AI$41</definedName>
+    <definedName name="dqa33_">'Proof of Concept'!$K$37:$AI$37</definedName>
+    <definedName name="dre">'Proof of Concept'!$H$31:$H$33</definedName>
+    <definedName name="f1_">'Proof of Concept'!$B$27</definedName>
+    <definedName name="f2_">'Proof of Concept'!$B$28</definedName>
+    <definedName name="f3_">'Proof of Concept'!$B$29</definedName>
+    <definedName name="flt1_">'Proof of Concept'!$K$18:$AI$18</definedName>
+    <definedName name="flt2_">'Proof of Concept'!$K$19:$AI$19</definedName>
+    <definedName name="flt3_">'Proof of Concept'!$K$20:$AI$20</definedName>
+    <definedName name="g">'Proof of Concept'!$I$18:$I$20</definedName>
+    <definedName name="gamma">'Proof of Concept'!$I$18:$I$20</definedName>
+    <definedName name="gh">'Proof of Concept'!$H$18:$H$20</definedName>
+    <definedName name="len">'Proof of Concept'!$K$4:$AI$4</definedName>
+    <definedName name="linf">'Proof of Concept'!$B$22</definedName>
+    <definedName name="lx">'Proof of Concept'!$K$6:$AI$6</definedName>
+    <definedName name="lz">'Proof of Concept'!$K$7:$AI$7</definedName>
+    <definedName name="M">'Proof of Concept'!$B$20</definedName>
+    <definedName name="ma">'Proof of Concept'!$K$9:$AI$9</definedName>
+    <definedName name="oa">'Proof of Concept'!$K$11:$AI$11</definedName>
+    <definedName name="phi_q1">'Proof of Concept'!$B$37</definedName>
+    <definedName name="phi_q2">'Proof of Concept'!$B$38</definedName>
+    <definedName name="phi_q3">'Proof of Concept'!$B$39</definedName>
+    <definedName name="phi_t1">'Proof of Concept'!$B$34</definedName>
+    <definedName name="phi_t2">'Proof of Concept'!$B$35</definedName>
+    <definedName name="phi_t3">'Proof of Concept'!$B$36</definedName>
+    <definedName name="phie">'Proof of Concept'!$B$32</definedName>
+    <definedName name="phif">'Proof of Concept'!$B$33</definedName>
+    <definedName name="qa1_">'Proof of Concept'!$K$22:$AI$22</definedName>
+    <definedName name="qa2_">'Proof of Concept'!$K$23:$AI$23</definedName>
+    <definedName name="qa3_">'Proof of Concept'!$K$24:$AI$24</definedName>
+    <definedName name="re">'Proof of Concept'!$B$43</definedName>
+    <definedName name="reck">'Proof of Concept'!$B$19</definedName>
+    <definedName name="Ro">'Proof of Concept'!$B$21</definedName>
+    <definedName name="sa">'Proof of Concept'!$K$10:$AI$10</definedName>
+    <definedName name="slim">'Proof of Concept'!$E$18:$E$20</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Proof of Concept'!$B$27,'Proof of Concept'!$B$28,'Proof of Concept'!$B$29</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -77,7 +77,7 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$55</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Proof of Concept'!$C$55</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -90,17 +90,17 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="spr">Sheet1!$B$42</definedName>
-    <definedName name="sr">Sheet1!$K$12:$AI$12</definedName>
-    <definedName name="ta1_">Sheet1!$K$26:$AI$26</definedName>
-    <definedName name="ta2_">Sheet1!$K$27:$AI$27</definedName>
-    <definedName name="ta3_">Sheet1!$K$28:$AI$28</definedName>
-    <definedName name="vonbk">Sheet1!$B$23</definedName>
-    <definedName name="wa">Sheet1!$K$5:$AI$5</definedName>
-    <definedName name="ye_1">Sheet1!$B$44</definedName>
-    <definedName name="ye_2">Sheet1!$B$45</definedName>
-    <definedName name="ye_3">Sheet1!$B$46</definedName>
-    <definedName name="za">Sheet1!$K$8:$AI$8</definedName>
+    <definedName name="spr">'Proof of Concept'!$B$42</definedName>
+    <definedName name="sr">'Proof of Concept'!$K$12:$AI$12</definedName>
+    <definedName name="ta1_">'Proof of Concept'!$K$26:$AI$26</definedName>
+    <definedName name="ta2_">'Proof of Concept'!$K$27:$AI$27</definedName>
+    <definedName name="ta3_">'Proof of Concept'!$K$28:$AI$28</definedName>
+    <definedName name="vonbk">'Proof of Concept'!$B$23</definedName>
+    <definedName name="wa">'Proof of Concept'!$K$5:$AI$5</definedName>
+    <definedName name="ye_1">'Proof of Concept'!$B$44</definedName>
+    <definedName name="ye_2">'Proof of Concept'!$B$45</definedName>
+    <definedName name="ye_3">'Proof of Concept'!$B$46</definedName>
+    <definedName name="za">'Proof of Concept'!$K$8:$AI$8</definedName>
   </definedNames>
   <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -157,7 +157,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Eg. For each pound of catch in fishery k, there is a corresponding loss of xx pounds in fishery k'.  If fishery k wants to increase its catch by 1 pound, then fishery k' must reduce its bycatch by 1/xx pounds.</t>
+Eg. For each pound of catch in fishery k, there is a corresponding loss of xx pounds in fishery k'.  If fishery k wants to increase its catch by 1 pound, then fishery k' must reduce its bycatch by 1/xx pounds. (row=k,col=k')</t>
         </r>
       </text>
     </comment>
@@ -1037,9 +1037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C27" sqref="C27"/>
+      <selection pane="topRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5409,15 +5409,15 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!K46:AI46</xm:f>
+              <xm:f>'Proof of Concept'!K46:AI46</xm:f>
               <xm:sqref>J46</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!K47:AI47</xm:f>
+              <xm:f>'Proof of Concept'!K47:AI47</xm:f>
               <xm:sqref>J47</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!K48:AI48</xm:f>
+              <xm:f>'Proof of Concept'!K48:AI48</xm:f>
               <xm:sqref>J48</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
@@ -5433,7 +5433,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!K35:AI35</xm:f>
+              <xm:f>'Proof of Concept'!K35:AI35</xm:f>
               <xm:sqref>J35</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
@@ -5449,15 +5449,15 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!K18:AI18</xm:f>
+              <xm:f>'Proof of Concept'!K18:AI18</xm:f>
               <xm:sqref>J18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!K19:AI19</xm:f>
+              <xm:f>'Proof of Concept'!K19:AI19</xm:f>
               <xm:sqref>J19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!K20:AI20</xm:f>
+              <xm:f>'Proof of Concept'!K20:AI20</xm:f>
               <xm:sqref>J20</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>

--- a/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
+++ b/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2480" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Proof of Concept" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Proof of Concept'!$C$55</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Proof of Concept'!$C$15</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t>SPR Based PSC Caps</t>
   </si>
@@ -405,9 +405,6 @@
     <t>ypr_3</t>
   </si>
   <si>
-    <t>PSC limit</t>
-  </si>
-  <si>
     <t>len</t>
   </si>
   <si>
@@ -436,6 +433,24 @@
   </si>
   <si>
     <t>Available yield at age</t>
+  </si>
+  <si>
+    <t>ypr1</t>
+  </si>
+  <si>
+    <t>ypr2</t>
+  </si>
+  <si>
+    <t>ypr3</t>
+  </si>
+  <si>
+    <t>mpr1</t>
+  </si>
+  <si>
+    <t>mpr2</t>
+  </si>
+  <si>
+    <t>mpr3</t>
   </si>
 </sst>
 </file>
@@ -644,7 +659,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -697,6 +712,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
@@ -1037,9 +1054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K35" sqref="K35"/>
+      <selection pane="topRight" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1166,10 +1183,10 @@
       </c>
       <c r="C4" s="22">
         <f>$C44</f>
-        <v>0.37525792595872431</v>
+        <v>0.4232805123398507</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:AI4" si="0">linf*(1-EXP(-vonbk*age))</f>
@@ -1281,7 +1298,7 @@
       </c>
       <c r="C5" s="22">
         <f>$C45</f>
-        <v>0.24948414051706141</v>
+        <v>0.15342619826674431</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -1397,7 +1414,7 @@
       </c>
       <c r="C6" s="22">
         <f>$C46</f>
-        <v>0.37525793352421427</v>
+        <v>0.42329328939340488</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -1512,7 +1529,7 @@
       </c>
       <c r="C7" s="23">
         <f>spr</f>
-        <v>0.39999855522103445</v>
+        <v>0.40000071794109937</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -1523,99 +1540,99 @@
       </c>
       <c r="L7" s="1">
         <f>K7*EXP(-K8)</f>
-        <v>0.85900827925841472</v>
+        <v>0.85966080121150346</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ref="M7:AH7" si="3">L7*EXP(-L8)</f>
-        <v>0.72936528936255107</v>
+        <v>0.73373796646230416</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>0.59437660857517127</v>
+        <v>0.61051999589550976</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="3"/>
-        <v>0.4791557486424079</v>
+        <v>0.50348795423534487</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="3"/>
-        <v>0.38436277876920294</v>
+        <v>0.40828209710437069</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="3"/>
-        <v>0.30505155612601553</v>
+        <v>0.32440462206133175</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="3"/>
-        <v>0.24338143204333321</v>
+        <v>0.25801224289839353</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="3"/>
-        <v>0.19523019947119899</v>
+        <v>0.20584950412059194</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="3"/>
-        <v>0.15715041457524606</v>
+        <v>0.16458138440261749</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="3"/>
-        <v>0.12676713971690712</v>
+        <v>0.13175857293223367</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="3"/>
-        <v>0.10239017874408822</v>
+        <v>0.10556552184956695</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="3"/>
-        <v>8.2765654137124944E-2</v>
+        <v>8.4620376192300603E-2</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" si="3"/>
-        <v>6.6934286147931288E-2</v>
+        <v>6.7850844998950235E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="3"/>
-        <v>5.4146789719211719E-2</v>
+        <v>5.4414316299530335E-2</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="3"/>
-        <v>4.3809997570385346E-2</v>
+        <v>4.3643388773698728E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="3"/>
-        <v>3.5450337216877535E-2</v>
+        <v>3.500683005781937E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="3"/>
-        <v>2.868772143813518E-2</v>
+        <v>2.8080511736160489E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" si="3"/>
-        <v>2.3216102618967307E-2</v>
+        <v>2.2525187452363739E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="3"/>
-        <v>1.8788560049267523E-2</v>
+        <v>1.8069198197903036E-2</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" si="3"/>
-        <v>1.5205635217165262E-2</v>
+        <v>1.4494857147528328E-2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="3"/>
-        <v>1.2306089767026372E-2</v>
+        <v>1.1627653523262319E-2</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="3"/>
-        <v>9.9595231708173929E-3</v>
+        <v>9.3276533315331308E-3</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" si="3"/>
-        <v>8.0604459486215609E-3</v>
+        <v>7.48263100878998E-3</v>
       </c>
       <c r="AI7" s="1">
         <f>AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>3.4212785794285813E-2</v>
+        <v>3.0347148419000908E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1625,110 +1642,110 @@
       </c>
       <c r="C8" s="26">
         <f>SUMXMY2(B4:B7,C4:C7)</f>
-        <v>1.0545192280660786E-2</v>
+        <v>4.8548066821489308E-2</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ref="K8:AI8" si="4">M+f1_*flt1_ +f2_*flt2_ +f3_*flt3_</f>
-        <v>0.15197671879239133</v>
+        <v>0.15121738473343066</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>0.16360387087929923</v>
+        <v>0.15838592329225679</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="4"/>
-        <v>0.20466154968398695</v>
+        <v>0.18384092463247001</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21548744132458728</v>
+        <v>0.19275125851243177</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22043885531855648</v>
+        <v>0.20960143785275456</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="4"/>
-        <v>0.2311060441822208</v>
+        <v>0.22996677978780555</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22585090692859816</v>
+        <v>0.22898453328068435</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22045051945419322</v>
+        <v>0.22586169761296321</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21697597109200883</v>
+        <v>0.22374015340458009</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="4"/>
-        <v>0.2148515434060404</v>
+        <v>0.22243393087385593</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21356106061683644</v>
+        <v>0.22163943467537744</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21277762707482792</v>
+        <v>0.22115672937497102</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21230183590258897</v>
+        <v>0.22086325081817856</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" si="4"/>
-        <v>0.2120126476001975</v>
+        <v>0.22068455362013389</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21183664035799113</v>
+        <v>0.22057547563402019</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21172928097010918</v>
+        <v>0.22050862391589743</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21166355863034145</v>
+        <v>0.22046738374653468</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21162309045235206</v>
+        <v>0.22044167778448334</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21159793971293653</v>
+        <v>0.22042539381278933</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21158207948478536</v>
+        <v>0.22041482458443815</v>
       </c>
       <c r="AE8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21157185425169875</v>
+        <v>0.22040772154044935</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21156504683102398</v>
+        <v>0.22040272086086043</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21156031243350348</v>
+        <v>0.22039899534704935</v>
       </c>
       <c r="AH8" s="1">
         <f t="shared" si="4"/>
-        <v>0.2115568354032214</v>
+        <v>0.22039604327768969</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="4"/>
-        <v>0.21155412101985654</v>
+        <v>0.22039356034341401</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1831,103 +1848,103 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" ref="K10:AI10" si="5">EXP(-za)</f>
-        <v>0.85900827925841472</v>
+        <v>0.85966080121150346</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="5"/>
-        <v>0.84907829991139905</v>
+        <v>0.8535203250261747</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="5"/>
-        <v>0.81492308071671893</v>
+        <v>0.83206815484704133</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80614839435056385</v>
+        <v>0.82468708252025313</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80216668558859638</v>
+        <v>0.81090737855771577</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="5"/>
-        <v>0.79365529904545939</v>
+        <v>0.79455999751662632</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="5"/>
-        <v>0.79783704477414086</v>
+        <v>0.79534083472341488</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80215732906214032</v>
+        <v>0.79782843561286532</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80494931112555368</v>
+        <v>0.79952286067301614</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80666118546069143</v>
+        <v>0.80056789782440418</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80770283981119351</v>
+        <v>0.8012041987116969</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80833586924374468</v>
+        <v>0.8015910375821983</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="5"/>
-        <v>0.8087205598234688</v>
+        <v>0.80182632188680603</v>
       </c>
       <c r="X10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80895446616913258</v>
+        <v>0.80196961880684337</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80909686054464658</v>
+        <v>0.80205710080888082</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80918372935133942</v>
+        <v>0.80211072149639995</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80923691254697727</v>
+        <v>0.80214380136050711</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80926966155303159</v>
+        <v>0.80216442150365375</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80929001553936408</v>
+        <v>0.80217748403274214</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80930285116543865</v>
+        <v>0.8021859624745542</v>
       </c>
       <c r="AE10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80931112651803816</v>
+        <v>0.80219166045696932</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80931663585808533</v>
+        <v>0.80219567197046238</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80932046749382969</v>
+        <v>0.80219866056708444</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80932328153049526</v>
+        <v>0.80220102871666621</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80932547834712898</v>
+        <v>0.80220302053156911</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1939,110 +1956,110 @@
       </c>
       <c r="C11" s="18">
         <f>$C34</f>
-        <v>0.25841295705322731</v>
+        <v>0.33333013650151561</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
       </c>
       <c r="K11" s="1">
         <f>1-sa</f>
-        <v>0.14099172074158528</v>
+        <v>0.14033919878849654</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ref="L11:AI11" si="6">1-sa</f>
-        <v>0.15092170008860095</v>
+        <v>0.1464796749738253</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="6"/>
-        <v>0.18507691928328107</v>
+        <v>0.16793184515295867</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19385160564943615</v>
+        <v>0.17531291747974687</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19783331441140362</v>
+        <v>0.18909262144228423</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="6"/>
-        <v>0.20634470095454061</v>
+        <v>0.20544000248337368</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="6"/>
-        <v>0.20216295522585914</v>
+        <v>0.20465916527658512</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19784267093785968</v>
+        <v>0.20217156438713468</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19505068887444632</v>
+        <v>0.20047713932698386</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19333881453930857</v>
+        <v>0.19943210217559582</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19229716018880649</v>
+        <v>0.1987958012883031</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19166413075625532</v>
+        <v>0.1984089624178017</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="6"/>
-        <v>0.1912794401765312</v>
+        <v>0.19817367811319397</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19104553383086742</v>
+        <v>0.19803038119315663</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19090313945535342</v>
+        <v>0.19794289919111918</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19081627064866058</v>
+        <v>0.19788927850360005</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19076308745302273</v>
+        <v>0.19785619863949289</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19073033844696841</v>
+        <v>0.19783557849634625</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19070998446063592</v>
+        <v>0.19782251596725786</v>
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19069714883456135</v>
+        <v>0.1978140375254458</v>
       </c>
       <c r="AE11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19068887348196184</v>
+        <v>0.19780833954303068</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19068336414191467</v>
+        <v>0.19780432802953762</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19067953250617031</v>
+        <v>0.19780133943291556</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19067671846950474</v>
+        <v>0.19779897128333379</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19067452165287102</v>
+        <v>0.19779697946843089</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -2054,10 +2071,10 @@
       </c>
       <c r="C12" s="18">
         <f>$C35</f>
-        <v>0.48317407867273576</v>
+        <v>0.33332966266868663</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12:AI12" si="7">1/(1+EXP(($E18-len)/2.5))</f>
@@ -2170,7 +2187,7 @@
       </c>
       <c r="C13" s="18">
         <f>$C36</f>
-        <v>0.25841296427403693</v>
+        <v>0.33334020082979787</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2182,7 +2199,7 @@
       </c>
       <c r="C14" s="29">
         <f>spr</f>
-        <v>0.39999855522103445</v>
+        <v>0.40000071794109937</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2192,7 +2209,7 @@
       </c>
       <c r="C15" s="26">
         <f>SUMXMY2(B11:B14,C11:C14)</f>
-        <v>3.3679871921936735E-2</v>
+        <v>6.8819710860641874E-13</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2202,10 +2219,10 @@
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>9</v>
@@ -2662,7 +2679,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1">
         <v>98.238757374230488</v>
@@ -2672,108 +2689,108 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ref="K22:AI22" si="11">wa*flt1_*(1-EXP(-za))/za</f>
-        <v>3.2655808350543217E-6</v>
+        <v>3.2667895782250959E-6</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="11"/>
-        <v>2.3009539672437534E-4</v>
+        <v>2.3068035094066158E-4</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="11"/>
-        <v>6.787051360975121E-3</v>
+        <v>6.8557661652764983E-3</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="11"/>
-        <v>0.13522994726863335</v>
+        <v>0.13672317508944951</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="11"/>
-        <v>1.3105879209331885</v>
+        <v>1.317453228807103</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="11"/>
-        <v>3.1801295895148693</v>
+        <v>3.1818720295293748</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="11"/>
-        <v>4.2038930844753279</v>
+        <v>4.1975605846596737</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="11"/>
-        <v>4.9457485563634975</v>
+        <v>4.9328814288278497</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="11"/>
-        <v>5.5737058202817948</v>
+        <v>5.555576348374184</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="11"/>
-        <v>6.1082303046212862</v>
+        <v>6.0859567268192647</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="11"/>
-        <v>6.5575712507721953</v>
+        <v>6.5320934644769757</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="11"/>
-        <v>6.9310607701675107</v>
+        <v>6.9031283991504475</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="11"/>
-        <v>7.2387860179234256</v>
+        <v>7.2089781044514902</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="11"/>
-        <v>7.4906144439321123</v>
+        <v>7.4593710479823745</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="11"/>
-        <v>7.6956180045381997</v>
+        <v>7.6632715312191024</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="11"/>
-        <v>7.8618172879284858</v>
+        <v>7.8286188906919065</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="11"/>
-        <v>7.9961200483677413</v>
+        <v>7.962260254768359</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="11"/>
-        <v>8.104367324155465</v>
+        <v>8.0699915363324557</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="11"/>
-        <v>8.19143282470956</v>
+        <v>8.1566527519325192</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="11"/>
-        <v>8.2613431173784324</v>
+        <v>8.2262451524053013</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" si="11"/>
-        <v>8.3174001148777066</v>
+        <v>8.2820514774272187</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="11"/>
-        <v>8.3622960478271651</v>
+        <v>8.3267493166599582</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="11"/>
-        <v>8.3982163541531687</v>
+        <v>8.3625128390686108</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="11"/>
-        <v>8.426928978432386</v>
+        <v>8.3911012536579772</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="11"/>
-        <v>8.4498602722864771</v>
+        <v>8.4139340986396451</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1">
         <f>1.5*M</f>
@@ -2784,103 +2801,103 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ref="K23:AI23" si="12">wa*flt2_*(1-EXP(-za))/za</f>
-        <v>2.1588031906815412E-3</v>
+        <v>2.159602264030384E-3</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="12"/>
-        <v>8.5850280804110821E-2</v>
+        <v>8.6068531514210317E-2</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="12"/>
-        <v>0.8361533687560635</v>
+        <v>0.84461891764381447</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="12"/>
-        <v>1.6478537077416682</v>
+        <v>1.6660495367775761</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="12"/>
-        <v>1.5796210200624421</v>
+        <v>1.5878956153441637</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="12"/>
-        <v>1.2656186379972079</v>
+        <v>1.2663120891588275</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="12"/>
-        <v>0.94460187624045111</v>
+        <v>0.94317898296344316</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" si="12"/>
-        <v>0.66993795805300171</v>
+        <v>0.66819501114638069</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" si="12"/>
-        <v>0.45771092505901934</v>
+        <v>0.45622213867071221</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" si="12"/>
-        <v>0.30423437261107672</v>
+        <v>0.30312498615535072</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="12"/>
-        <v>0.1981061851135778</v>
+        <v>0.1973364935837312</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" si="12"/>
-        <v>0.12700423965766686</v>
+        <v>0.12649240897828123</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" si="12"/>
-        <v>8.045404007360292E-2</v>
+        <v>8.0122745978288626E-2</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" si="12"/>
-        <v>5.0496720970001067E-2</v>
+        <v>5.0286098856256151E-2</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="12"/>
-        <v>3.1466819764729079E-2</v>
+        <v>3.1334557398619373E-2</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>1.9498262521711916E-2</v>
+        <v>1.9415926461115236E-2</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="12"/>
-        <v>1.2028622323982512E-2</v>
+        <v>1.1977686786908113E-2</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="12"/>
-        <v>7.3946788373168548E-3</v>
+        <v>7.3633132907462715E-3</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" si="12"/>
-        <v>4.5333963465475184E-3</v>
+        <v>4.5141479612852385E-3</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" si="12"/>
-        <v>2.773180212049248E-3</v>
+        <v>2.7613984738302003E-3</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" si="12"/>
-        <v>1.6934744280831789E-3</v>
+        <v>1.6862772255002581E-3</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" si="12"/>
-        <v>1.0327143317838466E-3</v>
+        <v>1.0283244347370922E-3</v>
       </c>
       <c r="AG23" s="1">
         <f t="shared" si="12"/>
-        <v>6.2907922131657243E-4</v>
+        <v>6.264048034972993E-4</v>
       </c>
       <c r="AH23" s="1">
         <f t="shared" si="12"/>
-        <v>3.8286990628042661E-4</v>
+        <v>3.8124210596767605E-4</v>
       </c>
       <c r="AI23" s="1">
         <f t="shared" si="12"/>
-        <v>2.3286007989363263E-4</v>
+        <v>2.3187003137258055E-4</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2890,103 +2907,103 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ref="K24:AI24" si="13">wa*flt3_*(1-EXP(-za))/za</f>
-        <v>3.2667706364552806E-6</v>
+        <v>3.2679798200268268E-6</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="13"/>
-        <v>2.3009554729323399E-4</v>
+        <v>2.3068050189230013E-4</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="13"/>
-        <v>6.7870513894874645E-3</v>
+        <v>6.8557661940775137E-3</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="13"/>
-        <v>0.13522994727871884</v>
+        <v>0.13672317509964638</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="13"/>
-        <v>1.3105879209370981</v>
+        <v>1.317453228811033</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="13"/>
-        <v>3.180129589515595</v>
+        <v>3.1818720295301008</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="13"/>
-        <v>4.2038930844754514</v>
+        <v>4.1975605846597963</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="13"/>
-        <v>4.9457485563635268</v>
+        <v>4.9328814288278782</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" si="13"/>
-        <v>5.5737058202818037</v>
+        <v>5.5555763483741929</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="13"/>
-        <v>6.1082303046212889</v>
+        <v>6.0859567268192691</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="13"/>
-        <v>6.5575712507721962</v>
+        <v>6.5320934644769766</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="13"/>
-        <v>6.9310607701675115</v>
+        <v>6.9031283991504502</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="13"/>
-        <v>7.2387860179234256</v>
+        <v>7.2089781044514902</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" si="13"/>
-        <v>7.4906144439321123</v>
+        <v>7.4593710479823745</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="13"/>
-        <v>7.6956180045381997</v>
+        <v>7.6632715312191024</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="13"/>
-        <v>7.8618172879284858</v>
+        <v>7.8286188906919065</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="13"/>
-        <v>7.9961200483677413</v>
+        <v>7.962260254768359</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="13"/>
-        <v>8.104367324155465</v>
+        <v>8.0699915363324557</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" si="13"/>
-        <v>8.19143282470956</v>
+        <v>8.1566527519325192</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" si="13"/>
-        <v>8.2613431173784324</v>
+        <v>8.2262451524053013</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" si="13"/>
-        <v>8.3174001148777066</v>
+        <v>8.2820514774272187</v>
       </c>
       <c r="AF24" s="1">
         <f t="shared" si="13"/>
-        <v>8.3622960478271651</v>
+        <v>8.3267493166599582</v>
       </c>
       <c r="AG24" s="1">
         <f t="shared" si="13"/>
-        <v>8.3982163541531687</v>
+        <v>8.3625128390686108</v>
       </c>
       <c r="AH24" s="1">
         <f t="shared" si="13"/>
-        <v>8.426928978432386</v>
+        <v>8.3911012536579772</v>
       </c>
       <c r="AI24" s="1">
         <f t="shared" si="13"/>
-        <v>8.4498602722864771</v>
+        <v>8.4139340986396451</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3005,103 +3022,103 @@
       </c>
       <c r="K26">
         <f>qa1_/wa</f>
-        <v>4.2110614543555917E-5</v>
+        <v>4.212620163826208E-5</v>
       </c>
       <c r="L26">
         <f t="shared" ref="L26:AI26" si="14">qa1_/wa</f>
-        <v>5.1003032088331945E-4</v>
+        <v>5.1132693259690323E-4</v>
       </c>
       <c r="M26">
         <f t="shared" si="14"/>
-        <v>6.0534535049642842E-3</v>
+        <v>6.1147410731316396E-3</v>
       </c>
       <c r="N26">
         <f t="shared" si="14"/>
-        <v>6.825194896496356E-2</v>
+        <v>6.9005596445258388E-2</v>
       </c>
       <c r="O26">
         <f t="shared" si="14"/>
-        <v>0.44878220402434965</v>
+        <v>0.45113307873466074</v>
       </c>
       <c r="P26">
         <f t="shared" si="14"/>
-        <v>0.82520932297060579</v>
+        <v>0.82566146735787471</v>
       </c>
       <c r="Q26">
         <f t="shared" si="14"/>
-        <v>0.88919278071825503</v>
+        <v>0.88785335247713881</v>
       </c>
       <c r="R26">
         <f t="shared" si="14"/>
-        <v>0.89699593671803524</v>
+        <v>0.89466226346611499</v>
       </c>
       <c r="S26">
         <f t="shared" si="14"/>
-        <v>0.89893242240135751</v>
+        <v>0.89600848442826553</v>
       </c>
       <c r="T26">
         <f t="shared" si="14"/>
-        <v>0.89986842054044003</v>
+        <v>0.89658706272043032</v>
       </c>
       <c r="U26">
         <f t="shared" si="14"/>
-        <v>0.90040908341103965</v>
+        <v>0.89691077140982123</v>
       </c>
       <c r="V26">
         <f t="shared" si="14"/>
-        <v>0.90072706597160135</v>
+        <v>0.89709711040980333</v>
       </c>
       <c r="W26">
         <f t="shared" si="14"/>
-        <v>0.90091128162617939</v>
+        <v>0.89720150412175925</v>
       </c>
       <c r="X26">
         <f t="shared" si="14"/>
-        <v>0.90101443024329764</v>
+        <v>0.89725629386994277</v>
       </c>
       <c r="Y26">
         <f t="shared" si="14"/>
-        <v>0.90106840059187354</v>
+        <v>0.89728100041670389</v>
       </c>
       <c r="Z26">
         <f t="shared" si="14"/>
-        <v>0.90109253727645255</v>
+        <v>0.89728745927682085</v>
       </c>
       <c r="AA26">
         <f t="shared" si="14"/>
-        <v>0.90109857696314799</v>
+        <v>0.89728284987999873</v>
       </c>
       <c r="AB26">
         <f t="shared" si="14"/>
-        <v>0.90109363975518164</v>
+        <v>0.89727152724103609</v>
       </c>
       <c r="AC26">
         <f t="shared" si="14"/>
-        <v>0.90108204472528941</v>
+        <v>0.89725613297526041</v>
       </c>
       <c r="AD26">
         <f t="shared" si="14"/>
-        <v>0.90106641168848289</v>
+        <v>0.8972382693505403</v>
       </c>
       <c r="AE26">
         <f t="shared" si="14"/>
-        <v>0.90104832968869231</v>
+        <v>0.89721890819981143</v>
       </c>
       <c r="AF26">
         <f t="shared" si="14"/>
-        <v>0.90102876253753994</v>
+        <v>0.8971986389670924</v>
       </c>
       <c r="AG26">
         <f t="shared" si="14"/>
-        <v>0.90100829481365896</v>
+        <v>0.89717781916399519</v>
       </c>
       <c r="AH26">
         <f t="shared" si="14"/>
-        <v>0.90098728107758164</v>
+        <v>0.89715666562866692</v>
       </c>
       <c r="AI26">
         <f t="shared" si="14"/>
-        <v>0.90096593637751587</v>
+        <v>0.89713530987753232</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3109,7 +3126,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="28">
-        <v>3.0787693388999178E-2</v>
+        <v>3.5208887951138419E-2</v>
       </c>
       <c r="C27">
         <v>3.0826511509620572E-2</v>
@@ -3119,103 +3136,103 @@
       </c>
       <c r="K27">
         <f t="shared" ref="K27:AI27" si="15">qa2_/wa</f>
-        <v>2.7838394953306003E-2</v>
+        <v>2.7848699236520776E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="15"/>
-        <v>0.19029605498320337</v>
+        <v>0.19077983032721166</v>
       </c>
       <c r="M27">
         <f t="shared" si="15"/>
-        <v>0.74577534065645623</v>
+        <v>0.75332586648283517</v>
       </c>
       <c r="N27">
         <f t="shared" si="15"/>
-        <v>0.83168876002806524</v>
+        <v>0.84087238258961927</v>
       </c>
       <c r="O27">
         <f t="shared" si="15"/>
-        <v>0.5409067118534453</v>
+        <v>0.54374016625099264</v>
       </c>
       <c r="P27">
         <f t="shared" si="15"/>
-        <v>0.3284143837547136</v>
+        <v>0.32859432685057988</v>
       </c>
       <c r="Q27">
         <f t="shared" si="15"/>
-        <v>0.1997988892980509</v>
+        <v>0.19949792388236978</v>
       </c>
       <c r="R27">
         <f t="shared" si="15"/>
-        <v>0.12150468617203058</v>
+        <v>0.1211885729941492</v>
       </c>
       <c r="S27">
         <f t="shared" si="15"/>
-        <v>7.3820040721501223E-2</v>
+        <v>7.3579927877796922E-2</v>
       </c>
       <c r="T27">
         <f t="shared" si="15"/>
-        <v>4.4820003618481E-2</v>
+        <v>4.465656809167582E-2</v>
       </c>
       <c r="U27">
         <f t="shared" si="15"/>
-        <v>2.7201627208422535E-2</v>
+        <v>2.7095942158516777E-2</v>
       </c>
       <c r="V27">
         <f t="shared" si="15"/>
-        <v>1.6504855453754682E-2</v>
+        <v>1.643834041927373E-2</v>
       </c>
       <c r="W27">
         <f t="shared" si="15"/>
-        <v>1.0012998336357281E-2</v>
+        <v>9.9717667559146798E-3</v>
       </c>
       <c r="X27">
         <f t="shared" si="15"/>
-        <v>6.0740376660017347E-3</v>
+        <v>6.0487028199443143E-3</v>
       </c>
       <c r="Y27">
         <f t="shared" si="15"/>
-        <v>3.6844028563263703E-3</v>
+        <v>3.6689164537244364E-3</v>
       </c>
       <c r="Z27">
         <f t="shared" si="15"/>
-        <v>2.2348190252588804E-3</v>
+        <v>2.2253819692913839E-3</v>
       </c>
       <c r="AA27">
         <f t="shared" si="15"/>
-        <v>1.355529230852452E-3</v>
+        <v>1.3497892044775398E-3</v>
       </c>
       <c r="AB27">
         <f t="shared" si="15"/>
-        <v>8.2218608829318139E-4</v>
+        <v>8.1869867300316153E-4</v>
       </c>
       <c r="AC27">
         <f t="shared" si="15"/>
-        <v>4.986871206676878E-4</v>
+        <v>4.965697408733402E-4</v>
       </c>
       <c r="AD27">
         <f t="shared" si="15"/>
-        <v>3.0247134238744355E-4</v>
+        <v>3.011863057499798E-4</v>
       </c>
       <c r="AE27">
         <f t="shared" si="15"/>
-        <v>1.8345904774563049E-4</v>
+        <v>1.8267935369746614E-4</v>
       </c>
       <c r="AF27">
         <f t="shared" si="15"/>
-        <v>1.1127390265784259E-4</v>
+        <v>1.1080089578495962E-4</v>
       </c>
       <c r="AG27">
         <f t="shared" si="15"/>
-        <v>6.7491187723551203E-5</v>
+        <v>6.7204261007526453E-5</v>
       </c>
       <c r="AH27">
         <f t="shared" si="15"/>
-        <v>4.0935543274295071E-5</v>
+        <v>4.0761502721482056E-5</v>
       </c>
       <c r="AI27">
         <f t="shared" si="15"/>
-        <v>2.4828694577873729E-5</v>
+        <v>2.4723130702959205E-5</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3223,7 +3240,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="28">
-        <v>6.5781326112657759E-2</v>
+        <v>4.0463010824188246E-2</v>
       </c>
       <c r="C28">
         <v>6.5872059610417921E-2</v>
@@ -3233,103 +3250,103 @@
       </c>
       <c r="K28">
         <f t="shared" ref="K28:AI28" si="16">qa3_/wa</f>
-        <v>4.212595737863179E-5</v>
+        <v>4.214155015243398E-5</v>
       </c>
       <c r="L28">
         <f t="shared" si="16"/>
-        <v>5.1003065463481724E-4</v>
+        <v>5.1132726719687238E-4</v>
       </c>
       <c r="M28">
         <f t="shared" si="16"/>
-        <v>6.0534535303947892E-3</v>
+        <v>6.1147410988196147E-3</v>
       </c>
       <c r="N28">
         <f t="shared" si="16"/>
-        <v>6.8251948970053808E-2</v>
+        <v>6.9005596450404855E-2</v>
       </c>
       <c r="O28">
         <f t="shared" si="16"/>
-        <v>0.44878220402568836</v>
+        <v>0.4511330787360065</v>
       </c>
       <c r="P28">
         <f t="shared" si="16"/>
-        <v>0.82520932297079408</v>
+        <v>0.82566146735806312</v>
       </c>
       <c r="Q28">
         <f t="shared" si="16"/>
-        <v>0.88919278071828123</v>
+        <v>0.88785335247716479</v>
       </c>
       <c r="R28">
         <f t="shared" si="16"/>
-        <v>0.89699593671804057</v>
+        <v>0.89466226346612021</v>
       </c>
       <c r="S28">
         <f t="shared" si="16"/>
-        <v>0.89893242240135895</v>
+        <v>0.89600848442826697</v>
       </c>
       <c r="T28">
         <f t="shared" si="16"/>
-        <v>0.89986842054044047</v>
+        <v>0.89658706272043098</v>
       </c>
       <c r="U28">
         <f t="shared" si="16"/>
-        <v>0.90040908341103976</v>
+        <v>0.89691077140982134</v>
       </c>
       <c r="V28">
         <f t="shared" si="16"/>
-        <v>0.90072706597160146</v>
+        <v>0.89709711040980367</v>
       </c>
       <c r="W28">
         <f t="shared" si="16"/>
-        <v>0.90091128162617939</v>
+        <v>0.89720150412175925</v>
       </c>
       <c r="X28">
         <f t="shared" si="16"/>
-        <v>0.90101443024329764</v>
+        <v>0.89725629386994277</v>
       </c>
       <c r="Y28">
         <f t="shared" si="16"/>
-        <v>0.90106840059187354</v>
+        <v>0.89728100041670389</v>
       </c>
       <c r="Z28">
         <f t="shared" si="16"/>
-        <v>0.90109253727645255</v>
+        <v>0.89728745927682085</v>
       </c>
       <c r="AA28">
         <f t="shared" si="16"/>
-        <v>0.90109857696314799</v>
+        <v>0.89728284987999873</v>
       </c>
       <c r="AB28">
         <f t="shared" si="16"/>
-        <v>0.90109363975518164</v>
+        <v>0.89727152724103609</v>
       </c>
       <c r="AC28">
         <f t="shared" si="16"/>
-        <v>0.90108204472528941</v>
+        <v>0.89725613297526041</v>
       </c>
       <c r="AD28">
         <f t="shared" si="16"/>
-        <v>0.90106641168848289</v>
+        <v>0.8972382693505403</v>
       </c>
       <c r="AE28">
         <f t="shared" si="16"/>
-        <v>0.90104832968869231</v>
+        <v>0.89721890819981143</v>
       </c>
       <c r="AF28">
         <f t="shared" si="16"/>
-        <v>0.90102876253753994</v>
+        <v>0.8971986389670924</v>
       </c>
       <c r="AG28">
         <f t="shared" si="16"/>
-        <v>0.90100829481365896</v>
+        <v>0.89717781916399519</v>
       </c>
       <c r="AH28">
         <f t="shared" si="16"/>
-        <v>0.90098728107758164</v>
+        <v>0.89715666562866692</v>
       </c>
       <c r="AI28">
         <f t="shared" si="16"/>
-        <v>0.90096593637751587</v>
+        <v>0.89713530987753232</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3337,7 +3354,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="28">
-        <v>3.0787694006063286E-2</v>
+        <v>3.5209950754932245E-2</v>
       </c>
       <c r="C29">
         <v>3.0717558531607573E-2</v>
@@ -3362,11 +3379,11 @@
       <c r="C31" s="12"/>
       <c r="G31">
         <f>SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-49.079690806817631</v>
+        <v>-47.817938969923659</v>
       </c>
       <c r="H31">
         <f>Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-18.951970709822817</v>
+        <v>-18.464549473444112</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>52</v>
@@ -3376,99 +3393,99 @@
       </c>
       <c r="L31">
         <f t="shared" ref="L31:AH31" si="17">K31*sa-K$7*K18*K$10</f>
-        <v>-3.8991718982783872E-5</v>
+        <v>-3.90213379669535E-5</v>
       </c>
       <c r="M31">
         <f t="shared" si="17"/>
-        <v>-4.3503323402386499E-4</v>
+        <v>-4.3814399963989554E-4</v>
       </c>
       <c r="N31">
         <f t="shared" si="17"/>
-        <v>-4.3294720984077481E-3</v>
+        <v>-4.4481666599328644E-3</v>
       </c>
       <c r="O31">
         <f t="shared" si="17"/>
-        <v>-3.9826298607956542E-2</v>
+        <v>-4.1806465450880126E-2</v>
       </c>
       <c r="P31">
         <f t="shared" si="17"/>
-        <v>-0.22381379132458709</v>
+        <v>-0.23738433924166549</v>
       </c>
       <c r="Q31">
         <f t="shared" si="17"/>
-        <v>-0.46050606304316027</v>
+        <v>-0.48862735618965492</v>
       </c>
       <c r="R31">
         <f t="shared" si="17"/>
-        <v>-0.61116899330511409</v>
+        <v>-0.64614545984844829</v>
       </c>
       <c r="S31">
         <f t="shared" si="17"/>
-        <v>-0.68709212209979187</v>
+        <v>-0.72235409500746584</v>
       </c>
       <c r="T31">
         <f t="shared" si="17"/>
-        <v>-0.71139777495034473</v>
+        <v>-0.74287154774701059</v>
       </c>
       <c r="U31">
         <f t="shared" si="17"/>
-        <v>-0.70136468674310593</v>
+        <v>-0.72694990209767929</v>
       </c>
       <c r="V31">
         <f t="shared" si="17"/>
-        <v>-0.66932583464532402</v>
+        <v>-0.68827939038455688</v>
       </c>
       <c r="W31">
         <f t="shared" si="17"/>
-        <v>-0.62405908827158252</v>
+        <v>-0.63649668610989618</v>
       </c>
       <c r="X31">
         <f t="shared" si="17"/>
-        <v>-0.5717646613850732</v>
+        <v>-0.57829676973392075</v>
       </c>
       <c r="Y31">
         <f t="shared" si="17"/>
-        <v>-0.51675437479415809</v>
+        <v>-0.51823591270056701</v>
       </c>
       <c r="Z31">
         <f t="shared" si="17"/>
-        <v>-0.46195375947663692</v>
+        <v>-0.45932052117026717</v>
       </c>
       <c r="AA31">
         <f t="shared" si="17"/>
-        <v>-0.40927505870305525</v>
+        <v>-0.40344269284385242</v>
       </c>
       <c r="AB31">
         <f t="shared" si="17"/>
-        <v>-0.35989659347079322</v>
+        <v>-0.35170297601902495</v>
       </c>
       <c r="AC31">
         <f t="shared" si="17"/>
-        <v>-0.31447218258430565</v>
+        <v>-0.30464889420489322</v>
       </c>
       <c r="AD31">
         <f t="shared" si="17"/>
-        <v>-0.27328756950352651</v>
+        <v>-0.262450201834311</v>
       </c>
       <c r="AE31">
         <f t="shared" si="17"/>
-        <v>-0.23637650698592094</v>
+        <v>-0.22502659895523558</v>
       </c>
       <c r="AF31">
         <f t="shared" si="17"/>
-        <v>-0.20360614707691949</v>
+        <v>-0.19213982162023063</v>
       </c>
       <c r="AG31">
         <f t="shared" si="17"/>
-        <v>-0.17473915918534058</v>
+        <v>-0.16345916420539841</v>
       </c>
       <c r="AH31">
         <f t="shared" si="17"/>
-        <v>-0.14947829749420263</v>
+        <v>-0.13860731019405945</v>
       </c>
       <c r="AI31">
         <f>(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-0.81383039081007091</v>
+        <v>-0.7155171306819218</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3481,11 +3498,11 @@
       </c>
       <c r="G32">
         <f>SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-16.996357177698648</v>
+        <v>-16.703914278445254</v>
       </c>
       <c r="H32">
         <f>Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-6.5630907226637794</v>
+        <v>-6.4500950529991918</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -3495,99 +3512,99 @@
       </c>
       <c r="L32">
         <f t="shared" ref="L32:AH32" si="18">K32*sa-K$7*K19*K$10</f>
-        <v>-2.5776562149866865E-2</v>
+        <v>-2.5796142604542417E-2</v>
       </c>
       <c r="M32">
         <f t="shared" si="18"/>
-        <v>-0.17146442745920967</v>
+        <v>-0.17282468684952912</v>
       </c>
       <c r="N32">
         <f t="shared" si="18"/>
-        <v>-0.62840367100529471</v>
+        <v>-0.64601751445363953</v>
       </c>
       <c r="O32">
         <f t="shared" si="18"/>
-        <v>-0.94707058775372066</v>
+        <v>-0.98934192656161901</v>
       </c>
       <c r="P32">
         <f t="shared" si="18"/>
-        <v>-0.98330831761341875</v>
+        <v>-1.0321687475444767</v>
       </c>
       <c r="Q32">
         <f t="shared" si="18"/>
-        <v>-0.89672510916241599</v>
+        <v>-0.9402497837896433</v>
       </c>
       <c r="R32">
         <f t="shared" si="18"/>
-        <v>-0.77363974832562965</v>
+        <v>-0.8077488848542248</v>
       </c>
       <c r="S32">
         <f t="shared" si="18"/>
-        <v>-0.64917285309971251</v>
+        <v>-0.6736835094603385</v>
       </c>
       <c r="T32">
         <f t="shared" si="18"/>
-        <v>-0.53656742305101413</v>
+        <v>-0.55284448724586355</v>
       </c>
       <c r="U32">
         <f t="shared" si="18"/>
-        <v>-0.4397009357944679</v>
+        <v>-0.44950383770841967</v>
       </c>
       <c r="V32">
         <f t="shared" si="18"/>
-        <v>-0.35851919813251165</v>
+        <v>-0.36350733330370294</v>
       </c>
       <c r="W32">
         <f t="shared" si="18"/>
-        <v>-0.29145836261344682</v>
+        <v>-0.29302024812669353</v>
       </c>
       <c r="X32">
         <f t="shared" si="18"/>
-        <v>-0.23652041618298222</v>
+        <v>-0.23574739488476668</v>
       </c>
       <c r="Y32">
         <f t="shared" si="18"/>
-        <v>-0.1917329112366872</v>
+        <v>-0.18944966041831099</v>
       </c>
       <c r="Z32">
         <f t="shared" si="18"/>
-        <v>-0.15532626566567354</v>
+        <v>-0.15213803615102722</v>
       </c>
       <c r="AA32">
         <f t="shared" si="18"/>
-        <v>-0.12578365563440011</v>
+        <v>-0.1221233908325392</v>
       </c>
       <c r="AB32">
         <f t="shared" si="18"/>
-        <v>-0.1018360440290399</v>
+        <v>-9.8005273493822431E-2</v>
       </c>
       <c r="AC32">
         <f t="shared" si="18"/>
-        <v>-8.2436072521177461E-2</v>
+        <v>-7.8638172292992359E-2</v>
       </c>
       <c r="AD32">
         <f t="shared" si="18"/>
-        <v>-6.6726144371860321E-2</v>
+        <v>-6.3092435741744363E-2</v>
       </c>
       <c r="AE32">
         <f t="shared" si="18"/>
-        <v>-5.4007314045288718E-2</v>
+        <v>-5.0617090229985673E-2</v>
       </c>
       <c r="AF32">
         <f t="shared" si="18"/>
-        <v>-4.3711522622709054E-2</v>
+        <v>-4.060717752219991E-2</v>
       </c>
       <c r="AG32">
         <f t="shared" si="18"/>
-        <v>-3.5377859521400747E-2</v>
+        <v>-3.2576175004921382E-2</v>
       </c>
       <c r="AH32">
         <f t="shared" si="18"/>
-        <v>-2.8632728943360622E-2</v>
+        <v>-2.6133201414663666E-2</v>
       </c>
       <c r="AI32">
         <f>(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-0.12153829418246669</v>
+        <v>-0.10599290457540135</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3596,15 +3613,15 @@
       </c>
       <c r="B33" s="1">
         <f>SUMPRODUCT(lz,wa,ma)</f>
-        <v>4.8520735804265502</v>
+        <v>4.8520998147135295</v>
       </c>
       <c r="G33">
         <f>SUMPRODUCT(dlz3_,wa,ma)</f>
-        <v>-49.079690885129232</v>
+        <v>-47.8179390471456</v>
       </c>
       <c r="H33">
         <f>Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-18.951970740062599</v>
+        <v>-18.464549503262802</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -3614,99 +3631,99 @@
       </c>
       <c r="L33">
         <f t="shared" ref="L33:AH33" si="19">K33*sa-K$7*K20*K$10</f>
-        <v>-3.9005925460655596E-5</v>
+        <v>-3.9035555236384412E-5</v>
       </c>
       <c r="M33">
         <f t="shared" si="19"/>
-        <v>-4.3504507509284211E-4</v>
+        <v>-4.3815609484132358E-4</v>
       </c>
       <c r="N33">
         <f t="shared" si="19"/>
-        <v>-4.3294816607812731E-3</v>
+        <v>-4.4481766518580006E-3</v>
       </c>
       <c r="O33">
         <f t="shared" si="19"/>
-        <v>-3.9826306281285272E-2</v>
+        <v>-4.1806473556254872E-2</v>
       </c>
       <c r="P33">
         <f t="shared" si="19"/>
-        <v>-0.22381379741513843</v>
+        <v>-0.2373843456824811</v>
       </c>
       <c r="Q33">
         <f t="shared" si="19"/>
-        <v>-0.4605060679024921</v>
+        <v>-0.48862736131236695</v>
       </c>
       <c r="R33">
         <f t="shared" si="19"/>
-        <v>-0.61116899720306983</v>
+        <v>-0.6461454639355011</v>
       </c>
       <c r="S33">
         <f t="shared" si="19"/>
-        <v>-0.68709212523744978</v>
+        <v>-0.72235409827515906</v>
       </c>
       <c r="T33">
         <f t="shared" si="19"/>
-        <v>-0.71139777748137178</v>
+        <v>-0.7428715503630211</v>
       </c>
       <c r="U33">
         <f t="shared" si="19"/>
-        <v>-0.70136468878742364</v>
+        <v>-0.72694990419363803</v>
       </c>
       <c r="V33">
         <f t="shared" si="19"/>
-        <v>-0.66932583629781939</v>
+        <v>-0.68827939206465871</v>
       </c>
       <c r="W33">
         <f t="shared" si="19"/>
-        <v>-0.62405908960798961</v>
+        <v>-0.63649668745704613</v>
       </c>
       <c r="X33">
         <f t="shared" si="19"/>
-        <v>-0.57176466246616575</v>
+        <v>-0.57829677081429409</v>
       </c>
       <c r="Y33">
         <f t="shared" si="19"/>
-        <v>-0.51675437566886662</v>
+        <v>-0.51823591356708809</v>
       </c>
       <c r="Z33">
         <f t="shared" si="19"/>
-        <v>-0.46195376018443685</v>
+        <v>-0.45932052186531303</v>
       </c>
       <c r="AA33">
         <f t="shared" si="19"/>
-        <v>-0.40927505927583308</v>
+        <v>-0.40344269340137912</v>
       </c>
       <c r="AB33">
         <f t="shared" si="19"/>
-        <v>-0.35989659393432494</v>
+        <v>-0.35170297646625304</v>
       </c>
       <c r="AC33">
         <f t="shared" si="19"/>
-        <v>-0.31447218295943719</v>
+        <v>-0.30464889456364952</v>
       </c>
       <c r="AD33">
         <f t="shared" si="19"/>
-        <v>-0.27328756980712154</v>
+        <v>-0.2624502021221003</v>
       </c>
       <c r="AE33">
         <f t="shared" si="19"/>
-        <v>-0.23637650723162379</v>
+        <v>-0.22502659918609774</v>
       </c>
       <c r="AF33">
         <f t="shared" si="19"/>
-        <v>-0.20360614727577089</v>
+        <v>-0.19213982180542727</v>
       </c>
       <c r="AG33">
         <f t="shared" si="19"/>
-        <v>-0.1747391593462751</v>
+        <v>-0.1634591643539629</v>
       </c>
       <c r="AH33">
         <f t="shared" si="19"/>
-        <v>-0.14947829762445067</v>
+        <v>-0.13860731031323806</v>
       </c>
       <c r="AI33">
         <f>(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-0.8138303913629138</v>
+        <v>-0.71551713116527316</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -3715,11 +3732,11 @@
       </c>
       <c r="B34" s="1">
         <f>f1_*SUMPRODUCT(lz,ta1_)</f>
-        <v>6.0995221285221717E-2</v>
+        <v>7.2482496807273103E-2</v>
       </c>
       <c r="C34" s="10">
         <f>phi_t1/SUM(phi_t1,phi_t2,phi_t3)</f>
-        <v>0.25841295705322731</v>
+        <v>0.33333013650151561</v>
       </c>
       <c r="G34" t="s">
         <v>57</v>
@@ -3732,126 +3749,126 @@
       </c>
       <c r="B35" s="1">
         <f>f2_*SUMPRODUCT(lz,ta2_)</f>
-        <v>0.11404733796632423</v>
+        <v>7.2482393772525411E-2</v>
       </c>
       <c r="C35" s="10">
         <f>phi_t2/SUM(phi_t1,phi_t2,phi_t3)</f>
-        <v>0.48317407867273576</v>
+        <v>0.33332966266868663</v>
       </c>
       <c r="G35" s="1">
         <f>SUM(dqa11_)</f>
-        <v>137.4084926040556</v>
+        <v>136.71146438911074</v>
       </c>
       <c r="H35" s="1">
         <f>SUM(dqa12_)</f>
-        <v>141.92146068490834</v>
+        <v>141.32829153260764</v>
       </c>
       <c r="I35" s="11">
         <f>SUM(dqa13_)</f>
-        <v>137.40849260405466</v>
+        <v>136.71146438910975</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>62</v>
       </c>
       <c r="K35">
         <f>flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>7.5991458553258747E-11</v>
+        <v>7.6010214162441637E-11</v>
       </c>
       <c r="L35">
         <f t="shared" ref="L35:AI35" si="20">flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>7.4066112649766338E-8</v>
+        <v>7.4166314318042136E-8</v>
       </c>
       <c r="M35">
         <f t="shared" si="20"/>
-        <v>2.9428931251104205E-5</v>
+        <v>2.9571650125643609E-5</v>
       </c>
       <c r="N35">
         <f t="shared" si="20"/>
-        <v>7.3201566582624319E-3</v>
+        <v>7.3082888404331532E-3</v>
       </c>
       <c r="O35">
         <f t="shared" si="20"/>
-        <v>0.50412636455546866</v>
+        <v>0.49874737370074251</v>
       </c>
       <c r="P35">
         <f t="shared" si="20"/>
-        <v>2.3960659894751637</v>
+        <v>2.3634477273045404</v>
       </c>
       <c r="Q35">
         <f t="shared" si="20"/>
-        <v>3.5630682569194243</v>
+        <v>3.519221888802369</v>
       </c>
       <c r="R35">
         <f t="shared" si="20"/>
-        <v>4.3637973900479512</v>
+        <v>4.3182727417528275</v>
       </c>
       <c r="S35">
         <f t="shared" si="20"/>
-        <v>5.0491855067432923</v>
+        <v>5.0049734831627459</v>
       </c>
       <c r="T35">
         <f t="shared" si="20"/>
-        <v>5.6454278537903626</v>
+        <v>5.6036701549180599</v>
       </c>
       <c r="U35">
         <f t="shared" si="20"/>
-        <v>6.1565569056829492</v>
+        <v>6.1174931249939553</v>
       </c>
       <c r="V35">
         <f t="shared" si="20"/>
-        <v>6.5884698005544049</v>
+        <v>6.5518547076763616</v>
       </c>
       <c r="W35">
         <f t="shared" si="20"/>
-        <v>6.9492958745598514</v>
+        <v>6.9146657289436346</v>
       </c>
       <c r="X35">
         <f t="shared" si="20"/>
-        <v>7.2480526662468492</v>
+        <v>7.2148884173727144</v>
       </c>
       <c r="Y35">
         <f t="shared" si="20"/>
-        <v>7.4936861067749199</v>
+        <v>7.4615025453800534</v>
       </c>
       <c r="Z35">
         <f t="shared" si="20"/>
-        <v>7.6945234758923098</v>
+        <v>7.6629099322638501</v>
       </c>
       <c r="AA35">
         <f t="shared" si="20"/>
-        <v>7.8580094232575695</v>
+        <v>7.8266415648626619</v>
       </c>
       <c r="AB35">
         <f t="shared" si="20"/>
-        <v>7.9906192237875393</v>
+        <v>7.9592552890548491</v>
       </c>
       <c r="AC35">
         <f t="shared" si="20"/>
-        <v>8.0978759257291291</v>
+        <v>8.0663457653706914</v>
       </c>
       <c r="AD35">
         <f t="shared" si="20"/>
-        <v>8.18442319511378</v>
+        <v>8.1526149976363005</v>
       </c>
       <c r="AE35">
         <f t="shared" si="20"/>
-        <v>8.254123462604646</v>
+        <v>8.2219707707251022</v>
       </c>
       <c r="AF35">
         <f t="shared" si="20"/>
-        <v>8.3101630606320711</v>
+        <v>8.2776333007029823</v>
       </c>
       <c r="AG35">
         <f t="shared" si="20"/>
-        <v>8.3551539683607459</v>
+        <v>8.32223892018723</v>
       </c>
       <c r="AH35">
         <f t="shared" si="20"/>
-        <v>8.3912268209169678</v>
+        <v>8.3579350315992631</v>
       </c>
       <c r="AI35">
         <f t="shared" si="20"/>
-        <v>8.3072916726785966</v>
+        <v>8.2878429879669113</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -3860,126 +3877,126 @@
       </c>
       <c r="B36" s="1">
         <f>f3_*SUMPRODUCT(lz,ta3_)</f>
-        <v>6.0995222989605608E-2</v>
+        <v>7.248468529118951E-2</v>
       </c>
       <c r="C36" s="10">
         <f>phi_t3/SUM(phi_t1,phi_t2,phi_t3)</f>
-        <v>0.25841296427403693</v>
+        <v>0.33334020082979787</v>
       </c>
       <c r="G36" s="1">
         <f>SUM(dqa21_)</f>
-        <v>141.92146068490834</v>
+        <v>141.32829153260764</v>
       </c>
       <c r="H36" s="1">
         <f>SUM(dqa22_)</f>
-        <v>2.9730494024317755</v>
+        <v>2.9569816276083545</v>
       </c>
       <c r="I36" s="11">
         <f>SUM(dqa23_)</f>
-        <v>141.92146068486642</v>
+        <v>141.32829153256534</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K36">
         <f t="shared" ref="K36:AI36" si="21">flt2_*qa2_+lz*wa*flt2_^2/za*(sa-oa/za)</f>
-        <v>3.3210086412017938E-5</v>
+        <v>3.3218283062188014E-5</v>
       </c>
       <c r="L36">
         <f t="shared" si="21"/>
-        <v>1.031067578412727E-2</v>
+        <v>1.0324624766700524E-2</v>
       </c>
       <c r="M36">
         <f t="shared" si="21"/>
-        <v>0.44666724568426142</v>
+        <v>0.44883340816069484</v>
       </c>
       <c r="N36">
         <f t="shared" si="21"/>
-        <v>1.0869559022189095</v>
+        <v>1.0851936729063125</v>
       </c>
       <c r="O36">
         <f t="shared" si="21"/>
-        <v>0.7323402385867368</v>
+        <v>0.72452622265170485</v>
       </c>
       <c r="P36">
         <f t="shared" si="21"/>
-        <v>0.37950269363964428</v>
+        <v>0.37433642592833344</v>
       </c>
       <c r="Q36">
         <f t="shared" si="21"/>
-        <v>0.17989472351343327</v>
+        <v>0.17768097690496787</v>
       </c>
       <c r="R36">
         <f t="shared" si="21"/>
-        <v>8.0069973139530112E-2</v>
+        <v>7.9234655401247814E-2</v>
       </c>
       <c r="S36">
         <f t="shared" si="21"/>
-        <v>3.4049896676572079E-2</v>
+        <v>3.3751746641726019E-2</v>
       </c>
       <c r="T36">
         <f t="shared" si="21"/>
-        <v>1.4004983896324381E-2</v>
+        <v>1.3901392828401776E-2</v>
       </c>
       <c r="U36">
         <f t="shared" si="21"/>
-        <v>5.6188563835489098E-3</v>
+        <v>5.5832043499768162E-3</v>
       </c>
       <c r="V36">
         <f t="shared" si="21"/>
-        <v>2.2121857167051741E-3</v>
+        <v>2.199891604728851E-3</v>
       </c>
       <c r="W36">
         <f t="shared" si="21"/>
-        <v>8.5843030277643595E-4</v>
+        <v>8.541525217000323E-4</v>
       </c>
       <c r="X36">
         <f t="shared" si="21"/>
-        <v>3.2939181920639478E-4</v>
+        <v>3.2788465131285328E-4</v>
       </c>
       <c r="Y36">
         <f t="shared" si="21"/>
-        <v>1.2528936227013192E-4</v>
+        <v>1.2475127489560214E-4</v>
       </c>
       <c r="Z36">
         <f t="shared" si="21"/>
-        <v>4.7329036448110664E-5</v>
+        <v>4.7134581448612226E-5</v>
       </c>
       <c r="AA36">
         <f t="shared" si="21"/>
-        <v>1.7782209068844278E-5</v>
+        <v>1.7711225466512465E-5</v>
       </c>
       <c r="AB36">
         <f t="shared" si="21"/>
-        <v>6.6524379948985889E-6</v>
+        <v>6.6263265478077122E-6</v>
       </c>
       <c r="AC36">
         <f t="shared" si="21"/>
-        <v>2.4802688028012363E-6</v>
+        <v>2.47061154529302E-6</v>
       </c>
       <c r="AD36">
         <f t="shared" si="21"/>
-        <v>9.2223785082610458E-7</v>
+        <v>9.1865363688934303E-7</v>
       </c>
       <c r="AE36">
         <f t="shared" si="21"/>
-        <v>3.4217876827308521E-7</v>
+        <v>3.408458625376852E-7</v>
       </c>
       <c r="AF36">
         <f t="shared" si="21"/>
-        <v>1.2674150981331357E-7</v>
+        <v>1.2624538586758636E-7</v>
       </c>
       <c r="AG36">
         <f t="shared" si="21"/>
-        <v>4.6880368971055735E-8</v>
+        <v>4.6695684211335232E-8</v>
       </c>
       <c r="AH36">
         <f t="shared" si="21"/>
-        <v>1.7321649920367821E-8</v>
+        <v>1.7252927106399014E-8</v>
       </c>
       <c r="AI36">
         <f t="shared" si="21"/>
-        <v>6.308854163722762E-9</v>
+        <v>6.2940841375389239E-9</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -3988,122 +4005,122 @@
       </c>
       <c r="B37" s="1">
         <f>SUMPRODUCT(lz,qa1_)</f>
-        <v>11.403971758770538</v>
+        <v>11.745740426975647</v>
       </c>
       <c r="G37" s="1">
         <f>SUM(dqa31_)</f>
-        <v>137.40849260405466</v>
+        <v>136.71146438910975</v>
       </c>
       <c r="H37" s="1">
         <f>SUM(dqa32_)</f>
-        <v>141.92146068486642</v>
+        <v>141.32829153256534</v>
       </c>
       <c r="I37" s="1">
         <f>SUM(dqa33_)</f>
-        <v>137.40849260406148</v>
+        <v>136.71146438911657</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K37">
         <f t="shared" ref="K37:AI37" si="22">flt3_*qa3_+lz*wa*flt3_^2/za*(sa-oa/za)</f>
-        <v>7.6046843012894936E-11</v>
+        <v>7.606561229163098E-11</v>
       </c>
       <c r="L37">
         <f t="shared" si="22"/>
-        <v>7.406620958394106E-8</v>
+        <v>7.4166411383356007E-8</v>
       </c>
       <c r="M37">
         <f t="shared" si="22"/>
-        <v>2.9428931498365567E-5</v>
+        <v>2.9571650374104112E-5</v>
       </c>
       <c r="N37">
         <f t="shared" si="22"/>
-        <v>7.3201566593543094E-3</v>
+        <v>7.3082888415232639E-3</v>
       </c>
       <c r="O37">
         <f t="shared" si="22"/>
-        <v>0.50412636455847637</v>
+        <v>0.49874737370371802</v>
       </c>
       <c r="P37">
         <f t="shared" si="22"/>
-        <v>2.3960659894762575</v>
+        <v>2.3634477273056191</v>
       </c>
       <c r="Q37">
         <f t="shared" si="22"/>
-        <v>3.5630682569196335</v>
+        <v>3.5192218888025741</v>
       </c>
       <c r="R37">
         <f t="shared" si="22"/>
-        <v>4.3637973900480027</v>
+        <v>4.3182727417528781</v>
       </c>
       <c r="S37">
         <f t="shared" si="22"/>
-        <v>5.0491855067433082</v>
+        <v>5.0049734831627619</v>
       </c>
       <c r="T37">
         <f t="shared" si="22"/>
-        <v>5.6454278537903679</v>
+        <v>5.603670154918067</v>
       </c>
       <c r="U37">
         <f t="shared" si="22"/>
-        <v>6.1565569056829519</v>
+        <v>6.117493124993957</v>
       </c>
       <c r="V37">
         <f t="shared" si="22"/>
-        <v>6.5884698005544067</v>
+        <v>6.551854707676366</v>
       </c>
       <c r="W37">
         <f t="shared" si="22"/>
-        <v>6.9492958745598514</v>
+        <v>6.9146657289436346</v>
       </c>
       <c r="X37">
         <f t="shared" si="22"/>
-        <v>7.2480526662468492</v>
+        <v>7.2148884173727144</v>
       </c>
       <c r="Y37">
         <f t="shared" si="22"/>
-        <v>7.4936861067749199</v>
+        <v>7.4615025453800534</v>
       </c>
       <c r="Z37">
         <f t="shared" si="22"/>
-        <v>7.6945234758923098</v>
+        <v>7.6629099322638501</v>
       </c>
       <c r="AA37">
         <f t="shared" si="22"/>
-        <v>7.8580094232575695</v>
+        <v>7.8266415648626619</v>
       </c>
       <c r="AB37">
         <f t="shared" si="22"/>
-        <v>7.9906192237875393</v>
+        <v>7.9592552890548491</v>
       </c>
       <c r="AC37">
         <f t="shared" si="22"/>
-        <v>8.0978759257291291</v>
+        <v>8.0663457653706914</v>
       </c>
       <c r="AD37">
         <f t="shared" si="22"/>
-        <v>8.18442319511378</v>
+        <v>8.1526149976363005</v>
       </c>
       <c r="AE37">
         <f t="shared" si="22"/>
-        <v>8.254123462604646</v>
+        <v>8.2219707707251022</v>
       </c>
       <c r="AF37">
         <f t="shared" si="22"/>
-        <v>8.3101630606320711</v>
+        <v>8.2776333007029823</v>
       </c>
       <c r="AG37">
         <f t="shared" si="22"/>
-        <v>8.3551539683607459</v>
+        <v>8.32223892018723</v>
       </c>
       <c r="AH37">
         <f t="shared" si="22"/>
-        <v>8.3912268209169678</v>
+        <v>8.3579350315992631</v>
       </c>
       <c r="AI37">
         <f t="shared" si="22"/>
-        <v>8.3072916726785966</v>
+        <v>8.2878429879669113</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4112,7 +4129,7 @@
       </c>
       <c r="B38" s="1">
         <f>SUMPRODUCT(lz,qa2_)</f>
-        <v>3.5484911859250294</v>
+        <v>3.7046378693679896</v>
       </c>
       <c r="G38" t="s">
         <v>69</v>
@@ -4122,103 +4139,103 @@
       </c>
       <c r="K38">
         <f t="shared" ref="K38:AI38" si="23">flt1_*qa1_+lz*wa*flt2_*flt1_/za*(sa-oa/za)</f>
-        <v>-4.7606926709027299E-8</v>
+        <v>-4.7630744103785547E-8</v>
       </c>
       <c r="L38">
         <f t="shared" si="23"/>
-        <v>-1.9703841193112173E-5</v>
+        <v>-1.9786800198708514E-5</v>
       </c>
       <c r="M38">
         <f t="shared" si="23"/>
-        <v>-1.9262022199289192E-3</v>
+        <v>-1.9648280948683576E-3</v>
       </c>
       <c r="N38">
         <f t="shared" si="23"/>
-        <v>-2.5561847199012975E-2</v>
+        <v>-2.6973682461303914E-2</v>
       </c>
       <c r="O38">
         <f t="shared" si="23"/>
-        <v>0.47307835373947793</v>
+        <v>0.46589044977590599</v>
       </c>
       <c r="P38">
         <f t="shared" si="23"/>
-        <v>2.7230361087979573</v>
+        <v>2.7110243001172756</v>
       </c>
       <c r="Q38">
         <f t="shared" si="23"/>
-        <v>4.0383310001771173</v>
+        <v>4.0236017421319383</v>
       </c>
       <c r="R38">
         <f t="shared" si="23"/>
-        <v>4.8647696507974993</v>
+        <v>4.8474844141317206</v>
       </c>
       <c r="S38">
         <f t="shared" si="23"/>
-        <v>5.5305286826307247</v>
+        <v>5.5102576572866599</v>
       </c>
       <c r="T38">
         <f t="shared" si="23"/>
-        <v>6.0851584911777588</v>
+        <v>6.0619145383255244</v>
       </c>
       <c r="U38">
         <f t="shared" si="23"/>
-        <v>6.5452963793789767</v>
+        <v>6.519408778197703</v>
       </c>
       <c r="V38">
         <f t="shared" si="23"/>
-        <v>6.9244436727479801</v>
+        <v>6.8963535683228692</v>
       </c>
       <c r="W38">
         <f t="shared" si="23"/>
-        <v>7.2350325928987802</v>
+        <v>7.2051732906077728</v>
       </c>
       <c r="X38">
         <f t="shared" si="23"/>
-        <v>7.4882362397597193</v>
+        <v>7.456982993820449</v>
       </c>
       <c r="Y38">
         <f t="shared" si="23"/>
-        <v>7.6938353507511783</v>
+        <v>7.6614935659304839</v>
       </c>
       <c r="Z38">
         <f t="shared" si="23"/>
-        <v>7.8602271324102384</v>
+        <v>7.8270376285618246</v>
       </c>
       <c r="AA38">
         <f t="shared" si="23"/>
-        <v>7.9945162251867012</v>
+        <v>7.9606660918888119</v>
       </c>
       <c r="AB38">
         <f t="shared" si="23"/>
-        <v>8.102645350179321</v>
+        <v>8.0682791742265394</v>
       </c>
       <c r="AC38">
         <f t="shared" si="23"/>
-        <v>8.1895402597731035</v>
+        <v>8.1547698014151457</v>
       </c>
       <c r="AD38">
         <f t="shared" si="23"/>
-        <v>8.2592539791355222</v>
+        <v>8.2241658843938357</v>
       </c>
       <c r="AE38">
         <f t="shared" si="23"/>
-        <v>8.3151018005728083</v>
+        <v>8.2797635268315481</v>
       </c>
       <c r="AF38">
         <f t="shared" si="23"/>
-        <v>8.3597826867947767</v>
+        <v>8.3242469847252476</v>
       </c>
       <c r="AG38">
         <f t="shared" si="23"/>
-        <v>8.395485440749658</v>
+        <v>8.3597937308155608</v>
       </c>
       <c r="AH38">
         <f t="shared" si="23"/>
-        <v>8.4239796696328746</v>
+        <v>8.3881645923889732</v>
       </c>
       <c r="AI38">
         <f t="shared" si="23"/>
-        <v>8.4466894184832295</v>
+        <v>8.4107771636989721</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4227,239 +4244,239 @@
       </c>
       <c r="B39" s="1">
         <f>SUMPRODUCT(lz,qa3_)</f>
-        <v>11.403971760118671</v>
+        <v>11.745740428325337</v>
       </c>
       <c r="G39" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
-        <v>104.65857013892038</v>
+        <v>110.26056183089537</v>
       </c>
       <c r="H39" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
-        <v>109.99756890612824</v>
+        <v>116.38652537399793</v>
       </c>
       <c r="I39" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
-        <v>104.65857012830291</v>
+        <v>110.26056181856346</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K39">
         <f t="shared" ref="K39:AI39" si="24">flt1_*qa1_+lz*wa*flt3_*flt1_/za*(sa-oa/za)</f>
-        <v>7.5965138807048583E-11</v>
+        <v>7.5983881259288646E-11</v>
       </c>
       <c r="L39">
         <f t="shared" si="24"/>
-        <v>7.4066077868985193E-8</v>
+        <v>7.4166279391195771E-8</v>
       </c>
       <c r="M39">
         <f t="shared" si="24"/>
-        <v>2.9428931183872598E-5</v>
+        <v>2.9571650057079199E-5</v>
       </c>
       <c r="N39">
         <f t="shared" si="24"/>
-        <v>7.3201566580431889E-3</v>
+        <v>7.3082888402045774E-3</v>
       </c>
       <c r="O39">
         <f t="shared" si="24"/>
-        <v>0.50412636455501747</v>
+        <v>0.49874737370026512</v>
       </c>
       <c r="P39">
         <f t="shared" si="24"/>
-        <v>2.3960659894750398</v>
+        <v>2.3634477273044086</v>
       </c>
       <c r="Q39">
         <f t="shared" si="24"/>
-        <v>3.5630682569194061</v>
+        <v>3.5192218888023499</v>
       </c>
       <c r="R39">
         <f t="shared" si="24"/>
-        <v>4.3637973900479485</v>
+        <v>4.3182727417528239</v>
       </c>
       <c r="S39">
         <f t="shared" si="24"/>
-        <v>5.0491855067432914</v>
+        <v>5.004973483162745</v>
       </c>
       <c r="T39">
         <f t="shared" si="24"/>
-        <v>5.6454278537903626</v>
+        <v>5.603670154918059</v>
       </c>
       <c r="U39">
         <f t="shared" si="24"/>
-        <v>6.1565569056829492</v>
+        <v>6.1174931249939553</v>
       </c>
       <c r="V39">
         <f t="shared" si="24"/>
-        <v>6.5884698005544049</v>
+        <v>6.5518547076763616</v>
       </c>
       <c r="W39">
         <f t="shared" si="24"/>
-        <v>6.9492958745598514</v>
+        <v>6.9146657289436346</v>
       </c>
       <c r="X39">
         <f t="shared" si="24"/>
-        <v>7.2480526662468492</v>
+        <v>7.2148884173727144</v>
       </c>
       <c r="Y39">
         <f t="shared" si="24"/>
-        <v>7.4936861067749199</v>
+        <v>7.4615025453800534</v>
       </c>
       <c r="Z39">
         <f t="shared" si="24"/>
-        <v>7.6945234758923098</v>
+        <v>7.6629099322638501</v>
       </c>
       <c r="AA39">
         <f t="shared" si="24"/>
-        <v>7.8580094232575695</v>
+        <v>7.8266415648626619</v>
       </c>
       <c r="AB39">
         <f t="shared" si="24"/>
-        <v>7.9906192237875393</v>
+        <v>7.9592552890548491</v>
       </c>
       <c r="AC39">
         <f t="shared" si="24"/>
-        <v>8.0978759257291291</v>
+        <v>8.0663457653706914</v>
       </c>
       <c r="AD39">
         <f t="shared" si="24"/>
-        <v>8.18442319511378</v>
+        <v>8.1526149976363005</v>
       </c>
       <c r="AE39">
         <f t="shared" si="24"/>
-        <v>8.254123462604646</v>
+        <v>8.2219707707251022</v>
       </c>
       <c r="AF39">
         <f t="shared" si="24"/>
-        <v>8.3101630606320711</v>
+        <v>8.2776333007029823</v>
       </c>
       <c r="AG39">
         <f t="shared" si="24"/>
-        <v>8.3551539683607459</v>
+        <v>8.32223892018723</v>
       </c>
       <c r="AH39">
         <f t="shared" si="24"/>
-        <v>8.3912268209169678</v>
+        <v>8.3579350315992631</v>
       </c>
       <c r="AI39">
         <f t="shared" si="24"/>
-        <v>8.3072916726785966</v>
+        <v>8.2878429879669113</v>
       </c>
     </row>
     <row r="40" spans="1:35">
       <c r="G40" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
-        <v>109.99756890612824</v>
+        <v>116.38652537399793</v>
       </c>
       <c r="H40" s="1">
         <f>re*phi_q2+f2_*phi_q2*$H32+f2_*re*H36</f>
-        <v>25.124605857598642</v>
+        <v>26.260926189133844</v>
       </c>
       <c r="I40" s="1">
         <f>re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
-        <v>105.64780902756542</v>
+        <v>111.41873308685707</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>65</v>
       </c>
       <c r="K40">
         <f t="shared" ref="K40:AI40" si="25">flt1_*qa1_+lz*wa*flt1_*flt2_/za*(sa-oa/za)</f>
-        <v>-4.7606926709027292E-8</v>
+        <v>-4.763074410378554E-8</v>
       </c>
       <c r="L40">
         <f t="shared" si="25"/>
-        <v>-1.9703841193112177E-5</v>
+        <v>-1.9786800198708514E-5</v>
       </c>
       <c r="M40">
         <f t="shared" si="25"/>
-        <v>-1.9262022199289187E-3</v>
+        <v>-1.9648280948683576E-3</v>
       </c>
       <c r="N40">
         <f t="shared" si="25"/>
-        <v>-2.5561847199012975E-2</v>
+        <v>-2.6973682461303914E-2</v>
       </c>
       <c r="O40">
         <f t="shared" si="25"/>
-        <v>0.47307835373947793</v>
+        <v>0.46589044977590599</v>
       </c>
       <c r="P40">
         <f t="shared" si="25"/>
-        <v>2.7230361087979573</v>
+        <v>2.7110243001172756</v>
       </c>
       <c r="Q40">
         <f t="shared" si="25"/>
-        <v>4.0383310001771173</v>
+        <v>4.0236017421319383</v>
       </c>
       <c r="R40">
         <f t="shared" si="25"/>
-        <v>4.8647696507974993</v>
+        <v>4.8474844141317206</v>
       </c>
       <c r="S40">
         <f t="shared" si="25"/>
-        <v>5.5305286826307247</v>
+        <v>5.5102576572866599</v>
       </c>
       <c r="T40">
         <f t="shared" si="25"/>
-        <v>6.0851584911777588</v>
+        <v>6.0619145383255244</v>
       </c>
       <c r="U40">
         <f t="shared" si="25"/>
-        <v>6.5452963793789767</v>
+        <v>6.519408778197703</v>
       </c>
       <c r="V40">
         <f t="shared" si="25"/>
-        <v>6.9244436727479801</v>
+        <v>6.8963535683228692</v>
       </c>
       <c r="W40">
         <f t="shared" si="25"/>
-        <v>7.2350325928987802</v>
+        <v>7.2051732906077728</v>
       </c>
       <c r="X40">
         <f t="shared" si="25"/>
-        <v>7.4882362397597193</v>
+        <v>7.456982993820449</v>
       </c>
       <c r="Y40">
         <f t="shared" si="25"/>
-        <v>7.6938353507511783</v>
+        <v>7.6614935659304839</v>
       </c>
       <c r="Z40">
         <f t="shared" si="25"/>
-        <v>7.8602271324102384</v>
+        <v>7.8270376285618246</v>
       </c>
       <c r="AA40">
         <f t="shared" si="25"/>
-        <v>7.9945162251867012</v>
+        <v>7.9606660918888119</v>
       </c>
       <c r="AB40">
         <f t="shared" si="25"/>
-        <v>8.102645350179321</v>
+        <v>8.0682791742265394</v>
       </c>
       <c r="AC40">
         <f t="shared" si="25"/>
-        <v>8.1895402597731035</v>
+        <v>8.1547698014151457</v>
       </c>
       <c r="AD40">
         <f t="shared" si="25"/>
-        <v>8.2592539791355222</v>
+        <v>8.2241658843938357</v>
       </c>
       <c r="AE40">
         <f t="shared" si="25"/>
-        <v>8.3151018005728083</v>
+        <v>8.2797635268315481</v>
       </c>
       <c r="AF40">
         <f t="shared" si="25"/>
-        <v>8.3597826867947767</v>
+        <v>8.3242469847252476</v>
       </c>
       <c r="AG40">
         <f t="shared" si="25"/>
-        <v>8.395485440749658</v>
+        <v>8.3597937308155608</v>
       </c>
       <c r="AH40">
         <f t="shared" si="25"/>
-        <v>8.4239796696328746</v>
+        <v>8.3881645923889732</v>
       </c>
       <c r="AI40">
         <f t="shared" si="25"/>
-        <v>8.4466894184832295</v>
+        <v>8.4107771636989721</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -4470,118 +4487,118 @@
       <c r="C41" s="16"/>
       <c r="G41" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
-        <v>104.65857012830291</v>
+        <v>110.26056181856346</v>
       </c>
       <c r="H41" s="1">
         <f>re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>105.64780902756542</v>
+        <v>111.41873308685707</v>
       </c>
       <c r="I41" s="1">
         <f>re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>104.65857074079418</v>
+        <v>110.26159630277692</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
       </c>
       <c r="K41">
         <f t="shared" ref="K41:AI41" si="26">flt1_*qa1_+lz*wa*flt3_*flt2_/za*(sa-oa/za)</f>
-        <v>-4.7624326110532381E-8</v>
+        <v>-4.7648152203054232E-8</v>
       </c>
       <c r="L41">
         <f t="shared" si="26"/>
-        <v>-1.9703854170076816E-5</v>
+        <v>-1.9786813230171155E-5</v>
       </c>
       <c r="M41">
         <f t="shared" si="26"/>
-        <v>-1.9262022282117393E-3</v>
+        <v>-1.964828103315378E-3</v>
       </c>
       <c r="N41">
         <f t="shared" si="26"/>
-        <v>-2.5561847201684567E-2</v>
+        <v>-2.6973682464089255E-2</v>
       </c>
       <c r="O41">
         <f t="shared" si="26"/>
-        <v>0.47307835373893414</v>
+        <v>0.46589044977533051</v>
       </c>
       <c r="P41">
         <f t="shared" si="26"/>
-        <v>2.723036108797908</v>
+        <v>2.7110243001172232</v>
       </c>
       <c r="Q41">
         <f t="shared" si="26"/>
-        <v>4.0383310001771138</v>
+        <v>4.0236017421319339</v>
       </c>
       <c r="R41">
         <f t="shared" si="26"/>
-        <v>4.8647696507974985</v>
+        <v>4.8474844141317206</v>
       </c>
       <c r="S41">
         <f t="shared" si="26"/>
-        <v>5.5305286826307247</v>
+        <v>5.5102576572866591</v>
       </c>
       <c r="T41">
         <f t="shared" si="26"/>
-        <v>6.0851584911777588</v>
+        <v>6.0619145383255244</v>
       </c>
       <c r="U41">
         <f t="shared" si="26"/>
-        <v>6.5452963793789767</v>
+        <v>6.519408778197703</v>
       </c>
       <c r="V41">
         <f t="shared" si="26"/>
-        <v>6.9244436727479801</v>
+        <v>6.8963535683228692</v>
       </c>
       <c r="W41">
         <f t="shared" si="26"/>
-        <v>7.2350325928987802</v>
+        <v>7.2051732906077728</v>
       </c>
       <c r="X41">
         <f t="shared" si="26"/>
-        <v>7.4882362397597193</v>
+        <v>7.456982993820449</v>
       </c>
       <c r="Y41">
         <f t="shared" si="26"/>
-        <v>7.6938353507511783</v>
+        <v>7.6614935659304839</v>
       </c>
       <c r="Z41">
         <f t="shared" si="26"/>
-        <v>7.8602271324102384</v>
+        <v>7.8270376285618246</v>
       </c>
       <c r="AA41">
         <f t="shared" si="26"/>
-        <v>7.9945162251867012</v>
+        <v>7.9606660918888119</v>
       </c>
       <c r="AB41">
         <f t="shared" si="26"/>
-        <v>8.102645350179321</v>
+        <v>8.0682791742265394</v>
       </c>
       <c r="AC41">
         <f t="shared" si="26"/>
-        <v>8.1895402597731035</v>
+        <v>8.1547698014151457</v>
       </c>
       <c r="AD41">
         <f t="shared" si="26"/>
-        <v>8.2592539791355222</v>
+        <v>8.2241658843938357</v>
       </c>
       <c r="AE41">
         <f t="shared" si="26"/>
-        <v>8.3151018005728083</v>
+        <v>8.2797635268315481</v>
       </c>
       <c r="AF41">
         <f t="shared" si="26"/>
-        <v>8.3597826867947767</v>
+        <v>8.3242469847252476</v>
       </c>
       <c r="AG41">
         <f t="shared" si="26"/>
-        <v>8.395485440749658</v>
+        <v>8.3597937308155608</v>
       </c>
       <c r="AH41">
         <f t="shared" si="26"/>
-        <v>8.4239796696328746</v>
+        <v>8.3881645923889732</v>
       </c>
       <c r="AI41">
         <f t="shared" si="26"/>
-        <v>8.4466894184832295</v>
+        <v>8.4107771636989721</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -4590,110 +4607,110 @@
       </c>
       <c r="B42" s="1">
         <f>phif/phie</f>
-        <v>0.39999855522103445</v>
+        <v>0.40000071794109937</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
       </c>
       <c r="K42">
         <f t="shared" ref="K42:AI42" si="27">flt1_*qa1_+lz*wa*flt1_*flt3_/za*(sa-oa/za)</f>
-        <v>7.5965138807048583E-11</v>
+        <v>7.5983881259288646E-11</v>
       </c>
       <c r="L42">
         <f t="shared" si="27"/>
-        <v>7.4066077868985193E-8</v>
+        <v>7.4166279391195771E-8</v>
       </c>
       <c r="M42">
         <f t="shared" si="27"/>
-        <v>2.9428931183872598E-5</v>
+        <v>2.9571650057079199E-5</v>
       </c>
       <c r="N42">
         <f t="shared" si="27"/>
-        <v>7.3201566580431889E-3</v>
+        <v>7.3082888402045774E-3</v>
       </c>
       <c r="O42">
         <f t="shared" si="27"/>
-        <v>0.50412636455501747</v>
+        <v>0.49874737370026512</v>
       </c>
       <c r="P42">
         <f t="shared" si="27"/>
-        <v>2.3960659894750398</v>
+        <v>2.3634477273044086</v>
       </c>
       <c r="Q42">
         <f t="shared" si="27"/>
-        <v>3.5630682569194061</v>
+        <v>3.5192218888023499</v>
       </c>
       <c r="R42">
         <f t="shared" si="27"/>
-        <v>4.3637973900479485</v>
+        <v>4.3182727417528239</v>
       </c>
       <c r="S42">
         <f t="shared" si="27"/>
-        <v>5.0491855067432914</v>
+        <v>5.004973483162745</v>
       </c>
       <c r="T42">
         <f t="shared" si="27"/>
-        <v>5.6454278537903626</v>
+        <v>5.603670154918059</v>
       </c>
       <c r="U42">
         <f t="shared" si="27"/>
-        <v>6.1565569056829492</v>
+        <v>6.1174931249939553</v>
       </c>
       <c r="V42">
         <f t="shared" si="27"/>
-        <v>6.5884698005544049</v>
+        <v>6.5518547076763616</v>
       </c>
       <c r="W42">
         <f t="shared" si="27"/>
-        <v>6.9492958745598514</v>
+        <v>6.9146657289436346</v>
       </c>
       <c r="X42">
         <f t="shared" si="27"/>
-        <v>7.2480526662468492</v>
+        <v>7.2148884173727144</v>
       </c>
       <c r="Y42">
         <f t="shared" si="27"/>
-        <v>7.4936861067749199</v>
+        <v>7.4615025453800534</v>
       </c>
       <c r="Z42">
         <f t="shared" si="27"/>
-        <v>7.6945234758923098</v>
+        <v>7.6629099322638501</v>
       </c>
       <c r="AA42">
         <f t="shared" si="27"/>
-        <v>7.8580094232575695</v>
+        <v>7.8266415648626619</v>
       </c>
       <c r="AB42">
         <f t="shared" si="27"/>
-        <v>7.9906192237875393</v>
+        <v>7.9592552890548491</v>
       </c>
       <c r="AC42">
         <f t="shared" si="27"/>
-        <v>8.0978759257291291</v>
+        <v>8.0663457653706914</v>
       </c>
       <c r="AD42">
         <f t="shared" si="27"/>
-        <v>8.18442319511378</v>
+        <v>8.1526149976363005</v>
       </c>
       <c r="AE42">
         <f t="shared" si="27"/>
-        <v>8.254123462604646</v>
+        <v>8.2219707707251022</v>
       </c>
       <c r="AF42">
         <f t="shared" si="27"/>
-        <v>8.3101630606320711</v>
+        <v>8.2776333007029823</v>
       </c>
       <c r="AG42">
         <f t="shared" si="27"/>
-        <v>8.3551539683607459</v>
+        <v>8.32223892018723</v>
       </c>
       <c r="AH42">
         <f t="shared" si="27"/>
-        <v>8.3912268209169678</v>
+        <v>8.3579350315992631</v>
       </c>
       <c r="AI42">
         <f t="shared" si="27"/>
-        <v>8.3072916726785966</v>
+        <v>8.2878429879669113</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -4702,110 +4719,110 @@
       </c>
       <c r="B43" s="11">
         <f>MAX(0,Ro*(reck-1/spr)/(reck-1))</f>
-        <v>7.1196976633991707</v>
+        <v>7.1197077936331228</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>61</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43:AI43" si="28">flt1_*qa1_+lz*wa*flt2_*flt3_/za*(sa-oa/za)</f>
-        <v>-4.7624326110532381E-8</v>
+        <v>-4.7648152203054232E-8</v>
       </c>
       <c r="L43">
         <f t="shared" si="28"/>
-        <v>-1.9703854170076816E-5</v>
+        <v>-1.9786813230171155E-5</v>
       </c>
       <c r="M43">
         <f t="shared" si="28"/>
-        <v>-1.9262022282117402E-3</v>
+        <v>-1.964828103315378E-3</v>
       </c>
       <c r="N43">
         <f t="shared" si="28"/>
-        <v>-2.556184720168456E-2</v>
+        <v>-2.6973682464089255E-2</v>
       </c>
       <c r="O43">
         <f t="shared" si="28"/>
-        <v>0.47307835373893414</v>
+        <v>0.46589044977533051</v>
       </c>
       <c r="P43">
         <f t="shared" si="28"/>
-        <v>2.723036108797908</v>
+        <v>2.7110243001172232</v>
       </c>
       <c r="Q43">
         <f t="shared" si="28"/>
-        <v>4.0383310001771138</v>
+        <v>4.0236017421319339</v>
       </c>
       <c r="R43">
         <f t="shared" si="28"/>
-        <v>4.8647696507974985</v>
+        <v>4.8474844141317206</v>
       </c>
       <c r="S43">
         <f t="shared" si="28"/>
-        <v>5.5305286826307247</v>
+        <v>5.5102576572866591</v>
       </c>
       <c r="T43">
         <f t="shared" si="28"/>
-        <v>6.0851584911777588</v>
+        <v>6.0619145383255244</v>
       </c>
       <c r="U43">
         <f t="shared" si="28"/>
-        <v>6.5452963793789767</v>
+        <v>6.519408778197703</v>
       </c>
       <c r="V43">
         <f t="shared" si="28"/>
-        <v>6.9244436727479801</v>
+        <v>6.8963535683228692</v>
       </c>
       <c r="W43">
         <f t="shared" si="28"/>
-        <v>7.2350325928987802</v>
+        <v>7.2051732906077728</v>
       </c>
       <c r="X43">
         <f t="shared" si="28"/>
-        <v>7.4882362397597193</v>
+        <v>7.456982993820449</v>
       </c>
       <c r="Y43">
         <f t="shared" si="28"/>
-        <v>7.6938353507511783</v>
+        <v>7.6614935659304839</v>
       </c>
       <c r="Z43">
         <f t="shared" si="28"/>
-        <v>7.8602271324102384</v>
+        <v>7.8270376285618246</v>
       </c>
       <c r="AA43">
         <f t="shared" si="28"/>
-        <v>7.9945162251867012</v>
+        <v>7.9606660918888119</v>
       </c>
       <c r="AB43">
         <f t="shared" si="28"/>
-        <v>8.102645350179321</v>
+        <v>8.0682791742265394</v>
       </c>
       <c r="AC43">
         <f t="shared" si="28"/>
-        <v>8.1895402597731035</v>
+        <v>8.1547698014151457</v>
       </c>
       <c r="AD43">
         <f t="shared" si="28"/>
-        <v>8.2592539791355222</v>
+        <v>8.2241658843938357</v>
       </c>
       <c r="AE43">
         <f t="shared" si="28"/>
-        <v>8.3151018005728083</v>
+        <v>8.2797635268315481</v>
       </c>
       <c r="AF43">
         <f t="shared" si="28"/>
-        <v>8.3597826867947767</v>
+        <v>8.3242469847252476</v>
       </c>
       <c r="AG43">
         <f t="shared" si="28"/>
-        <v>8.395485440749658</v>
+        <v>8.3597937308155608</v>
       </c>
       <c r="AH43">
         <f t="shared" si="28"/>
-        <v>8.4239796696328746</v>
+        <v>8.3881645923889732</v>
       </c>
       <c r="AI43">
         <f t="shared" si="28"/>
-        <v>8.4466894184832295</v>
+        <v>8.4107771636989721</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -4814,11 +4831,11 @@
       </c>
       <c r="B44" s="1">
         <f>f1_*re*phi_q1</f>
-        <v>2.4997399888109619</v>
+        <v>2.9443869019615287</v>
       </c>
       <c r="C44" s="20">
         <f>ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.37525792595872431</v>
+        <v>0.4232805123398507</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -4827,14 +4844,14 @@
       </c>
       <c r="B45" s="1">
         <f>f2_*re*phi_q2</f>
-        <v>1.6619115533171394</v>
+        <v>1.0672499097516894</v>
       </c>
       <c r="C45" s="20">
         <f>ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.24948414051706141</v>
+        <v>0.15342619826674431</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="19" thickBot="1">
@@ -4843,11 +4860,11 @@
       </c>
       <c r="B46" s="1">
         <f>f3_*re*phi_q3</f>
-        <v>2.4997400392076532</v>
+        <v>2.9444757805846495</v>
       </c>
       <c r="C46" s="20">
         <f>ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.37525793352421427</v>
+        <v>0.42329328939340488</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>70</v>
@@ -4859,103 +4876,103 @@
       </c>
       <c r="K46">
         <f t="shared" ref="K46:AI46" si="29">lz*qa1_</f>
-        <v>3.2655808350543217E-6</v>
+        <v>3.2667895782250959E-6</v>
       </c>
       <c r="L46">
         <f t="shared" si="29"/>
-        <v>1.9765385080548794E-4</v>
+        <v>1.9830685531339992E-4</v>
       </c>
       <c r="M46">
         <f t="shared" si="29"/>
-        <v>4.9502396798161152E-3</v>
+        <v>5.0303359246510471E-3</v>
       </c>
       <c r="N46">
         <f t="shared" si="29"/>
-        <v>8.0377517435329546E-2</v>
+        <v>8.3472232294431778E-2</v>
       </c>
       <c r="O46">
         <f t="shared" si="29"/>
-        <v>0.62797573641643889</v>
+        <v>0.66332183097283803</v>
       </c>
       <c r="P46">
         <f t="shared" si="29"/>
-        <v>1.2223234458721</v>
+        <v>1.2991013849339932</v>
       </c>
       <c r="Q46">
         <f t="shared" si="29"/>
-        <v>1.282404127206594</v>
+        <v>1.3617080550460643</v>
       </c>
       <c r="R46">
         <f t="shared" si="29"/>
-        <v>1.203703366173996</v>
+        <v>1.2727438014037058</v>
       </c>
       <c r="S46">
         <f t="shared" si="29"/>
-        <v>1.0881556990873975</v>
+        <v>1.1436126364169148</v>
       </c>
       <c r="T46">
         <f t="shared" si="29"/>
-        <v>0.95991092469231665</v>
+        <v>1.0016351835143371</v>
       </c>
       <c r="U46">
         <f t="shared" si="29"/>
-        <v>0.83128455095021225</v>
+        <v>0.86065931313945654</v>
       </c>
       <c r="V46">
         <f t="shared" si="29"/>
-        <v>0.70967255114358918</v>
+        <v>0.7287323518508827</v>
       </c>
       <c r="W46">
         <f t="shared" si="29"/>
-        <v>0.59912285993210612</v>
+        <v>0.61002643916074317</v>
       </c>
       <c r="X46">
         <f t="shared" si="29"/>
-        <v>0.5013789306139792</v>
+        <v>0.50612462876630904</v>
       </c>
       <c r="Y46">
         <f t="shared" si="29"/>
-        <v>0.41669300985110957</v>
+        <v>0.4169916809889424</v>
       </c>
       <c r="Z46">
         <f t="shared" si="29"/>
-        <v>0.34442619628296045</v>
+        <v>0.34166745780758895</v>
       </c>
       <c r="AA46">
         <f t="shared" si="29"/>
-        <v>0.28346515214127155</v>
+        <v>0.27873349161480548</v>
       </c>
       <c r="AB46">
         <f t="shared" si="29"/>
-        <v>0.23249583222769699</v>
+        <v>0.22660949204669933</v>
       </c>
       <c r="AC46">
         <f t="shared" si="29"/>
-        <v>0.19017314505483437</v>
+        <v>0.18373013222111853</v>
       </c>
       <c r="AD46">
         <f t="shared" si="29"/>
-        <v>0.15521874124846763</v>
+        <v>0.14864165408335045</v>
       </c>
       <c r="AE46">
         <f t="shared" si="29"/>
-        <v>0.12647135210203886</v>
+        <v>0.12004715305378347</v>
       </c>
       <c r="AF46">
         <f t="shared" si="29"/>
-        <v>0.10290716582301095</v>
+        <v>9.6820556029183269E-2</v>
       </c>
       <c r="AG46">
         <f t="shared" si="29"/>
-        <v>8.3642230372726056E-2</v>
+        <v>7.8002620743326909E-2</v>
       </c>
       <c r="AH46">
         <f t="shared" si="29"/>
-        <v>6.792480554352695E-2</v>
+        <v>6.2787514438517655E-2</v>
       </c>
       <c r="AI46">
         <f t="shared" si="29"/>
-        <v>0.28909325948738285</v>
+        <v>0.25533890687910993</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -4964,332 +4981,338 @@
       </c>
       <c r="B47" s="1">
         <f>SUM(B44:B46)</f>
-        <v>6.6613915813357547</v>
+        <v>6.9561125922978686</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" s="31">
         <f>G39/G53</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="H47" s="31">
-        <f t="shared" ref="H47:I47" si="30">H39/H53</f>
-        <v>2.1450926732367432</v>
+        <f>H53/H39</f>
+        <v>0.46234100977901238</v>
       </c>
       <c r="I47" s="31">
-        <f t="shared" si="30"/>
-        <v>0.99999999702313569</v>
+        <f>I53/I39</f>
+        <v>1.0000046911339013</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>77</v>
       </c>
       <c r="K47">
-        <f t="shared" ref="K47:AI47" si="31">lz*qa2_</f>
-        <v>2.1588031906815412E-3</v>
+        <f t="shared" ref="K47:AI47" si="30">lz*qa2_</f>
+        <v>2.159602264030384E-3</v>
       </c>
       <c r="L47">
-        <f t="shared" si="31"/>
-        <v>7.3746101987390955E-2</v>
+        <f t="shared" si="30"/>
+        <v>7.3989742760603577E-2</v>
       </c>
       <c r="M47">
-        <f t="shared" si="31"/>
-        <v>0.60986124375423811</v>
+        <f t="shared" si="30"/>
+        <v>0.61972896706756475</v>
       </c>
       <c r="N47">
-        <f t="shared" si="31"/>
-        <v>0.97944569823551419</v>
+        <f t="shared" si="30"/>
+        <v>1.0171565563551617</v>
       </c>
       <c r="O47">
-        <f t="shared" si="31"/>
-        <v>0.75688449243930345</v>
+        <f t="shared" si="30"/>
+        <v>0.79948631490890709</v>
       </c>
       <c r="P47">
-        <f t="shared" si="31"/>
-        <v>0.48645669656270074</v>
+        <f t="shared" si="30"/>
+        <v>0.51701255535038293</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="31"/>
-        <v>0.28815227226670354</v>
+        <f t="shared" si="30"/>
+        <v>0.30597162150444701</v>
       </c>
       <c r="R47">
-        <f t="shared" si="31"/>
-        <v>0.16305045961112605</v>
+        <f t="shared" si="30"/>
+        <v>0.17240249351939474</v>
       </c>
       <c r="S47">
-        <f t="shared" si="31"/>
-        <v>8.9358995199419353E-2</v>
+        <f t="shared" si="30"/>
+        <v>9.3913101014202041E-2</v>
       </c>
       <c r="T47">
-        <f t="shared" si="31"/>
-        <v>4.781055778387059E-2</v>
+        <f t="shared" si="30"/>
+        <v>4.9888729868471884E-2</v>
       </c>
       <c r="U47">
-        <f t="shared" si="31"/>
-        <v>2.5113354447076384E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.6000774782043309E-2</v>
       </c>
       <c r="V47">
-        <f t="shared" si="31"/>
-        <v>1.3003986799805528E-2</v>
+        <f t="shared" si="30"/>
+        <v>1.3353237163801107E-2</v>
       </c>
       <c r="W47">
-        <f t="shared" si="31"/>
-        <v>6.6588312546662096E-3</v>
+        <f t="shared" si="30"/>
+        <v>6.7800169062429234E-3</v>
       </c>
       <c r="X47">
-        <f t="shared" si="31"/>
-        <v>3.3799619709382936E-3</v>
+        <f t="shared" si="30"/>
+        <v>3.4119542990977249E-3</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="31"/>
-        <v>1.7038272729331205E-3</v>
+        <f t="shared" si="30"/>
+        <v>1.7050485173942631E-3</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="31"/>
-        <v>8.5421883370293472E-4</v>
+        <f t="shared" si="30"/>
+        <v>8.4737682694399673E-4</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="31"/>
-        <v>4.264187176396412E-4</v>
+        <f t="shared" si="30"/>
+        <v>4.1930084583508085E-4</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="31"/>
-        <v>2.1213648660941927E-4</v>
+        <f t="shared" si="30"/>
+        <v>2.0676560527782718E-4</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="31"/>
-        <v>1.0524779479389867E-4</v>
+        <f t="shared" si="30"/>
+        <v>1.0168202901565561E-4</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="31"/>
-        <v>5.2104062941527744E-5</v>
+        <f t="shared" si="30"/>
+        <v>4.989625632702485E-5</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="31"/>
-        <v>2.5750354403030386E-5</v>
+        <f t="shared" si="30"/>
+        <v>2.4442347494756654E-5</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="31"/>
-        <v>1.2708675270626672E-5</v>
+        <f t="shared" si="30"/>
+        <v>1.1957000236627482E-5</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="31"/>
-        <v>6.2653290809821656E-6</v>
+        <f t="shared" si="30"/>
+        <v>5.8428868522299395E-6</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="31"/>
-        <v>3.0861021849271816E-6</v>
+        <f t="shared" si="30"/>
+        <v>2.8526940039701282E-6</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="31"/>
-        <v>7.9667920334411347E-6</v>
+        <f t="shared" si="30"/>
+        <v>7.0365942559820988E-6</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G48" s="31">
         <f>G40/G54</f>
-        <v>2.1450926732367432</v>
+        <v>2.162905688331596</v>
       </c>
       <c r="H48" s="31">
-        <f t="shared" ref="H48:I48" si="32">H40/H54</f>
+        <f t="shared" ref="H48:I48" si="31">H40/H54</f>
         <v>1</v>
       </c>
       <c r="I48" s="31">
-        <f t="shared" si="32"/>
-        <v>2.060266810353844</v>
+        <f>I54/I40</f>
+        <v>0.4829575296756457</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K48">
-        <f t="shared" ref="K48:AI48" si="33">lz*qa3_</f>
-        <v>3.2667706364552806E-6</v>
+        <f t="shared" ref="K48:AI48" si="32">lz*qa3_</f>
+        <v>3.2679798200268268E-6</v>
       </c>
       <c r="L48">
-        <f t="shared" si="33"/>
-        <v>1.9765398014538413E-4</v>
+        <f t="shared" si="32"/>
+        <v>1.9830698508060648E-4</v>
       </c>
       <c r="M48">
-        <f t="shared" si="33"/>
-        <v>4.9502397006120288E-3</v>
+        <f t="shared" si="32"/>
+        <v>5.030335945783445E-3</v>
       </c>
       <c r="N48">
-        <f t="shared" si="33"/>
-        <v>8.0377517441324112E-2</v>
+        <f t="shared" si="32"/>
+        <v>8.3472232300657173E-2</v>
       </c>
       <c r="O48">
-        <f t="shared" si="33"/>
-        <v>0.62797573641831217</v>
+        <f t="shared" si="32"/>
+        <v>0.66332183097481667</v>
       </c>
       <c r="P48">
-        <f t="shared" si="33"/>
-        <v>1.2223234458723788</v>
+        <f t="shared" si="32"/>
+        <v>1.2991013849342896</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="33"/>
-        <v>1.2824041272066318</v>
+        <f t="shared" si="32"/>
+        <v>1.361708055046104</v>
       </c>
       <c r="R48">
-        <f t="shared" si="33"/>
-        <v>1.2037033661740031</v>
+        <f t="shared" si="32"/>
+        <v>1.2727438014037131</v>
       </c>
       <c r="S48">
-        <f t="shared" si="33"/>
-        <v>1.0881556990873993</v>
+        <f t="shared" si="32"/>
+        <v>1.1436126364169166</v>
       </c>
       <c r="T48">
-        <f t="shared" si="33"/>
-        <v>0.95991092469231709</v>
+        <f t="shared" si="32"/>
+        <v>1.0016351835143378</v>
       </c>
       <c r="U48">
-        <f t="shared" si="33"/>
-        <v>0.83128455095021236</v>
+        <f t="shared" si="32"/>
+        <v>0.86065931313945665</v>
       </c>
       <c r="V48">
-        <f t="shared" si="33"/>
-        <v>0.70967255114358929</v>
+        <f t="shared" si="32"/>
+        <v>0.72873235185088303</v>
       </c>
       <c r="W48">
-        <f t="shared" si="33"/>
-        <v>0.59912285993210612</v>
+        <f t="shared" si="32"/>
+        <v>0.61002643916074317</v>
       </c>
       <c r="X48">
-        <f t="shared" si="33"/>
-        <v>0.5013789306139792</v>
+        <f t="shared" si="32"/>
+        <v>0.50612462876630904</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="33"/>
-        <v>0.41669300985110957</v>
+        <f t="shared" si="32"/>
+        <v>0.4169916809889424</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="33"/>
-        <v>0.34442619628296045</v>
+        <f t="shared" si="32"/>
+        <v>0.34166745780758895</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="33"/>
-        <v>0.28346515214127155</v>
+        <f t="shared" si="32"/>
+        <v>0.27873349161480548</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="33"/>
-        <v>0.23249583222769699</v>
+        <f t="shared" si="32"/>
+        <v>0.22660949204669933</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="33"/>
-        <v>0.19017314505483437</v>
+        <f t="shared" si="32"/>
+        <v>0.18373013222111853</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="33"/>
-        <v>0.15521874124846763</v>
+        <f t="shared" si="32"/>
+        <v>0.14864165408335045</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="33"/>
-        <v>0.12647135210203886</v>
+        <f t="shared" si="32"/>
+        <v>0.12004715305378347</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="33"/>
-        <v>0.10290716582301095</v>
+        <f t="shared" si="32"/>
+        <v>9.6820556029183269E-2</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="33"/>
-        <v>8.3642230372726056E-2</v>
+        <f t="shared" si="32"/>
+        <v>7.8002620743326909E-2</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="33"/>
-        <v>6.792480554352695E-2</v>
+        <f t="shared" si="32"/>
+        <v>6.2787514438517655E-2</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="33"/>
-        <v>0.28909325948738285</v>
+        <f t="shared" si="32"/>
+        <v>0.25533890687910993</v>
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="1">
-        <f>ye_2</f>
-        <v>1.6619115533171394</v>
+      <c r="A49" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="35">
+        <f>f1_*phi_q1</f>
+        <v>0.41355445859654233</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" s="31">
         <f>G41/G55</f>
-        <v>0.99999999702313569</v>
+        <v>0.99999530888810539</v>
       </c>
       <c r="H49" s="31">
-        <f t="shared" ref="H49:I49" si="34">H41/H55</f>
-        <v>2.060266810353844</v>
+        <f t="shared" ref="H49:I49" si="33">H41/H55</f>
+        <v>2.0705754410156936</v>
       </c>
       <c r="I49" s="31">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="35">
+        <f>f2_*phi_q2</f>
+        <v>0.14990080220793464</v>
       </c>
     </row>
     <row r="51" spans="1:21">
-      <c r="B51">
-        <f>1000000*(C51-B7)^2</f>
-        <v>2.0873862593703405E-6</v>
-      </c>
-      <c r="C51">
-        <f>spr</f>
-        <v>0.39999855522103445</v>
+      <c r="A51" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="35">
+        <f>f3_*phi_q3</f>
+        <v>0.41356694206155192</v>
       </c>
       <c r="G51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:21">
-      <c r="B52">
-        <f>-(ye_1)</f>
-        <v>-2.4997399888109619</v>
-      </c>
-      <c r="C52">
-        <f>-LN(ye_1)</f>
-        <v>-0.9161867219896993</v>
+      <c r="A52" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="34">
+        <f>phi_t1</f>
+        <v>7.2482496807273103E-2</v>
       </c>
       <c r="G52" s="1">
         <f>G39^0.5</f>
-        <v>10.230277129135866</v>
+        <v>10.500502932283547</v>
       </c>
       <c r="H52" s="1">
         <f>H40^0.5</f>
-        <v>5.0124450977141528</v>
+        <v>5.1245415589234753</v>
       </c>
       <c r="I52" s="11">
         <f>I41^0.5</f>
-        <v>10.230277158552166</v>
+        <v>10.500552190374416</v>
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="B53">
-        <f>-(ye_2)</f>
-        <v>-1.6619115533171394</v>
-      </c>
-      <c r="C53">
-        <f>-LN(ye_2)</f>
-        <v>-0.5079684779998157</v>
+      <c r="A53" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="34">
+        <f>phi_t2</f>
+        <v>7.2482393772525411E-2</v>
       </c>
       <c r="G53">
-        <f t="shared" ref="G53:I55" si="35">G$52*$J53</f>
-        <v>104.65857013892037</v>
+        <f t="shared" ref="G53:I55" si="34">G$52*$J53</f>
+        <v>110.26056183089537</v>
       </c>
       <c r="H53">
-        <f t="shared" si="35"/>
-        <v>51.278702444194288</v>
+        <f t="shared" si="34"/>
+        <v>53.81026366608485</v>
       </c>
       <c r="I53">
-        <f t="shared" si="35"/>
-        <v>104.65857043985727</v>
+        <f t="shared" si="34"/>
+        <v>110.26107906562298</v>
       </c>
       <c r="J53">
         <f t="array" ref="J53:J55">TRANSPOSE(G52:I52)</f>
-        <v>10.230277129135866</v>
+        <v>10.500502932283547</v>
       </c>
       <c r="S53">
         <v>0.33</v>
@@ -5304,34 +5327,33 @@
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="B54">
-        <f>-(ye_3)</f>
-        <v>-2.4997400392076532</v>
-      </c>
-      <c r="C54">
-        <f>-LN(ye_3)</f>
-        <v>-0.91618674215047247</v>
+      <c r="A54" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="34">
+        <f>phi_t3</f>
+        <v>7.248468529118951E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="35"/>
-        <v>51.278702444194288</v>
+        <f t="shared" si="34"/>
+        <v>53.81026366608485</v>
       </c>
       <c r="H54">
-        <f t="shared" si="35"/>
-        <v>25.124605857598642</v>
+        <f t="shared" si="34"/>
+        <v>26.260926189133844</v>
       </c>
       <c r="I54">
-        <f t="shared" si="35"/>
-        <v>51.278702591641881</v>
+        <f t="shared" si="34"/>
+        <v>53.810516091218624</v>
       </c>
       <c r="J54">
-        <v>5.0124450977141528</v>
+        <v>5.1245415589234753</v>
       </c>
       <c r="S54">
         <v>0.32</v>
       </c>
       <c r="T54">
-        <f t="shared" ref="T54:T55" si="36">S54/S$57</f>
+        <f t="shared" ref="T54:T55" si="35">S54/S$57</f>
         <v>0.27826086956521739</v>
       </c>
       <c r="U54">
@@ -5340,35 +5362,27 @@
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="B55">
-        <f>SUM(B51:B54)</f>
-        <v>-6.6613894939494953</v>
-      </c>
-      <c r="C55">
-        <f>SUM(C52:C54,B51)</f>
-        <v>-2.340339854753728</v>
-      </c>
       <c r="G55">
-        <f t="shared" si="35"/>
-        <v>104.65857043985727</v>
+        <f t="shared" si="34"/>
+        <v>110.26107906562298</v>
       </c>
       <c r="H55">
-        <f t="shared" si="35"/>
-        <v>51.278702591641881</v>
+        <f t="shared" si="34"/>
+        <v>53.810516091218624</v>
       </c>
       <c r="I55">
-        <f t="shared" si="35"/>
-        <v>104.65857074079418</v>
+        <f t="shared" si="34"/>
+        <v>110.26159630277694</v>
       </c>
       <c r="J55">
-        <v>10.230277158552166</v>
+        <v>10.500552190374416</v>
       </c>
       <c r="S55" s="33">
         <f>0.5</f>
         <v>0.5</v>
       </c>
       <c r="T55">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.43478260869565222</v>
       </c>
       <c r="U55">

--- a/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
+++ b/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
@@ -35,6 +35,7 @@
     <definedName name="f1_">'Proof of Concept'!$B$27</definedName>
     <definedName name="f2_">'Proof of Concept'!$B$28</definedName>
     <definedName name="f3_">'Proof of Concept'!$B$29</definedName>
+    <definedName name="fbar">'Proof of Concept'!$B$30</definedName>
     <definedName name="flt1_">'Proof of Concept'!$K$18:$AI$18</definedName>
     <definedName name="flt2_">'Proof of Concept'!$K$19:$AI$19</definedName>
     <definedName name="flt3_">'Proof of Concept'!$K$20:$AI$20</definedName>
@@ -47,19 +48,22 @@
     <definedName name="lz">'Proof of Concept'!$K$7:$AI$7</definedName>
     <definedName name="M">'Proof of Concept'!$B$20</definedName>
     <definedName name="ma">'Proof of Concept'!$K$9:$AI$9</definedName>
+    <definedName name="mpr1_">'Proof of Concept'!$B$53</definedName>
+    <definedName name="mpr2_">'Proof of Concept'!$B$54</definedName>
+    <definedName name="mpr3_">'Proof of Concept'!$B$55</definedName>
     <definedName name="oa">'Proof of Concept'!$K$11:$AI$11</definedName>
-    <definedName name="phi_q1">'Proof of Concept'!$B$37</definedName>
-    <definedName name="phi_q2">'Proof of Concept'!$B$38</definedName>
-    <definedName name="phi_q3">'Proof of Concept'!$B$39</definedName>
-    <definedName name="phi_t1">'Proof of Concept'!$B$34</definedName>
-    <definedName name="phi_t2">'Proof of Concept'!$B$35</definedName>
-    <definedName name="phi_t3">'Proof of Concept'!$B$36</definedName>
-    <definedName name="phie">'Proof of Concept'!$B$32</definedName>
-    <definedName name="phif">'Proof of Concept'!$B$33</definedName>
+    <definedName name="phi_q1">'Proof of Concept'!$B$38</definedName>
+    <definedName name="phi_q2">'Proof of Concept'!$B$39</definedName>
+    <definedName name="phi_q3">'Proof of Concept'!$B$40</definedName>
+    <definedName name="phi_t1">'Proof of Concept'!$B$35</definedName>
+    <definedName name="phi_t2">'Proof of Concept'!$B$36</definedName>
+    <definedName name="phi_t3">'Proof of Concept'!$B$37</definedName>
+    <definedName name="phie">'Proof of Concept'!$B$33</definedName>
+    <definedName name="phif">'Proof of Concept'!$B$34</definedName>
     <definedName name="qa1_">'Proof of Concept'!$K$22:$AI$22</definedName>
     <definedName name="qa2_">'Proof of Concept'!$K$23:$AI$23</definedName>
     <definedName name="qa3_">'Proof of Concept'!$K$24:$AI$24</definedName>
-    <definedName name="re">'Proof of Concept'!$B$43</definedName>
+    <definedName name="re">'Proof of Concept'!$B$44</definedName>
     <definedName name="reck">'Proof of Concept'!$B$19</definedName>
     <definedName name="Ro">'Proof of Concept'!$B$21</definedName>
     <definedName name="sa">'Proof of Concept'!$K$10:$AI$10</definedName>
@@ -78,7 +82,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Proof of Concept'!$C$15</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -90,16 +94,19 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="spr">'Proof of Concept'!$B$42</definedName>
+    <definedName name="spr">'Proof of Concept'!$B$43</definedName>
     <definedName name="sr">'Proof of Concept'!$K$12:$AI$12</definedName>
     <definedName name="ta1_">'Proof of Concept'!$K$26:$AI$26</definedName>
     <definedName name="ta2_">'Proof of Concept'!$K$27:$AI$27</definedName>
     <definedName name="ta3_">'Proof of Concept'!$K$28:$AI$28</definedName>
     <definedName name="vonbk">'Proof of Concept'!$B$23</definedName>
     <definedName name="wa">'Proof of Concept'!$K$5:$AI$5</definedName>
-    <definedName name="ye_1">'Proof of Concept'!$B$44</definedName>
-    <definedName name="ye_2">'Proof of Concept'!$B$45</definedName>
-    <definedName name="ye_3">'Proof of Concept'!$B$46</definedName>
+    <definedName name="ye_1">'Proof of Concept'!$B$45</definedName>
+    <definedName name="ye_2">'Proof of Concept'!$B$46</definedName>
+    <definedName name="ye_3">'Proof of Concept'!$B$47</definedName>
+    <definedName name="ypr1">'Proof of Concept'!$B$50</definedName>
+    <definedName name="ypr2">'Proof of Concept'!$B$51</definedName>
+    <definedName name="ypr3">'Proof of Concept'!$B$52</definedName>
     <definedName name="za">'Proof of Concept'!$K$8:$AI$8</definedName>
   </definedNames>
   <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
@@ -166,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>SPR Based PSC Caps</t>
   </si>
@@ -378,9 +385,6 @@
     <t>dye</t>
   </si>
   <si>
-    <t>Mitigation</t>
-  </si>
-  <si>
     <t>Outer product of dye</t>
   </si>
   <si>
@@ -451,6 +455,12 @@
   </si>
   <si>
     <t>mpr3</t>
+  </si>
+  <si>
+    <t>Yield Mitigation</t>
+  </si>
+  <si>
+    <t>fbar</t>
   </si>
 </sst>
 </file>
@@ -609,7 +619,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -658,8 +668,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -714,8 +742,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="66">
     <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Accent3" xfId="5" builtinId="37"/>
@@ -742,6 +771,15 @@
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
@@ -762,6 +800,15 @@
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1052,11 +1099,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI57"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P53" sqref="P53"/>
+      <selection pane="topRight" activeCell="J26" sqref="J26:AI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1077,7 +1124,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1182,11 +1229,11 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="C4" s="22">
-        <f>$C44</f>
-        <v>0.4232805123398507</v>
+        <f>ypr1/SUM(ypr1,ypr2,ypr3)</f>
+        <v>0.39563602410335996</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:AI4" si="0">linf*(1-EXP(-vonbk*age))</f>
@@ -1297,8 +1344,8 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="C5" s="22">
-        <f>$C45</f>
-        <v>0.15342619826674431</v>
+        <f>ypr2/SUM(ypr1,ypr2,ypr3)</f>
+        <v>0.30389694518316718</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -1413,8 +1460,8 @@
         <v>0.33333999999999997</v>
       </c>
       <c r="C6" s="22">
-        <f>$C46</f>
-        <v>0.42329328939340488</v>
+        <f>ypr3/SUM(ypr1,ypr2,ypr3)</f>
+        <v>0.3004670307134728</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -1529,7 +1576,7 @@
       </c>
       <c r="C7" s="23">
         <f>spr</f>
-        <v>0.40000071794109937</v>
+        <v>0.40000051882701221</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -1540,99 +1587,99 @@
       </c>
       <c r="L7" s="1">
         <f>K7*EXP(-K8)</f>
-        <v>0.85966080121150346</v>
+        <v>0.86057308960200174</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ref="M7:AH7" si="3">L7*EXP(-L8)</f>
-        <v>0.73373796646230416</v>
+        <v>0.73939817970558985</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>0.61051999589550976</v>
+        <v>0.62884874239651023</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="3"/>
-        <v>0.50348795423534487</v>
+        <v>0.52549898329751399</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="3"/>
-        <v>0.40828209710437069</v>
+        <v>0.42036182480582646</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="3"/>
-        <v>0.32440462206133175</v>
+        <v>0.32640607439489411</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="3"/>
-        <v>0.25801224289839353</v>
+        <v>0.25489462742109098</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="3"/>
-        <v>0.20584950412059194</v>
+        <v>0.20079955594513474</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="3"/>
-        <v>0.16458138440261749</v>
+        <v>0.15931947209825811</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="3"/>
-        <v>0.13175857293223367</v>
+        <v>0.12711682124520829</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="3"/>
-        <v>0.10556552184956695</v>
+        <v>0.10186595519367257</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="3"/>
-        <v>8.4620376192300603E-2</v>
+        <v>8.190844536067092E-2</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" si="3"/>
-        <v>6.7850844998950235E-2</v>
+        <v>6.6035287197698592E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="3"/>
-        <v>5.4414316299530335E-2</v>
+        <v>5.3347918103601712E-2</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="3"/>
-        <v>4.3643388773698728E-2</v>
+        <v>4.3167338847536742E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="3"/>
-        <v>3.500683005781937E-2</v>
+        <v>3.4973215605304392E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="3"/>
-        <v>2.8080511736160489E-2</v>
+        <v>2.8362106222463847E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" si="3"/>
-        <v>2.2525187452363739E-2</v>
+        <v>2.301816339791048E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="3"/>
-        <v>1.8069198197903036E-2</v>
+        <v>1.8692157545656791E-2</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" si="3"/>
-        <v>1.4494857147528328E-2</v>
+        <v>1.5186166329490922E-2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="3"/>
-        <v>1.1627653523262319E-2</v>
+        <v>1.2342204323605372E-2</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="3"/>
-        <v>9.3276533315331308E-3</v>
+        <v>1.0033647284112596E-2</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" si="3"/>
-        <v>7.48263100878998E-3</v>
+        <v>8.1586762865683594E-3</v>
       </c>
       <c r="AI7" s="1">
         <f>AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>3.0347148419000908E-2</v>
+        <v>3.5554304731641229E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1642,115 +1689,115 @@
       </c>
       <c r="C8" s="26">
         <f>SUMXMY2(B4:B7,C4:C7)</f>
-        <v>4.8548066821489308E-2</v>
+        <v>5.8289774654012973E-3</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ref="K8:AI8" si="4">M+f1_*flt1_ +f2_*flt2_ +f3_*flt3_</f>
-        <v>0.15121738473343066</v>
+        <v>0.15015672841117517</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>0.15838592329225679</v>
+        <v>0.15176196592486912</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="4"/>
-        <v>0.18384092463247001</v>
+        <v>0.16194583000145696</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>0.19275125851243177</v>
+        <v>0.17954249906306219</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="4"/>
-        <v>0.20960143785275456</v>
+        <v>0.22323242753872738</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22996677978780555</v>
+        <v>0.25297359484758919</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22898453328068435</v>
+        <v>0.24729199923778269</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22586169761296321</v>
+        <v>0.23854305757095759</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22374015340458009</v>
+        <v>0.23139573154668941</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22243393087385593</v>
+        <v>0.22580492886165227</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22163943467537744</v>
+        <v>0.22144873173361898</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22115672937497102</v>
+        <v>0.21805568074491397</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22086325081817856</v>
+        <v>0.21541284983943096</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22068455362013389</v>
+        <v>0.21335430003654762</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22057547563402019</v>
+        <v>0.21175078951581186</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22050862391589743</v>
+        <v>0.21050166400566556</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22046738374653468</v>
+        <v>0.20952853383121037</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22044167778448334</v>
+        <v>0.20877034904840072</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22042539381278933</v>
+        <v>0.20817956391270431</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22041482458443815</v>
+        <v>0.20771914976102335</v>
       </c>
       <c r="AE8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22040772154044935</v>
+        <v>0.20736026864153909</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22040272086086043</v>
+        <v>0.20708046153479259</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22039899534704935</v>
+        <v>0.20686223733884201</v>
       </c>
       <c r="AH8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22039604327768969</v>
+        <v>0.2066919739697981</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="4"/>
-        <v>0.22039356034341401</v>
+        <v>0.20655906253806061</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1848,103 +1895,103 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" ref="K10:AI10" si="5">EXP(-za)</f>
-        <v>0.85966080121150346</v>
+        <v>0.86057308960200174</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="5"/>
-        <v>0.8535203250261747</v>
+        <v>0.85919277355924184</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="5"/>
-        <v>0.83206815484704133</v>
+        <v>0.85048727418682901</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="5"/>
-        <v>0.82468708252025313</v>
+        <v>0.83565243574291703</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="5"/>
-        <v>0.81090737855771577</v>
+        <v>0.79992890217988566</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="5"/>
-        <v>0.79455999751662632</v>
+        <v>0.77648838484719107</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="5"/>
-        <v>0.79534083472341488</v>
+        <v>0.78091263434243929</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="5"/>
-        <v>0.79782843561286532</v>
+        <v>0.78777476785891565</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="5"/>
-        <v>0.79952286067301614</v>
+        <v>0.79342542043165476</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80056789782440418</v>
+        <v>0.79787372862251715</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="5"/>
-        <v>0.8012041987116969</v>
+        <v>0.80135700527920839</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" si="5"/>
-        <v>0.8015910375821983</v>
+        <v>0.80408066860947358</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80182632188680603</v>
+        <v>0.80620852839927093</v>
       </c>
       <c r="X10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80196961880684337</v>
+        <v>0.80786985818486678</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80205710080888082</v>
+        <v>0.80916632517328468</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80211072149639995</v>
+        <v>0.81017770701193148</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80214380136050711</v>
+        <v>0.81096649912174967</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80216442150365375</v>
+        <v>0.81158159472935176</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80217748403274214</v>
+        <v>0.81206120673179383</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="5"/>
-        <v>0.8021859624745542</v>
+        <v>0.81243517728746606</v>
       </c>
       <c r="AE10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80219166045696932</v>
+        <v>0.81272679725872032</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80219567197046238</v>
+        <v>0.81295423581041426</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80219866056708444</v>
+        <v>0.81313166145344873</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80220102871666621</v>
+        <v>0.8132701197764598</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="5"/>
-        <v>0.80220302053156911</v>
+        <v>0.81337821985617764</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1955,111 +2002,111 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="C11" s="18">
-        <f>$C34</f>
-        <v>0.33333013650151561</v>
+        <f>mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
+        <v>0.33333012799501488</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
       </c>
       <c r="K11" s="1">
         <f>1-sa</f>
-        <v>0.14033919878849654</v>
+        <v>0.13942691039799826</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ref="L11:AI11" si="6">1-sa</f>
-        <v>0.1464796749738253</v>
+        <v>0.14080722644075816</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="6"/>
-        <v>0.16793184515295867</v>
+        <v>0.14951272581317099</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="6"/>
-        <v>0.17531291747974687</v>
+        <v>0.16434756425708297</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="6"/>
-        <v>0.18909262144228423</v>
+        <v>0.20007109782011434</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="6"/>
-        <v>0.20544000248337368</v>
+        <v>0.22351161515280893</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="6"/>
-        <v>0.20465916527658512</v>
+        <v>0.21908736565756071</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="6"/>
-        <v>0.20217156438713468</v>
+        <v>0.21222523214108435</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="6"/>
-        <v>0.20047713932698386</v>
+        <v>0.20657457956834524</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19943210217559582</v>
+        <v>0.20212627137748285</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="6"/>
-        <v>0.1987958012883031</v>
+        <v>0.19864299472079161</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="6"/>
-        <v>0.1984089624178017</v>
+        <v>0.19591933139052642</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19817367811319397</v>
+        <v>0.19379147160072907</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19803038119315663</v>
+        <v>0.19213014181513322</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19794289919111918</v>
+        <v>0.19083367482671532</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19788927850360005</v>
+        <v>0.18982229298806852</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19785619863949289</v>
+        <v>0.18903350087825033</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19783557849634625</v>
+        <v>0.18841840527064824</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19782251596725786</v>
+        <v>0.18793879326820617</v>
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="6"/>
-        <v>0.1978140375254458</v>
+        <v>0.18756482271253394</v>
       </c>
       <c r="AE11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19780833954303068</v>
+        <v>0.18727320274127968</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19780432802953762</v>
+        <v>0.18704576418958574</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19780133943291556</v>
+        <v>0.18686833854655127</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19779897128333379</v>
+        <v>0.1867298802235402</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="6"/>
-        <v>0.19779697946843089</v>
+        <v>0.18662178014382236</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -2070,11 +2117,11 @@
         <v>0.33333000000000002</v>
       </c>
       <c r="C12" s="18">
-        <f>$C35</f>
-        <v>0.33332966266868663</v>
+        <f>mpr2_/SUM(mpr1_,mpr2_,mpr3_)</f>
+        <v>0.33332997313487034</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12:AI12" si="7">1/(1+EXP(($E18-len)/2.5))</f>
@@ -2186,8 +2233,8 @@
         <v>0.33333999999999997</v>
       </c>
       <c r="C13" s="18">
-        <f>$C36</f>
-        <v>0.33334020082979787</v>
+        <f>mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
+        <v>0.33333989887011478</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2199,7 +2246,7 @@
       </c>
       <c r="C14" s="29">
         <f>spr</f>
-        <v>0.40000071794109937</v>
+        <v>0.40000051882701221</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2209,7 +2256,7 @@
       </c>
       <c r="C15" s="26">
         <f>SUMXMY2(B11:B14,C11:C14)</f>
-        <v>6.8819710860641874E-13</v>
+        <v>2.9651318127465511E-13</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2219,10 +2266,10 @@
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>9</v>
@@ -2402,116 +2449,116 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19" s="3">
         <v>0.4</v>
       </c>
       <c r="I19" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" ref="K19:T20" si="9">(EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g</f>
-        <v>3.0007350071316975E-2</v>
+        <v>1.7080936882517058E-4</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="9"/>
-        <v>0.20628691029874971</v>
+        <v>1.6197718741430404E-3</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="9"/>
-        <v>0.82469244423305887</v>
+        <v>1.5273555035428247E-2</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="9"/>
-        <v>0.92451379123971533</v>
+        <v>0.13482107352952133</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="9"/>
-        <v>0.60271373782445525</v>
+        <v>0.69207274423084297</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="9"/>
-        <v>0.36782407656213434</v>
+        <v>0.99620047562768743</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="9"/>
-        <v>0.22320983733581354</v>
+        <v>0.83390784936379725</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" si="9"/>
-        <v>0.13538925175123626</v>
+        <v>0.65346261291899299</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="9"/>
-        <v>8.2118013086893454E-2</v>
+        <v>0.50917555226094868</v>
       </c>
       <c r="T19" s="4">
         <f t="shared" si="9"/>
-        <v>4.9807106637333357E-2</v>
+        <v>0.39656284414448295</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" ref="U19:AI20" si="10">(EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g</f>
-        <v>3.0209537943414012E-2</v>
+        <v>0.30884451003293029</v>
       </c>
       <c r="V19" s="4">
         <f t="shared" si="10"/>
-        <v>1.8323011013099209E-2</v>
+        <v>0.24052841379946335</v>
       </c>
       <c r="W19" s="4">
         <f t="shared" si="10"/>
-        <v>1.1113467959422852E-2</v>
+        <v>0.18732372133553893</v>
       </c>
       <c r="X19" s="4">
         <f t="shared" si="10"/>
-        <v>6.7406590532098857E-3</v>
+        <v>0.14588786113998189</v>
       </c>
       <c r="Y19" s="4">
         <f t="shared" si="10"/>
-        <v>4.0884163824456031E-3</v>
+        <v>0.11361758051407532</v>
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="10"/>
-        <v>2.479749885624884E-3</v>
+        <v>8.8485460676168262E-2</v>
       </c>
       <c r="AA19" s="4">
         <f t="shared" si="10"/>
-        <v>1.5040443340503991E-3</v>
+        <v>6.8912546065105926E-2</v>
       </c>
       <c r="AB19" s="4">
         <f t="shared" si="10"/>
-        <v>9.1224900216863752E-4</v>
+        <v>5.3669144838953381E-2</v>
       </c>
       <c r="AC19" s="4">
         <f t="shared" si="10"/>
-        <v>5.5330698910753529E-4</v>
+        <v>4.1797572027349829E-2</v>
       </c>
       <c r="AD19" s="4">
         <f t="shared" si="10"/>
-        <v>3.3559765312700423E-4</v>
+        <v>3.2551981825383519E-2</v>
       </c>
       <c r="AE19" s="4">
         <f t="shared" si="10"/>
-        <v>2.0355026594913339E-4</v>
+        <v>2.5351508936134821E-2</v>
       </c>
       <c r="AF19" s="4">
         <f t="shared" si="10"/>
-        <v>1.2345947709080986E-4</v>
+        <v>1.9743775011503522E-2</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="10"/>
-        <v>7.4881958087665658E-5</v>
+        <v>1.5376467439744577E-2</v>
       </c>
       <c r="AH19" s="4">
         <f t="shared" si="10"/>
-        <v>4.5418203439485613E-5</v>
+        <v>1.1975204882945036E-2</v>
       </c>
       <c r="AI19" s="4">
         <f t="shared" si="10"/>
-        <v>2.7547532895113808E-5</v>
+        <v>9.3262989402781056E-3</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2528,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3">
         <v>0.4</v>
@@ -2541,103 +2588,103 @@
       </c>
       <c r="K20" s="4">
         <f t="shared" si="9"/>
-        <v>4.5408090239048184E-5</v>
+        <v>6.6940231405857222E-3</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="9"/>
-        <v>5.5288927514315434E-4</v>
+        <v>7.5869569404394432E-2</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="9"/>
-        <v>6.6940231405857222E-3</v>
+        <v>0.50006256851681752</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="9"/>
-        <v>7.5869569404394432E-2</v>
+        <v>0.92423435819698607</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="9"/>
-        <v>0.50006256851681752</v>
+        <v>0.99338177825517815</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="9"/>
-        <v>0.92423435819698607</v>
+        <v>0.9994973241131675</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="9"/>
-        <v>0.99338177825517815</v>
+        <v>0.99997973051086153</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="9"/>
-        <v>0.9994973241131675</v>
+        <v>0.99999640256489231</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="9"/>
-        <v>0.99997973051086153</v>
+        <v>0.99997482361930601</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" si="9"/>
-        <v>0.99999640256489231</v>
+        <v>0.99995010533943818</v>
       </c>
       <c r="U20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99997482361930601</v>
+        <v>0.99992512994639815</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99995010533943818</v>
+        <v>0.99990013402239852</v>
       </c>
       <c r="W20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99992512994639815</v>
+        <v>0.99987513698679642</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99990013402239852</v>
+        <v>0.99985014043357634</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99987513698679642</v>
+        <v>0.9998251444935623</v>
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99985014043357634</v>
+        <v>0.99980014917747839</v>
       </c>
       <c r="AA20" s="4">
         <f t="shared" si="10"/>
-        <v>0.9998251444935623</v>
+        <v>0.99977515448619114</v>
       </c>
       <c r="AB20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99980014917747839</v>
+        <v>0.99975016041975662</v>
       </c>
       <c r="AC20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99977515448619114</v>
+        <v>0.9997251669781656</v>
       </c>
       <c r="AD20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99975016041975662</v>
+        <v>0.99970017416140255</v>
       </c>
       <c r="AE20" s="4">
         <f t="shared" si="10"/>
-        <v>0.9997251669781656</v>
+        <v>0.99967518196945226</v>
       </c>
       <c r="AF20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99970017416140255</v>
+        <v>0.99965019040229885</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99967518196945226</v>
+        <v>0.99962519945992701</v>
       </c>
       <c r="AH20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99965019040229885</v>
+        <v>0.99960020914232062</v>
       </c>
       <c r="AI20" s="4">
         <f t="shared" si="10"/>
-        <v>0.99962519945992701</v>
+        <v>0.99957521944946459</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2649,7 +2696,7 @@
         <v>8.2438682882849061</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2679,7 +2726,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1">
         <v>98.238757374230488</v>
@@ -2689,108 +2736,108 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ref="K22:AI22" si="11">wa*flt1_*(1-EXP(-za))/za</f>
-        <v>3.2667895782250959E-6</v>
+        <v>3.2684789917331903E-6</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="11"/>
-        <v>2.3068035094066158E-4</v>
+        <v>2.3142582291302424E-4</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="11"/>
-        <v>6.8557661652764983E-3</v>
+        <v>6.9290472333794831E-3</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="11"/>
-        <v>0.13672317508944951</v>
+        <v>0.13760095453428825</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="11"/>
-        <v>1.317453228807103</v>
+        <v>1.3088261221797362</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="11"/>
-        <v>3.1818720295293748</v>
+        <v>3.1469345154068171</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="11"/>
-        <v>4.1975605846596737</v>
+        <v>4.1608225204271179</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="11"/>
-        <v>4.9328814288278497</v>
+        <v>4.9029044386552956</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="11"/>
-        <v>5.555576348374184</v>
+        <v>5.5351542665784486</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="11"/>
-        <v>6.0859567268192647</v>
+        <v>6.0760897045289521</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="11"/>
-        <v>6.5320934644769757</v>
+        <v>6.5326933576054422</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="11"/>
-        <v>6.9031283991504475</v>
+        <v>6.9134481300979882</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="11"/>
-        <v>7.2089781044514902</v>
+        <v>7.2279352092536318</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="11"/>
-        <v>7.4593710479823745</v>
+        <v>7.4857690959128993</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="11"/>
-        <v>7.6632715312191024</v>
+        <v>7.6959366969157594</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="11"/>
-        <v>7.8286188906919065</v>
+        <v>7.8664746481313204</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="11"/>
-        <v>7.962260254768359</v>
+        <v>8.0043608640103887</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="11"/>
-        <v>8.0699915363324557</v>
+        <v>8.1155301617594482</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="11"/>
-        <v>8.1566527519325192</v>
+        <v>8.204955266162397</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="11"/>
-        <v>8.2262451524053013</v>
+        <v>8.2767568325532075</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" si="11"/>
-        <v>8.2820514774272187</v>
+        <v>8.3343210149099054</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="11"/>
-        <v>8.3267493166599582</v>
+        <v>8.3804126777276142</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="11"/>
-        <v>8.3625128390686108</v>
+        <v>8.4172783043009094</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="11"/>
-        <v>8.3911012536579772</v>
+        <v>8.4467362254403771</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="11"/>
-        <v>8.4139340986396451</v>
+        <v>8.4702538369147184</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1">
         <f>1.5*M</f>
@@ -2801,103 +2848,103 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ref="K23:AI23" si="12">wa*flt2_*(1-EXP(-za))/za</f>
-        <v>2.159602264030384E-3</v>
+        <v>1.2299355472681606E-5</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="12"/>
-        <v>8.6068531514210317E-2</v>
+        <v>6.7799702590584719E-4</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="12"/>
-        <v>0.84461891764381447</v>
+        <v>1.5809802637975209E-2</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="12"/>
-        <v>1.6660495367775761</v>
+        <v>0.24451843546786561</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="12"/>
-        <v>1.5878956153441637</v>
+        <v>1.8113791015937277</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="12"/>
-        <v>1.2663120891588275</v>
+        <v>3.3919726454813324</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="12"/>
-        <v>0.94317898296344316</v>
+        <v>3.4928590754788664</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" si="12"/>
-        <v>0.66819501114638069</v>
+        <v>3.2054760608974684</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" si="12"/>
-        <v>0.45622213867071221</v>
+        <v>2.8184223585160164</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" si="12"/>
-        <v>0.30312498615535072</v>
+        <v>2.4095600827410495</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="12"/>
-        <v>0.1973364935837312</v>
+        <v>2.0176372760291952</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" si="12"/>
-        <v>0.12649240897828123</v>
+        <v>1.6629636856259564</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" si="12"/>
-        <v>8.0122745978288626E-2</v>
+        <v>1.354065099896167</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" si="12"/>
-        <v>5.0286098856256151E-2</v>
+        <v>1.0921919152038491</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="12"/>
-        <v>3.1334557398619373E-2</v>
+        <v>0.87450290036024758</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="12"/>
-        <v>1.9415926461115236E-2</v>
+        <v>0.69617296131543727</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="12"/>
-        <v>1.1977686786908113E-2</v>
+        <v>0.5516973540830955</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="12"/>
-        <v>7.3633132907462715E-3</v>
+        <v>0.43564062683395921</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" si="12"/>
-        <v>4.5141479612852385E-3</v>
+        <v>0.34302433620172834</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" si="12"/>
-        <v>2.7613984738302003E-3</v>
+        <v>0.269492167796472</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" si="12"/>
-        <v>1.6862772255002581E-3</v>
+        <v>0.21134569846306495</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" si="12"/>
-        <v>1.0283244347370922E-3</v>
+        <v>0.16551060676907708</v>
       </c>
       <c r="AG23" s="1">
         <f t="shared" si="12"/>
-        <v>6.264048034972993E-4</v>
+        <v>0.12947005998725133</v>
       </c>
       <c r="AH23" s="1">
         <f t="shared" si="12"/>
-        <v>3.8124210596767605E-4</v>
+        <v>0.10118679300319544</v>
       </c>
       <c r="AI23" s="1">
         <f t="shared" si="12"/>
-        <v>2.3187003137258055E-4</v>
+        <v>7.9025738272488488E-2</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2907,103 +2954,103 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ref="K24:AI24" si="13">wa*flt3_*(1-EXP(-za))/za</f>
-        <v>3.2679798200268268E-6</v>
+        <v>4.8201202729511986E-4</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="13"/>
-        <v>2.3068050189230013E-4</v>
+        <v>3.1757152494175316E-2</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="13"/>
-        <v>6.8557661940775137E-3</v>
+        <v>0.51761953890574186</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="13"/>
-        <v>0.13672317509964638</v>
+        <v>1.6762389836815026</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="13"/>
-        <v>1.317453228811033</v>
+        <v>2.6000026847398168</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="13"/>
-        <v>3.1818720295301008</v>
+        <v>3.4031981168122902</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="13"/>
-        <v>4.1975605846597963</v>
+        <v>4.1884583286684292</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="13"/>
-        <v>4.9328814288278782</v>
+        <v>4.9053526032448289</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" si="13"/>
-        <v>5.5555763483741929</v>
+        <v>5.5351271056261897</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="13"/>
-        <v>6.0859567268192691</v>
+        <v>6.0758083974220405</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="13"/>
-        <v>6.5320934644769766</v>
+        <v>6.5323687159052195</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="13"/>
-        <v>6.9031283991504502</v>
+        <v>6.9131026387514698</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="13"/>
-        <v>7.2089781044514902</v>
+        <v>7.2275738363247006</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" si="13"/>
-        <v>7.4593710479823745</v>
+        <v>7.4853948180730772</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="13"/>
-        <v>7.6632715312191024</v>
+        <v>7.6955519098068308</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="13"/>
-        <v>7.8286188906919065</v>
+        <v>7.8660813342407474</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="13"/>
-        <v>7.962260254768359</v>
+        <v>8.0039606559732164</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="13"/>
-        <v>8.0699915363324557</v>
+        <v>8.1151243953956662</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" si="13"/>
-        <v>8.1566527519325192</v>
+        <v>8.2045450286551169</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" si="13"/>
-        <v>8.2262451524053013</v>
+        <v>8.2763430050573525</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" si="13"/>
-        <v>8.2820514774272187</v>
+        <v>8.3339043092768836</v>
       </c>
       <c r="AF24" s="1">
         <f t="shared" si="13"/>
-        <v>8.3267493166599582</v>
+        <v>8.3799936675690709</v>
       </c>
       <c r="AG24" s="1">
         <f t="shared" si="13"/>
-        <v>8.3625128390686108</v>
+        <v>8.4168574509071163</v>
       </c>
       <c r="AH24" s="1">
         <f t="shared" si="13"/>
-        <v>8.3911012536579772</v>
+        <v>8.4463138991873503</v>
       </c>
       <c r="AI24" s="1">
         <f t="shared" si="13"/>
-        <v>8.4139340986396451</v>
+        <v>8.4698303348105117</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3022,103 +3069,103 @@
       </c>
       <c r="K26">
         <f>qa1_/wa</f>
-        <v>4.212620163826208E-5</v>
+        <v>4.2147987116753491E-5</v>
       </c>
       <c r="L26">
         <f t="shared" ref="L26:AI26" si="14">qa1_/wa</f>
-        <v>5.1132693259690323E-4</v>
+        <v>5.1297934857169603E-4</v>
       </c>
       <c r="M26">
         <f t="shared" si="14"/>
-        <v>6.1147410731316396E-3</v>
+        <v>6.1801013474189715E-3</v>
       </c>
       <c r="N26">
         <f t="shared" si="14"/>
-        <v>6.9005596445258388E-2</v>
+        <v>6.9448620783296597E-2</v>
       </c>
       <c r="O26">
         <f t="shared" si="14"/>
-        <v>0.45113307873466074</v>
+        <v>0.44817891452732855</v>
       </c>
       <c r="P26">
         <f t="shared" si="14"/>
-        <v>0.82566146735787471</v>
+        <v>0.81659555932997263</v>
       </c>
       <c r="Q26">
         <f t="shared" si="14"/>
-        <v>0.88785335247713881</v>
+        <v>0.88008264545944859</v>
       </c>
       <c r="R26">
         <f t="shared" si="14"/>
-        <v>0.89466226346611499</v>
+        <v>0.8892254245177984</v>
       </c>
       <c r="S26">
         <f t="shared" si="14"/>
-        <v>0.89600848442826553</v>
+        <v>0.89271479221503158</v>
       </c>
       <c r="T26">
         <f t="shared" si="14"/>
-        <v>0.89658706272043032</v>
+        <v>0.89513344664490291</v>
       </c>
       <c r="U26">
         <f t="shared" si="14"/>
-        <v>0.89691077140982123</v>
+        <v>0.89699314172671007</v>
       </c>
       <c r="V26">
         <f t="shared" si="14"/>
-        <v>0.89709711040980333</v>
+        <v>0.8984382126286734</v>
       </c>
       <c r="W26">
         <f t="shared" si="14"/>
-        <v>0.89720150412175925</v>
+        <v>0.89956083198984815</v>
       </c>
       <c r="X26">
         <f t="shared" si="14"/>
-        <v>0.89725629386994277</v>
+        <v>0.90043160375856268</v>
       </c>
       <c r="Y26">
         <f t="shared" si="14"/>
-        <v>0.89728100041670389</v>
+        <v>0.90110571580564314</v>
       </c>
       <c r="Z26">
         <f t="shared" si="14"/>
-        <v>0.89728745927682085</v>
+        <v>0.90162634674676756</v>
       </c>
       <c r="AA26">
         <f t="shared" si="14"/>
-        <v>0.89728284987999873</v>
+        <v>0.90202725077040546</v>
       </c>
       <c r="AB26">
         <f t="shared" si="14"/>
-        <v>0.89727152724103609</v>
+        <v>0.90233479302035868</v>
       </c>
       <c r="AC26">
         <f t="shared" si="14"/>
-        <v>0.89725613297526041</v>
+        <v>0.90256955362083269</v>
       </c>
       <c r="AD26">
         <f t="shared" si="14"/>
-        <v>0.8972382693505403</v>
+        <v>0.90274758880774653</v>
       </c>
       <c r="AE26">
         <f t="shared" si="14"/>
-        <v>0.89721890819981143</v>
+        <v>0.9028814203781218</v>
       </c>
       <c r="AF26">
         <f t="shared" si="14"/>
-        <v>0.8971986389670924</v>
+        <v>0.90298081069837888</v>
       </c>
       <c r="AG26">
         <f t="shared" si="14"/>
-        <v>0.89717781916399519</v>
+        <v>0.90305336896680877</v>
       </c>
       <c r="AH26">
         <f t="shared" si="14"/>
-        <v>0.89715666562866692</v>
+        <v>0.90310502499983814</v>
       </c>
       <c r="AI26">
         <f t="shared" si="14"/>
-        <v>0.89713530987753232</v>
+        <v>0.90314039920403399</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3126,113 +3173,113 @@
         <v>14</v>
       </c>
       <c r="B27" s="28">
-        <v>3.5208887951138419E-2</v>
-      </c>
-      <c r="C27">
-        <v>3.0826511509620572E-2</v>
+        <v>3.420373425819738E-2</v>
+      </c>
+      <c r="C27" s="36">
+        <v>0.90209129860381354</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27:AI27" si="15">qa2_/wa</f>
-        <v>2.7848699236520776E-2</v>
+        <v>1.5860376564086936E-4</v>
       </c>
       <c r="L27">
         <f t="shared" si="15"/>
-        <v>0.19077983032721166</v>
+        <v>1.5028507549628132E-3</v>
       </c>
       <c r="M27">
         <f t="shared" si="15"/>
-        <v>0.75332586648283517</v>
+        <v>1.4100954906858768E-2</v>
       </c>
       <c r="N27">
         <f t="shared" si="15"/>
-        <v>0.84087238258961927</v>
+        <v>0.12341097601253365</v>
       </c>
       <c r="O27">
         <f t="shared" si="15"/>
-        <v>0.54374016625099264</v>
+        <v>0.62026720417051706</v>
       </c>
       <c r="P27">
         <f t="shared" si="15"/>
-        <v>0.32859432685057988</v>
+        <v>0.88018031074622571</v>
       </c>
       <c r="Q27">
         <f t="shared" si="15"/>
-        <v>0.19949792388236978</v>
+        <v>0.73879735082979003</v>
       </c>
       <c r="R27">
         <f t="shared" si="15"/>
-        <v>0.1211885729941492</v>
+        <v>0.58136780895834872</v>
       </c>
       <c r="S27">
         <f t="shared" si="15"/>
-        <v>7.3579927877796922E-2</v>
+        <v>0.45455776099120676</v>
       </c>
       <c r="T27">
         <f t="shared" si="15"/>
-        <v>4.465656809167582E-2</v>
+        <v>0.35497794250046949</v>
       </c>
       <c r="U27">
         <f t="shared" si="15"/>
-        <v>2.7095942158516777E-2</v>
+        <v>0.27703838218326132</v>
       </c>
       <c r="V27">
         <f t="shared" si="15"/>
-        <v>1.643834041927373E-2</v>
+        <v>0.21611070095046755</v>
       </c>
       <c r="W27">
         <f t="shared" si="15"/>
-        <v>9.9717667559146798E-3</v>
+        <v>0.16852169984473231</v>
       </c>
       <c r="X27">
         <f t="shared" si="15"/>
-        <v>6.0487028199443143E-3</v>
+        <v>0.13137516068403465</v>
       </c>
       <c r="Y27">
         <f t="shared" si="15"/>
-        <v>3.6689164537244364E-3</v>
+        <v>0.10239423647014149</v>
       </c>
       <c r="Z27">
         <f t="shared" si="15"/>
-        <v>2.2253819692913839E-3</v>
+        <v>7.9792780361127025E-2</v>
       </c>
       <c r="AA27">
         <f t="shared" si="15"/>
-        <v>1.3497892044775398E-3</v>
+        <v>6.2171865563735738E-2</v>
       </c>
       <c r="AB27">
         <f t="shared" si="15"/>
-        <v>8.1869867300316153E-4</v>
+        <v>4.8437216917478265E-2</v>
       </c>
       <c r="AC27">
         <f t="shared" si="15"/>
-        <v>4.965697408733402E-4</v>
+        <v>3.7733700180364704E-2</v>
       </c>
       <c r="AD27">
         <f t="shared" si="15"/>
-        <v>3.011863057499798E-4</v>
+        <v>2.9393566780164769E-2</v>
       </c>
       <c r="AE27">
         <f t="shared" si="15"/>
-        <v>1.8267935369746614E-4</v>
+        <v>2.2895698891099301E-2</v>
       </c>
       <c r="AF27">
         <f t="shared" si="15"/>
-        <v>1.1080089578495962E-4</v>
+        <v>1.7833596939291374E-2</v>
       </c>
       <c r="AG27">
         <f t="shared" si="15"/>
-        <v>6.7204261007526453E-5</v>
+        <v>1.3890282538487684E-2</v>
       </c>
       <c r="AH27">
         <f t="shared" si="15"/>
-        <v>4.0761502721482056E-5</v>
+        <v>1.0818652173554761E-2</v>
       </c>
       <c r="AI27">
         <f t="shared" si="15"/>
-        <v>2.4723130702959205E-5</v>
+        <v>8.4261154606442932E-3</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3240,113 +3287,113 @@
         <v>15</v>
       </c>
       <c r="B28" s="28">
-        <v>4.0463010824188246E-2</v>
-      </c>
-      <c r="C28">
-        <v>6.5872059610417921E-2</v>
+        <v>4.9646539345662849E-2</v>
+      </c>
+      <c r="C28" s="36">
+        <v>1.0418238884169517</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K28">
         <f t="shared" ref="K28:AI28" si="16">qa3_/wa</f>
-        <v>4.214155015243398E-5</v>
+        <v>6.2156852676547199E-3</v>
       </c>
       <c r="L28">
         <f t="shared" si="16"/>
-        <v>5.1132726719687238E-4</v>
+        <v>7.0393023535133117E-2</v>
       </c>
       <c r="M28">
         <f t="shared" si="16"/>
-        <v>6.1147410988196147E-3</v>
+        <v>0.46167115075091675</v>
       </c>
       <c r="N28">
         <f t="shared" si="16"/>
-        <v>6.9005596450404855E-2</v>
+        <v>0.84601510152218307</v>
       </c>
       <c r="O28">
         <f t="shared" si="16"/>
-        <v>0.4511330787360065</v>
+        <v>0.89031412291357781</v>
       </c>
       <c r="P28">
         <f t="shared" si="16"/>
-        <v>0.82566146735806312</v>
+        <v>0.88309319946232945</v>
       </c>
       <c r="Q28">
         <f t="shared" si="16"/>
-        <v>0.88785335247716479</v>
+        <v>0.88592807508472526</v>
       </c>
       <c r="R28">
         <f t="shared" si="16"/>
-        <v>0.89466226346612021</v>
+        <v>0.8896694409622663</v>
       </c>
       <c r="S28">
         <f t="shared" si="16"/>
-        <v>0.89600848442826697</v>
+        <v>0.89271041167156617</v>
       </c>
       <c r="T28">
         <f t="shared" si="16"/>
-        <v>0.89658706272043098</v>
+        <v>0.89509200430082636</v>
       </c>
       <c r="U28">
         <f t="shared" si="16"/>
-        <v>0.89691077140982134</v>
+        <v>0.89694856572066206</v>
       </c>
       <c r="V28">
         <f t="shared" si="16"/>
-        <v>0.89709711040980367</v>
+        <v>0.89839331424772029</v>
       </c>
       <c r="W28">
         <f t="shared" si="16"/>
-        <v>0.89720150412175925</v>
+        <v>0.89951585691422886</v>
       </c>
       <c r="X28">
         <f t="shared" si="16"/>
-        <v>0.89725629386994277</v>
+        <v>0.90038658345520517</v>
       </c>
       <c r="Y28">
         <f t="shared" si="16"/>
-        <v>0.89728100041670389</v>
+        <v>0.90106066165864596</v>
       </c>
       <c r="Z28">
         <f t="shared" si="16"/>
-        <v>0.89728745927682085</v>
+        <v>0.90158126655746496</v>
       </c>
       <c r="AA28">
         <f t="shared" si="16"/>
-        <v>0.89728284987999873</v>
+        <v>0.90198215053546604</v>
       </c>
       <c r="AB28">
         <f t="shared" si="16"/>
-        <v>0.89727152724103609</v>
+        <v>0.90228967740861421</v>
       </c>
       <c r="AC28">
         <f t="shared" si="16"/>
-        <v>0.89725613297526041</v>
+        <v>0.90252442627134533</v>
       </c>
       <c r="AD28">
         <f t="shared" si="16"/>
-        <v>0.8972382693505403</v>
+        <v>0.90270245255672177</v>
       </c>
       <c r="AE28">
         <f t="shared" si="16"/>
-        <v>0.89721890819981143</v>
+        <v>0.90283627743568551</v>
       </c>
       <c r="AF28">
         <f t="shared" si="16"/>
-        <v>0.8971986389670924</v>
+        <v>0.90293566278655135</v>
       </c>
       <c r="AG28">
         <f t="shared" si="16"/>
-        <v>0.89717781916399519</v>
+        <v>0.90300821742715831</v>
       </c>
       <c r="AH28">
         <f t="shared" si="16"/>
-        <v>0.89715666562866692</v>
+        <v>0.90305987087745077</v>
       </c>
       <c r="AI28">
         <f t="shared" si="16"/>
-        <v>0.89713530987753232</v>
+        <v>0.9030952433129803</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3354,13 +3401,20 @@
         <v>19</v>
       </c>
       <c r="B29" s="28">
-        <v>3.5209950754932245E-2</v>
-      </c>
-      <c r="C29">
-        <v>3.0717558531607573E-2</v>
+        <v>2.1914438217778609E-2</v>
+      </c>
+      <c r="C29" s="36">
+        <v>1.0734109767966595</v>
       </c>
     </row>
     <row r="30" spans="1:35">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="28">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C30" s="36"/>
       <c r="G30" t="s">
         <v>58</v>
       </c>
@@ -3372,18 +3426,13 @@
       </c>
     </row>
     <row r="31" spans="1:35">
-      <c r="A31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
       <c r="G31">
         <f>SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-47.817938969923659</v>
+        <v>-49.602383252666392</v>
       </c>
       <c r="H31">
         <f>Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-18.464549473444112</v>
+        <v>-19.153618728180533</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>52</v>
@@ -3393,116 +3442,114 @@
       </c>
       <c r="L31">
         <f t="shared" ref="L31:AH31" si="17">K31*sa-K$7*K18*K$10</f>
-        <v>-3.90213379669535E-5</v>
+        <v>-3.9062748152876592E-5</v>
       </c>
       <c r="M31">
         <f t="shared" si="17"/>
-        <v>-4.3814399963989554E-4</v>
+        <v>-4.420274263062434E-4</v>
       </c>
       <c r="N31">
         <f t="shared" si="17"/>
-        <v>-4.4481666599328644E-3</v>
+        <v>-4.5789093113042635E-3</v>
       </c>
       <c r="O31">
         <f t="shared" si="17"/>
-        <v>-4.1806465450880126E-2</v>
+        <v>-4.3532183480828851E-2</v>
       </c>
       <c r="P31">
         <f t="shared" si="17"/>
-        <v>-0.23738433924166549</v>
+        <v>-0.24400944865809132</v>
       </c>
       <c r="Q31">
         <f t="shared" si="17"/>
-        <v>-0.48862735618965492</v>
+        <v>-0.49222577003593004</v>
       </c>
       <c r="R31">
         <f t="shared" si="17"/>
-        <v>-0.64614545984844829</v>
+        <v>-0.64097071997947785</v>
       </c>
       <c r="S31">
         <f t="shared" si="17"/>
-        <v>-0.72235409500746584</v>
+        <v>-0.70926108183437098</v>
       </c>
       <c r="T31">
         <f t="shared" si="17"/>
-        <v>-0.74287154774701059</v>
+        <v>-0.72521702670397847</v>
       </c>
       <c r="U31">
         <f t="shared" si="17"/>
-        <v>-0.72694990209767929</v>
+        <v>-0.70827410864768459</v>
       </c>
       <c r="V31">
         <f t="shared" si="17"/>
-        <v>-0.68827939038455688</v>
+        <v>-0.67137290941781402</v>
       </c>
       <c r="W31">
         <f t="shared" si="17"/>
-        <v>-0.63649668610989618</v>
+        <v>-0.62317092387546535</v>
       </c>
       <c r="X31">
         <f t="shared" si="17"/>
-        <v>-0.57829676973392075</v>
+        <v>-0.56947134902841112</v>
       </c>
       <c r="Y31">
         <f t="shared" si="17"/>
-        <v>-0.51823591270056701</v>
+        <v>-0.51413962924639967</v>
       </c>
       <c r="Z31">
         <f t="shared" si="17"/>
-        <v>-0.45932052117026717</v>
+        <v>-0.4597064147503489</v>
       </c>
       <c r="AA31">
         <f t="shared" si="17"/>
-        <v>-0.40344269284385242</v>
+        <v>-0.40777447632827885</v>
       </c>
       <c r="AB31">
         <f t="shared" si="17"/>
-        <v>-0.35170297601902495</v>
+        <v>-0.35929940674044752</v>
       </c>
       <c r="AC31">
         <f t="shared" si="17"/>
-        <v>-0.30464889420489322</v>
+        <v>-0.31478667301468793</v>
       </c>
       <c r="AD31">
         <f t="shared" si="17"/>
-        <v>-0.262450201834311</v>
+        <v>-0.27443172119630888</v>
       </c>
       <c r="AE31">
         <f t="shared" si="17"/>
-        <v>-0.22502659895523558</v>
+        <v>-0.23822038605814383</v>
       </c>
       <c r="AF31">
         <f t="shared" si="17"/>
-        <v>-0.19213982162023063</v>
+        <v>-0.20600108418065521</v>
       </c>
       <c r="AG31">
         <f t="shared" si="17"/>
-        <v>-0.16345916420539841</v>
+        <v>-0.17753664277842937</v>
       </c>
       <c r="AH31">
         <f t="shared" si="17"/>
-        <v>-0.13860731019405945</v>
+        <v>-0.15254127293852887</v>
       </c>
       <c r="AI31">
         <f>(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-0.7155171306819218</v>
+        <v>-0.8552854532490497</v>
       </c>
     </row>
     <row r="32" spans="1:35">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1">
-        <f>SUMPRODUCT(lx,wa,ma)</f>
-        <v>12.130227764811181</v>
-      </c>
+      <c r="A32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
       <c r="G32">
         <f>SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-16.703914278445254</v>
+        <v>-23.943456097192968</v>
       </c>
       <c r="H32">
         <f>Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-6.4500950529991918</v>
+        <v>-9.2456006959284807</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -3512,116 +3559,116 @@
       </c>
       <c r="L32">
         <f t="shared" ref="L32:AH32" si="18">K32*sa-K$7*K19*K$10</f>
-        <v>-2.5796142604542417E-2</v>
+        <v>-1.4699394626284488E-4</v>
       </c>
       <c r="M32">
         <f t="shared" si="18"/>
-        <v>-0.17282468684952912</v>
+        <v>-1.3226728559587279E-3</v>
       </c>
       <c r="N32">
         <f t="shared" si="18"/>
-        <v>-0.64601751445363953</v>
+        <v>-1.0710050669725892E-2</v>
       </c>
       <c r="O32">
         <f t="shared" si="18"/>
-        <v>-0.98934192656161901</v>
+        <v>-7.941561614136762E-2</v>
       </c>
       <c r="P32">
         <f t="shared" si="18"/>
-        <v>-1.0321687475444767</v>
+        <v>-0.35258626517250813</v>
       </c>
       <c r="Q32">
         <f t="shared" si="18"/>
-        <v>-0.9402497837896433</v>
+        <v>-0.60050495572878493</v>
       </c>
       <c r="R32">
         <f t="shared" si="18"/>
-        <v>-0.8077488848542248</v>
+        <v>-0.6856212826644803</v>
       </c>
       <c r="S32">
         <f t="shared" si="18"/>
-        <v>-0.6736835094603385</v>
+        <v>-0.67520435695583692</v>
       </c>
       <c r="T32">
         <f t="shared" si="18"/>
-        <v>-0.55284448724586355</v>
+        <v>-0.61984939805807593</v>
       </c>
       <c r="U32">
         <f t="shared" si="18"/>
-        <v>-0.44950383770841967</v>
+        <v>-0.54713046552354538</v>
       </c>
       <c r="V32">
         <f t="shared" si="18"/>
-        <v>-0.36350733330370294</v>
+        <v>-0.47139777155561113</v>
       </c>
       <c r="W32">
         <f t="shared" si="18"/>
-        <v>-0.29302024812669353</v>
+        <v>-0.39974621213592709</v>
       </c>
       <c r="X32">
         <f t="shared" si="18"/>
-        <v>-0.23574739488476668</v>
+        <v>-0.33531289144552306</v>
       </c>
       <c r="Y32">
         <f t="shared" si="18"/>
-        <v>-0.18944966041831099</v>
+        <v>-0.27910671382260782</v>
       </c>
       <c r="Z32">
         <f t="shared" si="18"/>
-        <v>-0.15213803615102722</v>
+        <v>-0.23103060601352415</v>
       </c>
       <c r="AA32">
         <f t="shared" si="18"/>
-        <v>-0.1221233908325392</v>
+        <v>-0.19045270284292623</v>
       </c>
       <c r="AB32">
         <f t="shared" si="18"/>
-        <v>-9.8005273493822431E-2</v>
+        <v>-0.15652241324533639</v>
       </c>
       <c r="AC32">
         <f t="shared" si="18"/>
-        <v>-7.8638172292992359E-2</v>
+        <v>-0.12834114492590953</v>
       </c>
       <c r="AD32">
         <f t="shared" si="18"/>
-        <v>-6.3092435741744363E-2</v>
+        <v>-0.10505014763251885</v>
       </c>
       <c r="AE32">
         <f t="shared" si="18"/>
-        <v>-5.0617090229985673E-2</v>
+        <v>-8.5871409847287625E-2</v>
       </c>
       <c r="AF32">
         <f t="shared" si="18"/>
-        <v>-4.060717752219991E-2</v>
+        <v>-7.0122419873566086E-2</v>
       </c>
       <c r="AG32">
         <f t="shared" si="18"/>
-        <v>-3.2576175004921382E-2</v>
+        <v>-5.7216861851451424E-2</v>
       </c>
       <c r="AH32">
         <f t="shared" si="18"/>
-        <v>-2.6133201414663666E-2</v>
+        <v>-4.6658215711434886E-2</v>
       </c>
       <c r="AI32">
         <f>(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-0.10599290457540135</v>
+        <v>-0.20522761342758433</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1">
-        <f>SUMPRODUCT(lz,wa,ma)</f>
-        <v>4.8520998147135295</v>
+        <f>SUMPRODUCT(lx,wa,ma)</f>
+        <v>12.130227764811181</v>
       </c>
       <c r="G33">
         <f>SUMPRODUCT(dlz3_,wa,ma)</f>
-        <v>-47.8179390471456</v>
+        <v>-59.338497287422399</v>
       </c>
       <c r="H33">
         <f>Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-18.464549503262802</v>
+        <v>-22.913152119265721</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -3631,112 +3678,108 @@
       </c>
       <c r="L33">
         <f t="shared" ref="L33:AH33" si="19">K33*sa-K$7*K20*K$10</f>
-        <v>-3.9035555236384412E-5</v>
+        <v>-5.7606961759611502E-3</v>
       </c>
       <c r="M33">
         <f t="shared" si="19"/>
-        <v>-4.3815609484132358E-4</v>
+        <v>-6.0997220300767839E-2</v>
       </c>
       <c r="N33">
         <f t="shared" si="19"/>
-        <v>-4.4481766518580006E-3</v>
+        <v>-0.3654361930492534</v>
       </c>
       <c r="O33">
         <f t="shared" si="19"/>
-        <v>-4.1806473556254872E-2</v>
+        <v>-0.77800718828383264</v>
       </c>
       <c r="P33">
         <f t="shared" si="19"/>
-        <v>-0.2373843456824811</v>
+        <v>-1.0216933220662212</v>
       </c>
       <c r="Q33">
         <f t="shared" si="19"/>
-        <v>-0.48862736131236695</v>
+        <v>-1.1240952215567912</v>
       </c>
       <c r="R33">
         <f t="shared" si="19"/>
-        <v>-0.6461454639355011</v>
+        <v>-1.1404233130504267</v>
       </c>
       <c r="S33">
         <f t="shared" si="19"/>
-        <v>-0.72235409827515906</v>
+        <v>-1.1056396802088579</v>
       </c>
       <c r="T33">
         <f t="shared" si="19"/>
-        <v>-0.7428715503630211</v>
+        <v>-1.0414763151718256</v>
       </c>
       <c r="U33">
         <f t="shared" si="19"/>
-        <v>-0.72694990419363803</v>
+        <v>-0.96170481978987965</v>
       </c>
       <c r="V33">
         <f t="shared" si="19"/>
-        <v>-0.68827939206465871</v>
+        <v>-0.87514658298574677</v>
       </c>
       <c r="W33">
         <f t="shared" si="19"/>
-        <v>-0.63649668745704613</v>
+        <v>-0.7874509042962905</v>
       </c>
       <c r="X33">
         <f t="shared" si="19"/>
-        <v>-0.57829677081429409</v>
+        <v>-0.70218489221415059</v>
       </c>
       <c r="Y33">
         <f t="shared" si="19"/>
-        <v>-0.51823591356708809</v>
+        <v>-0.62152429223284833</v>
       </c>
       <c r="Z33">
         <f t="shared" si="19"/>
-        <v>-0.45932052186531303</v>
+        <v>-0.54670491673406374</v>
       </c>
       <c r="AA33">
         <f t="shared" si="19"/>
-        <v>-0.40344269340137912</v>
+        <v>-0.47832559855587076</v>
       </c>
       <c r="AB33">
         <f t="shared" si="19"/>
-        <v>-0.35170297646625304</v>
+        <v>-0.41655598120596288</v>
       </c>
       <c r="AC33">
         <f t="shared" si="19"/>
-        <v>-0.30464889456364952</v>
+        <v>-0.36128136531908978</v>
       </c>
       <c r="AD33">
         <f t="shared" si="19"/>
-        <v>-0.2624502021221003</v>
+        <v>-0.31220471040718645</v>
       </c>
       <c r="AE33">
         <f t="shared" si="19"/>
-        <v>-0.22502659918609774</v>
+        <v>-0.26891874750275502</v>
       </c>
       <c r="AF33">
         <f t="shared" si="19"/>
-        <v>-0.19213982180542727</v>
+        <v>-0.2309568302243003</v>
       </c>
       <c r="AG33">
         <f t="shared" si="19"/>
-        <v>-0.1634591643539629</v>
+        <v>-0.19782844850230005</v>
       </c>
       <c r="AH33">
         <f t="shared" si="19"/>
-        <v>-0.13860731031323806</v>
+        <v>-0.16904358441894662</v>
       </c>
       <c r="AI33">
         <f>(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-0.71551713116527316</v>
+        <v>-0.92720012318895773</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1">
-        <f>f1_*SUMPRODUCT(lz,ta1_)</f>
-        <v>7.2482496807273103E-2</v>
-      </c>
-      <c r="C34" s="10">
-        <f>phi_t1/SUM(phi_t1,phi_t2,phi_t3)</f>
-        <v>0.33333013650151561</v>
+        <f>SUMPRODUCT(lz,wa,ma)</f>
+        <v>4.8520973994143013</v>
       </c>
       <c r="G34" t="s">
         <v>57</v>
@@ -3745,391 +3788,386 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <f>f2_*SUMPRODUCT(lz,ta2_)</f>
-        <v>7.2482393772525411E-2</v>
-      </c>
-      <c r="C35" s="10">
-        <f>phi_t2/SUM(phi_t1,phi_t2,phi_t3)</f>
-        <v>0.33332966266868663</v>
-      </c>
+        <f>SUMPRODUCT(lz,ta1_)</f>
+        <v>2.0571633971831407</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="G35" s="1">
         <f>SUM(dqa11_)</f>
-        <v>136.71146438911074</v>
+        <v>137.19860534422395</v>
       </c>
       <c r="H35" s="1">
         <f>SUM(dqa12_)</f>
-        <v>141.32829153260764</v>
+        <v>139.95199606167759</v>
       </c>
       <c r="I35" s="11">
         <f>SUM(dqa13_)</f>
-        <v>136.71146438910975</v>
+        <v>136.94628165801421</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>62</v>
       </c>
       <c r="K35">
         <f>flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>7.6010214162441637E-11</v>
+        <v>7.6036424197345164E-11</v>
       </c>
       <c r="L35">
         <f t="shared" ref="L35:AI35" si="20">flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>7.4166314318042136E-8</v>
+        <v>7.428845823780895E-8</v>
       </c>
       <c r="M35">
         <f t="shared" si="20"/>
-        <v>2.9571650125643609E-5</v>
+        <v>2.9698008990735124E-5</v>
       </c>
       <c r="N35">
         <f t="shared" si="20"/>
-        <v>7.3082888404331532E-3</v>
+        <v>7.2553932450688079E-3</v>
       </c>
       <c r="O35">
         <f t="shared" si="20"/>
-        <v>0.49874737370074251</v>
+        <v>0.48891957576836331</v>
       </c>
       <c r="P35">
         <f t="shared" si="20"/>
-        <v>2.3634477273045404</v>
+        <v>2.3229396271019547</v>
       </c>
       <c r="Q35">
         <f t="shared" si="20"/>
-        <v>3.519221888802369</v>
+        <v>3.4864946776397594</v>
       </c>
       <c r="R35">
         <f t="shared" si="20"/>
-        <v>4.3182727417528275</v>
+        <v>4.3006987139585728</v>
       </c>
       <c r="S35">
         <f t="shared" si="20"/>
-        <v>5.0049734831627459</v>
+        <v>5.0007377321726434</v>
       </c>
       <c r="T35">
         <f t="shared" si="20"/>
-        <v>5.6036701549180599</v>
+        <v>5.6102500314019892</v>
       </c>
       <c r="U35">
         <f t="shared" si="20"/>
-        <v>6.1174931249939553</v>
+        <v>6.1326433715240825</v>
       </c>
       <c r="V35">
         <f t="shared" si="20"/>
-        <v>6.5518547076763616</v>
+        <v>6.5737845402880142</v>
       </c>
       <c r="W35">
         <f t="shared" si="20"/>
-        <v>6.9146657289436346</v>
+        <v>6.9420202961383906</v>
       </c>
       <c r="X35">
         <f t="shared" si="20"/>
-        <v>7.2148884173727144</v>
+        <v>7.2466650737974705</v>
       </c>
       <c r="Y35">
         <f t="shared" si="20"/>
-        <v>7.4615025453800534</v>
+        <v>7.4969587177531229</v>
       </c>
       <c r="Z35">
         <f t="shared" si="20"/>
-        <v>7.6629099322638501</v>
+        <v>7.7014853056688963</v>
       </c>
       <c r="AA35">
         <f t="shared" si="20"/>
-        <v>7.8266415648626619</v>
+        <v>7.8679001065591825</v>
       </c>
       <c r="AB35">
         <f t="shared" si="20"/>
-        <v>7.9592552890548491</v>
+        <v>8.0028452473731875</v>
       </c>
       <c r="AC35">
         <f t="shared" si="20"/>
-        <v>8.0663457653706914</v>
+        <v>8.1119735018714092</v>
       </c>
       <c r="AD35">
         <f t="shared" si="20"/>
-        <v>8.1526149976363005</v>
+        <v>8.2000285105121105</v>
       </c>
       <c r="AE35">
         <f t="shared" si="20"/>
-        <v>8.2219707707251022</v>
+        <v>8.2709495715894956</v>
       </c>
       <c r="AF35">
         <f t="shared" si="20"/>
-        <v>8.2776333007029823</v>
+        <v>8.3279822361581974</v>
       </c>
       <c r="AG35">
         <f t="shared" si="20"/>
-        <v>8.32223892018723</v>
+        <v>8.3737843227580466</v>
       </c>
       <c r="AH35">
         <f t="shared" si="20"/>
-        <v>8.3579350315992631</v>
+        <v>8.4105221777158174</v>
       </c>
       <c r="AI35">
         <f t="shared" si="20"/>
-        <v>8.2878429879669113</v>
+        <v>8.3217368408546832</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
-        <f>f3_*SUMPRODUCT(lz,ta3_)</f>
-        <v>7.248468529118951E-2</v>
-      </c>
-      <c r="C36" s="10">
-        <f>phi_t3/SUM(phi_t1,phi_t2,phi_t3)</f>
-        <v>0.33334020082979787</v>
-      </c>
+        <f>SUMPRODUCT(lz,ta2_)</f>
+        <v>1.4172717454405097</v>
+      </c>
+      <c r="C36" s="10"/>
       <c r="G36" s="1">
         <f>SUM(dqa21_)</f>
-        <v>141.32829153260764</v>
+        <v>139.95199606167759</v>
       </c>
       <c r="H36" s="1">
         <f>SUM(dqa22_)</f>
-        <v>2.9569816276083545</v>
+        <v>11.748526866771481</v>
       </c>
       <c r="I36" s="11">
         <f>SUM(dqa23_)</f>
-        <v>141.32829153256534</v>
+        <v>139.60466182177444</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K36">
         <f t="shared" ref="K36:AI36" si="21">flt2_*qa2_+lz*wa*flt2_^2/za*(sa-oa/za)</f>
-        <v>3.3218283062188014E-5</v>
+        <v>1.0767007021362684E-9</v>
       </c>
       <c r="L36">
         <f t="shared" si="21"/>
-        <v>1.0324624766700524E-2</v>
+        <v>6.3760731286978033E-7</v>
       </c>
       <c r="M36">
         <f t="shared" si="21"/>
-        <v>0.44883340816069484</v>
+        <v>1.5460843626283164E-4</v>
       </c>
       <c r="N36">
         <f t="shared" si="21"/>
-        <v>1.0851936729063125</v>
+        <v>2.2910854106267184E-2</v>
       </c>
       <c r="O36">
         <f t="shared" si="21"/>
-        <v>0.72452622265170485</v>
+        <v>0.93646645115596616</v>
       </c>
       <c r="P36">
         <f t="shared" si="21"/>
-        <v>0.37433642592833344</v>
+        <v>2.6987782015007218</v>
       </c>
       <c r="Q36">
         <f t="shared" si="21"/>
-        <v>0.17768097690496787</v>
+        <v>2.45692981913112</v>
       </c>
       <c r="R36">
         <f t="shared" si="21"/>
-        <v>7.9234655401247814E-2</v>
+        <v>1.8383035993662022</v>
       </c>
       <c r="S36">
         <f t="shared" si="21"/>
-        <v>3.3751746641726019E-2</v>
+        <v>1.2965425393318617</v>
       </c>
       <c r="T36">
         <f t="shared" si="21"/>
-        <v>1.3901392828401776E-2</v>
+        <v>0.88228598966939664</v>
       </c>
       <c r="U36">
         <f t="shared" si="21"/>
-        <v>5.5832043499768162E-3</v>
+        <v>0.5849912227080416</v>
       </c>
       <c r="V36">
         <f t="shared" si="21"/>
-        <v>2.199891604728851E-3</v>
+        <v>0.38035714535823323</v>
       </c>
       <c r="W36">
         <f t="shared" si="21"/>
-        <v>8.541525217000323E-4</v>
+        <v>0.24363319827422869</v>
       </c>
       <c r="X36">
         <f t="shared" si="21"/>
-        <v>3.2788465131285328E-4</v>
+        <v>0.15426352489170814</v>
       </c>
       <c r="Y36">
         <f t="shared" si="21"/>
-        <v>1.2475127489560214E-4</v>
+        <v>9.6802072227212752E-2</v>
       </c>
       <c r="Z36">
         <f t="shared" si="21"/>
-        <v>4.7134581448612226E-5</v>
+        <v>6.0318217615790481E-2</v>
       </c>
       <c r="AA36">
         <f t="shared" si="21"/>
-        <v>1.7711225466512465E-5</v>
+        <v>3.7377247797259115E-2</v>
       </c>
       <c r="AB36">
         <f t="shared" si="21"/>
-        <v>6.6263265478077122E-6</v>
+        <v>2.3060428617568275E-2</v>
       </c>
       <c r="AC36">
         <f t="shared" si="21"/>
-        <v>2.47061154529302E-6</v>
+        <v>1.4178293207358411E-2</v>
       </c>
       <c r="AD36">
         <f t="shared" si="21"/>
-        <v>9.1865363688934303E-7</v>
+        <v>8.6933520250743884E-3</v>
       </c>
       <c r="AE36">
         <f t="shared" si="21"/>
-        <v>3.408458625376852E-7</v>
+        <v>5.3186541447154201E-3</v>
       </c>
       <c r="AF36">
         <f t="shared" si="21"/>
-        <v>1.2624538586758636E-7</v>
+        <v>3.2483337275139306E-3</v>
       </c>
       <c r="AG36">
         <f t="shared" si="21"/>
-        <v>4.6695684211335232E-8</v>
+        <v>1.9811488011187142E-3</v>
       </c>
       <c r="AH36">
         <f t="shared" si="21"/>
-        <v>1.7252927106399014E-8</v>
+        <v>1.2069596716591348E-3</v>
       </c>
       <c r="AI36">
         <f t="shared" si="21"/>
-        <v>6.2940841375389239E-9</v>
+        <v>7.2436632218516336E-4</v>
       </c>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
+      <c r="A37" t="s">
+        <v>35</v>
       </c>
       <c r="B37" s="1">
-        <f>SUMPRODUCT(lz,qa1_)</f>
-        <v>11.745740426975647</v>
-      </c>
+        <f>SUMPRODUCT(lz,ta3_)</f>
+        <v>3.2108846231009731</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="G37" s="1">
         <f>SUM(dqa31_)</f>
-        <v>136.71146438910975</v>
+        <v>136.94628165801421</v>
       </c>
       <c r="H37" s="1">
         <f>SUM(dqa32_)</f>
-        <v>141.32829153256534</v>
+        <v>139.60466182177444</v>
       </c>
       <c r="I37" s="1">
         <f>SUM(dqa33_)</f>
-        <v>136.71146438911657</v>
+        <v>140.3079470077497</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K37">
         <f t="shared" ref="K37:AI37" si="22">flt3_*qa3_+lz*wa*flt3_^2/za*(sa-oa/za)</f>
-        <v>7.606561229163098E-11</v>
+        <v>1.6536593058352537E-6</v>
       </c>
       <c r="L37">
         <f t="shared" si="22"/>
-        <v>7.4166411383356007E-8</v>
+        <v>1.3988811587721083E-3</v>
       </c>
       <c r="M37">
         <f t="shared" si="22"/>
-        <v>2.9571650374104112E-5</v>
+        <v>0.16573018451647709</v>
       </c>
       <c r="N37">
         <f t="shared" si="22"/>
-        <v>7.3082888415232639E-3</v>
+        <v>1.0766881579933525</v>
       </c>
       <c r="O37">
         <f t="shared" si="22"/>
-        <v>0.49874737370371802</v>
+        <v>1.9293948304276309</v>
       </c>
       <c r="P37">
         <f t="shared" si="22"/>
-        <v>2.3634477273056191</v>
+        <v>2.7166705550522554</v>
       </c>
       <c r="Q37">
         <f t="shared" si="22"/>
-        <v>3.5192218888025741</v>
+        <v>3.5329624511861555</v>
       </c>
       <c r="R37">
         <f t="shared" si="22"/>
-        <v>4.3182727417528781</v>
+        <v>4.3049947173206906</v>
       </c>
       <c r="S37">
         <f t="shared" si="22"/>
-        <v>5.0049734831627619</v>
+        <v>5.0006886551428025</v>
       </c>
       <c r="T37">
         <f t="shared" si="22"/>
-        <v>5.603670154918067</v>
+        <v>5.6097305635373651</v>
       </c>
       <c r="U37">
         <f t="shared" si="22"/>
-        <v>6.117493124993957</v>
+        <v>6.132033864176071</v>
       </c>
       <c r="V37">
         <f t="shared" si="22"/>
-        <v>6.551854707676366</v>
+        <v>6.573127522579945</v>
       </c>
       <c r="W37">
         <f t="shared" si="22"/>
-        <v>6.9146657289436346</v>
+        <v>6.9413261572391978</v>
       </c>
       <c r="X37">
         <f t="shared" si="22"/>
-        <v>7.2148884173727144</v>
+        <v>7.2459404459575651</v>
       </c>
       <c r="Y37">
         <f t="shared" si="22"/>
-        <v>7.4615025453800534</v>
+        <v>7.4962090595717044</v>
       </c>
       <c r="Z37">
         <f t="shared" si="22"/>
-        <v>7.6629099322638501</v>
+        <v>7.7007151956619078</v>
       </c>
       <c r="AA37">
         <f t="shared" si="22"/>
-        <v>7.8266415648626619</v>
+        <v>7.8671133558881783</v>
       </c>
       <c r="AB37">
         <f t="shared" si="22"/>
-        <v>7.9592552890548491</v>
+        <v>8.0020450028614665</v>
       </c>
       <c r="AC37">
         <f t="shared" si="22"/>
-        <v>8.0663457653706914</v>
+        <v>8.1111623450797499</v>
       </c>
       <c r="AD37">
         <f t="shared" si="22"/>
-        <v>8.1526149976363005</v>
+        <v>8.1992085486598345</v>
       </c>
       <c r="AE37">
         <f t="shared" si="22"/>
-        <v>8.2219707707251022</v>
+        <v>8.2701225179857012</v>
       </c>
       <c r="AF37">
         <f t="shared" si="22"/>
-        <v>8.2776333007029823</v>
+        <v>8.3271494795731069</v>
       </c>
       <c r="AG37">
         <f t="shared" si="22"/>
-        <v>8.32223892018723</v>
+        <v>8.3729469861932966</v>
       </c>
       <c r="AH37">
         <f t="shared" si="22"/>
-        <v>8.3579350315992631</v>
+        <v>8.4096811675492553</v>
       </c>
       <c r="AI37">
         <f t="shared" si="22"/>
-        <v>8.2878429879669113</v>
+        <v>8.320904708777892</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
-        <f>SUMPRODUCT(lz,qa2_)</f>
-        <v>3.7046378693679896</v>
+        <f>SUMPRODUCT(lz,qa1_)</f>
+        <v>11.699191111954111</v>
       </c>
       <c r="G38" t="s">
         <v>69</v>
@@ -4139,852 +4177,852 @@
       </c>
       <c r="K38">
         <f t="shared" ref="K38:AI38" si="23">flt1_*qa1_+lz*wa*flt2_*flt1_/za*(sa-oa/za)</f>
-        <v>-4.7630744103785547E-8</v>
+        <v>-1.2379882939500277E-10</v>
       </c>
       <c r="L38">
         <f t="shared" si="23"/>
-        <v>-1.9786800198708514E-5</v>
+        <v>-2.926496869413112E-8</v>
       </c>
       <c r="M38">
         <f t="shared" si="23"/>
-        <v>-1.9648280948683576E-3</v>
+        <v>8.3130889703815719E-6</v>
       </c>
       <c r="N38">
         <f t="shared" si="23"/>
-        <v>-2.6973682461303914E-2</v>
+        <v>4.7811317186491099E-3</v>
       </c>
       <c r="O38">
         <f t="shared" si="23"/>
-        <v>0.46589044977590599</v>
+        <v>0.42534321720378032</v>
       </c>
       <c r="P38">
         <f t="shared" si="23"/>
-        <v>2.7110243001172756</v>
+        <v>2.2773441932497951</v>
       </c>
       <c r="Q38">
         <f t="shared" si="23"/>
-        <v>4.0236017421319383</v>
+        <v>3.5903281079326863</v>
       </c>
       <c r="R38">
         <f t="shared" si="23"/>
-        <v>4.8474844141317206</v>
+        <v>4.5083343440041919</v>
       </c>
       <c r="S38">
         <f t="shared" si="23"/>
-        <v>5.5102576572866599</v>
+        <v>5.262981850087419</v>
       </c>
       <c r="T38">
         <f t="shared" si="23"/>
-        <v>6.0619145383255244</v>
+        <v>5.891341144162495</v>
       </c>
       <c r="U38">
         <f t="shared" si="23"/>
-        <v>6.519408778197703</v>
+        <v>6.4090233321929269</v>
       </c>
       <c r="V38">
         <f t="shared" si="23"/>
-        <v>6.8963535683228692</v>
+        <v>6.8314833379418989</v>
       </c>
       <c r="W38">
         <f t="shared" si="23"/>
-        <v>7.2051732906077728</v>
+        <v>7.1739327765347127</v>
       </c>
       <c r="X38">
         <f t="shared" si="23"/>
-        <v>7.456982993820449</v>
+        <v>7.4502447367906486</v>
       </c>
       <c r="Y38">
         <f t="shared" si="23"/>
-        <v>7.6614935659304839</v>
+        <v>7.6724747323893476</v>
       </c>
       <c r="Z38">
         <f t="shared" si="23"/>
-        <v>7.8270376285618246</v>
+        <v>7.8507987637035619</v>
       </c>
       <c r="AA38">
         <f t="shared" si="23"/>
-        <v>7.9606660918888119</v>
+        <v>7.9936522219201525</v>
       </c>
       <c r="AB38">
         <f t="shared" si="23"/>
-        <v>8.0682791742265394</v>
+        <v>8.1079464176476446</v>
       </c>
       <c r="AC38">
         <f t="shared" si="23"/>
-        <v>8.1547698014151457</v>
+        <v>8.1993002602339118</v>
       </c>
       <c r="AD38">
         <f t="shared" si="23"/>
-        <v>8.2241658843938357</v>
+        <v>8.2722580177958882</v>
       </c>
       <c r="AE38">
         <f t="shared" si="23"/>
-        <v>8.2797635268315481</v>
+        <v>8.3304815496881748</v>
       </c>
       <c r="AF38">
         <f t="shared" si="23"/>
-        <v>8.3242469847252476</v>
+        <v>8.3769141525178412</v>
       </c>
       <c r="AG38">
         <f t="shared" si="23"/>
-        <v>8.3597937308155608</v>
+        <v>8.413917273654798</v>
       </c>
       <c r="AH38">
         <f t="shared" si="23"/>
-        <v>8.3881645923889732</v>
+        <v>8.4433830497544413</v>
       </c>
       <c r="AI38">
         <f t="shared" si="23"/>
-        <v>8.4107771636989721</v>
+        <v>8.4657231668524187</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
-        <f>SUMPRODUCT(lz,qa3_)</f>
-        <v>11.745740428325337</v>
+        <f>SUMPRODUCT(lz,qa2_)</f>
+        <v>6.1911436904788895</v>
       </c>
       <c r="G39" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
-        <v>110.26056183089537</v>
+        <v>109.04105672174745</v>
       </c>
       <c r="H39" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
-        <v>116.38652537399793</v>
+        <v>113.67631707501957</v>
       </c>
       <c r="I39" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
-        <v>110.26056181856346</v>
+        <v>107.47521078278012</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K39">
         <f t="shared" ref="K39:AI39" si="24">flt1_*qa1_+lz*wa*flt3_*flt1_/za*(sa-oa/za)</f>
-        <v>7.5983881259288646E-11</v>
+        <v>-1.0517601810445035E-8</v>
       </c>
       <c r="L39">
         <f t="shared" si="24"/>
-        <v>7.4166279391195771E-8</v>
+        <v>-7.2360732745614722E-6</v>
       </c>
       <c r="M39">
         <f t="shared" si="24"/>
-        <v>2.9571650057079199E-5</v>
+        <v>-1.2000482031295676E-3</v>
       </c>
       <c r="N39">
         <f t="shared" si="24"/>
-        <v>7.3082888402045774E-3</v>
+        <v>-2.8351439663483177E-2</v>
       </c>
       <c r="O39">
         <f t="shared" si="24"/>
-        <v>0.49874737370026512</v>
+        <v>0.32557698807298119</v>
       </c>
       <c r="P39">
         <f t="shared" si="24"/>
-        <v>2.3634477273044086</v>
+        <v>2.2752554153303164</v>
       </c>
       <c r="Q39">
         <f t="shared" si="24"/>
-        <v>3.5192218888023499</v>
+        <v>3.4821987527799267</v>
       </c>
       <c r="R39">
         <f t="shared" si="24"/>
-        <v>4.3182727417528239</v>
+        <v>4.3003992455370099</v>
       </c>
       <c r="S39">
         <f t="shared" si="24"/>
-        <v>5.004973483162745</v>
+        <v>5.0007403539992383</v>
       </c>
       <c r="T39">
         <f t="shared" si="24"/>
-        <v>5.603670154918059</v>
+        <v>5.6102715975519635</v>
       </c>
       <c r="U39">
         <f t="shared" si="24"/>
-        <v>6.1174931249939553</v>
+        <v>6.1326632438044522</v>
       </c>
       <c r="V39">
         <f t="shared" si="24"/>
-        <v>6.5518547076763616</v>
+        <v>6.5738014973337</v>
       </c>
       <c r="W39">
         <f t="shared" si="24"/>
-        <v>6.9146657289436346</v>
+        <v>6.9420345638853336</v>
       </c>
       <c r="X39">
         <f t="shared" si="24"/>
-        <v>7.2148884173727144</v>
+        <v>7.2466769912818991</v>
       </c>
       <c r="Y39">
         <f t="shared" si="24"/>
-        <v>7.4615025453800534</v>
+        <v>7.4969686183549404</v>
       </c>
       <c r="Z39">
         <f t="shared" si="24"/>
-        <v>7.6629099322638501</v>
+        <v>7.7014934959877506</v>
       </c>
       <c r="AA39">
         <f t="shared" si="24"/>
-        <v>7.8266415648626619</v>
+        <v>7.8679068594478903</v>
       </c>
       <c r="AB39">
         <f t="shared" si="24"/>
-        <v>7.9592552890548491</v>
+        <v>8.0028508003853105</v>
       </c>
       <c r="AC39">
         <f t="shared" si="24"/>
-        <v>8.0663457653706914</v>
+        <v>8.1119780586033361</v>
       </c>
       <c r="AD39">
         <f t="shared" si="24"/>
-        <v>8.1526149976363005</v>
+        <v>8.2000322434418145</v>
       </c>
       <c r="AE39">
         <f t="shared" si="24"/>
-        <v>8.2219707707251022</v>
+        <v>8.2709526255579817</v>
       </c>
       <c r="AF39">
         <f t="shared" si="24"/>
-        <v>8.2776333007029823</v>
+        <v>8.3279847319846656</v>
       </c>
       <c r="AG39">
         <f t="shared" si="24"/>
-        <v>8.32223892018723</v>
+        <v>8.3737863607019865</v>
       </c>
       <c r="AH39">
         <f t="shared" si="24"/>
-        <v>8.3579350315992631</v>
+        <v>8.4105238406391614</v>
       </c>
       <c r="AI39">
         <f t="shared" si="24"/>
-        <v>8.2878429879669113</v>
+        <v>8.3217441077900265</v>
       </c>
     </row>
     <row r="40" spans="1:35">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <f>SUMPRODUCT(lz,qa3_)</f>
+        <v>13.867558720474173</v>
+      </c>
       <c r="G40" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
-        <v>116.38652537399793</v>
+        <v>113.67631707501957</v>
       </c>
       <c r="H40" s="1">
         <f>re*phi_q2+f2_*phi_q2*$H32+f2_*re*H36</f>
-        <v>26.260926189133844</v>
+        <v>45.390056248675357</v>
       </c>
       <c r="I40" s="1">
         <f>re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
-        <v>111.41873308685707</v>
+        <v>113.55138183068395</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>65</v>
       </c>
       <c r="K40">
         <f t="shared" ref="K40:AI40" si="25">flt1_*qa1_+lz*wa*flt1_*flt2_/za*(sa-oa/za)</f>
-        <v>-4.763074410378554E-8</v>
+        <v>-1.2379882939500277E-10</v>
       </c>
       <c r="L40">
         <f t="shared" si="25"/>
-        <v>-1.9786800198708514E-5</v>
+        <v>-2.926496869413112E-8</v>
       </c>
       <c r="M40">
         <f t="shared" si="25"/>
-        <v>-1.9648280948683576E-3</v>
+        <v>8.3130889703815651E-6</v>
       </c>
       <c r="N40">
         <f t="shared" si="25"/>
-        <v>-2.6973682461303914E-2</v>
+        <v>4.7811317186491091E-3</v>
       </c>
       <c r="O40">
         <f t="shared" si="25"/>
-        <v>0.46589044977590599</v>
+        <v>0.42534321720378032</v>
       </c>
       <c r="P40">
         <f t="shared" si="25"/>
-        <v>2.7110243001172756</v>
+        <v>2.2773441932497951</v>
       </c>
       <c r="Q40">
         <f t="shared" si="25"/>
-        <v>4.0236017421319383</v>
+        <v>3.5903281079326863</v>
       </c>
       <c r="R40">
         <f t="shared" si="25"/>
-        <v>4.8474844141317206</v>
+        <v>4.5083343440041919</v>
       </c>
       <c r="S40">
         <f t="shared" si="25"/>
-        <v>5.5102576572866599</v>
+        <v>5.262981850087419</v>
       </c>
       <c r="T40">
         <f t="shared" si="25"/>
-        <v>6.0619145383255244</v>
+        <v>5.891341144162495</v>
       </c>
       <c r="U40">
         <f t="shared" si="25"/>
-        <v>6.519408778197703</v>
+        <v>6.4090233321929269</v>
       </c>
       <c r="V40">
         <f t="shared" si="25"/>
-        <v>6.8963535683228692</v>
+        <v>6.8314833379418989</v>
       </c>
       <c r="W40">
         <f t="shared" si="25"/>
-        <v>7.2051732906077728</v>
+        <v>7.1739327765347127</v>
       </c>
       <c r="X40">
         <f t="shared" si="25"/>
-        <v>7.456982993820449</v>
+        <v>7.4502447367906486</v>
       </c>
       <c r="Y40">
         <f t="shared" si="25"/>
-        <v>7.6614935659304839</v>
+        <v>7.6724747323893476</v>
       </c>
       <c r="Z40">
         <f t="shared" si="25"/>
-        <v>7.8270376285618246</v>
+        <v>7.8507987637035619</v>
       </c>
       <c r="AA40">
         <f t="shared" si="25"/>
-        <v>7.9606660918888119</v>
+        <v>7.9936522219201525</v>
       </c>
       <c r="AB40">
         <f t="shared" si="25"/>
-        <v>8.0682791742265394</v>
+        <v>8.1079464176476446</v>
       </c>
       <c r="AC40">
         <f t="shared" si="25"/>
-        <v>8.1547698014151457</v>
+        <v>8.1993002602339118</v>
       </c>
       <c r="AD40">
         <f t="shared" si="25"/>
-        <v>8.2241658843938357</v>
+        <v>8.2722580177958882</v>
       </c>
       <c r="AE40">
         <f t="shared" si="25"/>
-        <v>8.2797635268315481</v>
+        <v>8.3304815496881748</v>
       </c>
       <c r="AF40">
         <f t="shared" si="25"/>
-        <v>8.3242469847252476</v>
+        <v>8.3769141525178412</v>
       </c>
       <c r="AG40">
         <f t="shared" si="25"/>
-        <v>8.3597937308155608</v>
+        <v>8.413917273654798</v>
       </c>
       <c r="AH40">
         <f t="shared" si="25"/>
-        <v>8.3881645923889732</v>
+        <v>8.4433830497544413</v>
       </c>
       <c r="AI40">
         <f t="shared" si="25"/>
-        <v>8.4107771636989721</v>
+        <v>8.4657231668524187</v>
       </c>
     </row>
     <row r="41" spans="1:35">
-      <c r="A41" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
       <c r="G41" s="1">
         <f>re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
-        <v>110.26056181856346</v>
+        <v>107.47521078278012</v>
       </c>
       <c r="H41" s="1">
         <f>re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>111.41873308685707</v>
+        <v>113.55138183068395</v>
       </c>
       <c r="I41" s="1">
         <f>re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>110.26159630277692</v>
+        <v>109.75619400612086</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
       </c>
       <c r="K41">
         <f t="shared" ref="K41:AI41" si="26">flt1_*qa1_+lz*wa*flt3_*flt2_/za*(sa-oa/za)</f>
-        <v>-4.7648152203054232E-8</v>
+        <v>-3.9987883232692881E-8</v>
       </c>
       <c r="L41">
         <f t="shared" si="26"/>
-        <v>-1.9786813230171155E-5</v>
+        <v>-2.1446077711309177E-5</v>
       </c>
       <c r="M41">
         <f t="shared" si="26"/>
-        <v>-1.964828103315378E-3</v>
+        <v>-2.7975625608247165E-3</v>
       </c>
       <c r="N41">
         <f t="shared" si="26"/>
-        <v>-2.6973682464089255E-2</v>
+        <v>-5.8492608672412634E-2</v>
       </c>
       <c r="O41">
         <f t="shared" si="26"/>
-        <v>0.46589044977533051</v>
+        <v>0.19928160005107459</v>
       </c>
       <c r="P41">
         <f t="shared" si="26"/>
-        <v>2.7110243001172232</v>
+        <v>2.2259470189015946</v>
       </c>
       <c r="Q41">
         <f t="shared" si="26"/>
-        <v>4.0236017421319339</v>
+        <v>3.5867218353602381</v>
       </c>
       <c r="R41">
         <f t="shared" si="26"/>
-        <v>4.8474844141317206</v>
+        <v>4.5081385541681209</v>
       </c>
       <c r="S41">
         <f t="shared" si="26"/>
-        <v>5.5102576572866591</v>
+        <v>5.262983185084483</v>
       </c>
       <c r="T41">
         <f t="shared" si="26"/>
-        <v>6.0619145383255244</v>
+        <v>5.8913496965270324</v>
       </c>
       <c r="U41">
         <f t="shared" si="26"/>
-        <v>6.519408778197703</v>
+        <v>6.4090294697921442</v>
       </c>
       <c r="V41">
         <f t="shared" si="26"/>
-        <v>6.8963535683228692</v>
+        <v>6.8314874167967137</v>
       </c>
       <c r="W41">
         <f t="shared" si="26"/>
-        <v>7.2051732906077728</v>
+        <v>7.1739354494222844</v>
       </c>
       <c r="X41">
         <f t="shared" si="26"/>
-        <v>7.456982993820449</v>
+        <v>7.4502464755806077</v>
       </c>
       <c r="Y41">
         <f t="shared" si="26"/>
-        <v>7.6614935659304839</v>
+        <v>7.6724758574122456</v>
       </c>
       <c r="Z41">
         <f t="shared" si="26"/>
-        <v>7.8270376285618246</v>
+        <v>7.8507994885363219</v>
       </c>
       <c r="AA41">
         <f t="shared" si="26"/>
-        <v>7.9606660918888119</v>
+        <v>7.9936526873602913</v>
       </c>
       <c r="AB41">
         <f t="shared" si="26"/>
-        <v>8.0682791742265394</v>
+        <v>8.1079467157326288</v>
       </c>
       <c r="AC41">
         <f t="shared" si="26"/>
-        <v>8.1547698014151457</v>
+        <v>8.199300450737077</v>
       </c>
       <c r="AD41">
         <f t="shared" si="26"/>
-        <v>8.2241658843938357</v>
+        <v>8.272258139340515</v>
       </c>
       <c r="AE41">
         <f t="shared" si="26"/>
-        <v>8.2797635268315481</v>
+        <v>8.3304816271321691</v>
       </c>
       <c r="AF41">
         <f t="shared" si="26"/>
-        <v>8.3242469847252476</v>
+        <v>8.3769142018096563</v>
       </c>
       <c r="AG41">
         <f t="shared" si="26"/>
-        <v>8.3597937308155608</v>
+        <v>8.4139173050013589</v>
       </c>
       <c r="AH41">
         <f t="shared" si="26"/>
-        <v>8.3881645923889732</v>
+        <v>8.4433830696752583</v>
       </c>
       <c r="AI41">
         <f t="shared" si="26"/>
-        <v>8.4107771636989721</v>
+        <v>8.4657232346514402</v>
       </c>
     </row>
     <row r="42" spans="1:35">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1">
-        <f>phif/phie</f>
-        <v>0.40000071794109937</v>
-      </c>
+      <c r="A42" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
       <c r="J42" s="8" t="s">
         <v>68</v>
       </c>
       <c r="K42">
         <f t="shared" ref="K42:AI42" si="27">flt1_*qa1_+lz*wa*flt1_*flt3_/za*(sa-oa/za)</f>
-        <v>7.5983881259288646E-11</v>
+        <v>-1.0517601810445034E-8</v>
       </c>
       <c r="L42">
         <f t="shared" si="27"/>
-        <v>7.4166279391195771E-8</v>
+        <v>-7.2360732745614722E-6</v>
       </c>
       <c r="M42">
         <f t="shared" si="27"/>
-        <v>2.9571650057079199E-5</v>
+        <v>-1.2000482031295676E-3</v>
       </c>
       <c r="N42">
         <f t="shared" si="27"/>
-        <v>7.3082888402045774E-3</v>
+        <v>-2.8351439663483184E-2</v>
       </c>
       <c r="O42">
         <f t="shared" si="27"/>
-        <v>0.49874737370026512</v>
+        <v>0.32557698807298119</v>
       </c>
       <c r="P42">
         <f t="shared" si="27"/>
-        <v>2.3634477273044086</v>
+        <v>2.2752554153303164</v>
       </c>
       <c r="Q42">
         <f t="shared" si="27"/>
-        <v>3.5192218888023499</v>
+        <v>3.4821987527799267</v>
       </c>
       <c r="R42">
         <f t="shared" si="27"/>
-        <v>4.3182727417528239</v>
+        <v>4.3003992455370099</v>
       </c>
       <c r="S42">
         <f t="shared" si="27"/>
-        <v>5.004973483162745</v>
+        <v>5.0007403539992383</v>
       </c>
       <c r="T42">
         <f t="shared" si="27"/>
-        <v>5.603670154918059</v>
+        <v>5.6102715975519644</v>
       </c>
       <c r="U42">
         <f t="shared" si="27"/>
-        <v>6.1174931249939553</v>
+        <v>6.1326632438044522</v>
       </c>
       <c r="V42">
         <f t="shared" si="27"/>
-        <v>6.5518547076763616</v>
+        <v>6.5738014973337</v>
       </c>
       <c r="W42">
         <f t="shared" si="27"/>
-        <v>6.9146657289436346</v>
+        <v>6.9420345638853336</v>
       </c>
       <c r="X42">
         <f t="shared" si="27"/>
-        <v>7.2148884173727144</v>
+        <v>7.2466769912818991</v>
       </c>
       <c r="Y42">
         <f t="shared" si="27"/>
-        <v>7.4615025453800534</v>
+        <v>7.4969686183549404</v>
       </c>
       <c r="Z42">
         <f t="shared" si="27"/>
-        <v>7.6629099322638501</v>
+        <v>7.7014934959877506</v>
       </c>
       <c r="AA42">
         <f t="shared" si="27"/>
-        <v>7.8266415648626619</v>
+        <v>7.8679068594478903</v>
       </c>
       <c r="AB42">
         <f t="shared" si="27"/>
-        <v>7.9592552890548491</v>
+        <v>8.0028508003853105</v>
       </c>
       <c r="AC42">
         <f t="shared" si="27"/>
-        <v>8.0663457653706914</v>
+        <v>8.1119780586033361</v>
       </c>
       <c r="AD42">
         <f t="shared" si="27"/>
-        <v>8.1526149976363005</v>
+        <v>8.2000322434418145</v>
       </c>
       <c r="AE42">
         <f t="shared" si="27"/>
-        <v>8.2219707707251022</v>
+        <v>8.2709526255579817</v>
       </c>
       <c r="AF42">
         <f t="shared" si="27"/>
-        <v>8.2776333007029823</v>
+        <v>8.3279847319846656</v>
       </c>
       <c r="AG42">
         <f t="shared" si="27"/>
-        <v>8.32223892018723</v>
+        <v>8.3737863607019865</v>
       </c>
       <c r="AH42">
         <f t="shared" si="27"/>
-        <v>8.3579350315992631</v>
+        <v>8.4105238406391614</v>
       </c>
       <c r="AI42">
         <f t="shared" si="27"/>
-        <v>8.2878429879669113</v>
+        <v>8.3217441077900265</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="11">
-        <f>MAX(0,Ro*(reck-1/spr)/(reck-1))</f>
-        <v>7.1197077936331228</v>
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <f>phif/phie</f>
+        <v>0.40000051882701221</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>61</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43:AI43" si="28">flt1_*qa1_+lz*wa*flt2_*flt3_/za*(sa-oa/za)</f>
-        <v>-4.7648152203054232E-8</v>
+        <v>-3.9987883232692881E-8</v>
       </c>
       <c r="L43">
         <f t="shared" si="28"/>
-        <v>-1.9786813230171155E-5</v>
+        <v>-2.1446077711309177E-5</v>
       </c>
       <c r="M43">
         <f t="shared" si="28"/>
-        <v>-1.964828103315378E-3</v>
+        <v>-2.7975625608247165E-3</v>
       </c>
       <c r="N43">
         <f t="shared" si="28"/>
-        <v>-2.6973682464089255E-2</v>
+        <v>-5.8492608672412634E-2</v>
       </c>
       <c r="O43">
         <f t="shared" si="28"/>
-        <v>0.46589044977533051</v>
+        <v>0.19928160005107459</v>
       </c>
       <c r="P43">
         <f t="shared" si="28"/>
-        <v>2.7110243001172232</v>
+        <v>2.2259470189015946</v>
       </c>
       <c r="Q43">
         <f t="shared" si="28"/>
-        <v>4.0236017421319339</v>
+        <v>3.5867218353602381</v>
       </c>
       <c r="R43">
         <f t="shared" si="28"/>
-        <v>4.8474844141317206</v>
+        <v>4.5081385541681209</v>
       </c>
       <c r="S43">
         <f t="shared" si="28"/>
-        <v>5.5102576572866591</v>
+        <v>5.262983185084483</v>
       </c>
       <c r="T43">
         <f t="shared" si="28"/>
-        <v>6.0619145383255244</v>
+        <v>5.8913496965270324</v>
       </c>
       <c r="U43">
         <f t="shared" si="28"/>
-        <v>6.519408778197703</v>
+        <v>6.4090294697921442</v>
       </c>
       <c r="V43">
         <f t="shared" si="28"/>
-        <v>6.8963535683228692</v>
+        <v>6.8314874167967137</v>
       </c>
       <c r="W43">
         <f t="shared" si="28"/>
-        <v>7.2051732906077728</v>
+        <v>7.1739354494222844</v>
       </c>
       <c r="X43">
         <f t="shared" si="28"/>
-        <v>7.456982993820449</v>
+        <v>7.4502464755806077</v>
       </c>
       <c r="Y43">
         <f t="shared" si="28"/>
-        <v>7.6614935659304839</v>
+        <v>7.6724758574122456</v>
       </c>
       <c r="Z43">
         <f t="shared" si="28"/>
-        <v>7.8270376285618246</v>
+        <v>7.8507994885363219</v>
       </c>
       <c r="AA43">
         <f t="shared" si="28"/>
-        <v>7.9606660918888119</v>
+        <v>7.9936526873602913</v>
       </c>
       <c r="AB43">
         <f t="shared" si="28"/>
-        <v>8.0682791742265394</v>
+        <v>8.1079467157326288</v>
       </c>
       <c r="AC43">
         <f t="shared" si="28"/>
-        <v>8.1547698014151457</v>
+        <v>8.199300450737077</v>
       </c>
       <c r="AD43">
         <f t="shared" si="28"/>
-        <v>8.2241658843938357</v>
+        <v>8.272258139340515</v>
       </c>
       <c r="AE43">
         <f t="shared" si="28"/>
-        <v>8.2797635268315481</v>
+        <v>8.3304816271321691</v>
       </c>
       <c r="AF43">
         <f t="shared" si="28"/>
-        <v>8.3242469847252476</v>
+        <v>8.3769142018096563</v>
       </c>
       <c r="AG43">
         <f t="shared" si="28"/>
-        <v>8.3597937308155608</v>
+        <v>8.4139173050013589</v>
       </c>
       <c r="AH43">
         <f t="shared" si="28"/>
-        <v>8.3881645923889732</v>
+        <v>8.4433830696752583</v>
       </c>
       <c r="AI43">
         <f t="shared" si="28"/>
-        <v>8.4107771636989721</v>
+        <v>8.4657232346514402</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <f>f1_*re*phi_q1</f>
-        <v>2.9443869019615287</v>
-      </c>
-      <c r="C44" s="20">
-        <f>ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.4232805123398507</v>
+        <v>41</v>
+      </c>
+      <c r="B44" s="11">
+        <f>MAX(0,Ro*(reck-1/spr)/(reck-1))</f>
+        <v>7.1197068609824221</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
-        <f>f2_*re*phi_q2</f>
-        <v>1.0672499097516894</v>
+        <f>f1_*re*phi_q1</f>
+        <v>2.8489935883197957</v>
       </c>
       <c r="C45" s="20">
-        <f>ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.15342619826674431</v>
+        <f>ye_1/SUM(ye_1,ye_2,ye_3)</f>
+        <v>0.39563602410335996</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="19" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
-        <f>f3_*re*phi_q3</f>
-        <v>2.9444757805846495</v>
+        <f>f2_*re*phi_q2</f>
+        <v>2.1883761730216591</v>
       </c>
       <c r="C46" s="20">
-        <f>ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.42329328939340488</v>
+        <f>ye_2/SUM(ye_1,ye_2,ye_3)</f>
+        <v>0.30389694518316723</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46:AI46" si="29">lz*qa1_</f>
-        <v>3.2667895782250959E-6</v>
+        <v>3.2684789917331903E-6</v>
       </c>
       <c r="L46">
         <f t="shared" si="29"/>
-        <v>1.9830685531339992E-4</v>
+        <v>1.9915883543794699E-4</v>
       </c>
       <c r="M46">
         <f t="shared" si="29"/>
-        <v>5.0303359246510471E-3</v>
+        <v>5.1233249114548433E-3</v>
       </c>
       <c r="N46">
         <f t="shared" si="29"/>
-        <v>8.3472232294431778E-2</v>
+        <v>8.6530187211446549E-2</v>
       </c>
       <c r="O46">
         <f t="shared" si="29"/>
-        <v>0.66332183097283803</v>
+        <v>0.68778679651867913</v>
       </c>
       <c r="P46">
         <f t="shared" si="29"/>
-        <v>1.2991013849339932</v>
+        <v>1.3228511354408488</v>
       </c>
       <c r="Q46">
         <f t="shared" si="29"/>
-        <v>1.3617080550460643</v>
+        <v>1.3581177451464845</v>
       </c>
       <c r="R46">
         <f t="shared" si="29"/>
-        <v>1.2727438014037058</v>
+        <v>1.2497240001722547</v>
       </c>
       <c r="S46">
         <f t="shared" si="29"/>
-        <v>1.1436126364169148</v>
+        <v>1.1114565188167704</v>
       </c>
       <c r="T46">
         <f t="shared" si="29"/>
-        <v>1.0016351835143371</v>
+        <v>0.96803940414721379</v>
       </c>
       <c r="U46">
         <f t="shared" si="29"/>
-        <v>0.86065931313945654</v>
+        <v>0.83041521378849059</v>
       </c>
       <c r="V46">
         <f t="shared" si="29"/>
-        <v>0.7287323518508827</v>
+        <v>0.7042449974543411</v>
       </c>
       <c r="W46">
         <f t="shared" si="29"/>
-        <v>0.61002643916074317</v>
+        <v>0.59202893615762064</v>
       </c>
       <c r="X46">
         <f t="shared" si="29"/>
-        <v>0.50612462876630904</v>
+        <v>0.49432491214426483</v>
       </c>
       <c r="Y46">
         <f t="shared" si="29"/>
-        <v>0.4169916809889424</v>
+        <v>0.41056220063756499</v>
       </c>
       <c r="Z46">
         <f t="shared" si="29"/>
-        <v>0.34166745780758895</v>
+        <v>0.33957477667144209</v>
       </c>
       <c r="AA46">
         <f t="shared" si="29"/>
-        <v>0.27873349161480548</v>
+        <v>0.27993823827969588</v>
       </c>
       <c r="AB46">
         <f t="shared" si="29"/>
-        <v>0.22660949204669933</v>
+        <v>0.23017352849943068</v>
       </c>
       <c r="AC46">
         <f t="shared" si="29"/>
-        <v>0.18373013222111853</v>
+        <v>0.18886300098907213</v>
       </c>
       <c r="AD46">
         <f t="shared" si="29"/>
-        <v>0.14864165408335045</v>
+        <v>0.15471044268117584</v>
       </c>
       <c r="AE46">
         <f t="shared" si="29"/>
-        <v>0.12004715305378347</v>
+        <v>0.12656638517579341</v>
       </c>
       <c r="AF46">
         <f t="shared" si="29"/>
-        <v>9.6820556029183269E-2</v>
+        <v>0.10343276558464704</v>
       </c>
       <c r="AG46">
         <f t="shared" si="29"/>
-        <v>7.8002620743326909E-2</v>
+        <v>8.4456001597568692E-2</v>
       </c>
       <c r="AH46">
         <f t="shared" si="29"/>
-        <v>6.2787514438517655E-2</v>
+        <v>6.8914186541398331E-2</v>
       </c>
       <c r="AI46">
         <f t="shared" si="29"/>
-        <v>0.25533890687910993</v>
+        <v>0.30115398607201926</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
-        <f>SUM(B44:B46)</f>
-        <v>6.9561125922978686</v>
+        <f>f3_*re*phi_q3</f>
+        <v>2.1636771978593474</v>
+      </c>
+      <c r="C47" s="20">
+        <f>ye_3/SUM(ye_1,ye_2,ye_3)</f>
+        <v>0.3004670307134728</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" s="31">
         <f>G39/G53</f>
@@ -4992,125 +5030,130 @@
       </c>
       <c r="H47" s="31">
         <f>H53/H39</f>
-        <v>0.46234100977901238</v>
+        <v>0.6188784944410094</v>
       </c>
       <c r="I47" s="31">
         <f>I53/I39</f>
-        <v>1.0000046911339013</v>
+        <v>1.0178909183828075</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K47">
         <f t="shared" ref="K47:AI47" si="30">lz*qa2_</f>
-        <v>2.159602264030384E-3</v>
+        <v>1.2299355472681606E-5</v>
       </c>
       <c r="L47">
         <f t="shared" si="30"/>
-        <v>7.3989742760603577E-2</v>
+        <v>5.8346599532476328E-4</v>
       </c>
       <c r="M47">
         <f t="shared" si="30"/>
-        <v>0.61972896706756475</v>
+        <v>1.1689739292023502E-2</v>
       </c>
       <c r="N47">
         <f t="shared" si="30"/>
-        <v>1.0171565563551617</v>
+        <v>0.15376511063672954</v>
       </c>
       <c r="O47">
         <f t="shared" si="30"/>
-        <v>0.79948631490890709</v>
+        <v>0.95187787625386822</v>
       </c>
       <c r="P47">
         <f t="shared" si="30"/>
-        <v>0.51701255535038293</v>
+        <v>1.4258558109459796</v>
       </c>
       <c r="Q47">
         <f t="shared" si="30"/>
-        <v>0.30597162150444701</v>
+        <v>1.1400904192416359</v>
       </c>
       <c r="R47">
         <f t="shared" si="30"/>
-        <v>0.17240249351939474</v>
+        <v>0.8170586262496865</v>
       </c>
       <c r="S47">
         <f t="shared" si="30"/>
-        <v>9.3913101014202041E-2</v>
+        <v>0.56593795805585545</v>
       </c>
       <c r="T47">
         <f t="shared" si="30"/>
-        <v>4.9888729868471884E-2</v>
+        <v>0.38388984037133916</v>
       </c>
       <c r="U47">
         <f t="shared" si="30"/>
-        <v>2.6000774782043309E-2</v>
+        <v>0.25647563695467218</v>
       </c>
       <c r="V47">
         <f t="shared" si="30"/>
-        <v>1.3353237163801107E-2</v>
+        <v>0.16939938428867829</v>
       </c>
       <c r="W47">
         <f t="shared" si="30"/>
-        <v>6.7800169062429234E-3</v>
+        <v>0.1109093672496366</v>
       </c>
       <c r="X47">
         <f t="shared" si="30"/>
-        <v>3.4119542990977249E-3</v>
+        <v>7.2123206795490641E-2</v>
       </c>
       <c r="Y47">
         <f t="shared" si="30"/>
-        <v>1.7050485173942631E-3</v>
+        <v>4.6652909109780656E-2</v>
       </c>
       <c r="Z47">
         <f t="shared" si="30"/>
-        <v>8.4737682694399673E-4</v>
+        <v>3.0051934117596567E-2</v>
       </c>
       <c r="AA47">
         <f t="shared" si="30"/>
-        <v>4.1930084583508085E-4</v>
+        <v>1.9294630513224057E-2</v>
       </c>
       <c r="AB47">
         <f t="shared" si="30"/>
-        <v>2.0676560527782718E-4</v>
+        <v>1.2355685733085486E-2</v>
       </c>
       <c r="AC47">
         <f t="shared" si="30"/>
-        <v>1.0168202901565561E-4</v>
+        <v>7.8957902201511627E-3</v>
       </c>
       <c r="AD47">
         <f t="shared" si="30"/>
-        <v>4.989625632702485E-5</v>
+        <v>5.0373900577722307E-3</v>
       </c>
       <c r="AE47">
         <f t="shared" si="30"/>
-        <v>2.4442347494756654E-5</v>
+        <v>3.2095309298825381E-3</v>
       </c>
       <c r="AF47">
         <f t="shared" si="30"/>
-        <v>1.1957000236627482E-5</v>
+        <v>2.0427657264678518E-3</v>
       </c>
       <c r="AG47">
         <f t="shared" si="30"/>
-        <v>5.8428868522299395E-6</v>
+        <v>1.2990569157649793E-3</v>
       </c>
       <c r="AH47">
         <f t="shared" si="30"/>
-        <v>2.8526940039701282E-6</v>
+        <v>8.2555028858907178E-4</v>
       </c>
       <c r="AI47">
         <f t="shared" si="30"/>
-        <v>7.0365942559820988E-6</v>
+        <v>2.8097051801829788E-3</v>
       </c>
     </row>
     <row r="48" spans="1:35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1">
+        <f>SUM(B45:B47)</f>
+        <v>7.2010469592008022</v>
+      </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G48" s="31">
         <f>G40/G54</f>
-        <v>2.162905688331596</v>
+        <v>1.6158260611450581</v>
       </c>
       <c r="H48" s="31">
         <f t="shared" ref="H48:I48" si="31">H40/H54</f>
@@ -5118,291 +5161,270 @@
       </c>
       <c r="I48" s="31">
         <f>I54/I40</f>
-        <v>0.4829575296756457</v>
+        <v>0.62158776319693276</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K48">
         <f t="shared" ref="K48:AI48" si="32">lz*qa3_</f>
-        <v>3.2679798200268268E-6</v>
+        <v>4.8201202729511986E-4</v>
       </c>
       <c r="L48">
         <f t="shared" si="32"/>
-        <v>1.9830698508060648E-4</v>
+        <v>2.7329350838874368E-2</v>
       </c>
       <c r="M48">
         <f t="shared" si="32"/>
-        <v>5.030335945783445E-3</v>
+        <v>0.3827269448469523</v>
       </c>
       <c r="N48">
         <f t="shared" si="32"/>
-        <v>8.3472232300657173E-2</v>
+        <v>1.0541007768441173</v>
       </c>
       <c r="O48">
         <f t="shared" si="32"/>
-        <v>0.66332183097481667</v>
+        <v>1.3662987674015805</v>
       </c>
       <c r="P48">
         <f t="shared" si="32"/>
-        <v>1.2991013849342896</v>
+        <v>1.4305745705589665</v>
       </c>
       <c r="Q48">
         <f t="shared" si="32"/>
-        <v>1.361708055046104</v>
+        <v>1.3671382408272612</v>
       </c>
       <c r="R48">
         <f t="shared" si="32"/>
-        <v>1.2727438014037131</v>
+        <v>1.2503480241731695</v>
       </c>
       <c r="S48">
         <f t="shared" si="32"/>
-        <v>1.1436126364169166</v>
+        <v>1.1114510649096179</v>
       </c>
       <c r="T48">
         <f t="shared" si="32"/>
-        <v>1.0016351835143378</v>
+        <v>0.96799458644744307</v>
       </c>
       <c r="U48">
         <f t="shared" si="32"/>
-        <v>0.86065931313945665</v>
+        <v>0.8303739463675146</v>
       </c>
       <c r="V48">
         <f t="shared" si="32"/>
-        <v>0.72873235185088303</v>
+        <v>0.70420980364831687</v>
       </c>
       <c r="W48">
         <f t="shared" si="32"/>
-        <v>0.61002643916074317</v>
+        <v>0.59199933666281646</v>
       </c>
       <c r="X48">
         <f t="shared" si="32"/>
-        <v>0.50612462876630904</v>
+        <v>0.49430019659962043</v>
       </c>
       <c r="Y48">
         <f t="shared" si="32"/>
-        <v>0.4169916809889424</v>
+        <v>0.41054167304639055</v>
       </c>
       <c r="Z48">
         <f t="shared" si="32"/>
-        <v>0.34166745780758895</v>
+        <v>0.33955779835745425</v>
       </c>
       <c r="AA48">
         <f t="shared" si="32"/>
-        <v>0.27873349161480548</v>
+        <v>0.27992424171772484</v>
       </c>
       <c r="AB48">
         <f t="shared" si="32"/>
-        <v>0.22660949204669933</v>
+        <v>0.2301620201107196</v>
       </c>
       <c r="AC48">
         <f t="shared" si="32"/>
-        <v>0.18373013222111853</v>
+        <v>0.1888535580750976</v>
       </c>
       <c r="AD48">
         <f t="shared" si="32"/>
-        <v>0.14864165408335045</v>
+        <v>0.15470270735242661</v>
       </c>
       <c r="AE48">
         <f t="shared" si="32"/>
-        <v>0.12004715305378347</v>
+        <v>0.12656005701473991</v>
       </c>
       <c r="AF48">
         <f t="shared" si="32"/>
-        <v>9.6820556029183269E-2</v>
+        <v>0.10342759407565663</v>
       </c>
       <c r="AG48">
         <f t="shared" si="32"/>
-        <v>7.8002620743326909E-2</v>
+        <v>8.4451778903057051E-2</v>
       </c>
       <c r="AH48">
         <f t="shared" si="32"/>
-        <v>6.2787514438517655E-2</v>
+        <v>6.8910740918212574E-2</v>
       </c>
       <c r="AI48">
         <f t="shared" si="32"/>
-        <v>0.25533890687910993</v>
+        <v>0.30113892874915177</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="35">
-        <f>f1_*phi_q1</f>
-        <v>0.41355445859654233</v>
-      </c>
+    <row r="49" spans="1:19">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G49" s="31">
         <f>G41/G55</f>
-        <v>0.99999530888810539</v>
+        <v>0.98242354061746417</v>
       </c>
       <c r="H49" s="31">
         <f t="shared" ref="H49:I49" si="33">H41/H55</f>
-        <v>2.0705754410156936</v>
+        <v>1.6087832792216308</v>
       </c>
       <c r="I49" s="31">
         <f t="shared" si="33"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:19">
       <c r="A50" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="35">
+        <f>f1_*phi_q1</f>
+        <v>0.40015602382914311</v>
+      </c>
+      <c r="C50">
+        <f>AVERAGE(B50:B52)/B50</f>
+        <v>0.84252523285455416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="35">
+        <f>f2_*phi_q2</f>
+        <v>0.30736885882401249</v>
+      </c>
+      <c r="C51">
+        <f>AVERAGE(B50:B52)/B51</f>
+        <v>1.0968630603786558</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="35">
-        <f>f2_*phi_q2</f>
-        <v>0.14990080220793464</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="35">
+      <c r="B52" s="35">
         <f>f3_*phi_q3</f>
-        <v>0.41356694206155192</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="34">
-        <f>phi_t1</f>
-        <v>7.2482496807273103E-2</v>
+        <v>0.30389975881124826</v>
+      </c>
+      <c r="C52">
+        <f>AVERAGE(B50:B52)/B52</f>
+        <v>1.1093840563532644</v>
       </c>
       <c r="G52" s="1">
         <f>G39^0.5</f>
-        <v>10.500502932283547</v>
+        <v>10.442272584152716</v>
       </c>
       <c r="H52" s="1">
         <f>H40^0.5</f>
-        <v>5.1245415589234753</v>
+        <v>6.7372142795576391</v>
       </c>
       <c r="I52" s="11">
         <f>I41^0.5</f>
-        <v>10.500552190374416</v>
+        <v>10.476459039490436</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:19">
       <c r="A53" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" s="34">
-        <f>phi_t2</f>
-        <v>7.2482393772525411E-2</v>
+        <f>phi_t1*f1_</f>
+        <v>7.0362670162942689E-2</v>
+      </c>
+      <c r="C53">
+        <f>AVERAGE(B53:B55)/B53</f>
+        <v>1.0000096161074239</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53:I55" si="34">G$52*$J53</f>
-        <v>110.26056183089537</v>
+        <v>109.04105672174745</v>
       </c>
       <c r="H53">
         <f t="shared" si="34"/>
-        <v>53.81026366608485</v>
+        <v>70.351827964986924</v>
       </c>
       <c r="I53">
         <f t="shared" si="34"/>
-        <v>110.26107906562298</v>
+        <v>109.39804100706988</v>
       </c>
       <c r="J53">
         <f t="array" ref="J53:J55">TRANSPOSE(G52:I52)</f>
-        <v>10.500502932283547</v>
-      </c>
-      <c r="S53">
-        <v>0.33</v>
-      </c>
-      <c r="T53">
-        <f>S53/S$57</f>
-        <v>0.28695652173913044</v>
-      </c>
-      <c r="U53">
-        <f>S53/S57</f>
-        <v>0.28695652173913044</v>
+        <v>10.442272584152716</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:19">
       <c r="A54" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="34">
-        <f>phi_t3</f>
-        <v>7.248468529118951E-2</v>
+        <f>phi_t2*f2_</f>
+        <v>7.036263747350853E-2</v>
+      </c>
+      <c r="C54">
+        <f>AVERAGE(B53:B55)/B54</f>
+        <v>1.0000100806970085</v>
       </c>
       <c r="G54">
         <f t="shared" si="34"/>
-        <v>53.81026366608485</v>
+        <v>70.351827964986924</v>
       </c>
       <c r="H54">
         <f t="shared" si="34"/>
-        <v>26.260926189133844</v>
+        <v>45.390056248675357</v>
       </c>
       <c r="I54">
         <f t="shared" si="34"/>
-        <v>53.810516091218624</v>
+        <v>70.582149440055673</v>
       </c>
       <c r="J54">
-        <v>5.1245415589234753</v>
-      </c>
-      <c r="S54">
-        <v>0.32</v>
-      </c>
-      <c r="T54">
-        <f t="shared" ref="T54:T55" si="35">S54/S$57</f>
-        <v>0.27826086956521739</v>
-      </c>
-      <c r="U54">
-        <f>S54*(1-S$55)</f>
-        <v>0.16</v>
+        <v>6.7372142795576391</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:19">
+      <c r="A55" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="34">
+        <f>phi_t3*f3_</f>
+        <v>7.0364732697361626E-2</v>
+      </c>
+      <c r="C55">
+        <f>AVERAGE(B53:B55)/B55</f>
+        <v>0.99998030377760438</v>
+      </c>
       <c r="G55">
         <f t="shared" si="34"/>
-        <v>110.26107906562298</v>
+        <v>109.39804100706988</v>
       </c>
       <c r="H55">
         <f t="shared" si="34"/>
-        <v>53.810516091218624</v>
+        <v>70.582149440055673</v>
       </c>
       <c r="I55">
         <f t="shared" si="34"/>
-        <v>110.26159630277694</v>
+        <v>109.75619400612086</v>
       </c>
       <c r="J55">
-        <v>10.500552190374416</v>
-      </c>
-      <c r="S55" s="33">
-        <f>0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="35"/>
-        <v>0.43478260869565222</v>
-      </c>
-      <c r="U55">
-        <f>S55</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="S57">
-        <f>SUM(S53:S55)</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="T57">
-        <f>SUM(T53:T55)</f>
-        <v>1</v>
-      </c>
-      <c r="U57">
-        <f>SUM(U53:U55)</f>
-        <v>0.94695652173913047</v>
-      </c>
+        <v>10.476459039490436</v>
+      </c>
+      <c r="S55" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
+++ b/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="6" r:id="rId1"/>
@@ -2549,13 +2549,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27569.43942245611</c:v>
+                  <c:v>27569.4394224561</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24268.78142553413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27109.57077646559</c:v>
+                  <c:v>27109.57077646557</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27568.6269329213</c:v>
@@ -2663,13 +2663,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7818.16629015721</c:v>
+                  <c:v>7818.166290157208</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6882.162743206078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7687.756328210182</c:v>
+                  <c:v>7687.756328210178</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7817.935883648219</c:v>
@@ -2809,13 +2809,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27569.43942245611</c:v>
+                  <c:v>27569.4394224561</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24268.78142553413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27109.57077646559</c:v>
+                  <c:v>27109.57077646557</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27568.6269329213</c:v>
@@ -2923,13 +2923,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7818.16629015721</c:v>
+                  <c:v>7818.166290157208</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6882.162743206078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7687.756328210182</c:v>
+                  <c:v>7687.756328210178</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7817.935883648219</c:v>
@@ -3077,13 +3077,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>27569.43942245611</c:v>
+                  <c:v>27569.4394224561</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24268.78142553413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27109.57077646559</c:v>
+                  <c:v>27109.57077646557</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27568.6269329213</c:v>
@@ -3227,13 +3227,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7818.16629015721</c:v>
+                  <c:v>7818.166290157208</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6882.162743206078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7687.756328210182</c:v>
+                  <c:v>7687.756328210178</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7817.935883648219</c:v>
@@ -4407,7 +4407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C5" s="65">
         <f ca="1">'Status Quo'!ye_1</f>
-        <v>27569.439422456111</v>
+        <v>27569.439422456104</v>
       </c>
       <c r="D5" s="79">
         <f ca="1">'Excluders (1)'!ye_1</f>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="E5" s="79">
         <f ca="1">'No Size Limit (1)'!ye_1</f>
-        <v>27109.570776465585</v>
+        <v>27109.570776465567</v>
       </c>
       <c r="F5" s="79">
         <f ca="1">'Reduce DMR (1)'!ye_1</f>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="C6" s="65">
         <f ca="1">'Status Quo'!ye_2</f>
-        <v>10281.832414628601</v>
+        <v>10281.832414628605</v>
       </c>
       <c r="D6" s="79">
         <f ca="1">'Excluders (1)'!ye_2</f>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="E6" s="79">
         <f ca="1">'No Size Limit (1)'!ye_2</f>
-        <v>10110.327572677941</v>
+        <v>10110.327572677936</v>
       </c>
       <c r="F6" s="79">
         <f ca="1">'Reduce DMR (1)'!ye_2</f>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="C7" s="67">
         <f ca="1">'Status Quo'!ye_3</f>
-        <v>7818.1662901572099</v>
+        <v>7818.1662901572081</v>
       </c>
       <c r="D7" s="80">
         <f ca="1">'Excluders (1)'!ye_3</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="E7" s="80">
         <f ca="1">'No Size Limit (1)'!ye_3</f>
-        <v>7687.7563282101819</v>
+        <v>7687.7563282101783</v>
       </c>
       <c r="F7" s="80">
         <f ca="1">'Reduce DMR (1)'!ye_3</f>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="C8" s="66">
         <f ca="1">SUM(C5:C7)</f>
-        <v>45669.438127241927</v>
+        <v>45669.438127241912</v>
       </c>
       <c r="D8" s="81">
         <f ca="1">SUM(D5:D7)</f>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="E8" s="81">
         <f ca="1">SUM(E5:E7)</f>
-        <v>44907.654677353712</v>
+        <v>44907.654677353683</v>
       </c>
       <c r="F8" s="81">
         <f ca="1">SUM(F5:F7)</f>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="E11" s="82">
         <f ca="1">'No Size Limit (1)'!$E27</f>
-        <v>2035.3111123523527</v>
+        <v>2035.3111123523515</v>
       </c>
       <c r="F11" s="82">
         <f ca="1">'Reduce DMR (1)'!$E27</f>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C12" s="70">
         <f ca="1">'Status Quo'!E28</f>
-        <v>818.71296036039837</v>
+        <v>818.71296036039905</v>
       </c>
       <c r="D12" s="82">
         <f ca="1">'Excluders (1)'!E28</f>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="E12" s="82">
         <f ca="1">'No Size Limit (1)'!$E28</f>
-        <v>797.53843008718786</v>
+        <v>797.53843008718741</v>
       </c>
       <c r="F12" s="82">
         <f ca="1">'Reduce DMR (1)'!$E28</f>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C13" s="71">
         <f ca="1">'Status Quo'!E29</f>
-        <v>635.48251459065784</v>
+        <v>635.48251459065807</v>
       </c>
       <c r="D13" s="83">
         <f ca="1">'Excluders (1)'!E29</f>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="E13" s="83">
         <f ca="1">'No Size Limit (1)'!$E29</f>
-        <v>634.21785061702701</v>
+        <v>634.21785061702678</v>
       </c>
       <c r="F13" s="82">
         <f ca="1">'Reduce DMR (1)'!$E29</f>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C14" s="74">
         <f ca="1">SUM(C11:C13)</f>
-        <v>3518.5208634487958</v>
+        <v>3518.5208634487963</v>
       </c>
       <c r="D14" s="84">
         <f ca="1">SUM(D11:D13)</f>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="E14" s="84">
         <f ca="1">SUM(E11:E13)</f>
-        <v>3467.0673930565677</v>
+        <v>3467.0673930565654</v>
       </c>
       <c r="F14" s="116">
         <f ca="1">SUM(F11:F13)</f>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="E17" s="85">
         <f ca="1">'No Size Limit (1)'!$C4</f>
-        <v>0.60367371601208453</v>
+        <v>0.60367371601208464</v>
       </c>
       <c r="F17" s="85">
         <f ca="1">'Reduce DMR (1)'!$C4</f>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="E18" s="85">
         <f ca="1">'No Size Limit (1)'!$C5</f>
-        <v>0.22513595166163144</v>
+        <v>0.22513595166163142</v>
       </c>
       <c r="F18" s="85">
         <f ca="1">'Reduce DMR (1)'!$C5</f>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="E19" s="86">
         <f ca="1">'No Size Limit (1)'!$C6</f>
-        <v>0.171190332326284</v>
+        <v>0.17119033232628394</v>
       </c>
       <c r="F19" s="85">
         <f ca="1">'Reduce DMR (1)'!$C6</f>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="C23" s="68">
         <f ca="1">'Status Quo'!C11</f>
-        <v>0.27765604524278537</v>
+        <v>0.27765604524278548</v>
       </c>
       <c r="D23" s="85">
         <f ca="1">'Excluders (1)'!C11</f>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="E23" s="85">
         <f ca="1">'No Size Limit (1)'!$C11</f>
-        <v>0.262677960461282</v>
+        <v>0.26267796046128206</v>
       </c>
       <c r="F23" s="85">
         <f ca="1">'Reduce DMR (1)'!$C11</f>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="E24" s="85">
         <f ca="1">'No Size Limit (1)'!$C12</f>
-        <v>0.55724231251811152</v>
+        <v>0.5572423125181114</v>
       </c>
       <c r="F24" s="85">
         <f ca="1">'Reduce DMR (1)'!$C12</f>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="C25" s="72">
         <f ca="1">'Status Quo'!C13</f>
-        <v>0.18274707963565665</v>
+        <v>0.18274707963565662</v>
       </c>
       <c r="D25" s="86">
         <f ca="1">'Excluders (1)'!C13</f>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="E25" s="85">
         <f ca="1">'No Size Limit (1)'!$C13</f>
-        <v>0.18007972702060657</v>
+        <v>0.18007972702060651</v>
       </c>
       <c r="F25" s="85">
         <f ca="1">'Reduce DMR (1)'!$C13</f>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C26" s="69">
         <f ca="1">SUM(C23:C25)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D26" s="87">
         <f ca="1">SUM(D23:D25)</f>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="E29" s="89">
         <f ca="1">'No Size Limit (1)'!avg_wt1</f>
-        <v>32.950103460052752</v>
+        <v>32.950103460052745</v>
       </c>
       <c r="F29" s="89">
         <f ca="1">'Reduce DMR (1)'!avg_wt1</f>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C30" s="75">
         <f ca="1">avg_wt2</f>
-        <v>6.3000620093714135</v>
+        <v>6.3000620093714117</v>
       </c>
       <c r="D30" s="89">
         <f ca="1">'Excluders (1)'!avg_wt2</f>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="C31" s="76">
         <f ca="1">avg_wt3</f>
-        <v>14.144844814495483</v>
+        <v>14.14484481449548</v>
       </c>
       <c r="D31" s="90">
         <f ca="1">'Excluders (1)'!avg_wt3</f>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="E31" s="89">
         <f ca="1">'No Size Limit (1)'!avg_wt3</f>
-        <v>13.629896640494131</v>
+        <v>13.629896640494129</v>
       </c>
       <c r="F31" s="89">
         <f ca="1">'Reduce DMR (1)'!avg_wt3</f>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C32" s="77">
         <f ca="1">AVERAGE(C29:C31)</f>
-        <v>17.758142227604278</v>
+        <v>17.758142227604274</v>
       </c>
       <c r="D32" s="91">
         <f ca="1">AVERAGE(D29:D31)</f>
@@ -5308,11 +5308,11 @@
       </c>
       <c r="E42" s="52">
         <f ca="1">'Status Quo'!H47</f>
-        <v>0.49437000276321824</v>
+        <v>0.49437000276321835</v>
       </c>
       <c r="F42" s="52">
         <f ca="1">'Status Quo'!I47</f>
-        <v>0.49000026732177498</v>
+        <v>0.49000026732177521</v>
       </c>
     </row>
     <row r="43" spans="3:9">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="D43" s="52">
         <f ca="1">'Status Quo'!G48</f>
-        <v>2.0227764516670246</v>
+        <v>2.022776451667025</v>
       </c>
       <c r="E43" s="52">
         <f ca="1">'Status Quo'!H48</f>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="F43" s="52">
         <f ca="1">'Status Quo'!I48</f>
-        <v>0.66147781371747894</v>
+        <v>0.66147781371747916</v>
       </c>
     </row>
     <row r="44" spans="3:9">
@@ -5342,11 +5342,11 @@
       </c>
       <c r="E44" s="55">
         <f ca="1">'Status Quo'!H49</f>
-        <v>1.5117665011015862</v>
+        <v>1.5117665011015855</v>
       </c>
       <c r="F44" s="55">
         <f ca="1">'Status Quo'!I49</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999944</v>
       </c>
     </row>
   </sheetData>
@@ -6576,7 +6576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B63" sqref="B63"/>
     </sheetView>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="F4" s="49">
         <f ca="1">ye_1</f>
-        <v>27569.439422456115</v>
+        <v>27569.439422456111</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="F5" s="49">
         <f ca="1">ye_2</f>
-        <v>10281.832414628605</v>
+        <v>10281.832414628601</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="F6" s="49">
         <f ca="1">ye_3</f>
-        <v>7818.1662901572108</v>
+        <v>7818.1662901572099</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -7123,71 +7123,71 @@
       </c>
       <c r="S7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25483993958634349</v>
+        <v>0.25483993958634343</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21108564572102489</v>
+        <v>0.21108564572102484</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17524127063330219</v>
+        <v>0.17524127063330214</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14576678542097288</v>
+        <v>0.14576678542097282</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12126049587651816</v>
+        <v>0.1212604958765181</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10044442788519788</v>
+        <v>0.10044442788519782</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2084387601109365E-2</v>
+        <v>8.2084387601109324E-2</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5126856185556692E-2</v>
+        <v>6.5126856185556664E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9225311135593544E-2</v>
+        <v>4.9225311135593523E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.536939008596434E-2</v>
+        <v>3.5369390085964326E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.452415604623083E-2</v>
+        <v>2.452415604623082E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6689203122081116E-2</v>
+        <v>1.6689203122081109E-2</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1263078954454142E-2</v>
+        <v>1.1263078954454137E-2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5750407668483928E-3</v>
+        <v>7.5750407668483894E-3</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0876406663585881E-3</v>
+        <v>5.0876406663585855E-3</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4151767680497963E-3</v>
+        <v>3.4151767680497946E-3</v>
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>6.9681775007769684E-3</v>
+        <v>6.9681775007769649E-3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>8195976.5512646884</v>
+        <v>8195976.5512646604</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17673189386961455</v>
+        <v>0.17673189386961452</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -7226,15 +7226,15 @@
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17440996916307897</v>
+        <v>0.17440996916307894</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18214667265394868</v>
+        <v>0.18214667265394865</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18871523616193234</v>
+        <v>0.18871523616193231</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="T8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18610024127332164</v>
+        <v>0.18610024127332161</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83995247244924198</v>
+        <v>0.83995247244924209</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82802226392345413</v>
+        <v>0.82802226392345424</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="C11" s="18">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.27765604524278537</v>
+        <v>0.27765604524278548</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16004752755075802</v>
+        <v>0.16004752755075791</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17197773607654587</v>
+        <v>0.17197773607654576</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="C13" s="18">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.18274707963565665</v>
+        <v>0.18274707963565662</v>
       </c>
       <c r="J13" t="s">
         <v>101</v>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>2.8510057588414894E-6</v>
+        <v>2.8510057588414898E-6</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -8483,15 +8483,15 @@
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>6.8548652264074141E-5</v>
+        <v>6.85486522640741E-5</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>8.8301089149712053E-4</v>
+        <v>8.8301089149712064E-4</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>3.6786284952239488E-3</v>
+        <v>3.6786284952239471E-3</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="T22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>3.8012326926349364E-2</v>
+        <v>3.8012326926349371E-2</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2187788118918834</v>
+        <v>1.2187788118918836</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -8595,15 +8595,15 @@
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>2.829641208551537</v>
+        <v>2.8296412085515357</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>3.6505631390637387</v>
+        <v>3.6505631390637392</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>4.4478953524085592</v>
+        <v>4.4478953524085574</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>5.8881459428694285</v>
+        <v>5.8881459428694294</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>1.5639818023416162E-3</v>
+        <v>1.5639818023416164E-3</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -8707,15 +8707,15 @@
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>0.13298365493417877</v>
+        <v>0.13298365493417871</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>2.9277792666154108</v>
+        <v>2.9277792666154112</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>7.0113561452289463</v>
+        <v>7.0113561452289437</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>10.979244998934147</v>
+        <v>10.979244998934149</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="21"/>
-        <v>1.7061867360413854E-6</v>
+        <v>1.7061867360413856E-6</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="21"/>
@@ -8837,15 +8837,15 @@
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="21"/>
-        <v>1.5726495811777978E-5</v>
+        <v>1.5726495811777968E-5</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="21"/>
-        <v>1.4357287089019312E-4</v>
+        <v>1.4357287089019315E-4</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="21"/>
-        <v>4.4900772558618789E-4</v>
+        <v>4.4900772558618767E-4</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="21"/>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="21"/>
-        <v>2.9544916474749782E-3</v>
+        <v>2.9544916474749786E-3</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="21"/>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.72937918016104031</v>
+        <v>0.72937918016104042</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="22"/>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.64917892832799617</v>
+        <v>0.64917892832799584</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="22"/>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.54290325278110485</v>
+        <v>0.54290325278110463</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="22"/>
@@ -8974,7 +8974,7 @@
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.45765359329429856</v>
+        <v>0.45765359329429867</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="22"/>
@@ -9043,15 +9043,15 @@
       </c>
       <c r="B28" s="28">
         <f ca="1">fbar*C28</f>
-        <v>3.3568266353080425E-2</v>
+        <v>3.3568266353080439E-2</v>
       </c>
       <c r="C28" s="36">
         <f ca="1">CHOOSE(C$25,E37,E40,1)</f>
-        <v>0.35923410481843726</v>
+        <v>0.35923410481843715</v>
       </c>
       <c r="E28" s="42">
         <f ca="1">f2_/(F5/(365*re*phib))</f>
-        <v>818.71296036039837</v>
+        <v>818.71296036039905</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="23"/>
-        <v>9.3596619308467899E-4</v>
+        <v>9.3596619308467909E-4</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="23"/>
@@ -9078,15 +9078,15 @@
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="23"/>
-        <v>3.0509234292464136E-2</v>
+        <v>3.0509234292464122E-2</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.47604132484489226</v>
+        <v>0.47604132484489237</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.85579532701693384</v>
+        <v>0.8557953270169335</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="23"/>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.85335706250718757</v>
+        <v>0.85335706250718768</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="23"/>
@@ -9163,15 +9163,15 @@
       </c>
       <c r="B29" s="28">
         <f ca="1">fbar*C29</f>
-        <v>1.9812315490241407E-2</v>
+        <v>1.9812315490241414E-2</v>
       </c>
       <c r="C29" s="36">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
-        <v>0.21202344335140819</v>
+        <v>0.2120234433514081</v>
       </c>
       <c r="E29" s="42">
         <f ca="1">f3_/(F6/(365*re*phib))</f>
-        <v>635.48251459065784</v>
+        <v>635.48251459065807</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B31" s="37">
         <f ca="1">SUM(B27:B29)</f>
-        <v>0.28033195542538797</v>
+        <v>0.28033195542538802</v>
       </c>
       <c r="G31">
         <f ca="1">SUMPRODUCT(dlz1_,wa,ma)</f>
@@ -9255,63 +9255,63 @@
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="24"/>
-        <v>-9.0885828147845298E-4</v>
+        <v>-9.0885828147845276E-4</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.9567170004328419E-3</v>
+        <v>-1.956717000432841E-3</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.1420680163607813E-3</v>
+        <v>-4.1420680163607804E-3</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="24"/>
-        <v>-8.5569520795532577E-3</v>
+        <v>-8.556952079553256E-3</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.6793368464674566E-2</v>
+        <v>-1.6793368464674562E-2</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="24"/>
-        <v>-2.9750497530034527E-2</v>
+        <v>-2.9750497530034517E-2</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.4792499475577174E-2</v>
+        <v>-4.479249947557716E-2</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.5773666396525812E-2</v>
+        <v>-5.5773666396525791E-2</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.8942212351595483E-2</v>
+        <v>-5.8942212351595455E-2</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.5436347781797637E-2</v>
+        <v>-5.543634778179761E-2</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.8264734519488039E-2</v>
+        <v>-4.8264734519488012E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="24"/>
-        <v>-3.9916092690568172E-2</v>
+        <v>-3.9916092690568152E-2</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="24"/>
-        <v>-3.1862435402336763E-2</v>
+        <v>-3.1862435402336749E-2</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="24"/>
-        <v>-2.4793883210148828E-2</v>
+        <v>-2.4793883210148818E-2</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-7.176221696963539E-2</v>
+        <v>-7.1762216969635362E-2</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -9322,11 +9322,11 @@
       <c r="C32" s="12"/>
       <c r="G32">
         <f ca="1">SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-106.63282272358627</v>
+        <v>-106.63282272358626</v>
       </c>
       <c r="H32">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-33006.426061680824</v>
+        <v>-33006.426061680817</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -9352,7 +9352,7 @@
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.94032199296849128</v>
+        <v>-0.94032199296849139</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="25"/>
@@ -9360,27 +9360,27 @@
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.0650769813015899</v>
+        <v>-1.0650769813015901</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.0340289603095152</v>
+        <v>-1.0340289603095156</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.97382559241567845</v>
+        <v>-0.9738255924156789</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.89792795093719402</v>
+        <v>-0.89792795093719424</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.81405136921887578</v>
+        <v>-0.814051369218876</v>
       </c>
       <c r="W32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.72551210826408696</v>
+        <v>-0.72551210826408707</v>
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="25"/>
@@ -9428,7 +9428,7 @@
       </c>
       <c r="AI32">
         <f ca="1">(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-6.4925479052461904E-2</v>
+        <v>-6.492547905246189E-2</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="B33" s="62">
         <f ca="1">SUMPRODUCT(lz,wa)</f>
-        <v>35.62779878205712</v>
+        <v>35.627798782057113</v>
       </c>
       <c r="C33" s="61"/>
       <c r="D33" s="63"/>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="26"/>
-        <v>-1.4128418029718929E-2</v>
+        <v>-1.4128418029718932E-2</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="26"/>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.38174995111985283</v>
+        <v>-0.38174995111985288</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="26"/>
@@ -9502,55 +9502,55 @@
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.61058729758125141</v>
+        <v>-0.6105872975812513</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.56815358142281225</v>
+        <v>-0.56815358142281214</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.50158723876097722</v>
+        <v>-0.50158723876097711</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.41534277915133178</v>
+        <v>-0.41534277915133166</v>
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.32581201646069491</v>
+        <v>-0.32581201646069485</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.2455819481888647</v>
+        <v>-0.24558194818886467</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.18076432663580719</v>
+        <v>-0.18076432663580716</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.13127556758856823</v>
+        <v>-0.1312755675885682</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="26"/>
-        <v>-9.4554718466184975E-2</v>
+        <v>-9.4554718466184962E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="26"/>
-        <v>-6.7719321886847858E-2</v>
+        <v>-6.7719321886847844E-2</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="26"/>
-        <v>-4.8287710742369115E-2</v>
+        <v>-4.8287710742369108E-2</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="26"/>
-        <v>-3.4306789750843322E-2</v>
+        <v>-3.4306789750843315E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-8.1775530586942452E-2</v>
+        <v>-8.1775530586942424E-2</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="B35" s="1">
         <f ca="1">SUMPRODUCT(lz,wa,ma)</f>
-        <v>17.137594381347672</v>
+        <v>17.137594381347661</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="1">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="27"/>
-        <v>3.6960513795410158E-12</v>
+        <v>3.6960513795410133E-12</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="27"/>
@@ -9612,27 +9612,27 @@
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="27"/>
-        <v>9.2404779709251024E-10</v>
+        <v>9.2404779709251138E-10</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.1384644913775043E-7</v>
+        <v>1.1384644913775041E-7</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.5423388201363734E-6</v>
+        <v>1.542338820136374E-6</v>
       </c>
       <c r="S35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.3429916404115864E-5</v>
+        <v>1.3429916404115865E-5</v>
       </c>
       <c r="T35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.1049357955160824E-4</v>
+        <v>1.1049357955160826E-4</v>
       </c>
       <c r="U35">
         <f t="shared" ca="1" si="27"/>
-        <v>8.7402921769853738E-4</v>
+        <v>8.7402921769853749E-4</v>
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="27"/>
@@ -9697,7 +9697,7 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">SUMPRODUCT(lz,ta1_)</f>
-        <v>0.18356485561267402</v>
+        <v>0.18356485561267399</v>
       </c>
       <c r="C36" s="29">
         <f ca="1">B11/(phi_t1/SUM(B$36:B$38))</f>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="H36" s="1">
         <f ca="1">SUM(dqa22_)</f>
-        <v>60.962622500182263</v>
+        <v>60.962622500182256</v>
       </c>
       <c r="I36" s="11">
         <f ca="1">SUM(dqa23_)</f>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="28"/>
-        <v>0.67544750493471772</v>
+        <v>0.67544750493471728</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="28"/>
@@ -9744,15 +9744,15 @@
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.5745604480993163</v>
+        <v>1.5745604480993183</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.9458398676571085</v>
+        <v>1.9458398676571083</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.2548468522236105</v>
+        <v>2.2548468522236123</v>
       </c>
       <c r="S36">
         <f t="shared" ca="1" si="28"/>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.7324195514204606</v>
+        <v>2.732419551420461</v>
       </c>
       <c r="W36">
         <f t="shared" ca="1" si="28"/>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="29"/>
-        <v>1.1122571385390239E-6</v>
+        <v>1.1122571385390235E-6</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="29"/>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="29"/>
-        <v>3.477708084034577E-3</v>
+        <v>3.4777080840345817E-3</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="29"/>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="29"/>
-        <v>5.6028885559619637</v>
+        <v>5.6028885559619672</v>
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="29"/>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="U37">
         <f t="shared" ca="1" si="29"/>
-        <v>9.3050168565312674</v>
+        <v>9.3050168565312692</v>
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="29"/>
@@ -9961,15 +9961,15 @@
       </c>
       <c r="B38" s="1">
         <f ca="1">SUMPRODUCT(lz,ta3_)</f>
-        <v>1.3839819609943012</v>
+        <v>1.3839819609943007</v>
       </c>
       <c r="C38" s="29">
         <f ca="1">B13/(phi_t3/SUM(B$36:B$38))</f>
-        <v>0.52546108738733188</v>
+        <v>0.52546108738733199</v>
       </c>
       <c r="E38" s="38">
         <f ca="1">C38/AVERAGE(C$36:C$38)</f>
-        <v>0.21202344335152307</v>
+        <v>0.21202344335152312</v>
       </c>
       <c r="G38" t="s">
         <v>69</v>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="30"/>
-        <v>-6.8859441078764896E-7</v>
+        <v>-6.8859441078765002E-7</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="30"/>
@@ -9999,15 +9999,15 @@
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.0348506884546809E-5</v>
+        <v>-1.0348506884546736E-5</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.0249845876162189E-4</v>
+        <v>-1.0249845876162204E-4</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="30"/>
-        <v>-3.2482638581975772E-4</v>
+        <v>-3.2482638581975549E-4</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="30"/>
@@ -10015,19 +10015,19 @@
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.8267587358585342E-3</v>
+        <v>-1.8267587358585362E-3</v>
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="30"/>
-        <v>-3.5773920487195414E-3</v>
+        <v>-3.5773920487195397E-3</v>
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="30"/>
-        <v>-3.0994595721158024E-3</v>
+        <v>-3.0994595721157989E-3</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="30"/>
-        <v>2.7982737353943059E-2</v>
+        <v>2.7982737353943073E-2</v>
       </c>
       <c r="X38">
         <f t="shared" ca="1" si="30"/>
@@ -10035,11 +10035,11 @@
       </c>
       <c r="Y38">
         <f t="shared" ca="1" si="30"/>
-        <v>1.5248589445071332</v>
+        <v>1.5248589445071334</v>
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="30"/>
-        <v>5.5792987645158867</v>
+        <v>5.5792987645158876</v>
       </c>
       <c r="AA38">
         <f t="shared" ca="1" si="30"/>
@@ -10084,11 +10084,11 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>6.026346072740826</v>
+        <v>6.0263460727408242</v>
       </c>
       <c r="C39" s="23">
         <f ca="1">B4/(phi_q1/SUM(B$39:B$41))</f>
-        <v>4.0867897226044043</v>
+        <v>4.0867897226044052</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="39">
@@ -10124,7 +10124,7 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="31"/>
-        <v>-8.7832964124522824E-10</v>
+        <v>-8.7832964124522958E-10</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="31"/>
@@ -10132,43 +10132,43 @@
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="31"/>
-        <v>-4.8522558597085369E-7</v>
+        <v>-4.852255859708503E-7</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="31"/>
-        <v>-8.2177083540658274E-5</v>
+        <v>-8.2177083540658409E-5</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="31"/>
-        <v>-5.1307855298240404E-4</v>
+        <v>-5.1307855298240068E-4</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.4694325056408457E-3</v>
+        <v>-1.4694325056408455E-3</v>
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="31"/>
-        <v>-3.5126592779359525E-3</v>
+        <v>-3.5126592779359572E-3</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="31"/>
-        <v>-7.4152095558181587E-3</v>
+        <v>-7.415209555818157E-3</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.1421710650004656E-2</v>
+        <v>-1.1421710650004642E-2</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="31"/>
-        <v>1.0756213208681649E-2</v>
+        <v>1.075621320868167E-2</v>
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="31"/>
-        <v>0.23785728378204207</v>
+        <v>0.23785728378204213</v>
       </c>
       <c r="Y39">
         <f t="shared" ca="1" si="31"/>
-        <v>1.4692834842979738</v>
+        <v>1.4692834842979741</v>
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="31"/>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="32"/>
-        <v>-6.8859441078764875E-7</v>
+        <v>-6.8859441078764991E-7</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="32"/>
@@ -10265,35 +10265,35 @@
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.0348506884546809E-5</v>
+        <v>-1.0348506884546736E-5</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.0249845876162189E-4</v>
+        <v>-1.0249845876162204E-4</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.2482638581975772E-4</v>
+        <v>-3.2482638581975549E-4</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="32"/>
-        <v>-7.9948088006860879E-4</v>
+        <v>-7.9948088006860857E-4</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.8267587358585342E-3</v>
+        <v>-1.8267587358585362E-3</v>
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.5773920487195414E-3</v>
+        <v>-3.5773920487195397E-3</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.0994595721158058E-3</v>
+        <v>-3.0994595721157989E-3</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="32"/>
-        <v>2.7982737353943059E-2</v>
+        <v>2.798273735394307E-2</v>
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="32"/>
@@ -10301,11 +10301,11 @@
       </c>
       <c r="Y40">
         <f t="shared" ca="1" si="32"/>
-        <v>1.5248589445071332</v>
+        <v>1.5248589445071334</v>
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="32"/>
-        <v>5.5792987645158867</v>
+        <v>5.5792987645158876</v>
       </c>
       <c r="AA40">
         <f t="shared" ca="1" si="32"/>
@@ -10350,11 +10350,11 @@
       </c>
       <c r="B41" s="1">
         <f ca="1">SUMPRODUCT(lz,qa3_)</f>
-        <v>19.576210064325529</v>
+        <v>19.576210064325519</v>
       </c>
       <c r="C41" s="23">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
-        <v>0.35676702920344355</v>
+        <v>0.35676702920344361</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="39">
@@ -10367,11 +10367,11 @@
       </c>
       <c r="H41" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>495547.56107126549</v>
+        <v>495547.56107126537</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>324901.63724451384</v>
+        <v>324901.63724451372</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="33"/>
-        <v>-3.7774648788630198E-4</v>
+        <v>-3.7774648788630258E-4</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="33"/>
@@ -10398,43 +10398,43 @@
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="33"/>
-        <v>-2.0078270950240541E-2</v>
+        <v>-2.0078270950240399E-2</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.34031147956282298</v>
+        <v>-0.34031147956282348</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.62256212919383758</v>
+        <v>-0.62256212919383347</v>
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.63976539031778745</v>
+        <v>-0.63976539031778734</v>
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.56305661555430819</v>
+        <v>-0.56305661555430897</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.46671294378547162</v>
+        <v>-0.46671294378547151</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.36960537436998053</v>
+        <v>-0.36960537436998031</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.2462073947704051</v>
+        <v>-0.24620739477040493</v>
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="33"/>
-        <v>8.8710107575183994E-2</v>
+        <v>8.8710107575184077E-2</v>
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="33"/>
-        <v>1.4362969911696901</v>
+        <v>1.4362969911696903</v>
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="33"/>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">SUMPRODUCT(lz/SUM(lz),len,ta1_)</f>
-        <v>4.3875162197831665</v>
+        <v>4.3875162197831648</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="34"/>
-        <v>-8.7832964124522824E-10</v>
+        <v>-8.7832964124522958E-10</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="34"/>
@@ -10510,15 +10510,15 @@
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="34"/>
-        <v>-4.8522558597085369E-7</v>
+        <v>-4.852255859708503E-7</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="34"/>
-        <v>-8.2177083540658274E-5</v>
+        <v>-8.2177083540658409E-5</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="34"/>
-        <v>-5.1307855298240394E-4</v>
+        <v>-5.1307855298240058E-4</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="34"/>
@@ -10526,27 +10526,27 @@
       </c>
       <c r="T42">
         <f t="shared" ca="1" si="34"/>
-        <v>-3.5126592779359525E-3</v>
+        <v>-3.5126592779359572E-3</v>
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="34"/>
-        <v>-7.4152095558181587E-3</v>
+        <v>-7.415209555818157E-3</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.1421710650004652E-2</v>
+        <v>-1.1421710650004642E-2</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="34"/>
-        <v>1.0756213208681649E-2</v>
+        <v>1.075621320868167E-2</v>
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="34"/>
-        <v>0.23785728378204207</v>
+        <v>0.23785728378204213</v>
       </c>
       <c r="Y42">
         <f t="shared" ca="1" si="34"/>
-        <v>1.4692834842979738</v>
+        <v>1.4692834842979741</v>
       </c>
       <c r="Z42">
         <f t="shared" ca="1" si="34"/>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="35"/>
-        <v>-3.7774648788630198E-4</v>
+        <v>-3.7774648788630258E-4</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="35"/>
@@ -10617,43 +10617,43 @@
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="35"/>
-        <v>-2.0078270950240538E-2</v>
+        <v>-2.0078270950240399E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.34031147956282298</v>
+        <v>-0.34031147956282348</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.62256212919383758</v>
+        <v>-0.62256212919383347</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.63976539031778745</v>
+        <v>-0.63976539031778734</v>
       </c>
       <c r="T43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.56305661555430842</v>
+        <v>-0.56305661555430897</v>
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.46671294378547162</v>
+        <v>-0.46671294378547151</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.36960537436998053</v>
+        <v>-0.36960537436998042</v>
       </c>
       <c r="W43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.2462073947704051</v>
+        <v>-0.24620739477040493</v>
       </c>
       <c r="X43">
         <f t="shared" ca="1" si="35"/>
-        <v>8.8710107575183994E-2</v>
+        <v>8.8710107575184077E-2</v>
       </c>
       <c r="Y43">
         <f t="shared" ca="1" si="35"/>
-        <v>1.4362969911696901</v>
+        <v>1.4362969911696903</v>
       </c>
       <c r="Z43">
         <f t="shared" ca="1" si="35"/>
@@ -10712,7 +10712,7 @@
       </c>
       <c r="B46" s="1">
         <f ca="1">phif/phie</f>
-        <v>0.39999999998752639</v>
+        <v>0.39999999998752617</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>94</v>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.7832379287948257E-6</v>
+        <v>1.7832379287948259E-6</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="36"/>
@@ -10744,7 +10744,7 @@
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="36"/>
-        <v>3.013526270101504E-5</v>
+        <v>3.0135262701015023E-5</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="36"/>
@@ -10752,11 +10752,11 @@
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.1321693924526352E-3</v>
+        <v>1.1321693924526346E-3</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="36"/>
-        <v>3.0777794310950352E-3</v>
+        <v>3.0777794310950343E-3</v>
       </c>
       <c r="T46">
         <f t="shared" ca="1" si="36"/>
@@ -10764,63 +10764,63 @@
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="36"/>
-        <v>2.0321203231374027E-2</v>
+        <v>2.032120323137402E-2</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="36"/>
-        <v>4.9974879861832501E-2</v>
+        <v>4.997487986183248E-2</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.11807829814840104</v>
+        <v>0.11807829814840098</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.26015214242939727</v>
+        <v>0.2601521424293971</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.50260035243535917</v>
+        <v>0.50260035243535894</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.78047356322031614</v>
+        <v>0.7804735632203158</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.92370334544791222</v>
+        <v>0.92370334544791188</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.86502755787380703</v>
+        <v>0.8650275578738067</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.70001205098637176</v>
+        <v>0.70001205098637143</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.5259533045482383</v>
+        <v>0.52595330454823808</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.38155912998423752</v>
+        <v>0.38155912998423736</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.27209144906829691</v>
+        <v>0.27209144906829674</v>
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.19219715413414604</v>
+        <v>0.19219715413414593</v>
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.13493077945837784</v>
+        <v>0.13493077945837775</v>
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.28667201535751452</v>
+        <v>0.28667201535751435</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -10840,11 +10840,11 @@
       </c>
       <c r="H47" s="31">
         <f ca="1">H53/H39</f>
-        <v>0.49437000276321824</v>
+        <v>0.49437000276321835</v>
       </c>
       <c r="I47" s="31">
         <f ca="1">I53/I39</f>
-        <v>0.49000026732177498</v>
+        <v>0.49000026732177521</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.76231785833370391</v>
+        <v>0.76231785833370413</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="37"/>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.2439629132432803</v>
+        <v>1.2439629132432797</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="37"/>
@@ -10879,75 +10879,75 @@
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.3689262140407381</v>
+        <v>1.3689262140407377</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.3262161775778787</v>
+        <v>1.3262161775778782</v>
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.2429030884502263</v>
+        <v>1.2429030884502261</v>
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.1353843130428101</v>
+        <v>1.1353843130428096</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.0149408160376086</v>
+        <v>1.0149408160376083</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.88849362677228749</v>
+        <v>0.88849362677228705</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.75885048235818764</v>
+        <v>0.75885048235818719</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.62596511246331499</v>
+        <v>0.62596511246331465</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.53519509062798676</v>
+        <v>0.53519509062798654</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.43118810915395966</v>
+        <v>0.4311881091539595</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.32972624592924454</v>
+        <v>0.32972624592924443</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.24338234053345054</v>
+        <v>0.24338234053345043</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.17597619149950278</v>
+        <v>0.17597619149950272</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.12570998427570515</v>
+        <v>0.12570998427570509</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="37"/>
-        <v>8.9099804029746571E-2</v>
+        <v>8.9099804029746529E-2</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="37"/>
-        <v>6.2787313739461295E-2</v>
+        <v>6.2787313739461267E-2</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="37"/>
-        <v>4.4038468873394424E-2</v>
+        <v>4.4038468873394396E-2</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="37"/>
-        <v>9.3529999406370176E-2</v>
+        <v>9.3529999406370135E-2</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -10956,18 +10956,18 @@
       </c>
       <c r="B48" s="1">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>27569.439422456111</v>
+        <v>27569.439422456104</v>
       </c>
       <c r="C48" s="20">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.60367371601208464</v>
+        <v>0.60367371601208453</v>
       </c>
       <c r="F48" t="s">
         <v>85</v>
       </c>
       <c r="G48" s="31">
         <f ca="1">G40/G54</f>
-        <v>2.0227764516670246</v>
+        <v>2.022776451667025</v>
       </c>
       <c r="H48" s="31">
         <f t="shared" ref="H48:I49" ca="1" si="38">H40/H54</f>
@@ -10975,7 +10975,7 @@
       </c>
       <c r="I48" s="31">
         <f ca="1">I54/I40</f>
-        <v>0.66147781371747894</v>
+        <v>0.66147781371747916</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
@@ -11002,7 +11002,7 @@
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="39"/>
-        <v>5.8462088516989162E-2</v>
+        <v>5.8462088516989141E-2</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="39"/>
@@ -11010,75 +11010,75 @@
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="39"/>
-        <v>2.1578810791899907</v>
+        <v>2.1578810791899898</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="39"/>
-        <v>2.4166663530975065</v>
+        <v>2.4166663530975061</v>
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="39"/>
-        <v>2.3175610201293479</v>
+        <v>2.3175610201293475</v>
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="39"/>
-        <v>2.0967421509626676</v>
+        <v>2.0967421509626667</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.8407857445461613</v>
+        <v>1.8407857445461604</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.5792693680298344</v>
+        <v>1.5792693680298338</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.3211927108012875</v>
+        <v>1.3211927108012866</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.06735804987266</v>
+        <v>1.0673580498726596</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.91258246963018663</v>
+        <v>0.9125824696301863</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.73523602218617612</v>
+        <v>0.73523602218617579</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.56222935725910284</v>
+        <v>0.56222935725910261</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.41500092448115755</v>
+        <v>0.41500092448115733</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.30006401450038472</v>
+        <v>0.30006401450038456</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.21435310210503614</v>
+        <v>0.21435310210503605</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.15192762532560464</v>
+        <v>0.15192762532560455</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.10706114991931252</v>
+        <v>0.10706114991931247</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="39"/>
-        <v>7.5091747639272566E-2</v>
+        <v>7.5091747639272524E-2</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.15948172794825674</v>
+        <v>0.15948172794825666</v>
       </c>
     </row>
     <row r="49" spans="1:47">
@@ -11087,11 +11087,11 @@
       </c>
       <c r="B49" s="1">
         <f ca="1">f2_*re*phi_q2</f>
-        <v>10281.832414628601</v>
+        <v>10281.832414628605</v>
       </c>
       <c r="C49" s="20">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.22513595166163133</v>
+        <v>0.22513595166163144</v>
       </c>
       <c r="F49" t="s">
         <v>86</v>
@@ -11102,11 +11102,11 @@
       </c>
       <c r="H49" s="31">
         <f t="shared" ca="1" si="38"/>
-        <v>1.5117665011015862</v>
+        <v>1.5117665011015855</v>
       </c>
       <c r="I49" s="31">
         <f t="shared" ca="1" si="38"/>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999944</v>
       </c>
       <c r="AL49" s="31"/>
       <c r="AM49" s="31"/>
@@ -11122,11 +11122,11 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>7818.1662901572099</v>
+        <v>7818.1662901572081</v>
       </c>
       <c r="C50" s="20">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.17119033232628397</v>
+        <v>0.171190332326284</v>
       </c>
       <c r="AL50" s="31"/>
       <c r="AM50" s="31"/>
@@ -11142,7 +11142,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>45669.438127241927</v>
+        <v>45669.438127241912</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -11168,7 +11168,7 @@
       </c>
       <c r="I52" s="11">
         <f ca="1">I41^0.5</f>
-        <v>570.00143617758886</v>
+        <v>570.00143617758874</v>
       </c>
       <c r="AL52" s="31"/>
       <c r="AM52" s="31"/>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="B53" s="35">
         <f ca="1">f1_*phi_q1</f>
-        <v>1.3676875188894202</v>
+        <v>1.36768751888942</v>
       </c>
       <c r="C53">
         <f ca="1">AVERAGE(B53:B55)/B53</f>
@@ -11192,15 +11192,15 @@
       </c>
       <c r="G53">
         <f ca="1">G$52*$J53</f>
-        <v>1416566.9922551173</v>
+        <v>1416566.992255117</v>
       </c>
       <c r="H53">
         <f t="shared" ref="G53:I55" ca="1" si="40">H$52*$J53</f>
-        <v>684452.374384981</v>
+        <v>684452.37438498088</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="40"/>
-        <v>678413.54279688757</v>
+        <v>678413.54279688722</v>
       </c>
       <c r="J53">
         <f t="array" aca="1" ref="J53:J55" ca="1">TRANSPOSE(G52:I52)</f>
@@ -11218,11 +11218,11 @@
       </c>
       <c r="B54" s="35">
         <f ca="1">f2_*phi_q2</f>
-        <v>0.51006963360111091</v>
+        <v>0.51006963360111102</v>
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
-        <v>1.4805868670602975</v>
+        <v>1.4805868670602966</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="40"/>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="I54">
         <f ca="1">I$52*$J54</f>
-        <v>327793.71729044965</v>
+        <v>327793.7172904496</v>
       </c>
       <c r="J54">
         <f ca="1"/>
@@ -11253,27 +11253,27 @@
       </c>
       <c r="B55" s="35">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.38785004989765642</v>
+        <v>0.38785004989765637</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471504541390183</v>
+        <v>1.9471504541390179</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="40"/>
-        <v>678413.54279688746</v>
+        <v>678413.54279688722</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="40"/>
-        <v>327793.71729044965</v>
+        <v>327793.7172904496</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="40"/>
-        <v>324901.6372445139</v>
+        <v>324901.63724451378</v>
       </c>
       <c r="J55">
         <f ca="1"/>
-        <v>570.00143617758886</v>
+        <v>570.00143617758874</v>
       </c>
       <c r="S55" s="33"/>
       <c r="AL55" s="31"/>
@@ -11289,11 +11289,11 @@
       </c>
       <c r="B56" s="34">
         <f ca="1">phi_t1*f1_</f>
-        <v>4.166029612269001E-2</v>
+        <v>4.1660296122690003E-2</v>
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.2005261151143429</v>
+        <v>1.2005261151143427</v>
       </c>
       <c r="AL56" s="31"/>
       <c r="AM56" s="31"/>
@@ -11308,23 +11308,23 @@
       </c>
       <c r="B57" s="34">
         <f ca="1">phi_t2*f2_</f>
-        <v>8.0962637009346347E-2</v>
+        <v>8.0962637009346389E-2</v>
       </c>
       <c r="C57">
         <f ca="1">AVERAGE(B56:B58)/B57</f>
-        <v>0.61774511436568558</v>
+        <v>0.61774511436568547</v>
       </c>
       <c r="G57">
         <f t="array" aca="1" ref="G57:I59" ca="1">MMULT($G$52:$I$52,TRANSPOSE($G$52:$I$52))</f>
-        <v>2072180.1704027865</v>
+        <v>2072180.1704027862</v>
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>2072180.1704027865</v>
+        <v>2072180.1704027862</v>
       </c>
       <c r="I57">
         <f ca="1"/>
-        <v>2072180.1704027865</v>
+        <v>2072180.1704027862</v>
       </c>
       <c r="AL57" s="31"/>
       <c r="AM57" s="31"/>
@@ -11339,23 +11339,23 @@
       </c>
       <c r="B58" s="34">
         <f ca="1">phi_t3*f3_</f>
-        <v>2.741988724402207E-2</v>
+        <v>2.7419887244022074E-2</v>
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>1.8240145560624059</v>
+        <v>1.8240145560624064</v>
       </c>
       <c r="G58">
         <f ca="1"/>
-        <v>2072180.1704027865</v>
+        <v>2072180.1704027862</v>
       </c>
       <c r="H58">
         <f ca="1"/>
-        <v>2072180.1704027865</v>
+        <v>2072180.1704027862</v>
       </c>
       <c r="I58">
         <f ca="1"/>
-        <v>2072180.1704027865</v>
+        <v>2072180.1704027862</v>
       </c>
       <c r="AL58" s="31"/>
       <c r="AM58" s="31"/>
@@ -11366,15 +11366,15 @@
     <row r="59" spans="1:47">
       <c r="G59">
         <f ca="1"/>
-        <v>2072180.1704027865</v>
+        <v>2072180.1704027862</v>
       </c>
       <c r="H59">
         <f ca="1"/>
-        <v>2072180.1704027865</v>
+        <v>2072180.1704027862</v>
       </c>
       <c r="I59">
         <f ca="1"/>
-        <v>2072180.1704027865</v>
+        <v>2072180.1704027862</v>
       </c>
       <c r="AL59" s="31"/>
       <c r="AM59" s="31"/>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="B61">
         <f ca="1">ypr2/mpr2_</f>
-        <v>6.3000620093714135</v>
+        <v>6.3000620093714117</v>
       </c>
       <c r="AL61" s="31"/>
       <c r="AM61" s="31"/>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B62">
         <f ca="1">ypr3/mpr3_</f>
-        <v>14.144844814495483</v>
+        <v>14.14484481449548</v>
       </c>
       <c r="AL62" s="31"/>
       <c r="AM62" s="31"/>
@@ -21629,14 +21629,14 @@
       </c>
       <c r="C4" s="22">
         <f ca="1">ypr1/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.60367371601208453</v>
+        <v>0.60367371601208464</v>
       </c>
       <c r="E4" s="49">
         <v>24977</v>
       </c>
       <c r="F4" s="49">
         <f ca="1">ye_1</f>
-        <v>27109.570776465567</v>
+        <v>27109.570776465585</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -21752,14 +21752,14 @@
       </c>
       <c r="C5" s="22">
         <f ca="1">ypr2/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.22513595166163144</v>
+        <v>0.22513595166163142</v>
       </c>
       <c r="E5" s="49">
         <v>9315</v>
       </c>
       <c r="F5" s="49">
         <f ca="1">ye_2</f>
-        <v>10110.327572677939</v>
+        <v>10110.327572677941</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -21875,14 +21875,14 @@
       </c>
       <c r="C6" s="22">
         <f ca="1">ypr3/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.171190332326284</v>
+        <v>0.17119033232628394</v>
       </c>
       <c r="E6" s="49">
         <v>7083</v>
       </c>
       <c r="F6" s="49">
         <f ca="1">ye_3</f>
-        <v>7687.756328210181</v>
+        <v>7687.7563282101819</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -21997,7 +21997,7 @@
       </c>
       <c r="C7" s="23">
         <f ca="1">spr</f>
-        <v>0.40000000000004887</v>
+        <v>0.40000000000004898</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -22048,59 +22048,59 @@
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14428208091818298</v>
+        <v>0.14428208091818295</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12014832604251621</v>
+        <v>0.12014832604251618</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.9638536360132909E-2</v>
+        <v>9.9638536360132882E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1554130946726214E-2</v>
+        <v>8.1554130946726186E-2</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4866782507165224E-2</v>
+        <v>6.4866782507165197E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9223245589603767E-2</v>
+        <v>4.9223245589603747E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5563097092698698E-2</v>
+        <v>3.5563097092698677E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.482151206164971E-2</v>
+        <v>2.4821512061649696E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7012954562218952E-2</v>
+        <v>1.7012954562218942E-2</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1567024685752244E-2</v>
+        <v>1.1567024685752235E-2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8381840927252838E-3</v>
+        <v>7.8381840927252786E-3</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3043363685660715E-3</v>
+        <v>5.3043363685660681E-3</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5877247293795607E-3</v>
+        <v>3.5877247293795581E-3</v>
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>7.4923929050578235E-3</v>
+        <v>7.4923929050578182E-3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -22112,7 +22112,7 @@
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>5546134.2810069956</v>
+        <v>5546134.2810070775</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -22426,7 +22426,7 @@
       </c>
       <c r="C11" s="18">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.262677960461282</v>
+        <v>0.26267796046128206</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -22541,7 +22541,7 @@
       </c>
       <c r="C12" s="18">
         <f ca="1">mpr2_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.55724231251811152</v>
+        <v>0.5572423125181114</v>
       </c>
       <c r="J12" t="s">
         <v>100</v>
@@ -22657,7 +22657,7 @@
       </c>
       <c r="C13" s="18">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.18007972702060657</v>
+        <v>0.18007972702060651</v>
       </c>
       <c r="J13" t="s">
         <v>101</v>
@@ -22772,7 +22772,7 @@
       </c>
       <c r="C14" s="29">
         <f ca="1">spr</f>
-        <v>0.40000000000004887</v>
+        <v>0.40000000000004898</v>
       </c>
       <c r="J14" t="s">
         <v>102</v>
@@ -22885,7 +22885,7 @@
       </c>
       <c r="C15" s="26">
         <f ca="1">CHOOSE(C25,SUMXMY2(B14,C14),SUMXMY2(B7,C7))</f>
-        <v>2.3863042382935607E-27</v>
+        <v>2.3971634016919937E-27</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -23844,7 +23844,7 @@
       </c>
       <c r="E27" s="42">
         <f ca="1">f1_/(F4/(365*re*phib))</f>
-        <v>2035.3111123523527</v>
+        <v>2035.3111123523515</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
@@ -23956,15 +23956,15 @@
       </c>
       <c r="B28" s="28">
         <f ca="1">fbar*C28</f>
-        <v>3.2154634114065231E-2</v>
+        <v>3.2154634114065217E-2</v>
       </c>
       <c r="C28" s="36">
         <f ca="1">CHOOSE(C$25,E37,E40,1)</f>
-        <v>0.355133929093567</v>
+        <v>0.35513392909356717</v>
       </c>
       <c r="E28" s="42">
         <f ca="1">f2_/(F5/(365*re*phib))</f>
-        <v>797.53843008718786</v>
+        <v>797.53843008718741</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
@@ -24076,15 +24076,15 @@
       </c>
       <c r="B29" s="28">
         <f ca="1">fbar*C29</f>
-        <v>1.9443068089278967E-2</v>
+        <v>1.9443068089278964E-2</v>
       </c>
       <c r="C29" s="36">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
-        <v>0.21474021877173291</v>
+        <v>0.21474021877173294</v>
       </c>
       <c r="E29" s="42">
         <f ca="1">f3_/(F6/(365*re*phib))</f>
-        <v>634.21785061702701</v>
+        <v>634.21785061702678</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -24096,7 +24096,7 @@
       </c>
       <c r="C30" s="36">
         <f ca="1">AVERAGE(C27:C29)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G30" t="s">
         <v>58</v>
@@ -24118,7 +24118,7 @@
       </c>
       <c r="G31">
         <f ca="1">SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-19.509994924445799</v>
+        <v>-19.509994924445813</v>
       </c>
       <c r="H31">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
@@ -24176,55 +24176,55 @@
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.1211687571712317E-3</v>
+        <v>-4.1211687571712308E-3</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.5036844626700733E-3</v>
+        <v>-8.5036844626700716E-3</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.6703229250975213E-2</v>
+        <v>-1.6703229250975209E-2</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.9664336652874483E-2</v>
+        <v>-2.9664336652874473E-2</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.484724029710864E-2</v>
+        <v>-4.4847240297108626E-2</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="23"/>
-        <v>-5.6152592385630848E-2</v>
+        <v>-5.6152592385630834E-2</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="23"/>
-        <v>-5.9729173259787605E-2</v>
+        <v>-5.9729173259787584E-2</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="23"/>
-        <v>-5.6571206411371915E-2</v>
+        <v>-5.6571206411371894E-2</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.9611514728469114E-2</v>
+        <v>-4.9611514728469086E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.133409489072816E-2</v>
+        <v>-4.1334094890728139E-2</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="23"/>
-        <v>-3.3241229546014217E-2</v>
+        <v>-3.3241229546014196E-2</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.6061378984821082E-2</v>
+        <v>-2.6061378984821068E-2</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-7.7551409132707916E-2</v>
+        <v>-7.7551409132707874E-2</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -24235,11 +24235,11 @@
       <c r="C32" s="12"/>
       <c r="G32">
         <f ca="1">SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-115.71746211086332</v>
+        <v>-115.71746211086329</v>
       </c>
       <c r="H32">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-35818.425878766473</v>
+        <v>-35818.425878766437</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -24337,11 +24337,11 @@
       </c>
       <c r="AH32">
         <f t="shared" ca="1" si="24"/>
-        <v>-3.1585182095093416E-2</v>
+        <v>-3.1585182095093409E-2</v>
       </c>
       <c r="AI32">
         <f ca="1">(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-7.3502948802619594E-2</v>
+        <v>-7.350294880261958E-2</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="H33">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-31639.596220242136</v>
+        <v>-31639.596220242114</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -24415,11 +24415,11 @@
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.62106048891564858</v>
+        <v>-0.62106048891564847</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.57695727798005425</v>
+        <v>-0.57695727798005414</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="25"/>
@@ -24447,23 +24447,23 @@
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="25"/>
-        <v>-9.8783707215243627E-2</v>
+        <v>-9.8783707215243613E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.120962388105323E-2</v>
+        <v>-7.1209623881053216E-2</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.1114806826933208E-2</v>
+        <v>-5.1114806826933201E-2</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="25"/>
-        <v>-3.6561292832894235E-2</v>
+        <v>-3.6561292832894228E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-8.9215997868592509E-2</v>
+        <v>-8.9215997868592495E-2</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -24485,7 +24485,7 @@
       </c>
       <c r="B35" s="1">
         <f ca="1">SUMPRODUCT(lz,wa,ma)</f>
-        <v>17.137594381884188</v>
+        <v>17.137594381884185</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="1">
@@ -24610,15 +24610,15 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">SUMPRODUCT(lz,ta1_)</f>
-        <v>0.18550030825567762</v>
+        <v>0.18550030825567754</v>
       </c>
       <c r="C36" s="29">
         <f ca="1">B11/(phi_t1/SUM(B$36:B$38))</f>
-        <v>6.4622941018092517</v>
+        <v>6.4622941018092552</v>
       </c>
       <c r="E36" s="38">
         <f ca="1">C36/AVERAGE(C$36:C$38)</f>
-        <v>2.461611056739371</v>
+        <v>2.4616110567393714</v>
       </c>
       <c r="G36" s="1">
         <f ca="1">SUM(dqa21_)</f>
@@ -24626,7 +24626,7 @@
       </c>
       <c r="H36" s="1">
         <f ca="1">SUM(dqa22_)</f>
-        <v>62.21831984735487</v>
+        <v>62.218319847354877</v>
       </c>
       <c r="I36" s="11">
         <f ca="1">SUM(dqa23_)</f>
@@ -24750,7 +24750,7 @@
       </c>
       <c r="E37" s="38">
         <f ca="1">C37/AVERAGE(C$36:C$38)</f>
-        <v>0.32955255026974611</v>
+        <v>0.329552550269746</v>
       </c>
       <c r="G37" s="1">
         <f ca="1">SUM(dqa31_)</f>
@@ -24882,7 +24882,7 @@
       </c>
       <c r="E38" s="38">
         <f ca="1">C38/AVERAGE(C$36:C$38)</f>
-        <v>0.20883639299088319</v>
+        <v>0.20883639299088311</v>
       </c>
       <c r="G38" t="s">
         <v>69</v>
@@ -24936,7 +24936,7 @@
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="29"/>
-        <v>-2.9985501473822479E-3</v>
+        <v>-2.9985501473822444E-3</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="29"/>
@@ -24997,11 +24997,11 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>6.1122543488962551</v>
+        <v>6.1122543488962506</v>
       </c>
       <c r="C39" s="23">
         <f ca="1">B4/(phi_q1/SUM(B$39:B$41))</f>
-        <v>4.0815336481522424</v>
+        <v>4.0815336481522451</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="39">
@@ -25010,7 +25010,7 @@
       </c>
       <c r="G39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
-        <v>1382554.0938899997</v>
+        <v>1382554.0938899994</v>
       </c>
       <c r="H39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
@@ -25018,7 +25018,7 @@
       </c>
       <c r="I39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
-        <v>1350166.8690472962</v>
+        <v>1350166.869047296</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>66</v>
@@ -25069,23 +25069,23 @@
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.1241572316004596E-2</v>
+        <v>-1.1241572316004592E-2</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="30"/>
-        <v>1.1115902069305267E-2</v>
+        <v>1.1115902069305274E-2</v>
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="30"/>
-        <v>0.23864215142978726</v>
+        <v>0.23864215142978729</v>
       </c>
       <c r="Y39">
         <f t="shared" ca="1" si="30"/>
-        <v>1.4718481462026332</v>
+        <v>1.4718481462026334</v>
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="30"/>
-        <v>5.504788736800335</v>
+        <v>5.5047887368003359</v>
       </c>
       <c r="AA39">
         <f t="shared" ca="1" si="30"/>
@@ -25139,7 +25139,7 @@
       <c r="D40" s="21"/>
       <c r="E40" s="39">
         <f ca="1">C40/AVERAGE(C$39:C$41)</f>
-        <v>0.35513392909356717</v>
+        <v>0.355133929093567</v>
       </c>
       <c r="G40" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
@@ -25202,11 +25202,11 @@
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="31"/>
-        <v>-2.9985501473822479E-3</v>
+        <v>-2.9985501473822444E-3</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="31"/>
-        <v>2.8197407261281577E-2</v>
+        <v>2.8197407261281584E-2</v>
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="31"/>
@@ -25263,24 +25263,24 @@
       </c>
       <c r="B41" s="1">
         <f ca="1">SUMPRODUCT(lz,qa3_)</f>
-        <v>19.615246063682058</v>
+        <v>19.615246063682054</v>
       </c>
       <c r="C41" s="23">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
-        <v>0.36066832825077072</v>
+        <v>0.36066832825077083</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="39">
         <f ca="1">C41/AVERAGE(C$39:C$41)</f>
-        <v>0.21474021877173294</v>
+        <v>0.21474021877173291</v>
       </c>
       <c r="G41" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
-        <v>1350166.8690472962</v>
+        <v>1350166.869047296</v>
       </c>
       <c r="H41" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>494457.85510086227</v>
+        <v>494457.85510086216</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="32"/>
-        <v>9.0538854692959303E-2</v>
+        <v>9.0538854692959442E-2</v>
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="32"/>
@@ -25396,7 +25396,7 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">SUMPRODUCT(lz/SUM(lz),len,ta1_)</f>
-        <v>4.4644369117528306</v>
+        <v>4.4644369117528289</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
@@ -25447,11 +25447,11 @@
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.1241572316004599E-2</v>
+        <v>-1.1241572316004592E-2</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="33"/>
-        <v>1.1115902069305267E-2</v>
+        <v>1.1115902069305281E-2</v>
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="33"/>
@@ -25459,7 +25459,7 @@
       </c>
       <c r="Y42">
         <f t="shared" ca="1" si="33"/>
-        <v>1.4718481462026332</v>
+        <v>1.4718481462026334</v>
       </c>
       <c r="Z42">
         <f t="shared" ca="1" si="33"/>
@@ -25625,7 +25625,7 @@
       </c>
       <c r="B46" s="1">
         <f ca="1">phif/phie</f>
-        <v>0.40000000000004898</v>
+        <v>0.40000000000004887</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>94</v>
@@ -25681,59 +25681,59 @@
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="35"/>
-        <v>4.9490416670800348E-2</v>
+        <v>4.9490416670800341E-2</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.11706098107776555</v>
+        <v>0.11706098107776552</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.25826134078620833</v>
+        <v>0.25826134078620822</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.49994931120139474</v>
+        <v>0.49994931120139458</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.7788259774114149</v>
+        <v>0.77882597741141457</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.9260708810324525</v>
+        <v>0.92607088103245216</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.8724622842384343</v>
+        <v>0.87246228423843375</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.71087965315840496</v>
+        <v>0.71087965315840451</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.53801855561325784</v>
+        <v>0.53801855561325751</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.39323548198378855</v>
+        <v>0.39323548198378822</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.28253992555367591</v>
+        <v>0.28253992555367574</v>
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.20109405287416454</v>
+        <v>0.2010940528741644</v>
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.14225117141697999</v>
+        <v>0.14225117141697988</v>
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.30933283031448044</v>
+        <v>0.30933283031448022</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -25749,7 +25749,7 @@
       </c>
       <c r="G47" s="31">
         <f ca="1">G39/G53</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="H47" s="31">
         <f ca="1">H53/H39</f>
@@ -25757,7 +25757,7 @@
       </c>
       <c r="I47" s="31">
         <f ca="1">I53/I39</f>
-        <v>0.49624956723582808</v>
+        <v>0.49624956723582819</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
@@ -25808,59 +25808,59 @@
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="36"/>
-        <v>1.0051017391512047</v>
+        <v>1.0051017391512045</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.88083869933397863</v>
+        <v>0.8808386993339784</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.75333510984092755</v>
+        <v>0.75333510984092733</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.62266336512349596</v>
+        <v>0.62266336512349574</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.53406528958272947</v>
+        <v>0.53406528958272925</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.43229328344515217</v>
+        <v>0.432293283445152</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.33256017230662865</v>
+        <v>0.33256017230662843</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.24716082184508928</v>
+        <v>0.24716082184508914</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.18001304593798786</v>
+        <v>0.18001304593798775</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.12955692151534318</v>
+        <v>0.12955692151534309</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="36"/>
-        <v>9.2521290483820573E-2</v>
+        <v>9.2521290483820504E-2</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="36"/>
-        <v>6.569376870240963E-2</v>
+        <v>6.5693768702409588E-2</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="36"/>
-        <v>4.6427685438391646E-2</v>
+        <v>4.6427685438391611E-2</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.10092334753918199</v>
+        <v>0.10092334753918192</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -25869,11 +25869,11 @@
       </c>
       <c r="B48" s="1">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>27109.570776465585</v>
+        <v>27109.570776465567</v>
       </c>
       <c r="C48" s="20">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.60367371601208464</v>
+        <v>0.60367371601208442</v>
       </c>
       <c r="F48" t="s">
         <v>85</v>
@@ -25939,59 +25939,59 @@
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.8229407311367145</v>
+        <v>1.8229407311367141</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.5656629762071608</v>
+        <v>1.5656629762071603</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.3115901999818793</v>
+        <v>1.3115901999818789</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.0617281089516186</v>
+        <v>1.0617281089516184</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.91065600085996334</v>
+        <v>0.91065600085996301</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.73712049889698594</v>
+        <v>0.73712049889698561</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.56706159802048328</v>
+        <v>0.56706159802048295</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.42144376348922985</v>
+        <v>0.42144376348922963</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.30694741581986912</v>
+        <v>0.30694741581986895</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.22091266804302315</v>
+        <v>0.22091266804302298</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.15776173818041672</v>
+        <v>0.15776173818041664</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11201706206126445</v>
+        <v>0.11201706206126438</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="38"/>
-        <v>7.9165695983619527E-2</v>
+        <v>7.9165695983619472E-2</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.17208842037878763</v>
+        <v>0.17208842037878749</v>
       </c>
     </row>
     <row r="49" spans="1:47">
@@ -26000,22 +26000,22 @@
       </c>
       <c r="B49" s="1">
         <f ca="1">f2_*re*phi_q2</f>
-        <v>10110.327572677941</v>
+        <v>10110.327572677936</v>
       </c>
       <c r="C49" s="20">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.22513595166163142</v>
+        <v>0.22513595166163139</v>
       </c>
       <c r="F49" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="31">
         <f ca="1">G41/G55</f>
-        <v>2.0151151074450797</v>
+        <v>2.0151151074450793</v>
       </c>
       <c r="H49" s="31">
         <f t="shared" ca="1" si="37"/>
-        <v>1.4952115134815014</v>
+        <v>1.4952115134815009</v>
       </c>
       <c r="I49" s="31">
         <f t="shared" ca="1" si="37"/>
@@ -26035,11 +26035,11 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>7687.7563282101819</v>
+        <v>7687.7563282101783</v>
       </c>
       <c r="C50" s="20">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.17119033232628394</v>
+        <v>0.17119033232628397</v>
       </c>
       <c r="AL50" s="31"/>
       <c r="AM50" s="31"/>
@@ -26055,7 +26055,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>44907.654677353712</v>
+        <v>44907.654677353683</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -26097,11 +26097,11 @@
       </c>
       <c r="B53" s="35">
         <f ca="1">f1_*phi_q1</f>
-        <v>1.3448739753088796</v>
+        <v>1.3448739753088788</v>
       </c>
       <c r="C53">
         <f ca="1">AVERAGE(B53:B55)/B53</f>
-        <v>0.55217466736063836</v>
+        <v>0.55217466736063847</v>
       </c>
       <c r="G53">
         <f ca="1">G$52*$J53</f>
@@ -26131,7 +26131,7 @@
       </c>
       <c r="B54" s="35">
         <f ca="1">f2_*phi_q2</f>
-        <v>0.50156147976146903</v>
+        <v>0.50156147976146881</v>
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
@@ -26166,11 +26166,11 @@
       </c>
       <c r="B55" s="35">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.38138056480413146</v>
+        <v>0.38138056480413135</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471504541390188</v>
+        <v>1.9471504541390183</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="40"/>
@@ -26202,11 +26202,11 @@
       </c>
       <c r="B56" s="34">
         <f ca="1">phi_t1*f1_</f>
-        <v>4.0815470486742035E-2</v>
+        <v>4.0815470486742014E-2</v>
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.2689809710261766</v>
+        <v>1.2689809710261768</v>
       </c>
       <c r="AL56" s="31"/>
       <c r="AM56" s="31"/>
@@ -26221,11 +26221,11 @@
       </c>
       <c r="B57" s="34">
         <f ca="1">phi_t2*f2_</f>
-        <v>8.6585517569142498E-2</v>
+        <v>8.6585517569142456E-2</v>
       </c>
       <c r="C57">
         <f ca="1">AVERAGE(B56:B58)/B57</f>
-        <v>0.59818381670810294</v>
+        <v>0.59818381670810283</v>
       </c>
       <c r="G57">
         <f t="array" aca="1" ref="G57:I59" ca="1">MMULT($G$52:$I$52,TRANSPOSE($G$52:$I$52))</f>
@@ -26252,11 +26252,11 @@
       </c>
       <c r="B58" s="34">
         <f ca="1">phi_t3*f3_</f>
-        <v>2.798117805758394E-2</v>
+        <v>2.7981178057583937E-2</v>
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>1.8510319781592628</v>
+        <v>1.8510319781592621</v>
       </c>
       <c r="G58">
         <f ca="1"/>
@@ -26301,7 +26301,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>32.950103460052752</v>
+        <v>32.950103460052745</v>
       </c>
       <c r="AL60" s="31"/>
       <c r="AM60" s="31"/>
@@ -26329,7 +26329,7 @@
       </c>
       <c r="B62">
         <f ca="1">ypr3/mpr3_</f>
-        <v>13.629896640494131</v>
+        <v>13.629896640494129</v>
       </c>
       <c r="AL62" s="31"/>
       <c r="AM62" s="31"/>

--- a/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
+++ b/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="6" r:id="rId1"/>
@@ -2549,13 +2549,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27569.4394224561</c:v>
+                  <c:v>17050.21914256167</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24268.78142553413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27109.57077646557</c:v>
+                  <c:v>27109.57077646559</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27568.6269329213</c:v>
@@ -2606,7 +2606,7 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10281.8324146286</c:v>
+                  <c:v>6358.761713303496</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9050.874763936835</c:v>
@@ -2663,13 +2663,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7818.166290157208</c:v>
+                  <c:v>4835.11639455893</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6882.162743206078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7687.756328210178</c:v>
+                  <c:v>7687.75632821018</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7817.935883648219</c:v>
@@ -2809,13 +2809,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27569.4394224561</c:v>
+                  <c:v>17050.21914256167</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24268.78142553413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27109.57077646557</c:v>
+                  <c:v>27109.57077646559</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27568.6269329213</c:v>
@@ -2866,7 +2866,7 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10281.8324146286</c:v>
+                  <c:v>6358.761713303496</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9050.874763936835</c:v>
@@ -2923,13 +2923,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7818.166290157208</c:v>
+                  <c:v>4835.11639455893</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6882.162743206078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7687.756328210178</c:v>
+                  <c:v>7687.75632821018</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7817.935883648219</c:v>
@@ -3077,13 +3077,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>27569.4394224561</c:v>
+                  <c:v>17050.21914256167</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24268.78142553413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27109.57077646557</c:v>
+                  <c:v>27109.57077646559</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27568.6269329213</c:v>
@@ -3152,7 +3152,7 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10281.8324146286</c:v>
+                  <c:v>6358.761713303496</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9050.874763936835</c:v>
@@ -3227,13 +3227,13 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7818.166290157208</c:v>
+                  <c:v>4835.11639455893</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6882.162743206078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7687.756328210178</c:v>
+                  <c:v>7687.75632821018</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7817.935883648219</c:v>
@@ -4407,7 +4407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C5" s="65">
         <f ca="1">'Status Quo'!ye_1</f>
-        <v>27569.439422456104</v>
+        <v>17050.219142561666</v>
       </c>
       <c r="D5" s="79">
         <f ca="1">'Excluders (1)'!ye_1</f>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="E5" s="79">
         <f ca="1">'No Size Limit (1)'!ye_1</f>
-        <v>27109.570776465567</v>
+        <v>27109.570776465585</v>
       </c>
       <c r="F5" s="79">
         <f ca="1">'Reduce DMR (1)'!ye_1</f>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="C6" s="65">
         <f ca="1">'Status Quo'!ye_2</f>
-        <v>10281.832414628605</v>
+        <v>6358.7617133034964</v>
       </c>
       <c r="D6" s="79">
         <f ca="1">'Excluders (1)'!ye_2</f>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="C7" s="67">
         <f ca="1">'Status Quo'!ye_3</f>
-        <v>7818.1662901572081</v>
+        <v>4835.1163945589315</v>
       </c>
       <c r="D7" s="80">
         <f ca="1">'Excluders (1)'!ye_3</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="E7" s="80">
         <f ca="1">'No Size Limit (1)'!ye_3</f>
-        <v>7687.7563282101783</v>
+        <v>7687.7563282101801</v>
       </c>
       <c r="F7" s="80">
         <f ca="1">'Reduce DMR (1)'!ye_3</f>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="C8" s="66">
         <f ca="1">SUM(C5:C7)</f>
-        <v>45669.438127241912</v>
+        <v>28244.097250424096</v>
       </c>
       <c r="D8" s="81">
         <f ca="1">SUM(D5:D7)</f>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="E8" s="81">
         <f ca="1">SUM(E5:E7)</f>
-        <v>44907.654677353683</v>
+        <v>44907.654677353697</v>
       </c>
       <c r="F8" s="81">
         <f ca="1">SUM(F5:F7)</f>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="C11" s="70">
         <f ca="1">'Status Quo'!E27</f>
-        <v>2064.3253884977394</v>
+        <v>786.67308636690643</v>
       </c>
       <c r="D11" s="82">
         <f ca="1">'Excluders (1)'!E27</f>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C12" s="70">
         <f ca="1">'Status Quo'!E28</f>
-        <v>818.71296036039905</v>
+        <v>9844.4268531156249</v>
       </c>
       <c r="D12" s="82">
         <f ca="1">'Excluders (1)'!E28</f>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C13" s="71">
         <f ca="1">'Status Quo'!E29</f>
-        <v>635.48251459065807</v>
+        <v>445.68991458413717</v>
       </c>
       <c r="D13" s="83">
         <f ca="1">'Excluders (1)'!E29</f>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C14" s="74">
         <f ca="1">SUM(C11:C13)</f>
-        <v>3518.5208634487963</v>
+        <v>11076.78985406667</v>
       </c>
       <c r="D14" s="84">
         <f ca="1">SUM(D11:D13)</f>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="C17" s="68">
         <f ca="1">'Status Quo'!C4</f>
-        <v>0.60367371601208453</v>
+        <v>0.60367371601165476</v>
       </c>
       <c r="D17" s="85">
         <f ca="1">'Excluders (1)'!C4</f>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="C18" s="68">
         <f ca="1">'Status Quo'!C5</f>
-        <v>0.22513595166163136</v>
+        <v>0.22513595166192044</v>
       </c>
       <c r="D18" s="85">
         <f ca="1">'Excluders (1)'!C5</f>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C19" s="72">
         <f ca="1">'Status Quo'!C6</f>
-        <v>0.171190332326284</v>
+        <v>0.17119033232642492</v>
       </c>
       <c r="D19" s="86">
         <f ca="1">'Excluders (1)'!C6</f>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="C20" s="69">
         <f ca="1">SUM(C17:C19)</f>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D20" s="87">
         <f ca="1">SUM(D17:D19)</f>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="C23" s="68">
         <f ca="1">'Status Quo'!C11</f>
-        <v>0.27765604524278548</v>
+        <v>0.28752170882854144</v>
       </c>
       <c r="D23" s="85">
         <f ca="1">'Excluders (1)'!C11</f>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="C24" s="68">
         <f ca="1">'Status Quo'!C12</f>
-        <v>0.53959687512155796</v>
+        <v>0.52653906418679797</v>
       </c>
       <c r="D24" s="85">
         <f ca="1">'Excluders (1)'!C12</f>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="E24" s="85">
         <f ca="1">'No Size Limit (1)'!$C12</f>
-        <v>0.5572423125181114</v>
+        <v>0.55724231251811152</v>
       </c>
       <c r="F24" s="85">
         <f ca="1">'Reduce DMR (1)'!$C12</f>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="C25" s="72">
         <f ca="1">'Status Quo'!C13</f>
-        <v>0.18274707963565662</v>
+        <v>0.18593922698466048</v>
       </c>
       <c r="D25" s="86">
         <f ca="1">'Excluders (1)'!C13</f>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="E25" s="85">
         <f ca="1">'No Size Limit (1)'!$C13</f>
-        <v>0.18007972702060651</v>
+        <v>0.18007972702060657</v>
       </c>
       <c r="F25" s="85">
         <f ca="1">'Reduce DMR (1)'!$C13</f>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C26" s="69">
         <f ca="1">SUM(C23:C25)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D26" s="87">
         <f ca="1">SUM(D23:D25)</f>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="C29" s="75">
         <f ca="1">avg_wt1</f>
-        <v>32.829519858945936</v>
+        <v>37.473152398562071</v>
       </c>
       <c r="D29" s="89">
         <f ca="1">'Excluders (1)'!avg_wt1</f>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="E29" s="89">
         <f ca="1">'No Size Limit (1)'!avg_wt1</f>
-        <v>32.950103460052745</v>
+        <v>32.950103460052752</v>
       </c>
       <c r="F29" s="89">
         <f ca="1">'Reduce DMR (1)'!avg_wt1</f>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C30" s="75">
         <f ca="1">avg_wt2</f>
-        <v>6.3000620093714117</v>
+        <v>7.631376113944345</v>
       </c>
       <c r="D30" s="89">
         <f ca="1">'Excluders (1)'!avg_wt2</f>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="C31" s="76">
         <f ca="1">avg_wt3</f>
-        <v>14.14484481449548</v>
+        <v>16.432241804998775</v>
       </c>
       <c r="D31" s="90">
         <f ca="1">'Excluders (1)'!avg_wt3</f>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="E31" s="89">
         <f ca="1">'No Size Limit (1)'!avg_wt3</f>
-        <v>13.629896640494129</v>
+        <v>13.629896640494131</v>
       </c>
       <c r="F31" s="89">
         <f ca="1">'Reduce DMR (1)'!avg_wt3</f>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C32" s="77">
         <f ca="1">AVERAGE(C29:C31)</f>
-        <v>17.758142227604274</v>
+        <v>20.512256772501733</v>
       </c>
       <c r="D32" s="91">
         <f ca="1">AVERAGE(D29:D31)</f>
@@ -5304,15 +5304,15 @@
       </c>
       <c r="D42" s="52">
         <f ca="1">'Status Quo'!G47</f>
-        <v>1</v>
+        <v>1.0000000000001918</v>
       </c>
       <c r="E42" s="52">
         <f ca="1">'Status Quo'!H47</f>
-        <v>0.49437000276321835</v>
+        <v>0.20359349447390898</v>
       </c>
       <c r="F42" s="52">
         <f ca="1">'Status Quo'!I47</f>
-        <v>0.49000026732177521</v>
+        <v>0.97186573190060832</v>
       </c>
     </row>
     <row r="43" spans="3:9">
@@ -5321,15 +5321,15 @@
       </c>
       <c r="D43" s="52">
         <f ca="1">'Status Quo'!G48</f>
-        <v>2.022776451667025</v>
+        <v>4.9117482981659997</v>
       </c>
       <c r="E43" s="52">
         <f ca="1">'Status Quo'!H48</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999981337</v>
       </c>
       <c r="F43" s="52">
         <f ca="1">'Status Quo'!I48</f>
-        <v>0.66147781371747916</v>
+        <v>0.20001741038092768</v>
       </c>
     </row>
     <row r="44" spans="3:9">
@@ -5338,15 +5338,15 @@
       </c>
       <c r="D44" s="55">
         <f ca="1">'Status Quo'!G49</f>
-        <v>2.0408152131543971</v>
+        <v>1.028948719124259</v>
       </c>
       <c r="E44" s="55">
         <f ca="1">'Status Quo'!H49</f>
-        <v>1.5117665011015855</v>
+        <v>4.9995647783630046</v>
       </c>
       <c r="F44" s="55">
         <f ca="1">'Status Quo'!I49</f>
-        <v>0.99999999999999944</v>
+        <v>0.9999999999997351</v>
       </c>
     </row>
   </sheetData>
@@ -6578,7 +6578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63"/>
+      <selection pane="topRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -6716,14 +6716,14 @@
       </c>
       <c r="C4" s="22">
         <f ca="1">ypr1/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.60367371601208453</v>
+        <v>0.60367371601165476</v>
       </c>
       <c r="E4" s="49">
         <v>24977</v>
       </c>
       <c r="F4" s="49">
         <f ca="1">ye_1</f>
-        <v>27569.439422456111</v>
+        <v>17050.219142556136</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -6839,14 +6839,14 @@
       </c>
       <c r="C5" s="22">
         <f ca="1">ypr2/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.22513595166163136</v>
+        <v>0.22513595166192044</v>
       </c>
       <c r="E5" s="49">
         <v>9315</v>
       </c>
       <c r="F5" s="49">
         <f ca="1">ye_2</f>
-        <v>10281.832414628601</v>
+        <v>6358.7617133053363</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -6962,14 +6962,14 @@
       </c>
       <c r="C6" s="22">
         <f ca="1">ypr3/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.171190332326284</v>
+        <v>0.17119033232642492</v>
       </c>
       <c r="E6" s="49">
         <v>7083</v>
       </c>
       <c r="F6" s="49">
         <f ca="1">ye_3</f>
-        <v>7818.1662901572099</v>
+        <v>4835.1163945594153</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="C7" s="23">
         <f ca="1">spr</f>
-        <v>0.39999999998752639</v>
+        <v>0.69601044378666621</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -7095,99 +7095,99 @@
       </c>
       <c r="L7" s="1">
         <f ca="1">K7*EXP(-K8)</f>
-        <v>0.86054628842775249</v>
+        <v>0.86064040374560202</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ref="M7:AH7" ca="1" si="4">L7*EXP(-L8)</f>
-        <v>0.73888597186711336</v>
+        <v>0.74000999944857127</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62547678946795504</v>
+        <v>0.63252068703710063</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52415231951812991</v>
+        <v>0.53836430075956765</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43961860234571987</v>
+        <v>0.45824592325757513</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36925873197496756</v>
+        <v>0.39041958470154819</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30776942926488982</v>
+        <v>0.33165001526247567</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25483993958634343</v>
+        <v>0.28102394617757542</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21108564572102484</v>
+        <v>0.23817624097447362</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17524127063330214</v>
+        <v>0.2020650806045857</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14576678542097282</v>
+        <v>0.17160032717633264</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1212604958765181</v>
+        <v>0.14581287465385923</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10044442788519782</v>
+        <v>0.12385212646826123</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2084387601109324E-2</v>
+        <v>0.10494682947550546</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5126856185556664E-2</v>
+        <v>8.8409492450156585E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9225311135593523E-2</v>
+        <v>7.3716094242955971E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5369390085964326E-2</v>
+        <v>6.0808598369096724E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.452415604623082E-2</v>
+        <v>4.9783814205022398E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6689203122081109E-2</v>
+        <v>4.0596557633426358E-2</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1263078954454137E-2</v>
+        <v>3.304630998643391E-2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5750407668483894E-3</v>
+        <v>2.6880673220024225E-2</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0876406663585855E-3</v>
+        <v>2.1859030803191817E-2</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4151767680497946E-3</v>
+        <v>1.7773457386048623E-2</v>
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>6.9681775007769649E-3</v>
+        <v>7.7295548669778766E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -7199,110 +7199,110 @@
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>8195976.5512646604</v>
+        <v>76626180.273266435</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="1">
         <f ca="1">M+f1_*flt1_ +f2_*flt2_ +f3_*flt3_</f>
-        <v>0.15018787229880268</v>
+        <v>0.15007851133479883</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ref="L8:AI8" ca="1" si="5">M+f1_*flt1_ +f2_*flt2_ +f3_*flt3_</f>
-        <v>0.15242379822646618</v>
+        <v>0.1510130687720796</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16662938640392982</v>
+        <v>0.1569507720304115</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17673189386961452</v>
+        <v>0.16117745687989724</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17587479002115142</v>
+        <v>0.16112947961295945</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17440996916307894</v>
+        <v>0.16018397133987586</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18214667265394865</v>
+        <v>0.1631417770207102</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18871523616193231</v>
+        <v>0.16564035857467407</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18837170517273222</v>
+        <v>0.16542897549011967</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18610024127332161</v>
+        <v>0.16442108120378646</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1841557292990543</v>
+        <v>0.16342173304877275</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18406689443690624</v>
+        <v>0.16284397447358614</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18833647180501062</v>
+        <v>0.1632357937050761</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20185678302319801</v>
+        <v>0.1656344895420839</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23141083361608392</v>
+        <v>0.17147449141672291</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27992905636924337</v>
+        <v>0.18175819410766711</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33056118594240652</v>
+        <v>0.1924899509114727</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36618816636429075</v>
+        <v>0.20004128427952955</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38489660217805993</v>
+        <v>0.20400663957912957</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39323196358874402</v>
+        <v>0.20577336502175642</v>
       </c>
       <c r="AE8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39667129397104622</v>
+        <v>0.20650234990826949</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3980445333495462</v>
+        <v>0.20679341550570157</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39858494587037679</v>
+        <v>0.20690795889536689</v>
       </c>
       <c r="AH8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39879573037086247</v>
+        <v>0.20695263582316539</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39887698646704206</v>
+        <v>0.20696985849719426</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -7405,103 +7405,103 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" ref="K10:AI10" ca="1" si="6">EXP(-za)</f>
-        <v>0.86054628842775249</v>
+        <v>0.86064040374560202</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85862432015956203</v>
+        <v>0.85983646157903615</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84651328253995506</v>
+        <v>0.85474613519875864</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83800442853200985</v>
+        <v>0.8511410168755339</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83872299325103705</v>
+        <v>0.85118185327490381</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83995247244924209</v>
+        <v>0.85198703335130066</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83347908286094052</v>
+        <v>0.84947074444537052</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82802226392345424</v>
+        <v>0.84735092189025596</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8283067640953744</v>
+        <v>0.84753005647416857</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8301903714708514</v>
+        <v>0.84838470780232988</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83180625713445322</v>
+        <v>0.84923296327548925</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83188015381089164</v>
+        <v>0.84972375666874611</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82833594864631199</v>
+        <v>0.84939088377668837</v>
       </c>
       <c r="X10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81721195818773573</v>
+        <v>0.84735589503502562</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.79341343815637488</v>
+        <v>0.84242175673148578</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75583736140038549</v>
+        <v>0.83380293450404142</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71852039672309254</v>
+        <v>0.82490260768128343</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69337231958553813</v>
+        <v>0.81869695306642176</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.68052099695582047</v>
+        <v>0.81545695687832642</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67487218365460544</v>
+        <v>0.8140175402266594</v>
       </c>
       <c r="AE10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6725550622063905</v>
+        <v>0.81342434998210855</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6716321169681716</v>
+        <v>0.81318762459069516</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67126925661873915</v>
+        <v>0.81309448465812428</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67112777837502569</v>
+        <v>0.81305815890600741</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67107324736723561</v>
+        <v>0.81304415599095425</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -7513,110 +7513,110 @@
       </c>
       <c r="C11" s="18">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.27765604524278548</v>
+        <v>0.28752170882854144</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
       </c>
       <c r="K11" s="1">
         <f ca="1">1-sa</f>
-        <v>0.13945371157224751</v>
+        <v>0.13935959625439798</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ref="L11:AI11" ca="1" si="7">1-sa</f>
-        <v>0.14137567984043797</v>
+        <v>0.14016353842096385</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15348671746004494</v>
+        <v>0.14525386480124136</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16199557146799015</v>
+        <v>0.1488589831244661</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16127700674896295</v>
+        <v>0.14881814672509619</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16004752755075791</v>
+        <v>0.14801296664869934</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16652091713905948</v>
+        <v>0.15052925555462948</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17197773607654576</v>
+        <v>0.15264907810974404</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.1716932359046256</v>
+        <v>0.15246994352583143</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.1698096285291486</v>
+        <v>0.15161529219767012</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16819374286554678</v>
+        <v>0.15076703672451075</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16811984618910836</v>
+        <v>0.15027624333125389</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17166405135368801</v>
+        <v>0.15060911622331163</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18278804181226427</v>
+        <v>0.15264410496497438</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20658656184362512</v>
+        <v>0.15757824326851422</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24416263859961451</v>
+        <v>0.16619706549595858</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28147960327690746</v>
+        <v>0.17509739231871657</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30662768041446187</v>
+        <v>0.18130304693357824</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31947900304417953</v>
+        <v>0.18454304312167358</v>
       </c>
       <c r="AD11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32512781634539456</v>
+        <v>0.1859824597733406</v>
       </c>
       <c r="AE11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3274449377936095</v>
+        <v>0.18657565001789145</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3283678830318284</v>
+        <v>0.18681237540930484</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32873074338126085</v>
+        <v>0.18690551534187572</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32887222162497431</v>
+        <v>0.18694184109399259</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32892675263276439</v>
+        <v>0.18695584400904575</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="C12" s="18">
         <f ca="1">mpr2_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.53959687512155796</v>
+        <v>0.52653906418679797</v>
       </c>
       <c r="J12" t="s">
         <v>100</v>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="C13" s="18">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.18274707963565662</v>
+        <v>0.18593922698466048</v>
       </c>
       <c r="J13" t="s">
         <v>101</v>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="C14" s="29">
         <f ca="1">spr</f>
-        <v>0.39999999998752639</v>
+        <v>0.69601044378666621</v>
       </c>
       <c r="J14" t="s">
         <v>102</v>
@@ -7972,7 +7972,7 @@
       </c>
       <c r="C15" s="26">
         <f ca="1">CHOOSE(C25,SUMXMY2(B14,C14),SUMXMY2(B7,C7))</f>
-        <v>1.5559152614166371E-22</v>
+        <v>8.7622182830779063E-2</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -8165,7 +8165,7 @@
         <v>200</v>
       </c>
       <c r="F19" s="31">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="G19" s="3">
         <f>Selectivities!A10</f>
@@ -8184,103 +8184,103 @@
       </c>
       <c r="K19" s="4">
         <f t="shared" si="12"/>
-        <v>5.582680465883184E-3</v>
+        <v>3.4891752915441838E-4</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="12"/>
-        <v>7.2155520993819139E-2</v>
+        <v>4.5097201718603524E-3</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="12"/>
-        <v>0.49521506802419019</v>
+        <v>3.095105760743045E-2</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="12"/>
-        <v>0.79572893685182389</v>
+        <v>4.9752695622262415E-2</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="12"/>
-        <v>0.76863029451041309</v>
+        <v>4.9448206854800454E-2</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" ref="P19:Y19" si="14">((EXP(g*(ah-age)/gh)/(1+EXP((ah-age)/gh))) *(1/(1-g))*((1-g)/g)^g) *(sr_2+(1-sr_2)*dmr)</f>
-        <v>0.70743533876272136</v>
+        <v>4.4214708672670085E-2</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="14"/>
-        <v>0.6492599837541615</v>
+        <v>4.0578748984635093E-2</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" si="14"/>
-        <v>0.59574057607123032</v>
+        <v>3.7233786004451895E-2</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="14"/>
-        <v>0.54662506941470868</v>
+        <v>3.4164066838419292E-2</v>
       </c>
       <c r="T19" s="4">
         <f t="shared" si="14"/>
-        <v>0.50155839141389946</v>
+        <v>3.13473994633688E-2</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="14"/>
-        <v>0.46020722133927372</v>
+        <v>2.8762951333705745E-2</v>
       </c>
       <c r="V19" s="4">
         <f t="shared" si="14"/>
-        <v>0.42226526227867622</v>
+        <v>2.6391578892429952E-2</v>
       </c>
       <c r="W19" s="4">
         <f t="shared" si="14"/>
-        <v>0.38745144232994355</v>
+        <v>2.4215715145738982E-2</v>
       </c>
       <c r="X19" s="4">
         <f t="shared" si="14"/>
-        <v>0.35550786098485632</v>
+        <v>2.2219241312468739E-2</v>
       </c>
       <c r="Y19" s="4">
         <f t="shared" si="14"/>
-        <v>0.32619788033882458</v>
+        <v>2.0387367527249595E-2</v>
       </c>
       <c r="Z19" s="4">
         <f>Y19</f>
-        <v>0.32619788033882458</v>
+        <v>2.0387367527249595E-2</v>
       </c>
       <c r="AA19" s="4">
         <f t="shared" ref="AA19:AI19" si="15">Z19</f>
-        <v>0.32619788033882458</v>
+        <v>2.0387367527249595E-2</v>
       </c>
       <c r="AB19" s="4">
         <f t="shared" si="15"/>
-        <v>0.32619788033882458</v>
+        <v>2.0387367527249595E-2</v>
       </c>
       <c r="AC19" s="4">
         <f t="shared" si="15"/>
-        <v>0.32619788033882458</v>
+        <v>2.0387367527249595E-2</v>
       </c>
       <c r="AD19" s="4">
         <f t="shared" si="15"/>
-        <v>0.32619788033882458</v>
+        <v>2.0387367527249595E-2</v>
       </c>
       <c r="AE19" s="4">
         <f t="shared" si="15"/>
-        <v>0.32619788033882458</v>
+        <v>2.0387367527249595E-2</v>
       </c>
       <c r="AF19" s="4">
         <f t="shared" si="15"/>
-        <v>0.32619788033882458</v>
+        <v>2.0387367527249595E-2</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="15"/>
-        <v>0.32619788033882458</v>
+        <v>2.0387367527249595E-2</v>
       </c>
       <c r="AH19" s="4">
         <f t="shared" si="15"/>
-        <v>0.32619788033882458</v>
+        <v>2.0387367527249595E-2</v>
       </c>
       <c r="AI19" s="4">
         <f t="shared" si="15"/>
-        <v>0.32619788033882458</v>
+        <v>2.0387367527249595E-2</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -8463,103 +8463,103 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ref="K22:AI22" ca="1" si="18">wa*flt1_*(1-EXP(-za))/za</f>
-        <v>5.2944610958570922E-9</v>
+        <v>5.294743365767154E-9</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>7.7496092470405872E-8</v>
+        <v>7.754939210007965E-8</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>5.4942380476490488E-7</v>
+        <v>5.5201707210770369E-7</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>2.8510057588414898E-6</v>
+        <v>2.8726362240452552E-6</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2563579559153688E-5</v>
+        <v>1.2653929750345441E-5</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>6.85486522640741E-5</v>
+        <v>6.9024292385356888E-5</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>8.8301089149712064E-4</v>
+        <v>8.911980626896234E-4</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>3.6786284952239471E-3</v>
+        <v>3.7200492689300124E-3</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2077304036764765E-2</v>
+        <v>1.2212515895698698E-2</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>3.8012326926349371E-2</v>
+        <v>3.8414447169931407E-2</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>0.11596128673305946</v>
+        <v>0.11713454977598706</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3428413387693609</v>
+        <v>0.34639253145911897</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>0.97375734195118568</v>
+        <v>0.98569302291678562</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>2.5900106945378392</v>
+        <v>2.6358845698346274</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>6.1229713362516041</v>
+        <v>6.3029023159973923</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>11.983897410871849</v>
+        <v>12.563082315388966</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>18.764804612479256</v>
+        <v>20.045670664202394</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>24.456954326081991</v>
+        <v>26.471636415127445</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>28.543777395102577</v>
+        <v>31.107605176310088</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>31.514584650980797</v>
+        <v>34.449989989914357</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>33.876982619689855</v>
+        <v>37.078928774595632</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>35.919469933295282</v>
+        <v>39.334156940582666</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>37.777265875915056</v>
+        <v>41.376715502440128</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>39.509164128985553</v>
+        <v>43.276955705812469</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>41.140171203381357</v>
+        <v>45.06483857684826</v>
       </c>
       <c r="AM22" s="43"/>
     </row>
@@ -8575,103 +8575,103 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ref="K23:AI23" ca="1" si="19">wa*flt2_*(1-EXP(-za))/za</f>
-        <v>2.6538334374221097E-4</v>
+        <v>1.6587343279275945E-5</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9637712454812942E-2</v>
+        <v>1.2282011999096474E-3</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0.37374511591016701</v>
+        <v>2.3469411850850882E-2</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2187788118918836</v>
+        <v>7.6781907660664311E-2</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>2.0129240202234526</v>
+        <v>0.13042848715569816</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>2.8296412085515357</v>
+        <v>0.17807970659683431</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>3.6505631390637392</v>
+        <v>0.23027567019471776</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>4.4478953524085574</v>
+        <v>0.28112362181121359</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>5.2041143147757545</v>
+        <v>0.3288985718520146</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>5.8881459428694294</v>
+        <v>0.37190217217144045</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>6.4789778625757455</v>
+        <v>0.40903314390626511</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>6.9627714784713861</v>
+        <v>0.43968079503219132</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>7.3271482220974686</v>
+        <v>0.46355997596137416</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>7.55492861411396</v>
+        <v>0.48054627252511184</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>7.6258729675270809</v>
+        <v>0.49062303417819592</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>8.2177326217487217</v>
+        <v>0.53843111230856744</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>8.7594796093056839</v>
+        <v>0.58483703639748374</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>9.3223616558796714</v>
+        <v>0.63064416430398473</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>9.9241882197555373</v>
+        <v>0.67597423392460954</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>10.544313602767083</v>
+        <v>0.72040354925545802</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>11.161245054221286</v>
+        <v>0.76351068358583374</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>11.762287065131753</v>
+        <v>0.80502935872432935</v>
       </c>
       <c r="AG23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>12.341145504759181</v>
+        <v>0.84481376370977856</v>
       </c>
       <c r="AH23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>12.89493102828237</v>
+        <v>0.88279101097412682</v>
       </c>
       <c r="AI23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>13.422447891997781</v>
+        <v>0.91893219881870769</v>
       </c>
       <c r="AM23" s="43"/>
     </row>
@@ -8687,103 +8687,103 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ref="K24:AI24" ca="1" si="20">wa*flt3_*(1-EXP(-za))/za</f>
-        <v>1.070396040650005E-6</v>
+        <v>1.0704531079489526E-6</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>2.1949444653171779E-5</v>
+        <v>2.1964540862983983E-5</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>2.1750709015454765E-4</v>
+        <v>2.1853371846739685E-4</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>1.5639818023416164E-3</v>
+        <v>1.5758476689221946E-3</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>9.5323293289838133E-3</v>
+        <v>9.6008804750422581E-3</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>0.13298365493417871</v>
+        <v>0.13390639170102056</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>2.9277792666154112</v>
+        <v>2.9549252851984882</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>7.0113561452289437</v>
+        <v>7.090302903957423</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>9.4830753649535566</v>
+        <v>9.5892434505298318</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>10.979244998934149</v>
+        <v>11.095390918700451</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>11.964887856526477</v>
+        <v>12.08594516047957</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>12.628293470491183</v>
+        <v>12.759098885081796</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>13.02377461525503</v>
+        <v>13.183411531023063</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>13.153469422030396</v>
+        <v>13.386441670855033</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>13.003179789310321</v>
+        <v>13.385294084938163</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>14.012383263673824</v>
+        <v>14.689605421405707</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>14.936137633765936</v>
+        <v>15.9556628584641</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>15.895930234946649</v>
+        <v>17.205383795928686</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>16.922128684013977</v>
+        <v>18.442089515991576</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>17.979529178560757</v>
+        <v>19.654220643695339</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>19.031483573172256</v>
+        <v>20.830279715478429</v>
       </c>
       <c r="AF24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>20.056344249723999</v>
+        <v>21.963002066512459</v>
       </c>
       <c r="AG24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>21.043378835152705</v>
+        <v>23.048409647541572</v>
       </c>
       <c r="AH24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>21.987660592500745</v>
+        <v>24.084513922631686</v>
       </c>
       <c r="AI24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>22.887150611544289</v>
+        <v>25.070526388778976</v>
       </c>
       <c r="AM24" s="44"/>
     </row>
@@ -8817,103 +8817,103 @@
       </c>
       <c r="K26">
         <f ca="1">qa1_/wa</f>
-        <v>1.0341560654246277E-7</v>
+        <v>1.0342112006186148E-7</v>
       </c>
       <c r="L26">
         <f t="shared" ref="L26:AI26" ca="1" si="21">qa1_/wa</f>
-        <v>2.6410729793179314E-7</v>
+        <v>2.6428894349255842E-7</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="21"/>
-        <v>6.705713582900775E-7</v>
+        <v>6.7373643921556443E-7</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="21"/>
-        <v>1.7061867360413856E-6</v>
+        <v>1.7191315056935051E-6</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="21"/>
-        <v>4.399186481165493E-6</v>
+        <v>4.4308229537002563E-6</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="21"/>
-        <v>1.5726495811777968E-5</v>
+        <v>1.5835617612545853E-5</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="21"/>
-        <v>1.4357287089019315E-4</v>
+        <v>1.4490406134763377E-4</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="21"/>
-        <v>4.4900772558618767E-4</v>
+        <v>4.5406348139787864E-4</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="21"/>
-        <v>1.1562459749632316E-3</v>
+        <v>1.1691907652230235E-3</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="21"/>
-        <v>2.9544916474749786E-3</v>
+        <v>2.9857462692518999E-3</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="21"/>
-        <v>7.5228873596012279E-3</v>
+        <v>7.5990017764362644E-3</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="21"/>
-        <v>1.8990644119213019E-2</v>
+        <v>1.9187351543154433E-2</v>
       </c>
       <c r="W26">
         <f t="shared" ca="1" si="21"/>
-        <v>4.6932963477783099E-2</v>
+        <v>4.7508237064648705E-2</v>
       </c>
       <c r="X26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.11036333945882597</v>
+        <v>0.11231807813320611</v>
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.23381489579014531</v>
+        <v>0.24068583164274315</v>
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.4149143353314057</v>
+        <v>0.43496725396484548</v>
       </c>
       <c r="AA26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.5950342271679383</v>
+        <v>0.63565064481429423</v>
       </c>
       <c r="AB26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.71657988336120704</v>
+        <v>0.77560933719792202</v>
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.77874600424715157</v>
+        <v>0.84869367138863339</v>
       </c>
       <c r="AD26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.80608292850078744</v>
+        <v>0.88116499472978882</v>
       </c>
       <c r="AE26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.8172985346658328</v>
+        <v>0.89454702901557392</v>
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.82176622706053304</v>
+        <v>0.89988749287492931</v>
       </c>
       <c r="AG26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.82352277547956754</v>
+        <v>0.90198871730741881</v>
       </c>
       <c r="AH26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.8242076570591883</v>
+        <v>0.90280822318823917</v>
       </c>
       <c r="AI26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.82447163727359729</v>
+        <v>0.90312412802673669</v>
       </c>
       <c r="AM26" s="44"/>
     </row>
@@ -8923,118 +8923,118 @@
       </c>
       <c r="B27" s="28">
         <f ca="1">fbar*C27</f>
-        <v>0.22695137358206613</v>
+        <v>4.8103584978684263E-2</v>
       </c>
       <c r="C27" s="36">
         <f ca="1">CHOOSE(C$25,E36,E39,1)</f>
-        <v>2.4287424518301544</v>
+        <v>0.51478524711709761</v>
       </c>
       <c r="E27" s="42">
         <f ca="1">f1_/(F4/(365*re*phib))</f>
-        <v>2064.3253884977394</v>
+        <v>786.67308636690643</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27:AI27" ca="1" si="22">qa2_/wa</f>
-        <v>5.1836776137316673E-3</v>
+        <v>3.2399712361597208E-4</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="22"/>
-        <v>6.6925479836067447E-2</v>
+        <v>4.1857194328681251E-3</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.4561556449804775</v>
+        <v>2.8644400272806663E-2</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.72937918016104042</v>
+        <v>4.5950195650188257E-2</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.70483321219775186</v>
+        <v>4.5670044492707111E-2</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.64917892832799584</v>
+        <v>4.0855212574697465E-2</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.59356213528993085</v>
+        <v>3.744159826835694E-2</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.54290325278110463</v>
+        <v>3.4313516084020924E-2</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.49822677407067106</v>
+        <v>3.1487793030415219E-2</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.45765359329429867</v>
+        <v>2.8905935263770159E-2</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.42031803922379007</v>
+        <v>2.6535668537671864E-2</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.38568136417181004</v>
+        <v>2.4354768694116409E-2</v>
       </c>
       <c r="W27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.35315243858899992</v>
+        <v>2.2342571895748359E-2</v>
       </c>
       <c r="X27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.32192421173590458</v>
+        <v>2.0476630275005837E-2</v>
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.2912054614161862</v>
+        <v>1.8735180569838604E-2</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.28451971439532059</v>
+        <v>1.8641914180822894E-2</v>
       </c>
       <c r="AA27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.27776415941204263</v>
+        <v>1.8545253263150586E-2</v>
       </c>
       <c r="AB27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.27314181230232587</v>
+        <v>1.8477645076903196E-2</v>
       </c>
       <c r="AC27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.27075680329742507</v>
+        <v>1.8442276449827506E-2</v>
       </c>
       <c r="AD27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.26970341770582895</v>
+        <v>1.8426547870372397E-2</v>
       </c>
       <c r="AE27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.26927041673892865</v>
+        <v>1.8420063259521877E-2</v>
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.26909779796490102</v>
+        <v>1.84174749800146E-2</v>
       </c>
       <c r="AG27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.26902990894203488</v>
+        <v>1.8416456546612489E-2</v>
       </c>
       <c r="AH27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.26900343566021506</v>
+        <v>1.8416059333791309E-2</v>
       </c>
       <c r="AI27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.26899323133651404</v>
+        <v>1.8415906213856883E-2</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -9043,118 +9043,118 @@
       </c>
       <c r="B28" s="28">
         <f ca="1">fbar*C28</f>
-        <v>3.3568266353080439E-2</v>
+        <v>0.22449991108727838</v>
       </c>
       <c r="C28" s="36">
         <f ca="1">CHOOSE(C$25,E37,E40,1)</f>
-        <v>0.35923410481843715</v>
+        <v>2.4025078849726471</v>
       </c>
       <c r="E28" s="42">
         <f ca="1">f2_/(F5/(365*re*phib))</f>
-        <v>818.71296036039905</v>
+        <v>9844.4268531156249</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K28">
         <f t="shared" ref="K28:AI28" ca="1" si="23">qa3_/wa</f>
-        <v>2.0907823058911527E-5</v>
+        <v>2.0908937742583306E-5</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="23"/>
-        <v>7.4803881507527599E-5</v>
+        <v>7.4855329510328962E-5</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="23"/>
-        <v>2.6546724699172327E-4</v>
+        <v>2.6672024610868169E-4</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="23"/>
-        <v>9.3596619308467909E-4</v>
+        <v>9.4306733067748639E-4</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="23"/>
-        <v>3.3377823669313981E-3</v>
+        <v>3.3617858186219627E-3</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="23"/>
-        <v>3.0509234292464122E-2</v>
+        <v>3.072092942314603E-2</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.47604132484489237</v>
+        <v>0.48045512297438414</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.8557953270169335</v>
+        <v>0.86543144673521955</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.90788206437649144</v>
+        <v>0.91804628821679846</v>
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.85335706250718768</v>
+        <v>0.86238445381903006</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.77621166641684158</v>
+        <v>0.7840651534499109</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.69950557302079874</v>
+        <v>0.70675113764924502</v>
       </c>
       <c r="W28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.62771730905345469</v>
+        <v>0.6354114574974955</v>
       </c>
       <c r="X28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.56048448523640637</v>
+        <v>0.57041170114935358</v>
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.49654603303097733</v>
+        <v>0.51113764375487203</v>
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.48514589944517589</v>
+        <v>0.50859312798971512</v>
       </c>
       <c r="AA28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.47362673352172091</v>
+        <v>0.5059560018879391</v>
       </c>
       <c r="AB28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.46574498532421088</v>
+        <v>0.50411149930157684</v>
       </c>
       <c r="AC28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.46167821145820132</v>
+        <v>0.50314656402172075</v>
       </c>
       <c r="AD28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.45988204172218278</v>
+        <v>0.50271745318329963</v>
       </c>
       <c r="AE28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.45914371452403435</v>
+        <v>0.502540538490727</v>
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.45884937537581499</v>
+        <v>0.50246992443479122</v>
       </c>
       <c r="AG28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.45873361509842669</v>
+        <v>0.50244213929295423</v>
       </c>
       <c r="AH28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.45868847445097788</v>
+        <v>0.50243130243847434</v>
       </c>
       <c r="AI28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.45867107465212498</v>
+        <v>0.50242712498407505</v>
       </c>
     </row>
     <row r="29" spans="1:39">
@@ -9163,15 +9163,15 @@
       </c>
       <c r="B29" s="28">
         <f ca="1">fbar*C29</f>
-        <v>1.9812315490241414E-2</v>
+        <v>7.7284593354569357E-3</v>
       </c>
       <c r="C29" s="36">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
-        <v>0.2120234433514081</v>
+        <v>8.2706867910112558E-2</v>
       </c>
       <c r="E29" s="42">
         <f ca="1">f3_/(F6/(365*re*phib))</f>
-        <v>635.48251459065807</v>
+        <v>445.68991458413717</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -9179,11 +9179,11 @@
         <v>95</v>
       </c>
       <c r="B30" s="28">
-        <v>9.3443985141795999E-2</v>
+        <v>9.3443985133813356E-2</v>
       </c>
       <c r="C30" s="36">
         <f ca="1">AVERAGE(C27:C29)</f>
-        <v>1</v>
+        <v>0.99999999999995248</v>
       </c>
       <c r="G30" t="s">
         <v>58</v>
@@ -9201,15 +9201,15 @@
       </c>
       <c r="B31" s="37">
         <f ca="1">SUM(B27:B29)</f>
-        <v>0.28033195542538802</v>
+        <v>0.28033195540141959</v>
       </c>
       <c r="G31">
         <f ca="1">SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-18.897639980162683</v>
+        <v>-91.166871747161679</v>
       </c>
       <c r="H31">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-5849.4517993054715</v>
+        <v>-9320.3692533409921</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>52</v>
@@ -9219,99 +9219,99 @@
       </c>
       <c r="L31">
         <f t="shared" ref="L31:AH31" ca="1" si="24">K31*sa-K$7*K18*K$10</f>
-        <v>-9.584403883770149E-8</v>
+        <v>-9.5854521007342442E-8</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="24"/>
-        <v>-2.9152848535999295E-7</v>
+        <v>-2.926465777830757E-7</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="24"/>
-        <v>-6.9964341125386474E-7</v>
+        <v>-7.0955264679146686E-7</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.5624610906191459E-6</v>
+        <v>-1.6060665105183791E-6</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="24"/>
-        <v>-3.4214075809606793E-6</v>
+        <v>-3.5667245775842865E-6</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="24"/>
-        <v>-9.1799427179589411E-6</v>
+        <v>-9.7207490656572514E-6</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.5934926969679513E-5</v>
+        <v>-6.0320948535207565E-5</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.7189264796138793E-4</v>
+        <v>-1.8958622446209358E-4</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.1047947863049477E-4</v>
+        <v>-4.629840913618913E-4</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="24"/>
-        <v>-9.0885828147845276E-4</v>
+        <v>-1.0474538406414729E-3</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.956717000432841E-3</v>
+        <v>-2.3034886671029577E-3</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.1420680163607804E-3</v>
+        <v>-4.9883044703610199E-3</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="24"/>
-        <v>-8.556952079553256E-3</v>
+        <v>-1.0604164355925948E-2</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.6793368464674562E-2</v>
+        <v>-2.1723743595374493E-2</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="24"/>
-        <v>-2.9750497530034517E-2</v>
+        <v>-4.1268742708613269E-2</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.479249947557716E-2</v>
+        <v>-6.9108959821064436E-2</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.5773666396525791E-2</v>
+        <v>-9.9071754264622613E-2</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.8942212351595455E-2</v>
+        <v>-0.12339229519912646</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.543634778179761E-2</v>
+        <v>-0.13853137237157853</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.8264734519488012E-2</v>
+        <v>-0.14490270276497283</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="24"/>
-        <v>-3.9916092690568152E-2</v>
+        <v>-0.14444728083144412</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="24"/>
-        <v>-3.1862435402336749E-2</v>
+        <v>-0.13922388715131914</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="24"/>
-        <v>-2.4793883210148818E-2</v>
+        <v>-0.13094424618894629</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-7.1762216969635362E-2</v>
+        <v>-0.98279244783944486</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -9322,11 +9322,11 @@
       <c r="C32" s="12"/>
       <c r="G32">
         <f ca="1">SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-106.63282272358626</v>
+        <v>-14.012244851998107</v>
       </c>
       <c r="H32">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-33006.426061680817</v>
+        <v>-1432.5301898155208</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -9336,99 +9336,99 @@
       </c>
       <c r="L32">
         <f t="shared" ref="L32:AH32" ca="1" si="25">K32*sa-K$7*K19*K$10</f>
-        <v>-4.80415495439389E-3</v>
+        <v>-3.0029252316537649E-4</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.7381483235370512E-2</v>
+        <v>-3.5939118954962804E-3</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.3578314679109012</v>
+        <v>-2.2636110047670608E-2</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.71720464780422244</v>
+        <v>-4.6052521290893919E-2</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.94032199296849139</v>
+        <v>-6.1895590196585984E-2</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.0449653884391541</v>
+        <v>-6.9840781279863318E-2</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.0650769813015901</v>
+        <v>-7.2637593123114338E-2</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.0340289603095156</v>
+        <v>-7.202612887588325E-2</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.9738255924156789</v>
+        <v>-6.924293531647456E-2</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.89792795093719424</v>
+        <v>-6.5137597944012499E-2</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.814051369218876</v>
+        <v>-6.0284696284785541E-2</v>
       </c>
       <c r="W32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.72551210826408707</v>
+        <v>-5.5053503440502562E-2</v>
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.63181450914153303</v>
+        <v>-4.9649078497390357E-2</v>
       </c>
       <c r="Y32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.53047176703138832</v>
+        <v>-4.4157302856965772E-2</v>
       </c>
       <c r="Z32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.4221946231312646</v>
+        <v>-3.8620925517400664E-2</v>
       </c>
       <c r="AA32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.31941264025808253</v>
+        <v>-3.3361379276372893E-2</v>
       </c>
       <c r="AB32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.23300930335560632</v>
+        <v>-2.8552586807427373E-2</v>
       </c>
       <c r="AC32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.16656745113891749</v>
+        <v>-2.4298366466095012E-2</v>
       </c>
       <c r="AD32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.11785572215887</v>
+        <v>-2.0606953443070383E-2</v>
       </c>
       <c r="AE32">
         <f t="shared" ca="1" si="25"/>
-        <v>-8.2938455028969654E-2</v>
+        <v>-1.7435924976653899E-2</v>
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.8175092370802518E-2</v>
+        <v>-1.4726704578623245E-2</v>
       </c>
       <c r="AG32">
         <f t="shared" ca="1" si="25"/>
-        <v>-4.0710728610766862E-2</v>
+        <v>-1.2419850364842215E-2</v>
       </c>
       <c r="AH32">
         <f t="shared" ca="1" si="25"/>
-        <v>-2.8436124271292801E-2</v>
+        <v>-1.046041467948597E-2</v>
       </c>
       <c r="AI32">
         <f ca="1">(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-6.492547905246189E-2</v>
+        <v>-5.3919853839181839E-2</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -9437,18 +9437,18 @@
       </c>
       <c r="B33" s="62">
         <f ca="1">SUMPRODUCT(lz,wa)</f>
-        <v>35.627798782057113</v>
+        <v>50.134661739705898</v>
       </c>
       <c r="C33" s="61"/>
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
       <c r="G33">
         <f ca="1">SUMPRODUCT(dlz3_,wa,ma)</f>
-        <v>-99.360983067179106</v>
+        <v>-229.65072475317234</v>
       </c>
       <c r="H33">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-30755.548406741735</v>
+        <v>-23478.150702956209</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -9458,99 +9458,99 @@
       </c>
       <c r="L33">
         <f t="shared" ref="L33:AH33" ca="1" si="26">K33*sa-K$7*K20*K$10</f>
-        <v>-1.9377057992183254E-5</v>
+        <v>-1.937917720180213E-5</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="26"/>
-        <v>-7.5993793541559004E-5</v>
+        <v>-7.6245785763749707E-5</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="26"/>
-        <v>-2.439446191823322E-4</v>
+        <v>-2.4718744012007299E-4</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="26"/>
-        <v>-7.3981842408150228E-4</v>
+        <v>-7.6012990313878339E-4</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="26"/>
-        <v>-2.2215789640507612E-3</v>
+        <v>-2.315589009448657E-3</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="26"/>
-        <v>-1.4128418029718932E-2</v>
+        <v>-1.4947340334873046E-2</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.17195770149220366</v>
+        <v>-0.18535959328789717</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.38174995111985288</v>
+        <v>-0.42100304376268377</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.52718221002615084</v>
+        <v>-0.59441387775291665</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.60240321551713572</v>
+        <v>-0.69377187084378111</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.62501097220045576</v>
+        <v>-0.73535344013380721</v>
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.6105872975812513</v>
+        <v>-0.73627436895230602</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.56815358142281214</v>
+        <v>-0.70918124440034735</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.50158723876097711</v>
+        <v>-0.66238708762234555</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.41534277915133166</v>
+        <v>-0.60147480650823459</v>
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.32581201646069485</v>
+        <v>-0.53715998630954875</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.24558194818886467</v>
+        <v>-0.47359377705779593</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.18076432663580716</v>
+        <v>-0.41388574491292218</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.1312755675885682</v>
+        <v>-0.35949058914141807</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="26"/>
-        <v>-9.4554718466184962E-2</v>
+        <v>-0.31079918603107903</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="26"/>
-        <v>-6.7719321886847844E-2</v>
+        <v>-0.2676894317213408</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="26"/>
-        <v>-4.8287710742369108E-2</v>
+        <v>-0.22981507764563514</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="26"/>
-        <v>-3.4306789750843315E-2</v>
+        <v>-0.19673885198190727</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-8.1775530586942424E-2</v>
+        <v>-1.0855513182232601</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -9572,123 +9572,123 @@
       </c>
       <c r="B35" s="1">
         <f ca="1">SUMPRODUCT(lz,wa,ma)</f>
-        <v>17.137594381347661</v>
+        <v>29.819861677916194</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="1">
         <f ca="1">SUM(dqa11_)</f>
-        <v>284.83969826210171</v>
+        <v>306.48613974661589</v>
       </c>
       <c r="H35" s="1">
         <f ca="1">SUM(dqa12_)</f>
-        <v>285.94780948056746</v>
+        <v>312.80173796235795</v>
       </c>
       <c r="I35" s="11">
         <f ca="1">SUM(dqa13_)</f>
-        <v>285.2798128097545</v>
+        <v>308.67553002585748</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>62</v>
       </c>
       <c r="K35">
         <f ca="1">flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>3.0221483824908324E-16</v>
+        <v>3.0222558240235937E-16</v>
       </c>
       <c r="L35">
         <f t="shared" ref="L35:AI35" ca="1" si="27">flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>1.2813127754390889E-14</v>
+        <v>1.2818695900834915E-14</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="27"/>
-        <v>2.563091401356478E-13</v>
+        <v>2.5705978910080663E-13</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="27"/>
-        <v>3.6960513795410133E-12</v>
+        <v>3.7014376436174682E-12</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="27"/>
-        <v>4.4939057219862022E-11</v>
+        <v>4.480339658196487E-11</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="27"/>
-        <v>9.2404779709251138E-10</v>
+        <v>9.1912054022721757E-10</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.1384644913775041E-7</v>
+        <v>1.1337971880367301E-7</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.542338820136374E-6</v>
+        <v>1.5373409045330936E-6</v>
       </c>
       <c r="S35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.3429916404115865E-5</v>
+        <v>1.3375498504696364E-5</v>
       </c>
       <c r="T35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.1049357955160826E-4</v>
+        <v>1.0997643592320589E-4</v>
       </c>
       <c r="U35">
         <f t="shared" ca="1" si="27"/>
-        <v>8.7402921769853749E-4</v>
+        <v>8.6999295683439957E-4</v>
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="27"/>
-        <v>6.6247495684162118E-3</v>
+        <v>6.6010102523953096E-3</v>
       </c>
       <c r="W35">
         <f t="shared" ca="1" si="27"/>
-        <v>4.7195308768593749E-2</v>
+        <v>4.7154816007425521E-2</v>
       </c>
       <c r="X35">
         <f t="shared" ca="1" si="27"/>
-        <v>0.30034150191526604</v>
+        <v>0.30190772178351477</v>
       </c>
       <c r="Y35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.540391710736666</v>
+        <v>1.5666509614129203</v>
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="27"/>
-        <v>5.5236783120597686</v>
+        <v>5.7199994109830401</v>
       </c>
       <c r="AA35">
         <f t="shared" ca="1" si="27"/>
-        <v>12.807674645328184</v>
+        <v>13.507976689319367</v>
       </c>
       <c r="AB35">
         <f t="shared" ca="1" si="27"/>
-        <v>20.581958644503825</v>
+        <v>21.987838275832317</v>
       </c>
       <c r="AC35">
         <f t="shared" ca="1" si="27"/>
-        <v>26.47254120795936</v>
+        <v>28.483506438532473</v>
       </c>
       <c r="AD35">
         <f t="shared" ca="1" si="27"/>
-        <v>30.4849584534016</v>
+        <v>32.928022246602652</v>
       </c>
       <c r="AE35">
         <f t="shared" ca="1" si="27"/>
-        <v>33.364715663747262</v>
+        <v>36.125627785657713</v>
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="27"/>
-        <v>35.654176756234023</v>
+        <v>38.67374291987263</v>
       </c>
       <c r="AG35">
         <f t="shared" ca="1" si="27"/>
-        <v>37.631706257875365</v>
+        <v>40.879425619374388</v>
       </c>
       <c r="AH35">
         <f t="shared" ca="1" si="27"/>
-        <v>39.424374023910381</v>
+        <v>42.88191238428282</v>
       </c>
       <c r="AI35">
         <f t="shared" ca="1" si="27"/>
-        <v>40.998361416221094</v>
+        <v>43.374778470115544</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -9697,130 +9697,130 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">SUMPRODUCT(lz,ta1_)</f>
-        <v>0.18356485561267399</v>
+        <v>0.42200510078160286</v>
       </c>
       <c r="C36" s="29">
         <f ca="1">B11/(phi_t1/SUM(B$36:B$38))</f>
-        <v>6.0191912250320616</v>
+        <v>1.5042208374414356</v>
       </c>
       <c r="E36" s="38">
         <f ca="1">C36/AVERAGE(C$36:C$38)</f>
-        <v>2.4287424518303875</v>
+        <v>0.49050028508216093</v>
       </c>
       <c r="G36" s="1">
         <f ca="1">SUM(dqa21_)</f>
-        <v>285.94780948056746</v>
+        <v>312.80173796235795</v>
       </c>
       <c r="H36" s="1">
         <f ca="1">SUM(dqa22_)</f>
-        <v>60.962622500182256</v>
+        <v>0.24831934111136295</v>
       </c>
       <c r="I36" s="11">
         <f ca="1">SUM(dqa23_)</f>
-        <v>282.60621554467218</v>
+        <v>312.59741406097459</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K36">
         <f t="shared" ref="K36:AI36" ca="1" si="28">flt2_*qa2_+lz*wa*flt2_^2/za*(sa-oa/za)</f>
-        <v>7.5931081269063352E-7</v>
+        <v>2.9661633101346866E-9</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="28"/>
-        <v>8.2276790021452626E-4</v>
+        <v>3.2153339336906492E-6</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="28"/>
-        <v>0.11860423633881813</v>
+        <v>4.6465813053602861E-4</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="28"/>
-        <v>0.67544750493471728</v>
+        <v>2.6443989023706626E-3</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.1535911966493575</v>
+        <v>4.7599787630782705E-3</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.5745604480993183</v>
+        <v>6.1178300509346813E-3</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.9458398676571083</v>
+        <v>7.569775819167384E-3</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.2548468522236123</v>
+        <v>8.7794533974447451E-3</v>
       </c>
       <c r="S36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.4936010150364285</v>
+        <v>9.701160024796901E-3</v>
       </c>
       <c r="T36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.6512169236084233</v>
+        <v>1.0307845392075124E-2</v>
       </c>
       <c r="U36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.7284304731274527</v>
+        <v>1.060871328175802E-2</v>
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.732419551420461</v>
+        <v>1.0635266099564694E-2</v>
       </c>
       <c r="W36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.6721897601588047</v>
+        <v>1.0429285419707706E-2</v>
       </c>
       <c r="X36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.5554828084898435</v>
+        <v>1.0034410671785704E-2</v>
       </c>
       <c r="Y36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.3893834605127791</v>
+        <v>9.4926389901126909E-3</v>
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.5973843912082657</v>
+        <v>1.050664037091772E-2</v>
       </c>
       <c r="AA36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.7908648454058897</v>
+        <v>1.1497908706720095E-2</v>
       </c>
       <c r="AB36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.9904314433431263</v>
+        <v>1.2479285432327188E-2</v>
       </c>
       <c r="AC36">
         <f t="shared" ca="1" si="28"/>
-        <v>3.2000939318286914</v>
+        <v>1.3449947215088548E-2</v>
       </c>
       <c r="AD36">
         <f t="shared" ca="1" si="28"/>
-        <v>3.4127074463083504</v>
+        <v>1.4399225532187903E-2</v>
       </c>
       <c r="AE36">
         <f t="shared" ca="1" si="28"/>
-        <v>3.6216232747721175</v>
+        <v>1.5317619681577258E-2</v>
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="28"/>
-        <v>3.8232625581710948</v>
+        <v>1.6199438128429691E-2</v>
       </c>
       <c r="AG36">
         <f t="shared" ca="1" si="28"/>
-        <v>4.0160934535778905</v>
+        <v>1.7041770802256339E-2</v>
       </c>
       <c r="AH36">
         <f t="shared" ca="1" si="28"/>
-        <v>4.1995926805038932</v>
+        <v>1.7843356142794354E-2</v>
       </c>
       <c r="AI36">
         <f t="shared" ca="1" si="28"/>
-        <v>4.3641308495947957</v>
+        <v>1.8035515855630679E-2</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -9829,130 +9829,130 @@
       </c>
       <c r="B37" s="1">
         <f ca="1">SUMPRODUCT(lz,ta2_)</f>
-        <v>2.4118802013115204</v>
+        <v>0.16559183820853463</v>
       </c>
       <c r="C37" s="29">
         <f ca="1">B12/(phi_t2/SUM(B$36:B$38))</f>
-        <v>0.89029562184483813</v>
+        <v>7.4499381295219136</v>
       </c>
       <c r="E37" s="38">
         <f ca="1">C37/AVERAGE(C$36:C$38)</f>
-        <v>0.35923410481808943</v>
+        <v>2.4292954102343058</v>
       </c>
       <c r="G37" s="1">
         <f ca="1">SUM(dqa31_)</f>
-        <v>285.2798128097545</v>
+        <v>308.67553002585748</v>
       </c>
       <c r="H37" s="1">
         <f ca="1">SUM(dqa32_)</f>
-        <v>282.60621554467218</v>
+        <v>312.59741406097459</v>
       </c>
       <c r="I37" s="1">
         <f ca="1">SUM(dqa33_)</f>
-        <v>167.59468337947396</v>
+        <v>175.00590618220627</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K37">
         <f t="shared" ref="K37:AI37" ca="1" si="29">flt3_*qa3_+lz*wa*flt3_^2/za*(sa-oa/za)</f>
-        <v>1.2352681643259278E-11</v>
+        <v>1.2353120798086065E-11</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="29"/>
-        <v>1.0278804821608936E-9</v>
+        <v>1.0283271638112554E-9</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="29"/>
-        <v>4.0169459326811124E-8</v>
+        <v>4.028710305601526E-8</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="29"/>
-        <v>1.1122571385390235E-6</v>
+        <v>1.1138780333951539E-6</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="29"/>
-        <v>2.5869929485459933E-5</v>
+        <v>2.5791834141376906E-5</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="29"/>
-        <v>3.4777080840345817E-3</v>
+        <v>3.4591640638156444E-3</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="29"/>
-        <v>1.2515956084271003</v>
+        <v>1.246464507361803</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="29"/>
-        <v>5.6028885559619672</v>
+        <v>5.5847325167235784</v>
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="29"/>
-        <v>8.2800262673079423</v>
+        <v>8.2464756759977007</v>
       </c>
       <c r="T37">
         <f t="shared" ca="1" si="29"/>
-        <v>9.2179231774664707</v>
+        <v>9.1747804875683432</v>
       </c>
       <c r="U37">
         <f t="shared" ca="1" si="29"/>
-        <v>9.3050168565312692</v>
+        <v>9.2620463532372774</v>
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="29"/>
-        <v>8.9881939009363627</v>
+        <v>8.9559853512745384</v>
       </c>
       <c r="W37">
         <f t="shared" ca="1" si="29"/>
-        <v>8.4425003068276503</v>
+        <v>8.4352567871324382</v>
       </c>
       <c r="X37">
         <f t="shared" ca="1" si="29"/>
-        <v>7.7462743181887221</v>
+        <v>7.7866695638163996</v>
       </c>
       <c r="Y37">
         <f t="shared" ca="1" si="29"/>
-        <v>6.947136865104409</v>
+        <v>7.0655655784969147</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="29"/>
-        <v>7.5518999588024514</v>
+        <v>7.8203075696572997</v>
       </c>
       <c r="AA37">
         <f t="shared" ca="1" si="29"/>
-        <v>8.1144447400176833</v>
+        <v>8.5581288899239016</v>
       </c>
       <c r="AB37">
         <f t="shared" ca="1" si="29"/>
-        <v>8.6946849955000385</v>
+        <v>9.2885876821743789</v>
       </c>
       <c r="AC37">
         <f t="shared" ca="1" si="29"/>
-        <v>9.304279071569777</v>
+        <v>10.011071123057841</v>
       </c>
       <c r="AD37">
         <f t="shared" ca="1" si="29"/>
-        <v>9.9224532612178713</v>
+        <v>10.71763841258573</v>
       </c>
       <c r="AE37">
         <f t="shared" ca="1" si="29"/>
-        <v>10.529876421882502</v>
+        <v>11.401217983680462</v>
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="29"/>
-        <v>11.116143014208227</v>
+        <v>12.057573510426369</v>
       </c>
       <c r="AG37">
         <f t="shared" ca="1" si="29"/>
-        <v>11.676799202028388</v>
+        <v>12.684538967769884</v>
       </c>
       <c r="AH37">
         <f t="shared" ca="1" si="29"/>
-        <v>12.210323546346993</v>
+        <v>13.281175350574731</v>
       </c>
       <c r="AI37">
         <f t="shared" ca="1" si="29"/>
-        <v>12.688718579667793</v>
+        <v>13.424203759640363</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -9961,15 +9961,15 @@
       </c>
       <c r="B38" s="1">
         <f ca="1">SUMPRODUCT(lz,ta3_)</f>
-        <v>1.3839819609943007</v>
+        <v>1.6986448950274127</v>
       </c>
       <c r="C38" s="29">
         <f ca="1">B13/(phi_t3/SUM(B$36:B$38))</f>
-        <v>0.52546108738733199</v>
+        <v>0.2459631319830532</v>
       </c>
       <c r="E38" s="38">
         <f ca="1">C38/AVERAGE(C$36:C$38)</f>
-        <v>0.21202344335152312</v>
+        <v>8.0204304683484856E-2</v>
       </c>
       <c r="G38" t="s">
         <v>69</v>
@@ -9979,103 +9979,103 @@
       </c>
       <c r="K38">
         <f t="shared" ref="K38:AI38" ca="1" si="30">flt1_*qa1_+lz*wa*flt2_*flt1_/za*(sa-oa/za)</f>
-        <v>-1.440826278379541E-11</v>
+        <v>-9.0002840213242188E-13</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="30"/>
-        <v>-2.3448687860228951E-9</v>
+        <v>-1.4668577992617509E-10</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="30"/>
-        <v>-9.7728453627042664E-8</v>
+        <v>-6.1560243246572674E-9</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="30"/>
-        <v>-6.8859441078765002E-7</v>
+        <v>-4.3981334541089884E-8</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="30"/>
-        <v>-2.4565972520882376E-6</v>
+        <v>-1.6384912505912439E-7</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.0348506884546736E-5</v>
+        <v>-6.7941458131005616E-7</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.0249845876162204E-4</v>
+        <v>-6.727685376862445E-6</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="30"/>
-        <v>-3.2482638581975549E-4</v>
+        <v>-2.0501979926125069E-5</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="30"/>
-        <v>-7.9948088006860879E-4</v>
+        <v>-4.1517668029854269E-5</v>
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.8267587358585362E-3</v>
+        <v>-1.5093777538940012E-5</v>
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="30"/>
-        <v>-3.5773920487195397E-3</v>
+        <v>6.3369187644230808E-4</v>
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="30"/>
-        <v>-3.0994595721157989E-3</v>
+        <v>6.4391027681759538E-3</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="30"/>
-        <v>2.7982737353943073E-2</v>
+        <v>4.9061621512665132E-2</v>
       </c>
       <c r="X38">
         <f t="shared" ca="1" si="30"/>
-        <v>0.27097337332184029</v>
+        <v>0.3177259317141522</v>
       </c>
       <c r="Y38">
         <f t="shared" ca="1" si="30"/>
-        <v>1.5248589445071334</v>
+        <v>1.644249457394088</v>
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="30"/>
-        <v>5.5792987645158876</v>
+        <v>5.9651972172003065</v>
       </c>
       <c r="AA38">
         <f t="shared" ca="1" si="30"/>
-        <v>12.970293675153716</v>
+        <v>13.993140319626256</v>
       </c>
       <c r="AB38">
         <f t="shared" ca="1" si="30"/>
-        <v>20.797058362816927</v>
+        <v>22.637796398394656</v>
       </c>
       <c r="AC38">
         <f t="shared" ca="1" si="30"/>
-        <v>26.673039881632043</v>
+        <v>29.170050175198938</v>
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="30"/>
-        <v>30.644408114315766</v>
+        <v>33.572636255453972</v>
       </c>
       <c r="AE38">
         <f t="shared" ca="1" si="30"/>
-        <v>33.483020461135702</v>
+        <v>36.699292071171847</v>
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="30"/>
-        <v>35.739288623760274</v>
+        <v>39.171820970111646</v>
       </c>
       <c r="AG38">
         <f t="shared" ca="1" si="30"/>
-        <v>37.692034615972624</v>
+        <v>41.306520441796714</v>
       </c>
       <c r="AH38">
         <f t="shared" ca="1" si="30"/>
-        <v>39.466784085694279</v>
+        <v>43.245471341764642</v>
       </c>
       <c r="AI38">
         <f t="shared" ca="1" si="30"/>
-        <v>41.088511850254932</v>
+        <v>45.021787701022497</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -10084,131 +10084,131 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>6.0263460727408242</v>
+        <v>15.81386145455955</v>
       </c>
       <c r="C39" s="23">
         <f ca="1">B4/(phi_q1/SUM(B$39:B$41))</f>
-        <v>4.0867897226044052</v>
+        <v>1.7174388525917268</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="39">
         <f ca="1">C39/AVERAGE(C$39:C$41)</f>
-        <v>2.4287424518301544</v>
+        <v>0.51478524711729223</v>
       </c>
       <c r="G39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
-        <v>1416566.9922551173</v>
+        <v>677805.76353139058</v>
       </c>
       <c r="H39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
-        <v>1384494.1451935219</v>
+        <v>690615.43341422931</v>
       </c>
       <c r="I39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
-        <v>1384516.6789498595</v>
+        <v>669396.45160988299</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K39">
         <f t="shared" ref="K39:AI39" ca="1" si="31">flt1_*qa1_+lz*wa*flt3_*flt1_/za*(sa-oa/za)</f>
-        <v>-5.7526928833301056E-14</v>
+        <v>-5.7531081136250096E-14</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="31"/>
-        <v>-2.5988623527893155E-12</v>
+        <v>-2.60156868722539E-12</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="31"/>
-        <v>-5.6474931242733524E-11</v>
+        <v>-5.6923250628803894E-11</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="31"/>
-        <v>-8.7832964124522958E-10</v>
+        <v>-8.9742167994771342E-10</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.1573385292153361E-8</v>
+        <v>-1.2004746696838116E-8</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="31"/>
-        <v>-4.852255859708503E-7</v>
+        <v>-5.105899104699728E-7</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="31"/>
-        <v>-8.2177083540658409E-5</v>
+        <v>-8.7986478554431916E-5</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="31"/>
-        <v>-5.1307855298240068E-4</v>
+        <v>-5.6148162707834895E-4</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.4694325056408455E-3</v>
+        <v>-1.6466709232232381E-3</v>
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="31"/>
-        <v>-3.5126592779359572E-3</v>
+        <v>-4.036798104381057E-3</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="31"/>
-        <v>-7.415209555818157E-3</v>
+        <v>-8.8191351691315114E-3</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.1421710650004642E-2</v>
+        <v>-1.4942000423266554E-2</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="31"/>
-        <v>1.075621320868167E-2</v>
+        <v>2.6093176172300864E-3</v>
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="31"/>
-        <v>0.23785728378204213</v>
+        <v>0.22300847459455941</v>
       </c>
       <c r="Y39">
         <f t="shared" ca="1" si="31"/>
-        <v>1.4692834842979741</v>
+        <v>1.47209546561314</v>
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="31"/>
-        <v>5.4937207007360351</v>
+        <v>5.6766369224035742</v>
       </c>
       <c r="AA39">
         <f t="shared" ca="1" si="31"/>
-        <v>12.869902919712667</v>
+        <v>13.609941644827767</v>
       </c>
       <c r="AB39">
         <f t="shared" ca="1" si="31"/>
-        <v>20.703631814743844</v>
+        <v>22.220905028730353</v>
       </c>
       <c r="AC39">
         <f t="shared" ca="1" si="31"/>
-        <v>26.597684954715504</v>
+        <v>28.769243028355913</v>
       </c>
       <c r="AD39">
         <f t="shared" ca="1" si="31"/>
-        <v>30.587873670881141</v>
+        <v>33.210787652252833</v>
       </c>
       <c r="AE39">
         <f t="shared" ca="1" si="31"/>
-        <v>33.442031830645504</v>
+        <v>36.382303053162779</v>
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="31"/>
-        <v>35.71006656172586</v>
+        <v>38.898305257332638</v>
       </c>
       <c r="AG39">
         <f t="shared" ca="1" si="31"/>
-        <v>37.671395012096667</v>
+        <v>41.072555578705163</v>
       </c>
       <c r="AH39">
         <f t="shared" ca="1" si="31"/>
-        <v>39.452294725014838</v>
+        <v>43.046500699124024</v>
       </c>
       <c r="AI39">
         <f t="shared" ca="1" si="31"/>
-        <v>41.057728403556119</v>
+        <v>44.120732499406344</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -10217,131 +10217,131 @@
       </c>
       <c r="B40" s="1">
         <f ca="1">SUMPRODUCT(lz,qa2_)</f>
-        <v>15.194994827437784</v>
+        <v>1.2636935987687477</v>
       </c>
       <c r="C40" s="23">
         <f ca="1">B5/(phi_q2/SUM(B$39:B$41))</f>
-        <v>0.6044750634118079</v>
+        <v>8.0153042621459072</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="39">
         <f ca="1">C40/AVERAGE(C$39:C$41)</f>
-        <v>0.35923410481843715</v>
+        <v>2.4025078849724992</v>
       </c>
       <c r="G40" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
-        <v>1384494.1451935219</v>
+        <v>690615.43341422931</v>
       </c>
       <c r="H40" s="1">
         <f ca="1">re*phi_q2+f2_*phi_q2*$H32+f2_*re*H36</f>
-        <v>330711.54090315552</v>
+        <v>29167.22385309944</v>
       </c>
       <c r="I40" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
-        <v>495547.56107126549</v>
+        <v>674709.45088461763</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>65</v>
       </c>
       <c r="K40">
         <f t="shared" ref="K40:AI40" ca="1" si="32">flt1_*qa1_+lz*wa*flt1_*flt2_/za*(sa-oa/za)</f>
-        <v>-1.4408262783795413E-11</v>
+        <v>-9.0002840213242188E-13</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="32"/>
-        <v>-2.3448687860228955E-9</v>
+        <v>-1.4668577992617509E-10</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="32"/>
-        <v>-9.7728453627042664E-8</v>
+        <v>-6.1560243246572674E-9</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="32"/>
-        <v>-6.8859441078764991E-7</v>
+        <v>-4.3981334541089884E-8</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="32"/>
-        <v>-2.4565972520882376E-6</v>
+        <v>-1.6384912505912436E-7</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.0348506884546736E-5</v>
+        <v>-6.7941458131005605E-7</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.0249845876162204E-4</v>
+        <v>-6.7276853768624459E-6</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.2482638581975549E-4</v>
+        <v>-2.0501979926125076E-5</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="32"/>
-        <v>-7.9948088006860857E-4</v>
+        <v>-4.1517668029854269E-5</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.8267587358585362E-3</v>
+        <v>-1.5093777538940012E-5</v>
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.5773920487195397E-3</v>
+        <v>6.3369187644230808E-4</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.0994595721157989E-3</v>
+        <v>6.4391027681759538E-3</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="32"/>
-        <v>2.798273735394307E-2</v>
+        <v>4.9061621512665132E-2</v>
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="32"/>
-        <v>0.27097337332184029</v>
+        <v>0.3177259317141522</v>
       </c>
       <c r="Y40">
         <f t="shared" ca="1" si="32"/>
-        <v>1.5248589445071334</v>
+        <v>1.644249457394088</v>
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="32"/>
-        <v>5.5792987645158876</v>
+        <v>5.9651972172003065</v>
       </c>
       <c r="AA40">
         <f t="shared" ca="1" si="32"/>
-        <v>12.970293675153716</v>
+        <v>13.993140319626256</v>
       </c>
       <c r="AB40">
         <f t="shared" ca="1" si="32"/>
-        <v>20.797058362816927</v>
+        <v>22.637796398394656</v>
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="32"/>
-        <v>26.673039881632043</v>
+        <v>29.170050175198938</v>
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="32"/>
-        <v>30.644408114315766</v>
+        <v>33.572636255453972</v>
       </c>
       <c r="AE40">
         <f t="shared" ca="1" si="32"/>
-        <v>33.483020461135702</v>
+        <v>36.699292071171847</v>
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="32"/>
-        <v>35.739288623760274</v>
+        <v>39.171820970111646</v>
       </c>
       <c r="AG40">
         <f t="shared" ca="1" si="32"/>
-        <v>37.692034615972624</v>
+        <v>41.306520441796714</v>
       </c>
       <c r="AH40">
         <f t="shared" ca="1" si="32"/>
-        <v>39.466784085694279</v>
+        <v>43.245471341764642</v>
       </c>
       <c r="AI40">
         <f t="shared" ca="1" si="32"/>
-        <v>41.088511850254932</v>
+        <v>45.021787701022497</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -10350,131 +10350,131 @@
       </c>
       <c r="B41" s="1">
         <f ca="1">SUMPRODUCT(lz,qa3_)</f>
-        <v>19.576210064325519</v>
+        <v>27.912543655917204</v>
       </c>
       <c r="C41" s="23">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
-        <v>0.35676702920344361</v>
+        <v>0.27592863066764367</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="39">
         <f ca="1">C41/AVERAGE(C$39:C$41)</f>
-        <v>0.2120234433514081</v>
+        <v>8.2706867910114668E-2</v>
       </c>
       <c r="G41" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
-        <v>1384516.6789498595</v>
+        <v>669396.45160988299</v>
       </c>
       <c r="H41" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>495547.56107126537</v>
+        <v>674709.45088452648</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>324901.63724451372</v>
+        <v>624416.10024712328</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
       </c>
       <c r="K41">
         <f t="shared" ref="K41:AI41" ca="1" si="33">flt1_*qa1_+lz*wa*flt3_*flt2_/za*(sa-oa/za)</f>
-        <v>-2.9130775013421097E-9</v>
+        <v>-1.8207989780246005E-10</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="33"/>
-        <v>-6.6415026409402852E-7</v>
+        <v>-4.1552474194623163E-8</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="33"/>
-        <v>-3.8689110604780165E-5</v>
+        <v>-2.4372189801012687E-6</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="33"/>
-        <v>-3.7774648788630258E-4</v>
+        <v>-2.4129854591529404E-5</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.8639327830387267E-3</v>
+        <v>-1.2436278341649372E-4</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="33"/>
-        <v>-2.0078270950240399E-2</v>
+        <v>-1.3203507218275043E-3</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.34031147956282348</v>
+        <v>-2.2770751483523734E-2</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.62256212919383347</v>
+        <v>-4.2567769498585796E-2</v>
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.63976539031778734</v>
+        <v>-4.4748677271946015E-2</v>
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.56305661555430897</v>
+        <v>-4.016130367149575E-2</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.46671294378547151</v>
+        <v>-3.3200685313326164E-2</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.36960537436998031</v>
+        <v>-2.0905736398426803E-2</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.24620739477040493</v>
+        <v>2.8112391191604309E-2</v>
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="33"/>
-        <v>8.8710107575184077E-2</v>
+        <v>0.30334186513718953</v>
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="33"/>
-        <v>1.4362969911696903</v>
+        <v>1.6368891808228063</v>
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="33"/>
-        <v>5.5587558950799911</v>
+        <v>5.9633387789307664</v>
       </c>
       <c r="AA41">
         <f t="shared" ca="1" si="33"/>
-        <v>12.999342061846249</v>
+        <v>13.996115170575116</v>
       </c>
       <c r="AB41">
         <f t="shared" ca="1" si="33"/>
-        <v>20.843437044384206</v>
+        <v>22.643348838950406</v>
       </c>
       <c r="AC41">
         <f t="shared" ca="1" si="33"/>
-        <v>26.71655024398326</v>
+        <v>29.17625928616442</v>
       </c>
       <c r="AD41">
         <f t="shared" ca="1" si="33"/>
-        <v>30.678842022920918</v>
+        <v>33.578549325440257</v>
       </c>
       <c r="AE41">
         <f t="shared" ca="1" si="33"/>
-        <v>33.508493352127559</v>
+        <v>36.704577399400819</v>
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="33"/>
-        <v>35.757590451082059</v>
+        <v>39.176416957125994</v>
       </c>
       <c r="AG41">
         <f t="shared" ca="1" si="33"/>
-        <v>37.705000209945375</v>
+        <v>41.310463694562095</v>
       </c>
       <c r="AH41">
         <f t="shared" ca="1" si="33"/>
-        <v>39.475896794680672</v>
+        <v>43.248828719437896</v>
       </c>
       <c r="AI41">
         <f t="shared" ca="1" si="33"/>
-        <v>41.107881003826755</v>
+        <v>45.036998699175413</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -10483,110 +10483,110 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">SUMPRODUCT(lz/SUM(lz),len,ta1_)</f>
-        <v>4.3875162197831648</v>
+        <v>9.7079369818317716</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
       </c>
       <c r="K42">
         <f t="shared" ref="K42:AI42" ca="1" si="34">flt1_*qa1_+lz*wa*flt1_*flt3_/za*(sa-oa/za)</f>
-        <v>-5.7526928833301056E-14</v>
+        <v>-5.7531081136250096E-14</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="34"/>
-        <v>-2.5988623527893167E-12</v>
+        <v>-2.60156868722539E-12</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="34"/>
-        <v>-5.6474931242733524E-11</v>
+        <v>-5.6923250628803888E-11</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="34"/>
-        <v>-8.7832964124522958E-10</v>
+        <v>-8.9742167994771342E-10</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.1573385292153361E-8</v>
+        <v>-1.2004746696838116E-8</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="34"/>
-        <v>-4.852255859708503E-7</v>
+        <v>-5.105899104699728E-7</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="34"/>
-        <v>-8.2177083540658409E-5</v>
+        <v>-8.7986478554431916E-5</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="34"/>
-        <v>-5.1307855298240058E-4</v>
+        <v>-5.6148162707834917E-4</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.4694325056408455E-3</v>
+        <v>-1.6466709232232379E-3</v>
       </c>
       <c r="T42">
         <f t="shared" ca="1" si="34"/>
-        <v>-3.5126592779359572E-3</v>
+        <v>-4.036798104381057E-3</v>
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="34"/>
-        <v>-7.415209555818157E-3</v>
+        <v>-8.8191351691315131E-3</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.1421710650004642E-2</v>
+        <v>-1.4942000423266554E-2</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="34"/>
-        <v>1.075621320868167E-2</v>
+        <v>2.6093176172300933E-3</v>
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="34"/>
-        <v>0.23785728378204213</v>
+        <v>0.22300847459455941</v>
       </c>
       <c r="Y42">
         <f t="shared" ca="1" si="34"/>
-        <v>1.4692834842979741</v>
+        <v>1.47209546561314</v>
       </c>
       <c r="Z42">
         <f t="shared" ca="1" si="34"/>
-        <v>5.4937207007360351</v>
+        <v>5.6766369224035742</v>
       </c>
       <c r="AA42">
         <f t="shared" ca="1" si="34"/>
-        <v>12.869902919712667</v>
+        <v>13.609941644827767</v>
       </c>
       <c r="AB42">
         <f t="shared" ca="1" si="34"/>
-        <v>20.703631814743844</v>
+        <v>22.220905028730353</v>
       </c>
       <c r="AC42">
         <f t="shared" ca="1" si="34"/>
-        <v>26.597684954715504</v>
+        <v>28.769243028355913</v>
       </c>
       <c r="AD42">
         <f t="shared" ca="1" si="34"/>
-        <v>30.587873670881141</v>
+        <v>33.210787652252833</v>
       </c>
       <c r="AE42">
         <f t="shared" ca="1" si="34"/>
-        <v>33.442031830645504</v>
+        <v>36.382303053162779</v>
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="34"/>
-        <v>35.71006656172586</v>
+        <v>38.898305257332638</v>
       </c>
       <c r="AG42">
         <f t="shared" ca="1" si="34"/>
-        <v>37.671395012096667</v>
+        <v>41.072555578705163</v>
       </c>
       <c r="AH42">
         <f t="shared" ca="1" si="34"/>
-        <v>39.452294725014838</v>
+        <v>43.046500699124024</v>
       </c>
       <c r="AI42">
         <f t="shared" ca="1" si="34"/>
-        <v>41.057728403556119</v>
+        <v>44.120732499406344</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -10597,103 +10597,103 @@
       </c>
       <c r="K43">
         <f t="shared" ref="K43:AI43" ca="1" si="35">flt1_*qa1_+lz*wa*flt2_*flt3_/za*(sa-oa/za)</f>
-        <v>-2.9130775013421093E-9</v>
+        <v>-1.8207989780246005E-10</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="35"/>
-        <v>-6.6415026409402863E-7</v>
+        <v>-4.1552474194623163E-8</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="35"/>
-        <v>-3.8689110604780165E-5</v>
+        <v>-2.4372189801012683E-6</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="35"/>
-        <v>-3.7774648788630258E-4</v>
+        <v>-2.4129854591529408E-5</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="35"/>
-        <v>-1.8639327830387267E-3</v>
+        <v>-1.2436278341649372E-4</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="35"/>
-        <v>-2.0078270950240399E-2</v>
+        <v>-1.3203507218275045E-3</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.34031147956282348</v>
+        <v>-2.2770751483523734E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.62256212919383347</v>
+        <v>-4.2567769498585796E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.63976539031778734</v>
+        <v>-4.4748677271946008E-2</v>
       </c>
       <c r="T43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.56305661555430897</v>
+        <v>-4.016130367149575E-2</v>
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.46671294378547151</v>
+        <v>-3.3200685313326164E-2</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.36960537436998042</v>
+        <v>-2.0905736398426803E-2</v>
       </c>
       <c r="W43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.24620739477040493</v>
+        <v>2.8112391191604309E-2</v>
       </c>
       <c r="X43">
         <f t="shared" ca="1" si="35"/>
-        <v>8.8710107575184077E-2</v>
+        <v>0.30334186513718953</v>
       </c>
       <c r="Y43">
         <f t="shared" ca="1" si="35"/>
-        <v>1.4362969911696903</v>
+        <v>1.6368891808228063</v>
       </c>
       <c r="Z43">
         <f t="shared" ca="1" si="35"/>
-        <v>5.5587558950799911</v>
+        <v>5.9633387789307664</v>
       </c>
       <c r="AA43">
         <f t="shared" ca="1" si="35"/>
-        <v>12.999342061846249</v>
+        <v>13.996115170575116</v>
       </c>
       <c r="AB43">
         <f t="shared" ca="1" si="35"/>
-        <v>20.843437044384206</v>
+        <v>22.643348838950406</v>
       </c>
       <c r="AC43">
         <f t="shared" ca="1" si="35"/>
-        <v>26.71655024398326</v>
+        <v>29.17625928616442</v>
       </c>
       <c r="AD43">
         <f t="shared" ca="1" si="35"/>
-        <v>30.678842022920918</v>
+        <v>33.578549325440257</v>
       </c>
       <c r="AE43">
         <f t="shared" ca="1" si="35"/>
-        <v>33.508493352127559</v>
+        <v>36.704577399400819</v>
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="35"/>
-        <v>35.757590451082059</v>
+        <v>39.176416957125994</v>
       </c>
       <c r="AG43">
         <f t="shared" ca="1" si="35"/>
-        <v>37.705000209945375</v>
+        <v>41.310463694562095</v>
       </c>
       <c r="AH43">
         <f t="shared" ca="1" si="35"/>
-        <v>39.475896794680672</v>
+        <v>43.248828719437896</v>
       </c>
       <c r="AI43">
         <f t="shared" ca="1" si="35"/>
-        <v>41.107881003826755</v>
+        <v>45.036998699175413</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="B46" s="1">
         <f ca="1">phif/phie</f>
-        <v>0.39999999998752617</v>
+        <v>0.69601044378648225</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>94</v>
@@ -10724,103 +10724,103 @@
       </c>
       <c r="K46">
         <f t="shared" ref="K46:AI46" ca="1" si="36">lz*qa1_</f>
-        <v>5.2944610958570922E-9</v>
+        <v>5.294743365767154E-9</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="36"/>
-        <v>6.6688974743061672E-8</v>
+        <v>6.6742140127238544E-8</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="36"/>
-        <v>4.0596154195064387E-7</v>
+        <v>4.0849815322602371E-7</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.7832379287948259E-6</v>
+        <v>1.8170018380407673E-6</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="36"/>
-        <v>6.5852293673809696E-6</v>
+        <v>6.8124240419054135E-6</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="36"/>
-        <v>3.0135262701015023E-5</v>
+        <v>3.1630100591328677E-5</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="36"/>
-        <v>3.2605948211431241E-4</v>
+        <v>3.4794117752210709E-4</v>
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.1321693924526346E-3</v>
+        <v>1.2337543968178001E-3</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="36"/>
-        <v>3.0777794310950343E-3</v>
+        <v>3.4320094097656153E-3</v>
       </c>
       <c r="T46">
         <f t="shared" ca="1" si="36"/>
-        <v>8.0238565746071563E-3</v>
+        <v>9.1494086260467695E-3</v>
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="36"/>
-        <v>2.032120323137402E-2</v>
+        <v>2.3668802242066678E-2</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="36"/>
-        <v>4.997487986183248E-2</v>
+        <v>5.9441071729822909E-2</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.11807829814840098</v>
+        <v>0.14372673319774884</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.2601521424293971</v>
+        <v>0.32645990909889661</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.50260035243535894</v>
+        <v>0.66146961455774678</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.7804735632203158</v>
+        <v>1.1106957311130765</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.92370334544791188</v>
+        <v>1.4776885478456014</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.8650275578738067</v>
+        <v>1.6097031069402403</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.70001205098637143</v>
+        <v>1.5486552364606143</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.52595330454823808</v>
+        <v>1.3985510040965192</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.38155912998423736</v>
+        <v>1.2253217742501912</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.27209144906829674</v>
+        <v>1.0573286191049505</v>
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.19219715413414593</v>
+        <v>0.90445489870274309</v>
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.13493077945837775</v>
+        <v>0.76918112803517169</v>
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.28667201535751435</v>
+        <v>3.4833114235124985</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -10829,125 +10829,125 @@
       </c>
       <c r="B47" s="11">
         <f ca="1">MAX(0,Ro*(reck-1/spr)/(reck-1))</f>
-        <v>20157.703453229467</v>
+        <v>22413.753517851972</v>
       </c>
       <c r="F47" t="s">
         <v>84</v>
       </c>
       <c r="G47" s="31">
         <f ca="1">G39/G53</f>
-        <v>1</v>
+        <v>1.0000000000001918</v>
       </c>
       <c r="H47" s="31">
         <f ca="1">H53/H39</f>
-        <v>0.49437000276321835</v>
+        <v>0.20359349447390898</v>
       </c>
       <c r="I47" s="31">
         <f ca="1">I53/I39</f>
-        <v>0.49000026732177521</v>
+        <v>0.97186573190060832</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
       </c>
       <c r="K47">
         <f t="shared" ref="K47:AI47" ca="1" si="37">lz*qa2_</f>
-        <v>2.6538334374221097E-4</v>
+        <v>1.6587343279275945E-5</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.6899160566200725E-2</v>
+        <v>1.0570395765710718E-3</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.27615502319987068</v>
+        <v>1.7367599450806452E-2</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.76231785833370413</v>
+        <v>4.8566144985542611E-2</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.0550787942138817</v>
+        <v>7.0218041286705696E-2</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.2439629132432797</v>
+        <v>8.1604299562904437E-2</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.3480023157252334</v>
+        <v>8.9904131524292386E-2</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.3689262140407377</v>
+        <v>9.3234653464331421E-2</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.3262161775778782</v>
+        <v>9.2428374554021975E-2</v>
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.2429030884502261</v>
+        <v>8.8578261378035178E-2</v>
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.1353843130428096</v>
+        <v>8.2651315193366562E-2</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.0149408160376083</v>
+        <v>7.5449368280674084E-2</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.88849362677228705</v>
+        <v>6.7593012669401847E-2</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.75885048235818719</v>
+        <v>5.9516677718631679E-2</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.62596511246331465</v>
+        <v>5.1489331904654212E-2</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.53519509062798654</v>
+        <v>4.7602421358573704E-2</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.4311881091539595</v>
+        <v>4.3111902091847981E-2</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.32972624592924443</v>
+        <v>3.8348587700975649E-2</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.24338234053345043</v>
+        <v>3.3652575669085111E-2</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.17597619149950272</v>
+        <v>2.9245904206674105E-2</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.12570998427570509</v>
+        <v>2.5231210727731518E-2</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="37"/>
-        <v>8.9099804029746529E-2</v>
+        <v>2.1639731124394355E-2</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="37"/>
-        <v>6.2787313739461267E-2</v>
+        <v>1.8466810083892463E-2</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="37"/>
-        <v>4.4038468873394396E-2</v>
+        <v>1.5690248414335424E-2</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="37"/>
-        <v>9.3529999406370135E-2</v>
+        <v>7.1029368498018233E-2</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -10956,129 +10956,129 @@
       </c>
       <c r="B48" s="1">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>27569.439422456104</v>
+        <v>17050.219142561666</v>
       </c>
       <c r="C48" s="20">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.60367371601208453</v>
+        <v>0.60367371601173225</v>
       </c>
       <c r="F48" t="s">
         <v>85</v>
       </c>
       <c r="G48" s="31">
         <f ca="1">G40/G54</f>
-        <v>2.022776451667025</v>
+        <v>4.9117482981659997</v>
       </c>
       <c r="H48" s="31">
         <f t="shared" ref="H48:I49" ca="1" si="38">H40/H54</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999981337</v>
       </c>
       <c r="I48" s="31">
         <f ca="1">I54/I40</f>
-        <v>0.66147781371747916</v>
+        <v>0.20001741038092768</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
       </c>
       <c r="K48">
         <f t="shared" ref="K48:AI48" ca="1" si="39">lz*qa3_</f>
-        <v>1.070396040650005E-6</v>
+        <v>1.0704531079489526E-6</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.888851312933735E-5</v>
+        <v>1.8903571316405309E-5</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.6071293769683078E-4</v>
+        <v>1.6171713688255257E-4</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="39"/>
-        <v>9.7823431651494004E-4</v>
+        <v>9.9675625021247998E-4</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="39"/>
-        <v>4.9963925281975644E-3</v>
+        <v>5.1687713036223113E-3</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="39"/>
-        <v>5.8462088516989141E-2</v>
+        <v>6.1362058095124662E-2</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.0811080594930071</v>
+        <v>1.1536607026712977</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="39"/>
-        <v>2.1578810791899898</v>
+        <v>2.3514990663130551</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="39"/>
-        <v>2.4166663530975061</v>
+        <v>2.694807035325363</v>
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="39"/>
-        <v>2.3175610201293475</v>
+        <v>2.642658501158385</v>
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="39"/>
-        <v>2.0967421509626667</v>
+        <v>2.4421474830349066</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.8407857445461604</v>
+        <v>2.189465543155217</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.5792693680298338</v>
+        <v>1.9223111330833083</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.3211927108012866</v>
+        <v>1.6579392667787398</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.0673580498726596</v>
+        <v>1.4047441758114974</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.9125824696301863</v>
+        <v>1.2987005595995471</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.73523602218617579</v>
+        <v>1.1761891469833718</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.56222935725910261</v>
+        <v>1.0462352730327924</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.41500092448115733</v>
+        <v>0.91811755801651607</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.30006401450038456</v>
+        <v>0.79789370110185598</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.21435310210503605</v>
+        <v>0.68836388058182651</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.15192762532560455</v>
+        <v>0.59038028148063815</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.10706114991931247</v>
+        <v>0.50381589645019464</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="39"/>
-        <v>7.5091747639272524E-2</v>
+        <v>0.42806508186758901</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.15948172794825666</v>
+        <v>1.9378400926608383</v>
       </c>
     </row>
     <row r="49" spans="1:47">
@@ -11087,26 +11087,26 @@
       </c>
       <c r="B49" s="1">
         <f ca="1">f2_*re*phi_q2</f>
-        <v>10281.832414628605</v>
+        <v>6358.7617133034964</v>
       </c>
       <c r="C49" s="20">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.22513595166163144</v>
+        <v>0.22513595166182584</v>
       </c>
       <c r="F49" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="31">
         <f ca="1">G41/G55</f>
-        <v>2.0408152131543971</v>
+        <v>1.028948719124259</v>
       </c>
       <c r="H49" s="31">
         <f t="shared" ca="1" si="38"/>
-        <v>1.5117665011015855</v>
+        <v>4.9995647783630046</v>
       </c>
       <c r="I49" s="31">
         <f t="shared" ca="1" si="38"/>
-        <v>0.99999999999999944</v>
+        <v>0.9999999999997351</v>
       </c>
       <c r="AL49" s="31"/>
       <c r="AM49" s="31"/>
@@ -11122,11 +11122,11 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>7818.1662901572081</v>
+        <v>4835.1163945589315</v>
       </c>
       <c r="C50" s="20">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.171190332326284</v>
+        <v>0.17119033232638831</v>
       </c>
       <c r="AL50" s="31"/>
       <c r="AM50" s="31"/>
@@ -11142,7 +11142,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>45669.438127241912</v>
+        <v>28244.097250424096</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -11160,15 +11160,15 @@
       <c r="B52" s="1"/>
       <c r="G52" s="1">
         <f ca="1">G39^0.5</f>
-        <v>1190.1961990592631</v>
+        <v>823.28959882376171</v>
       </c>
       <c r="H52" s="59">
         <f ca="1">H40^0.5</f>
-        <v>575.07524803555532</v>
+        <v>170.78414403304376</v>
       </c>
       <c r="I52" s="11">
         <f ca="1">I41^0.5</f>
-        <v>570.00143617758874</v>
+        <v>790.20003812143875</v>
       </c>
       <c r="AL52" s="31"/>
       <c r="AM52" s="31"/>
@@ -11184,27 +11184,27 @@
       </c>
       <c r="B53" s="35">
         <f ca="1">f1_*phi_q1</f>
-        <v>1.36768751888942</v>
+        <v>0.76070342832054483</v>
       </c>
       <c r="C53">
         <f ca="1">AVERAGE(B53:B55)/B53</f>
-        <v>0.55217466736063847</v>
+        <v>0.55217466736095278</v>
       </c>
       <c r="G53">
         <f ca="1">G$52*$J53</f>
-        <v>1416566.992255117</v>
+        <v>677805.76353136229</v>
       </c>
       <c r="H53">
         <f t="shared" ref="G53:I55" ca="1" si="40">H$52*$J53</f>
-        <v>684452.37438498088</v>
+        <v>140604.8094264183</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="40"/>
-        <v>678413.54279688722</v>
+        <v>650563.4723754935</v>
       </c>
       <c r="J53">
         <f t="array" aca="1" ref="J53:J55" ca="1">TRANSPOSE(G52:I52)</f>
-        <v>1190.1961990592631</v>
+        <v>823.28959882376171</v>
       </c>
       <c r="AL53" s="31"/>
       <c r="AM53" s="31"/>
@@ -11218,27 +11218,27 @@
       </c>
       <c r="B54" s="35">
         <f ca="1">f2_*phi_q2</f>
-        <v>0.51006963360111102</v>
+        <v>0.28369910056514669</v>
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
-        <v>1.4805868670602966</v>
+        <v>1.480586867059009</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="40"/>
-        <v>684452.37438498088</v>
+        <v>140604.80942642412</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="40"/>
-        <v>330711.54090315546</v>
+        <v>29167.223853099436</v>
       </c>
       <c r="I54">
         <f ca="1">I$52*$J54</f>
-        <v>327793.7172904496</v>
+        <v>134953.63712544847</v>
       </c>
       <c r="J54">
         <f ca="1"/>
-        <v>575.07524803555532</v>
+        <v>170.78414403304376</v>
       </c>
       <c r="AL54" s="31"/>
       <c r="AM54" s="31"/>
@@ -11253,27 +11253,27 @@
       </c>
       <c r="B55" s="35">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.38785004989765637</v>
+        <v>0.2157209585939226</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471504541390179</v>
+        <v>1.9471504541378315</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="40"/>
-        <v>678413.54279688722</v>
+        <v>650563.47237552051</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="40"/>
-        <v>327793.7172904496</v>
+        <v>134953.63712544847</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="40"/>
-        <v>324901.63724451378</v>
+        <v>624416.10024712328</v>
       </c>
       <c r="J55">
         <f ca="1"/>
-        <v>570.00143617758874</v>
+        <v>790.20003812143875</v>
       </c>
       <c r="S55" s="33"/>
       <c r="AL55" s="31"/>
@@ -11289,11 +11289,11 @@
       </c>
       <c r="B56" s="34">
         <f ca="1">phi_t1*f1_</f>
-        <v>4.1660296122690003E-2</v>
+        <v>2.0299958226886052E-2</v>
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.2005261151143427</v>
+        <v>1.159332749834223</v>
       </c>
       <c r="AL56" s="31"/>
       <c r="AM56" s="31"/>
@@ -11308,23 +11308,23 @@
       </c>
       <c r="B57" s="34">
         <f ca="1">phi_t2*f2_</f>
-        <v>8.0962637009346389E-2</v>
+        <v>3.7175352954595009E-2</v>
       </c>
       <c r="C57">
         <f ca="1">AVERAGE(B56:B58)/B57</f>
-        <v>0.61774511436568547</v>
+        <v>0.63306477335771671</v>
       </c>
       <c r="G57">
         <f t="array" aca="1" ref="G57:I59" ca="1">MMULT($G$52:$I$52,TRANSPOSE($G$52:$I$52))</f>
-        <v>2072180.1704027862</v>
+        <v>1331389.087631613</v>
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>2072180.1704027862</v>
+        <v>1331389.087631613</v>
       </c>
       <c r="I57">
         <f ca="1"/>
-        <v>2072180.1704027862</v>
+        <v>1331389.087631613</v>
       </c>
       <c r="AL57" s="31"/>
       <c r="AM57" s="31"/>
@@ -11339,23 +11339,23 @@
       </c>
       <c r="B58" s="34">
         <f ca="1">phi_t3*f3_</f>
-        <v>2.7419887244022074E-2</v>
+        <v>1.3127907996600874E-2</v>
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>1.8240145560624064</v>
+        <v>1.7927004362604912</v>
       </c>
       <c r="G58">
         <f ca="1"/>
-        <v>2072180.1704027862</v>
+        <v>1331389.087631613</v>
       </c>
       <c r="H58">
         <f ca="1"/>
-        <v>2072180.1704027862</v>
+        <v>1331389.087631613</v>
       </c>
       <c r="I58">
         <f ca="1"/>
-        <v>2072180.1704027862</v>
+        <v>1331389.087631613</v>
       </c>
       <c r="AL58" s="31"/>
       <c r="AM58" s="31"/>
@@ -11366,15 +11366,15 @@
     <row r="59" spans="1:47">
       <c r="G59">
         <f ca="1"/>
-        <v>2072180.1704027862</v>
+        <v>1331389.087631613</v>
       </c>
       <c r="H59">
         <f ca="1"/>
-        <v>2072180.1704027862</v>
+        <v>1331389.087631613</v>
       </c>
       <c r="I59">
         <f ca="1"/>
-        <v>2072180.1704027862</v>
+        <v>1331389.087631613</v>
       </c>
       <c r="AL59" s="31"/>
       <c r="AM59" s="31"/>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>32.829519858945936</v>
+        <v>37.473152398562071</v>
       </c>
       <c r="AL60" s="31"/>
       <c r="AM60" s="31"/>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="B61">
         <f ca="1">ypr2/mpr2_</f>
-        <v>6.3000620093714117</v>
+        <v>7.631376113944345</v>
       </c>
       <c r="AL61" s="31"/>
       <c r="AM61" s="31"/>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B62">
         <f ca="1">ypr3/mpr3_</f>
-        <v>14.14484481449548</v>
+        <v>16.432241804998775</v>
       </c>
       <c r="AL62" s="31"/>
       <c r="AM62" s="31"/>
@@ -22048,59 +22048,59 @@
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14428208091818295</v>
+        <v>0.14428208091818298</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12014832604251618</v>
+        <v>0.12014832604251621</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.9638536360132882E-2</v>
+        <v>9.9638536360132909E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1554130946726186E-2</v>
+        <v>8.1554130946726214E-2</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4866782507165197E-2</v>
+        <v>6.4866782507165224E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9223245589603747E-2</v>
+        <v>4.9223245589603767E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5563097092698677E-2</v>
+        <v>3.5563097092698698E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4821512061649696E-2</v>
+        <v>2.482151206164971E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7012954562218942E-2</v>
+        <v>1.7012954562218952E-2</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1567024685752235E-2</v>
+        <v>1.1567024685752244E-2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8381840927252786E-3</v>
+        <v>7.8381840927252838E-3</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3043363685660681E-3</v>
+        <v>5.3043363685660715E-3</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5877247293795581E-3</v>
+        <v>3.5877247293795607E-3</v>
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>7.4923929050578182E-3</v>
+        <v>7.4923929050578235E-3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -22541,7 +22541,7 @@
       </c>
       <c r="C12" s="18">
         <f ca="1">mpr2_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.5572423125181114</v>
+        <v>0.55724231251811152</v>
       </c>
       <c r="J12" t="s">
         <v>100</v>
@@ -22657,7 +22657,7 @@
       </c>
       <c r="C13" s="18">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.18007972702060651</v>
+        <v>0.18007972702060657</v>
       </c>
       <c r="J13" t="s">
         <v>101</v>
@@ -24176,55 +24176,55 @@
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.1211687571712308E-3</v>
+        <v>-4.1211687571712317E-3</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.5036844626700716E-3</v>
+        <v>-8.5036844626700733E-3</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.6703229250975209E-2</v>
+        <v>-1.6703229250975213E-2</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.9664336652874473E-2</v>
+        <v>-2.9664336652874483E-2</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.4847240297108626E-2</v>
+        <v>-4.484724029710864E-2</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="23"/>
-        <v>-5.6152592385630834E-2</v>
+        <v>-5.6152592385630848E-2</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="23"/>
-        <v>-5.9729173259787584E-2</v>
+        <v>-5.9729173259787605E-2</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="23"/>
-        <v>-5.6571206411371894E-2</v>
+        <v>-5.6571206411371915E-2</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.9611514728469086E-2</v>
+        <v>-4.9611514728469114E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.1334094890728139E-2</v>
+        <v>-4.133409489072816E-2</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="23"/>
-        <v>-3.3241229546014196E-2</v>
+        <v>-3.3241229546014217E-2</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.6061378984821068E-2</v>
+        <v>-2.6061378984821082E-2</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-7.7551409132707874E-2</v>
+        <v>-7.7551409132707916E-2</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -24235,11 +24235,11 @@
       <c r="C32" s="12"/>
       <c r="G32">
         <f ca="1">SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-115.71746211086329</v>
+        <v>-115.71746211086332</v>
       </c>
       <c r="H32">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-35818.425878766437</v>
+        <v>-35818.425878766444</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -24337,11 +24337,11 @@
       </c>
       <c r="AH32">
         <f t="shared" ca="1" si="24"/>
-        <v>-3.1585182095093409E-2</v>
+        <v>-3.1585182095093416E-2</v>
       </c>
       <c r="AI32">
         <f ca="1">(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-7.350294880261958E-2</v>
+        <v>-7.3502948802619594E-2</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -24415,11 +24415,11 @@
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.62106048891564847</v>
+        <v>-0.62106048891564858</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.57695727798005414</v>
+        <v>-0.57695727798005425</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="25"/>
@@ -24447,23 +24447,23 @@
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="25"/>
-        <v>-9.8783707215243613E-2</v>
+        <v>-9.8783707215243627E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.1209623881053216E-2</v>
+        <v>-7.120962388105323E-2</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.1114806826933201E-2</v>
+        <v>-5.1114806826933208E-2</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="25"/>
-        <v>-3.6561292832894228E-2</v>
+        <v>-3.6561292832894235E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-8.9215997868592495E-2</v>
+        <v>-8.9215997868592509E-2</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -24485,7 +24485,7 @@
       </c>
       <c r="B35" s="1">
         <f ca="1">SUMPRODUCT(lz,wa,ma)</f>
-        <v>17.137594381884185</v>
+        <v>17.137594381884188</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="1">
@@ -24610,15 +24610,15 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">SUMPRODUCT(lz,ta1_)</f>
-        <v>0.18550030825567754</v>
+        <v>0.18550030825567762</v>
       </c>
       <c r="C36" s="29">
         <f ca="1">B11/(phi_t1/SUM(B$36:B$38))</f>
-        <v>6.4622941018092552</v>
+        <v>6.4622941018092517</v>
       </c>
       <c r="E36" s="38">
         <f ca="1">C36/AVERAGE(C$36:C$38)</f>
-        <v>2.4616110567393714</v>
+        <v>2.461611056739371</v>
       </c>
       <c r="G36" s="1">
         <f ca="1">SUM(dqa21_)</f>
@@ -24626,7 +24626,7 @@
       </c>
       <c r="H36" s="1">
         <f ca="1">SUM(dqa22_)</f>
-        <v>62.218319847354877</v>
+        <v>62.21831984735487</v>
       </c>
       <c r="I36" s="11">
         <f ca="1">SUM(dqa23_)</f>
@@ -24750,7 +24750,7 @@
       </c>
       <c r="E37" s="38">
         <f ca="1">C37/AVERAGE(C$36:C$38)</f>
-        <v>0.329552550269746</v>
+        <v>0.32955255026974611</v>
       </c>
       <c r="G37" s="1">
         <f ca="1">SUM(dqa31_)</f>
@@ -24882,7 +24882,7 @@
       </c>
       <c r="E38" s="38">
         <f ca="1">C38/AVERAGE(C$36:C$38)</f>
-        <v>0.20883639299088311</v>
+        <v>0.20883639299088319</v>
       </c>
       <c r="G38" t="s">
         <v>69</v>
@@ -24936,7 +24936,7 @@
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="29"/>
-        <v>-2.9985501473822444E-3</v>
+        <v>-2.9985501473822479E-3</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="29"/>
@@ -24997,11 +24997,11 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>6.1122543488962506</v>
+        <v>6.1122543488962551</v>
       </c>
       <c r="C39" s="23">
         <f ca="1">B4/(phi_q1/SUM(B$39:B$41))</f>
-        <v>4.0815336481522451</v>
+        <v>4.0815336481522424</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="39">
@@ -25010,7 +25010,7 @@
       </c>
       <c r="G39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
-        <v>1382554.0938899994</v>
+        <v>1382554.0938899997</v>
       </c>
       <c r="H39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
@@ -25018,7 +25018,7 @@
       </c>
       <c r="I39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
-        <v>1350166.869047296</v>
+        <v>1350166.8690472962</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>66</v>
@@ -25069,23 +25069,23 @@
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.1241572316004592E-2</v>
+        <v>-1.1241572316004596E-2</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="30"/>
-        <v>1.1115902069305274E-2</v>
+        <v>1.1115902069305267E-2</v>
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="30"/>
-        <v>0.23864215142978729</v>
+        <v>0.23864215142978726</v>
       </c>
       <c r="Y39">
         <f t="shared" ca="1" si="30"/>
-        <v>1.4718481462026334</v>
+        <v>1.4718481462026332</v>
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="30"/>
-        <v>5.5047887368003359</v>
+        <v>5.504788736800335</v>
       </c>
       <c r="AA39">
         <f t="shared" ca="1" si="30"/>
@@ -25139,7 +25139,7 @@
       <c r="D40" s="21"/>
       <c r="E40" s="39">
         <f ca="1">C40/AVERAGE(C$39:C$41)</f>
-        <v>0.355133929093567</v>
+        <v>0.35513392909356717</v>
       </c>
       <c r="G40" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
@@ -25202,11 +25202,11 @@
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="31"/>
-        <v>-2.9985501473822444E-3</v>
+        <v>-2.9985501473822479E-3</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="31"/>
-        <v>2.8197407261281584E-2</v>
+        <v>2.8197407261281577E-2</v>
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="31"/>
@@ -25263,28 +25263,28 @@
       </c>
       <c r="B41" s="1">
         <f ca="1">SUMPRODUCT(lz,qa3_)</f>
-        <v>19.615246063682054</v>
+        <v>19.615246063682058</v>
       </c>
       <c r="C41" s="23">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
-        <v>0.36066832825077083</v>
+        <v>0.36066832825077072</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="39">
         <f ca="1">C41/AVERAGE(C$39:C$41)</f>
-        <v>0.21474021877173291</v>
+        <v>0.21474021877173294</v>
       </c>
       <c r="G41" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
-        <v>1350166.869047296</v>
+        <v>1350166.8690472962</v>
       </c>
       <c r="H41" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>494457.85510086216</v>
+        <v>494457.85510086222</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>324708.04082863114</v>
+        <v>324708.0408286312</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="32"/>
-        <v>9.0538854692959442E-2</v>
+        <v>9.0538854692959303E-2</v>
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="32"/>
@@ -25396,7 +25396,7 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">SUMPRODUCT(lz/SUM(lz),len,ta1_)</f>
-        <v>4.4644369117528289</v>
+        <v>4.4644369117528306</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
@@ -25447,11 +25447,11 @@
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.1241572316004592E-2</v>
+        <v>-1.1241572316004599E-2</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="33"/>
-        <v>1.1115902069305281E-2</v>
+        <v>1.1115902069305267E-2</v>
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="33"/>
@@ -25459,7 +25459,7 @@
       </c>
       <c r="Y42">
         <f t="shared" ca="1" si="33"/>
-        <v>1.4718481462026334</v>
+        <v>1.4718481462026332</v>
       </c>
       <c r="Z42">
         <f t="shared" ca="1" si="33"/>
@@ -25625,7 +25625,7 @@
       </c>
       <c r="B46" s="1">
         <f ca="1">phif/phie</f>
-        <v>0.40000000000004887</v>
+        <v>0.40000000000004898</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>94</v>
@@ -25681,59 +25681,59 @@
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="35"/>
-        <v>4.9490416670800341E-2</v>
+        <v>4.9490416670800348E-2</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.11706098107776552</v>
+        <v>0.11706098107776555</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.25826134078620822</v>
+        <v>0.25826134078620833</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.49994931120139458</v>
+        <v>0.49994931120139474</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.77882597741141457</v>
+        <v>0.7788259774114149</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.92607088103245216</v>
+        <v>0.9260708810324525</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.87246228423843375</v>
+        <v>0.8724622842384343</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.71087965315840451</v>
+        <v>0.71087965315840496</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.53801855561325751</v>
+        <v>0.53801855561325784</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.39323548198378822</v>
+        <v>0.39323548198378855</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.28253992555367574</v>
+        <v>0.28253992555367591</v>
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.2010940528741644</v>
+        <v>0.20109405287416454</v>
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.14225117141697988</v>
+        <v>0.14225117141697999</v>
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.30933283031448022</v>
+        <v>0.30933283031448044</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -25749,7 +25749,7 @@
       </c>
       <c r="G47" s="31">
         <f ca="1">G39/G53</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="H47" s="31">
         <f ca="1">H53/H39</f>
@@ -25757,7 +25757,7 @@
       </c>
       <c r="I47" s="31">
         <f ca="1">I53/I39</f>
-        <v>0.49624956723582819</v>
+        <v>0.49624956723582808</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
@@ -25808,59 +25808,59 @@
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="36"/>
-        <v>1.0051017391512045</v>
+        <v>1.0051017391512047</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.8808386993339784</v>
+        <v>0.88083869933397863</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.75333510984092733</v>
+        <v>0.75333510984092755</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.62266336512349574</v>
+        <v>0.62266336512349596</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.53406528958272925</v>
+        <v>0.53406528958272947</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.432293283445152</v>
+        <v>0.43229328344515217</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.33256017230662843</v>
+        <v>0.33256017230662865</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.24716082184508914</v>
+        <v>0.24716082184508928</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.18001304593798775</v>
+        <v>0.18001304593798786</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.12955692151534309</v>
+        <v>0.12955692151534318</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="36"/>
-        <v>9.2521290483820504E-2</v>
+        <v>9.2521290483820573E-2</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="36"/>
-        <v>6.5693768702409588E-2</v>
+        <v>6.569376870240963E-2</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="36"/>
-        <v>4.6427685438391611E-2</v>
+        <v>4.6427685438391646E-2</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.10092334753918192</v>
+        <v>0.10092334753918199</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -25869,11 +25869,11 @@
       </c>
       <c r="B48" s="1">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>27109.570776465567</v>
+        <v>27109.570776465585</v>
       </c>
       <c r="C48" s="20">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.60367371601208442</v>
+        <v>0.60367371601208453</v>
       </c>
       <c r="F48" t="s">
         <v>85</v>
@@ -25939,59 +25939,59 @@
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.8229407311367141</v>
+        <v>1.8229407311367145</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.5656629762071603</v>
+        <v>1.5656629762071608</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.3115901999818789</v>
+        <v>1.3115901999818793</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.0617281089516184</v>
+        <v>1.0617281089516186</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.91065600085996301</v>
+        <v>0.91065600085996334</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.73712049889698561</v>
+        <v>0.73712049889698594</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.56706159802048295</v>
+        <v>0.56706159802048328</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.42144376348922963</v>
+        <v>0.42144376348922985</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.30694741581986895</v>
+        <v>0.30694741581986912</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.22091266804302298</v>
+        <v>0.22091266804302315</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.15776173818041664</v>
+        <v>0.15776173818041672</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11201706206126438</v>
+        <v>0.11201706206126445</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="38"/>
-        <v>7.9165695983619472E-2</v>
+        <v>7.9165695983619527E-2</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.17208842037878749</v>
+        <v>0.17208842037878763</v>
       </c>
     </row>
     <row r="49" spans="1:47">
@@ -26004,22 +26004,22 @@
       </c>
       <c r="C49" s="20">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.22513595166163139</v>
+        <v>0.22513595166163133</v>
       </c>
       <c r="F49" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="31">
         <f ca="1">G41/G55</f>
-        <v>2.0151151074450793</v>
+        <v>2.0151151074450797</v>
       </c>
       <c r="H49" s="31">
         <f t="shared" ca="1" si="37"/>
-        <v>1.4952115134815009</v>
+        <v>1.4952115134815012</v>
       </c>
       <c r="I49" s="31">
         <f t="shared" ca="1" si="37"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AL49" s="31"/>
       <c r="AM49" s="31"/>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>7687.7563282101783</v>
+        <v>7687.7563282101801</v>
       </c>
       <c r="C50" s="20">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
@@ -26055,7 +26055,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>44907.654677353683</v>
+        <v>44907.654677353697</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -26097,11 +26097,11 @@
       </c>
       <c r="B53" s="35">
         <f ca="1">f1_*phi_q1</f>
-        <v>1.3448739753088788</v>
+        <v>1.3448739753088796</v>
       </c>
       <c r="C53">
         <f ca="1">AVERAGE(B53:B55)/B53</f>
-        <v>0.55217466736063847</v>
+        <v>0.55217466736063836</v>
       </c>
       <c r="G53">
         <f ca="1">G$52*$J53</f>
@@ -26135,7 +26135,7 @@
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
-        <v>1.4805868670602971</v>
+        <v>1.4805868670602977</v>
       </c>
       <c r="G54">
         <f t="shared" ref="G54:I55" ca="1" si="40">G$52*$J54</f>
@@ -26166,11 +26166,11 @@
       </c>
       <c r="B55" s="35">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.38138056480413135</v>
+        <v>0.38138056480413141</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471504541390183</v>
+        <v>1.947150454139019</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="40"/>
@@ -26202,11 +26202,11 @@
       </c>
       <c r="B56" s="34">
         <f ca="1">phi_t1*f1_</f>
-        <v>4.0815470486742014E-2</v>
+        <v>4.0815470486742035E-2</v>
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.2689809710261768</v>
+        <v>1.2689809710261766</v>
       </c>
       <c r="AL56" s="31"/>
       <c r="AM56" s="31"/>
@@ -26225,7 +26225,7 @@
       </c>
       <c r="C57">
         <f ca="1">AVERAGE(B56:B58)/B57</f>
-        <v>0.59818381670810283</v>
+        <v>0.59818381670810294</v>
       </c>
       <c r="G57">
         <f t="array" aca="1" ref="G57:I59" ca="1">MMULT($G$52:$I$52,TRANSPOSE($G$52:$I$52))</f>
@@ -26256,7 +26256,7 @@
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>1.8510319781592621</v>
+        <v>1.8510319781592623</v>
       </c>
       <c r="G58">
         <f ca="1"/>
@@ -26301,7 +26301,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>32.950103460052745</v>
+        <v>32.950103460052752</v>
       </c>
       <c r="AL60" s="31"/>
       <c r="AM60" s="31"/>
@@ -26329,7 +26329,7 @@
       </c>
       <c r="B62">
         <f ca="1">ypr3/mpr3_</f>
-        <v>13.629896640494129</v>
+        <v>13.629896640494131</v>
       </c>
       <c r="AL62" s="31"/>
       <c r="AM62" s="31"/>

--- a/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
+++ b/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32080" windowHeight="26440" tabRatio="623" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="623" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="6" r:id="rId1"/>
@@ -908,6 +908,7 @@
     <definedName name="ta3_" localSheetId="7">'Reduce DMR (2)'!$K$28:$AI$28</definedName>
     <definedName name="ta3_" localSheetId="1">'Status Quo'!$K$28:$AI$28</definedName>
     <definedName name="ta3_">'Proof of Concept'!$K$28:$AI$28</definedName>
+    <definedName name="tau">'Proof of Concept'!$B$41</definedName>
     <definedName name="to" localSheetId="2">'Excluders (1)'!$B$24</definedName>
     <definedName name="to" localSheetId="3">'Excluders (2)'!$B$24</definedName>
     <definedName name="to" localSheetId="4">'No Size Limit (1)'!$B$24</definedName>
@@ -1092,7 +1093,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="171">
   <si>
     <t>SPR Based PSC Caps</t>
   </si>
@@ -1602,6 +1603,9 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>tau</t>
   </si>
 </sst>
 </file>
@@ -3414,7 +3418,7 @@
                   <c:v>8.273792814806826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.132501783742509</c:v>
+                  <c:v>9.1325017837425</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.38294566774333</c:v>
@@ -3468,10 +3472,10 @@
                   <c:v>9.63823141553139E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.291280140341038</c:v>
+                  <c:v>6.291280140341036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.944230824932708</c:v>
+                  <c:v>6.944230824932703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.134664966680196</c:v>
@@ -3674,7 +3678,7 @@
                   <c:v>8.273792814806826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.132501783742509</c:v>
+                  <c:v>9.1325017837425</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.38294566774333</c:v>
@@ -3728,10 +3732,10 @@
                   <c:v>9.63823141553139E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.291280140341038</c:v>
+                  <c:v>6.291280140341036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.944230824932708</c:v>
+                  <c:v>6.944230824932703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.134664966680196</c:v>
@@ -3960,7 +3964,7 @@
                   <c:v>8.273792814806826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.132501783742509</c:v>
+                  <c:v>9.1325017837425</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.38294566774333</c:v>
@@ -4032,10 +4036,10 @@
                   <c:v>9.63823141553139E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.291280140341038</c:v>
+                  <c:v>6.291280140341036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.944230824932708</c:v>
+                  <c:v>6.944230824932703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.134664966680196</c:v>
@@ -8267,7 +8271,7 @@
       </c>
       <c r="C5" s="113">
         <f ca="1">'Status Quo'!ye_1/1000</f>
-        <v>2.5844008932292343E-5</v>
+        <v>2.5844008932292326E-5</v>
       </c>
       <c r="D5" s="115">
         <f ca="1">'Excluders (1)'!ye_1/1000</f>
@@ -8275,7 +8279,7 @@
       </c>
       <c r="E5" s="115">
         <f ca="1">'No Size Limit (1)'!ye_1/1000</f>
-        <v>24.487654004566448</v>
+        <v>24.487654004566455</v>
       </c>
       <c r="F5" s="115">
         <f ca="1">'Reduce DMR (1)'!ye_1/1000</f>
@@ -8308,7 +8312,7 @@
       </c>
       <c r="E6" s="115">
         <f ca="1">'No Size Limit (1)'!ye_2/1000</f>
-        <v>9.1325017837425086</v>
+        <v>9.1325017837424998</v>
       </c>
       <c r="F6" s="115">
         <f ca="1">'Reduce DMR (1)'!ye_2/1000</f>
@@ -8337,11 +8341,11 @@
       </c>
       <c r="D7" s="116">
         <f ca="1">'Excluders (1)'!ye_3/1000</f>
-        <v>6.2912801403410388</v>
+        <v>6.291280140341037</v>
       </c>
       <c r="E7" s="116">
         <f ca="1">'No Size Limit (1)'!ye_3/1000</f>
-        <v>6.944230824932708</v>
+        <v>6.9442308249327027</v>
       </c>
       <c r="F7" s="116">
         <f ca="1">'Reduce DMR (1)'!ye_3/1000</f>
@@ -8366,7 +8370,7 @@
       </c>
       <c r="C8" s="62">
         <f ca="1">SUM(C5:C7)</f>
-        <v>4.5120471763355135E-5</v>
+        <v>4.5120471763355115E-5</v>
       </c>
       <c r="D8" s="74">
         <f ca="1">SUM(D5:D7)</f>
@@ -8374,7 +8378,7 @@
       </c>
       <c r="E8" s="74">
         <f ca="1">SUM(E5:E7)</f>
-        <v>40.564386613241666</v>
+        <v>40.564386613241659</v>
       </c>
       <c r="F8" s="74">
         <f ca="1">SUM(F5:F7)</f>
@@ -8441,15 +8445,15 @@
       </c>
       <c r="C11" s="65">
         <f ca="1">'Status Quo'!E27/10</f>
-        <v>12.747432046033499</v>
+        <v>12.747432046033492</v>
       </c>
       <c r="D11" s="75">
         <f ca="1">'Excluders (1)'!E27/10</f>
-        <v>13.771284947495314</v>
+        <v>13.771284947495317</v>
       </c>
       <c r="E11" s="75">
         <f ca="1">'No Size Limit (1)'!$E27/10</f>
-        <v>21.428701780708394</v>
+        <v>21.428701780708387</v>
       </c>
       <c r="F11" s="75">
         <f ca="1">'Reduce DMR (1)'!$E27/10</f>
@@ -8474,7 +8478,7 @@
       </c>
       <c r="C12" s="65">
         <f ca="1">'Status Quo'!E28</f>
-        <v>39.461917558212178</v>
+        <v>39.461917558212193</v>
       </c>
       <c r="D12" s="75">
         <f ca="1">'Excluders (1)'!E28</f>
@@ -8482,7 +8486,7 @@
       </c>
       <c r="E12" s="75">
         <f ca="1">'No Size Limit (1)'!$E28</f>
-        <v>35.98151431430869</v>
+        <v>35.981514314308598</v>
       </c>
       <c r="F12" s="75">
         <f ca="1">'Reduce DMR (1)'!$E28</f>
@@ -8507,15 +8511,15 @@
       </c>
       <c r="C13" s="66">
         <f ca="1">'Status Quo'!E29</f>
-        <v>30.775675626432978</v>
+        <v>30.775675626433017</v>
       </c>
       <c r="D13" s="76">
         <f ca="1">'Excluders (1)'!E29</f>
-        <v>16.029056510573863</v>
+        <v>16.029056510573859</v>
       </c>
       <c r="E13" s="76">
         <f ca="1">'No Size Limit (1)'!$E29</f>
-        <v>18.007402016540144</v>
+        <v>18.007402016540112</v>
       </c>
       <c r="F13" s="75">
         <f ca="1">'Reduce DMR (1)'!$E29</f>
@@ -8540,15 +8544,15 @@
       </c>
       <c r="C14" s="69">
         <f ca="1">SUM(C11:C13)</f>
-        <v>82.985025230678644</v>
+        <v>82.985025230678701</v>
       </c>
       <c r="D14" s="77">
         <f ca="1">SUM(D11:D13)</f>
-        <v>231.03472377910751</v>
+        <v>231.03472377910754</v>
       </c>
       <c r="E14" s="77">
         <f ca="1">SUM(E11:E13)</f>
-        <v>75.417618111557232</v>
+        <v>75.41761811155709</v>
       </c>
       <c r="F14" s="105">
         <f ca="1">SUM(F11:F13)</f>
@@ -8619,11 +8623,11 @@
       </c>
       <c r="D17" s="75">
         <f t="shared" ref="D17:F17" ca="1" si="0">D5/D11</f>
-        <v>1.6109705141225485</v>
+        <v>1.6109705141225481</v>
       </c>
       <c r="E17" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1427502354161247</v>
+        <v>1.1427502354161254</v>
       </c>
       <c r="F17" s="75">
         <f t="shared" ca="1" si="0"/>
@@ -8648,7 +8652,7 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:F19" ca="1" si="2">C6/C12</f>
-        <v>2.4424133473274771E-7</v>
+        <v>2.442413347327476E-7</v>
       </c>
       <c r="D18" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8656,7 +8660,7 @@
       </c>
       <c r="E18" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2538109348030082</v>
+        <v>0.25381093480300859</v>
       </c>
       <c r="F18" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8681,7 +8685,7 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1317692363683464E-7</v>
+        <v>3.1317692363683427E-7</v>
       </c>
       <c r="D19" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8689,7 +8693,7 @@
       </c>
       <c r="E19" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38563202057433377</v>
+        <v>0.38563202057433416</v>
       </c>
       <c r="F19" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8714,15 +8718,15 @@
       </c>
       <c r="C20" s="111">
         <f ca="1">AVERAGE(C17:C19)</f>
-        <v>8.6160256128683268E-7</v>
+        <v>8.6160256128683258E-7</v>
       </c>
       <c r="D20" s="105">
         <f t="shared" ref="D20:F20" ca="1" si="5">AVERAGE(D17:D19)</f>
-        <v>0.6815259830479935</v>
+        <v>0.68152598304799339</v>
       </c>
       <c r="E20" s="105">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59406439693115554</v>
+        <v>0.59406439693115609</v>
       </c>
       <c r="F20" s="105">
         <f t="shared" ca="1" si="5"/>
@@ -8786,7 +8790,7 @@
       </c>
       <c r="C23" s="63">
         <f ca="1">'Status Quo'!C4</f>
-        <v>0.60367653566062185</v>
+        <v>0.60367653566062196</v>
       </c>
       <c r="D23" s="78">
         <f ca="1">'Excluders (1)'!C4</f>
@@ -8794,7 +8798,7 @@
       </c>
       <c r="E23" s="78">
         <f ca="1">'No Size Limit (1)'!$C4</f>
-        <v>0.60367371601208453</v>
+        <v>0.60367371601208442</v>
       </c>
       <c r="F23" s="78">
         <f ca="1">'Reduce DMR (1)'!$C4</f>
@@ -8819,15 +8823,15 @@
       </c>
       <c r="C24" s="63">
         <f ca="1">'Status Quo'!C5</f>
-        <v>0.22513434994031639</v>
+        <v>0.22513434994031631</v>
       </c>
       <c r="D24" s="78">
         <f ca="1">'Excluders (1)'!C5</f>
-        <v>0.22513595166163142</v>
+        <v>0.2251359516616315</v>
       </c>
       <c r="E24" s="78">
         <f ca="1">'No Size Limit (1)'!$C5</f>
-        <v>0.22513595166163139</v>
+        <v>0.22513595166163153</v>
       </c>
       <c r="F24" s="78">
         <f ca="1">'Reduce DMR (1)'!$C5</f>
@@ -8852,7 +8856,7 @@
       </c>
       <c r="C25" s="67">
         <f ca="1">'Status Quo'!C6</f>
-        <v>0.17118911439906187</v>
+        <v>0.17118911439906176</v>
       </c>
       <c r="D25" s="79">
         <f ca="1">'Excluders (1)'!C6</f>
@@ -8893,7 +8897,7 @@
       </c>
       <c r="E26" s="80">
         <f ca="1">SUM(E23:E25)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F26" s="88">
         <f ca="1">SUM(F23:F25)</f>
@@ -8957,15 +8961,15 @@
       </c>
       <c r="C29" s="63">
         <f ca="1">'Status Quo'!C11</f>
-        <v>0.33281647214735255</v>
+        <v>0.3328164721473526</v>
       </c>
       <c r="D29" s="78">
         <f ca="1">'Excluders (1)'!C11</f>
-        <v>0.20363299727562001</v>
+        <v>0.20363299727562004</v>
       </c>
       <c r="E29" s="78">
         <f ca="1">'No Size Limit (1)'!$C11</f>
-        <v>0.28363576736936597</v>
+        <v>0.28363576736936591</v>
       </c>
       <c r="F29" s="78">
         <f ca="1">'Reduce DMR (1)'!$C11</f>
@@ -8998,7 +9002,7 @@
       </c>
       <c r="E30" s="78">
         <f ca="1">'No Size Limit (1)'!$C12</f>
-        <v>0.55044115511719194</v>
+        <v>0.55044115511719205</v>
       </c>
       <c r="F30" s="78">
         <f ca="1">'Reduce DMR (1)'!$C12</f>
@@ -9023,15 +9027,15 @@
       </c>
       <c r="C31" s="67">
         <f ca="1">'Status Quo'!C13</f>
-        <v>0.13818593007336158</v>
+        <v>0.1381859300733615</v>
       </c>
       <c r="D31" s="79">
         <f ca="1">'Excluders (1)'!C13</f>
-        <v>0.11478826544274839</v>
+        <v>0.11478826544274841</v>
       </c>
       <c r="E31" s="78">
         <f ca="1">'No Size Limit (1)'!$C13</f>
-        <v>0.16592307751344212</v>
+        <v>0.16592307751344215</v>
       </c>
       <c r="F31" s="78">
         <f ca="1">'Reduce DMR (1)'!$C13</f>
@@ -9128,15 +9132,15 @@
       </c>
       <c r="C35" s="70">
         <f ca="1">avg_wt1</f>
-        <v>27.965760347362782</v>
+        <v>27.965760347362774</v>
       </c>
       <c r="D35" s="82">
         <f ca="1">'Excluders (1)'!avg_wt1</f>
-        <v>59.725623146655145</v>
+        <v>59.725623146655153</v>
       </c>
       <c r="E35" s="82">
         <f ca="1">'No Size Limit (1)'!avg_wt1</f>
-        <v>55.87216293083948</v>
+        <v>55.872162930839472</v>
       </c>
       <c r="F35" s="82">
         <f ca="1">'Reduce DMR (1)'!avg_wt1</f>
@@ -9161,7 +9165,7 @@
       </c>
       <c r="C36" s="70">
         <f ca="1">avg_wt2</f>
-        <v>6.561682489145312</v>
+        <v>6.5616824891453129</v>
       </c>
       <c r="D36" s="82">
         <f ca="1">'Excluders (1)'!avg_wt2</f>
@@ -9169,7 +9173,7 @@
       </c>
       <c r="E36" s="82">
         <f ca="1">'No Size Limit (1)'!avg_wt2</f>
-        <v>10.737128924240285</v>
+        <v>10.737128924240286</v>
       </c>
       <c r="F36" s="82">
         <f ca="1">'Reduce DMR (1)'!avg_wt2</f>
@@ -9198,11 +9202,11 @@
       </c>
       <c r="D37" s="83">
         <f ca="1">'Excluders (1)'!avg_wt3</f>
-        <v>30.046114502324624</v>
+        <v>30.04611450232462</v>
       </c>
       <c r="E37" s="82">
         <f ca="1">'No Size Limit (1)'!avg_wt3</f>
-        <v>27.084863651871267</v>
+        <v>27.08486365187127</v>
       </c>
       <c r="F37" s="82">
         <f ca="1">'Reduce DMR (1)'!avg_wt3</f>
@@ -9227,7 +9231,7 @@
       </c>
       <c r="C38" s="72">
         <f ca="1">AVERAGE(C35:C37)</f>
-        <v>17.875903717248825</v>
+        <v>17.875903717248821</v>
       </c>
       <c r="D38" s="84">
         <f ca="1">AVERAGE(D35:D37)</f>
@@ -9283,7 +9287,7 @@
       </c>
       <c r="D48" s="49">
         <f ca="1">'Status Quo'!G47</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="E48" s="49">
         <f ca="1">'Status Quo'!H47</f>
@@ -9291,7 +9295,7 @@
       </c>
       <c r="F48" s="49">
         <f ca="1">'Status Quo'!I47</f>
-        <v>0.91573888060516828</v>
+        <v>0.91573888060516839</v>
       </c>
     </row>
     <row r="49" spans="3:6">
@@ -9304,11 +9308,11 @@
       </c>
       <c r="E49" s="49">
         <f ca="1">'Status Quo'!H48</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="F49" s="49">
         <f ca="1">'Status Quo'!I48</f>
-        <v>2.1353486094044838</v>
+        <v>2.135348609404482</v>
       </c>
     </row>
     <row r="50" spans="3:6">
@@ -9317,15 +9321,15 @@
       </c>
       <c r="D50" s="52">
         <f ca="1">'Status Quo'!G49</f>
-        <v>1.0920143516666536</v>
+        <v>1.0920143516666534</v>
       </c>
       <c r="E50" s="52">
         <f ca="1">'Status Quo'!H49</f>
-        <v>0.46830760822650164</v>
+        <v>0.46830760822650197</v>
       </c>
       <c r="F50" s="52">
         <f ca="1">'Status Quo'!I49</f>
-        <v>0.99999999999999967</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -13234,14 +13238,14 @@
       </c>
       <c r="C4" s="21">
         <f ca="1">ypr1/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.60367653566062185</v>
+        <v>0.60367653566062196</v>
       </c>
       <c r="E4" s="46">
         <v>24977</v>
       </c>
       <c r="F4" s="46">
         <f ca="1">ye_1</f>
-        <v>2.5844008932292332E-2</v>
+        <v>2.5844008932292342E-2</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -13357,14 +13361,14 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">ypr2/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.22513434994031639</v>
+        <v>0.22513434994031631</v>
       </c>
       <c r="E5" s="46">
         <v>9315</v>
       </c>
       <c r="F5" s="46">
         <f ca="1">ye_2</f>
-        <v>9.6382314155313963E-3</v>
+        <v>9.6382314155313946E-3</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -13480,14 +13484,14 @@
       </c>
       <c r="C6" s="21">
         <f ca="1">ypr3/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.17118911439906187</v>
+        <v>0.17118911439906176</v>
       </c>
       <c r="E6" s="46">
         <v>7083</v>
       </c>
       <c r="F6" s="46">
         <f ca="1">ye_3</f>
-        <v>7.328780796157691E-3</v>
+        <v>7.3287807961576875E-3</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -13637,75 +13641,75 @@
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31607686746223462</v>
+        <v>0.31607686746223457</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26688450833641436</v>
+        <v>0.26688450833641431</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22395385373746998</v>
+        <v>0.22395385373746995</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18568808529150663</v>
+        <v>0.1856880852915066</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15258336881165871</v>
+        <v>0.15258336881165868</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12377254377097821</v>
+        <v>0.12377254377097818</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8710391384072421E-2</v>
+        <v>9.8710391384072407E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.7601973334880642E-2</v>
+        <v>7.7601973334880628E-2</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0531623551544102E-2</v>
+        <v>6.0531623551544095E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.6990376853633123E-2</v>
+        <v>4.6990376853633116E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6404215222345354E-2</v>
+        <v>3.6404215222345347E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8179810905283792E-2</v>
+        <v>2.8179810905283785E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1806396101219174E-2</v>
+        <v>2.1806396101219171E-2</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6872321652001941E-2</v>
+        <v>1.6872321652001938E-2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3054029127802616E-2</v>
+        <v>1.3054029127802614E-2</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0099648181475337E-2</v>
+        <v>1.0099648181475336E-2</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8138484480065069E-3</v>
+        <v>7.8138484480065051E-3</v>
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>2.6710817648806805E-2</v>
+        <v>2.6710817648806801E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -13732,7 +13736,7 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16428675439839696</v>
+        <v>0.16428675439839693</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -13744,11 +13748,11 @@
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17065937382475299</v>
+        <v>0.17065937382475296</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1693691456811105</v>
+        <v>0.16936914568111047</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -13768,7 +13772,7 @@
       </c>
       <c r="V8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20926557065997198</v>
+        <v>0.20926557065997195</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -13780,7 +13784,7 @@
       </c>
       <c r="Y8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24842692463274862</v>
+        <v>0.2484269246327486</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -13796,7 +13800,7 @@
       </c>
       <c r="AC8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25640247030216329</v>
+        <v>0.25640247030216334</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -13808,7 +13812,7 @@
       </c>
       <c r="AF8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25659624181890994</v>
+        <v>0.25659624181891</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -13943,11 +13947,11 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84310870946084782</v>
+        <v>0.84310870946084793</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84419721410460546</v>
+        <v>0.84419721410460558</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -13995,7 +13999,7 @@
       </c>
       <c r="AC10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77383046233040609</v>
+        <v>0.77383046233040598</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -14031,7 +14035,7 @@
       </c>
       <c r="C11" s="17">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.33281647214735255</v>
+        <v>0.3328164721473526</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -14058,11 +14062,11 @@
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15689129053915218</v>
+        <v>0.15689129053915207</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15580278589539454</v>
+        <v>0.15580278589539442</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -14110,7 +14114,7 @@
       </c>
       <c r="AC11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22616953766959391</v>
+        <v>0.22616953766959402</v>
       </c>
       <c r="AD11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -14262,7 +14266,7 @@
       </c>
       <c r="C13" s="17">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.13818593007336158</v>
+        <v>0.1381859300733615</v>
       </c>
       <c r="J13" t="s">
         <v>100</v>
@@ -14987,7 +14991,7 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4831080980505841E-5</v>
+        <v>1.4831080980505844E-5</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -14999,11 +15003,11 @@
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2420837554238393E-3</v>
+        <v>1.2420837554238387E-3</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>4.563144256985974E-3</v>
+        <v>4.5631442569859723E-3</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -15051,7 +15055,7 @@
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>32.392394309286061</v>
+        <v>32.392394309286068</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -15063,7 +15067,7 @@
       </c>
       <c r="AF22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>38.801387040155788</v>
+        <v>38.801387040155781</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -15100,7 +15104,7 @@
       </c>
       <c r="M23" s="1">
         <f ca="1">wa*flt2_*(1-EXP(-za))/za</f>
-        <v>0.39852696211040589</v>
+        <v>0.39852696211040595</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -15112,11 +15116,11 @@
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>2.8241972159326756</v>
+        <v>2.8241972159326743</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>3.645769231024989</v>
+        <v>3.6457692310249872</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -15136,7 +15140,7 @@
       </c>
       <c r="V23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8461730037045285</v>
+        <v>6.8461730037045294</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -15148,7 +15152,7 @@
       </c>
       <c r="Y23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>7.5619332609218448</v>
+        <v>7.5619332609218457</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -15164,7 +15168,7 @@
       </c>
       <c r="AC23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>10.592062969069302</v>
+        <v>10.592062969069305</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -15176,7 +15180,7 @@
       </c>
       <c r="AF23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>12.658776710818243</v>
+        <v>12.658776710818239</v>
       </c>
       <c r="AG23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -15213,7 +15217,7 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>2.3186365848153277E-4</v>
+        <v>2.318636584815328E-4</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -15225,11 +15229,11 @@
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>4.2502104678829616E-2</v>
+        <v>4.2502104678829596E-2</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>0.14690672915962297</v>
+        <v>0.14690672915962291</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -15249,7 +15253,7 @@
       </c>
       <c r="V24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>12.36127652861888</v>
+        <v>12.361276528618882</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -15261,7 +15265,7 @@
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>12.893175507729342</v>
+        <v>12.893175507729344</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -15277,7 +15281,7 @@
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>18.059578435433473</v>
+        <v>18.05957843543348</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -15289,7 +15293,7 @@
       </c>
       <c r="AF24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>21.583347037611897</v>
+        <v>21.58334703761189</v>
       </c>
       <c r="AG24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -15346,7 +15350,7 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="21"/>
-        <v>1.6996590526692888E-5</v>
+        <v>1.6996590526692891E-5</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="21"/>
@@ -15358,11 +15362,11 @@
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="21"/>
-        <v>2.8603789900236468E-4</v>
+        <v>2.8603789900236452E-4</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="21"/>
-        <v>7.4756246368512004E-4</v>
+        <v>7.4756246368511972E-4</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="21"/>
@@ -15410,7 +15414,7 @@
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.87997761177121625</v>
+        <v>0.87997761177121647</v>
       </c>
       <c r="AD26">
         <f t="shared" ca="1" si="21"/>
@@ -15422,7 +15426,7 @@
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.88191018406999366</v>
+        <v>0.88191018406999355</v>
       </c>
       <c r="AG26">
         <f t="shared" ca="1" si="21"/>
@@ -15444,19 +15448,19 @@
       </c>
       <c r="B27" s="27">
         <f ca="1">fbar*C27+hh</f>
-        <v>8.4852021431421468E-2</v>
+        <v>8.4852021431421454E-2</v>
       </c>
       <c r="C27" s="35">
         <f ca="1">CHOOSE(C$25,E36,E39,1)</f>
-        <v>1.8733132708564475</v>
+        <v>1.8733132708564477</v>
       </c>
       <c r="E27" s="41">
         <f ca="1">f1_/(F4/(f1_*365*re*phib))</f>
-        <v>127.47432046033498</v>
+        <v>127.47432046033492</v>
       </c>
       <c r="F27" s="106">
         <f ca="1">F4/E27</f>
-        <v>2.0273894254909151E-4</v>
+        <v>2.0273894254909167E-4</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
@@ -15471,7 +15475,7 @@
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.45671651295955601</v>
+        <v>0.45671651295955606</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="22"/>
@@ -15483,11 +15487,11 @@
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.65038080925392439</v>
+        <v>0.65038080925392416</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.59727242332957509</v>
+        <v>0.59727242332957486</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="22"/>
@@ -15507,7 +15511,7 @@
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.38102280633439817</v>
+        <v>0.38102280633439822</v>
       </c>
       <c r="W27">
         <f t="shared" ca="1" si="22"/>
@@ -15519,7 +15523,7 @@
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.28884723423623493</v>
+        <v>0.28884723423623498</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="22"/>
@@ -15535,7 +15539,7 @@
       </c>
       <c r="AC27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.28774588831736703</v>
+        <v>0.28774588831736714</v>
       </c>
       <c r="AD27">
         <f t="shared" ca="1" si="22"/>
@@ -15547,7 +15551,7 @@
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.28771920157351782</v>
+        <v>0.28771920157351777</v>
       </c>
       <c r="AG27">
         <f t="shared" ca="1" si="22"/>
@@ -15568,7 +15572,7 @@
       </c>
       <c r="B28" s="27">
         <f ca="1">fbar*C28</f>
-        <v>2.8830930968350741E-2</v>
+        <v>2.8830930968350744E-2</v>
       </c>
       <c r="C28" s="35">
         <f ca="1">CHOOSE(C$25,E37,E40,1)</f>
@@ -15576,11 +15580,11 @@
       </c>
       <c r="E28" s="41">
         <f ca="1">f2_/(F5/(f2_*365*re*phib))</f>
-        <v>39.461917558212178</v>
+        <v>39.461917558212193</v>
       </c>
       <c r="F28" s="106">
         <f t="shared" ref="F28:F29" ca="1" si="23">F5/E28</f>
-        <v>2.4424133473274773E-4</v>
+        <v>2.4424133473274762E-4</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
@@ -15607,11 +15611,11 @@
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="24"/>
-        <v>9.7877559966659099E-3</v>
+        <v>9.7877559966659047E-3</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="24"/>
-        <v>2.4067167329710822E-2</v>
+        <v>2.4067167329710815E-2</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="24"/>
@@ -15643,7 +15647,7 @@
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="24"/>
-        <v>0.49248756335572152</v>
+        <v>0.49248756335572158</v>
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="24"/>
@@ -15659,7 +15663,7 @@
       </c>
       <c r="AC28">
         <f t="shared" ca="1" si="24"/>
-        <v>0.4906097570148395</v>
+        <v>0.49060975701483972</v>
       </c>
       <c r="AD28">
         <f t="shared" ca="1" si="24"/>
@@ -15671,7 +15675,7 @@
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="24"/>
-        <v>0.49056425583672736</v>
+        <v>0.49056425583672719</v>
       </c>
       <c r="AG28">
         <f t="shared" ca="1" si="24"/>
@@ -15692,7 +15696,7 @@
       </c>
       <c r="B29" s="27">
         <f ca="1">fbar*C29</f>
-        <v>2.2201921511977193E-2</v>
+        <v>2.2201921511977203E-2</v>
       </c>
       <c r="C29" s="35">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
@@ -15700,11 +15704,11 @@
       </c>
       <c r="E29" s="41">
         <f ca="1">f3_/(F6/(f3_*365*re*phib))</f>
-        <v>30.775675626432978</v>
+        <v>30.775675626433017</v>
       </c>
       <c r="F29" s="106">
         <f t="shared" ca="1" si="23"/>
-        <v>2.3813549652385406E-4</v>
+        <v>2.3813549652385366E-4</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -15716,7 +15720,7 @@
       </c>
       <c r="C30" s="35">
         <f ca="1">AVERAGE(C27:C29)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G30" t="s">
         <v>58</v>
@@ -15772,11 +15776,11 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.9023103257798649E-4</v>
+        <v>-1.9023103257798655E-4</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="25"/>
-        <v>-4.1745416310920018E-4</v>
+        <v>-4.1745416310920029E-4</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="25"/>
@@ -15784,67 +15788,67 @@
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="25"/>
-        <v>-4.1411649209052923E-3</v>
+        <v>-4.1411649209052914E-3</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.5759386634706527E-2</v>
+        <v>-1.5759386634706524E-2</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="25"/>
-        <v>-3.9439965044401872E-2</v>
+        <v>-3.9439965044401865E-2</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.5991028476898967E-2</v>
+        <v>-7.5991028476898953E-2</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.11854540399012869</v>
+        <v>-0.11854540399012867</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.15411197164090756</v>
+        <v>-0.15411197164090754</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.17490869632095629</v>
+        <v>-0.17490869632095624</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.18089793205489005</v>
+        <v>-0.18089793205488996</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.17597081078408625</v>
+        <v>-0.17597081078408616</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.1642205495737866</v>
+        <v>-0.16422054957378651</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.14883308871818429</v>
+        <v>-0.14883308871818421</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.1320141057556227</v>
+        <v>-0.13201410575562264</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.11518839182811584</v>
+        <v>-0.1151883918281158</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="25"/>
-        <v>-9.9217565129233742E-2</v>
+        <v>-9.9217565129233687E-2</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="25"/>
-        <v>-8.4575799879880828E-2</v>
+        <v>-8.4575799879880773E-2</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-0.407132143598741</v>
+        <v>-0.40713214359874084</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -15941,7 +15945,7 @@
       </c>
       <c r="AD32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.18305138961893563</v>
+        <v>-0.18305138961893561</v>
       </c>
       <c r="AE32">
         <f t="shared" ca="1" si="25"/>
@@ -15970,7 +15974,7 @@
       </c>
       <c r="B33" s="59">
         <f ca="1">SUMPRODUCT(lz,wa)</f>
-        <v>38.344083704234286</v>
+        <v>38.344083704234279</v>
       </c>
       <c r="C33" s="58"/>
       <c r="D33" s="60"/>
@@ -16011,23 +16015,23 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.8216655164870894E-3</v>
+        <v>-5.8216655164870902E-3</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.3184086519365094E-2</v>
+        <v>-1.3184086519365097E-2</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="25"/>
-        <v>-3.2473767317914813E-2</v>
+        <v>-3.247376731791482E-2</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.11174591803265006</v>
+        <v>-0.11174591803265005</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.23716264748159882</v>
+        <v>-0.23716264748159879</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="25"/>
@@ -16035,55 +16039,55 @@
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.35479399035832915</v>
+        <v>-0.35479399035832909</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.35087772102579645</v>
+        <v>-0.3508777210257964</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.32386926750544437</v>
+        <v>-0.32386926750544431</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.28629389656638271</v>
+        <v>-0.28629389656638266</v>
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.24838407042009061</v>
+        <v>-0.24838407042009053</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.21267492263585</v>
+        <v>-0.21267492263584992</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.18030098305626668</v>
+        <v>-0.1803009830562666</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.15165092323280077</v>
+        <v>-0.15165092323280069</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.12672151806900719</v>
+        <v>-0.12672151806900711</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.10530433045154877</v>
+        <v>-0.1053043304515487</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="25"/>
-        <v>-8.7089247798048469E-2</v>
+        <v>-8.7089247798048428E-2</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.1724796248663306E-2</v>
+        <v>-7.1724796248663278E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-0.31082467502649114</v>
+        <v>-0.31082467502649103</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -16114,7 +16118,7 @@
       </c>
       <c r="H35" s="1">
         <f ca="1">SUM(dqa12_)</f>
-        <v>388.77531406673825</v>
+        <v>388.7753140667383</v>
       </c>
       <c r="I35" s="10">
         <f ca="1">SUM(dqa13_)</f>
@@ -16133,7 +16137,7 @@
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.7509146816144054E-10</v>
+        <v>1.750914681614403E-10</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="27"/>
@@ -16145,11 +16149,11 @@
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="27"/>
-        <v>3.0309002412513411E-7</v>
+        <v>3.0309002412513464E-7</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="27"/>
-        <v>3.0336439575356494E-6</v>
+        <v>3.0336439575356541E-6</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="27"/>
@@ -16169,7 +16173,7 @@
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.8978003962946464</v>
+        <v>1.8978003962946461</v>
       </c>
       <c r="W35">
         <f t="shared" ca="1" si="27"/>
@@ -16193,11 +16197,11 @@
       </c>
       <c r="AB35">
         <f t="shared" ca="1" si="27"/>
-        <v>29.316313472708082</v>
+        <v>29.316313472708085</v>
       </c>
       <c r="AC35">
         <f t="shared" ca="1" si="27"/>
-        <v>31.879018569033768</v>
+        <v>31.879018569033775</v>
       </c>
       <c r="AD35">
         <f t="shared" ca="1" si="27"/>
@@ -16209,7 +16213,7 @@
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="27"/>
-        <v>38.554752351718342</v>
+        <v>38.554752351718335</v>
       </c>
       <c r="AG35">
         <f t="shared" ca="1" si="27"/>
@@ -16242,11 +16246,11 @@
       </c>
       <c r="G36" s="1">
         <f ca="1">SUM(dqa21_)</f>
-        <v>388.77531406673825</v>
+        <v>388.7753140667383</v>
       </c>
       <c r="H36" s="1">
         <f ca="1">SUM(dqa22_)</f>
-        <v>62.897748080945462</v>
+        <v>62.897748080945455</v>
       </c>
       <c r="I36" s="10">
         <f ca="1">SUM(dqa23_)</f>
@@ -16265,7 +16269,7 @@
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="28"/>
-        <v>0.12642553181880678</v>
+        <v>0.12642553181880659</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="28"/>
@@ -16277,11 +16281,11 @@
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.5669672496370199</v>
+        <v>1.5669672496370228</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.9364868944874722</v>
+        <v>1.9364868944874747</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="28"/>
@@ -16293,7 +16297,7 @@
       </c>
       <c r="T36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.6115852274658895</v>
+        <v>2.6115852274658899</v>
       </c>
       <c r="U36">
         <f t="shared" ca="1" si="28"/>
@@ -16301,7 +16305,7 @@
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.6781279273321541</v>
+        <v>2.6781279273321537</v>
       </c>
       <c r="W36">
         <f t="shared" ca="1" si="28"/>
@@ -16313,7 +16317,7 @@
       </c>
       <c r="Y36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.3750234471140423</v>
+        <v>2.3750234471140428</v>
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="28"/>
@@ -16329,7 +16333,7 @@
       </c>
       <c r="AC36">
         <f t="shared" ca="1" si="28"/>
-        <v>3.4086306889867917</v>
+        <v>3.4086306889867926</v>
       </c>
       <c r="AD36">
         <f t="shared" ca="1" si="28"/>
@@ -16341,7 +16345,7 @@
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="28"/>
-        <v>4.1036177085073406</v>
+        <v>4.1036177085073398</v>
       </c>
       <c r="AG36">
         <f t="shared" ca="1" si="28"/>
@@ -16362,15 +16366,15 @@
       </c>
       <c r="B37" s="1">
         <f ca="1">SUMPRODUCT(lz,ta2_)</f>
-        <v>2.4625425317358891</v>
+        <v>2.4625425317358887</v>
       </c>
       <c r="C37" s="28">
         <f ca="1">B12/(phi_t2/SUM(B$36:B$38))</f>
-        <v>0.82153012880450871</v>
+        <v>0.82153012880450893</v>
       </c>
       <c r="E37" s="37">
         <f ca="1">C37/AVERAGE(C$36:C$38)</f>
-        <v>0.63651997799256999</v>
+        <v>0.6365199779925701</v>
       </c>
       <c r="G37" s="1">
         <f ca="1">SUM(dqa31_)</f>
@@ -16397,7 +16401,7 @@
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="29"/>
-        <v>4.2794183062128234E-8</v>
+        <v>4.2794183062128167E-8</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="29"/>
@@ -16409,11 +16413,11 @@
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="29"/>
-        <v>3.5488753998326027E-4</v>
+        <v>3.5488753998326092E-4</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="29"/>
-        <v>3.1442682497321117E-3</v>
+        <v>3.144268249732116E-3</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="29"/>
@@ -16421,7 +16425,7 @@
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="29"/>
-        <v>1.1770428499227681</v>
+        <v>1.1770428499227683</v>
       </c>
       <c r="T37">
         <f t="shared" ca="1" si="29"/>
@@ -16433,7 +16437,7 @@
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="29"/>
-        <v>8.7309645114259933</v>
+        <v>8.7309645114259951</v>
       </c>
       <c r="W37">
         <f t="shared" ca="1" si="29"/>
@@ -16445,7 +16449,7 @@
       </c>
       <c r="Y37">
         <f t="shared" ca="1" si="29"/>
-        <v>6.9043374646074032</v>
+        <v>6.9043374646074041</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="29"/>
@@ -16461,7 +16465,7 @@
       </c>
       <c r="AC37">
         <f t="shared" ca="1" si="29"/>
-        <v>9.9090965175856613</v>
+        <v>9.9090965175856649</v>
       </c>
       <c r="AD37">
         <f t="shared" ca="1" si="29"/>
@@ -16473,7 +16477,7 @@
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="29"/>
-        <v>11.929466009988889</v>
+        <v>11.929466009988886</v>
       </c>
       <c r="AG37">
         <f t="shared" ca="1" si="29"/>
@@ -16494,7 +16498,7 @@
       </c>
       <c r="B38" s="1">
         <f ca="1">SUMPRODUCT(lz,ta3_)</f>
-        <v>0.8353374831599657</v>
+        <v>0.83533748315996559</v>
       </c>
       <c r="C38" s="28">
         <f ca="1">B13/(phi_t3/SUM(B$36:B$38))</f>
@@ -16520,7 +16524,7 @@
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="30"/>
-        <v>-2.6400662964985505E-6</v>
+        <v>-2.640066296498559E-6</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="30"/>
@@ -16532,19 +16536,19 @@
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.8917912117726751E-4</v>
+        <v>-1.8917912117726588E-4</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="30"/>
-        <v>-5.3528689512179239E-4</v>
+        <v>-5.3528689512178772E-4</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.7052423043792807E-3</v>
+        <v>-1.7052423043792805E-3</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="30"/>
-        <v>-7.7979760793800406E-3</v>
+        <v>-7.7979760793800389E-3</v>
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="30"/>
@@ -16556,7 +16560,7 @@
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="30"/>
-        <v>1.8694517968264093</v>
+        <v>1.8694517968264091</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="30"/>
@@ -16584,7 +16588,7 @@
       </c>
       <c r="AC38">
         <f t="shared" ca="1" si="30"/>
-        <v>32.172367729808883</v>
+        <v>32.17236772980889</v>
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="30"/>
@@ -16596,7 +16600,7 @@
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="30"/>
-        <v>38.718078462190448</v>
+        <v>38.718078462190441</v>
       </c>
       <c r="AG38">
         <f t="shared" ca="1" si="30"/>
@@ -16617,11 +16621,11 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>14.72169981514371</v>
+        <v>14.721699815143705</v>
       </c>
       <c r="C39" s="22">
         <f ca="1">B4/(phi_q1/SUM(B$39:B$41))</f>
-        <v>1.9205142863537019</v>
+        <v>1.9205142863537024</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="38">
@@ -16630,7 +16634,7 @@
       </c>
       <c r="G39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
-        <v>0.95819125794834603</v>
+        <v>0.95819125794834581</v>
       </c>
       <c r="H39" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
@@ -16638,7 +16642,7 @@
       </c>
       <c r="I39" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
-        <v>0.65145646604463736</v>
+        <v>0.65145646604463714</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>66</v>
@@ -16653,7 +16657,7 @@
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.2628030124283959E-9</v>
+        <v>-1.2628030124284006E-9</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="31"/>
@@ -16665,11 +16669,11 @@
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="31"/>
-        <v>-2.4663624229468304E-6</v>
+        <v>-2.4663624229468063E-6</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.8010612679771743E-5</v>
+        <v>-1.801061267977156E-5</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="31"/>
@@ -16681,7 +16685,7 @@
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.3948240548413836E-2</v>
+        <v>-1.3948240548413822E-2</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="31"/>
@@ -16689,7 +16693,7 @@
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="31"/>
-        <v>1.7250958837337398</v>
+        <v>1.7250958837337393</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="31"/>
@@ -16717,7 +16721,7 @@
       </c>
       <c r="AC39">
         <f t="shared" ca="1" si="31"/>
-        <v>32.071883505007584</v>
+        <v>32.071883505007591</v>
       </c>
       <c r="AD39">
         <f t="shared" ca="1" si="31"/>
@@ -16729,7 +16733,7 @@
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="31"/>
-        <v>38.662322157033948</v>
+        <v>38.662322157033941</v>
       </c>
       <c r="AG39">
         <f t="shared" ca="1" si="31"/>
@@ -16750,7 +16754,7 @@
       </c>
       <c r="B40" s="1">
         <f ca="1">SUMPRODUCT(lz,qa2_)</f>
-        <v>16.158422209266948</v>
+        <v>16.158422209266945</v>
       </c>
       <c r="C40" s="22">
         <f ca="1">B5/(phi_q2/SUM(B$39:B$41))</f>
@@ -16759,7 +16763,7 @@
       <c r="D40" s="20"/>
       <c r="E40" s="38">
         <f ca="1">C40/AVERAGE(C$39:C$41)</f>
-        <v>0.63651992260115797</v>
+        <v>0.63651992260115786</v>
       </c>
       <c r="G40" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
@@ -16767,11 +16771,11 @@
       </c>
       <c r="H40" s="1">
         <f ca="1">re*phi_q2+f2_*phi_q2*$H32+f2_*re*H36</f>
-        <v>0.35627350072357683</v>
+        <v>0.35627350072357677</v>
       </c>
       <c r="I40" s="1">
         <f ca="1">0*re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
-        <v>0.17035462345637994</v>
+        <v>0.17035462345638003</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>65</v>
@@ -16786,7 +16790,7 @@
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="32"/>
-        <v>-2.6400662964985514E-6</v>
+        <v>-2.6400662964985598E-6</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="32"/>
@@ -16798,19 +16802,19 @@
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.8917912117726751E-4</v>
+        <v>-1.8917912117726588E-4</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="32"/>
-        <v>-5.3528689512179239E-4</v>
+        <v>-5.3528689512178772E-4</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.7052423043792807E-3</v>
+        <v>-1.7052423043792805E-3</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="32"/>
-        <v>-7.7979760793800406E-3</v>
+        <v>-7.7979760793800389E-3</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="32"/>
@@ -16822,7 +16826,7 @@
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="32"/>
-        <v>1.8694517968264093</v>
+        <v>1.8694517968264091</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="32"/>
@@ -16850,7 +16854,7 @@
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="32"/>
-        <v>32.172367729808883</v>
+        <v>32.17236772980889</v>
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="32"/>
@@ -16862,7 +16866,7 @@
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="32"/>
-        <v>38.718078462190448</v>
+        <v>38.718078462190441</v>
       </c>
       <c r="AG40">
         <f t="shared" ca="1" si="32"/>
@@ -16887,24 +16891,24 @@
       </c>
       <c r="C41" s="22">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
-        <v>0.50251731480590012</v>
+        <v>0.50251731480590001</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="38">
         <f ca="1">C41/AVERAGE(C$39:C$41)</f>
-        <v>0.49016680654239458</v>
+        <v>0.49016680654239436</v>
       </c>
       <c r="G41" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
-        <v>0.65145646604463736</v>
+        <v>0.65145646604463714</v>
       </c>
       <c r="H41" s="1">
         <f ca="1">0*re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>0.17035462345637994</v>
+        <v>0.17035462345638003</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>0.37141710594348748</v>
+        <v>0.37141710594348754</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
@@ -16919,7 +16923,7 @@
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="33"/>
-        <v>-4.127782438965427E-5</v>
+        <v>-4.1277824389654399E-5</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="33"/>
@@ -16931,11 +16935,11 @@
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="33"/>
-        <v>-6.4862423075560602E-3</v>
+        <v>-6.4862423075560047E-3</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.7348803851249116E-2</v>
+        <v>-1.7348803851248967E-2</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="33"/>
@@ -16947,7 +16951,7 @@
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.44176693001975065</v>
+        <v>-0.44176693001975059</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="33"/>
@@ -16955,7 +16959,7 @@
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="33"/>
-        <v>1.664291141337328</v>
+        <v>1.6642911413373276</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="33"/>
@@ -16995,7 +16999,7 @@
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="33"/>
-        <v>38.753172623770475</v>
+        <v>38.753172623770467</v>
       </c>
       <c r="AG41">
         <f t="shared" ca="1" si="33"/>
@@ -17031,7 +17035,7 @@
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.2628030124283959E-9</v>
+        <v>-1.2628030124284006E-9</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="34"/>
@@ -17043,19 +17047,19 @@
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="34"/>
-        <v>-2.4663624229468304E-6</v>
+        <v>-2.4663624229468063E-6</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.8010612679771743E-5</v>
+        <v>-1.801061267977156E-5</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.8628399711169129E-4</v>
+        <v>-1.8628399711169123E-4</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="34"/>
-        <v>-4.754477231015534E-3</v>
+        <v>-4.7544772310155331E-3</v>
       </c>
       <c r="T42">
         <f t="shared" ca="1" si="34"/>
@@ -17067,7 +17071,7 @@
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="34"/>
-        <v>1.7250958837337398</v>
+        <v>1.7250958837337393</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="34"/>
@@ -17095,7 +17099,7 @@
       </c>
       <c r="AC42">
         <f t="shared" ca="1" si="34"/>
-        <v>32.071883505007584</v>
+        <v>32.071883505007591</v>
       </c>
       <c r="AD42">
         <f t="shared" ca="1" si="34"/>
@@ -17107,7 +17111,7 @@
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="34"/>
-        <v>38.662322157033948</v>
+        <v>38.662322157033941</v>
       </c>
       <c r="AG42">
         <f t="shared" ca="1" si="34"/>
@@ -17138,7 +17142,7 @@
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="35"/>
-        <v>-4.127782438965427E-5</v>
+        <v>-4.1277824389654399E-5</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="35"/>
@@ -17150,31 +17154,31 @@
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="35"/>
-        <v>-6.4862423075560602E-3</v>
+        <v>-6.4862423075560047E-3</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="35"/>
-        <v>-1.7348803851249116E-2</v>
+        <v>-1.7348803851248967E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="35"/>
-        <v>-5.4620164054280898E-2</v>
+        <v>-5.4620164054280877E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.25177219981753857</v>
+        <v>-0.25177219981753851</v>
       </c>
       <c r="T43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.44176693001975065</v>
+        <v>-0.44176693001975059</v>
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="35"/>
-        <v>-5.6097880492297414E-2</v>
+        <v>-5.6097880492297358E-2</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="35"/>
-        <v>1.664291141337328</v>
+        <v>1.6642911413373276</v>
       </c>
       <c r="W43">
         <f t="shared" ca="1" si="35"/>
@@ -17214,7 +17218,7 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="35"/>
-        <v>38.753172623770475</v>
+        <v>38.753172623770467</v>
       </c>
       <c r="AG43">
         <f t="shared" ca="1" si="35"/>
@@ -17265,7 +17269,7 @@
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.0962478811079525E-5</v>
+        <v>1.0962478811079528E-5</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="36"/>
@@ -17277,55 +17281,55 @@
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="36"/>
-        <v>5.5158964448135024E-4</v>
+        <v>5.5158964448134991E-4</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.7084921845616219E-3</v>
+        <v>1.7084921845616212E-3</v>
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="36"/>
-        <v>6.0605913690544742E-3</v>
+        <v>6.0605913690544733E-3</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="36"/>
-        <v>3.702472666362272E-2</v>
+        <v>3.7024726663622713E-2</v>
       </c>
       <c r="T46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.17309818645997563</v>
+        <v>0.1730981864599756</v>
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.44837588165037523</v>
+        <v>0.44837588165037517</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.87935588862392133</v>
+        <v>0.87935588862392122</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.3447099256166932</v>
+        <v>1.3447099256166928</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.6134801576069788</v>
+        <v>1.6134801576069786</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.6255162208122853</v>
+        <v>1.6255162208122851</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.4844764918188378</v>
+        <v>1.4844764918188376</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.289958000639182</v>
+        <v>1.2899580006391818</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.0929492596547064</v>
+        <v>1.0929492596547061</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="36"/>
@@ -17333,27 +17337,27 @@
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.75515679671984004</v>
+        <v>0.75515679671983993</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.62027991197419674</v>
+        <v>0.62027991197419663</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.50651443662133655</v>
+        <v>0.50651443662133644</v>
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.41153511427477391</v>
+        <v>0.41153511427477379</v>
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.33288494298156579</v>
+        <v>0.33288494298156573</v>
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.1850233107297641</v>
+        <v>1.1850233107297639</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -17369,7 +17373,7 @@
       </c>
       <c r="G47" s="30">
         <f ca="1">G39/G53</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="H47" s="30">
         <f ca="1">H53/H39</f>
@@ -17377,7 +17381,7 @@
       </c>
       <c r="I47" s="30">
         <f ca="1">I53/I39</f>
-        <v>0.91573888060516828</v>
+        <v>0.91573888060516839</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
@@ -17392,7 +17396,7 @@
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.29457349626245583</v>
+        <v>0.29457349626245588</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="37"/>
@@ -17404,19 +17408,19 @@
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.2541810739244008</v>
+        <v>1.2541810739244001</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.3650167268732423</v>
+        <v>1.3650167268732416</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.4069730781097922</v>
+        <v>1.406973078109792</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.3858571887434294</v>
+        <v>1.3858571887434292</v>
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="37"/>
@@ -17424,7 +17428,7 @@
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.1885909707460744</v>
+        <v>1.1885909707460742</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="37"/>
@@ -17432,11 +17436,11 @@
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.88763541209337116</v>
+        <v>0.88763541209337093</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.73074532885732124</v>
+        <v>0.73074532885732113</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="37"/>
@@ -17448,11 +17452,11 @@
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.4275860292173167</v>
+        <v>0.42758602921731664</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.35875785490905793</v>
+        <v>0.35875785490905787</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="37"/>
@@ -17460,27 +17464,27 @@
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.24656242236227091</v>
+        <v>0.24656242236227086</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.20240780359181612</v>
+        <v>0.20240780359181609</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.16524803990537074</v>
+        <v>0.16524803990537065</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.13425079120963027</v>
+        <v>0.13425079120963024</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.10859083390248023</v>
+        <v>0.10859083390248021</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.38656645669053014</v>
+        <v>0.38656645669053008</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -17489,11 +17493,11 @@
       </c>
       <c r="B48" s="122">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>2.5844008932292342E-2</v>
+        <v>2.5844008932292325E-2</v>
       </c>
       <c r="C48" s="19">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.60367653566062185</v>
+        <v>0.60367653566062174</v>
       </c>
       <c r="F48" t="s">
         <v>84</v>
@@ -17504,11 +17508,11 @@
       </c>
       <c r="H48" s="30">
         <f t="shared" ref="H48:I49" ca="1" si="38">H40/H54</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="I48" s="30">
         <f ca="1">I54/I40</f>
-        <v>2.1353486094044838</v>
+        <v>2.135348609404482</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
@@ -17523,7 +17527,7 @@
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.7138335678324167E-4</v>
+        <v>1.713833567832417E-4</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="39"/>
@@ -17535,19 +17539,19 @@
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.887450883012716E-2</v>
+        <v>1.8874508830127149E-2</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="39"/>
-        <v>5.5003520487977908E-2</v>
+        <v>5.5003520487977887E-2</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.18885060891744607</v>
+        <v>0.18885060891744604</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.95651541218783054</v>
+        <v>0.95651541218783032</v>
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="39"/>
@@ -17559,55 +17563,55 @@
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.886125215549155</v>
+        <v>1.8861252155491548</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.5763944930687612</v>
+        <v>1.576394493068761</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.2719963558927312</v>
+        <v>1.271996355892731</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.0005358619527487</v>
+        <v>1.0005358619527485</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.85993173222431463</v>
+        <v>0.85993173222431452</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.7290386636763162</v>
+        <v>0.72903866367631609</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.61168590471732132</v>
+        <v>0.6116859047173212</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.50891550533965613</v>
+        <v>0.50891550533965624</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.42039151569292116</v>
+        <v>0.4203915156929211</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.34510742766396213</v>
+        <v>0.34510742766396207</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.28174964090445803</v>
+        <v>0.28174964090445787</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.22889900682702946</v>
+        <v>0.22889900682702943</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.18514851053640283</v>
+        <v>0.18514851053640277</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="39"/>
@@ -17624,22 +17628,22 @@
       </c>
       <c r="C49" s="19">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.22513434994031628</v>
+        <v>0.22513434994031639</v>
       </c>
       <c r="F49" t="s">
         <v>85</v>
       </c>
       <c r="G49" s="30">
         <f ca="1">G41/G55</f>
-        <v>1.0920143516666536</v>
+        <v>1.0920143516666534</v>
       </c>
       <c r="H49" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>0.46830760822650164</v>
+        <v>0.46830760822650197</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>0.99999999999999967</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AL49" s="30"/>
       <c r="AM49" s="30"/>
@@ -17655,11 +17659,11 @@
       </c>
       <c r="B50" s="122">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>7.3287807961576875E-3</v>
+        <v>7.328780796157691E-3</v>
       </c>
       <c r="C50" s="19">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.17118911439906173</v>
+        <v>0.1711891143990619</v>
       </c>
       <c r="M50" t="s">
         <v>166</v>
@@ -17687,7 +17691,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>4.2811021143981429E-2</v>
+        <v>4.2811021143981408E-2</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -17709,7 +17713,7 @@
       </c>
       <c r="R51">
         <f ca="1">(ye_1-N51)/hh</f>
-        <v>0.18975139119345452</v>
+        <v>0.18975139117610729</v>
       </c>
       <c r="AL51" s="30"/>
       <c r="AM51" s="30"/>
@@ -17724,15 +17728,15 @@
       <c r="B52" s="1"/>
       <c r="G52" s="1">
         <f ca="1">G39^0.5</f>
-        <v>0.97887244212325542</v>
+        <v>0.9788724421232553</v>
       </c>
       <c r="H52" s="56">
         <f ca="1">H40^0.5</f>
-        <v>0.59688650573084401</v>
+        <v>0.5968865057308439</v>
       </c>
       <c r="I52" s="10">
         <f ca="1">I41^0.5</f>
-        <v>0.60943999371840329</v>
+        <v>0.60943999371840341</v>
       </c>
       <c r="M52">
         <v>2.883099712139368E-2</v>
@@ -17767,7 +17771,7 @@
       </c>
       <c r="B53" s="34">
         <f ca="1">f1_*phi_q1</f>
-        <v>1.2491659882215276</v>
+        <v>1.2491659882215269</v>
       </c>
       <c r="C53">
         <f ca="1">AVERAGE(B53:B55)/B53</f>
@@ -17775,19 +17779,19 @@
       </c>
       <c r="G53">
         <f ca="1">G$52*$J53</f>
-        <v>0.95819125794834603</v>
+        <v>0.95819125794834592</v>
       </c>
       <c r="H53">
         <f t="shared" ref="G53:I55" ca="1" si="40">H$52*$J53</f>
-        <v>0.58427575153516775</v>
+        <v>0.58427575153516764</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="40"/>
-        <v>0.59656401497871492</v>
+        <v>0.59656401497871503</v>
       </c>
       <c r="J53">
         <f t="array" aca="1" ref="J53:J55" ca="1">TRANSPOSE(G52:I52)</f>
-        <v>0.97887244212325542</v>
+        <v>0.9788724421232553</v>
       </c>
       <c r="M53">
         <v>2.2201948153923023E-2</v>
@@ -17806,7 +17810,7 @@
       </c>
       <c r="R53">
         <f ca="1">(ye_3-N53)/hh</f>
-        <v>-3.2498105300565738E-2</v>
+        <v>-3.2498105297096291E-2</v>
       </c>
       <c r="AL53" s="30"/>
       <c r="AM53" s="30"/>
@@ -17820,19 +17824,19 @@
       </c>
       <c r="B54" s="34">
         <f ca="1">f2_*phi_q2</f>
-        <v>0.46586235527284087</v>
+        <v>0.46586235527284081</v>
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
-        <v>1.4805974007151768</v>
+        <v>1.4805974007151761</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="40"/>
-        <v>0.58427575153516775</v>
+        <v>0.58427575153516764</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="40"/>
-        <v>0.35627350072357689</v>
+        <v>0.35627350072357672</v>
       </c>
       <c r="I54">
         <f ca="1">I$52*$J54</f>
@@ -17840,7 +17844,7 @@
       </c>
       <c r="J54">
         <f ca="1"/>
-        <v>0.59688650573084401</v>
+        <v>0.5968865057308439</v>
       </c>
       <c r="AL54" s="30"/>
       <c r="AM54" s="30"/>
@@ -17855,11 +17859,11 @@
       </c>
       <c r="B55" s="34">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.35423543342968666</v>
+        <v>0.35423543342968683</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471643071667195</v>
+        <v>1.9471643071667182</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="40"/>
@@ -17871,11 +17875,11 @@
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="40"/>
-        <v>0.37141710594348742</v>
+        <v>0.37141710594348759</v>
       </c>
       <c r="J55">
         <f ca="1"/>
-        <v>0.60943999371840329</v>
+        <v>0.60943999371840341</v>
       </c>
       <c r="S55" s="32"/>
       <c r="AL55" s="30"/>
@@ -17891,11 +17895,11 @@
       </c>
       <c r="B56" s="33">
         <f ca="1">phi_t1*f1_</f>
-        <v>4.4667692660797835E-2</v>
+        <v>4.4667692660797821E-2</v>
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.0015529916011847</v>
+        <v>1.0015529916011849</v>
       </c>
       <c r="AL56" s="30"/>
       <c r="AM56" s="30"/>
@@ -17910,11 +17914,11 @@
       </c>
       <c r="B57" s="33">
         <f ca="1">phi_t2*f2_</f>
-        <v>7.0997393739105089E-2</v>
+        <v>7.0997393739105075E-2</v>
       </c>
       <c r="C57">
         <f ca="1">AVERAGE(B56:B58)/B57</f>
-        <v>0.63012258417175326</v>
+        <v>0.63012258417175315</v>
       </c>
       <c r="I57"/>
       <c r="AL57" s="30"/>
@@ -17930,11 +17934,11 @@
       </c>
       <c r="B58" s="33">
         <f ca="1">phi_t3*f3_</f>
-        <v>1.8546097237130129E-2</v>
+        <v>1.8546097237130136E-2</v>
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>2.4122089213885238</v>
+        <v>2.4122089213885221</v>
       </c>
       <c r="I58"/>
       <c r="AL58" s="30"/>
@@ -17957,7 +17961,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>27.965760347362782</v>
+        <v>27.965760347362774</v>
       </c>
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
@@ -17971,7 +17975,7 @@
       </c>
       <c r="B61">
         <f ca="1">ypr2/mpr2_</f>
-        <v>6.561682489145312</v>
+        <v>6.5616824891453129</v>
       </c>
       <c r="AL61" s="30"/>
       <c r="AM61" s="30"/>
@@ -18266,7 +18270,7 @@
       </c>
       <c r="F4" s="46">
         <f ca="1">ye_1</f>
-        <v>22185.133991994633</v>
+        <v>22185.133991994629</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -18382,7 +18386,7 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">ypr2/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.22513595166163142</v>
+        <v>0.2251359516616315</v>
       </c>
       <c r="E5" s="46">
         <v>9315</v>
@@ -18512,7 +18516,7 @@
       </c>
       <c r="F6" s="46">
         <f ca="1">ye_3</f>
-        <v>6291.2801403410349</v>
+        <v>6291.2801403410331</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -18678,11 +18682,11 @@
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11522138309293593</v>
+        <v>0.11522138309293595</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.2002116389942781E-2</v>
+        <v>9.2002116389942795E-2</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -18694,15 +18698,15 @@
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.079275850306649E-2</v>
+        <v>4.0792758503066483E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0376571826774293E-2</v>
+        <v>3.0376571826774289E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.254828216123269E-2</v>
+        <v>2.2548282161232686E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -18730,7 +18734,7 @@
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>1.0655163487855189E-2</v>
+        <v>1.0655163487855187E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -18742,7 +18746,7 @@
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>9505448.5453321338</v>
+        <v>9505448.545332158</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -19057,7 +19061,7 @@
       </c>
       <c r="C11" s="17">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.20363299727562001</v>
+        <v>0.20363299727562004</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -19289,7 +19293,7 @@
       </c>
       <c r="C13" s="17">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.11478826544274839</v>
+        <v>0.11478826544274841</v>
       </c>
       <c r="J13" t="s">
         <v>100</v>
@@ -20474,15 +20478,15 @@
       </c>
       <c r="C27" s="35">
         <f ca="1">CHOOSE(C$25,E36,E39,1)</f>
-        <v>1.5625829326748903</v>
+        <v>1.5625829326748901</v>
       </c>
       <c r="E27" s="41">
         <f ca="1">f1_/(F4/(f1_*365*re*phib))</f>
-        <v>137.71284947495315</v>
+        <v>137.71284947495317</v>
       </c>
       <c r="F27" s="106">
         <f ca="1">F4/E27</f>
-        <v>161.09705141225479</v>
+        <v>161.09705141225473</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
@@ -20718,19 +20722,19 @@
       </c>
       <c r="B29" s="27">
         <f ca="1">fbar*C29</f>
-        <v>2.4092698273042324E-2</v>
+        <v>2.4092698273042321E-2</v>
       </c>
       <c r="C29" s="35">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
-        <v>0.28388883207834081</v>
+        <v>0.28388883207834087</v>
       </c>
       <c r="E29" s="41">
         <f ca="1">f3_/(F6/(f3_*365*re*phib))</f>
-        <v>16.029056510573863</v>
+        <v>16.029056510573859</v>
       </c>
       <c r="F29" s="106">
         <f t="shared" ca="1" si="22"/>
-        <v>392.49223035622066</v>
+        <v>392.4922303562206</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -20742,7 +20746,7 @@
       </c>
       <c r="C30" s="35">
         <f ca="1">AVERAGE(C27:C29)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G30" t="s">
         <v>58</v>
@@ -20764,7 +20768,7 @@
       </c>
       <c r="G31">
         <f ca="1">SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-93.602712455615418</v>
+        <v>-93.602712455615404</v>
       </c>
       <c r="H31">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
@@ -20822,55 +20826,55 @@
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.987917377371299E-2</v>
+        <v>-5.9879173773713004E-2</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="24"/>
-        <v>-8.7532109018056733E-2</v>
+        <v>-8.7532109018056747E-2</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.10835901600858783</v>
+        <v>-0.10835901600858784</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.11755239189745684</v>
+        <v>-0.11755239189745686</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.11642415307513278</v>
+        <v>-0.11642415307513279</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.10850031071171044</v>
+        <v>-0.10850031071171046</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="24"/>
-        <v>-9.7007244412971205E-2</v>
+        <v>-9.7007244412971191E-2</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="24"/>
-        <v>-8.4221197168351025E-2</v>
+        <v>-8.4221197168351011E-2</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="24"/>
-        <v>-7.1555422828501025E-2</v>
+        <v>-7.1555422828500997E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.9798913276542257E-2</v>
+        <v>-5.9798913276542229E-2</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.9329393650679343E-2</v>
+        <v>-4.9329393650679329E-2</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.0269212266321124E-2</v>
+        <v>-4.0269212266321117E-2</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-0.15614586836874611</v>
+        <v>-0.15614586836874608</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -21001,11 +21005,11 @@
       <c r="C33" s="57"/>
       <c r="G33">
         <f ca="1">SUMPRODUCT(dlz3_,wa,ma)</f>
-        <v>-177.79367079111066</v>
+        <v>-177.79367079111071</v>
       </c>
       <c r="H33">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-19495.231379170451</v>
+        <v>-19495.231379170458</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -21063,51 +21067,51 @@
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.38935153931794719</v>
+        <v>-0.38935153931794725</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.3257671629692025</v>
+        <v>-0.32576716296920255</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.26527396673310755</v>
+        <v>-0.2652739667331076</v>
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.21380657854045862</v>
+        <v>-0.21380657854045867</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.17104520362966502</v>
+        <v>-0.17104520362966508</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.13603631210006742</v>
+        <v>-0.13603631210006747</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.1076676095444776</v>
+        <v>-0.10766760954447764</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="26"/>
-        <v>-8.4859872636847994E-2</v>
+        <v>-8.4859872636848022E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="26"/>
-        <v>-6.6639856271353576E-2</v>
+        <v>-6.663985627135359E-2</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="26"/>
-        <v>-5.2162854459811815E-2</v>
+        <v>-5.2162854459811822E-2</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="26"/>
-        <v>-4.0713055856186564E-2</v>
+        <v>-4.0713055856186571E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-0.13917573018997681</v>
+        <v>-0.13917573018997684</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -21209,7 +21213,7 @@
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="27"/>
-        <v>51.757602954089236</v>
+        <v>51.757602954089243</v>
       </c>
       <c r="AA35">
         <f t="shared" ca="1" si="27"/>
@@ -21254,7 +21258,7 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">SUMPRODUCT(lz,ta1_)</f>
-        <v>0.35658537438540761</v>
+        <v>0.35658537438540755</v>
       </c>
       <c r="C36" s="28">
         <f ca="1">B11/(phi_t1/SUM(B$36:B$38))</f>
@@ -21274,7 +21278,7 @@
       </c>
       <c r="I36" s="10">
         <f ca="1">SUM(dqa23_)</f>
-        <v>891.54007751810127</v>
+        <v>891.54007751810104</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>63</v>
@@ -21402,7 +21406,7 @@
       </c>
       <c r="H37" s="1">
         <f ca="1">SUM(dqa32_)</f>
-        <v>891.54007751810127</v>
+        <v>891.54007751810104</v>
       </c>
       <c r="I37" s="1">
         <f ca="1">SUM(dqa33_)</f>
@@ -21795,7 +21799,7 @@
       </c>
       <c r="I40" s="107">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
-        <v>414240.99236423301</v>
+        <v>414240.99236423289</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>65</v>
@@ -21907,7 +21911,7 @@
       </c>
       <c r="B41" s="1">
         <f ca="1">SUMPRODUCT(lz,qa3_)</f>
-        <v>33.242674119398259</v>
+        <v>33.242674119398252</v>
       </c>
       <c r="C41" s="22">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
@@ -21924,11 +21928,11 @@
       </c>
       <c r="H41" s="107">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>414240.99236423307</v>
+        <v>414240.99236423295</v>
       </c>
       <c r="I41" s="107">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>249577.39331008765</v>
+        <v>249577.3933100875</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
@@ -22040,7 +22044,7 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">SUMPRODUCT(lz/SUM(lz),len,ta1_)</f>
-        <v>8.6166059133718278</v>
+        <v>8.6166059133718296</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
@@ -22325,11 +22329,11 @@
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.4652572337848051</v>
+        <v>1.4652572337848053</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="36"/>
-        <v>2.2097804176112139</v>
+        <v>2.2097804176112144</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="36"/>
@@ -22341,15 +22345,15 @@
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="36"/>
-        <v>2.2424653043682308</v>
+        <v>2.2424653043682303</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.8791145355961141</v>
+        <v>1.8791145355961139</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.5331746178019139</v>
+        <v>1.5331746178019137</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="36"/>
@@ -22401,7 +22405,7 @@
       </c>
       <c r="I47" s="30">
         <f ca="1">I53/I39</f>
-        <v>0.49625355222995315</v>
+        <v>0.4962535522299531</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
@@ -22452,11 +22456,11 @@
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.3887883782198514</v>
+        <v>0.38878837821985146</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.27153409741632678</v>
+        <v>0.27153409741632684</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="37"/>
@@ -22468,15 +22472,15 @@
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="37"/>
-        <v>9.7958721521240563E-2</v>
+        <v>9.7958721521240535E-2</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="37"/>
-        <v>8.0086224045328822E-2</v>
+        <v>8.0086224045328808E-2</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="37"/>
-        <v>6.4706880887811125E-2</v>
+        <v>6.4706880887811111E-2</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="37"/>
@@ -22504,7 +22508,7 @@
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="37"/>
-        <v>4.606553734834487E-2</v>
+        <v>4.6065537348344864E-2</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -22532,7 +22536,7 @@
       </c>
       <c r="I48" s="30">
         <f ca="1">I54/I40</f>
-        <v>0.34218704405467876</v>
+        <v>0.34218704405467881</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
@@ -22583,11 +22587,11 @@
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="39"/>
-        <v>3.1446354757637955</v>
+        <v>3.144635475763796</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="39"/>
-        <v>2.5907857328070203</v>
+        <v>2.5907857328070207</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="39"/>
@@ -22599,7 +22603,7 @@
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.2990620905880432</v>
+        <v>1.299062090588043</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="39"/>
@@ -22607,7 +22611,7 @@
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.85809874461586255</v>
+        <v>0.85809874461586244</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="39"/>
@@ -22635,7 +22639,7 @@
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.61088989650428227</v>
+        <v>0.61088989650428216</v>
       </c>
     </row>
     <row r="49" spans="1:47">
@@ -22659,11 +22663,11 @@
       </c>
       <c r="H49" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>2.9223783231261327</v>
+        <v>2.9223783231261322</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="AL49" s="30"/>
       <c r="AM49" s="30"/>
@@ -22679,11 +22683,11 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>6291.2801403410385</v>
+        <v>6291.2801403410367</v>
       </c>
       <c r="C50" s="19">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.17119033232628406</v>
+        <v>0.17119033232628403</v>
       </c>
       <c r="AL50" s="30"/>
       <c r="AM50" s="30"/>
@@ -22699,7 +22703,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>36750.206947142506</v>
+        <v>36750.206947142498</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -22725,7 +22729,7 @@
       </c>
       <c r="I52" s="108">
         <f ca="1">I41^0.5</f>
-        <v>499.57721456256155</v>
+        <v>499.57721456256138</v>
       </c>
       <c r="J52" s="107"/>
       <c r="AL52" s="30"/>
@@ -22758,7 +22762,7 @@
       </c>
       <c r="I53" s="107">
         <f t="shared" ca="1" si="40"/>
-        <v>514533.50960067927</v>
+        <v>514533.5096006791</v>
       </c>
       <c r="J53" s="107">
         <f t="array" aca="1" ref="J53:J55" ca="1">TRANSPOSE(G52:I52)</f>
@@ -22780,7 +22784,7 @@
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
-        <v>1.4805868670602971</v>
+        <v>1.4805868670602969</v>
       </c>
       <c r="G54" s="107">
         <f t="shared" ref="G54:I55" ca="1" si="41">G$52*$J54</f>
@@ -22792,7 +22796,7 @@
       </c>
       <c r="I54" s="107">
         <f ca="1">I$52*$J54</f>
-        <v>141747.90070339362</v>
+        <v>141747.90070339356</v>
       </c>
       <c r="J54" s="107">
         <f ca="1"/>
@@ -22811,27 +22815,27 @@
       </c>
       <c r="B55" s="34">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.80090571734773519</v>
+        <v>0.80090571734773497</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471504541390177</v>
+        <v>1.9471504541390183</v>
       </c>
       <c r="G55" s="107">
         <f t="shared" ca="1" si="41"/>
-        <v>514533.50960067927</v>
+        <v>514533.5096006791</v>
       </c>
       <c r="H55" s="107">
         <f t="shared" ca="1" si="41"/>
-        <v>141747.90070339362</v>
+        <v>141747.90070339356</v>
       </c>
       <c r="I55" s="107">
         <f t="shared" ca="1" si="41"/>
-        <v>249577.39331008767</v>
+        <v>249577.3933100875</v>
       </c>
       <c r="J55" s="107">
         <f ca="1"/>
-        <v>499.57721456256155</v>
+        <v>499.57721456256138</v>
       </c>
       <c r="S55" s="32"/>
       <c r="AL55" s="30"/>
@@ -22847,11 +22851,11 @@
       </c>
       <c r="B56" s="33">
         <f ca="1">phi_t1*f1_</f>
-        <v>4.7287214946133603E-2</v>
+        <v>4.7287214946133596E-2</v>
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.6369318224106972</v>
+        <v>1.636931822410697</v>
       </c>
       <c r="AL56" s="30"/>
       <c r="AM56" s="30"/>
@@ -22878,11 +22882,11 @@
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>1644604658047.0205</v>
+        <v>1644604658047.0203</v>
       </c>
       <c r="I57">
         <f ca="1"/>
-        <v>1799654708781.2544</v>
+        <v>1799654708781.2542</v>
       </c>
       <c r="AL57" s="30"/>
       <c r="AM57" s="30"/>
@@ -22897,15 +22901,15 @@
       </c>
       <c r="B58" s="33">
         <f ca="1">phi_t3*f3_</f>
-        <v>2.6655883152071801E-2</v>
+        <v>2.6655883152071798E-2</v>
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>2.9038972934004832</v>
+        <v>2.9038972934004836</v>
       </c>
       <c r="G58">
         <f ca="1"/>
-        <v>1644604658047.0205</v>
+        <v>1644604658047.0203</v>
       </c>
       <c r="H58">
         <f ca="1"/>
@@ -22924,7 +22928,7 @@
     <row r="59" spans="1:47">
       <c r="G59">
         <f ca="1"/>
-        <v>1799654708781.2544</v>
+        <v>1799654708781.2542</v>
       </c>
       <c r="H59">
         <f ca="1"/>
@@ -22932,7 +22936,7 @@
       </c>
       <c r="I59">
         <f ca="1"/>
-        <v>1308913205111.0293</v>
+        <v>1308913205111.0288</v>
       </c>
       <c r="AL59" s="30"/>
       <c r="AM59" s="30"/>
@@ -22946,7 +22950,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>59.725623146655145</v>
+        <v>59.725623146655153</v>
       </c>
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
@@ -22974,7 +22978,7 @@
       </c>
       <c r="B62">
         <f ca="1">ypr3/mpr3_</f>
-        <v>30.046114502324624</v>
+        <v>30.04611450232462</v>
       </c>
       <c r="AL62" s="30"/>
       <c r="AM62" s="30"/>
@@ -28249,14 +28253,14 @@
       </c>
       <c r="C4" s="21">
         <f ca="1">ypr1/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.60367371601208453</v>
+        <v>0.60367371601208442</v>
       </c>
       <c r="E4" s="46">
         <v>24977</v>
       </c>
       <c r="F4" s="46">
         <f ca="1">ye_1</f>
-        <v>24487.654004566433</v>
+        <v>24487.654004566448</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -28372,14 +28376,14 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">ypr2/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.22513595166163139</v>
+        <v>0.22513595166163153</v>
       </c>
       <c r="E5" s="46">
         <v>9315</v>
       </c>
       <c r="F5" s="46">
         <f ca="1">ye_2</f>
-        <v>9132.5017837424984</v>
+        <v>9132.5017837425094</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -28502,7 +28506,7 @@
       </c>
       <c r="F6" s="46">
         <f ca="1">ye_3</f>
-        <v>6944.2308249327034</v>
+        <v>6944.2308249327079</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -28617,7 +28621,7 @@
       </c>
       <c r="C7" s="22">
         <f ca="1">spr</f>
-        <v>0.26465786010982051</v>
+        <v>0.26465786010982062</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -28660,7 +28664,7 @@
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18995007177435674</v>
+        <v>0.18995007177435672</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -28720,7 +28724,7 @@
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>4.9843566083322454E-3</v>
+        <v>4.9843566083322462E-3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -28732,7 +28736,7 @@
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>292021.9861328961</v>
+        <v>292021.9861328766</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -28743,31 +28747,31 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" ref="L8:AI8" ca="1" si="5">M+f1_*flt1_ +f2_*flt2_ +f3_*flt3_</f>
-        <v>0.15407718613123414</v>
+        <v>0.15407718613123417</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17771778388825354</v>
+        <v>0.17771778388825357</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19498879870488017</v>
+        <v>0.1949887987048802</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19548341707276354</v>
+        <v>0.19548341707276357</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18268204978669478</v>
+        <v>0.18268204978669481</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19414409331688542</v>
+        <v>0.19414409331688545</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20440322401249245</v>
+        <v>0.2044032240124925</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28775,7 +28779,7 @@
       </c>
       <c r="T8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21164473952595517</v>
+        <v>0.21164473952595522</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28783,7 +28787,7 @@
       </c>
       <c r="V8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25298528601544429</v>
+        <v>0.25298528601544434</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28795,7 +28799,7 @@
       </c>
       <c r="Y8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33994631009620857</v>
+        <v>0.33994631009620863</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28811,7 +28815,7 @@
       </c>
       <c r="AC8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35660868557644765</v>
+        <v>0.3566086855764477</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28819,7 +28823,7 @@
       </c>
       <c r="AE8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35697479916092978</v>
+        <v>0.35697479916092983</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28831,11 +28835,11 @@
       </c>
       <c r="AH8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35703215881710093</v>
+        <v>0.35703215881710099</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35703287033438147</v>
+        <v>0.35703287033438152</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -28942,7 +28946,7 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8572058540543589</v>
+        <v>0.85720585405435878</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -28958,7 +28962,7 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83303297664754294</v>
+        <v>0.83303297664754283</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -28966,7 +28970,7 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81513362346188867</v>
+        <v>0.81513362346188856</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -28982,7 +28986,7 @@
       </c>
       <c r="V10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77647930684421262</v>
+        <v>0.77647930684421251</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -28994,7 +28998,7 @@
       </c>
       <c r="Y10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71180853866865545</v>
+        <v>0.71180853866865534</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -29030,7 +29034,7 @@
       </c>
       <c r="AH10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69974999424068896</v>
+        <v>0.69974999424068884</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -29047,7 +29051,7 @@
       </c>
       <c r="C11" s="17">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.28363576736936597</v>
+        <v>0.28363576736936591</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -29058,7 +29062,7 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" ref="L11:AI11" ca="1" si="7">1-sa</f>
-        <v>0.1427941459456411</v>
+        <v>0.14279414594564122</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -29074,7 +29078,7 @@
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16696702335245706</v>
+        <v>0.16696702335245717</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -29082,7 +29086,7 @@
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18486637653811133</v>
+        <v>0.18486637653811144</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -29098,7 +29102,7 @@
       </c>
       <c r="V11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22352069315578738</v>
+        <v>0.22352069315578749</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -29110,7 +29114,7 @@
       </c>
       <c r="Y11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28819146133134455</v>
+        <v>0.28819146133134466</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -29146,7 +29150,7 @@
       </c>
       <c r="AH11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30025000575931104</v>
+        <v>0.30025000575931116</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -29163,7 +29167,7 @@
       </c>
       <c r="C12" s="17">
         <f ca="1">mpr2_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.55044115511719194</v>
+        <v>0.55044115511719205</v>
       </c>
       <c r="J12" t="s">
         <v>99</v>
@@ -29279,7 +29283,7 @@
       </c>
       <c r="C13" s="17">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.16592307751344212</v>
+        <v>0.16592307751344215</v>
       </c>
       <c r="J13" t="s">
         <v>100</v>
@@ -29394,7 +29398,7 @@
       </c>
       <c r="C14" s="28">
         <f ca="1">spr</f>
-        <v>0.26465786010982051</v>
+        <v>0.26465786010982062</v>
       </c>
       <c r="J14" t="s">
         <v>101</v>
@@ -29507,7 +29511,7 @@
       </c>
       <c r="C15" s="25">
         <f ca="1">CHOOSE(C25,SUMXMY2(B14,C14),SUMXMY2(B7,C7))</f>
-        <v>1.8317494830052922E-2</v>
+        <v>1.8317494830052891E-2</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -30002,31 +30006,31 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9360081360862381E-5</v>
+        <v>1.9360081360862391E-5</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.4883748448997301E-4</v>
+        <v>1.4883748448997299E-4</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>8.1743926359859704E-4</v>
+        <v>8.1743926359859693E-4</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>3.7387585920238726E-3</v>
+        <v>3.7387585920238722E-3</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5219713485545258E-2</v>
+        <v>1.5219713485545268E-2</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6150303576070489E-2</v>
+        <v>5.6150303576070482E-2</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0.19387515157597354</v>
+        <v>0.19387515157597363</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -30034,7 +30038,7 @@
       </c>
       <c r="T22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9339735053852367</v>
+        <v>1.9339735053852363</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -30042,7 +30046,7 @@
       </c>
       <c r="V22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>12.547432765823478</v>
+        <v>12.54743276582348</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -30054,7 +30058,7 @@
       </c>
       <c r="Y22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45.558638509206808</v>
+        <v>45.558638509206816</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -30070,7 +30074,7 @@
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>71.751569484615985</v>
+        <v>71.75156948461597</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -30078,7 +30082,7 @@
       </c>
       <c r="AE22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>82.098559403943781</v>
+        <v>82.098559403943767</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -30090,11 +30094,11 @@
       </c>
       <c r="AH22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>96.084313769283682</v>
+        <v>96.084313769283696</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>100.34080989113323</v>
+        <v>100.34080989113322</v>
       </c>
       <c r="AM22" s="42"/>
     </row>
@@ -30114,31 +30118,31 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>3.8923952920294554E-2</v>
+        <v>3.8923952920294574E-2</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>0.79988447549817576</v>
+        <v>0.79988447549817554</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>2.7516225537514747</v>
+        <v>2.7516225537514742</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>4.7388694670856868</v>
+        <v>4.7388694670856859</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>5.5451676078242498</v>
+        <v>5.5451676078242524</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>7.3404926125067629</v>
+        <v>7.340492612506762</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>9.1350700134265761</v>
+        <v>9.1350700134265779</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -30146,7 +30150,7 @@
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>12.478125060922169</v>
+        <v>12.478125060922165</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -30154,7 +30158,7 @@
       </c>
       <c r="V23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>14.847898885759141</v>
+        <v>14.847898885759145</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -30166,7 +30170,7 @@
       </c>
       <c r="Y23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>16.446358725668208</v>
+        <v>16.446358725668215</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -30182,7 +30186,7 @@
       </c>
       <c r="AC23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>23.462202423072416</v>
+        <v>23.462202423072412</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -30190,7 +30194,7 @@
       </c>
       <c r="AE23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>26.790144239262247</v>
+        <v>26.790144239262244</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -30202,7 +30206,7 @@
       </c>
       <c r="AH23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>31.343789883745892</v>
+        <v>31.343789883745899</v>
       </c>
       <c r="AI23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -30226,31 +30230,31 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>9.9326286214240734E-4</v>
+        <v>9.9326286214240778E-4</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0637117439866103E-2</v>
+        <v>1.0637117439866102E-2</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>8.0651598905731828E-2</v>
+        <v>8.0651598905731814E-2</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0.49186943898922891</v>
+        <v>0.4918694389892288</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0.2702216145783472</v>
+        <v>0.27022161457834731</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>5.9681734960742316</v>
+        <v>5.9681734960742308</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>14.408709040160071</v>
+        <v>14.408709040160074</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -30258,7 +30262,7 @@
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>23.266341244905384</v>
+        <v>23.266341244905377</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -30266,7 +30270,7 @@
       </c>
       <c r="V24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>26.928444751209721</v>
+        <v>26.928444751209728</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -30278,7 +30282,7 @@
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>28.042347196354278</v>
+        <v>28.042347196354285</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -30294,7 +30298,7 @@
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>40.004917642474062</v>
+        <v>40.004917642474055</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -30302,7 +30306,7 @@
       </c>
       <c r="AE24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>45.679322622660301</v>
+        <v>45.679322622660294</v>
       </c>
       <c r="AF24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -30314,11 +30318,11 @@
       </c>
       <c r="AH24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>53.443649930715452</v>
+        <v>53.443649930715459</v>
       </c>
       <c r="AI24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>55.810958007093618</v>
+        <v>55.81095800709361</v>
       </c>
       <c r="AM24" s="43"/>
     </row>
@@ -30356,15 +30360,15 @@
       </c>
       <c r="L26">
         <f t="shared" ref="L26:AI26" ca="1" si="20">qa1_/wa</f>
-        <v>4.161436940416291E-5</v>
+        <v>4.1614369404162931E-5</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="20"/>
-        <v>1.0553787522207281E-4</v>
+        <v>1.055378752220728E-4</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="20"/>
-        <v>2.684613275145134E-4</v>
+        <v>2.6846132751451334E-4</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="20"/>
@@ -30372,15 +30376,15 @@
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="20"/>
-        <v>1.774702897835771E-3</v>
+        <v>1.7747028978357723E-3</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="20"/>
-        <v>4.5142170202072205E-3</v>
+        <v>4.5142170202072196E-3</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="20"/>
-        <v>1.1435389428486946E-2</v>
+        <v>1.143538942848695E-2</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="20"/>
@@ -30388,7 +30392,7 @@
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="20"/>
-        <v>7.0063042202891543E-2</v>
+        <v>7.0063042202891529E-2</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="20"/>
@@ -30396,7 +30400,7 @@
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.31529174946895522</v>
+        <v>0.31529174946895527</v>
       </c>
       <c r="W26">
         <f t="shared" ca="1" si="20"/>
@@ -30408,7 +30412,7 @@
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.76607092066293669</v>
+        <v>0.76607092066293681</v>
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="20"/>
@@ -30424,7 +30428,7 @@
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.8391160667100902</v>
+        <v>0.83911606671009009</v>
       </c>
       <c r="AD26">
         <f t="shared" ca="1" si="20"/>
@@ -30432,7 +30436,7 @@
       </c>
       <c r="AE26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.84070786533170938</v>
+        <v>0.84070786533170927</v>
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="20"/>
@@ -30444,11 +30448,11 @@
       </c>
       <c r="AH26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.84095720412886921</v>
+        <v>0.84095720412886932</v>
       </c>
       <c r="AI26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.84096029696260577</v>
+        <v>0.84096029696260566</v>
       </c>
       <c r="AM26" s="43"/>
     </row>
@@ -30458,15 +30462,15 @@
       </c>
       <c r="B27" s="27">
         <f ca="1">fbar*C27</f>
-        <v>0.17733080709272392</v>
+        <v>0.17733080709272395</v>
       </c>
       <c r="C27" s="35">
         <f ca="1">CHOOSE(C$25,E36,E39,1)</f>
-        <v>2.1358168973407969</v>
+        <v>2.1358168973407965</v>
       </c>
       <c r="E27" s="41">
         <f ca="1">f1_/(F4/(f1_*365*re*phib))</f>
-        <v>214.28701780708394</v>
+        <v>214.28701780708386</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
@@ -30477,23 +30481,23 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="21"/>
-        <v>8.3666784519299695E-2</v>
+        <v>8.3666784519299736E-2</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56718311423011702</v>
+        <v>0.56718311423011691</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.90368089287394027</v>
+        <v>0.90368089287394016</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.87238851060714739</v>
+        <v>0.87238851060714717</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.64659725900472065</v>
+        <v>0.64659725900472087</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="21"/>
@@ -30501,7 +30505,7 @@
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.53881625474366468</v>
+        <v>0.53881625474366479</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="21"/>
@@ -30509,7 +30513,7 @@
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.4520513855654924</v>
+        <v>0.45205138556549229</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="21"/>
@@ -30517,7 +30521,7 @@
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.37309783626658172</v>
+        <v>0.37309783626658183</v>
       </c>
       <c r="W27">
         <f t="shared" ca="1" si="21"/>
@@ -30529,7 +30533,7 @@
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27654639345685139</v>
+        <v>0.2765463934568515</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="21"/>
@@ -30545,7 +30549,7 @@
       </c>
       <c r="AC27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27438439542183962</v>
+        <v>0.27438439542183957</v>
       </c>
       <c r="AD27">
         <f t="shared" ca="1" si="21"/>
@@ -30565,7 +30569,7 @@
       </c>
       <c r="AH27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27432975137575555</v>
+        <v>0.2743297513757556</v>
       </c>
       <c r="AI27">
         <f t="shared" ca="1" si="21"/>
@@ -30578,15 +30582,15 @@
       </c>
       <c r="B28" s="27">
         <f ca="1">fbar*C28</f>
-        <v>4.4375909939816216E-2</v>
+        <v>4.4375909939816181E-2</v>
       </c>
       <c r="C28" s="35">
         <f ca="1">CHOOSE(C$25,E37,E40,1)</f>
-        <v>0.53447463437514398</v>
+        <v>0.53447463437514409</v>
       </c>
       <c r="E28" s="41">
         <f ca="1">f2_/(F5/(f2_*365*re*phib))</f>
-        <v>35.98151431430869</v>
+        <v>35.981514314308598</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
@@ -30597,31 +30601,31 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="22"/>
-        <v>2.1350120844114617E-3</v>
+        <v>2.1350120844114626E-3</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="22"/>
-        <v>7.5425809360998228E-3</v>
+        <v>7.542580936099821E-3</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="22"/>
-        <v>2.6487393342330277E-2</v>
+        <v>2.648739334233027E-2</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="22"/>
-        <v>9.0549286126860876E-2</v>
+        <v>9.0549286126860848E-2</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="22"/>
-        <v>3.1509337078225091E-2</v>
+        <v>3.1509337078225105E-2</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.47981272868860514</v>
+        <v>0.47981272868860508</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.84987270259553049</v>
+        <v>0.84987270259553072</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="22"/>
@@ -30629,7 +30633,7 @@
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.84288158240511835</v>
+        <v>0.84288158240511812</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="22"/>
@@ -30637,7 +30641,7 @@
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.67665765695217139</v>
+        <v>0.67665765695217162</v>
       </c>
       <c r="W28">
         <f t="shared" ca="1" si="22"/>
@@ -30649,7 +30653,7 @@
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.47153355405736114</v>
+        <v>0.47153355405736125</v>
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="22"/>
@@ -30665,7 +30669,7 @@
       </c>
       <c r="AC28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46784717578075136</v>
+        <v>0.4678471757807513</v>
       </c>
       <c r="AD28">
         <f t="shared" ca="1" si="22"/>
@@ -30673,7 +30677,7 @@
       </c>
       <c r="AE28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46776662210287739</v>
+        <v>0.46776662210287734</v>
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="22"/>
@@ -30685,11 +30689,11 @@
       </c>
       <c r="AH28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46775400334434381</v>
+        <v>0.46775400334434386</v>
       </c>
       <c r="AI28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46775384681801768</v>
+        <v>0.46775384681801763</v>
       </c>
     </row>
     <row r="29" spans="1:39">
@@ -30698,15 +30702,15 @@
       </c>
       <c r="B29" s="27">
         <f ca="1">fbar*C29</f>
-        <v>2.7374757105308546E-2</v>
+        <v>2.7374757105308529E-2</v>
       </c>
       <c r="C29" s="35">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
-        <v>0.3297084682840592</v>
+        <v>0.32970846828405936</v>
       </c>
       <c r="E29" s="41">
         <f ca="1">f3_/(F6/(f3_*365*re*phib))</f>
-        <v>18.007402016540144</v>
+        <v>18.007402016540112</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -30718,7 +30722,7 @@
       </c>
       <c r="C30" s="35">
         <f ca="1">AVERAGE(C27:C29)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="G30" t="s">
         <v>58</v>
@@ -30740,11 +30744,11 @@
       </c>
       <c r="G31">
         <f ca="1">SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-66.848672909861094</v>
+        <v>-66.848672909861136</v>
       </c>
       <c r="H31">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-8841.4247781274717</v>
+        <v>-8841.4247781274698</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>52</v>
@@ -30770,11 +30774,11 @@
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="23"/>
-        <v>-5.1619895921570962E-4</v>
+        <v>-5.1619895921570951E-4</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.1010195241920966E-3</v>
+        <v>-1.1010195241920964E-3</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="23"/>
@@ -30794,19 +30798,19 @@
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="23"/>
-        <v>-3.727337458830398E-2</v>
+        <v>-3.7273374588303973E-2</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="23"/>
-        <v>-6.188858555855857E-2</v>
+        <v>-6.1888585558558556E-2</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.6726747031121695E-2</v>
+        <v>-8.6726747031121681E-2</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.10229432730133595</v>
+        <v>-0.10229432730133592</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="23"/>
@@ -30842,7 +30846,7 @@
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.3041509302971021E-2</v>
+        <v>-2.3041509302971018E-2</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
@@ -30857,11 +30861,11 @@
       <c r="C32" s="11"/>
       <c r="G32">
         <f ca="1">SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-170.04456820852698</v>
+        <v>-170.04456820852704</v>
       </c>
       <c r="H32">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-22490.143682763817</v>
+        <v>-22490.143682763806</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -30895,75 +30899,75 @@
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.141790058882564</v>
+        <v>-1.1417900588825636</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.0673565825866189</v>
+        <v>-1.0673565825866187</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.96759535123688234</v>
+        <v>-0.96759535123688212</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.84957252891428836</v>
+        <v>-0.84957252891428814</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.71615358754291947</v>
+        <v>-0.71615358754291925</v>
       </c>
       <c r="W32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.57599700021930555</v>
+        <v>-0.57599700021930533</v>
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.4450684669055382</v>
+        <v>-0.44506846690553803</v>
       </c>
       <c r="Y32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.33517109724865524</v>
+        <v>-0.33517109724865507</v>
       </c>
       <c r="Z32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.24819547523911129</v>
+        <v>-0.24819547523911117</v>
       </c>
       <c r="AA32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.1826181808444457</v>
+        <v>-0.18261818084444564</v>
       </c>
       <c r="AB32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.13386000862727188</v>
+        <v>-0.13386000862727185</v>
       </c>
       <c r="AC32">
         <f t="shared" ca="1" si="24"/>
-        <v>-9.7863918505048067E-2</v>
+        <v>-9.7863918505048039E-2</v>
       </c>
       <c r="AD32">
         <f t="shared" ca="1" si="24"/>
-        <v>-7.1400382031725815E-2</v>
+        <v>-7.1400382031725787E-2</v>
       </c>
       <c r="AE32">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.200130988494199E-2</v>
+        <v>-5.2001309884941976E-2</v>
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="24"/>
-        <v>-3.781338342560852E-2</v>
+        <v>-3.7813383425608513E-2</v>
       </c>
       <c r="AG32">
         <f t="shared" ca="1" si="24"/>
-        <v>-2.7457049460859553E-2</v>
+        <v>-2.7457049460859549E-2</v>
       </c>
       <c r="AH32">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.9910735576171696E-2</v>
+        <v>-1.9910735576171689E-2</v>
       </c>
       <c r="AI32">
         <f ca="1">(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-5.1818311007088599E-2</v>
+        <v>-5.1818311007088572E-2</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -30983,7 +30987,7 @@
       </c>
       <c r="H33">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-19721.643955983753</v>
+        <v>-19721.643955983738</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -31009,7 +31013,7 @@
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.869678083879027E-2</v>
+        <v>-5.8696780838790263E-2</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="25"/>
@@ -31037,7 +31041,7 @@
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.46583259169849556</v>
+        <v>-0.4658325916984955</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="25"/>
@@ -31045,23 +31049,23 @@
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.30723434836505997</v>
+        <v>-0.30723434836505992</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.23696644394041802</v>
+        <v>-0.23696644394041796</v>
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.18069921630540162</v>
+        <v>-0.18069921630540159</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.1366984866404381</v>
+        <v>-0.13669848664043807</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.10278108578561571</v>
+        <v>-0.10278108578561569</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="25"/>
@@ -31081,11 +31085,11 @@
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="25"/>
-        <v>-2.319531640398128E-2</v>
+        <v>-2.3195316403981276E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-6.3291415284531721E-2</v>
+        <v>-6.3291415284531707E-2</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -31131,27 +31135,27 @@
       </c>
       <c r="L35">
         <f t="shared" ref="L35:AI35" ca="1" si="26">flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>5.0492711972962612E-10</v>
+        <v>5.0492711972962322E-10</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1009515921950267E-8</v>
+        <v>1.1009515921950273E-8</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="26"/>
-        <v>1.6939078083748607E-7</v>
+        <v>1.6939078083748623E-7</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="26"/>
-        <v>2.136740909002942E-6</v>
+        <v>2.1367409090029425E-6</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="26"/>
-        <v>2.3566086423250759E-5</v>
+        <v>2.3566086423250739E-5</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="26"/>
-        <v>2.3190759175318018E-4</v>
+        <v>2.3190759175318026E-4</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="26"/>
@@ -31171,7 +31175,7 @@
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="26"/>
-        <v>4.214425753271378</v>
+        <v>4.2144257532713771</v>
       </c>
       <c r="W35">
         <f t="shared" ca="1" si="26"/>
@@ -31183,7 +31187,7 @@
       </c>
       <c r="Y35">
         <f t="shared" ca="1" si="26"/>
-        <v>40.165536359444395</v>
+        <v>40.165536359444403</v>
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="26"/>
@@ -31199,7 +31203,7 @@
       </c>
       <c r="AC35">
         <f t="shared" ca="1" si="26"/>
-        <v>71.151028063928806</v>
+        <v>71.151028063928791</v>
       </c>
       <c r="AD35">
         <f t="shared" ca="1" si="26"/>
@@ -31207,7 +31211,7 @@
       </c>
       <c r="AE35">
         <f t="shared" ca="1" si="26"/>
-        <v>81.830747147788188</v>
+        <v>81.830747147788173</v>
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="26"/>
@@ -31219,11 +31223,11 @@
       </c>
       <c r="AH35">
         <f t="shared" ca="1" si="26"/>
-        <v>95.987270761656248</v>
+        <v>95.987270761656262</v>
       </c>
       <c r="AI35">
         <f t="shared" ca="1" si="26"/>
-        <v>100.10557988804318</v>
+        <v>100.10557988804317</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -31232,7 +31236,7 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">SUMPRODUCT(lz,ta1_)</f>
-        <v>0.32757542724087346</v>
+        <v>0.32757542724087352</v>
       </c>
       <c r="C36" s="28">
         <f ca="1">B11/(phi_t1/SUM(B$36:B$38))</f>
@@ -31240,7 +31244,7 @@
       </c>
       <c r="E36" s="37">
         <f ca="1">C36/AVERAGE(C$36:C$38)</f>
-        <v>2.2821892145579081</v>
+        <v>2.2821892145579086</v>
       </c>
       <c r="G36" s="1">
         <f ca="1">SUM(dqa21_)</f>
@@ -31252,7 +31256,7 @@
       </c>
       <c r="I36" s="10">
         <f ca="1">SUM(dqa23_)</f>
-        <v>862.96038765673075</v>
+        <v>862.96038765673063</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>63</v>
@@ -31263,23 +31267,23 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="27"/>
-        <v>2.0410245019781776E-3</v>
+        <v>2.0410245019781659E-3</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="27"/>
-        <v>0.31797876401714148</v>
+        <v>0.31797876401714165</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="27"/>
-        <v>1.919360278610859</v>
+        <v>1.9193602786108612</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="27"/>
-        <v>3.4327842505551374</v>
+        <v>3.4327842505551383</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="27"/>
-        <v>3.1282673912263874</v>
+        <v>3.1282673912263839</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="27"/>
@@ -31303,7 +31307,7 @@
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="27"/>
-        <v>5.9014489596109669</v>
+        <v>5.9014489596109678</v>
       </c>
       <c r="W36">
         <f t="shared" ca="1" si="27"/>
@@ -31315,7 +31319,7 @@
       </c>
       <c r="Y36">
         <f t="shared" ca="1" si="27"/>
-        <v>5.234215683415794</v>
+        <v>5.2342156834157967</v>
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="27"/>
@@ -31331,7 +31335,7 @@
       </c>
       <c r="AC36">
         <f t="shared" ca="1" si="27"/>
-        <v>7.6077445917436073</v>
+        <v>7.6077445917436055</v>
       </c>
       <c r="AD36">
         <f t="shared" ca="1" si="27"/>
@@ -31351,7 +31355,7 @@
       </c>
       <c r="AH36">
         <f t="shared" ca="1" si="27"/>
-        <v>10.2143720473755</v>
+        <v>10.214372047375502</v>
       </c>
       <c r="AI36">
         <f t="shared" ca="1" si="27"/>
@@ -31364,15 +31368,15 @@
       </c>
       <c r="B37" s="1">
         <f ca="1">SUMPRODUCT(lz,ta2_)</f>
-        <v>2.540376794941964</v>
+        <v>2.5403767949419636</v>
       </c>
       <c r="C37" s="28">
         <f ca="1">B12/(phi_t2/SUM(B$36:B$38))</f>
-        <v>0.85570564988588949</v>
+        <v>0.85570564988588993</v>
       </c>
       <c r="E37" s="37">
         <f ca="1">C37/AVERAGE(C$36:C$38)</f>
-        <v>0.46775547888317903</v>
+        <v>0.46775547888317931</v>
       </c>
       <c r="G37" s="1">
         <f ca="1">SUM(dqa31_)</f>
@@ -31380,7 +31384,7 @@
       </c>
       <c r="H37" s="1">
         <f ca="1">SUM(dqa32_)</f>
-        <v>862.96038765673075</v>
+        <v>862.96038765673063</v>
       </c>
       <c r="I37" s="1">
         <f ca="1">SUM(dqa33_)</f>
@@ -31395,23 +31399,23 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="28"/>
-        <v>1.3290543351448724E-6</v>
+        <v>1.3290543351448646E-6</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="28"/>
-        <v>5.6233030540588086E-5</v>
+        <v>5.6233030540588127E-5</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="28"/>
-        <v>1.648939589178349E-3</v>
+        <v>1.6489395891783505E-3</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="28"/>
-        <v>3.6982536624285703E-2</v>
+        <v>3.698253662428571E-2</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="28"/>
-        <v>7.4287318384967669E-3</v>
+        <v>7.4287318384967573E-3</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="28"/>
@@ -31419,7 +31423,7 @@
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="28"/>
-        <v>11.665049520621142</v>
+        <v>11.665049520621139</v>
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="28"/>
@@ -31435,7 +31439,7 @@
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="28"/>
-        <v>19.411146875125883</v>
+        <v>19.411146875125887</v>
       </c>
       <c r="W37">
         <f t="shared" ca="1" si="28"/>
@@ -31447,7 +31451,7 @@
       </c>
       <c r="Y37">
         <f t="shared" ca="1" si="28"/>
-        <v>15.217412769932043</v>
+        <v>15.217412769932047</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="28"/>
@@ -31463,7 +31467,7 @@
       </c>
       <c r="AC37">
         <f t="shared" ca="1" si="28"/>
-        <v>22.117963168309906</v>
+        <v>22.117963168309902</v>
       </c>
       <c r="AD37">
         <f t="shared" ca="1" si="28"/>
@@ -31471,7 +31475,7 @@
       </c>
       <c r="AE37">
         <f t="shared" ca="1" si="28"/>
-        <v>25.332890951933098</v>
+        <v>25.332890951933095</v>
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="28"/>
@@ -31483,11 +31487,11 @@
       </c>
       <c r="AH37">
         <f t="shared" ca="1" si="28"/>
-        <v>29.696199971861446</v>
+        <v>29.69619997186145</v>
       </c>
       <c r="AI37">
         <f t="shared" ca="1" si="28"/>
-        <v>30.970059253760891</v>
+        <v>30.970059253760887</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -31518,31 +31522,31 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="29"/>
-        <v>-7.3174716466439264E-7</v>
+        <v>-7.3174716466439963E-7</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="29"/>
-        <v>-3.2956837929809009E-5</v>
+        <v>-3.2956837929808955E-5</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="29"/>
-        <v>-2.4262659985416538E-4</v>
+        <v>-2.4262659985416473E-4</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="29"/>
-        <v>-8.796812593249826E-4</v>
+        <v>-8.796812593249813E-4</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="29"/>
-        <v>-2.1516203498859608E-3</v>
+        <v>-2.1516203498859756E-3</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="29"/>
-        <v>-5.8612244349712005E-3</v>
+        <v>-5.861224434971191E-3</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="29"/>
-        <v>-1.3540641839430854E-2</v>
+        <v>-1.3540641839430908E-2</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="29"/>
@@ -31550,7 +31554,7 @@
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="29"/>
-        <v>6.1462923049829837E-2</v>
+        <v>6.1462923049830059E-2</v>
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="29"/>
@@ -31558,7 +31562,7 @@
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="29"/>
-        <v>4.1661755069409026</v>
+        <v>4.1661755069409017</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="29"/>
@@ -31570,7 +31574,7 @@
       </c>
       <c r="Y38">
         <f t="shared" ca="1" si="29"/>
-        <v>40.806672765953749</v>
+        <v>40.806672765953756</v>
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="29"/>
@@ -31586,7 +31590,7 @@
       </c>
       <c r="AC38">
         <f t="shared" ca="1" si="29"/>
-        <v>71.439680763602055</v>
+        <v>71.439680763602041</v>
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="29"/>
@@ -31594,7 +31598,7 @@
       </c>
       <c r="AE38">
         <f t="shared" ca="1" si="29"/>
-        <v>81.993049254468431</v>
+        <v>81.993049254468417</v>
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="29"/>
@@ -31606,11 +31610,11 @@
       </c>
       <c r="AH38">
         <f t="shared" ca="1" si="29"/>
-        <v>96.052389936735153</v>
+        <v>96.052389936735167</v>
       </c>
       <c r="AI38">
         <f t="shared" ca="1" si="29"/>
-        <v>100.26406763458145</v>
+        <v>100.26406763458144</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -31619,28 +31623,28 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>18.302347642941434</v>
+        <v>18.302347642941438</v>
       </c>
       <c r="C39" s="22">
         <f ca="1">B4/(phi_q1/SUM(B$39:B$41))</f>
-        <v>2.6122937050394324</v>
+        <v>2.6122937050394328</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="38">
         <f ca="1">C39/AVERAGE(C$39:C$41)</f>
-        <v>2.1358168973407965</v>
+        <v>2.1358168973407969</v>
       </c>
       <c r="G39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
-        <v>1265165.5346652637</v>
+        <v>1265165.534665264</v>
       </c>
       <c r="H39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
-        <v>1225714.1720279695</v>
+        <v>1225714.1720279702</v>
       </c>
       <c r="I39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
-        <v>1231618.6449867119</v>
+        <v>1231618.6449867121</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>66</v>
@@ -31651,31 +31655,31 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.7825616818208317E-8</v>
+        <v>-1.7825616818208492E-8</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="30"/>
-        <v>-4.213533763905227E-7</v>
+        <v>-4.2135337639052201E-7</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="30"/>
-        <v>-6.87706037440306E-6</v>
+        <v>-6.8770603744030405E-6</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="30"/>
-        <v>-8.8767279896296081E-5</v>
+        <v>-8.8767279896295945E-5</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="30"/>
-        <v>-7.6738055150664847E-5</v>
+        <v>-7.6738055150665538E-5</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="30"/>
-        <v>-4.7133209998224176E-3</v>
+        <v>-4.7133209998224106E-3</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="30"/>
-        <v>-2.277274631882914E-2</v>
+        <v>-2.2772746318829227E-2</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="30"/>
@@ -31683,7 +31687,7 @@
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.5381379991153465E-2</v>
+        <v>-1.5381379991153021E-2</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="30"/>
@@ -31691,7 +31695,7 @@
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="30"/>
-        <v>3.912796720457886</v>
+        <v>3.9127967204578842</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="30"/>
@@ -31719,7 +31723,7 @@
       </c>
       <c r="AC39">
         <f t="shared" ca="1" si="30"/>
-        <v>71.34079565289187</v>
+        <v>71.340795652891856</v>
       </c>
       <c r="AD39">
         <f t="shared" ca="1" si="30"/>
@@ -31727,7 +31731,7 @@
       </c>
       <c r="AE39">
         <f t="shared" ca="1" si="30"/>
-        <v>81.93761910996048</v>
+        <v>81.937619109960465</v>
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="30"/>
@@ -31739,11 +31743,11 @@
       </c>
       <c r="AH39">
         <f t="shared" ca="1" si="30"/>
-        <v>96.030160820113196</v>
+        <v>96.03016082011321</v>
       </c>
       <c r="AI39">
         <f t="shared" ca="1" si="30"/>
-        <v>100.20996649436884</v>
+        <v>100.20996649436883</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -31756,20 +31760,20 @@
       </c>
       <c r="C40" s="22">
         <f ca="1">B5/(phi_q2/SUM(B$39:B$41))</f>
-        <v>0.65370993394601795</v>
+        <v>0.65370993394601806</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="38">
         <f ca="1">C40/AVERAGE(C$39:C$41)</f>
-        <v>0.53447463437514409</v>
+        <v>0.5344746343751442</v>
       </c>
       <c r="G40" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
-        <v>1225714.1720279695</v>
+        <v>1225714.1720279702</v>
       </c>
       <c r="H40" s="1">
         <f ca="1">re*phi_q2+f2_*phi_q2*$H32+f2_*re*H36</f>
-        <v>225563.52924498002</v>
+        <v>225563.52924498008</v>
       </c>
       <c r="I40" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
@@ -31784,31 +31788,31 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="31"/>
-        <v>-7.3174716466439275E-7</v>
+        <v>-7.3174716466439973E-7</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="31"/>
-        <v>-3.2956837929809009E-5</v>
+        <v>-3.2956837929808955E-5</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="31"/>
-        <v>-2.4262659985416538E-4</v>
+        <v>-2.4262659985416473E-4</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="31"/>
-        <v>-8.796812593249826E-4</v>
+        <v>-8.796812593249813E-4</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="31"/>
-        <v>-2.1516203498859608E-3</v>
+        <v>-2.1516203498859756E-3</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="31"/>
-        <v>-5.8612244349712005E-3</v>
+        <v>-5.861224434971191E-3</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.3540641839430854E-2</v>
+        <v>-1.3540641839430908E-2</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="31"/>
@@ -31816,7 +31820,7 @@
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="31"/>
-        <v>6.1462923049829837E-2</v>
+        <v>6.1462923049830059E-2</v>
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="31"/>
@@ -31824,7 +31828,7 @@
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="31"/>
-        <v>4.1661755069409026</v>
+        <v>4.1661755069409017</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="31"/>
@@ -31836,7 +31840,7 @@
       </c>
       <c r="Y40">
         <f t="shared" ca="1" si="31"/>
-        <v>40.806672765953749</v>
+        <v>40.806672765953756</v>
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="31"/>
@@ -31852,7 +31856,7 @@
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="31"/>
-        <v>71.439680763602055</v>
+        <v>71.439680763602041</v>
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="31"/>
@@ -31860,7 +31864,7 @@
       </c>
       <c r="AE40">
         <f t="shared" ca="1" si="31"/>
-        <v>81.993049254468431</v>
+        <v>81.993049254468417</v>
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="31"/>
@@ -31872,11 +31876,11 @@
       </c>
       <c r="AH40">
         <f t="shared" ca="1" si="31"/>
-        <v>96.052389936735153</v>
+        <v>96.052389936735167</v>
       </c>
       <c r="AI40">
         <f t="shared" ca="1" si="31"/>
-        <v>100.26406763458145</v>
+        <v>100.26406763458144</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -31898,15 +31902,15 @@
       </c>
       <c r="G41" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
-        <v>1231618.6449867119</v>
+        <v>1231618.6449867121</v>
       </c>
       <c r="H41" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>413758.1224290352</v>
+        <v>413758.12242903514</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>215476.2947981772</v>
+        <v>215476.29479817726</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
@@ -31917,31 +31921,31 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.7585788010074612E-5</v>
+        <v>-3.7585788010074965E-5</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="32"/>
-        <v>-2.3565674964096998E-3</v>
+        <v>-2.3565674964096963E-3</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="32"/>
-        <v>-2.3962032782169698E-2</v>
+        <v>-2.3962032782169636E-2</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.11610035625785747</v>
+        <v>-0.11610035625785731</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.8696544622904755E-2</v>
+        <v>-3.8696544622905019E-2</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.65234773709361349</v>
+        <v>-0.6523477370936126</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.1860648823210846</v>
+        <v>-1.1860648823210889</v>
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="32"/>
@@ -31949,7 +31953,7 @@
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.9189294204208196</v>
+        <v>-0.91892942042081649</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="32"/>
@@ -31957,7 +31961,7 @@
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="32"/>
-        <v>3.8092453313576802</v>
+        <v>3.8092453313576784</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="32"/>
@@ -31969,7 +31973,7 @@
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="32"/>
-        <v>40.945929242804425</v>
+        <v>40.945929242804432</v>
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="32"/>
@@ -31985,7 +31989,7 @@
       </c>
       <c r="AC41">
         <f t="shared" ca="1" si="32"/>
-        <v>71.501733282000899</v>
+        <v>71.501733282000885</v>
       </c>
       <c r="AD41">
         <f t="shared" ca="1" si="32"/>
@@ -31993,7 +31997,7 @@
       </c>
       <c r="AE41">
         <f t="shared" ca="1" si="32"/>
-        <v>82.027923377747996</v>
+        <v>82.027923377747982</v>
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="32"/>
@@ -32005,11 +32009,11 @@
       </c>
       <c r="AH41">
         <f t="shared" ca="1" si="32"/>
-        <v>96.066381158898679</v>
+        <v>96.066381158898693</v>
       </c>
       <c r="AI41">
         <f t="shared" ca="1" si="32"/>
-        <v>100.29811958956792</v>
+        <v>100.2981195895679</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -32018,7 +32022,7 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">SUMPRODUCT(lz/SUM(lz),len,ta1_)</f>
-        <v>7.510435033002226</v>
+        <v>7.5104350330022269</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
@@ -32029,31 +32033,31 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.7825616818208314E-8</v>
+        <v>-1.7825616818208492E-8</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="33"/>
-        <v>-4.213533763905227E-7</v>
+        <v>-4.2135337639052201E-7</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="33"/>
-        <v>-6.8770603744030626E-6</v>
+        <v>-6.8770603744030431E-6</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="33"/>
-        <v>-8.8767279896296067E-5</v>
+        <v>-8.8767279896295945E-5</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="33"/>
-        <v>-7.6738055150664847E-5</v>
+        <v>-7.6738055150665538E-5</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="33"/>
-        <v>-4.7133209998224167E-3</v>
+        <v>-4.7133209998224098E-3</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="33"/>
-        <v>-2.277274631882914E-2</v>
+        <v>-2.2772746318829227E-2</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="33"/>
@@ -32061,7 +32065,7 @@
       </c>
       <c r="T42">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.5381379991153465E-2</v>
+        <v>-1.5381379991153021E-2</v>
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="33"/>
@@ -32069,7 +32073,7 @@
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="33"/>
-        <v>3.912796720457886</v>
+        <v>3.9127967204578842</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="33"/>
@@ -32097,7 +32101,7 @@
       </c>
       <c r="AC42">
         <f t="shared" ca="1" si="33"/>
-        <v>71.34079565289187</v>
+        <v>71.340795652891856</v>
       </c>
       <c r="AD42">
         <f t="shared" ca="1" si="33"/>
@@ -32105,7 +32109,7 @@
       </c>
       <c r="AE42">
         <f t="shared" ca="1" si="33"/>
-        <v>81.93761910996048</v>
+        <v>81.937619109960465</v>
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="33"/>
@@ -32117,11 +32121,11 @@
       </c>
       <c r="AH42">
         <f t="shared" ca="1" si="33"/>
-        <v>96.030160820113196</v>
+        <v>96.03016082011321</v>
       </c>
       <c r="AI42">
         <f t="shared" ca="1" si="33"/>
-        <v>100.20996649436884</v>
+        <v>100.20996649436883</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -32136,31 +32140,31 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="34"/>
-        <v>-3.7585788010074606E-5</v>
+        <v>-3.7585788010074958E-5</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="34"/>
-        <v>-2.3565674964096998E-3</v>
+        <v>-2.3565674964096959E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="34"/>
-        <v>-2.3962032782169702E-2</v>
+        <v>-2.3962032782169636E-2</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="34"/>
-        <v>-0.11610035625785747</v>
+        <v>-0.11610035625785731</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="34"/>
-        <v>-3.8696544622904755E-2</v>
+        <v>-3.8696544622905019E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="34"/>
-        <v>-0.65234773709361338</v>
+        <v>-0.65234773709361249</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.1860648823210846</v>
+        <v>-1.1860648823210889</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="34"/>
@@ -32168,7 +32172,7 @@
       </c>
       <c r="T43">
         <f t="shared" ca="1" si="34"/>
-        <v>-0.9189294204208196</v>
+        <v>-0.91892942042081649</v>
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="34"/>
@@ -32176,7 +32180,7 @@
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="34"/>
-        <v>3.8092453313576802</v>
+        <v>3.809245331357678</v>
       </c>
       <c r="W43">
         <f t="shared" ca="1" si="34"/>
@@ -32188,7 +32192,7 @@
       </c>
       <c r="Y43">
         <f t="shared" ca="1" si="34"/>
-        <v>40.945929242804425</v>
+        <v>40.945929242804432</v>
       </c>
       <c r="Z43">
         <f t="shared" ca="1" si="34"/>
@@ -32204,7 +32208,7 @@
       </c>
       <c r="AC43">
         <f t="shared" ca="1" si="34"/>
-        <v>71.501733282000899</v>
+        <v>71.501733282000885</v>
       </c>
       <c r="AD43">
         <f t="shared" ca="1" si="34"/>
@@ -32212,7 +32216,7 @@
       </c>
       <c r="AE43">
         <f t="shared" ca="1" si="34"/>
-        <v>82.027923377747996</v>
+        <v>82.027923377747982</v>
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="34"/>
@@ -32224,11 +32228,11 @@
       </c>
       <c r="AH43">
         <f t="shared" ca="1" si="34"/>
-        <v>96.066381158898679</v>
+        <v>96.066381158898693</v>
       </c>
       <c r="AI43">
         <f t="shared" ca="1" si="34"/>
-        <v>100.29811958956792</v>
+        <v>100.2981195895679</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -32263,23 +32267,23 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.6657864082089775E-5</v>
+        <v>1.6657864082089781E-5</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.0977655198680235E-4</v>
+        <v>1.0977655198680234E-4</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="35"/>
-        <v>5.0474369838985104E-4</v>
+        <v>5.0474369838985093E-4</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.8995917565930718E-3</v>
+        <v>1.8995917565930716E-3</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="35"/>
-        <v>6.3597780528502649E-3</v>
+        <v>6.3597780528502693E-3</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="35"/>
@@ -32287,7 +32291,7 @@
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="35"/>
-        <v>5.5578154102326999E-2</v>
+        <v>5.557815410232702E-2</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="35"/>
@@ -32295,7 +32299,7 @@
       </c>
       <c r="T46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.36735840615763005</v>
+        <v>0.36735840615762988</v>
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="35"/>
@@ -32303,7 +32307,7 @@
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.5398095639518419</v>
+        <v>1.5398095639518421</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="35"/>
@@ -32315,7 +32319,7 @@
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="35"/>
-        <v>2.3537338675400079</v>
+        <v>2.3537338675400084</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="35"/>
@@ -32331,7 +32335,7 @@
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.91406853768437457</v>
+        <v>0.91406853768437435</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="35"/>
@@ -32339,7 +32343,7 @@
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.51241503127779309</v>
+        <v>0.51241503127779298</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="35"/>
@@ -32351,7 +32355,7 @@
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.20549555883757611</v>
+        <v>0.20549555883757614</v>
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="35"/>
@@ -32371,15 +32375,15 @@
       </c>
       <c r="G47" s="30">
         <f ca="1">G39/G53</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H47" s="30">
         <f ca="1">H53/H39</f>
-        <v>0.43583179430432695</v>
+        <v>0.43583179430432673</v>
       </c>
       <c r="I47" s="30">
         <f ca="1">I53/I39</f>
-        <v>0.42393294770181861</v>
+        <v>0.42393294770181839</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
@@ -32390,31 +32394,31 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="36"/>
-        <v>3.3491073988701769E-2</v>
+        <v>3.3491073988701783E-2</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.5899626697458541</v>
+        <v>0.58996266974585387</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="36"/>
-        <v>1.6990426153978417</v>
+        <v>1.6990426153978415</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.407728970372927</v>
+        <v>2.4077289703729265</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.3171287215827268</v>
+        <v>2.3171287215827276</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.5551881375918737</v>
+        <v>2.5551881375918732</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.6187488433390751</v>
+        <v>2.6187488433390755</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="36"/>
@@ -32422,7 +32426,7 @@
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.3702207509315656</v>
+        <v>2.3702207509315647</v>
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="36"/>
@@ -32430,7 +32434,7 @@
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="36"/>
-        <v>1.822120678833647</v>
+        <v>1.8221206788336475</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="36"/>
@@ -32442,7 +32446,7 @@
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.84968192195854431</v>
+        <v>0.84968192195854464</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="36"/>
@@ -32458,7 +32462,7 @@
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.29889326761431712</v>
+        <v>0.29889326761431706</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="36"/>
@@ -32466,7 +32470,7 @@
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.16720966479758614</v>
+        <v>0.16720966479758612</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="36"/>
@@ -32478,11 +32482,11 @@
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="36"/>
-        <v>6.7034975487403586E-2</v>
+        <v>6.70349754874036E-2</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.16314883638627697</v>
+        <v>0.163148836386277</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -32491,26 +32495,26 @@
       </c>
       <c r="B48" s="1">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>24487.654004566448</v>
+        <v>24487.654004566455</v>
       </c>
       <c r="C48" s="19">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.60367371601208464</v>
+        <v>0.60367371601208453</v>
       </c>
       <c r="F48" t="s">
         <v>84</v>
       </c>
       <c r="G48" s="30">
         <f ca="1">G40/G54</f>
-        <v>2.2944631692054411</v>
+        <v>2.2944631692054425</v>
       </c>
       <c r="H48" s="30">
         <f t="shared" ref="H48:I49" ca="1" si="37">H40/H54</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="I48" s="30">
         <f ca="1">I54/I40</f>
-        <v>0.53282875918410311</v>
+        <v>0.53282875918410288</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
@@ -32521,31 +32525,31 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="38"/>
-        <v>8.5462645775878491E-4</v>
+        <v>8.5462645775878534E-4</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="38"/>
-        <v>7.8455106899220015E-3</v>
+        <v>7.8455106899219997E-3</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="38"/>
-        <v>4.9799891105700267E-2</v>
+        <v>4.9799891105700253E-2</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.2499094575448941</v>
+        <v>0.24990945754489405</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11291602141087004</v>
+        <v>0.11291602141087008</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="38"/>
-        <v>2.0774908340996641</v>
+        <v>2.0774908340996636</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="38"/>
-        <v>4.130541974770793</v>
+        <v>4.1305419747707939</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="38"/>
@@ -32553,7 +32557,7 @@
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="38"/>
-        <v>4.4194431893964543</v>
+        <v>4.4194431893964525</v>
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="38"/>
@@ -32561,7 +32565,7 @@
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="38"/>
-        <v>3.3046343060073937</v>
+        <v>3.3046343060073946</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="38"/>
@@ -32573,7 +32577,7 @@
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.448775127642062</v>
+        <v>1.4487751276420624</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="38"/>
@@ -32589,7 +32593,7 @@
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.5096367484683435</v>
+        <v>0.50963674846834339</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="38"/>
@@ -32597,7 +32601,7 @@
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.28510575216395923</v>
+        <v>0.28510575216395917</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="38"/>
@@ -32609,7 +32613,7 @@
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11429995467525556</v>
+        <v>0.11429995467525557</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="38"/>
@@ -32622,26 +32626,26 @@
       </c>
       <c r="B49" s="1">
         <f ca="1">f2_*re*phi_q2</f>
-        <v>9132.5017837425094</v>
+        <v>9132.5017837425003</v>
       </c>
       <c r="C49" s="19">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.22513595166163158</v>
+        <v>0.22513595166163131</v>
       </c>
       <c r="F49" t="s">
         <v>85</v>
       </c>
       <c r="G49" s="30">
         <f ca="1">G41/G55</f>
-        <v>2.3588636019471863</v>
+        <v>2.3588636019471876</v>
       </c>
       <c r="H49" s="30">
         <f t="shared" ca="1" si="37"/>
-        <v>1.8767755733216345</v>
+        <v>1.8767755733216347</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" ca="1" si="37"/>
-        <v>0.99999999999999956</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AL49" s="30"/>
       <c r="AM49" s="30"/>
@@ -32657,11 +32661,11 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>6944.2308249327079</v>
+        <v>6944.2308249327025</v>
       </c>
       <c r="C50" s="19">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.17119033232628403</v>
+        <v>0.17119033232628392</v>
       </c>
       <c r="AL50" s="30"/>
       <c r="AM50" s="30"/>
@@ -32677,7 +32681,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>40564.386613241666</v>
+        <v>40564.386613241659</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -32699,11 +32703,11 @@
       </c>
       <c r="H52" s="56">
         <f ca="1">H40^0.5</f>
-        <v>474.93528953424806</v>
+        <v>474.93528953424811</v>
       </c>
       <c r="I52" s="10">
         <f ca="1">I41^0.5</f>
-        <v>464.19424253019037</v>
+        <v>464.19424253019042</v>
       </c>
       <c r="AL52" s="30"/>
       <c r="AM52" s="30"/>
@@ -32719,7 +32723,7 @@
       </c>
       <c r="B53" s="34">
         <f ca="1">f1_*phi_q1</f>
-        <v>3.245570079214418</v>
+        <v>3.2455700792144189</v>
       </c>
       <c r="C53">
         <f ca="1">AVERAGE(B53:B55)/B53</f>
@@ -32731,11 +32735,11 @@
       </c>
       <c r="H53">
         <f t="shared" ref="H53:I53" ca="1" si="39">H$52*$J53</f>
-        <v>534205.20689919242</v>
+        <v>534205.20689919253</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="39"/>
-        <v>522123.72261373629</v>
+        <v>522123.72261373635</v>
       </c>
       <c r="J53">
         <f t="array" aca="1" ref="J53:J55" ca="1">TRANSPOSE(G52:I52)</f>
@@ -32753,27 +32757,27 @@
       </c>
       <c r="B54" s="34">
         <f ca="1">f2_*phi_q2</f>
-        <v>1.2104129914674431</v>
+        <v>1.2104129914674422</v>
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
-        <v>1.4805868670602962</v>
+        <v>1.4805868670602973</v>
       </c>
       <c r="G54">
         <f t="shared" ref="G54:I55" ca="1" si="40">G$52*$J54</f>
-        <v>534205.20689919242</v>
+        <v>534205.20689919253</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="40"/>
-        <v>225563.52924498002</v>
+        <v>225563.52924498008</v>
       </c>
       <c r="I54">
         <f ca="1">I$52*$J54</f>
-        <v>220462.22697620693</v>
+        <v>220462.22697620699</v>
       </c>
       <c r="J54">
         <f ca="1"/>
-        <v>474.93528953424806</v>
+        <v>474.93528953424811</v>
       </c>
       <c r="AL54" s="30"/>
       <c r="AM54" s="30"/>
@@ -32788,27 +32792,27 @@
       </c>
       <c r="B55" s="34">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.92038166597572701</v>
+        <v>0.92038166597572646</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471504541390179</v>
+        <v>1.9471504541390188</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="40"/>
-        <v>522123.72261373629</v>
+        <v>522123.72261373635</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="40"/>
-        <v>220462.22697620693</v>
+        <v>220462.22697620699</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="40"/>
-        <v>215476.2947981772</v>
+        <v>215476.29479817726</v>
       </c>
       <c r="J55">
         <f ca="1"/>
-        <v>464.19424253019037</v>
+        <v>464.19424253019042</v>
       </c>
       <c r="S55" s="32"/>
       <c r="AL55" s="30"/>
@@ -32824,11 +32828,11 @@
       </c>
       <c r="B56" s="33">
         <f ca="1">phi_t1*f1_</f>
-        <v>5.8089214896367952E-2</v>
+        <v>5.8089214896367973E-2</v>
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.1752161457805439</v>
+        <v>1.1752161457805441</v>
       </c>
       <c r="AL56" s="30"/>
       <c r="AM56" s="30"/>
@@ -32843,11 +32847,11 @@
       </c>
       <c r="B57" s="33">
         <f ca="1">phi_t2*f2_</f>
-        <v>0.11273153186554356</v>
+        <v>0.11273153186554345</v>
       </c>
       <c r="C57">
         <f ca="1">AVERAGE(B56:B58)/B57</f>
-        <v>0.60557487432487622</v>
+        <v>0.60557487432487678</v>
       </c>
       <c r="G57">
         <f t="array" aca="1" ref="G57:I59" ca="1">MMULT($G$52:$I$52,TRANSPOSE($G$52:$I$52))</f>
@@ -32874,11 +32878,11 @@
       </c>
       <c r="B58" s="33">
         <f ca="1">phi_t3*f3_</f>
-        <v>3.3981402963870512E-2</v>
+        <v>3.3981402963870491E-2</v>
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>2.0089630588386873</v>
+        <v>2.0089630588386878</v>
       </c>
       <c r="G58">
         <f ca="1"/>
@@ -32923,7 +32927,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>55.87216293083948</v>
+        <v>55.872162930839472</v>
       </c>
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
@@ -32937,7 +32941,7 @@
       </c>
       <c r="B61">
         <f ca="1">ypr2/mpr2_</f>
-        <v>10.737128924240285</v>
+        <v>10.737128924240286</v>
       </c>
       <c r="AL61" s="30"/>
       <c r="AM61" s="30"/>
@@ -32951,7 +32955,7 @@
       </c>
       <c r="B62">
         <f ca="1">ypr3/mpr3_</f>
-        <v>27.084863651871267</v>
+        <v>27.08486365187127</v>
       </c>
       <c r="AL62" s="30"/>
       <c r="AM62" s="30"/>
@@ -48011,7 +48015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE30" sqref="AE30"/>
+      <selection pane="topRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -48138,7 +48142,7 @@
       </c>
       <c r="C4" s="21">
         <f ca="1">ypr1/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.33333000000000002</v>
+        <v>0.33332999999999996</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -48253,7 +48257,7 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">ypr2/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.33333000000000007</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -48369,7 +48373,7 @@
       </c>
       <c r="C6" s="21">
         <f ca="1">ypr3/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.33333999999999997</v>
+        <v>0.33334000000000003</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -48484,7 +48488,7 @@
       </c>
       <c r="C7" s="22">
         <f ca="1">spr</f>
-        <v>0.4370562368756763</v>
+        <v>0.39920596849490819</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -48495,99 +48499,99 @@
       </c>
       <c r="L7" s="1">
         <f ca="1">K7*EXP(-K8)</f>
-        <v>0.86070797629666806</v>
+        <v>0.86070797627747808</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ref="M7:AH7" ca="1" si="3">L7*EXP(-L8)</f>
-        <v>0.74081821877628617</v>
+        <v>0.74081821850521745</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63762698118168382</v>
+        <v>0.63762684158859273</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52503304367633596</v>
+        <v>0.52304644019126711</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41793303556490918</v>
+        <v>0.41339812679039134</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33242170574962621</v>
+        <v>0.32627389360269499</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26782862529046492</v>
+        <v>0.26108539658642749</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21501734954281615</v>
+        <v>0.20791227909180132</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17140228559534459</v>
+        <v>0.16414342783976338</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13713408375061964</v>
+        <v>0.13008754648836368</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11019225690757331</v>
+        <v>0.10358507290321894</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8844332052247441E-2</v>
+        <v>8.2789350369661244E-2</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1820671790652185E-2</v>
+        <v>6.6360103124029041E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8180319695824941E-2</v>
+        <v>5.3313841273885332E-2</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7211238671207342E-2</v>
+        <v>4.2913526508883672E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8365480372544745E-2</v>
+        <v>3.4597311350583672E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1216008311937698E-2</v>
+        <v>2.7931356357701876E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5426876590434647E-2</v>
+        <v>2.2577438138939206E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0731942589018375E-2</v>
+        <v>1.8269975737157617E-2</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6919247521365248E-2</v>
+        <v>1.479929048647248E-2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.381930048811752E-2</v>
+        <v>1.1999141966313125E-2</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1296138578676932E-2</v>
+        <v>9.7372907686957676E-3</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9.240415329560275E-3</v>
+        <v>7.9082607228713984E-3</v>
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>4.1815517680819078E-2</v>
+        <v>3.4442477857206479E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -48599,103 +48603,103 @@
       </c>
       <c r="K8" s="1">
         <f ca="1">M+f1_*flt1_ +f2_*flt2_ +f3_*flt3_</f>
-        <v>0.15000000014916756</v>
+        <v>0.15000000017146312</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ref="L8:AI8" ca="1" si="4">M+f1_*flt1_ +f2_*flt2_ +f3_*flt3_</f>
-        <v>0.15000000242289618</v>
+        <v>0.15000000276650502</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15000183304507569</v>
+        <v>0.15000205160514279</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19429224241815571</v>
+        <v>0.19808296853941343</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22813998325362125</v>
+        <v>0.2352591398900982</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22891685675475729</v>
+        <v>0.23667392295793327</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21605704283939214</v>
+        <v>0.22288964925754623</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21962859767913701</v>
+        <v>0.22773128818356095</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22670537948317623</v>
+        <v>0.23637564999248922</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22305418022825854</v>
+        <v>0.23253294729180518</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21873253045492808</v>
+        <v>0.22781442282764844</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21534087000908478</v>
+        <v>0.22409380110331212</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21271341768004637</v>
+        <v>0.22120341506530597</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21062519456877404</v>
+        <v>0.2189000356815177</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20891517630640105</v>
+        <v>0.21700890417466148</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2074738650238655</v>
+        <v>0.21541110705990119</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20622705651297008</v>
+        <v>0.21402603088250016</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20512430207489388</v>
+        <v>0.21279884633516769</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20413111695039982</v>
+        <v>0.21169205282258702</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2032237506705506</v>
+        <v>0.21067980285588231</v>
       </c>
       <c r="AE8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2023856793085447</v>
+        <v>0.20974409509338204</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20160525253004236</v>
+        <v>0.20887222062689803</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20087411488797585</v>
+        <v>0.20805504952425705</v>
       </c>
       <c r="AH8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20018614620363054</v>
+        <v>0.20728588071878984</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19953674997742404</v>
+        <v>0.20655966960649974</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -48798,103 +48802,103 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" ref="K10:AI10" ca="1" si="5">EXP(-za)</f>
-        <v>0.86070797629666806</v>
+        <v>0.86070797627747808</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86070797433965174</v>
+        <v>0.86070797404390487</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.860706398709986</v>
+        <v>0.86070621059395835</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82341723165998582</v>
+        <v>0.82030179107288148</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79601282357106251</v>
+        <v>0.79036600772814802</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79539466244945312</v>
+        <v>0.78924860191281987</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80568934175492257</v>
+        <v>0.80020314743401511</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80281691066302552</v>
+        <v>0.79633821657649018</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79715560609314207</v>
+        <v>0.78948404854572207</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80007150006373251</v>
+        <v>0.79252363740907739</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80353661098549034</v>
+        <v>0.79627201603409914</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80626656124094076</v>
+        <v>0.79924016124420305</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80838777366704695</v>
+        <v>0.80155361562478422</v>
       </c>
       <c r="X10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81007763148488665</v>
+        <v>0.80340202567558028</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81146406410336813</v>
+        <v>0.80492280209987355</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81263447967830282</v>
+        <v>0.80620993344421532</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81364831115933633</v>
+        <v>0.80732736930526428</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81454606035297739</v>
+        <v>0.80831871713647141</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8153554572572842</v>
+        <v>0.80921385432333315</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81609561905343608</v>
+        <v>0.81003339574083666</v>
       </c>
       <c r="AE10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81677985209843484</v>
+        <v>0.81079170499971775</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81741753776827408</v>
+        <v>0.81149892184229755</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81801540103295778</v>
+        <v>0.81216232633162366</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81857836364029846</v>
+        <v>0.81278725656562434</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81911011798144462</v>
+        <v>0.81337772608008119</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -48906,110 +48910,110 @@
       </c>
       <c r="C11" s="17">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.21582762401479208</v>
+        <v>0.21566984567395639</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
       </c>
       <c r="K11" s="1">
         <f ca="1">1-sa</f>
-        <v>0.13929202370333194</v>
+        <v>0.13929202372252192</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ref="L11:AI11" ca="1" si="6">1-sa</f>
-        <v>0.13929202566034826</v>
+        <v>0.13929202595609513</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.139293601290014</v>
+        <v>0.13929378940604165</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17658276834001418</v>
+        <v>0.17969820892711852</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20398717642893749</v>
+        <v>0.20963399227185198</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20460533755054688</v>
+        <v>0.21075139808718013</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19431065824507743</v>
+        <v>0.19979685256598489</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19718308933697448</v>
+        <v>0.20366178342350982</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20284439390685793</v>
+        <v>0.21051595145427793</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19992849993626749</v>
+        <v>0.20747636259092261</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19646338901450966</v>
+        <v>0.20372798396590086</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19373343875905924</v>
+        <v>0.20075983875579695</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19161222633295305</v>
+        <v>0.19844638437521578</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18992236851511335</v>
+        <v>0.19659797432441972</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18853593589663187</v>
+        <v>0.19507719790012645</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18736552032169718</v>
+        <v>0.19379006655578468</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18635168884066367</v>
+        <v>0.19267263069473572</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18545393964702261</v>
+        <v>0.19168128286352859</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1846445427427158</v>
+        <v>0.19078614567666685</v>
       </c>
       <c r="AD11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18390438094656392</v>
+        <v>0.18996660425916334</v>
       </c>
       <c r="AE11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18322014790156516</v>
+        <v>0.18920829500028225</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18258246223172592</v>
+        <v>0.18850107815770245</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18198459896704222</v>
+        <v>0.18783767366837634</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18142163635970154</v>
+        <v>0.18721274343437566</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18088988201855538</v>
+        <v>0.18662227391991881</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -49021,7 +49025,7 @@
       </c>
       <c r="C12" s="17">
         <f ca="1">mpr2_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.49099832339251331</v>
+        <v>0.49012591987899345</v>
       </c>
       <c r="J12" t="s">
         <v>99</v>
@@ -49137,7 +49141,7 @@
       </c>
       <c r="C13" s="17">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.29317405259269458</v>
+        <v>0.29420423444705029</v>
       </c>
       <c r="J13" t="s">
         <v>100</v>
@@ -49252,7 +49256,7 @@
       </c>
       <c r="C14" s="28">
         <f ca="1">spr</f>
-        <v>0.4370562368756763</v>
+        <v>0.39920596849490819</v>
       </c>
       <c r="J14" t="s">
         <v>101</v>
@@ -49365,7 +49369,7 @@
       </c>
       <c r="C15" s="25">
         <f ca="1">SUMXMY2(B14,C14)</f>
-        <v>1.37316469138623E-3</v>
+        <v>6.3048603107839701E-7</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -49845,103 +49849,103 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ref="K22:AI22" ca="1" si="11">wa*flt1_*(1-EXP(-za))/za</f>
-        <v>7.8401271045920977E-10</v>
+        <v>7.8401271045068836E-10</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6.396925822640004E-8</v>
+        <v>6.3969258215684504E-8</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.084063586468579E-6</v>
+        <v>2.0840633644136542E-6</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9111885969419862E-5</v>
+        <v>4.9021925339855837E-5</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.6166366401669276E-3</v>
+        <v>2.6076971805576062E-3</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8.1092694829910481E-2</v>
+        <v>8.0790929147815341E-2</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2089215443806676</v>
+        <v>1.2049489943220191</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9.4267919263175148</v>
+        <v>9.3900949322110776</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>19.719638765271458</v>
+        <v>19.628180559547037</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>23.415223710892739</v>
+        <v>23.30870255964469</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>25.47352024699207</v>
+        <v>25.362390386698053</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>27.091116113348466</v>
+        <v>26.977131490325167</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>28.422668033656752</v>
+        <v>28.306610841385531</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.517499626057795</v>
+        <v>29.399975902201287</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.413295051723061</v>
+        <v>30.294813179680499</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.143263593523169</v>
+        <v>31.024248100250421</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.736313819454441</v>
+        <v>31.617113747590313</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.217103884452072</v>
+        <v>32.098001163505373</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.60633929534216</v>
+        <v>32.487557329978017</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.921206507807028</v>
+        <v>32.802918626561535</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.17584860880666</v>
+        <v>33.058186023424085</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.38182889395766</v>
+        <v>33.264887931039389</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.548554876475251</v>
+        <v>33.432403359736071</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.683651368501124</v>
+        <v>33.568334122370366</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.793280463315959</v>
+        <v>33.678823971566331</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -49957,103 +49961,103 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ref="K23:AI23" ca="1" si="12">wa*flt2_*(1-EXP(-za))/za</f>
-        <v>5.0047053936051668E-27</v>
+        <v>5.0047053935507708E-27</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0901164824195029E-17</v>
+        <v>1.0901164822368964E-17</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9.476547719331177E-9</v>
+        <v>9.4765467096143406E-9</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.7985384664673774</v>
+        <v>2.7934122474812182</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6.1601527161760634</v>
+        <v>6.1391072123609085</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6.2455516286212243</v>
+        <v>6.2223104087897152</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3111697831889426</v>
+        <v>5.293717130507078</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4.1999150839201507</v>
+        <v>4.1835654858504325</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3.18526091265633</v>
+        <v>3.1704879114211999</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.3586536471253923</v>
+        <v>2.3479235979492943</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.7094821928613957</v>
+        <v>1.7020244675283518</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2180719913476439</v>
+        <v>1.212947009557743</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.85661372989119611</v>
+        <v>0.85311595184184408</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.59633591127681151</v>
+        <v>0.59396160390489761</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41187708463078887</v>
+        <v>0.41027252425824473</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.28272305801142844</v>
+        <v>0.28164261812407482</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.19312860065281229</v>
+        <v>0.19240321889588241</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.13142247329122947</v>
+        <v>0.13093662036606676</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8.9161675641442881E-2</v>
+        <v>8.8836867665548325E-2</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6.0345510944292677E-2</v>
+        <v>6.0128685882593187E-2</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4.0764706410423554E-2</v>
+        <v>4.0620128925604099E-2</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.7495743066299941E-2</v>
+        <v>2.7399421840745147E-2</v>
       </c>
       <c r="AG23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.8523464173078014E-2</v>
+        <v>1.8459332395512972E-2</v>
       </c>
       <c r="AH23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2466961425163665E-2</v>
+        <v>1.2424280314275768E-2</v>
       </c>
       <c r="AI23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8.3842624730024046E-3</v>
+        <v>8.3558653107437802E-3</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -50063,103 +50067,103 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ref="K24:AI24" ca="1" si="13">wa*flt3_*(1-EXP(-za))/za</f>
-        <v>1.4359647873247046E-13</v>
+        <v>1.435964787309097E-13</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.3422710727880929E-8</v>
+        <v>2.342271072395737E-8</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8706040585832456E-4</v>
+        <v>1.8706038592722238E-4</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>8.0829776586728713E-2</v>
+        <v>8.0681716754658961E-2</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3.7997984438148658</v>
+        <v>3.7868168382718523</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>11.378809108523354</v>
+        <v>11.336465786485947</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>14.377063269854904</v>
+        <v>14.32981983722577</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>16.191743004542825</v>
+        <v>16.128711137259131</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>17.433973944754545</v>
+        <v>17.353116481054876</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>18.32120980598981</v>
+        <v>18.237862476710042</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>18.843709179781925</v>
+        <v>18.761502294032891</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>19.053755655629278</v>
+        <v>18.973587856469653</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>19.015019768900324</v>
+        <v>18.937376466633729</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>18.784785714109368</v>
+        <v>18.709994217643327</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>18.411374484573443</v>
+        <v>18.33964880959811</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>17.934241208178047</v>
+        <v>17.86570463501339</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>17.384872675909438</v>
+        <v>17.319575928337994</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>16.787950210267102</v>
+        <v>16.725887196895947</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>16.162530518417373</v>
+        <v>16.103651871451021</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>15.523126444013201</v>
+        <v>15.467350914129968</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>14.88064064222992</v>
+        <v>14.827864459448296</v>
       </c>
       <c r="AF24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>14.243143522710298</v>
+        <v>14.193247906630665</v>
       </c>
       <c r="AG24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>13.616505822494094</v>
+        <v>13.569362873720477</v>
       </c>
       <c r="AH24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>13.004904185403758</v>
+        <v>12.960381407262858</v>
       </c>
       <c r="AI24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>12.411220174908143</v>
+        <v>12.369183867687415</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -50184,103 +50188,103 @@
       </c>
       <c r="K26">
         <f ca="1">qa1_/wa</f>
-        <v>3.7319161018140977E-9</v>
+        <v>3.7319161017735353E-9</v>
       </c>
       <c r="L26">
         <f t="shared" ref="L26:AI26" ca="1" si="14">qa1_/wa</f>
-        <v>4.5462944589537079E-8</v>
+        <v>4.5462944581921545E-8</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="14"/>
-        <v>5.5411759802902529E-7</v>
+        <v>5.5411753898834039E-7</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="14"/>
-        <v>7.060172319157847E-6</v>
+        <v>7.0472398582245107E-6</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="14"/>
-        <v>2.4741246600680072E-4</v>
+        <v>2.4656720774175961E-4</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="14"/>
-        <v>5.6829485182772936E-3</v>
+        <v>5.6618008817420108E-3</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="14"/>
-        <v>6.7938047353226685E-2</v>
+        <v>6.7714801026571306E-2</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.44869391059193481</v>
+        <v>0.44694721692124734</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.82685952392596984</v>
+        <v>0.82302461146410466</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.89036103173204295</v>
+        <v>0.88631057792056056</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.89772785094422647</v>
+        <v>0.89381145581351185</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.89963640351338536</v>
+        <v>0.89585122478972312</v>
       </c>
       <c r="W26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90079417318627886</v>
+        <v>0.89711599482418847</v>
       </c>
       <c r="X26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90168355610369832</v>
+        <v>0.89809350916219066</v>
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90240607371420722</v>
+        <v>0.89889054667991508</v>
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90301178864317844</v>
+        <v>0.89956088526775879</v>
       </c>
       <c r="AA26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90353307698708585</v>
+        <v>0.90013945010523744</v>
       </c>
       <c r="AB26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90399183035059338</v>
+        <v>0.9006498823252681</v>
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90440300830359543</v>
+        <v>0.90110834937747397</v>
       </c>
       <c r="AD26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90477691565980534</v>
+        <v>0.9015259976131702</v>
       </c>
       <c r="AE26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90512072215745232</v>
+        <v>0.90191059042855004</v>
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90543948205261082</v>
+        <v>0.90226760776040815</v>
       </c>
       <c r="AG26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90573681878824475</v>
+        <v>0.90260098460235727</v>
       </c>
       <c r="AH26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90601538492267086</v>
+        <v>0.90291360720865843</v>
       </c>
       <c r="AI26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90627717121746409</v>
+        <v>0.903207646621208</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -50289,114 +50293,114 @@
       </c>
       <c r="B27" s="27">
         <f ca="1">fbar*C27</f>
-        <v>3.7111201507611873E-2</v>
+        <v>4.2658281134050721E-2</v>
       </c>
       <c r="C27" s="35">
         <f ca="1">CHOOSE(type,E35,E38)</f>
-        <v>0.21830118533889348</v>
+        <v>0.22689012387218618</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27:AI27" ca="1" si="15">qa2_/wa</f>
-        <v>2.3822497255550183E-26</v>
+        <v>2.3822497255291255E-26</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="15"/>
-        <v>7.747456608137691E-18</v>
+        <v>7.7474566068399054E-18</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="15"/>
-        <v>2.5196552993573453E-9</v>
+        <v>2.5196550308905517E-9</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="15"/>
-        <v>0.40230920529816544</v>
+        <v>0.40157227596479478</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="15"/>
-        <v>0.58246473778276753</v>
+        <v>0.58047480921670924</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43768613742758394</v>
+        <v>0.43605740063345638</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="15"/>
-        <v>0.29847305303519189</v>
+        <v>0.29749226222221375</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="15"/>
-        <v>0.19990643029864125</v>
+        <v>0.19912822652032003</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="15"/>
-        <v>0.13356042436524607</v>
+        <v>0.13294098113336753</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="15"/>
-        <v>8.9687517859424401E-2</v>
+        <v>8.9279509045461128E-2</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="15"/>
-        <v>6.0244903741016986E-2</v>
+        <v>5.9982081497712926E-2</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="15"/>
-        <v>4.044949277584186E-2</v>
+        <v>4.0279303398399927E-2</v>
       </c>
       <c r="W27">
         <f t="shared" ca="1" si="15"/>
-        <v>2.7148494843750214E-2</v>
+        <v>2.7037640434085922E-2</v>
       </c>
       <c r="X27">
         <f t="shared" ca="1" si="15"/>
-        <v>1.8216525516196923E-2</v>
+        <v>1.8143996543841127E-2</v>
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2220983690271565E-2</v>
+        <v>1.2173374083244032E-2</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="15"/>
-        <v>8.1976718187834387E-3</v>
+        <v>8.1663440180771707E-3</v>
       </c>
       <c r="AA27">
         <f t="shared" ca="1" si="15"/>
-        <v>5.4983726148774672E-3</v>
+        <v>5.4777209911710178E-3</v>
       </c>
       <c r="AB27">
         <f t="shared" ca="1" si="15"/>
-        <v>3.6876325881382388E-3</v>
+        <v>3.6739998582481078E-3</v>
       </c>
       <c r="AC27">
         <f t="shared" ca="1" si="15"/>
-        <v>2.4730800641281914E-3</v>
+        <v>2.464070855585667E-3</v>
       </c>
       <c r="AD27">
         <f t="shared" ca="1" si="15"/>
-        <v>1.6584819044570659E-3</v>
+        <v>1.652522878911763E-3</v>
       </c>
       <c r="AE27">
         <f t="shared" ca="1" si="15"/>
-        <v>1.1121638798093818E-3</v>
+        <v>1.1082194418234681E-3</v>
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="15"/>
-        <v>7.4578692017406457E-4</v>
+        <v>7.4317432992761494E-4</v>
       </c>
       <c r="AG27">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0009258445961433E-4</v>
+        <v>4.9836116823590904E-4</v>
       </c>
       <c r="AH27">
         <f t="shared" ca="1" si="15"/>
-        <v>3.353335637774228E-4</v>
+        <v>3.3418553672159753E-4</v>
       </c>
       <c r="AI27">
         <f t="shared" ca="1" si="15"/>
-        <v>2.2485137792484564E-4</v>
+        <v>2.2408981528489162E-4</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -50405,114 +50409,114 @@
       </c>
       <c r="B28" s="27">
         <f ca="1">fbar*C28</f>
-        <v>9.9082953330948548E-2</v>
+        <v>0.10753037043847541</v>
       </c>
       <c r="C28" s="35">
         <f ca="1">CHOOSE(type,E36,E39)</f>
-        <v>0.58284090194675608</v>
+        <v>0.57193066434486739</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K28">
         <f t="shared" ref="K28:AI28" ca="1" si="16">qa3_/wa</f>
-        <v>6.8352209600228558E-13</v>
+        <v>6.835220959948564E-13</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="16"/>
-        <v>1.6646517866279364E-8</v>
+        <v>1.6646517863490888E-8</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="16"/>
-        <v>4.9736228516995006E-5</v>
+        <v>4.9736223217648791E-5</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="16"/>
-        <v>1.1619837844888939E-2</v>
+        <v>1.1598553222901323E-2</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.35928469734073021</v>
+        <v>0.3580572395459331</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.79742307859760087</v>
+        <v>0.79445567296709185</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.80795119399425452</v>
+        <v>0.80529624373879249</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.77069023532017</v>
+        <v>0.76769006142808738</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.73101985120968638</v>
+        <v>0.72762943596240948</v>
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.69666177299223297</v>
+        <v>0.693492500940601</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.6640826388249631</v>
+        <v>0.66118553586625395</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.63273333367786677</v>
+        <v>0.63007113732494457</v>
       </c>
       <c r="W28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.60263937891278996</v>
+        <v>0.60017864460783765</v>
       </c>
       <c r="X28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.57382680097983041</v>
+        <v>0.5715421134773605</v>
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.54629188097014703</v>
+        <v>0.54416367734640569</v>
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.52001072985565577</v>
+        <v>0.51802348361426442</v>
       </c>
       <c r="AA28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.49494744699254395</v>
+        <v>0.4930884481312991</v>
       </c>
       <c r="AB28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.47105940660724577</v>
+        <v>0.46931795718163372</v>
       </c>
       <c r="AC28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.4483005924171149</v>
+        <v>0.44666747362512521</v>
       </c>
       <c r="AD28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.42662368592356303</v>
+        <v>0.42509080128019266</v>
       </c>
       <c r="AE28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.40598136201662499</v>
+        <v>0.40454149480372309</v>
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.3863270803697077</v>
+        <v>0.38497372549741021</v>
       </c>
       <c r="AG28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.3676155563805068</v>
+        <v>0.36634280097844163</v>
       </c>
       <c r="AH28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.3498030288497595</v>
+        <v>0.34860546503656564</v>
       </c>
       <c r="AI28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.3328473991651405</v>
+        <v>0.33172005831293216</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -50521,11 +50525,11 @@
       </c>
       <c r="B29" s="27">
         <f ca="1">fbar*C29</f>
-        <v>3.3805845161439599E-2</v>
+        <v>3.7824296748139315E-2</v>
       </c>
       <c r="C29" s="35">
         <f ca="1">CHOOSE(type,E37,E40)</f>
-        <v>0.19885791271435052</v>
+        <v>0.20117921178294643</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -50533,7 +50537,7 @@
         <v>94</v>
       </c>
       <c r="B30" s="27">
-        <v>0.17</v>
+        <v>0.18801294832066545</v>
       </c>
       <c r="C30" s="35"/>
       <c r="G30" t="s">
@@ -50549,11 +50553,11 @@
     <row r="31" spans="1:35">
       <c r="G31">
         <f ca="1">SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-153.71242113058267</v>
+        <v>-135.92378311495099</v>
       </c>
       <c r="H31">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-3.1986137285007266E-2</v>
+        <v>-3.3902277932231689E-2</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>52</v>
@@ -50563,99 +50567,99 @@
       </c>
       <c r="L31">
         <f ca="1">K31*sa-K$7*K18*K$10</f>
-        <v>-3.4590171140059241E-9</v>
+        <v>-3.4590171139288036E-9</v>
       </c>
       <c r="M31">
         <f t="shared" ref="L31:AH31" ca="1" si="17">L31*sa-L$7*L18*L$10</f>
-        <v>-3.9246085074237802E-8</v>
+        <v>-3.9246084410203921E-8</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.1279782615109452E-7</v>
+        <v>-4.1267547346269551E-7</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.4071732329788755E-6</v>
+        <v>-4.389313130503238E-6</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.1915043080050029E-4</v>
+        <v>-1.1785440706779429E-4</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.209603635209357E-3</v>
+        <v>-2.168823819639456E-3</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.2006048827029424E-2</v>
+        <v>-2.1449866211247805E-2</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.12500127166777658</v>
+        <v>-0.12084245905587081</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.25840703011317445</v>
+        <v>-0.24745949108661092</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.34386149673979893</v>
+        <v>-0.32626738551596268</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.38737957599153805</v>
+        <v>-0.36429776348292697</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.40199497368290971</v>
+        <v>-0.37479142328416182</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.39746735098321867</v>
+        <v>-0.36746786958178229</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.38070923116863842</v>
+        <v>-0.34909567856290158</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.35658627973540957</v>
+        <v>-0.32435574247871518</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.32849840227882615</v>
+        <v>-0.29645596232732391</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.29878995158920429</v>
+        <v>-0.2675594533765126</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.26904370697261643</v>
+        <v>-0.23908742461938515</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.24029421779998461</v>
+        <v>-0.21193602875632539</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.21318375870675702</v>
+        <v>-0.18663267154949023</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.18807667737419734</v>
+        <v>-0.16344895180733104</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.16514321402171198</v>
+        <v>-0.14248217944142444</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.14442076605852353</v>
+        <v>-0.12371398248186258</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-0.88506702393398062</v>
+        <v>-0.72369979206344204</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -50666,11 +50670,11 @@
       <c r="C32" s="11"/>
       <c r="G32">
         <f ca="1">SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-52.526580217936335</v>
+        <v>-47.85742818557371</v>
       </c>
       <c r="H32">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-1.0930296937653147E-2</v>
+        <v>-1.1936658870780603E-2</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -50680,99 +50684,99 @@
       </c>
       <c r="L32">
         <f ca="1">K32*sa-K$7*K19*K$10</f>
-        <v>-2.2080460400824959E-26</v>
+        <v>-2.2080460400332663E-26</v>
       </c>
       <c r="M32">
         <f t="shared" ref="L32:AH32" ca="1" si="18">L32*sa-L$7*L19*L$10</f>
-        <v>-6.1806737546173021E-18</v>
+        <v>-6.180673752355762E-18</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.7301080147959212E-9</v>
+        <v>-1.7301076360111303E-9</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.23240943195571104</v>
+        <v>-0.23153004846653713</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.45711160371020321</v>
+        <v>-0.45203497058785891</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.53107442102953339</v>
+        <v>-0.52149374157393358</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.51524164104705228</v>
+        <v>-0.50193358978153235</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.45860394255979664</v>
+        <v>-0.44256271370699263</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.39250140341750456</v>
+        <v>-0.37524333094662893</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.32911111032887441</v>
+        <v>-0.31181253830410144</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.27274228211062684</v>
+        <v>-0.25616093424157588</v>
       </c>
       <c r="W32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.22447604698194995</v>
+        <v>-0.20904900638392812</v>
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.18400757080580032</v>
+        <v>-0.16995036978188463</v>
       </c>
       <c r="Y32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.15049090461439463</v>
+        <v>-0.1378739874299906</v>
       </c>
       <c r="Z32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.12293343138939747</v>
+        <v>-0.11173651213999934</v>
       </c>
       <c r="AA32">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.10037283987482316</v>
+        <v>-9.0522000044812284E-2</v>
       </c>
       <c r="AB32">
         <f t="shared" ca="1" si="18"/>
-        <v>-8.1948244528182029E-2</v>
+        <v>-7.3340583732522682E-2</v>
       </c>
       <c r="AC32">
         <f t="shared" ca="1" si="18"/>
-        <v>-6.6920658646130837E-2</v>
+        <v>-5.9440304507765045E-2</v>
       </c>
       <c r="AD32">
         <f t="shared" ca="1" si="18"/>
-        <v>-5.4670339094942066E-2</v>
+        <v>-4.8198583244369916E-2</v>
       </c>
       <c r="AE32">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.4684639509646358E-2</v>
+        <v>-3.9106134255914783E-2</v>
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="18"/>
-        <v>-3.6542985021522735E-2</v>
+        <v>-3.1749326737935367E-2</v>
       </c>
       <c r="AG32">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.9902026787686317E-2</v>
+        <v>-2.5793625610042954E-2</v>
       </c>
       <c r="AH32">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.4482252874607851E-2</v>
+        <v>-2.0969095563193367E-2</v>
       </c>
       <c r="AI32">
         <f ca="1">(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-0.11092359080959403</v>
+        <v>-9.144204374601908E-2</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -50785,11 +50789,11 @@
       </c>
       <c r="G33">
         <f ca="1">SUMPRODUCT(dlz3_,wa,ma)</f>
-        <v>-157.77783407959203</v>
+        <v>-141.66623304245408</v>
       </c>
       <c r="H33">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-3.2832112228026282E-2</v>
+        <v>-3.5334566888532225E-2</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -50799,99 +50803,99 @@
       </c>
       <c r="L33">
         <f ca="1">K33*sa-K$7*K20*K$10</f>
-        <v>-6.3353906233953222E-13</v>
+        <v>-6.3353906232540714E-13</v>
       </c>
       <c r="M33">
         <f t="shared" ref="L33:AH33" ca="1" si="19">L33*sa-L$7*L20*L$10</f>
-        <v>-1.3280606215563941E-8</v>
+        <v>-1.3280606210585515E-8</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="19"/>
-        <v>-3.4162054227001899E-5</v>
+        <v>-3.4162005375492155E-5</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="19"/>
-        <v>-6.7398409724521045E-3</v>
+        <v>-6.7142489227922098E-3</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.17329689369845783</v>
+        <v>-0.17141303073810563</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.43620149923853668</v>
+        <v>-0.42825836691189079</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.59080007899357623</v>
+        <v>-0.57559070513069288</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.65553446992149023</v>
+        <v>-0.63289543100551793</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.66451202620936944</v>
+        <v>-0.63569160082888243</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.64054644953748718</v>
+        <v>-0.6072932584968932</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.59792254028245306</v>
+        <v>-0.56195945475958975</v>
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.54583777380028686</v>
+        <v>-0.50866664746692503</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.49021933868097456</v>
+        <v>-0.45305903651694596</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.4348200415032854</v>
+        <v>-0.39860529492758073</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.38192868982755268</v>
+        <v>-0.3473368955389366</v>
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.33284720793522465</v>
+        <v>-0.3003363731041207</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.2882175178880827</v>
+        <v>-0.25806652519230266</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.24824770867581542</v>
+        <v>-0.22059436769382734</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.21286887258338605</v>
+        <v>-0.18774362886138035</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.18184343326522029</v>
+        <v>-0.15919796927937355</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.15483925705271168</v>
+        <v>-0.13456997851300459</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.1314795754038835</v>
+        <v>-0.11344637586651113</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="19"/>
-        <v>-0.11137584738722431</v>
+        <v>-9.5416727843706445E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-0.58999653063171564</v>
+        <v>-0.48427603629140931</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -50900,7 +50904,7 @@
       </c>
       <c r="B34" s="1">
         <f ca="1">SUMPRODUCT(lz,wa,ma)</f>
-        <v>20.901489706336427</v>
+        <v>19.091363392619641</v>
       </c>
       <c r="G34" t="s">
         <v>57</v>
@@ -50913,130 +50917,130 @@
       </c>
       <c r="B35" s="1">
         <f ca="1">SUMPRODUCT(lz,ta1_)</f>
-        <v>1.1267964287685961</v>
+        <v>1.0516513545002304</v>
       </c>
       <c r="C35" s="127">
         <f ca="1">B11/(B35/SUM($B$35:$B$37))</f>
-        <v>1.1144098783722955</v>
+        <v>1.1466657891139844</v>
       </c>
       <c r="E35" s="16">
         <f ca="1">C35/SUM($C$35:$C$37)</f>
-        <v>0.35158904151084569</v>
+        <v>0.36242248438631625</v>
       </c>
       <c r="G35" s="1">
         <f ca="1">SUM(dqa11_)</f>
-        <v>500.66656345211669</v>
+        <v>499.83409510266796</v>
       </c>
       <c r="H35" s="1">
         <f ca="1">SUM(dqa12_)</f>
-        <v>514.23048778311147</v>
+        <v>512.31834806403299</v>
       </c>
       <c r="I35" s="10">
         <f ca="1">SUM(dqa13_)</f>
-        <v>504.75503352691919</v>
+        <v>503.49833768210408</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>62</v>
       </c>
       <c r="K35">
         <f ca="1">flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>1.6147670776244824E-18</v>
+        <v>1.6147670776127758E-18</v>
       </c>
       <c r="L35">
         <f t="shared" ref="L35:AI35" ca="1" si="20">flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>1.8176987647924867E-15</v>
+        <v>1.8176987645943998E-15</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="20"/>
-        <v>7.9446667486689505E-13</v>
+        <v>7.944666071422495E-13</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="20"/>
-        <v>2.6381753363849613E-10</v>
+        <v>2.6341086900757566E-10</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="20"/>
-        <v>5.4118967965145679E-7</v>
+        <v>5.402535743988643E-7</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="20"/>
-        <v>4.1196716928071332E-4</v>
+        <v>4.1169139778155178E-4</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="20"/>
-        <v>7.6690781920439544E-2</v>
+        <v>7.6725373251235379E-2</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="20"/>
-        <v>4.1033949812400188</v>
+        <v>4.1034902303159519</v>
       </c>
       <c r="S35">
         <f t="shared" ca="1" si="20"/>
-        <v>16.338192572402427</v>
+        <v>16.327454584778831</v>
       </c>
       <c r="T35">
         <f t="shared" ca="1" si="20"/>
-        <v>21.340164879481264</v>
+        <v>21.326991042679669</v>
       </c>
       <c r="U35">
         <f t="shared" ca="1" si="20"/>
-        <v>23.778257111068584</v>
+        <v>23.763071660399032</v>
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="20"/>
-        <v>25.651373521553833</v>
+        <v>25.631402999532579</v>
       </c>
       <c r="W35">
         <f t="shared" ca="1" si="20"/>
-        <v>27.20462661479916</v>
+        <v>27.177858696134951</v>
       </c>
       <c r="X35">
         <f t="shared" ca="1" si="20"/>
-        <v>28.493934401274046</v>
+        <v>28.459280676345113</v>
       </c>
       <c r="Y35">
         <f t="shared" ca="1" si="20"/>
-        <v>29.557843566244301</v>
+        <v>29.514927232460504</v>
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="20"/>
-        <v>30.431207970647307</v>
+        <v>30.380150374085549</v>
       </c>
       <c r="AA35">
         <f t="shared" ca="1" si="20"/>
-        <v>31.145305007391343</v>
+        <v>31.08655153586961</v>
       </c>
       <c r="AB35">
         <f t="shared" ca="1" si="20"/>
-        <v>31.72746060739324</v>
+        <v>31.661648155790225</v>
       </c>
       <c r="AC35">
         <f t="shared" ca="1" si="20"/>
-        <v>32.201054630938721</v>
+        <v>32.128915465620459</v>
       </c>
       <c r="AD35">
         <f t="shared" ca="1" si="20"/>
-        <v>32.585786489597481</v>
+        <v>32.508081567706213</v>
       </c>
       <c r="AE35">
         <f t="shared" ca="1" si="20"/>
-        <v>32.898067103814995</v>
+        <v>32.81554204335152</v>
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="20"/>
-        <v>33.15145172343869</v>
+        <v>33.064809520963344</v>
       </c>
       <c r="AG35">
         <f t="shared" ca="1" si="20"/>
-        <v>33.357064602523572</v>
+        <v>33.26695031825593</v>
       </c>
       <c r="AH35">
         <f t="shared" ca="1" si="20"/>
-        <v>33.523989988311307</v>
+        <v>33.430983702795999</v>
       </c>
       <c r="AI35">
         <f t="shared" ca="1" si="20"/>
-        <v>33.100284389452405</v>
+        <v>33.108847690415651</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -51045,130 +51049,130 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">SUMPRODUCT(lz,ta2_)</f>
-        <v>0.96011778283653892</v>
+        <v>0.94811766549686549</v>
       </c>
       <c r="C36" s="127">
         <f t="shared" ref="C36:C37" ca="1" si="21">B12/(B36/SUM($B$35:$B$37))</f>
-        <v>1.3078739854442782</v>
+        <v>1.2718807740480647</v>
       </c>
       <c r="E36" s="16">
         <f t="shared" ref="E36:E37" ca="1" si="22">C36/SUM($C$35:$C$37)</f>
-        <v>0.41262570431532447</v>
+        <v>0.40199872914135487</v>
       </c>
       <c r="G36" s="1">
         <f ca="1">SUM(dqa21_)</f>
-        <v>514.23048778311147</v>
+        <v>512.31834806403299</v>
       </c>
       <c r="H36" s="1">
         <f ca="1">SUM(dqa22_)</f>
-        <v>9.4426494565357633</v>
+        <v>9.4346140867671018</v>
       </c>
       <c r="I36" s="10">
         <f ca="1">SUM(dqa23_)</f>
-        <v>511.74498896383773</v>
+        <v>509.86871783327575</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K36">
         <f t="shared" ref="K36:AI36" ca="1" si="23">flt2_*qa2_+lz*wa*flt2_^2/za*(sa-oa/za)</f>
-        <v>6.579921525300044E-53</v>
+        <v>6.5799215252523436E-53</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="23"/>
-        <v>5.2786770776441352E-35</v>
+        <v>5.2786770770688793E-35</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="23"/>
-        <v>1.6426841300607262E-17</v>
+        <v>1.6426839900294272E-17</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="23"/>
-        <v>0.85662943521817292</v>
+        <v>0.85530897372987047</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="23"/>
-        <v>2.9994776278985693</v>
+        <v>2.9942893789941971</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="23"/>
-        <v>2.4436598152766855</v>
+        <v>2.4420240253862517</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="23"/>
-        <v>1.4802235206027161</v>
+        <v>1.4808911745263138</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="23"/>
-        <v>0.81451014874572536</v>
+        <v>0.81452905536801279</v>
       </c>
       <c r="S36">
         <f t="shared" ca="1" si="23"/>
-        <v>0.42628114642550391</v>
+        <v>0.42600098069393938</v>
       </c>
       <c r="T36">
         <f t="shared" ca="1" si="23"/>
-        <v>0.21653569202635409</v>
+        <v>0.21640201893223387</v>
       </c>
       <c r="U36">
         <f t="shared" ca="1" si="23"/>
-        <v>0.10708564345016129</v>
+        <v>0.10701725560539899</v>
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="23"/>
-        <v>5.1856445338579242E-2</v>
+        <v>5.1816073220388073E-2</v>
       </c>
       <c r="W36">
         <f t="shared" ca="1" si="23"/>
-        <v>2.4710591782233546E-2</v>
+        <v>2.4686277862386863E-2</v>
       </c>
       <c r="X36">
         <f t="shared" ca="1" si="23"/>
-        <v>1.1629879472748132E-2</v>
+        <v>1.1615735457445448E-2</v>
       </c>
       <c r="Y36">
         <f t="shared" ca="1" si="23"/>
-        <v>5.4210205789067554E-3</v>
+        <v>5.4131495605731026E-3</v>
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="23"/>
-        <v>2.5079184367878759E-3</v>
+        <v>2.5037106416888836E-3</v>
       </c>
       <c r="AA36">
         <f t="shared" ca="1" si="23"/>
-        <v>1.1533810505863441E-3</v>
+        <v>1.1512052767195205E-3</v>
       </c>
       <c r="AB36">
         <f t="shared" ca="1" si="23"/>
-        <v>5.2796069363725197E-4</v>
+        <v>5.268655417740674E-4</v>
       </c>
       <c r="AC36">
         <f t="shared" ca="1" si="23"/>
-        <v>2.4078113220625487E-4</v>
+        <v>2.402417166467081E-4</v>
       </c>
       <c r="AD36">
         <f t="shared" ca="1" si="23"/>
-        <v>1.0948803441805163E-4</v>
+        <v>1.0922694637694511E-4</v>
       </c>
       <c r="AE36">
         <f t="shared" ca="1" si="23"/>
-        <v>4.9670089065315551E-5</v>
+        <v>4.9545491255650729E-5</v>
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="23"/>
-        <v>2.2491230658929791E-5</v>
+        <v>2.2432449228272475E-5</v>
       </c>
       <c r="AG36">
         <f t="shared" ca="1" si="23"/>
-        <v>1.0169148996964322E-5</v>
+        <v>1.0141676987829472E-5</v>
       </c>
       <c r="AH36">
         <f t="shared" ca="1" si="23"/>
-        <v>4.5923883475257081E-6</v>
+        <v>4.5796475913688173E-6</v>
       </c>
       <c r="AI36">
         <f t="shared" ca="1" si="23"/>
-        <v>2.0375147012721151E-6</v>
+        <v>2.0380418221692877E-6</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -51177,130 +51181,130 @@
       </c>
       <c r="B37" s="1">
         <f ca="1">SUMPRODUCT(lz,ta3_)</f>
-        <v>1.6802626735667616</v>
+        <v>1.6179450479859758</v>
       </c>
       <c r="C37" s="127">
         <f t="shared" ca="1" si="21"/>
-        <v>0.74735382905195835</v>
+        <v>0.74534596148529386</v>
       </c>
       <c r="E37" s="16">
         <f t="shared" ca="1" si="22"/>
-        <v>0.23578525417382981</v>
+        <v>0.23557878647232885</v>
       </c>
       <c r="G37" s="1">
         <f ca="1">SUM(dqa31_)</f>
-        <v>504.75503352691919</v>
+        <v>503.49833768210408</v>
       </c>
       <c r="H37" s="1">
         <f ca="1">SUM(dqa32_)</f>
-        <v>511.74498896383773</v>
+        <v>509.86871783327575</v>
       </c>
       <c r="I37" s="1">
         <f ca="1">SUM(dqa33_)</f>
-        <v>189.11018951487728</v>
+        <v>188.88420437025923</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K37">
         <f t="shared" ref="K37:AI37" ca="1" si="24">flt3_*qa3_+lz*wa*flt3_^2/za*(sa-oa/za)</f>
-        <v>5.4169055068351862E-26</v>
+        <v>5.4169055067959173E-26</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="24"/>
-        <v>2.4369891314517551E-16</v>
+        <v>2.4369891311861791E-16</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="24"/>
-        <v>6.4005530030473544E-9</v>
+        <v>6.4005524574295255E-9</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="24"/>
-        <v>7.1461674548256983E-4</v>
+        <v>7.1351519112019233E-4</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="24"/>
-        <v>1.141257883033723</v>
+        <v>1.1392838293164418</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="24"/>
-        <v>8.1113429714443086</v>
+        <v>8.1059132251483721</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="24"/>
-        <v>10.846442021458135</v>
+        <v>10.851334302571022</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="24"/>
-        <v>12.106056173333618</v>
+        <v>12.106337182271091</v>
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="24"/>
-        <v>12.77023489501309</v>
+        <v>12.761841884363632</v>
       </c>
       <c r="T37">
         <f t="shared" ca="1" si="24"/>
-        <v>13.065000897348828</v>
+        <v>13.056935533720829</v>
       </c>
       <c r="U37">
         <f t="shared" ca="1" si="24"/>
-        <v>13.011724945039983</v>
+        <v>13.003415298695607</v>
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="24"/>
-        <v>12.688725797646731</v>
+        <v>12.678847165699375</v>
       </c>
       <c r="W37">
         <f t="shared" ca="1" si="24"/>
-        <v>12.176056276495482</v>
+        <v>12.164075678905411</v>
       </c>
       <c r="X37">
         <f t="shared" ca="1" si="24"/>
-        <v>11.539999176091166</v>
+        <v>11.525964471318684</v>
       </c>
       <c r="Y37">
         <f t="shared" ca="1" si="24"/>
-        <v>10.832238635536978</v>
+        <v>10.816510831583132</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="24"/>
-        <v>10.091528753254353</v>
+        <v>10.074597147901324</v>
       </c>
       <c r="AA37">
         <f t="shared" ca="1" si="24"/>
-        <v>9.3459327801260041</v>
+        <v>9.3283023220100585</v>
       </c>
       <c r="AB37">
         <f t="shared" ca="1" si="24"/>
-        <v>8.6150472478381808</v>
+        <v>8.5971770064384021</v>
       </c>
       <c r="AC37">
         <f t="shared" ca="1" si="24"/>
-        <v>7.9119716915937239</v>
+        <v>7.8942467120738051</v>
       </c>
       <c r="AD37">
         <f t="shared" ca="1" si="24"/>
-        <v>7.2449453136672517</v>
+        <v>7.2276688268810627</v>
       </c>
       <c r="AE37">
         <f t="shared" ca="1" si="24"/>
-        <v>6.6186521788967987</v>
+        <v>6.6020492377718201</v>
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="24"/>
-        <v>6.0352324077181878</v>
+        <v>6.0194591669980655</v>
       </c>
       <c r="AG37">
         <f t="shared" ca="1" si="24"/>
-        <v>5.495048670742043</v>
+        <v>5.4802037680541034</v>
       </c>
       <c r="AH37">
         <f t="shared" ca="1" si="24"/>
-        <v>4.9972570414749322</v>
+        <v>4.9833930498869723</v>
       </c>
       <c r="AI37">
         <f t="shared" ca="1" si="24"/>
-        <v>4.4647791339777481</v>
+        <v>4.4659342070583561</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -51309,15 +51313,19 @@
       </c>
       <c r="B38" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>32.439661558701793</v>
+        <v>30.083769465091997</v>
       </c>
       <c r="C38">
         <f ca="1">B4/(B38/SUM($B$38:$B$40))</f>
-        <v>0.82410989774513599</v>
+        <v>0.8415062567379259</v>
       </c>
       <c r="E38" s="20">
         <f ca="1">C38/SUM($C$38:$C$40)</f>
-        <v>0.21830118533889337</v>
+        <v>0.22689012387218618</v>
+      </c>
+      <c r="F38">
+        <f ca="1">tau*B4/(phi_q1*(SUMPRODUCT(tau*$B$4:$B$6,1/$B$38:$B$40)))</f>
+        <v>0.22689012387218621</v>
       </c>
       <c r="G38" t="s">
         <v>69</v>
@@ -51327,103 +51335,103 @@
       </c>
       <c r="K38">
         <f t="shared" ref="K38:AI38" ca="1" si="25">flt1_*qa1_+lz*wa*flt2_*flt1_/za*(sa-oa/za)</f>
-        <v>3.150793832241469E-18</v>
+        <v>3.1507938322072228E-18</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="25"/>
-        <v>3.1317990478935354E-15</v>
+        <v>3.1317990473689255E-15</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="25"/>
-        <v>1.2415508673096944E-12</v>
+        <v>1.2415507351006315E-12</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="25"/>
-        <v>-6.7062349109683518E-6</v>
+        <v>-6.6895868646615794E-6</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="25"/>
-        <v>-4.2975067496258106E-4</v>
+        <v>-4.2613351360014368E-4</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.466238486841234E-3</v>
+        <v>-7.3416239456700009E-3</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="25"/>
-        <v>2.7037090781395837E-2</v>
+        <v>2.8207366736562683E-2</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="25"/>
-        <v>4.4404155486364605</v>
+        <v>4.4302889851916234</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="25"/>
-        <v>17.918890836291101</v>
+        <v>17.846289670787684</v>
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="25"/>
-        <v>23.066149725655862</v>
+        <v>22.969668720342142</v>
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="25"/>
-        <v>25.347524669490884</v>
+        <v>25.242886818241729</v>
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="25"/>
-        <v>27.025720878665865</v>
+        <v>26.915966104990616</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="25"/>
-        <v>28.385782826153324</v>
+        <v>28.272417385856066</v>
       </c>
       <c r="X38">
         <f t="shared" ca="1" si="25"/>
-        <v>29.496045031092205</v>
+        <v>29.380198601125443</v>
       </c>
       <c r="Y38">
         <f t="shared" ca="1" si="25"/>
-        <v>30.400180431188158</v>
+        <v>30.282727876580001</v>
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="25"/>
-        <v>31.134464821846759</v>
+        <v>31.01607518209671</v>
       </c>
       <c r="AA38">
         <f t="shared" ca="1" si="25"/>
-        <v>31.729548285116998</v>
+        <v>31.610727958442425</v>
       </c>
       <c r="AB38">
         <f t="shared" ca="1" si="25"/>
-        <v>32.211084603543888</v>
+        <v>32.092214136779383</v>
       </c>
       <c r="AC38">
         <f t="shared" ca="1" si="25"/>
-        <v>32.600344701598623</v>
+        <v>32.481708080981726</v>
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="25"/>
-        <v>32.914833989757014</v>
+        <v>32.796641185938576</v>
       </c>
       <c r="AE38">
         <f t="shared" ca="1" si="25"/>
-        <v>33.168874542978557</v>
+        <v>33.051278656614841</v>
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="25"/>
-        <v>33.374129709684695</v>
+        <v>33.257240009588152</v>
       </c>
       <c r="AG38">
         <f t="shared" ca="1" si="25"/>
-        <v>33.540062766195064</v>
+        <v>33.423954660882281</v>
       </c>
       <c r="AH38">
         <f t="shared" ca="1" si="25"/>
-        <v>33.674329525217466</v>
+        <v>33.559052248169685</v>
       </c>
       <c r="AI38">
         <f t="shared" ca="1" si="25"/>
-        <v>33.782970494612691</v>
+        <v>33.668578861732257</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -51432,130 +51440,134 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">SUMPRODUCT(lz,qa2_)</f>
-        <v>12.150170907024057</v>
+        <v>11.934506411359671</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:C40" ca="1" si="26">B5/(B39/SUM($B$38:$B$40))</f>
-        <v>2.2002856070587145</v>
+        <v>2.1212171964682138</v>
       </c>
       <c r="E39" s="20">
         <f t="shared" ref="E39:E40" ca="1" si="27">C39/SUM($C$38:$C$40)</f>
-        <v>0.58284090194675608</v>
+        <v>0.57193066434486739</v>
+      </c>
+      <c r="F39">
+        <f ca="1">tau*B5/(phi_q2*(SUMPRODUCT(tau*$B$4:$B$6,1/$B$38:$B$40)))</f>
+        <v>0.57193066434486739</v>
       </c>
       <c r="G39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
-        <v>0.90341471467698264</v>
+        <v>0.88433872033675409</v>
       </c>
       <c r="H39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
-        <v>0.93805650187734835</v>
+        <v>0.92214002926055039</v>
       </c>
       <c r="I39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
-        <v>0.90519744238239441</v>
+        <v>0.88532194503396267</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K39">
         <f t="shared" ref="K39:AI39" ca="1" si="28">flt1_*qa1_+lz*wa*flt3_*flt1_/za*(sa-oa/za)</f>
-        <v>3.1505125000254739E-18</v>
+        <v>3.150512499991232E-18</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="28"/>
-        <v>2.65063369374035E-15</v>
+        <v>2.6506336933352987E-15</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="28"/>
-        <v>-3.9068887843868915E-11</v>
+        <v>-3.9068882161971381E-11</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="28"/>
-        <v>-1.9332470700953326E-7</v>
+        <v>-1.9284454257780912E-7</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="28"/>
-        <v>-2.648078751232158E-4</v>
+        <v>-2.625776308174341E-4</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="28"/>
-        <v>-1.4026564145077554E-2</v>
+        <v>-1.3797951160803981E-2</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="28"/>
-        <v>-8.2696657368655738E-2</v>
+        <v>-7.9016539190487983E-2</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="28"/>
-        <v>3.6672018740485068</v>
+        <v>3.6805268325128262</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="28"/>
-        <v>16.5567037523106</v>
+        <v>16.537413976973809</v>
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="28"/>
-        <v>21.757715828160897</v>
+        <v>21.724388287622475</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="28"/>
-        <v>24.216059280992042</v>
+        <v>24.175917948918819</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="28"/>
-        <v>26.078309179033358</v>
+        <v>26.030447528679193</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="28"/>
-        <v>27.607727546826069</v>
+        <v>27.551405923625623</v>
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="28"/>
-        <v>28.865820083469604</v>
+        <v>28.801035549023389</v>
       </c>
       <c r="Y39">
         <f t="shared" ca="1" si="28"/>
-        <v>29.894816310496825</v>
+        <v>29.822082126013747</v>
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="28"/>
-        <v>30.732218106210276</v>
+        <v>30.652340843813381</v>
       </c>
       <c r="AA39">
         <f t="shared" ca="1" si="28"/>
-        <v>31.411122582744948</v>
+        <v>31.325040040603866</v>
       </c>
       <c r="AB39">
         <f t="shared" ca="1" si="28"/>
-        <v>31.960022567399992</v>
+        <v>31.868695922749826</v>
       </c>
       <c r="AC39">
         <f t="shared" ca="1" si="28"/>
-        <v>32.402974048584554</v>
+        <v>32.307321303075341</v>
       </c>
       <c r="AD39">
         <f t="shared" ca="1" si="28"/>
-        <v>32.759999659274122</v>
+        <v>32.660858554945342</v>
       </c>
       <c r="AE39">
         <f t="shared" ca="1" si="28"/>
-        <v>33.047590745674107</v>
+        <v>32.945701676497251</v>
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="28"/>
-        <v>33.27922414504836</v>
+        <v>33.175225956542036</v>
       </c>
       <c r="AG39">
         <f t="shared" ca="1" si="28"/>
-        <v>33.465848526112453</v>
+        <v>33.360282120437546</v>
       </c>
       <c r="AH39">
         <f t="shared" ca="1" si="28"/>
-        <v>33.616319181063226</v>
+        <v>33.509635437759407</v>
       </c>
       <c r="AI39">
         <f t="shared" ca="1" si="28"/>
-        <v>33.532348332221936</v>
+        <v>33.463094913175922</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -51564,247 +51576,258 @@
       </c>
       <c r="B40" s="1">
         <f ca="1">SUMPRODUCT(lz,qa3_)</f>
-        <v>35.612508067765155</v>
+        <v>33.929524294958902</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="26"/>
-        <v>0.75070950191325869</v>
+        <v>0.74614779414692234</v>
       </c>
       <c r="E40" s="20">
         <f t="shared" ca="1" si="27"/>
-        <v>0.19885791271435058</v>
+        <v>0.20117921178294643</v>
+      </c>
+      <c r="F40">
+        <f ca="1">tau*B6/(phi_q3*(SUMPRODUCT(tau*$B$4:$B$6,1/$B$38:$B$40)))</f>
+        <v>0.20117921178294643</v>
       </c>
       <c r="G40" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
-        <v>0.93805650187734835</v>
+        <v>0.92214002926055039</v>
       </c>
       <c r="H40" s="1">
         <f ca="1">re*phi_q2+f2_*phi_q2*$H32+f2_*re*H36</f>
-        <v>0.22842853514251701</v>
+        <v>0.21840381459201924</v>
       </c>
       <c r="I40" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
-        <v>0.93733371709578517</v>
+        <v>0.91515281551085037</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>65</v>
       </c>
       <c r="K40">
         <f t="shared" ref="K40:AI40" ca="1" si="29">flt1_*qa1_+lz*wa*flt1_*flt2_/za*(sa-oa/za)</f>
-        <v>3.150793832241469E-18</v>
+        <v>3.1507938322072228E-18</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="29"/>
-        <v>3.1317990478935354E-15</v>
+        <v>3.1317990473689255E-15</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="29"/>
-        <v>1.2415508673096944E-12</v>
+        <v>1.2415507351006315E-12</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="29"/>
-        <v>-6.7062349109683535E-6</v>
+        <v>-6.6895868646615794E-6</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="29"/>
-        <v>-4.2975067496258106E-4</v>
+        <v>-4.2613351360014368E-4</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="29"/>
-        <v>-7.466238486841234E-3</v>
+        <v>-7.3416239456700009E-3</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="29"/>
-        <v>2.7037090781395837E-2</v>
+        <v>2.8207366736562683E-2</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="29"/>
-        <v>4.4404155486364605</v>
+        <v>4.4302889851916234</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="29"/>
-        <v>17.918890836291101</v>
+        <v>17.846289670787684</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="29"/>
-        <v>23.066149725655862</v>
+        <v>22.969668720342142</v>
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="29"/>
-        <v>25.347524669490884</v>
+        <v>25.242886818241729</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="29"/>
-        <v>27.025720878665865</v>
+        <v>26.915966104990616</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="29"/>
-        <v>28.385782826153324</v>
+        <v>28.272417385856066</v>
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="29"/>
-        <v>29.496045031092205</v>
+        <v>29.380198601125443</v>
       </c>
       <c r="Y40">
         <f t="shared" ca="1" si="29"/>
-        <v>30.400180431188158</v>
+        <v>30.282727876580001</v>
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="29"/>
-        <v>31.134464821846759</v>
+        <v>31.01607518209671</v>
       </c>
       <c r="AA40">
         <f t="shared" ca="1" si="29"/>
-        <v>31.729548285116998</v>
+        <v>31.610727958442425</v>
       </c>
       <c r="AB40">
         <f t="shared" ca="1" si="29"/>
-        <v>32.211084603543888</v>
+        <v>32.092214136779383</v>
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="29"/>
-        <v>32.600344701598623</v>
+        <v>32.481708080981726</v>
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="29"/>
-        <v>32.914833989757014</v>
+        <v>32.796641185938576</v>
       </c>
       <c r="AE40">
         <f t="shared" ca="1" si="29"/>
-        <v>33.168874542978557</v>
+        <v>33.051278656614841</v>
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="29"/>
-        <v>33.374129709684695</v>
+        <v>33.257240009588152</v>
       </c>
       <c r="AG40">
         <f t="shared" ca="1" si="29"/>
-        <v>33.540062766195064</v>
+        <v>33.423954660882281</v>
       </c>
       <c r="AH40">
         <f t="shared" ca="1" si="29"/>
-        <v>33.674329525217466</v>
+        <v>33.559052248169685</v>
       </c>
       <c r="AI40">
         <f t="shared" ca="1" si="29"/>
-        <v>33.782970494612691</v>
+        <v>33.668578861732257</v>
       </c>
     </row>
     <row r="41" spans="1:35">
+      <c r="A41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="1">
+        <f ca="1">SUM(B38:B40)</f>
+        <v>75.947800171410563</v>
+      </c>
       <c r="G41" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
-        <v>0.90519744238239441</v>
+        <v>0.88532194503396267</v>
       </c>
       <c r="H41" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>0.93733371709578517</v>
+        <v>0.91515281551085037</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>0.73210698619815506</v>
+        <v>0.6902189858900859</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
       </c>
       <c r="K41">
         <f t="shared" ref="K41:AI41" ca="1" si="30">flt1_*qa1_+lz*wa*flt3_*flt2_/za*(sa-oa/za)</f>
-        <v>3.150793832241469E-18</v>
+        <v>3.1507938322072228E-18</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="30"/>
-        <v>3.1317990480354779E-15</v>
+        <v>3.131799047510868E-15</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="30"/>
-        <v>1.0602862534072282E-12</v>
+        <v>1.0602861473425542E-12</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.103794484256833E-2</v>
+        <v>-1.101054385216833E-2</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="30"/>
-        <v>-0.6251212868203414</v>
+        <v>-0.61986496782857303</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.1194849345535032</v>
+        <v>-1.101731894364524</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="30"/>
-        <v>-0.67320169254327855</v>
+        <v>-0.65601547897366141</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="30"/>
-        <v>4.2460785966049679</v>
+        <v>4.2418462606396874</v>
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="30"/>
-        <v>17.954186367239956</v>
+        <v>17.880203854164183</v>
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="30"/>
-        <v>23.108210313251519</v>
+        <v>23.009699192513366</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="30"/>
-        <v>25.37690478681364</v>
+        <v>25.270592191184711</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="30"/>
-        <v>27.044916779060209</v>
+        <v>26.933907963207915</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="30"/>
-        <v>28.397931643164355</v>
+        <v>28.283675501507012</v>
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="30"/>
-        <v>29.503558160252613</v>
+        <v>29.387103003802288</v>
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="30"/>
-        <v>30.404743940379344</v>
+        <v>30.286887572590302</v>
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="30"/>
-        <v>31.137197435458791</v>
+        <v>31.018546166607756</v>
       </c>
       <c r="AA41">
         <f t="shared" ca="1" si="30"/>
-        <v>31.731165895046402</v>
+        <v>31.612179259669567</v>
       </c>
       <c r="AB41">
         <f t="shared" ca="1" si="30"/>
-        <v>32.212033288071439</v>
+        <v>32.093058741859991</v>
       </c>
       <c r="AC41">
         <f t="shared" ca="1" si="30"/>
-        <v>32.60089684802201</v>
+        <v>32.482195929779088</v>
       </c>
       <c r="AD41">
         <f t="shared" ca="1" si="30"/>
-        <v>32.915153327468254</v>
+        <v>32.796921230515714</v>
       </c>
       <c r="AE41">
         <f t="shared" ca="1" si="30"/>
-        <v>33.169058269623612</v>
+        <v>33.051438589802814</v>
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="30"/>
-        <v>33.374234952500679</v>
+        <v>33.257330956730463</v>
       </c>
       <c r="AG41">
         <f t="shared" ca="1" si="30"/>
-        <v>33.540122830037419</v>
+        <v>33.424006193006399</v>
       </c>
       <c r="AH41">
         <f t="shared" ca="1" si="30"/>
-        <v>33.674363698011618</v>
+        <v>33.559081358675996</v>
       </c>
       <c r="AI41">
         <f t="shared" ca="1" si="30"/>
-        <v>33.783077691589476</v>
+        <v>33.668666752036337</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -51818,103 +51841,103 @@
       </c>
       <c r="K42">
         <f t="shared" ref="K42:AI42" ca="1" si="31">flt1_*qa1_+lz*wa*flt1_*flt3_/za*(sa-oa/za)</f>
-        <v>3.1505125000254739E-18</v>
+        <v>3.150512499991232E-18</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="31"/>
-        <v>2.65063369374035E-15</v>
+        <v>2.6506336933352987E-15</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="31"/>
-        <v>-3.9068887843868915E-11</v>
+        <v>-3.9068882161971381E-11</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.9332470700953332E-7</v>
+        <v>-1.9284454257780907E-7</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="31"/>
-        <v>-2.6480787512321574E-4</v>
+        <v>-2.625776308174341E-4</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.4026564145077554E-2</v>
+        <v>-1.3797951160803981E-2</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="31"/>
-        <v>-8.2696657368655738E-2</v>
+        <v>-7.9016539190487983E-2</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="31"/>
-        <v>3.6672018740485068</v>
+        <v>3.6805268325128262</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="31"/>
-        <v>16.5567037523106</v>
+        <v>16.537413976973809</v>
       </c>
       <c r="T42">
         <f t="shared" ca="1" si="31"/>
-        <v>21.757715828160897</v>
+        <v>21.724388287622475</v>
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="31"/>
-        <v>24.216059280992042</v>
+        <v>24.175917948918819</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="31"/>
-        <v>26.078309179033358</v>
+        <v>26.030447528679193</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="31"/>
-        <v>27.607727546826069</v>
+        <v>27.551405923625623</v>
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="31"/>
-        <v>28.865820083469604</v>
+        <v>28.801035549023389</v>
       </c>
       <c r="Y42">
         <f t="shared" ca="1" si="31"/>
-        <v>29.894816310496825</v>
+        <v>29.822082126013747</v>
       </c>
       <c r="Z42">
         <f t="shared" ca="1" si="31"/>
-        <v>30.732218106210276</v>
+        <v>30.652340843813381</v>
       </c>
       <c r="AA42">
         <f t="shared" ca="1" si="31"/>
-        <v>31.411122582744948</v>
+        <v>31.325040040603866</v>
       </c>
       <c r="AB42">
         <f t="shared" ca="1" si="31"/>
-        <v>31.960022567399992</v>
+        <v>31.868695922749826</v>
       </c>
       <c r="AC42">
         <f t="shared" ca="1" si="31"/>
-        <v>32.402974048584554</v>
+        <v>32.307321303075341</v>
       </c>
       <c r="AD42">
         <f t="shared" ca="1" si="31"/>
-        <v>32.759999659274122</v>
+        <v>32.660858554945342</v>
       </c>
       <c r="AE42">
         <f t="shared" ca="1" si="31"/>
-        <v>33.047590745674107</v>
+        <v>32.945701676497251</v>
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="31"/>
-        <v>33.27922414504836</v>
+        <v>33.175225956542036</v>
       </c>
       <c r="AG42">
         <f t="shared" ca="1" si="31"/>
-        <v>33.465848526112453</v>
+        <v>33.360282120437546</v>
       </c>
       <c r="AH42">
         <f t="shared" ca="1" si="31"/>
-        <v>33.616319181063226</v>
+        <v>33.509635437759407</v>
       </c>
       <c r="AI42">
         <f t="shared" ca="1" si="31"/>
-        <v>33.532348332221936</v>
+        <v>33.463094913175922</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -51923,110 +51946,110 @@
       </c>
       <c r="B43" s="1">
         <f ca="1">phif/phie</f>
-        <v>0.43705623687567641</v>
+        <v>0.39920596849490819</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>61</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43:AI43" ca="1" si="32">flt1_*qa1_+lz*wa*flt2_*flt3_/za*(sa-oa/za)</f>
-        <v>3.150793832241469E-18</v>
+        <v>3.1507938322072228E-18</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="32"/>
-        <v>3.1317990480354779E-15</v>
+        <v>3.131799047510868E-15</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="32"/>
-        <v>1.0602862534072282E-12</v>
+        <v>1.0602861473425542E-12</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.103794484256833E-2</v>
+        <v>-1.101054385216833E-2</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.6251212868203414</v>
+        <v>-0.61986496782857303</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.1194849345535032</v>
+        <v>-1.101731894364524</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.67320169254327855</v>
+        <v>-0.65601547897366141</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="32"/>
-        <v>4.2460785966049679</v>
+        <v>4.2418462606396874</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="32"/>
-        <v>17.954186367239956</v>
+        <v>17.880203854164183</v>
       </c>
       <c r="T43">
         <f t="shared" ca="1" si="32"/>
-        <v>23.108210313251519</v>
+        <v>23.009699192513366</v>
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="32"/>
-        <v>25.37690478681364</v>
+        <v>25.270592191184711</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="32"/>
-        <v>27.044916779060209</v>
+        <v>26.933907963207915</v>
       </c>
       <c r="W43">
         <f t="shared" ca="1" si="32"/>
-        <v>28.397931643164355</v>
+        <v>28.283675501507012</v>
       </c>
       <c r="X43">
         <f t="shared" ca="1" si="32"/>
-        <v>29.503558160252613</v>
+        <v>29.387103003802288</v>
       </c>
       <c r="Y43">
         <f t="shared" ca="1" si="32"/>
-        <v>30.404743940379344</v>
+        <v>30.286887572590302</v>
       </c>
       <c r="Z43">
         <f t="shared" ca="1" si="32"/>
-        <v>31.137197435458791</v>
+        <v>31.018546166607756</v>
       </c>
       <c r="AA43">
         <f t="shared" ca="1" si="32"/>
-        <v>31.731165895046402</v>
+        <v>31.612179259669567</v>
       </c>
       <c r="AB43">
         <f t="shared" ca="1" si="32"/>
-        <v>32.212033288071439</v>
+        <v>32.093058741859991</v>
       </c>
       <c r="AC43">
         <f t="shared" ca="1" si="32"/>
-        <v>32.60089684802201</v>
+        <v>32.482195929779088</v>
       </c>
       <c r="AD43">
         <f t="shared" ca="1" si="32"/>
-        <v>32.915153327468254</v>
+        <v>32.796921230515714</v>
       </c>
       <c r="AE43">
         <f t="shared" ca="1" si="32"/>
-        <v>33.169058269623612</v>
+        <v>33.051438589802814</v>
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="32"/>
-        <v>33.374234952500679</v>
+        <v>33.257330956730463</v>
       </c>
       <c r="AG43">
         <f t="shared" ca="1" si="32"/>
-        <v>33.540122830037419</v>
+        <v>33.424006193006399</v>
       </c>
       <c r="AH43">
         <f t="shared" ca="1" si="32"/>
-        <v>33.674363698011618</v>
+        <v>33.559081358675996</v>
       </c>
       <c r="AI43">
         <f t="shared" ca="1" si="32"/>
-        <v>33.783077691589476</v>
+        <v>33.668666752036337</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -52035,7 +52058,7 @@
       </c>
       <c r="B44" s="10">
         <f ca="1">MAX(0,Ro*(reck-1/spr)/(reck-1))</f>
-        <v>1.8461819542944805E-2</v>
+        <v>1.8049435348361967E-2</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -52044,11 +52067,11 @@
       </c>
       <c r="B45" s="1">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>2.2225719622710537E-2</v>
+        <v>2.3163235582409895E-2</v>
       </c>
       <c r="C45" s="19">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.33333000000000002</v>
+        <v>0.33332999999999996</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>86</v>
@@ -52060,11 +52083,11 @@
       </c>
       <c r="B46" s="1">
         <f ca="1">f2_*re*phi_q2</f>
-        <v>2.2225719622710548E-2</v>
+        <v>2.3163235582409895E-2</v>
       </c>
       <c r="C46" s="19">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.33333000000000013</v>
+        <v>0.33332999999999996</v>
       </c>
       <c r="G46" s="31" t="s">
         <v>93</v>
@@ -52076,103 +52099,103 @@
       </c>
       <c r="K46">
         <f t="shared" ref="K46:AI46" ca="1" si="33">lz*qa1_</f>
-        <v>7.8401271045920977E-10</v>
+        <v>7.8401271045068836E-10</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="33"/>
-        <v>5.5058850793243763E-8</v>
+        <v>5.5058850782793249E-8</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="33"/>
-        <v>1.5439122739441714E-6</v>
+        <v>1.5439121088769131E-6</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="33"/>
-        <v>3.131506359082028E-5</v>
+        <v>3.1257695423044077E-5</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="33"/>
-        <v>1.3738206993818634E-3</v>
+        <v>1.3639467273874599E-3</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="33"/>
-        <v>3.3891316112403307E-2</v>
+        <v>3.3398818771362089E-2</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="33"/>
-        <v>0.40187176190049395</v>
+        <v>0.39314339997009679</v>
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="33"/>
-        <v>2.5247647225248735</v>
+        <v>2.451616659360532</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="33"/>
-        <v>4.2400644612504408</v>
+        <v>4.0809397545608128</v>
       </c>
       <c r="T46">
         <f t="shared" ca="1" si="33"/>
-        <v>4.0134228617733214</v>
+        <v>3.8259703366375462</v>
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="33"/>
-        <v>3.4932878589741154</v>
+        <v>3.299331138485611</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="33"/>
-        <v>2.9852312266749932</v>
+        <v>2.7944281321450561</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="33"/>
-        <v>2.5251929565929991</v>
+        <v>2.3434859227251184</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="33"/>
-        <v>2.1199666527237957</v>
+        <v>1.9509854327140461</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="33"/>
-        <v>1.7694552291126984</v>
+        <v>1.6151328612834954</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="33"/>
-        <v>1.4703120505141447</v>
+        <v>1.3313598932682804</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="33"/>
-        <v>1.2175789249372</v>
+        <v>1.0938671283322015</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="33"/>
-        <v>1.0056893826436162</v>
+        <v>0.89654070886779802</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="33"/>
-        <v>0.82907736532850485</v>
+        <v>0.73348581590281958</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="33"/>
-        <v>0.68252056328107347</v>
+        <v>0.59930852741523488</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="33"/>
-        <v>0.56131039434374075</v>
+        <v>0.48923769791649757</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="33"/>
-        <v>0.46131352432852463</v>
+        <v>0.39915011277803769</v>
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="33"/>
-        <v>0.3789691249990122</v>
+        <v>0.32554103261007139</v>
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="33"/>
-        <v>0.31125092846106173</v>
+        <v>0.26546713827216528</v>
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="33"/>
-        <v>1.4130835167066664</v>
+        <v>1.159982148897428</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -52181,129 +52204,129 @@
       </c>
       <c r="B47" s="1">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>2.2226386400967003E-2</v>
+        <v>2.3163930486426409E-2</v>
       </c>
       <c r="C47" s="19">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.33334000000000003</v>
+        <v>0.33333999999999997</v>
       </c>
       <c r="F47" t="s">
         <v>83</v>
       </c>
       <c r="G47" s="30">
         <f ca="1">G39/G53</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="H47" s="30">
         <f ca="1">H53/H39</f>
-        <v>0.48427244600255592</v>
+        <v>0.47658739894037322</v>
       </c>
       <c r="I47" s="30">
         <f ca="1">I53/I39</f>
-        <v>0.89843681046421442</v>
+        <v>0.88247323346729423</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
       </c>
       <c r="K47">
         <f t="shared" ref="K47:AI47" ca="1" si="34">lz*qa2_</f>
-        <v>5.0047053936051668E-27</v>
+        <v>5.0047053935507708E-27</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="34"/>
-        <v>9.3827195151093263E-18</v>
+        <v>9.382719513328425E-18</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="34"/>
-        <v>7.0203992015833999E-9</v>
+        <v>7.0203984509979758E-9</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="34"/>
-        <v>1.7844236340944126</v>
+        <v>1.7811546286163416</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="34"/>
-        <v>3.2342837300849667</v>
+        <v>3.2110381733779065</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="34"/>
-        <v>2.6102223509270308</v>
+        <v>2.5722914673020223</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="34"/>
-        <v>1.7655481188535407</v>
+        <v>1.7272016998018302</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="34"/>
-        <v>1.1248574832630216</v>
+        <v>1.0922678540185504</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="34"/>
-        <v>0.6848863590416957</v>
+        <v>0.65918336749658679</v>
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="34"/>
-        <v>0.40427862604508763</v>
+        <v>0.38539622767326759</v>
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="34"/>
-        <v>0.23442827420604756</v>
+        <v>0.2214121870439269</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="34"/>
-        <v>0.13422210180249899</v>
+        <v>0.12564320441278021</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="34"/>
-        <v>7.6105274658967631E-2</v>
+        <v>7.0628915442981471E-2</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="34"/>
-        <v>4.2829245760791362E-2</v>
+        <v>3.9415353286842696E-2</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="34"/>
-        <v>2.3963140459203641E-2</v>
+        <v>2.1873204237340328E-2</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="34"/>
-        <v>1.3347705769631147E-2</v>
+        <v>1.2086277958898885E-2</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="34"/>
-        <v>7.4094715377225019E-3</v>
+        <v>6.6566340689953474E-3</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="34"/>
-        <v>4.1024850186344294E-3</v>
+        <v>3.6572374037177357E-3</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="34"/>
-        <v>2.2671029231313309E-3</v>
+        <v>2.0057088841760459E-3</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="34"/>
-        <v>1.2510796684020559E-3</v>
+        <v>1.0985496321821492E-3</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="34"/>
-        <v>6.8970815789374076E-4</v>
+        <v>6.011490875679783E-4</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="34"/>
-        <v>3.7997193557727266E-4</v>
+        <v>3.2876955246200152E-4</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="34"/>
-        <v>2.0924361825624653E-4</v>
+        <v>1.797438869311152E-4</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="34"/>
-        <v>1.1519990146611895E-4</v>
+        <v>9.8254448019331376E-5</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="34"/>
-        <v>3.5059227568045995E-4</v>
+        <v>2.8779670594309239E-4</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -52312,14 +52335,14 @@
       </c>
       <c r="B48" s="1">
         <f ca="1">SUM(B45:B47)</f>
-        <v>6.6677825646388078E-2</v>
+        <v>6.9490401651246203E-2</v>
       </c>
       <c r="F48" t="s">
         <v>84</v>
       </c>
       <c r="G48" s="30">
         <f ca="1">G40/G54</f>
-        <v>2.0649533299995397</v>
+        <v>2.0982510285067608</v>
       </c>
       <c r="H48" s="30">
         <f t="shared" ref="H48" ca="1" si="35">H40/H54</f>
@@ -52327,110 +52350,110 @@
       </c>
       <c r="I48" s="30">
         <f ca="1">I54/I40</f>
-        <v>0.4362829223653788</v>
+        <v>0.42425790215275078</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
       </c>
       <c r="K48">
         <f t="shared" ref="K48:AI48" ca="1" si="36">lz*qa3_</f>
-        <v>1.4359647873247046E-13</v>
+        <v>1.435964787309097E-13</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="36"/>
-        <v>2.0160113949976653E-8</v>
+        <v>2.0160113946150132E-8</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="36"/>
-        <v>1.3857775667153315E-4</v>
+        <v>1.3857774185550332E-4</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="36"/>
-        <v>5.1539246434585774E-2</v>
+        <v>5.1444828228218636E-2</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="36"/>
-        <v>1.9950197423127238</v>
+        <v>1.9806810669144417</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="36"/>
-        <v>4.7555802318388034</v>
+        <v>4.6864737205566511</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="36"/>
-        <v>4.7792478958354661</v>
+        <v>4.6754461129167888</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="36"/>
-        <v>4.336612269963207</v>
+        <v>4.2109709436992304</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="36"/>
-        <v>3.7486068695996373</v>
+        <v>3.6079259969216184</v>
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="36"/>
-        <v>3.1402972356184935</v>
+        <v>2.9936252633973828</v>
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="36"/>
-        <v>2.5841147928325348</v>
+        <v>2.4406378018665453</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="36"/>
-        <v>2.0995763382592294</v>
+        <v>1.9653804813480387</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="36"/>
-        <v>1.6893767303282297</v>
+        <v>1.5678130953783174</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="36"/>
-        <v>1.349135929430781</v>
+        <v>1.2415971457327983</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="36"/>
-        <v>1.071179653552037</v>
+        <v>0.97775712565371375</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="36"/>
-        <v>0.84669774206629567</v>
+        <v>0.76668038945453298</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="36"/>
-        <v>0.66697899142679296</v>
+        <v>0.5992107608527838</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="36"/>
-        <v>0.52405279330409404</v>
+        <v>0.46717671569522401</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="36"/>
-        <v>0.41096266888093225</v>
+        <v>0.36357920393869797</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="36"/>
-        <v>0.32182456623935463</v>
+        <v>0.28258812591925719</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="36"/>
-        <v>0.25176924230237557</v>
+        <v>0.21944187342941657</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="36"/>
-        <v>0.1968302802357183</v>
+        <v>0.17030679659473791</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="36"/>
-        <v>0.15381393672825461</v>
+        <v>0.13212883184736149</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="36"/>
-        <v>0.12017071599426747</v>
+        <v>0.1024940752364896</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="36"/>
-        <v>0.51898159666440991</v>
+        <v>0.42602534147453935</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -52441,15 +52464,15 @@
       </c>
       <c r="G49" s="30">
         <f ca="1">G41/G55</f>
-        <v>1.1130443325038173</v>
+        <v>1.133178845630179</v>
       </c>
       <c r="H49" s="30">
         <f t="shared" ref="H49:I49" ca="1" si="37">H41/H55</f>
-        <v>2.2920906337069935</v>
+        <v>2.3570568631152042</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" ca="1" si="37"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -52458,11 +52481,11 @@
       </c>
       <c r="B50" s="34">
         <f ca="1">f1_*phi_q1</f>
-        <v>1.203874816943713</v>
+        <v>1.283321895413865</v>
       </c>
       <c r="C50">
         <f ca="1">AVERAGE(B50:B52)/B50</f>
-        <v>1.000010000100001</v>
+        <v>1.0000100001000012</v>
       </c>
       <c r="L50" t="s">
         <v>166</v>
@@ -52477,11 +52500,11 @@
       </c>
       <c r="B51" s="34">
         <f ca="1">f2_*phi_q2</f>
-        <v>1.2038748169437135</v>
+        <v>1.2833218954138652</v>
       </c>
       <c r="C51">
         <f ca="1">AVERAGE(B50:B52)/B51</f>
-        <v>1.0000100001000007</v>
+        <v>1.000010000100001</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -52505,23 +52528,23 @@
       </c>
       <c r="B52" s="34">
         <f ca="1">f3_*phi_q3</f>
-        <v>1.2039109335493874</v>
+        <v>1.283360395455728</v>
       </c>
       <c r="C52">
         <f ca="1">AVERAGE(B50:B52)/B52</f>
-        <v>0.99998000039999213</v>
+        <v>0.99998000039999202</v>
       </c>
       <c r="G52" s="1">
         <f ca="1">G39^0.5</f>
-        <v>0.95048130685299781</v>
+        <v>0.94039285425653574</v>
       </c>
       <c r="H52" s="1">
         <f ca="1">H40^0.5</f>
-        <v>0.4779419788452538</v>
+        <v>0.46733693904079449</v>
       </c>
       <c r="I52" s="10">
         <f ca="1">I41^0.5</f>
-        <v>0.85563250651091738</v>
+        <v>0.83079418985094367</v>
       </c>
       <c r="L52">
         <v>6.5291906864652541E-2</v>
@@ -52542,27 +52565,27 @@
       </c>
       <c r="B53" s="33">
         <f ca="1">phi_t1*f1_</f>
-        <v>4.1816769326088798E-2</v>
+        <v>4.4861639135276063E-2</v>
       </c>
       <c r="C53">
         <f ca="1">AVERAGE(B53:B55)/B53</f>
-        <v>1.5444423986731552</v>
+        <v>1.5455722717827567</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53:I55" ca="1" si="38">G$52*$J53</f>
-        <v>0.90341471467698242</v>
+        <v>0.88433872033675409</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="38"/>
-        <v>0.45427491665274461</v>
+        <v>0.43948031800408538</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="38"/>
-        <v>0.81326270297440284</v>
+        <v>0.78127291949367517</v>
       </c>
       <c r="J53">
         <f t="array" aca="1" ref="J53:J55" ca="1">TRANSPOSE(G52:I52)</f>
-        <v>0.95048130685299781</v>
+        <v>0.94039285425653574</v>
       </c>
       <c r="L53">
         <v>2.3330818388441223E-2</v>
@@ -52583,27 +52606,27 @@
       </c>
       <c r="B54" s="33">
         <f ca="1">phi_t2*f2_</f>
-        <v>9.5131305469006583E-2</v>
+        <v>0.10195144379014046</v>
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
-        <v>0.67888894412142486</v>
+        <v>0.68009733787519244</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="38"/>
-        <v>0.45427491665274466</v>
+        <v>0.43948031800408538</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="38"/>
-        <v>0.22842853514251704</v>
+        <v>0.21840381459201927</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="38"/>
-        <v>0.40894269332615235</v>
+        <v>0.38826081365781673</v>
       </c>
       <c r="J54">
         <f ca="1"/>
-        <v>0.4779419788452538</v>
+        <v>0.46733693904079449</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -52612,27 +52635,27 @@
       </c>
       <c r="B55" s="33">
         <f ca="1">phi_t3*f3_</f>
-        <v>5.680269977314447E-2</v>
+        <v>6.1197633617204053E-2</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.1369810199282262</v>
+        <v>1.1329997814607435</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="38"/>
-        <v>0.81326270297440295</v>
+        <v>0.78127291949367517</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="38"/>
-        <v>0.40894269332615235</v>
+        <v>0.38826081365781673</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="38"/>
-        <v>0.73210698619815506</v>
+        <v>0.69021898589008579</v>
       </c>
       <c r="J55">
         <f ca="1"/>
-        <v>0.85563250651091738</v>
+        <v>0.83079418985094367</v>
       </c>
       <c r="S55" s="32"/>
     </row>

--- a/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
+++ b/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="42160" windowHeight="28280" tabRatio="623" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="623" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="6" r:id="rId1"/>
@@ -3559,13 +3559,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.84400893229234</c:v>
+                  <c:v>25.84400893229233</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22.18513399199464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.48765400456644</c:v>
+                  <c:v>24.48765400456645</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.15918775557973</c:v>
@@ -3616,13 +3616,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531392</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.273792814806826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.132501783742503</c:v>
+                  <c:v>9.1325017837425</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.38294566774333</c:v>
@@ -3673,13 +3673,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.291280140341036</c:v>
+                  <c:v>6.291280140341038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.944230824932705</c:v>
+                  <c:v>6.944230824932703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.134664966680196</c:v>
@@ -3819,13 +3819,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.84400893229234</c:v>
+                  <c:v>25.84400893229233</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22.18513399199464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.48765400456644</c:v>
+                  <c:v>24.48765400456645</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.15918775557973</c:v>
@@ -3876,13 +3876,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531392</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.273792814806826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.132501783742503</c:v>
+                  <c:v>9.1325017837425</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.38294566774333</c:v>
@@ -3933,13 +3933,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.291280140341036</c:v>
+                  <c:v>6.291280140341038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.944230824932705</c:v>
+                  <c:v>6.944230824932703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.134664966680196</c:v>
@@ -4087,13 +4087,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.84400893229234</c:v>
+                  <c:v>25.84400893229233</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22.18513399199464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.48765400456644</c:v>
+                  <c:v>24.48765400456645</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.15918775557973</c:v>
@@ -4162,13 +4162,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531392</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.273792814806826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.132501783742503</c:v>
+                  <c:v>9.1325017837425</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.38294566774333</c:v>
@@ -4237,13 +4237,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.291280140341036</c:v>
+                  <c:v>6.291280140341038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.944230824932705</c:v>
+                  <c:v>6.944230824932703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.134664966680196</c:v>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="C5" s="113">
         <f ca="1">'Status Quo'!ye_1/1000</f>
-        <v>25.84400893229234</v>
+        <v>25.844008932292329</v>
       </c>
       <c r="D5" s="115">
         <f ca="1">'Excluders (1)'!ye_1/1000</f>
@@ -8483,7 +8483,7 @@
       </c>
       <c r="E5" s="115">
         <f ca="1">'No Size Limit (1)'!ye_1/1000</f>
-        <v>24.487654004566437</v>
+        <v>24.487654004566455</v>
       </c>
       <c r="F5" s="115">
         <f ca="1">'Reduce DMR (1)'!ye_1/1000</f>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="C6" s="113">
         <f ca="1">'Status Quo'!ye_2/1000</f>
-        <v>9.6382314155313935</v>
+        <v>9.6382314155313917</v>
       </c>
       <c r="D6" s="115">
         <f ca="1">'Excluders (1)'!ye_2/1000</f>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="E6" s="115">
         <f ca="1">'No Size Limit (1)'!ye_2/1000</f>
-        <v>9.1325017837425033</v>
+        <v>9.1325017837424998</v>
       </c>
       <c r="F6" s="115">
         <f ca="1">'Reduce DMR (1)'!ye_2/1000</f>
@@ -8541,15 +8541,15 @@
       </c>
       <c r="C7" s="114">
         <f ca="1">'Status Quo'!ye_2/1000</f>
-        <v>9.6382314155313935</v>
+        <v>9.6382314155313917</v>
       </c>
       <c r="D7" s="116">
         <f ca="1">'Excluders (1)'!ye_3/1000</f>
-        <v>6.291280140341037</v>
+        <v>6.2912801403410388</v>
       </c>
       <c r="E7" s="116">
         <f ca="1">'No Size Limit (1)'!ye_3/1000</f>
-        <v>6.9442308249327054</v>
+        <v>6.9442308249327027</v>
       </c>
       <c r="F7" s="116">
         <f ca="1">'Reduce DMR (1)'!ye_3/1000</f>
@@ -8574,7 +8574,7 @@
       </c>
       <c r="C8" s="62">
         <f ca="1">SUM(C5:C7)</f>
-        <v>45.120471763355127</v>
+        <v>45.120471763355113</v>
       </c>
       <c r="D8" s="74">
         <f ca="1">SUM(D5:D7)</f>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="E8" s="74">
         <f ca="1">SUM(E5:E7)</f>
-        <v>40.564386613241645</v>
+        <v>40.564386613241659</v>
       </c>
       <c r="F8" s="74">
         <f ca="1">SUM(F5:F7)</f>
@@ -8649,15 +8649,15 @@
       </c>
       <c r="C11" s="65">
         <f ca="1">'Status Quo'!E27/10</f>
-        <v>12.747432046033502</v>
+        <v>12.747432046033493</v>
       </c>
       <c r="D11" s="75">
         <f ca="1">'Excluders (1)'!E27/10</f>
-        <v>13.771284947495317</v>
+        <v>13.771284947495314</v>
       </c>
       <c r="E11" s="75">
         <f ca="1">'No Size Limit (1)'!$E27/10</f>
-        <v>21.42870178070838</v>
+        <v>21.428701780708394</v>
       </c>
       <c r="F11" s="75">
         <f ca="1">'Reduce DMR (1)'!$E27/10</f>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="E12" s="75">
         <f ca="1">'No Size Limit (1)'!$E28</f>
-        <v>35.981514314308669</v>
+        <v>35.981514314308605</v>
       </c>
       <c r="F12" s="75">
         <f ca="1">'Reduce DMR (1)'!$E28</f>
@@ -8715,15 +8715,15 @@
       </c>
       <c r="C13" s="66">
         <f ca="1">'Status Quo'!E29</f>
-        <v>30.775675626432985</v>
+        <v>30.775675626432992</v>
       </c>
       <c r="D13" s="76">
         <f ca="1">'Excluders (1)'!E29</f>
-        <v>16.029056510573859</v>
+        <v>16.029056510573863</v>
       </c>
       <c r="E13" s="76">
         <f ca="1">'No Size Limit (1)'!$E29</f>
-        <v>18.007402016540144</v>
+        <v>18.007402016540123</v>
       </c>
       <c r="F13" s="75">
         <f ca="1">'Reduce DMR (1)'!$E29</f>
@@ -8752,11 +8752,11 @@
       </c>
       <c r="D14" s="77">
         <f ca="1">SUM(D11:D13)</f>
-        <v>231.03472377910754</v>
+        <v>231.03472377910751</v>
       </c>
       <c r="E14" s="77">
         <f ca="1">SUM(E11:E13)</f>
-        <v>75.417618111557189</v>
+        <v>75.417618111557118</v>
       </c>
       <c r="F14" s="105">
         <f ca="1">SUM(F11:F13)</f>
@@ -8823,11 +8823,11 @@
       </c>
       <c r="C17" s="65">
         <f ca="1">C5/C11</f>
-        <v>2.0273894254909148</v>
+        <v>2.0273894254909153</v>
       </c>
       <c r="D17" s="75">
         <f t="shared" ref="D17:F17" ca="1" si="0">D5/D11</f>
-        <v>1.6109705141225481</v>
+        <v>1.6109705141225485</v>
       </c>
       <c r="E17" s="75">
         <f t="shared" ca="1" si="0"/>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:F19" ca="1" si="2">C6/C12</f>
-        <v>0.24424133473274764</v>
+        <v>0.24424133473274759</v>
       </c>
       <c r="D18" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="E18" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2538109348030082</v>
+        <v>0.25381093480300854</v>
       </c>
       <c r="F18" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31317692363683458</v>
+        <v>0.31317692363683441</v>
       </c>
       <c r="D19" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8897,7 +8897,7 @@
       </c>
       <c r="E19" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3856320205743336</v>
+        <v>0.38563202057433393</v>
       </c>
       <c r="F19" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8922,15 +8922,15 @@
       </c>
       <c r="C20" s="111">
         <f ca="1">AVERAGE(C17:C19)</f>
-        <v>0.86160256128683221</v>
+        <v>0.86160256128683244</v>
       </c>
       <c r="D20" s="105">
         <f t="shared" ref="D20:F20" ca="1" si="5">AVERAGE(D17:D19)</f>
-        <v>0.68152598304799339</v>
+        <v>0.6815259830479935</v>
       </c>
       <c r="E20" s="105">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59406439693115554</v>
+        <v>0.59406439693115587</v>
       </c>
       <c r="F20" s="105">
         <f t="shared" ca="1" si="5"/>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="C23" s="63">
         <f ca="1">'Status Quo'!C4</f>
-        <v>0.60367653566062174</v>
+        <v>0.60367653566062196</v>
       </c>
       <c r="D23" s="78">
         <f ca="1">'Excluders (1)'!C4</f>
@@ -9002,7 +9002,7 @@
       </c>
       <c r="E23" s="78">
         <f ca="1">'No Size Limit (1)'!$C4</f>
-        <v>0.60367371601208464</v>
+        <v>0.60367371601208442</v>
       </c>
       <c r="F23" s="78">
         <f ca="1">'Reduce DMR (1)'!$C4</f>
@@ -9027,15 +9027,15 @@
       </c>
       <c r="C24" s="63">
         <f ca="1">'Status Quo'!C5</f>
-        <v>0.22513434994031634</v>
+        <v>0.22513434994031631</v>
       </c>
       <c r="D24" s="78">
         <f ca="1">'Excluders (1)'!C5</f>
-        <v>0.2251359516616315</v>
+        <v>0.22513595166163142</v>
       </c>
       <c r="E24" s="78">
         <f ca="1">'No Size Limit (1)'!$C5</f>
-        <v>0.22513595166163142</v>
+        <v>0.2251359516616315</v>
       </c>
       <c r="F24" s="78">
         <f ca="1">'Reduce DMR (1)'!$C5</f>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="C25" s="67">
         <f ca="1">'Status Quo'!C6</f>
-        <v>0.17118911439906187</v>
+        <v>0.17118911439906176</v>
       </c>
       <c r="D25" s="79">
         <f ca="1">'Excluders (1)'!C6</f>
@@ -9068,7 +9068,7 @@
       </c>
       <c r="E25" s="79">
         <f ca="1">'No Size Limit (1)'!$C6</f>
-        <v>0.17119033232628394</v>
+        <v>0.17119033232628403</v>
       </c>
       <c r="F25" s="78">
         <f ca="1">'Reduce DMR (1)'!$C6</f>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="E26" s="80">
         <f ca="1">SUM(E23:E25)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F26" s="88">
         <f ca="1">SUM(F23:F25)</f>
@@ -9165,15 +9165,15 @@
       </c>
       <c r="C29" s="63">
         <f ca="1">'Status Quo'!C11</f>
-        <v>0.33281647214735255</v>
+        <v>0.3328164721473526</v>
       </c>
       <c r="D29" s="78">
         <f ca="1">'Excluders (1)'!C11</f>
-        <v>0.20363299727562004</v>
+        <v>0.20363299727562001</v>
       </c>
       <c r="E29" s="78">
         <f ca="1">'No Size Limit (1)'!$C11</f>
-        <v>0.28363576736936602</v>
+        <v>0.2836357673693658</v>
       </c>
       <c r="F29" s="78">
         <f ca="1">'Reduce DMR (1)'!$C11</f>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="E30" s="78">
         <f ca="1">'No Size Limit (1)'!$C12</f>
-        <v>0.55044115511719183</v>
+        <v>0.55044115511719205</v>
       </c>
       <c r="F30" s="78">
         <f ca="1">'Reduce DMR (1)'!$C12</f>
@@ -9231,15 +9231,15 @@
       </c>
       <c r="C31" s="67">
         <f ca="1">'Status Quo'!C13</f>
-        <v>0.13818593007336158</v>
+        <v>0.13818593007336152</v>
       </c>
       <c r="D31" s="79">
         <f ca="1">'Excluders (1)'!C13</f>
-        <v>0.11478826544274841</v>
+        <v>0.11478826544274839</v>
       </c>
       <c r="E31" s="78">
         <f ca="1">'No Size Limit (1)'!$C13</f>
-        <v>0.16592307751344207</v>
+        <v>0.16592307751344212</v>
       </c>
       <c r="F31" s="78">
         <f ca="1">'Reduce DMR (1)'!$C13</f>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="E32" s="88">
         <f ca="1">SUM(E29:E31)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F32" s="88">
         <f ca="1">SUM(F29:F31)</f>
@@ -9336,15 +9336,15 @@
       </c>
       <c r="C35" s="70">
         <f ca="1">avg_wt1</f>
-        <v>27.965760347362782</v>
+        <v>27.965760347362771</v>
       </c>
       <c r="D35" s="82">
         <f ca="1">'Excluders (1)'!avg_wt1</f>
-        <v>59.725623146655153</v>
+        <v>59.725623146655145</v>
       </c>
       <c r="E35" s="82">
         <f ca="1">'No Size Limit (1)'!avg_wt1</f>
-        <v>55.872162930839494</v>
+        <v>55.872162930839487</v>
       </c>
       <c r="F35" s="82">
         <f ca="1">'Reduce DMR (1)'!avg_wt1</f>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="E36" s="82">
         <f ca="1">'No Size Limit (1)'!avg_wt2</f>
-        <v>10.737128924240281</v>
+        <v>10.737128924240286</v>
       </c>
       <c r="F36" s="82">
         <f ca="1">'Reduce DMR (1)'!avg_wt2</f>
@@ -9402,15 +9402,15 @@
       </c>
       <c r="C37" s="71">
         <f ca="1">avg_wt3</f>
-        <v>19.100268315238381</v>
+        <v>19.100268315238385</v>
       </c>
       <c r="D37" s="83">
         <f ca="1">'Excluders (1)'!avg_wt3</f>
-        <v>30.04611450232462</v>
+        <v>30.046114502324624</v>
       </c>
       <c r="E37" s="82">
         <f ca="1">'No Size Limit (1)'!avg_wt3</f>
-        <v>27.084863651871267</v>
+        <v>27.08486365187127</v>
       </c>
       <c r="F37" s="82">
         <f ca="1">'Reduce DMR (1)'!avg_wt3</f>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="C38" s="72">
         <f ca="1">AVERAGE(C35:C37)</f>
-        <v>17.875903717248825</v>
+        <v>17.875903717248821</v>
       </c>
       <c r="D38" s="84">
         <f ca="1">AVERAGE(D35:D37)</f>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="E38" s="89">
         <f ca="1">AVERAGE(E35:E37)</f>
-        <v>31.231385168983678</v>
+        <v>31.231385168983682</v>
       </c>
       <c r="F38" s="89">
         <f ca="1">AVERAGE(F35:F37)</f>
@@ -9491,11 +9491,11 @@
       </c>
       <c r="D48" s="49">
         <f ca="1">'Status Quo'!G47</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="E48" s="49">
         <f ca="1">'Status Quo'!H47</f>
-        <v>0.91177356476596494</v>
+        <v>0.91177356476596505</v>
       </c>
       <c r="F48" s="49">
         <f ca="1">'Status Quo'!I47</f>
@@ -9508,15 +9508,15 @@
       </c>
       <c r="D49" s="49">
         <f ca="1">'Status Quo'!G48</f>
-        <v>1.0967635371800684</v>
+        <v>1.0967635371800681</v>
       </c>
       <c r="E49" s="49">
         <f ca="1">'Status Quo'!H48</f>
-        <v>1.0000000000000004</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F49" s="49">
         <f ca="1">'Status Quo'!I48</f>
-        <v>2.1353486094044825</v>
+        <v>2.1353486094044829</v>
       </c>
     </row>
     <row r="50" spans="3:6">
@@ -9525,11 +9525,11 @@
       </c>
       <c r="D50" s="52">
         <f ca="1">'Status Quo'!G49</f>
-        <v>1.0920143516666541</v>
+        <v>1.0920143516666538</v>
       </c>
       <c r="E50" s="52">
         <f ca="1">'Status Quo'!H49</f>
-        <v>0.46830760822650186</v>
+        <v>0.4683076082265018</v>
       </c>
       <c r="F50" s="52">
         <f ca="1">'Status Quo'!I49</f>
@@ -18177,14 +18177,14 @@
       </c>
       <c r="C4" s="21">
         <f ca="1">ypr1/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.60367653566062174</v>
+        <v>0.60367653566062196</v>
       </c>
       <c r="E4" s="46">
         <v>24977</v>
       </c>
       <c r="F4" s="46">
         <f ca="1">ye_1</f>
-        <v>25844.008932292327</v>
+        <v>25844.008932292341</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -18300,7 +18300,7 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">ypr2/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.22513434994031634</v>
+        <v>0.22513434994031631</v>
       </c>
       <c r="E5" s="46">
         <v>9315</v>
@@ -18423,14 +18423,14 @@
       </c>
       <c r="C6" s="21">
         <f ca="1">ypr3/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.17118911439906187</v>
+        <v>0.17118911439906176</v>
       </c>
       <c r="E6" s="46">
         <v>7083</v>
       </c>
       <c r="F6" s="46">
         <f ca="1">ye_3</f>
-        <v>7328.7807961576909</v>
+        <v>7328.7807961576882</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -18580,75 +18580,75 @@
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31607686746223462</v>
+        <v>0.31607686746223457</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26688450833641436</v>
+        <v>0.26688450833641431</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22395385373746998</v>
+        <v>0.22395385373746995</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18568808529150663</v>
+        <v>0.1856880852915066</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15258336881165871</v>
+        <v>0.15258336881165868</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12377254377097821</v>
+        <v>0.12377254377097818</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8710391384072421E-2</v>
+        <v>9.8710391384072407E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.7601973334880642E-2</v>
+        <v>7.7601973334880628E-2</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0531623551544102E-2</v>
+        <v>6.0531623551544095E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.6990376853633123E-2</v>
+        <v>4.6990376853633116E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6404215222345354E-2</v>
+        <v>3.6404215222345347E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8179810905283792E-2</v>
+        <v>2.8179810905283785E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1806396101219174E-2</v>
+        <v>2.1806396101219171E-2</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6872321652001941E-2</v>
+        <v>1.6872321652001938E-2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3054029127802616E-2</v>
+        <v>1.3054029127802614E-2</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0099648181475337E-2</v>
+        <v>1.0099648181475336E-2</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8138484480065069E-3</v>
+        <v>7.8138484480065051E-3</v>
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>2.6710817648806805E-2</v>
+        <v>2.6710817648806801E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>916591.23642101779</v>
+        <v>916591.23642104166</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16428675439839696</v>
+        <v>0.16428675439839693</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -18687,11 +18687,11 @@
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17065937382475299</v>
+        <v>0.17065937382475296</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1693691456811105</v>
+        <v>0.16936914568111047</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -18711,7 +18711,7 @@
       </c>
       <c r="V8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20926557065997198</v>
+        <v>0.20926557065997195</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -18723,7 +18723,7 @@
       </c>
       <c r="Y8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24842692463274862</v>
+        <v>0.2484269246327486</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -18739,7 +18739,7 @@
       </c>
       <c r="AC8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25640247030216329</v>
+        <v>0.25640247030216334</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -18751,7 +18751,7 @@
       </c>
       <c r="AF8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25659624181890994</v>
+        <v>0.25659624181891</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -18886,11 +18886,11 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84310870946084782</v>
+        <v>0.84310870946084793</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84419721410460546</v>
+        <v>0.84419721410460558</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -18938,7 +18938,7 @@
       </c>
       <c r="AC10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77383046233040609</v>
+        <v>0.77383046233040598</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -18974,7 +18974,7 @@
       </c>
       <c r="C11" s="17">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.33281647214735255</v>
+        <v>0.3328164721473526</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -19001,11 +19001,11 @@
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15689129053915218</v>
+        <v>0.15689129053915207</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15580278589539454</v>
+        <v>0.15580278589539442</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="AC11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22616953766959391</v>
+        <v>0.22616953766959402</v>
       </c>
       <c r="AD11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -19205,7 +19205,7 @@
       </c>
       <c r="C13" s="17">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.13818593007336158</v>
+        <v>0.13818593007336152</v>
       </c>
       <c r="J13" t="s">
         <v>100</v>
@@ -19930,7 +19930,7 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4831080980505841E-5</v>
+        <v>1.4831080980505844E-5</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -19942,11 +19942,11 @@
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2420837554238393E-3</v>
+        <v>1.2420837554238387E-3</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>4.563144256985974E-3</v>
+        <v>4.5631442569859723E-3</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -19994,7 +19994,7 @@
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>32.392394309286061</v>
+        <v>32.392394309286068</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -20006,7 +20006,7 @@
       </c>
       <c r="AF22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>38.801387040155788</v>
+        <v>38.801387040155781</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -20043,7 +20043,7 @@
       </c>
       <c r="M23" s="1">
         <f ca="1">wa*flt2_*(1-EXP(-za))/za</f>
-        <v>0.39852696211040589</v>
+        <v>0.39852696211040595</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -20055,11 +20055,11 @@
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>2.8241972159326756</v>
+        <v>2.8241972159326743</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>3.645769231024989</v>
+        <v>3.6457692310249872</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -20079,7 +20079,7 @@
       </c>
       <c r="V23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8461730037045285</v>
+        <v>6.8461730037045294</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -20091,7 +20091,7 @@
       </c>
       <c r="Y23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>7.5619332609218448</v>
+        <v>7.5619332609218457</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -20107,7 +20107,7 @@
       </c>
       <c r="AC23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>10.592062969069302</v>
+        <v>10.592062969069305</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -20119,7 +20119,7 @@
       </c>
       <c r="AF23" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>12.658776710818243</v>
+        <v>12.658776710818239</v>
       </c>
       <c r="AG23" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -20156,7 +20156,7 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>2.3186365848153277E-4</v>
+        <v>2.318636584815328E-4</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -20168,11 +20168,11 @@
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>4.2502104678829616E-2</v>
+        <v>4.2502104678829596E-2</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>0.14690672915962297</v>
+        <v>0.14690672915962291</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -20192,7 +20192,7 @@
       </c>
       <c r="V24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>12.36127652861888</v>
+        <v>12.361276528618882</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -20204,7 +20204,7 @@
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>12.893175507729342</v>
+        <v>12.893175507729344</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>18.059578435433473</v>
+        <v>18.05957843543348</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="AF24" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>21.583347037611897</v>
+        <v>21.58334703761189</v>
       </c>
       <c r="AG24" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -20289,7 +20289,7 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="21"/>
-        <v>1.6996590526692888E-5</v>
+        <v>1.6996590526692891E-5</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="21"/>
@@ -20301,11 +20301,11 @@
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="21"/>
-        <v>2.8603789900236468E-4</v>
+        <v>2.8603789900236452E-4</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="21"/>
-        <v>7.4756246368512004E-4</v>
+        <v>7.4756246368511972E-4</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="21"/>
@@ -20353,7 +20353,7 @@
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.87997761177121625</v>
+        <v>0.87997761177121647</v>
       </c>
       <c r="AD26">
         <f t="shared" ca="1" si="21"/>
@@ -20365,7 +20365,7 @@
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="21"/>
-        <v>0.88191018406999366</v>
+        <v>0.88191018406999355</v>
       </c>
       <c r="AG26">
         <f t="shared" ca="1" si="21"/>
@@ -20391,15 +20391,15 @@
       </c>
       <c r="C27" s="35">
         <f ca="1">CHOOSE(C$25,E36,E39,1)</f>
-        <v>1.8733132708564477</v>
+        <v>1.8733132708564475</v>
       </c>
       <c r="E27" s="41">
         <f ca="1">f1_/(F4/(f1_*365*re*phib))</f>
-        <v>127.47432046033502</v>
+        <v>127.47432046033494</v>
       </c>
       <c r="F27" s="106">
         <f ca="1">F4/E27</f>
-        <v>202.73894254909138</v>
+        <v>202.73894254909163</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
@@ -20414,7 +20414,7 @@
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.45671651295955601</v>
+        <v>0.45671651295955606</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="22"/>
@@ -20426,11 +20426,11 @@
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.65038080925392439</v>
+        <v>0.65038080925392416</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.59727242332957509</v>
+        <v>0.59727242332957486</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="22"/>
@@ -20450,7 +20450,7 @@
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.38102280633439817</v>
+        <v>0.38102280633439822</v>
       </c>
       <c r="W27">
         <f t="shared" ca="1" si="22"/>
@@ -20462,7 +20462,7 @@
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.28884723423623493</v>
+        <v>0.28884723423623498</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="22"/>
@@ -20478,7 +20478,7 @@
       </c>
       <c r="AC27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.28774588831736703</v>
+        <v>0.28774588831736714</v>
       </c>
       <c r="AD27">
         <f t="shared" ca="1" si="22"/>
@@ -20490,7 +20490,7 @@
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="22"/>
-        <v>0.28771920157351782</v>
+        <v>0.28771920157351777</v>
       </c>
       <c r="AG27">
         <f t="shared" ca="1" si="22"/>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="C28" s="35">
         <f ca="1">CHOOSE(C$25,E37,E40,1)</f>
-        <v>0.63651992260115786</v>
+        <v>0.63651992260115797</v>
       </c>
       <c r="E28" s="41">
         <f ca="1">f2_/(F5/(f2_*365*re*phib))</f>
@@ -20550,11 +20550,11 @@
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="24"/>
-        <v>9.7877559966659099E-3</v>
+        <v>9.7877559966659047E-3</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="24"/>
-        <v>2.4067167329710822E-2</v>
+        <v>2.4067167329710815E-2</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="24"/>
@@ -20586,7 +20586,7 @@
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="24"/>
-        <v>0.49248756335572152</v>
+        <v>0.49248756335572158</v>
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="24"/>
@@ -20602,7 +20602,7 @@
       </c>
       <c r="AC28">
         <f t="shared" ca="1" si="24"/>
-        <v>0.4906097570148395</v>
+        <v>0.49060975701483972</v>
       </c>
       <c r="AD28">
         <f t="shared" ca="1" si="24"/>
@@ -20614,7 +20614,7 @@
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="24"/>
-        <v>0.49056425583672736</v>
+        <v>0.49056425583672719</v>
       </c>
       <c r="AG28">
         <f t="shared" ca="1" si="24"/>
@@ -20635,19 +20635,19 @@
       </c>
       <c r="B29" s="27">
         <f ca="1">fbar*C29</f>
-        <v>2.2201921511977196E-2</v>
+        <v>2.2201921511977193E-2</v>
       </c>
       <c r="C29" s="35">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
-        <v>0.49016680654239436</v>
+        <v>0.49016680654239458</v>
       </c>
       <c r="E29" s="41">
         <f ca="1">f3_/(F6/(f3_*365*re*phib))</f>
-        <v>30.775675626432985</v>
+        <v>30.775675626432992</v>
       </c>
       <c r="F29" s="106">
         <f t="shared" ca="1" si="23"/>
-        <v>238.13549652385402</v>
+        <v>238.13549652385387</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -20677,15 +20677,15 @@
       </c>
       <c r="B31" s="36">
         <f ca="1">SUM(B27:B29)</f>
-        <v>0.13588487391174942</v>
+        <v>0.13588487391174939</v>
       </c>
       <c r="G31">
         <f ca="1">SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-74.84239370156979</v>
+        <v>-74.842393701569833</v>
       </c>
       <c r="H31">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-18201.967658085781</v>
+        <v>-18201.967658085792</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>52</v>
@@ -20715,11 +20715,11 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.9023103257798649E-4</v>
+        <v>-1.9023103257798655E-4</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="25"/>
-        <v>-4.1745416310920018E-4</v>
+        <v>-4.1745416310920029E-4</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="25"/>
@@ -20727,67 +20727,67 @@
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="25"/>
-        <v>-4.1411649209052923E-3</v>
+        <v>-4.1411649209052914E-3</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.5759386634706527E-2</v>
+        <v>-1.5759386634706524E-2</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="25"/>
-        <v>-3.9439965044401872E-2</v>
+        <v>-3.9439965044401865E-2</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.5991028476898967E-2</v>
+        <v>-7.5991028476898953E-2</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.11854540399012869</v>
+        <v>-0.11854540399012867</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.15411197164090756</v>
+        <v>-0.15411197164090754</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.17490869632095629</v>
+        <v>-0.17490869632095624</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.18089793205489005</v>
+        <v>-0.18089793205488996</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.17597081078408625</v>
+        <v>-0.17597081078408616</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.1642205495737866</v>
+        <v>-0.16422054957378651</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.14883308871818429</v>
+        <v>-0.14883308871818421</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.1320141057556227</v>
+        <v>-0.13201410575562264</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.11518839182811584</v>
+        <v>-0.1151883918281158</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="25"/>
-        <v>-9.9217565129233742E-2</v>
+        <v>-9.9217565129233687E-2</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="25"/>
-        <v>-8.4575799879880828E-2</v>
+        <v>-8.4575799879880773E-2</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-0.407132143598741</v>
+        <v>-0.40713214359874084</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -20798,11 +20798,11 @@
       <c r="C32" s="11"/>
       <c r="G32">
         <f ca="1">SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-137.20916781637322</v>
+        <v>-137.20916781637325</v>
       </c>
       <c r="H32">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-33369.815040190333</v>
+        <v>-33369.81504019034</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -20884,7 +20884,7 @@
       </c>
       <c r="AD32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.18305138961893563</v>
+        <v>-0.18305138961893561</v>
       </c>
       <c r="AE32">
         <f t="shared" ca="1" si="25"/>
@@ -20913,18 +20913,18 @@
       </c>
       <c r="B33" s="59">
         <f ca="1">SUMPRODUCT(lz,wa)</f>
-        <v>38.344083704234286</v>
+        <v>38.344083704234279</v>
       </c>
       <c r="C33" s="58"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
       <c r="G33">
         <f ca="1">SUMPRODUCT(dlz3_,wa,ma)</f>
-        <v>-91.972434258926683</v>
+        <v>-91.972434258926711</v>
       </c>
       <c r="H33">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-22368.061616143783</v>
+        <v>-22368.061616143787</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -20954,23 +20954,23 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.8216655164870894E-3</v>
+        <v>-5.8216655164870902E-3</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.3184086519365094E-2</v>
+        <v>-1.3184086519365097E-2</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="25"/>
-        <v>-3.2473767317914813E-2</v>
+        <v>-3.247376731791482E-2</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.11174591803265006</v>
+        <v>-0.11174591803265005</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.23716264748159882</v>
+        <v>-0.23716264748159879</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="25"/>
@@ -20978,55 +20978,55 @@
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.35479399035832915</v>
+        <v>-0.35479399035832909</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.35087772102579645</v>
+        <v>-0.3508777210257964</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.32386926750544437</v>
+        <v>-0.32386926750544431</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.28629389656638271</v>
+        <v>-0.28629389656638266</v>
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.24838407042009061</v>
+        <v>-0.24838407042009053</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.21267492263585</v>
+        <v>-0.21267492263584992</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.18030098305626668</v>
+        <v>-0.1803009830562666</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.15165092323280077</v>
+        <v>-0.15165092323280069</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.12672151806900719</v>
+        <v>-0.12672151806900711</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.10530433045154877</v>
+        <v>-0.1053043304515487</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="25"/>
-        <v>-8.7089247798048469E-2</v>
+        <v>-8.7089247798048428E-2</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.1724796248663306E-2</v>
+        <v>-7.1724796248663278E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-0.31082467502649114</v>
+        <v>-0.31082467502649103</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -21057,7 +21057,7 @@
       </c>
       <c r="H35" s="1">
         <f ca="1">SUM(dqa12_)</f>
-        <v>388.77531406673825</v>
+        <v>388.7753140667383</v>
       </c>
       <c r="I35" s="10">
         <f ca="1">SUM(dqa13_)</f>
@@ -21076,7 +21076,7 @@
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.7509146816144054E-10</v>
+        <v>1.750914681614403E-10</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="27"/>
@@ -21088,11 +21088,11 @@
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="27"/>
-        <v>3.0309002412513411E-7</v>
+        <v>3.0309002412513464E-7</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="27"/>
-        <v>3.0336439575356494E-6</v>
+        <v>3.0336439575356541E-6</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="27"/>
@@ -21112,7 +21112,7 @@
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.8978003962946464</v>
+        <v>1.8978003962946461</v>
       </c>
       <c r="W35">
         <f t="shared" ca="1" si="27"/>
@@ -21136,11 +21136,11 @@
       </c>
       <c r="AB35">
         <f t="shared" ca="1" si="27"/>
-        <v>29.316313472708082</v>
+        <v>29.316313472708085</v>
       </c>
       <c r="AC35">
         <f t="shared" ca="1" si="27"/>
-        <v>31.879018569033768</v>
+        <v>31.879018569033775</v>
       </c>
       <c r="AD35">
         <f t="shared" ca="1" si="27"/>
@@ -21152,7 +21152,7 @@
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="27"/>
-        <v>38.554752351718342</v>
+        <v>38.554752351718335</v>
       </c>
       <c r="AG35">
         <f t="shared" ca="1" si="27"/>
@@ -21177,19 +21177,19 @@
       </c>
       <c r="C36" s="28">
         <f ca="1">B11/(phi_t1/SUM(B$36:B$38))</f>
-        <v>2.4178082423605662</v>
+        <v>2.4178082423605667</v>
       </c>
       <c r="E36" s="37">
         <f ca="1">C36/AVERAGE(C$36:C$38)</f>
-        <v>1.8733132179304628</v>
+        <v>1.8733132179304632</v>
       </c>
       <c r="G36" s="1">
         <f ca="1">SUM(dqa21_)</f>
-        <v>388.77531406673825</v>
+        <v>388.7753140667383</v>
       </c>
       <c r="H36" s="1">
         <f ca="1">SUM(dqa22_)</f>
-        <v>62.897748080945462</v>
+        <v>62.897748080945455</v>
       </c>
       <c r="I36" s="10">
         <f ca="1">SUM(dqa23_)</f>
@@ -21208,7 +21208,7 @@
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="28"/>
-        <v>0.12642553181880678</v>
+        <v>0.12642553181880659</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="28"/>
@@ -21220,11 +21220,11 @@
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.5669672496370199</v>
+        <v>1.5669672496370228</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.9364868944874722</v>
+        <v>1.9364868944874747</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="28"/>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="T36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.6115852274658895</v>
+        <v>2.6115852274658899</v>
       </c>
       <c r="U36">
         <f t="shared" ca="1" si="28"/>
@@ -21244,7 +21244,7 @@
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.6781279273321541</v>
+        <v>2.6781279273321537</v>
       </c>
       <c r="W36">
         <f t="shared" ca="1" si="28"/>
@@ -21256,7 +21256,7 @@
       </c>
       <c r="Y36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.3750234471140423</v>
+        <v>2.3750234471140428</v>
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="28"/>
@@ -21272,7 +21272,7 @@
       </c>
       <c r="AC36">
         <f t="shared" ca="1" si="28"/>
-        <v>3.4086306889867917</v>
+        <v>3.4086306889867926</v>
       </c>
       <c r="AD36">
         <f t="shared" ca="1" si="28"/>
@@ -21284,7 +21284,7 @@
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="28"/>
-        <v>4.1036177085073406</v>
+        <v>4.1036177085073398</v>
       </c>
       <c r="AG36">
         <f t="shared" ca="1" si="28"/>
@@ -21305,11 +21305,11 @@
       </c>
       <c r="B37" s="1">
         <f ca="1">SUMPRODUCT(lz,ta2_)</f>
-        <v>2.4625425317358891</v>
+        <v>2.4625425317358887</v>
       </c>
       <c r="C37" s="28">
         <f ca="1">B12/(phi_t2/SUM(B$36:B$38))</f>
-        <v>0.82153012880450871</v>
+        <v>0.82153012880450893</v>
       </c>
       <c r="E37" s="37">
         <f ca="1">C37/AVERAGE(C$36:C$38)</f>
@@ -21325,7 +21325,7 @@
       </c>
       <c r="I37" s="1">
         <f ca="1">SUM(dqa33_)</f>
-        <v>155.88363482383903</v>
+        <v>155.883634823839</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>64</v>
@@ -21340,7 +21340,7 @@
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="29"/>
-        <v>4.2794183062128234E-8</v>
+        <v>4.2794183062128167E-8</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="29"/>
@@ -21352,11 +21352,11 @@
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="29"/>
-        <v>3.5488753998326027E-4</v>
+        <v>3.5488753998326092E-4</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="29"/>
-        <v>3.1442682497321117E-3</v>
+        <v>3.144268249732116E-3</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="29"/>
@@ -21364,7 +21364,7 @@
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="29"/>
-        <v>1.1770428499227681</v>
+        <v>1.1770428499227683</v>
       </c>
       <c r="T37">
         <f t="shared" ca="1" si="29"/>
@@ -21376,7 +21376,7 @@
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="29"/>
-        <v>8.7309645114259933</v>
+        <v>8.7309645114259951</v>
       </c>
       <c r="W37">
         <f t="shared" ca="1" si="29"/>
@@ -21388,7 +21388,7 @@
       </c>
       <c r="Y37">
         <f t="shared" ca="1" si="29"/>
-        <v>6.9043374646074032</v>
+        <v>6.9043374646074041</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="29"/>
@@ -21404,7 +21404,7 @@
       </c>
       <c r="AC37">
         <f t="shared" ca="1" si="29"/>
-        <v>9.9090965175856613</v>
+        <v>9.9090965175856649</v>
       </c>
       <c r="AD37">
         <f t="shared" ca="1" si="29"/>
@@ -21416,7 +21416,7 @@
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="29"/>
-        <v>11.929466009988889</v>
+        <v>11.929466009988886</v>
       </c>
       <c r="AG37">
         <f t="shared" ca="1" si="29"/>
@@ -21437,7 +21437,7 @@
       </c>
       <c r="B38" s="1">
         <f ca="1">SUMPRODUCT(lz,ta3_)</f>
-        <v>0.8353374831599657</v>
+        <v>0.83533748315996559</v>
       </c>
       <c r="C38" s="28">
         <f ca="1">B13/(phi_t3/SUM(B$36:B$38))</f>
@@ -21445,7 +21445,7 @@
       </c>
       <c r="E38" s="37">
         <f ca="1">C38/AVERAGE(C$36:C$38)</f>
-        <v>0.49016680407696678</v>
+        <v>0.49016680407696672</v>
       </c>
       <c r="G38" t="s">
         <v>69</v>
@@ -21463,7 +21463,7 @@
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="30"/>
-        <v>-2.6400662964985505E-6</v>
+        <v>-2.640066296498559E-6</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="30"/>
@@ -21475,19 +21475,19 @@
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.8917912117726751E-4</v>
+        <v>-1.8917912117726588E-4</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="30"/>
-        <v>-5.3528689512179239E-4</v>
+        <v>-5.3528689512178772E-4</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.7052423043792807E-3</v>
+        <v>-1.7052423043792805E-3</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="30"/>
-        <v>-7.7979760793800406E-3</v>
+        <v>-7.7979760793800389E-3</v>
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="30"/>
@@ -21499,7 +21499,7 @@
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="30"/>
-        <v>1.8694517968264093</v>
+        <v>1.8694517968264091</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="30"/>
@@ -21527,7 +21527,7 @@
       </c>
       <c r="AC38">
         <f t="shared" ca="1" si="30"/>
-        <v>32.172367729808883</v>
+        <v>32.17236772980889</v>
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="30"/>
@@ -21539,7 +21539,7 @@
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="30"/>
-        <v>38.718078462190448</v>
+        <v>38.718078462190441</v>
       </c>
       <c r="AG38">
         <f t="shared" ca="1" si="30"/>
@@ -21560,24 +21560,24 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>14.72169981514371</v>
+        <v>14.721699815143705</v>
       </c>
       <c r="C39" s="22">
         <f ca="1">B4/(phi_q1/SUM(B$39:B$41))</f>
-        <v>1.9205142863537017</v>
+        <v>1.9205142863537024</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="38">
         <f ca="1">C39/AVERAGE(C$39:C$41)</f>
-        <v>1.8733132708564475</v>
+        <v>1.8733132708564477</v>
       </c>
       <c r="G39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
-        <v>958191.2579483462</v>
+        <v>958191.25794834597</v>
       </c>
       <c r="H39" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
-        <v>640812.33994225319</v>
+        <v>640812.33994225331</v>
       </c>
       <c r="I39" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.2628030124283959E-9</v>
+        <v>-1.2628030124284006E-9</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="31"/>
@@ -21608,11 +21608,11 @@
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="31"/>
-        <v>-2.4663624229468304E-6</v>
+        <v>-2.4663624229468063E-6</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.8010612679771743E-5</v>
+        <v>-1.801061267977156E-5</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="31"/>
@@ -21624,7 +21624,7 @@
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.3948240548413836E-2</v>
+        <v>-1.3948240548413822E-2</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="31"/>
@@ -21632,7 +21632,7 @@
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="31"/>
-        <v>1.7250958837337398</v>
+        <v>1.7250958837337393</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="31"/>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="AC39">
         <f t="shared" ca="1" si="31"/>
-        <v>32.071883505007584</v>
+        <v>32.071883505007591</v>
       </c>
       <c r="AD39">
         <f t="shared" ca="1" si="31"/>
@@ -21672,7 +21672,7 @@
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="31"/>
-        <v>38.662322157033948</v>
+        <v>38.662322157033941</v>
       </c>
       <c r="AG39">
         <f t="shared" ca="1" si="31"/>
@@ -21693,7 +21693,7 @@
       </c>
       <c r="B40" s="1">
         <f ca="1">SUMPRODUCT(lz,qa2_)</f>
-        <v>16.158422209266948</v>
+        <v>16.158422209266945</v>
       </c>
       <c r="C40" s="22">
         <f ca="1">B5/(phi_q2/SUM(B$39:B$41))</f>
@@ -21702,15 +21702,15 @@
       <c r="D40" s="20"/>
       <c r="E40" s="38">
         <f ca="1">C40/AVERAGE(C$39:C$41)</f>
-        <v>0.63651992260115797</v>
+        <v>0.63651992260115786</v>
       </c>
       <c r="G40" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
-        <v>640812.33994225319</v>
+        <v>640812.33994225331</v>
       </c>
       <c r="H40" s="1">
         <f ca="1">re*phi_q2+f2_*phi_q2*$H32+f2_*re*H36</f>
-        <v>356273.50072357687</v>
+        <v>356273.50072357676</v>
       </c>
       <c r="I40" s="1">
         <f ca="1">0*re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
@@ -21729,7 +21729,7 @@
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="32"/>
-        <v>-2.6400662964985514E-6</v>
+        <v>-2.6400662964985598E-6</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="32"/>
@@ -21741,19 +21741,19 @@
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.8917912117726751E-4</v>
+        <v>-1.8917912117726588E-4</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="32"/>
-        <v>-5.3528689512179239E-4</v>
+        <v>-5.3528689512178772E-4</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.7052423043792807E-3</v>
+        <v>-1.7052423043792805E-3</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="32"/>
-        <v>-7.7979760793800406E-3</v>
+        <v>-7.7979760793800389E-3</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="32"/>
@@ -21765,7 +21765,7 @@
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="32"/>
-        <v>1.8694517968264093</v>
+        <v>1.8694517968264091</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="32"/>
@@ -21793,7 +21793,7 @@
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="32"/>
-        <v>32.172367729808883</v>
+        <v>32.17236772980889</v>
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="32"/>
@@ -21805,7 +21805,7 @@
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="32"/>
-        <v>38.718078462190448</v>
+        <v>38.718078462190441</v>
       </c>
       <c r="AG40">
         <f t="shared" ca="1" si="32"/>
@@ -21830,12 +21830,12 @@
       </c>
       <c r="C41" s="22">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
-        <v>0.50251731480590012</v>
+        <v>0.50251731480590001</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="38">
         <f ca="1">C41/AVERAGE(C$39:C$41)</f>
-        <v>0.49016680654239458</v>
+        <v>0.49016680654239436</v>
       </c>
       <c r="G41" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
@@ -21862,7 +21862,7 @@
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="33"/>
-        <v>-4.127782438965427E-5</v>
+        <v>-4.1277824389654399E-5</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="33"/>
@@ -21874,11 +21874,11 @@
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="33"/>
-        <v>-6.4862423075560602E-3</v>
+        <v>-6.4862423075560047E-3</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.7348803851249116E-2</v>
+        <v>-1.7348803851248967E-2</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="33"/>
@@ -21890,7 +21890,7 @@
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.44176693001975065</v>
+        <v>-0.44176693001975059</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="33"/>
@@ -21898,7 +21898,7 @@
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="33"/>
-        <v>1.664291141337328</v>
+        <v>1.6642911413373276</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="33"/>
@@ -21938,7 +21938,7 @@
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="33"/>
-        <v>38.753172623770475</v>
+        <v>38.753172623770467</v>
       </c>
       <c r="AG41">
         <f t="shared" ca="1" si="33"/>
@@ -21974,7 +21974,7 @@
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.2628030124283959E-9</v>
+        <v>-1.2628030124284006E-9</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="34"/>
@@ -21986,19 +21986,19 @@
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="34"/>
-        <v>-2.4663624229468304E-6</v>
+        <v>-2.4663624229468063E-6</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.8010612679771743E-5</v>
+        <v>-1.801061267977156E-5</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.8628399711169129E-4</v>
+        <v>-1.8628399711169123E-4</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="34"/>
-        <v>-4.754477231015534E-3</v>
+        <v>-4.7544772310155331E-3</v>
       </c>
       <c r="T42">
         <f t="shared" ca="1" si="34"/>
@@ -22010,7 +22010,7 @@
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="34"/>
-        <v>1.7250958837337398</v>
+        <v>1.7250958837337393</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="34"/>
@@ -22038,7 +22038,7 @@
       </c>
       <c r="AC42">
         <f t="shared" ca="1" si="34"/>
-        <v>32.071883505007584</v>
+        <v>32.071883505007591</v>
       </c>
       <c r="AD42">
         <f t="shared" ca="1" si="34"/>
@@ -22050,7 +22050,7 @@
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="34"/>
-        <v>38.662322157033948</v>
+        <v>38.662322157033941</v>
       </c>
       <c r="AG42">
         <f t="shared" ca="1" si="34"/>
@@ -22081,7 +22081,7 @@
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="35"/>
-        <v>-4.127782438965427E-5</v>
+        <v>-4.1277824389654399E-5</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="35"/>
@@ -22093,31 +22093,31 @@
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="35"/>
-        <v>-6.4862423075560602E-3</v>
+        <v>-6.4862423075560047E-3</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="35"/>
-        <v>-1.7348803851249116E-2</v>
+        <v>-1.7348803851248967E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="35"/>
-        <v>-5.4620164054280898E-2</v>
+        <v>-5.4620164054280877E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.25177219981753857</v>
+        <v>-0.25177219981753851</v>
       </c>
       <c r="T43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.44176693001975065</v>
+        <v>-0.44176693001975059</v>
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="35"/>
-        <v>-5.6097880492297414E-2</v>
+        <v>-5.6097880492297358E-2</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="35"/>
-        <v>1.664291141337328</v>
+        <v>1.6642911413373276</v>
       </c>
       <c r="W43">
         <f t="shared" ca="1" si="35"/>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="35"/>
-        <v>38.753172623770475</v>
+        <v>38.753172623770467</v>
       </c>
       <c r="AG43">
         <f t="shared" ca="1" si="35"/>
@@ -22208,7 +22208,7 @@
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.0962478811079525E-5</v>
+        <v>1.0962478811079528E-5</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="36"/>
@@ -22220,55 +22220,55 @@
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="36"/>
-        <v>5.5158964448135024E-4</v>
+        <v>5.5158964448134991E-4</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.7084921845616219E-3</v>
+        <v>1.7084921845616212E-3</v>
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="36"/>
-        <v>6.0605913690544742E-3</v>
+        <v>6.0605913690544733E-3</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="36"/>
-        <v>3.702472666362272E-2</v>
+        <v>3.7024726663622713E-2</v>
       </c>
       <c r="T46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.17309818645997563</v>
+        <v>0.1730981864599756</v>
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.44837588165037523</v>
+        <v>0.44837588165037517</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.87935588862392133</v>
+        <v>0.87935588862392122</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.3447099256166932</v>
+        <v>1.3447099256166928</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.6134801576069788</v>
+        <v>1.6134801576069786</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.6255162208122853</v>
+        <v>1.6255162208122851</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.4844764918188378</v>
+        <v>1.4844764918188376</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.289958000639182</v>
+        <v>1.2899580006391818</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.0929492596547064</v>
+        <v>1.0929492596547061</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="36"/>
@@ -22276,27 +22276,27 @@
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.75515679671984004</v>
+        <v>0.75515679671983993</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.62027991197419674</v>
+        <v>0.62027991197419663</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.50651443662133655</v>
+        <v>0.50651443662133644</v>
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.41153511427477391</v>
+        <v>0.41153511427477379</v>
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.33288494298156579</v>
+        <v>0.33288494298156573</v>
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.1850233107297641</v>
+        <v>1.1850233107297639</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -22312,11 +22312,11 @@
       </c>
       <c r="G47" s="30">
         <f ca="1">G39/G53</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H47" s="30">
         <f ca="1">H53/H39</f>
-        <v>0.91177356476596494</v>
+        <v>0.91177356476596505</v>
       </c>
       <c r="I47" s="30">
         <f ca="1">I53/I39</f>
@@ -22335,7 +22335,7 @@
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.29457349626245583</v>
+        <v>0.29457349626245588</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="37"/>
@@ -22347,19 +22347,19 @@
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.2541810739244008</v>
+        <v>1.2541810739244001</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.3650167268732423</v>
+        <v>1.3650167268732416</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.4069730781097922</v>
+        <v>1.406973078109792</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.3858571887434294</v>
+        <v>1.3858571887434292</v>
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="37"/>
@@ -22367,7 +22367,7 @@
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.1885909707460744</v>
+        <v>1.1885909707460742</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="37"/>
@@ -22375,11 +22375,11 @@
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.88763541209337116</v>
+        <v>0.88763541209337093</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.73074532885732124</v>
+        <v>0.73074532885732113</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="37"/>
@@ -22391,11 +22391,11 @@
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.4275860292173167</v>
+        <v>0.42758602921731664</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.35875785490905793</v>
+        <v>0.35875785490905787</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="37"/>
@@ -22403,27 +22403,27 @@
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.24656242236227091</v>
+        <v>0.24656242236227086</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.20240780359181612</v>
+        <v>0.20240780359181609</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.16524803990537074</v>
+        <v>0.16524803990537065</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.13425079120963027</v>
+        <v>0.13425079120963024</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.10859083390248023</v>
+        <v>0.10859083390248021</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.38656645669053014</v>
+        <v>0.38656645669053008</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -22432,26 +22432,26 @@
       </c>
       <c r="B48" s="120">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>25844.008932292341</v>
+        <v>25844.00893229233</v>
       </c>
       <c r="C48" s="19">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.60367653566062185</v>
+        <v>0.60367653566062174</v>
       </c>
       <c r="F48" t="s">
         <v>84</v>
       </c>
       <c r="G48" s="30">
         <f ca="1">G40/G54</f>
-        <v>1.0967635371800684</v>
+        <v>1.0967635371800681</v>
       </c>
       <c r="H48" s="30">
         <f t="shared" ref="H48:I49" ca="1" si="38">H40/H54</f>
-        <v>1.0000000000000004</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="I48" s="30">
         <f ca="1">I54/I40</f>
-        <v>2.1353486094044825</v>
+        <v>2.1353486094044829</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
@@ -22466,7 +22466,7 @@
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.7138335678324167E-4</v>
+        <v>1.713833567832417E-4</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="39"/>
@@ -22478,19 +22478,19 @@
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.887450883012716E-2</v>
+        <v>1.8874508830127149E-2</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="39"/>
-        <v>5.5003520487977908E-2</v>
+        <v>5.5003520487977887E-2</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.18885060891744607</v>
+        <v>0.18885060891744604</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.95651541218783054</v>
+        <v>0.95651541218783032</v>
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="39"/>
@@ -22502,55 +22502,55 @@
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.886125215549155</v>
+        <v>1.8861252155491548</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.5763944930687612</v>
+        <v>1.576394493068761</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.2719963558927312</v>
+        <v>1.271996355892731</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.0005358619527487</v>
+        <v>1.0005358619527485</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.85993173222431463</v>
+        <v>0.85993173222431452</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.7290386636763162</v>
+        <v>0.72903866367631609</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.61168590471732132</v>
+        <v>0.6116859047173212</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.50891550533965613</v>
+        <v>0.50891550533965624</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.42039151569292116</v>
+        <v>0.4203915156929211</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.34510742766396213</v>
+        <v>0.34510742766396207</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.28174964090445803</v>
+        <v>0.28174964090445787</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.22889900682702946</v>
+        <v>0.22889900682702943</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.18514851053640283</v>
+        <v>0.18514851053640277</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="39"/>
@@ -22563,22 +22563,22 @@
       </c>
       <c r="B49" s="120">
         <f ca="1">f2_*re*phi_q2</f>
-        <v>9638.2314155313943</v>
+        <v>9638.2314155313925</v>
       </c>
       <c r="C49" s="19">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.22513434994031628</v>
+        <v>0.22513434994031631</v>
       </c>
       <c r="F49" t="s">
         <v>85</v>
       </c>
       <c r="G49" s="30">
         <f ca="1">G41/G55</f>
-        <v>1.0920143516666541</v>
+        <v>1.0920143516666538</v>
       </c>
       <c r="H49" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>0.46830760822650186</v>
+        <v>0.4683076082265018</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" ca="1" si="38"/>
@@ -22598,11 +22598,11 @@
       </c>
       <c r="B50" s="120">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>7328.7807961576882</v>
+        <v>7328.7807961576873</v>
       </c>
       <c r="C50" s="19">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.17118911439906173</v>
+        <v>0.17118911439906179</v>
       </c>
       <c r="M50" t="s">
         <v>166</v>
@@ -22630,7 +22630,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>42811.02114398143</v>
+        <v>42811.021143981416</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -22652,7 +22652,7 @@
       </c>
       <c r="R51">
         <f ca="1">(ye_1-N51)/hh</f>
-        <v>25843983088.47316</v>
+        <v>25843983088.473152</v>
       </c>
       <c r="AL51" s="30"/>
       <c r="AM51" s="30"/>
@@ -22667,11 +22667,11 @@
       <c r="B52" s="1"/>
       <c r="G52" s="1">
         <f ca="1">G39^0.5</f>
-        <v>978.8724421232555</v>
+        <v>978.87244212325538</v>
       </c>
       <c r="H52" s="56">
         <f ca="1">H40^0.5</f>
-        <v>596.88650573084396</v>
+        <v>596.88650573084385</v>
       </c>
       <c r="I52" s="10">
         <f ca="1">I41^0.5</f>
@@ -22694,7 +22694,7 @@
       </c>
       <c r="R52">
         <f ca="1">(ye_2-N52)/hh</f>
-        <v>9638221777.2572155</v>
+        <v>9638221777.2572136</v>
       </c>
       <c r="AL52" s="30"/>
       <c r="AM52" s="30"/>
@@ -22710,7 +22710,7 @@
       </c>
       <c r="B53" s="34">
         <f ca="1">f1_*phi_q1</f>
-        <v>1.2491659882215276</v>
+        <v>1.2491659882215271</v>
       </c>
       <c r="C53">
         <f ca="1">AVERAGE(B53:B55)/B53</f>
@@ -22726,11 +22726,11 @@
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="40"/>
-        <v>596564.01497871487</v>
+        <v>596564.01497871499</v>
       </c>
       <c r="J53">
         <f t="array" aca="1" ref="J53:J55" ca="1">TRANSPOSE(G52:I52)</f>
-        <v>978.8724421232555</v>
+        <v>978.87244212325538</v>
       </c>
       <c r="M53">
         <v>2.2201948153923023E-2</v>
@@ -22749,7 +22749,7 @@
       </c>
       <c r="R53">
         <f ca="1">(ye_3-N53)/hh</f>
-        <v>7328773467.3443937</v>
+        <v>7328773467.3443928</v>
       </c>
       <c r="AL53" s="30"/>
       <c r="AM53" s="30"/>
@@ -22763,7 +22763,7 @@
       </c>
       <c r="B54" s="34">
         <f ca="1">f2_*phi_q2</f>
-        <v>0.46586235527284087</v>
+        <v>0.46586235527284076</v>
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
@@ -22771,19 +22771,19 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="40"/>
-        <v>584275.7515351678</v>
+        <v>584275.75153516757</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="40"/>
-        <v>356273.50072357681</v>
+        <v>356273.5007235767</v>
       </c>
       <c r="I54">
         <f ca="1">I$52*$J54</f>
-        <v>363766.50830320525</v>
+        <v>363766.50830320519</v>
       </c>
       <c r="J54">
         <f ca="1"/>
-        <v>596.88650573084396</v>
+        <v>596.88650573084385</v>
       </c>
       <c r="AL54" s="30"/>
       <c r="AM54" s="30"/>
@@ -22798,19 +22798,19 @@
       </c>
       <c r="B55" s="34">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.35423543342968672</v>
+        <v>0.35423543342968666</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471643071667191</v>
+        <v>1.9471643071667184</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="40"/>
-        <v>596564.01497871499</v>
+        <v>596564.01497871487</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="40"/>
-        <v>363766.50830320525</v>
+        <v>363766.50830320519</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="40"/>
@@ -22853,11 +22853,11 @@
       </c>
       <c r="B57" s="33">
         <f ca="1">phi_t2*f2_</f>
-        <v>7.0997393739105089E-2</v>
+        <v>7.0997393739105075E-2</v>
       </c>
       <c r="C57">
         <f ca="1">AVERAGE(B56:B58)/B57</f>
-        <v>0.63012258417175326</v>
+        <v>0.63012258417175337</v>
       </c>
       <c r="I57"/>
       <c r="AL57" s="30"/>
@@ -22873,11 +22873,11 @@
       </c>
       <c r="B58" s="33">
         <f ca="1">phi_t3*f3_</f>
-        <v>1.8546097237130132E-2</v>
+        <v>1.8546097237130126E-2</v>
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>2.4122089213885234</v>
+        <v>2.4122089213885243</v>
       </c>
       <c r="I58"/>
       <c r="AL58" s="30"/>
@@ -22900,7 +22900,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>27.965760347362782</v>
+        <v>27.965760347362771</v>
       </c>
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B62">
         <f ca="1">ypr3/mpr3_</f>
-        <v>19.100268315238381</v>
+        <v>19.100268315238385</v>
       </c>
       <c r="AL62" s="30"/>
       <c r="AM62" s="30"/>
@@ -23064,7 +23064,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -23194,7 +23194,7 @@
       </c>
       <c r="F4" s="46">
         <f ca="1">ye_1</f>
-        <v>27139.749506251828</v>
+        <v>27139.749506251817</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="F5" s="46">
         <f ca="1">ye_2</f>
-        <v>9314.9999084513984</v>
+        <v>9314.9999084514002</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -23430,14 +23430,14 @@
       </c>
       <c r="C6" s="21">
         <f ca="1">ypr1/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.60367918441896984</v>
+        <v>0.60367918441896973</v>
       </c>
       <c r="E6" s="46">
         <v>7083</v>
       </c>
       <c r="F6" s="46">
         <f ca="1">ye_3</f>
-        <v>8502.4898056176444</v>
+        <v>8502.489805617648</v>
       </c>
       <c r="G6" s="129">
         <f>B6/SUM(B6,B8)</f>
@@ -23583,19 +23583,19 @@
       </c>
       <c r="O7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52658695641227349</v>
+        <v>0.5265869564122736</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44280312383718162</v>
+        <v>0.44280312383718173</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37294984876994297</v>
+        <v>0.37294984876994303</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31451000779005217</v>
+        <v>0.31451000779005223</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -23639,31 +23639,31 @@
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3582805308073804E-2</v>
+        <v>2.3582805308073808E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7790183979761533E-2</v>
+        <v>1.7790183979761537E-2</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3418276221624009E-2</v>
+        <v>1.3418276221624011E-2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0120138509099059E-2</v>
+        <v>1.0120138509099061E-2</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7.632487334941482E-3</v>
+        <v>7.6324873349414828E-3</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7562819841914985E-3</v>
+        <v>5.7562819841914994E-3</v>
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>1.7660315429119115E-2</v>
+        <v>1.7660315429119125E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -23676,14 +23676,14 @@
       </c>
       <c r="C8" s="21">
         <f ca="1">ypr3/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.18912393094134844</v>
+        <v>0.18912393094134847</v>
       </c>
       <c r="E8" t="s">
         <v>110</v>
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>6692436.7350449525</v>
+        <v>6692436.7350449171</v>
       </c>
       <c r="G8" s="129">
         <f>B8/SUM(B6,B8)</f>
@@ -23722,7 +23722,7 @@
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17042805999798649</v>
+        <v>0.17042805999798652</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -23742,11 +23742,11 @@
       </c>
       <c r="V8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.222527735076362</v>
+        <v>0.22252773507636203</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24391821632854488</v>
+        <v>0.24391821632854485</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -23758,15 +23758,15 @@
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27789129847427185</v>
+        <v>0.2778912984742718</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28043877436653547</v>
+        <v>0.28043877436653541</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28146583463822311</v>
+        <v>0.28146583463822306</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -23790,11 +23790,11 @@
       </c>
       <c r="AH8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28212468428562987</v>
+        <v>0.28212468428562981</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28212511068581864</v>
+        <v>0.28212511068581858</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -23938,7 +23938,7 @@
       </c>
       <c r="V10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80049280471327666</v>
+        <v>0.80049280471327655</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -23962,7 +23962,7 @@
       </c>
       <c r="AB10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75467669903727774</v>
+        <v>0.75467669903727785</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -23986,11 +23986,11 @@
       </c>
       <c r="AH10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75417964432035367</v>
+        <v>0.75417964432035378</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75417932273807953</v>
+        <v>0.75417932273807964</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -24048,7 +24048,7 @@
       </c>
       <c r="V11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19950719528672334</v>
+        <v>0.19950719528672345</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -24072,7 +24072,7 @@
       </c>
       <c r="AB11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24532330096272226</v>
+        <v>0.24532330096272215</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -24096,11 +24096,11 @@
       </c>
       <c r="AH11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24582035567964633</v>
+        <v>0.24582035567964622</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24582067726192047</v>
+        <v>0.24582067726192036</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -24227,7 +24227,7 @@
       </c>
       <c r="C13" s="21">
         <f ca="1">ypr1/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.60367918441896984</v>
+        <v>0.60367918441896973</v>
       </c>
       <c r="J13" t="s">
         <v>100</v>
@@ -24459,7 +24459,7 @@
       </c>
       <c r="C15" s="21">
         <f ca="1">ypr3/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.18912393094134844</v>
+        <v>0.18912393094134847</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -24791,7 +24791,7 @@
       </c>
       <c r="C20" s="17">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.34104737996381662</v>
+        <v>0.34104737996381645</v>
       </c>
       <c r="E20">
         <v>82</v>
@@ -24966,7 +24966,7 @@
       </c>
       <c r="C22" s="17">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.15665051206545597</v>
+        <v>0.15665051206545599</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>23</v>
@@ -24997,7 +24997,7 @@
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>4.560797250693833E-3</v>
+        <v>4.5607972506938321E-3</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -25017,7 +25017,7 @@
       </c>
       <c r="V22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>5.7263933773899049</v>
+        <v>5.7263933773899076</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -25033,15 +25033,15 @@
       </c>
       <c r="Z22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>24.236570890522202</v>
+        <v>24.236570890522206</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>27.12330237574653</v>
+        <v>27.123302375746533</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>29.660757917732646</v>
+        <v>29.660757917732635</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -25065,11 +25065,11 @@
       </c>
       <c r="AH22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>42.085854189759615</v>
+        <v>42.085854189759608</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>43.827497317488863</v>
+        <v>43.827497317488856</v>
       </c>
       <c r="AM22" s="42"/>
     </row>
@@ -25113,7 +25113,7 @@
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>3.6438940671373232</v>
+        <v>3.6438940671373223</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -25133,11 +25133,11 @@
       </c>
       <c r="V23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>6.8025473189609134</v>
+        <v>6.8025473189609151</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>7.1109069508399765</v>
+        <v>7.1109069508399774</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -25149,15 +25149,15 @@
       </c>
       <c r="Z23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>8.2344532813776787</v>
+        <v>8.2344532813776805</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>8.9906378008891892</v>
+        <v>8.990637800889191</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>9.736069439220282</v>
+        <v>9.7360694392202785</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -25181,11 +25181,11 @@
       </c>
       <c r="AH23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>13.728881700177316</v>
+        <v>13.728881700177313</v>
       </c>
       <c r="AI23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>14.296967992302168</v>
+        <v>14.296967992302164</v>
       </c>
       <c r="AM23" s="42"/>
     </row>
@@ -25196,7 +25196,7 @@
       </c>
       <c r="C24" s="25">
         <f ca="1">CHOOSE(C34,SUMXMY2(B23,C23),SUMXMY2(B16,C16),1000000*SUMXMY2(B9,C9)+SUMXMY2(E5,F5))</f>
-        <v>6.5539901050944697E-5</v>
+        <v>6.5539901050611643E-5</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>25</v>
@@ -25227,7 +25227,7 @@
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0.1468311691952042</v>
+        <v>0.14683116919520417</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -25247,11 +25247,11 @@
       </c>
       <c r="V24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>12.28250709749665</v>
+        <v>12.282507097496657</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>12.628602245140449</v>
+        <v>12.628602245140451</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -25263,15 +25263,15 @@
       </c>
       <c r="Z24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>14.039829194956116</v>
+        <v>14.03982919495612</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>15.329131730416647</v>
+        <v>15.32913173041665</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>16.600100490704989</v>
+        <v>16.600100490704985</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -25295,11 +25295,11 @@
       </c>
       <c r="AH24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>23.407887266074773</v>
+        <v>23.40788726607477</v>
       </c>
       <c r="AI24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>24.376480351357838</v>
+        <v>24.376480351357831</v>
       </c>
       <c r="AM24" s="43"/>
     </row>
@@ -25353,7 +25353,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="20"/>
-        <v>7.4717796262461741E-4</v>
+        <v>7.471779626246173E-4</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="20"/>
@@ -25373,7 +25373,7 @@
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.31870162697424892</v>
+        <v>0.31870162697424909</v>
       </c>
       <c r="W26">
         <f t="shared" ca="1" si="20"/>
@@ -25389,15 +25389,15 @@
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.83827556195175867</v>
+        <v>0.83827556195175879</v>
       </c>
       <c r="AA26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.85817328846349394</v>
+        <v>0.85817328846349406</v>
       </c>
       <c r="AB26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.86618152560838912</v>
+        <v>0.86618152560838879</v>
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="20"/>
@@ -25421,11 +25421,11 @@
       </c>
       <c r="AH26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.87131454018851062</v>
+        <v>0.8713145401885104</v>
       </c>
       <c r="AI26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.87131786115746501</v>
+        <v>0.8713178611574649</v>
       </c>
       <c r="AM26" s="43"/>
     </row>
@@ -25438,11 +25438,11 @@
       </c>
       <c r="E27" s="41">
         <f ca="1">f1_/(F4/(f1_*365*re*phib))</f>
-        <v>184.79059431017976</v>
+        <v>184.79059431017973</v>
       </c>
       <c r="F27" s="106">
         <f ca="1">F4/E27</f>
-        <v>146.86759143539783</v>
+        <v>146.86759143539777</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
@@ -25473,7 +25473,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.59696522240478933</v>
+        <v>0.59696522240478922</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="21"/>
@@ -25493,7 +25493,7 @@
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.37859482491758656</v>
+        <v>0.37859482491758667</v>
       </c>
       <c r="W27">
         <f t="shared" ca="1" si="21"/>
@@ -25509,15 +25509,15 @@
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.28480683108977756</v>
+        <v>0.28480683108977761</v>
       </c>
       <c r="AA27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.28446112866670836</v>
+        <v>0.28446112866670842</v>
       </c>
       <c r="AB27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.28432191462144862</v>
+        <v>0.28432191462144851</v>
       </c>
       <c r="AC27">
         <f t="shared" ca="1" si="21"/>
@@ -25541,11 +25541,11 @@
       </c>
       <c r="AH27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.28423265907724188</v>
+        <v>0.28423265907724177</v>
       </c>
       <c r="AI27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.28423260132443284</v>
+        <v>0.28423260132443279</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -25557,11 +25557,11 @@
       </c>
       <c r="E28" s="41">
         <f ca="1">f2_/(F5/(f2_*365*re*phib))</f>
-        <v>43.428136236271961</v>
+        <v>43.428136236271975</v>
       </c>
       <c r="F28" s="106">
         <f t="shared" ref="F28:F29" ca="1" si="22">F5/E28</f>
-        <v>214.49227887130331</v>
+        <v>214.49227887130328</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
@@ -25592,7 +25592,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="23"/>
-        <v>2.4054788629854825E-2</v>
+        <v>2.4054788629854818E-2</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="23"/>
@@ -25612,7 +25612,7 @@
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.6835812242223489</v>
+        <v>0.68358122422234924</v>
       </c>
       <c r="W28">
         <f t="shared" ca="1" si="23"/>
@@ -25628,15 +25628,15 @@
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.48559863362151412</v>
+        <v>0.48559863362151429</v>
       </c>
       <c r="AA28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.48500920736498881</v>
+        <v>0.48500920736498893</v>
       </c>
       <c r="AB28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.48477184595795947</v>
+        <v>0.48477184595795936</v>
       </c>
       <c r="AC28">
         <f t="shared" ca="1" si="23"/>
@@ -25660,11 +25660,11 @@
       </c>
       <c r="AH28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.48461966431911285</v>
+        <v>0.48461966431911274</v>
       </c>
       <c r="AI28">
         <f t="shared" ca="1" si="23"/>
-        <v>0.48461956584996785</v>
+        <v>0.48461956584996774</v>
       </c>
     </row>
     <row r="29" spans="1:39">
@@ -25676,11 +25676,11 @@
       </c>
       <c r="E29" s="41">
         <f ca="1">f3_/(F6/(f3_*365*re*phib))</f>
-        <v>43.66584753119016</v>
+        <v>43.665847531190167</v>
       </c>
       <c r="F29" s="106">
         <f t="shared" ca="1" si="22"/>
-        <v>194.71715966452695</v>
+        <v>194.717159664527</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -25711,11 +25711,11 @@
       </c>
       <c r="G31">
         <f ca="1">SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-58.69313090367703</v>
+        <v>-58.693130903677037</v>
       </c>
       <c r="H31">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-18066.640928248835</v>
+        <v>-18066.640928248838</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>52</v>
@@ -25745,15 +25745,15 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.8948856319529587E-4</v>
+        <v>-1.8948856319529593E-4</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.1538475480857966E-4</v>
+        <v>-4.1538475480857977E-4</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.0308061825899917E-3</v>
+        <v>-1.0308061825899922E-3</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="24"/>
@@ -25769,15 +25769,15 @@
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="24"/>
-        <v>-7.298635914521906E-2</v>
+        <v>-7.2986359145219046E-2</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.11186473698395694</v>
+        <v>-0.11186473698395691</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.14234990081007418</v>
+        <v>-0.14234990081007415</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="24"/>
@@ -25805,7 +25805,7 @@
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="25"/>
-        <v>-8.9299822187322811E-2</v>
+        <v>-8.9299822187322825E-2</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="25"/>
@@ -25817,7 +25817,7 @@
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-0.26299443459744543</v>
+        <v>-0.26299443459744559</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -25830,7 +25830,7 @@
       </c>
       <c r="G32">
         <f ca="1">SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-118.8129465900893</v>
+        <v>-118.81294659008931</v>
       </c>
       <c r="H32">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
@@ -25888,19 +25888,19 @@
       </c>
       <c r="W32">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.7156913007882062</v>
+        <v>-0.71569130078820609</v>
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.59687256232836805</v>
+        <v>-0.59687256232836794</v>
       </c>
       <c r="Y32">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.48479125641899662</v>
+        <v>-0.48479125641899656</v>
       </c>
       <c r="Z32">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.38719778337319266</v>
+        <v>-0.38719778337319261</v>
       </c>
       <c r="AA32">
         <f t="shared" ca="1" si="26"/>
@@ -25912,31 +25912,31 @@
       </c>
       <c r="AC32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.19027031494127455</v>
+        <v>-0.19027031494127458</v>
       </c>
       <c r="AD32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.14933773943920089</v>
+        <v>-0.14933773943920092</v>
       </c>
       <c r="AE32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.11701541681890144</v>
+        <v>-0.11701541681890147</v>
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="25"/>
-        <v>-9.1554967782824348E-2</v>
+        <v>-9.1554967782824376E-2</v>
       </c>
       <c r="AG32">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.15394542876715E-2</v>
+        <v>-7.1539454287671514E-2</v>
       </c>
       <c r="AH32">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.5831501074939595E-2</v>
+        <v>-5.5831501074939602E-2</v>
       </c>
       <c r="AI32">
         <f ca="1">(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-0.19472704676193517</v>
+        <v>-0.19472704676193531</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -25951,11 +25951,11 @@
       <c r="E33" s="60"/>
       <c r="G33">
         <f ca="1">SUMPRODUCT(dlz3_,wa,ma)</f>
-        <v>-76.422077026158675</v>
+        <v>-76.422077026158689</v>
       </c>
       <c r="H33">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-23523.880961274215</v>
+        <v>-23523.880961274219</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -25981,31 +25981,31 @@
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="26"/>
-        <v>-2.1706963398322936E-3</v>
+        <v>-2.170696339832294E-3</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="26"/>
-        <v>-5.7989436275098774E-3</v>
+        <v>-5.79894362750988E-3</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="26"/>
-        <v>-1.3118730222817308E-2</v>
+        <v>-1.3118730222817312E-2</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="26"/>
-        <v>-3.226805779625555E-2</v>
+        <v>-3.2268057796255557E-2</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.1106425837848113</v>
+        <v>-0.11064258378481132</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.23311337117956218</v>
+        <v>-0.23311337117956221</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.31246453655009343</v>
+        <v>-0.31246453655009349</v>
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="26"/>
@@ -26033,31 +26033,31 @@
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.15088827226562362</v>
+        <v>-0.15088827226562365</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.12372048148118255</v>
+        <v>-0.12372048148118256</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.10077951142377027</v>
+        <v>-0.10077951142377028</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="25"/>
-        <v>-8.1637201766915274E-2</v>
+        <v>-8.1637201766915288E-2</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="25"/>
-        <v>-6.5814924330471675E-2</v>
+        <v>-6.5814924330471689E-2</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.2838003605165738E-2</v>
+        <v>-5.2838003605165752E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-0.20206536746697118</v>
+        <v>-0.20206536746697135</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -26090,7 +26090,7 @@
       </c>
       <c r="I35" s="10">
         <f ca="1">SUM(dqa13_)</f>
-        <v>382.92957371846558</v>
+        <v>382.92957371846552</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>62</v>
@@ -26121,7 +26121,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="27"/>
-        <v>3.0348371183632538E-6</v>
+        <v>3.0348371183632551E-6</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="27"/>
@@ -26141,7 +26141,7 @@
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="27"/>
-        <v>1.8900449506421371</v>
+        <v>1.8900449506421373</v>
       </c>
       <c r="W35">
         <f t="shared" ca="1" si="27"/>
@@ -26157,15 +26157,15 @@
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="27"/>
-        <v>22.664383494146243</v>
+        <v>22.664383494146247</v>
       </c>
       <c r="AA35">
         <f t="shared" ca="1" si="27"/>
-        <v>26.166365398698272</v>
+        <v>26.166365398698275</v>
       </c>
       <c r="AB35">
         <f t="shared" ca="1" si="27"/>
-        <v>29.0376652690132</v>
+        <v>29.037665269013189</v>
       </c>
       <c r="AC35">
         <f t="shared" ca="1" si="27"/>
@@ -26189,11 +26189,11 @@
       </c>
       <c r="AH35">
         <f t="shared" ca="1" si="27"/>
-        <v>41.970239719893492</v>
+        <v>41.970239719893485</v>
       </c>
       <c r="AI35">
         <f t="shared" ca="1" si="27"/>
-        <v>43.458661584415424</v>
+        <v>43.458661584415417</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -26218,7 +26218,7 @@
       </c>
       <c r="H36" s="1">
         <f ca="1">SUM(dqa22_)</f>
-        <v>62.453057078927543</v>
+        <v>62.453057078927536</v>
       </c>
       <c r="I36" s="10">
         <f ca="1">SUM(dqa23_)</f>
@@ -26245,15 +26245,15 @@
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.1578245047370828</v>
+        <v>1.1578245047370825</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.5675074984320549</v>
+        <v>1.5675074984320547</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="28"/>
-        <v>1.9372485330772391</v>
+        <v>1.9372485330772393</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="28"/>
@@ -26273,11 +26273,11 @@
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.6671836385484422</v>
+        <v>2.6671836385484413</v>
       </c>
       <c r="W36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.5981104666165931</v>
+        <v>2.5981104666165935</v>
       </c>
       <c r="X36">
         <f t="shared" ca="1" si="28"/>
@@ -26289,15 +26289,15 @@
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.6162009705758003</v>
+        <v>2.6162009705758007</v>
       </c>
       <c r="AA36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.8750094361928138</v>
+        <v>2.8750094361928142</v>
       </c>
       <c r="AB36">
         <f t="shared" ca="1" si="28"/>
-        <v>3.1287043888011805</v>
+        <v>3.1287043888011796</v>
       </c>
       <c r="AC36">
         <f t="shared" ca="1" si="28"/>
@@ -26321,11 +26321,11 @@
       </c>
       <c r="AH36">
         <f t="shared" ca="1" si="28"/>
-        <v>4.4662135305157475</v>
+        <v>4.4662135305157467</v>
       </c>
       <c r="AI36">
         <f t="shared" ca="1" si="28"/>
-        <v>4.6245650547695236</v>
+        <v>4.6245650547695218</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -26334,11 +26334,11 @@
       </c>
       <c r="B37" s="27">
         <f ca="1">fbar*C37</f>
-        <v>3.0165267306018182E-2</v>
+        <v>3.0165267306018179E-2</v>
       </c>
       <c r="C37" s="35">
         <f t="shared" ref="C37:C38" ca="1" si="29">CHOOSE(C$34,E37,E40,F40,1)</f>
-        <v>0.54754832220987737</v>
+        <v>0.54754832220987726</v>
       </c>
       <c r="E37" s="37">
         <f ca="1">C46/AVERAGE(C$45:C$47)</f>
@@ -26346,7 +26346,7 @@
       </c>
       <c r="G37" s="1">
         <f ca="1">SUM(dqa31_)</f>
-        <v>382.92957371846558</v>
+        <v>382.92957371846552</v>
       </c>
       <c r="H37" s="1">
         <f ca="1">SUM(dqa32_)</f>
@@ -26385,7 +26385,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="30"/>
-        <v>3.1455049201389138E-3</v>
+        <v>3.1455049201389151E-3</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="30"/>
@@ -26405,11 +26405,11 @@
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="30"/>
-        <v>8.6952850369699046</v>
+        <v>8.6952850369699064</v>
       </c>
       <c r="W37">
         <f t="shared" ca="1" si="30"/>
-        <v>8.1944194498285032</v>
+        <v>8.194419449828505</v>
       </c>
       <c r="X37">
         <f t="shared" ca="1" si="30"/>
@@ -26421,11 +26421,11 @@
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="30"/>
-        <v>7.6054551789952951</v>
+        <v>7.6054551789952969</v>
       </c>
       <c r="AA37">
         <f t="shared" ca="1" si="30"/>
-        <v>8.3578271134654187</v>
+        <v>8.3578271134654205</v>
       </c>
       <c r="AB37">
         <f t="shared" ca="1" si="30"/>
@@ -26453,11 +26453,11 @@
       </c>
       <c r="AH37">
         <f t="shared" ca="1" si="30"/>
-        <v>12.983554095495924</v>
+        <v>12.983554095495922</v>
       </c>
       <c r="AI37">
         <f t="shared" ca="1" si="30"/>
-        <v>13.443891597768394</v>
+        <v>13.44389159776839</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -26466,11 +26466,11 @@
       </c>
       <c r="B38" s="27">
         <f ca="1">fbar*C38</f>
-        <v>2.8898424200898044E-2</v>
+        <v>2.889842420089803E-2</v>
       </c>
       <c r="C38" s="35">
         <f t="shared" ca="1" si="29"/>
-        <v>0.52455307374498805</v>
+        <v>0.52455307374498816</v>
       </c>
       <c r="E38" s="37">
         <f ca="1">C47/AVERAGE(C$45:C$47)</f>
@@ -26500,19 +26500,19 @@
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="31"/>
-        <v>-6.2727172344751071E-5</v>
+        <v>-6.2727172344751085E-5</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.8850562994782716E-4</v>
+        <v>-1.8850562994782722E-4</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="31"/>
-        <v>-5.3281165223991117E-4</v>
+        <v>-5.3281165223990966E-4</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.6949898383323417E-3</v>
+        <v>-1.6949898383323424E-3</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="31"/>
@@ -26544,15 +26544,15 @@
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="31"/>
-        <v>23.064537556432086</v>
+        <v>23.064537556432089</v>
       </c>
       <c r="AA38">
         <f t="shared" ca="1" si="31"/>
-        <v>26.518207475399119</v>
+        <v>26.518207475399123</v>
       </c>
       <c r="AB38">
         <f t="shared" ca="1" si="31"/>
-        <v>29.332550832695166</v>
+        <v>29.332550832695155</v>
       </c>
       <c r="AC38">
         <f t="shared" ca="1" si="31"/>
@@ -26576,11 +26576,11 @@
       </c>
       <c r="AH38">
         <f t="shared" ca="1" si="31"/>
-        <v>42.048022226378656</v>
+        <v>42.048022226378649</v>
       </c>
       <c r="AI38">
         <f t="shared" ca="1" si="31"/>
-        <v>43.707175899572775</v>
+        <v>43.707175899572768</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -26592,12 +26592,12 @@
       </c>
       <c r="C39" s="35">
         <f ca="1">AVERAGE(C36:C38)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="38">
         <f ca="1">C48/AVERAGE(C$48:C$50)</f>
-        <v>1.9293998572461053</v>
+        <v>1.9293998572461055</v>
       </c>
       <c r="F39">
         <f ca="1">E48/AVERAGE($E$48:$E$50)</f>
@@ -26613,7 +26613,7 @@
       </c>
       <c r="I39" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
-        <v>785786.79968217167</v>
+        <v>785786.79968217155</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>66</v>
@@ -26636,19 +26636,19 @@
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="32"/>
-        <v>-2.4639925560931123E-7</v>
+        <v>-2.4639925560931128E-7</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="32"/>
-        <v>-2.4564157745445907E-6</v>
+        <v>-2.4564157745445919E-6</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.7912702909631126E-5</v>
+        <v>-1.7912702909631061E-5</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.8493652478736912E-4</v>
+        <v>-1.8493652478736915E-4</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="32"/>
@@ -26664,11 +26664,11 @@
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="32"/>
-        <v>1.7234073450392562</v>
+        <v>1.7234073450392553</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="32"/>
-        <v>5.9006089805453321</v>
+        <v>5.9006089805453312</v>
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="32"/>
@@ -26680,15 +26680,15 @@
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="32"/>
-        <v>22.919366472725809</v>
+        <v>22.919366472725812</v>
       </c>
       <c r="AA39">
         <f t="shared" ca="1" si="32"/>
-        <v>26.395216788723484</v>
+        <v>26.395216788723488</v>
       </c>
       <c r="AB39">
         <f t="shared" ca="1" si="32"/>
-        <v>29.230963113121511</v>
+        <v>29.230963113121501</v>
       </c>
       <c r="AC39">
         <f t="shared" ca="1" si="32"/>
@@ -26712,11 +26712,11 @@
       </c>
       <c r="AH39">
         <f t="shared" ca="1" si="32"/>
-        <v>42.021472942477637</v>
+        <v>42.021472942477629</v>
       </c>
       <c r="AI39">
         <f t="shared" ca="1" si="32"/>
-        <v>43.622351713610954</v>
+        <v>43.622351713610946</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -26725,16 +26725,16 @@
       </c>
       <c r="B40" s="36">
         <f ca="1">SUM(B36:B38)</f>
-        <v>0.16527554883400622</v>
+        <v>0.16527554883400619</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="38">
         <f ca="1">C49/AVERAGE(C$48:C$50)</f>
-        <v>0.59541803082340661</v>
+        <v>0.5954180308234065</v>
       </c>
       <c r="F40">
         <f t="shared" ref="F40:F41" ca="1" si="33">E49/AVERAGE($E$48:$E$50)</f>
-        <v>0.54754832220987737</v>
+        <v>0.54754832220987726</v>
       </c>
       <c r="G40" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
@@ -26746,7 +26746,7 @@
       </c>
       <c r="I40" s="1">
         <f ca="1">0*re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
-        <v>212941.75799787234</v>
+        <v>212941.75799787219</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>65</v>
@@ -26773,15 +26773,15 @@
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.8850562994782716E-4</v>
+        <v>-1.8850562994782724E-4</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="34"/>
-        <v>-5.3281165223991117E-4</v>
+        <v>-5.3281165223990966E-4</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.6949898383323417E-3</v>
+        <v>-1.6949898383323422E-3</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="34"/>
@@ -26813,15 +26813,15 @@
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="34"/>
-        <v>23.064537556432086</v>
+        <v>23.064537556432089</v>
       </c>
       <c r="AA40">
         <f t="shared" ca="1" si="34"/>
-        <v>26.518207475399119</v>
+        <v>26.518207475399123</v>
       </c>
       <c r="AB40">
         <f t="shared" ca="1" si="34"/>
-        <v>29.332550832695166</v>
+        <v>29.332550832695155</v>
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="34"/>
@@ -26845,11 +26845,11 @@
       </c>
       <c r="AH40">
         <f t="shared" ca="1" si="34"/>
-        <v>42.048022226378656</v>
+        <v>42.048022226378649</v>
       </c>
       <c r="AI40">
         <f t="shared" ca="1" si="34"/>
-        <v>43.707175899572775</v>
+        <v>43.707175899572768</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -26861,23 +26861,23 @@
       <c r="D41" s="20"/>
       <c r="E41" s="38">
         <f ca="1">C50/AVERAGE(C$48:C$50)</f>
-        <v>0.47518211193048826</v>
+        <v>0.47518211193048804</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="33"/>
-        <v>0.52455307374498827</v>
+        <v>0.52455307374498805</v>
       </c>
       <c r="G41" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
-        <v>785786.79968217167</v>
+        <v>785786.79968217155</v>
       </c>
       <c r="H41" s="1">
         <f ca="1">0*re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>212941.75799787234</v>
+        <v>212941.75799787219</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>347443.31562875595</v>
+        <v>347443.3156287559</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
@@ -26904,15 +26904,15 @@
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="35"/>
-        <v>-6.4631901519993798E-3</v>
+        <v>-6.4631901519993824E-3</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="35"/>
-        <v>-1.7269055916884244E-2</v>
+        <v>-1.7269055916884195E-2</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="35"/>
-        <v>-5.4299694353329535E-2</v>
+        <v>-5.4299694353329542E-2</v>
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="35"/>
@@ -26928,11 +26928,11 @@
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="35"/>
-        <v>1.6647386019242512</v>
+        <v>1.6647386019242498</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="35"/>
-        <v>6.0442928039591566</v>
+        <v>6.0442928039591557</v>
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="35"/>
@@ -26944,15 +26944,15 @@
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="35"/>
-        <v>23.151168847390867</v>
+        <v>23.151168847390871</v>
       </c>
       <c r="AA41">
         <f t="shared" ca="1" si="35"/>
-        <v>26.59406549332936</v>
+        <v>26.594065493329364</v>
       </c>
       <c r="AB41">
         <f t="shared" ca="1" si="35"/>
-        <v>29.39600036550582</v>
+        <v>29.396000365505813</v>
       </c>
       <c r="AC41">
         <f t="shared" ca="1" si="35"/>
@@ -26976,11 +26976,11 @@
       </c>
       <c r="AH41">
         <f t="shared" ca="1" si="35"/>
-        <v>42.064735083121569</v>
+        <v>42.064735083121562</v>
       </c>
       <c r="AI41">
         <f t="shared" ca="1" si="35"/>
-        <v>43.760573256962616</v>
+        <v>43.760573256962608</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -27013,19 +27013,19 @@
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="36"/>
-        <v>-2.4639925560931123E-7</v>
+        <v>-2.4639925560931128E-7</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="36"/>
-        <v>-2.4564157745445907E-6</v>
+        <v>-2.4564157745445919E-6</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="36"/>
-        <v>-1.7912702909631126E-5</v>
+        <v>-1.7912702909631061E-5</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="36"/>
-        <v>-1.8493652478736912E-4</v>
+        <v>-1.8493652478736915E-4</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="36"/>
@@ -27041,11 +27041,11 @@
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="36"/>
-        <v>1.7234073450392562</v>
+        <v>1.7234073450392553</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="36"/>
-        <v>5.9006089805453321</v>
+        <v>5.9006089805453312</v>
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="36"/>
@@ -27057,15 +27057,15 @@
       </c>
       <c r="Z42">
         <f t="shared" ca="1" si="36"/>
-        <v>22.919366472725809</v>
+        <v>22.919366472725812</v>
       </c>
       <c r="AA42">
         <f t="shared" ca="1" si="36"/>
-        <v>26.395216788723484</v>
+        <v>26.395216788723488</v>
       </c>
       <c r="AB42">
         <f t="shared" ca="1" si="36"/>
-        <v>29.230963113121511</v>
+        <v>29.230963113121501</v>
       </c>
       <c r="AC42">
         <f t="shared" ca="1" si="36"/>
@@ -27089,11 +27089,11 @@
       </c>
       <c r="AH42">
         <f t="shared" ca="1" si="36"/>
-        <v>42.021472942477637</v>
+        <v>42.021472942477629</v>
       </c>
       <c r="AI42">
         <f t="shared" ca="1" si="36"/>
-        <v>43.622351713610954</v>
+        <v>43.622351713610946</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -27125,19 +27125,19 @@
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="37"/>
-        <v>-1.8068731251117739E-3</v>
+        <v>-1.8068731251117743E-3</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="37"/>
-        <v>-6.463190151999379E-3</v>
+        <v>-6.4631901519993816E-3</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="37"/>
-        <v>-1.7269055916884244E-2</v>
+        <v>-1.7269055916884195E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="37"/>
-        <v>-5.4299694353329535E-2</v>
+        <v>-5.4299694353329549E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="37"/>
@@ -27153,11 +27153,11 @@
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="37"/>
-        <v>1.6647386019242512</v>
+        <v>1.6647386019242498</v>
       </c>
       <c r="W43">
         <f t="shared" ca="1" si="37"/>
-        <v>6.0442928039591566</v>
+        <v>6.0442928039591557</v>
       </c>
       <c r="X43">
         <f t="shared" ca="1" si="37"/>
@@ -27169,15 +27169,15 @@
       </c>
       <c r="Z43">
         <f t="shared" ca="1" si="37"/>
-        <v>23.151168847390867</v>
+        <v>23.151168847390871</v>
       </c>
       <c r="AA43">
         <f t="shared" ca="1" si="37"/>
-        <v>26.59406549332936</v>
+        <v>26.594065493329364</v>
       </c>
       <c r="AB43">
         <f t="shared" ca="1" si="37"/>
-        <v>29.39600036550582</v>
+        <v>29.396000365505813</v>
       </c>
       <c r="AC43">
         <f t="shared" ca="1" si="37"/>
@@ -27201,11 +27201,11 @@
       </c>
       <c r="AH43">
         <f t="shared" ca="1" si="37"/>
-        <v>42.064735083121569</v>
+        <v>42.064735083121562</v>
       </c>
       <c r="AI43">
         <f t="shared" ca="1" si="37"/>
-        <v>43.760573256962616</v>
+        <v>43.760573256962608</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -27271,11 +27271,11 @@
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="38"/>
-        <v>1.6823500641427371E-4</v>
+        <v>1.6823500641427374E-4</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="38"/>
-        <v>5.497256195076375E-4</v>
+        <v>5.4972561950763761E-4</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="38"/>
@@ -27283,7 +27283,7 @@
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="38"/>
-        <v>6.0264903983214763E-3</v>
+        <v>6.026490398321478E-3</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="38"/>
@@ -27299,7 +27299,7 @@
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="38"/>
-        <v>0.85040820216319513</v>
+        <v>0.85040820216319557</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="38"/>
@@ -27315,31 +27315,31 @@
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="38"/>
-        <v>1.3236871957553564</v>
+        <v>1.3236871957553566</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="38"/>
-        <v>1.1219412148428038</v>
+        <v>1.1219412148428041</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="38"/>
-        <v>0.92686561034163595</v>
+        <v>0.92686561034163562</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="38"/>
-        <v>0.75466787938115365</v>
+        <v>0.75466787938115376</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="38"/>
-        <v>0.60861767664628474</v>
+        <v>0.60861767664628486</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="38"/>
-        <v>0.48732420306852869</v>
+        <v>0.48732420306852875</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="38"/>
-        <v>0.3879190790632156</v>
+        <v>0.38791907906321565</v>
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="38"/>
@@ -27351,7 +27351,7 @@
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="38"/>
-        <v>0.77400742709572512</v>
+        <v>0.77400742709572545</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -27371,7 +27371,7 @@
       </c>
       <c r="G47" s="30">
         <f ca="1">G39/G53</f>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H47" s="30">
         <f ca="1">H53/H39</f>
@@ -27402,19 +27402,19 @@
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="39"/>
-        <v>1.0661092976781994</v>
+        <v>1.0661092976781996</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="39"/>
-        <v>1.2499427332181476</v>
+        <v>1.2499427332181481</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="39"/>
-        <v>1.3589897412725571</v>
+        <v>1.3589897412725569</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="39"/>
-        <v>1.3990564995389747</v>
+        <v>1.3990564995389749</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="39"/>
@@ -27430,11 +27430,11 @@
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="39"/>
-        <v>1.0102243514196705</v>
+        <v>1.0102243514196709</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="39"/>
-        <v>0.84533468682294688</v>
+        <v>0.84533468682294699</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="39"/>
@@ -27446,23 +27446,23 @@
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="39"/>
-        <v>0.44972700229914681</v>
+        <v>0.44972700229914692</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="39"/>
-        <v>0.37189302972048666</v>
+        <v>0.37189302972048677</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="39"/>
-        <v>0.30424131332518822</v>
+        <v>0.30424131332518811</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="39"/>
-        <v>0.24677057283313111</v>
+        <v>0.24677057283313117</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="39"/>
-        <v>0.19871667618993527</v>
+        <v>0.1987166761899353</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="39"/>
@@ -27474,15 +27474,15 @@
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="39"/>
-        <v>0.10022678240169751</v>
+        <v>0.10022678240169752</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="39"/>
-        <v>7.9027314393827042E-2</v>
+        <v>7.9027314393827028E-2</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="39"/>
-        <v>0.25248896442407609</v>
+        <v>0.2524889644240762</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -27491,7 +27491,7 @@
       </c>
       <c r="B48" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>12.71193348226373</v>
+        <v>12.711933482263731</v>
       </c>
       <c r="C48" s="22">
         <f ca="1">B13/(phi_q1/SUM($B48:$B50))</f>
@@ -27510,11 +27510,11 @@
       </c>
       <c r="H48" s="30">
         <f t="shared" ref="H48:I49" ca="1" si="40">H40/H54</f>
-        <v>1.0000000000000004</v>
+        <v>1</v>
       </c>
       <c r="I48" s="30">
         <f ca="1">I54/I40</f>
-        <v>1.5894748789420197</v>
+        <v>1.589474878942021</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
@@ -27537,19 +27537,19 @@
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="41"/>
-        <v>4.8431678031806338E-3</v>
+        <v>4.8431678031806346E-3</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="41"/>
-        <v>1.881072489912352E-2</v>
+        <v>1.8810724899123527E-2</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="41"/>
-        <v>5.4760662346065317E-2</v>
+        <v>5.476066234606531E-2</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="41"/>
-        <v>0.18778800814213473</v>
+        <v>0.18778800814213475</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="41"/>
@@ -27565,11 +27565,11 @@
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="41"/>
-        <v>1.824035495025617</v>
+        <v>1.8240354950256181</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="41"/>
-        <v>1.5012705970855564</v>
+        <v>1.5012705970855567</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="41"/>
@@ -27581,35 +27581,35 @@
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="41"/>
-        <v>0.76678925496110995</v>
+        <v>0.76678925496111017</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="41"/>
-        <v>0.63408151551220038</v>
+        <v>0.63408151551220049</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="41"/>
-        <v>0.51873462963167349</v>
+        <v>0.51873462963167338</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="41"/>
-        <v>0.42074641442849797</v>
+        <v>0.42074641442849803</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="41"/>
-        <v>0.33881401673692135</v>
+        <v>0.33881401673692141</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="41"/>
-        <v>0.27113436839200167</v>
+        <v>0.27113436839200172</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="41"/>
-        <v>0.21578074250972892</v>
+        <v>0.21578074250972895</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="41"/>
-        <v>0.1708877150183355</v>
+        <v>0.17088771501833552</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="41"/>
@@ -27617,7 +27617,7 @@
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="41"/>
-        <v>0.43049633205670373</v>
+        <v>0.4304963320567039</v>
       </c>
     </row>
     <row r="49" spans="1:47">
@@ -27645,11 +27645,11 @@
       </c>
       <c r="H49" s="30">
         <f t="shared" ca="1" si="40"/>
-        <v>0.62913859995422905</v>
+        <v>0.62913859995422849</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" ca="1" si="40"/>
-        <v>1.0000000000000004</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AL49" s="30"/>
       <c r="AM49" s="30"/>
@@ -27665,7 +27665,7 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">SUMPRODUCT(lz,qa3_)</f>
-        <v>14.636955021459235</v>
+        <v>14.636955021459237</v>
       </c>
       <c r="C50" s="22">
         <f ca="1">B15/(phi_q3/SUM(B$48:B$50))</f>
@@ -27701,7 +27701,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUMPRODUCT(lz/SUM(lz),len,ta1_)</f>
-        <v>8.0861371858746462</v>
+        <v>8.0861371858746445</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -27723,7 +27723,7 @@
       </c>
       <c r="R51">
         <f ca="1">(ye_1-N51)/hh</f>
-        <v>27139723662.432648</v>
+        <v>27139723662.432636</v>
       </c>
       <c r="AL51" s="30"/>
       <c r="AM51" s="30"/>
@@ -27746,7 +27746,7 @@
       </c>
       <c r="I52" s="10">
         <f ca="1">I41^0.5</f>
-        <v>589.44322511057499</v>
+        <v>589.44322511057487</v>
       </c>
       <c r="M52">
         <v>2.883099712139368E-2</v>
@@ -27765,7 +27765,7 @@
       </c>
       <c r="R52">
         <f ca="1">(ye_2-N52)/hh</f>
-        <v>9314990270.1772194</v>
+        <v>9314990270.1772213</v>
       </c>
       <c r="AL52" s="30"/>
       <c r="AM52" s="30"/>
@@ -27778,15 +27778,15 @@
     <row r="53" spans="1:47">
       <c r="G53">
         <f ca="1">G$52*$J53</f>
-        <v>1045770.5576277494</v>
+        <v>1045770.5576277493</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53:J55" ca="1" si="42">H$52*$J53</f>
-        <v>587206.32996063062</v>
+        <v>587206.32996063051</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="42"/>
-        <v>602781.87591293617</v>
+        <v>602781.87591293594</v>
       </c>
       <c r="J53">
         <f t="array" aca="1" ref="J53:J55" ca="1">TRANSPOSE(G52:I52)</f>
@@ -27809,7 +27809,7 @@
       </c>
       <c r="R53">
         <f ca="1">(ye_3-N53)/hh</f>
-        <v>8502482476.8043509</v>
+        <v>8502482476.8043547</v>
       </c>
       <c r="AL53" s="30"/>
       <c r="AM53" s="30"/>
@@ -27833,7 +27833,7 @@
       </c>
       <c r="I54">
         <f ca="1">I$52*$J54</f>
-        <v>338465.5750153691</v>
+        <v>338465.57501536905</v>
       </c>
       <c r="J54">
         <f ca="1"/>
@@ -27856,19 +27856,19 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="43"/>
-        <v>602781.87591293606</v>
+        <v>602781.87591293594</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="43"/>
-        <v>338465.5750153691</v>
+        <v>338465.57501536905</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="43"/>
-        <v>347443.31562875595</v>
+        <v>347443.31562875584</v>
       </c>
       <c r="J55">
         <f ca="1"/>
-        <v>589.44322511057499</v>
+        <v>589.44322511057487</v>
       </c>
       <c r="S55" s="32"/>
       <c r="AL55" s="30"/>
@@ -27899,7 +27899,7 @@
       </c>
       <c r="B57" s="120">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>27139.749506251814</v>
+        <v>27139.749506251817</v>
       </c>
       <c r="C57" s="19">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
@@ -27923,7 +27923,7 @@
       </c>
       <c r="C58" s="19">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.20719688463968183</v>
+        <v>0.20719688463968181</v>
       </c>
       <c r="I58"/>
       <c r="AL58" s="30"/>
@@ -27938,11 +27938,11 @@
       </c>
       <c r="B59" s="120">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>8502.489805617648</v>
+        <v>8502.4898056176444</v>
       </c>
       <c r="C59" s="19">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.18912393094134855</v>
+        <v>0.18912393094134844</v>
       </c>
       <c r="I59"/>
       <c r="AL59" s="30"/>
@@ -27957,7 +27957,7 @@
       </c>
       <c r="B60" s="1">
         <f ca="1">SUM(B57:B59)</f>
-        <v>44957.239220320858</v>
+        <v>44957.239220320866</v>
       </c>
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
@@ -27980,11 +27980,11 @@
       </c>
       <c r="B62" s="34">
         <f ca="1">f1_*phi_q1</f>
-        <v>1.3501580653696534</v>
+        <v>1.3501580653696537</v>
       </c>
       <c r="C62">
         <f ca="1">AVERAGE(B62:B64)/B62</f>
-        <v>0.55216966550562874</v>
+        <v>0.55216966550562896</v>
       </c>
       <c r="AL62" s="30"/>
       <c r="AM62" s="30"/>
@@ -27998,11 +27998,11 @@
       </c>
       <c r="B63" s="34">
         <f ca="1">f2_*phi_q2</f>
-        <v>0.4634059814154185</v>
+        <v>0.46340598141541844</v>
       </c>
       <c r="C63">
         <f ca="1">AVERAGE(B62:B64)/B63</f>
-        <v>1.6087757975367463</v>
+        <v>1.6087757975367469</v>
       </c>
       <c r="AL63" s="30"/>
       <c r="AM63" s="30"/>
@@ -28016,11 +28016,11 @@
       </c>
       <c r="B64" s="34">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.42298493521959368</v>
+        <v>0.42298493521959352</v>
       </c>
       <c r="C64">
         <f ca="1">AVERAGE(B62:B64)/B64</f>
-        <v>1.7625127167894332</v>
+        <v>1.7625127167894339</v>
       </c>
       <c r="AL64" s="30"/>
       <c r="AM64" s="30"/>
@@ -28038,7 +28038,7 @@
       </c>
       <c r="C65">
         <f ca="1">AVERAGE(B65:B67)/B65</f>
-        <v>0.97738130510985988</v>
+        <v>0.97738130510986021</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -28047,11 +28047,11 @@
       </c>
       <c r="B66" s="33">
         <f ca="1">phi_t2*f2_</f>
-        <v>7.3364987663475559E-2</v>
+        <v>7.3364987663475545E-2</v>
       </c>
       <c r="C66">
         <f ca="1">AVERAGE(B65:B67)/B66</f>
-        <v>0.66361125713762448</v>
+        <v>0.6636112571376247</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -28060,11 +28060,11 @@
       </c>
       <c r="B67" s="33">
         <f ca="1">phi_t3*f3_</f>
-        <v>2.2879981395238471E-2</v>
+        <v>2.2879981395238461E-2</v>
       </c>
       <c r="C67">
         <f ca="1">AVERAGE(B65:B67)/B67</f>
-        <v>2.1278789895946897</v>
+        <v>2.1278789895946901</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -28073,7 +28073,7 @@
       </c>
       <c r="B69">
         <f ca="1">ypr1/mpr1_</f>
-        <v>27.104790164623594</v>
+        <v>27.104790164623601</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -28091,7 +28091,7 @@
       </c>
       <c r="B71">
         <f ca="1">ypr3/mpr3_</f>
-        <v>18.487118844756605</v>
+        <v>18.487118844756608</v>
       </c>
     </row>
   </sheetData>
@@ -28353,7 +28353,7 @@
       </c>
       <c r="F4" s="46">
         <f ca="1">ye_1</f>
-        <v>22185.133991994629</v>
+        <v>22185.133991994633</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -28469,7 +28469,7 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">ypr2/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.2251359516616315</v>
+        <v>0.22513595166163142</v>
       </c>
       <c r="E5" s="46">
         <v>9315</v>
@@ -28599,7 +28599,7 @@
       </c>
       <c r="F6" s="46">
         <f ca="1">ye_3</f>
-        <v>6291.2801403410331</v>
+        <v>6291.2801403410349</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -28765,11 +28765,11 @@
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11522138309293595</v>
+        <v>0.11522138309293593</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.2002116389942795E-2</v>
+        <v>9.2002116389942781E-2</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -28781,15 +28781,15 @@
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.0792758503066483E-2</v>
+        <v>4.079275850306649E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0376571826774289E-2</v>
+        <v>3.0376571826774293E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2548282161232686E-2</v>
+        <v>2.254828216123269E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -28817,7 +28817,7 @@
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>1.0655163487855187E-2</v>
+        <v>1.0655163487855189E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -28829,7 +28829,7 @@
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>9505448.545332158</v>
+        <v>9505448.5453321338</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -29144,7 +29144,7 @@
       </c>
       <c r="C11" s="17">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.20363299727562004</v>
+        <v>0.20363299727562001</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -29376,7 +29376,7 @@
       </c>
       <c r="C13" s="17">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.11478826544274841</v>
+        <v>0.11478826544274839</v>
       </c>
       <c r="J13" t="s">
         <v>100</v>
@@ -30561,15 +30561,15 @@
       </c>
       <c r="C27" s="35">
         <f ca="1">CHOOSE(C$25,E36,E39,1)</f>
-        <v>1.5625829326748901</v>
+        <v>1.5625829326748903</v>
       </c>
       <c r="E27" s="41">
         <f ca="1">f1_/(F4/(f1_*365*re*phib))</f>
-        <v>137.71284947495317</v>
+        <v>137.71284947495315</v>
       </c>
       <c r="F27" s="106">
         <f ca="1">F4/E27</f>
-        <v>161.09705141225473</v>
+        <v>161.09705141225479</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
@@ -30805,19 +30805,19 @@
       </c>
       <c r="B29" s="27">
         <f ca="1">fbar*C29</f>
-        <v>2.4092698273042321E-2</v>
+        <v>2.4092698273042324E-2</v>
       </c>
       <c r="C29" s="35">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
-        <v>0.28388883207834087</v>
+        <v>0.28388883207834081</v>
       </c>
       <c r="E29" s="41">
         <f ca="1">f3_/(F6/(f3_*365*re*phib))</f>
-        <v>16.029056510573859</v>
+        <v>16.029056510573863</v>
       </c>
       <c r="F29" s="106">
         <f t="shared" ca="1" si="22"/>
-        <v>392.4922303562206</v>
+        <v>392.49223035622066</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -30829,7 +30829,7 @@
       </c>
       <c r="C30" s="35">
         <f ca="1">AVERAGE(C27:C29)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
         <v>58</v>
@@ -30851,7 +30851,7 @@
       </c>
       <c r="G31">
         <f ca="1">SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-93.602712455615404</v>
+        <v>-93.602712455615418</v>
       </c>
       <c r="H31">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
@@ -30909,55 +30909,55 @@
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.9879173773713004E-2</v>
+        <v>-5.987917377371299E-2</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="24"/>
-        <v>-8.7532109018056747E-2</v>
+        <v>-8.7532109018056733E-2</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.10835901600858784</v>
+        <v>-0.10835901600858783</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.11755239189745686</v>
+        <v>-0.11755239189745684</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.11642415307513279</v>
+        <v>-0.11642415307513278</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.10850031071171046</v>
+        <v>-0.10850031071171044</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="24"/>
-        <v>-9.7007244412971191E-2</v>
+        <v>-9.7007244412971205E-2</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="24"/>
-        <v>-8.4221197168351011E-2</v>
+        <v>-8.4221197168351025E-2</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="24"/>
-        <v>-7.1555422828500997E-2</v>
+        <v>-7.1555422828501025E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.9798913276542229E-2</v>
+        <v>-5.9798913276542257E-2</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.9329393650679329E-2</v>
+        <v>-4.9329393650679343E-2</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.0269212266321117E-2</v>
+        <v>-4.0269212266321124E-2</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-0.15614586836874608</v>
+        <v>-0.15614586836874611</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -31088,11 +31088,11 @@
       <c r="C33" s="57"/>
       <c r="G33">
         <f ca="1">SUMPRODUCT(dlz3_,wa,ma)</f>
-        <v>-177.79367079111071</v>
+        <v>-177.79367079111066</v>
       </c>
       <c r="H33">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-19495.231379170458</v>
+        <v>-19495.231379170451</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -31150,51 +31150,51 @@
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.38935153931794725</v>
+        <v>-0.38935153931794719</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.32576716296920255</v>
+        <v>-0.3257671629692025</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.2652739667331076</v>
+        <v>-0.26527396673310755</v>
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.21380657854045867</v>
+        <v>-0.21380657854045862</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.17104520362966508</v>
+        <v>-0.17104520362966502</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.13603631210006747</v>
+        <v>-0.13603631210006742</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.10766760954447764</v>
+        <v>-0.1076676095444776</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="26"/>
-        <v>-8.4859872636848022E-2</v>
+        <v>-8.4859872636847994E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="26"/>
-        <v>-6.663985627135359E-2</v>
+        <v>-6.6639856271353576E-2</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="26"/>
-        <v>-5.2162854459811822E-2</v>
+        <v>-5.2162854459811815E-2</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="26"/>
-        <v>-4.0713055856186571E-2</v>
+        <v>-4.0713055856186564E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-0.13917573018997684</v>
+        <v>-0.13917573018997681</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -31296,7 +31296,7 @@
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="27"/>
-        <v>51.757602954089243</v>
+        <v>51.757602954089236</v>
       </c>
       <c r="AA35">
         <f t="shared" ca="1" si="27"/>
@@ -31341,7 +31341,7 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">SUMPRODUCT(lz,ta1_)</f>
-        <v>0.35658537438540755</v>
+        <v>0.35658537438540761</v>
       </c>
       <c r="C36" s="28">
         <f ca="1">B11/(phi_t1/SUM(B$36:B$38))</f>
@@ -31361,7 +31361,7 @@
       </c>
       <c r="I36" s="10">
         <f ca="1">SUM(dqa23_)</f>
-        <v>891.54007751810104</v>
+        <v>891.54007751810127</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>63</v>
@@ -31489,7 +31489,7 @@
       </c>
       <c r="H37" s="1">
         <f ca="1">SUM(dqa32_)</f>
-        <v>891.54007751810104</v>
+        <v>891.54007751810127</v>
       </c>
       <c r="I37" s="1">
         <f ca="1">SUM(dqa33_)</f>
@@ -31882,7 +31882,7 @@
       </c>
       <c r="I40" s="107">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
-        <v>414240.99236423289</v>
+        <v>414240.99236423301</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>65</v>
@@ -31994,7 +31994,7 @@
       </c>
       <c r="B41" s="1">
         <f ca="1">SUMPRODUCT(lz,qa3_)</f>
-        <v>33.242674119398252</v>
+        <v>33.242674119398259</v>
       </c>
       <c r="C41" s="22">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
@@ -32011,11 +32011,11 @@
       </c>
       <c r="H41" s="107">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>414240.99236423295</v>
+        <v>414240.99236423307</v>
       </c>
       <c r="I41" s="107">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>249577.3933100875</v>
+        <v>249577.39331008765</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
@@ -32127,7 +32127,7 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">SUMPRODUCT(lz/SUM(lz),len,ta1_)</f>
-        <v>8.6166059133718296</v>
+        <v>8.6166059133718278</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
@@ -32412,11 +32412,11 @@
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.4652572337848053</v>
+        <v>1.4652572337848051</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="36"/>
-        <v>2.2097804176112144</v>
+        <v>2.2097804176112139</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="36"/>
@@ -32428,15 +32428,15 @@
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="36"/>
-        <v>2.2424653043682303</v>
+        <v>2.2424653043682308</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.8791145355961139</v>
+        <v>1.8791145355961141</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.5331746178019137</v>
+        <v>1.5331746178019139</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="36"/>
@@ -32488,7 +32488,7 @@
       </c>
       <c r="I47" s="30">
         <f ca="1">I53/I39</f>
-        <v>0.4962535522299531</v>
+        <v>0.49625355222995315</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
@@ -32539,11 +32539,11 @@
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.38878837821985146</v>
+        <v>0.3887883782198514</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.27153409741632684</v>
+        <v>0.27153409741632678</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="37"/>
@@ -32555,15 +32555,15 @@
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="37"/>
-        <v>9.7958721521240535E-2</v>
+        <v>9.7958721521240563E-2</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="37"/>
-        <v>8.0086224045328808E-2</v>
+        <v>8.0086224045328822E-2</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="37"/>
-        <v>6.4706880887811111E-2</v>
+        <v>6.4706880887811125E-2</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="37"/>
@@ -32591,7 +32591,7 @@
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="37"/>
-        <v>4.6065537348344864E-2</v>
+        <v>4.606553734834487E-2</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -32619,7 +32619,7 @@
       </c>
       <c r="I48" s="30">
         <f ca="1">I54/I40</f>
-        <v>0.34218704405467881</v>
+        <v>0.34218704405467876</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
@@ -32670,11 +32670,11 @@
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="39"/>
-        <v>3.144635475763796</v>
+        <v>3.1446354757637955</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="39"/>
-        <v>2.5907857328070207</v>
+        <v>2.5907857328070203</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="39"/>
@@ -32686,7 +32686,7 @@
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.299062090588043</v>
+        <v>1.2990620905880432</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="39"/>
@@ -32694,7 +32694,7 @@
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.85809874461586244</v>
+        <v>0.85809874461586255</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="39"/>
@@ -32722,7 +32722,7 @@
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.61088989650428216</v>
+        <v>0.61088989650428227</v>
       </c>
     </row>
     <row r="49" spans="1:47">
@@ -32746,11 +32746,11 @@
       </c>
       <c r="H49" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>2.9223783231261322</v>
+        <v>2.9223783231261327</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>0.99999999999999956</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AL49" s="30"/>
       <c r="AM49" s="30"/>
@@ -32766,11 +32766,11 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>6291.2801403410367</v>
+        <v>6291.2801403410385</v>
       </c>
       <c r="C50" s="19">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.17119033232628403</v>
+        <v>0.17119033232628406</v>
       </c>
       <c r="AL50" s="30"/>
       <c r="AM50" s="30"/>
@@ -32786,7 +32786,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>36750.206947142498</v>
+        <v>36750.206947142506</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -32812,7 +32812,7 @@
       </c>
       <c r="I52" s="108">
         <f ca="1">I41^0.5</f>
-        <v>499.57721456256138</v>
+        <v>499.57721456256155</v>
       </c>
       <c r="J52" s="107"/>
       <c r="AL52" s="30"/>
@@ -32845,7 +32845,7 @@
       </c>
       <c r="I53" s="107">
         <f t="shared" ca="1" si="40"/>
-        <v>514533.5096006791</v>
+        <v>514533.50960067927</v>
       </c>
       <c r="J53" s="107">
         <f t="array" aca="1" ref="J53:J55" ca="1">TRANSPOSE(G52:I52)</f>
@@ -32867,7 +32867,7 @@
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
-        <v>1.4805868670602969</v>
+        <v>1.4805868670602971</v>
       </c>
       <c r="G54" s="107">
         <f t="shared" ref="G54:I55" ca="1" si="41">G$52*$J54</f>
@@ -32879,7 +32879,7 @@
       </c>
       <c r="I54" s="107">
         <f ca="1">I$52*$J54</f>
-        <v>141747.90070339356</v>
+        <v>141747.90070339362</v>
       </c>
       <c r="J54" s="107">
         <f ca="1"/>
@@ -32898,27 +32898,27 @@
       </c>
       <c r="B55" s="34">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.80090571734773497</v>
+        <v>0.80090571734773519</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471504541390183</v>
+        <v>1.9471504541390177</v>
       </c>
       <c r="G55" s="107">
         <f t="shared" ca="1" si="41"/>
-        <v>514533.5096006791</v>
+        <v>514533.50960067927</v>
       </c>
       <c r="H55" s="107">
         <f t="shared" ca="1" si="41"/>
-        <v>141747.90070339356</v>
+        <v>141747.90070339362</v>
       </c>
       <c r="I55" s="107">
         <f t="shared" ca="1" si="41"/>
-        <v>249577.3933100875</v>
+        <v>249577.39331008767</v>
       </c>
       <c r="J55" s="107">
         <f ca="1"/>
-        <v>499.57721456256138</v>
+        <v>499.57721456256155</v>
       </c>
       <c r="S55" s="32"/>
       <c r="AL55" s="30"/>
@@ -32934,11 +32934,11 @@
       </c>
       <c r="B56" s="33">
         <f ca="1">phi_t1*f1_</f>
-        <v>4.7287214946133596E-2</v>
+        <v>4.7287214946133603E-2</v>
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.636931822410697</v>
+        <v>1.6369318224106972</v>
       </c>
       <c r="AL56" s="30"/>
       <c r="AM56" s="30"/>
@@ -32965,11 +32965,11 @@
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>1644604658047.0203</v>
+        <v>1644604658047.0205</v>
       </c>
       <c r="I57">
         <f ca="1"/>
-        <v>1799654708781.2542</v>
+        <v>1799654708781.2544</v>
       </c>
       <c r="AL57" s="30"/>
       <c r="AM57" s="30"/>
@@ -32984,15 +32984,15 @@
       </c>
       <c r="B58" s="33">
         <f ca="1">phi_t3*f3_</f>
-        <v>2.6655883152071798E-2</v>
+        <v>2.6655883152071801E-2</v>
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>2.9038972934004836</v>
+        <v>2.9038972934004832</v>
       </c>
       <c r="G58">
         <f ca="1"/>
-        <v>1644604658047.0203</v>
+        <v>1644604658047.0205</v>
       </c>
       <c r="H58">
         <f ca="1"/>
@@ -33011,7 +33011,7 @@
     <row r="59" spans="1:47">
       <c r="G59">
         <f ca="1"/>
-        <v>1799654708781.2542</v>
+        <v>1799654708781.2544</v>
       </c>
       <c r="H59">
         <f ca="1"/>
@@ -33019,7 +33019,7 @@
       </c>
       <c r="I59">
         <f ca="1"/>
-        <v>1308913205111.0288</v>
+        <v>1308913205111.0293</v>
       </c>
       <c r="AL59" s="30"/>
       <c r="AM59" s="30"/>
@@ -33033,7 +33033,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>59.725623146655153</v>
+        <v>59.725623146655145</v>
       </c>
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
@@ -33061,7 +33061,7 @@
       </c>
       <c r="B62">
         <f ca="1">ypr3/mpr3_</f>
-        <v>30.04611450232462</v>
+        <v>30.046114502324624</v>
       </c>
       <c r="AL62" s="30"/>
       <c r="AM62" s="30"/>
@@ -38336,14 +38336,14 @@
       </c>
       <c r="C4" s="21">
         <f ca="1">ypr1/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.60367371601208464</v>
+        <v>0.60367371601208442</v>
       </c>
       <c r="E4" s="46">
         <v>24977</v>
       </c>
       <c r="F4" s="46">
         <f ca="1">ye_1</f>
-        <v>24487.654004566451</v>
+        <v>24487.654004566437</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -38459,14 +38459,14 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">ypr2/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.22513595166163142</v>
+        <v>0.2251359516616315</v>
       </c>
       <c r="E5" s="46">
         <v>9315</v>
       </c>
       <c r="F5" s="46">
         <f ca="1">ye_2</f>
-        <v>9132.5017837425003</v>
+        <v>9132.5017837425039</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -38582,14 +38582,14 @@
       </c>
       <c r="C6" s="21">
         <f ca="1">ypr3/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.17119033232628394</v>
+        <v>0.17119033232628403</v>
       </c>
       <c r="E6" s="46">
         <v>7083</v>
       </c>
       <c r="F6" s="46">
         <f ca="1">ye_3</f>
-        <v>6944.2308249327025</v>
+        <v>6944.2308249327052</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -38704,7 +38704,7 @@
       </c>
       <c r="C7" s="22">
         <f ca="1">spr</f>
-        <v>0.26465786010982062</v>
+        <v>0.26465786010982051</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -38719,7 +38719,7 @@
       </c>
       <c r="M7" s="1">
         <f t="shared" ref="M7:AH7" ca="1" si="4">L7*EXP(-L8)</f>
-        <v>0.73755984497438776</v>
+        <v>0.73755984497438787</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -38735,79 +38735,79 @@
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34809491303599061</v>
+        <v>0.34809491303599066</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28666981637689481</v>
+        <v>0.28666981637689487</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23367420616045254</v>
+        <v>0.23367420616045259</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18995007177435666</v>
+        <v>0.18995007177435672</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1537175024192611</v>
+        <v>0.15371750241926116</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12271909263749578</v>
+        <v>0.12271909263749582</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5288835987713441E-2</v>
+        <v>9.5288835987713469E-2</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1286104490039345E-2</v>
+        <v>7.1286104490039373E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.166383247085727E-2</v>
+        <v>5.166383247085729E-2</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6774757093103141E-2</v>
+        <v>3.6774757093103162E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5915622362892524E-2</v>
+        <v>2.5915622362892538E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.818556458487789E-2</v>
+        <v>1.8185564584877901E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2739352522182201E-2</v>
+        <v>1.2739352522182208E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8.91813764714703E-3</v>
+        <v>8.9181376471470335E-3</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.2414619086870104E-3</v>
+        <v>6.241461908687013E-3</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3677134580143847E-3</v>
+        <v>4.3677134580143873E-3</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0563642027833984E-3</v>
+        <v>3.0563642027834001E-3</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1387003848620818E-3</v>
+        <v>2.1387003848620826E-3</v>
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>4.9843566083322419E-3</v>
+        <v>4.9843566083322454E-3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -38819,7 +38819,7 @@
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>292021.98613287788</v>
+        <v>292021.98613289004</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -38830,31 +38830,31 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" ref="L8:AI8" ca="1" si="5">M+f1_*flt1_ +f2_*flt2_ +f3_*flt3_</f>
-        <v>0.15407718613123414</v>
+        <v>0.15407718613123417</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17771778388825354</v>
+        <v>0.17771778388825357</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19498879870488017</v>
+        <v>0.1949887987048802</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19548341707276354</v>
+        <v>0.19548341707276357</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18268204978669478</v>
+        <v>0.18268204978669481</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1941440933168854</v>
+        <v>0.19414409331688545</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20440322401249245</v>
+        <v>0.2044032240124925</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -38862,7 +38862,7 @@
       </c>
       <c r="T8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21164473952595517</v>
+        <v>0.21164473952595522</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -38882,19 +38882,19 @@
       </c>
       <c r="Y8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33994631009620857</v>
+        <v>0.33994631009620863</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34996569434755992</v>
+        <v>0.34996569434755997</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3542178422078755</v>
+        <v>0.35421784220787556</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35593229827428224</v>
+        <v>0.3559322982742823</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -38902,7 +38902,7 @@
       </c>
       <c r="AD8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35687270566107804</v>
+        <v>0.35687270566107809</v>
       </c>
       <c r="AE8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -39029,7 +39029,7 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8572058540543589</v>
+        <v>0.85720585405435878</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -39045,7 +39045,7 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83303297664754294</v>
+        <v>0.83303297664754283</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -39053,7 +39053,7 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81513362346188867</v>
+        <v>0.81513362346188856</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -39081,7 +39081,7 @@
       </c>
       <c r="Y10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71180853866865545</v>
+        <v>0.71180853866865534</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -39134,7 +39134,7 @@
       </c>
       <c r="C11" s="17">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.28363576736936602</v>
+        <v>0.2836357673693658</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -39145,7 +39145,7 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" ref="L11:AI11" ca="1" si="7">1-sa</f>
-        <v>0.1427941459456411</v>
+        <v>0.14279414594564122</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -39161,7 +39161,7 @@
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16696702335245706</v>
+        <v>0.16696702335245717</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -39169,7 +39169,7 @@
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18486637653811133</v>
+        <v>0.18486637653811144</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -39197,7 +39197,7 @@
       </c>
       <c r="Y11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28819146133134455</v>
+        <v>0.28819146133134466</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -39250,7 +39250,7 @@
       </c>
       <c r="C12" s="17">
         <f ca="1">mpr2_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.55044115511719183</v>
+        <v>0.55044115511719205</v>
       </c>
       <c r="J12" t="s">
         <v>99</v>
@@ -39366,7 +39366,7 @@
       </c>
       <c r="C13" s="17">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.16592307751344207</v>
+        <v>0.16592307751344212</v>
       </c>
       <c r="J13" t="s">
         <v>100</v>
@@ -39481,7 +39481,7 @@
       </c>
       <c r="C14" s="28">
         <f ca="1">spr</f>
-        <v>0.26465786010982062</v>
+        <v>0.26465786010982051</v>
       </c>
       <c r="J14" t="s">
         <v>101</v>
@@ -39594,7 +39594,7 @@
       </c>
       <c r="C15" s="25">
         <f ca="1">CHOOSE(C25,SUMXMY2(B14,C14),SUMXMY2(B7,C7))</f>
-        <v>1.8317494830052891E-2</v>
+        <v>1.8317494830052922E-2</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -40089,31 +40089,31 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9360081360862381E-5</v>
+        <v>1.9360081360862391E-5</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.4883748448997301E-4</v>
+        <v>1.4883748448997299E-4</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>8.1743926359859704E-4</v>
+        <v>8.1743926359859693E-4</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>3.7387585920238726E-3</v>
+        <v>3.7387585920238722E-3</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5219713485545258E-2</v>
+        <v>1.5219713485545268E-2</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6150303576070495E-2</v>
+        <v>5.6150303576070482E-2</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0.19387515157597354</v>
+        <v>0.19387515157597363</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -40121,7 +40121,7 @@
       </c>
       <c r="T22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9339735053852367</v>
+        <v>1.9339735053852363</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -40141,19 +40141,19 @@
       </c>
       <c r="Y22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45.558638509206808</v>
+        <v>45.558638509206816</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>53.556587977115043</v>
+        <v>53.556587977115029</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>60.238187219548813</v>
+        <v>60.238187219548806</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>66.19875554723663</v>
+        <v>66.198755547236615</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -40161,7 +40161,7 @@
       </c>
       <c r="AD22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>77.034043493867273</v>
+        <v>77.034043493867259</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -40201,31 +40201,31 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>3.8923952920294554E-2</v>
+        <v>3.8923952920294574E-2</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>0.79988447549817576</v>
+        <v>0.79988447549817554</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>2.7516225537514747</v>
+        <v>2.7516225537514742</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>4.7388694670856868</v>
+        <v>4.7388694670856859</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>5.5451676078242498</v>
+        <v>5.5451676078242524</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>7.3404926125067638</v>
+        <v>7.340492612506762</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>9.1350700134265761</v>
+        <v>9.1350700134265779</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -40233,7 +40233,7 @@
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>12.478125060922169</v>
+        <v>12.478125060922165</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -40253,19 +40253,19 @@
       </c>
       <c r="Y23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>16.446358725668208</v>
+        <v>16.446358725668215</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>18.195855302916719</v>
+        <v>18.195855302916716</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>19.967268472056986</v>
+        <v>19.967268472056983</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>21.729556772310065</v>
+        <v>21.729556772310062</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -40273,7 +40273,7 @@
       </c>
       <c r="AD23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>25.151992639049222</v>
+        <v>25.151992639049215</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -40313,31 +40313,31 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>9.9326286214240734E-4</v>
+        <v>9.9326286214240778E-4</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0637117439866103E-2</v>
+        <v>1.0637117439866102E-2</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>8.0651598905731828E-2</v>
+        <v>8.0651598905731814E-2</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0.49186943898922891</v>
+        <v>0.4918694389892288</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0.2702216145783472</v>
+        <v>0.27022161457834731</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>5.9681734960742325</v>
+        <v>5.9681734960742308</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>14.408709040160071</v>
+        <v>14.408709040160074</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -40345,7 +40345,7 @@
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>23.266341244905384</v>
+        <v>23.266341244905377</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -40365,11 +40365,11 @@
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>28.042347196354278</v>
+        <v>28.042347196354285</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>31.025377741679009</v>
+        <v>31.025377741679002</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -40377,7 +40377,7 @@
       </c>
       <c r="AB24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>37.050619264493307</v>
+        <v>37.050619264493299</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -40385,7 +40385,7 @@
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>42.886144102132157</v>
+        <v>42.88614410213215</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -40443,15 +40443,15 @@
       </c>
       <c r="L26">
         <f t="shared" ref="L26:AI26" ca="1" si="20">qa1_/wa</f>
-        <v>4.161436940416291E-5</v>
+        <v>4.1614369404162931E-5</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="20"/>
-        <v>1.0553787522207281E-4</v>
+        <v>1.055378752220728E-4</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="20"/>
-        <v>2.684613275145134E-4</v>
+        <v>2.6846132751451334E-4</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="20"/>
@@ -40459,15 +40459,15 @@
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="20"/>
-        <v>1.774702897835771E-3</v>
+        <v>1.7747028978357723E-3</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="20"/>
-        <v>4.5142170202072205E-3</v>
+        <v>4.5142170202072196E-3</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="20"/>
-        <v>1.1435389428486946E-2</v>
+        <v>1.143538942848695E-2</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="20"/>
@@ -40475,7 +40475,7 @@
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="20"/>
-        <v>7.0063042202891543E-2</v>
+        <v>7.0063042202891529E-2</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="20"/>
@@ -40495,19 +40495,19 @@
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.76607092066293669</v>
+        <v>0.76607092066293681</v>
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.81013534835615775</v>
+        <v>0.81013534835615753</v>
       </c>
       <c r="AA26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.82870721895968291</v>
+        <v>0.8287072189596828</v>
       </c>
       <c r="AB26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.83617376821888512</v>
+        <v>0.83617376821888501</v>
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="20"/>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="AD26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.8402640371156771</v>
+        <v>0.84026403711567688</v>
       </c>
       <c r="AE26">
         <f t="shared" ca="1" si="20"/>
@@ -40545,7 +40545,7 @@
       </c>
       <c r="B27" s="27">
         <f ca="1">fbar*C27</f>
-        <v>0.17733080709272392</v>
+        <v>0.17733080709272395</v>
       </c>
       <c r="C27" s="35">
         <f ca="1">CHOOSE(C$25,E36,E39,1)</f>
@@ -40553,7 +40553,7 @@
       </c>
       <c r="E27" s="41">
         <f ca="1">f1_/(F4/(f1_*365*re*phib))</f>
-        <v>214.2870178070838</v>
+        <v>214.28701780708394</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
@@ -40564,31 +40564,31 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="21"/>
-        <v>8.3666784519299695E-2</v>
+        <v>8.3666784519299736E-2</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56718311423011702</v>
+        <v>0.56718311423011691</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.90368089287394027</v>
+        <v>0.90368089287394016</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.87238851060714739</v>
+        <v>0.87238851060714717</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.64659725900472065</v>
+        <v>0.64659725900472087</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.59014065067682331</v>
+        <v>0.5901406506768232</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.53881625474366468</v>
+        <v>0.53881625474366479</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="21"/>
@@ -40596,7 +40596,7 @@
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.4520513855654924</v>
+        <v>0.45205138556549229</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="21"/>
@@ -40616,19 +40616,19 @@
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27654639345685139</v>
+        <v>0.2765463934568515</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27524355324438543</v>
+        <v>0.27524355324438537</v>
       </c>
       <c r="AA27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27469318532762516</v>
+        <v>0.2746931853276251</v>
       </c>
       <c r="AB27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27447170596830306</v>
+        <v>0.274471705968303</v>
       </c>
       <c r="AC27">
         <f t="shared" ca="1" si="21"/>
@@ -40636,7 +40636,7 @@
       </c>
       <c r="AD27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27435032510105495</v>
+        <v>0.27435032510105484</v>
       </c>
       <c r="AE27">
         <f t="shared" ca="1" si="21"/>
@@ -40665,15 +40665,15 @@
       </c>
       <c r="B28" s="27">
         <f ca="1">fbar*C28</f>
-        <v>4.4375909939816209E-2</v>
+        <v>4.4375909939816174E-2</v>
       </c>
       <c r="C28" s="35">
         <f ca="1">CHOOSE(C$25,E37,E40,1)</f>
-        <v>0.53447463437514398</v>
+        <v>0.53447463437514409</v>
       </c>
       <c r="E28" s="41">
         <f ca="1">f2_/(F5/(f2_*365*re*phib))</f>
-        <v>35.981514314308669</v>
+        <v>35.981514314308605</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
@@ -40684,31 +40684,31 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="22"/>
-        <v>2.1350120844114617E-3</v>
+        <v>2.1350120844114626E-3</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="22"/>
-        <v>7.5425809360998228E-3</v>
+        <v>7.542580936099821E-3</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="22"/>
-        <v>2.6487393342330277E-2</v>
+        <v>2.648739334233027E-2</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="22"/>
-        <v>9.0549286126860876E-2</v>
+        <v>9.0549286126860848E-2</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="22"/>
-        <v>3.1509337078225091E-2</v>
+        <v>3.1509337078225105E-2</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.47981272868860525</v>
+        <v>0.47981272868860508</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.84987270259553049</v>
+        <v>0.84987270259553072</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="22"/>
@@ -40716,7 +40716,7 @@
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.84288158240511835</v>
+        <v>0.84288158240511812</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="22"/>
@@ -40736,11 +40736,11 @@
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.47153355405736114</v>
+        <v>0.47153355405736125</v>
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46931210807112456</v>
+        <v>0.46931210807112445</v>
       </c>
       <c r="AA28">
         <f t="shared" ca="1" si="22"/>
@@ -40748,7 +40748,7 @@
       </c>
       <c r="AB28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46799604719348586</v>
+        <v>0.46799604719348575</v>
       </c>
       <c r="AC28">
         <f t="shared" ca="1" si="22"/>
@@ -40756,7 +40756,7 @@
       </c>
       <c r="AD28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46778908317919299</v>
+        <v>0.46778908317919293</v>
       </c>
       <c r="AE28">
         <f t="shared" ca="1" si="22"/>
@@ -40785,15 +40785,15 @@
       </c>
       <c r="B29" s="27">
         <f ca="1">fbar*C29</f>
-        <v>2.7374757105308546E-2</v>
+        <v>2.7374757105308529E-2</v>
       </c>
       <c r="C29" s="35">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
-        <v>0.32970846828405925</v>
+        <v>0.32970846828405931</v>
       </c>
       <c r="E29" s="41">
         <f ca="1">f3_/(F6/(f3_*365*re*phib))</f>
-        <v>18.007402016540144</v>
+        <v>18.007402016540123</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -40831,7 +40831,7 @@
       </c>
       <c r="H31">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-8841.4247781274644</v>
+        <v>-8841.4247781274735</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>52</v>
@@ -40849,11 +40849,11 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.0874496700883634E-4</v>
+        <v>-1.0874496700883636E-4</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.395660871802451E-4</v>
+        <v>-2.3956608718024512E-4</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="23"/>
@@ -40873,67 +40873,67 @@
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="23"/>
-        <v>-9.9601492869383582E-3</v>
+        <v>-9.96014928693836E-3</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.9901388287291183E-2</v>
+        <v>-1.990138828729119E-2</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="23"/>
-        <v>-3.7273374588303966E-2</v>
+        <v>-3.727337458830398E-2</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="23"/>
-        <v>-6.1888585558558543E-2</v>
+        <v>-6.188858555855857E-2</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.6726747031121654E-2</v>
+        <v>-8.6726747031121695E-2</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.10229432730133589</v>
+        <v>-0.10229432730133593</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.10531941921003771</v>
+        <v>-0.10531941921003773</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="23"/>
-        <v>-9.8787764935441308E-2</v>
+        <v>-9.8787764935441336E-2</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.7099686265665152E-2</v>
+        <v>-8.709968626566518E-2</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="23"/>
-        <v>-7.3634106793823845E-2</v>
+        <v>-7.3634106793823872E-2</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="23"/>
-        <v>-6.0430486304834025E-2</v>
+        <v>-6.0430486304834052E-2</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.8524481948209082E-2</v>
+        <v>-4.8524481948209103E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="23"/>
-        <v>-3.8321918924664168E-2</v>
+        <v>-3.8321918924664182E-2</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.9871913945975111E-2</v>
+        <v>-2.9871913945975125E-2</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.3041509302971004E-2</v>
+        <v>-2.3041509302971018E-2</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-7.0300080422182498E-2</v>
+        <v>-7.0300080422182554E-2</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -40944,11 +40944,11 @@
       <c r="C32" s="11"/>
       <c r="G32">
         <f ca="1">SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-170.04456820852701</v>
+        <v>-170.04456820852698</v>
       </c>
       <c r="H32">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-22490.143682763803</v>
+        <v>-22490.143682763817</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -40966,11 +40966,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.44119165140935929</v>
+        <v>-0.44119165140935934</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.868213004333799</v>
+        <v>-0.86821300433379911</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="24"/>
@@ -40982,7 +40982,7 @@
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.1417900588825638</v>
+        <v>-1.1417900588825636</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="24"/>
@@ -41050,7 +41050,7 @@
       </c>
       <c r="AI32">
         <f ca="1">(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-5.1818311007088579E-2</v>
+        <v>-5.1818311007088586E-2</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -41059,18 +41059,18 @@
       </c>
       <c r="B33" s="59">
         <f ca="1">SUMPRODUCT(lz,wa)</f>
-        <v>60.499614666018871</v>
+        <v>60.499614666018886</v>
       </c>
       <c r="C33" s="58"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
       <c r="G33">
         <f ca="1">SUMPRODUCT(dlz3_,wa,ma)</f>
-        <v>-149.11236131531214</v>
+        <v>-149.11236131531211</v>
       </c>
       <c r="H33">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-19721.643955983738</v>
+        <v>-19721.643955983749</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -41088,7 +41088,7 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="25"/>
-        <v>-6.8623676153447494E-3</v>
+        <v>-6.8623676153447503E-3</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="25"/>
@@ -41096,7 +41096,7 @@
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.869678083879027E-2</v>
+        <v>-5.8696780838790263E-2</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="25"/>
@@ -41104,31 +41104,31 @@
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.20051654222613252</v>
+        <v>-0.20051654222613255</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.38257758389408625</v>
+        <v>-0.38257758389408636</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.49881156482393979</v>
+        <v>-0.49881156482393996</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.54198195089785595</v>
+        <v>-0.54198195089785617</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.52513335642849979</v>
+        <v>-0.52513335642850001</v>
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.46583259169849534</v>
+        <v>-0.46583259169849556</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.38670055389274627</v>
+        <v>-0.38670055389274638</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="25"/>
@@ -41148,15 +41148,15 @@
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.10278108578561568</v>
+        <v>-0.10278108578561569</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.6892925112455698E-2</v>
+        <v>-7.6892925112455712E-2</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.7280498041224946E-2</v>
+        <v>-5.7280498041224953E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="25"/>
@@ -41172,7 +41172,7 @@
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-6.3291415284531694E-2</v>
+        <v>-6.3291415284531707E-2</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -41194,7 +41194,7 @@
       </c>
       <c r="B35" s="1">
         <f ca="1">SUMPRODUCT(lz,wa,ma)</f>
-        <v>26.217357988882675</v>
+        <v>26.217357988882686</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="1">
@@ -41207,7 +41207,7 @@
       </c>
       <c r="I35" s="10">
         <f ca="1">SUM(dqa13_)</f>
-        <v>865.15569225310219</v>
+        <v>865.1556922531023</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>62</v>
@@ -41218,27 +41218,27 @@
       </c>
       <c r="L35">
         <f t="shared" ref="L35:AI35" ca="1" si="26">flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>5.0492711972962612E-10</v>
+        <v>5.0492711972962322E-10</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="26"/>
-        <v>1.100951592195027E-8</v>
+        <v>1.1009515921950273E-8</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="26"/>
-        <v>1.6939078083748607E-7</v>
+        <v>1.6939078083748623E-7</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="26"/>
-        <v>2.136740909002942E-6</v>
+        <v>2.1367409090029425E-6</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="26"/>
-        <v>2.3566086423250759E-5</v>
+        <v>2.3566086423250739E-5</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="26"/>
-        <v>2.3190759175318018E-4</v>
+        <v>2.3190759175318026E-4</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="26"/>
@@ -41270,19 +41270,19 @@
       </c>
       <c r="Y35">
         <f t="shared" ca="1" si="26"/>
-        <v>40.165536359444395</v>
+        <v>40.165536359444403</v>
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="26"/>
-        <v>50.531706018927693</v>
+        <v>50.531706018927679</v>
       </c>
       <c r="AA35">
         <f t="shared" ca="1" si="26"/>
-        <v>58.559023350193335</v>
+        <v>58.559023350193328</v>
       </c>
       <c r="AB35">
         <f t="shared" ca="1" si="26"/>
-        <v>65.225113479790465</v>
+        <v>65.225113479790451</v>
       </c>
       <c r="AC35">
         <f t="shared" ca="1" si="26"/>
@@ -41290,7 +41290,7 @@
       </c>
       <c r="AD35">
         <f t="shared" ca="1" si="26"/>
-        <v>76.641637095130207</v>
+        <v>76.641637095130193</v>
       </c>
       <c r="AE35">
         <f t="shared" ca="1" si="26"/>
@@ -41319,15 +41319,15 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">SUMPRODUCT(lz,ta1_)</f>
-        <v>0.3275754272408733</v>
+        <v>0.32757542724087346</v>
       </c>
       <c r="C36" s="28">
         <f ca="1">B11/(phi_t1/SUM(B$36:B$38))</f>
-        <v>4.1750065860662486</v>
+        <v>4.175006586066246</v>
       </c>
       <c r="E36" s="37">
         <f ca="1">C36/AVERAGE(C$36:C$38)</f>
-        <v>2.282189214557909</v>
+        <v>2.2821892145579086</v>
       </c>
       <c r="G36" s="1">
         <f ca="1">SUM(dqa21_)</f>
@@ -41339,7 +41339,7 @@
       </c>
       <c r="I36" s="10">
         <f ca="1">SUM(dqa23_)</f>
-        <v>862.96038765673063</v>
+        <v>862.96038765673075</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>63</v>
@@ -41350,23 +41350,23 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="27"/>
-        <v>2.0410245019781776E-3</v>
+        <v>2.0410245019781659E-3</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="27"/>
-        <v>0.31797876401714154</v>
+        <v>0.31797876401714165</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="27"/>
-        <v>1.919360278610859</v>
+        <v>1.9193602786108612</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="27"/>
-        <v>3.4327842505551374</v>
+        <v>3.4327842505551383</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="27"/>
-        <v>3.1282673912263874</v>
+        <v>3.1282673912263839</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="27"/>
@@ -41374,7 +41374,7 @@
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="27"/>
-        <v>4.6887837593406383</v>
+        <v>4.6887837593406374</v>
       </c>
       <c r="S36">
         <f t="shared" ca="1" si="27"/>
@@ -41402,19 +41402,19 @@
       </c>
       <c r="Y36">
         <f t="shared" ca="1" si="27"/>
-        <v>5.234215683415794</v>
+        <v>5.2342156834157967</v>
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="27"/>
-        <v>5.8328808932098442</v>
+        <v>5.8328808932098433</v>
       </c>
       <c r="AA36">
         <f t="shared" ca="1" si="27"/>
-        <v>6.4340932623799203</v>
+        <v>6.4340932623799194</v>
       </c>
       <c r="AB36">
         <f t="shared" ca="1" si="27"/>
-        <v>7.0277601088258219</v>
+        <v>7.027760108825821</v>
       </c>
       <c r="AC36">
         <f t="shared" ca="1" si="27"/>
@@ -41422,7 +41422,7 @@
       </c>
       <c r="AD36">
         <f t="shared" ca="1" si="27"/>
-        <v>8.1704161715872345</v>
+        <v>8.1704161715872328</v>
       </c>
       <c r="AE36">
         <f t="shared" ca="1" si="27"/>
@@ -41451,23 +41451,23 @@
       </c>
       <c r="B37" s="1">
         <f ca="1">SUMPRODUCT(lz,ta2_)</f>
-        <v>2.540376794941964</v>
+        <v>2.5403767949419636</v>
       </c>
       <c r="C37" s="28">
         <f ca="1">B12/(phi_t2/SUM(B$36:B$38))</f>
-        <v>0.85570564988588982</v>
+        <v>0.85570564988588971</v>
       </c>
       <c r="E37" s="37">
         <f ca="1">C37/AVERAGE(C$36:C$38)</f>
-        <v>0.46775547888317892</v>
+        <v>0.46775547888317909</v>
       </c>
       <c r="G37" s="1">
         <f ca="1">SUM(dqa31_)</f>
-        <v>865.15569225310219</v>
+        <v>865.1556922531023</v>
       </c>
       <c r="H37" s="1">
         <f ca="1">SUM(dqa32_)</f>
-        <v>862.96038765673063</v>
+        <v>862.96038765673075</v>
       </c>
       <c r="I37" s="1">
         <f ca="1">SUM(dqa33_)</f>
@@ -41482,31 +41482,31 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="28"/>
-        <v>1.3290543351448724E-6</v>
+        <v>1.3290543351448646E-6</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="28"/>
-        <v>5.6233030540588093E-5</v>
+        <v>5.6233030540588127E-5</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="28"/>
-        <v>1.648939589178349E-3</v>
+        <v>1.6489395891783505E-3</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="28"/>
-        <v>3.6982536624285703E-2</v>
+        <v>3.698253662428571E-2</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="28"/>
-        <v>7.4287318384967669E-3</v>
+        <v>7.4287318384967573E-3</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="28"/>
-        <v>2.619953770069499</v>
+        <v>2.6199537700694995</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="28"/>
-        <v>11.665049520621142</v>
+        <v>11.665049520621139</v>
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="28"/>
@@ -41534,11 +41534,11 @@
       </c>
       <c r="Y37">
         <f t="shared" ca="1" si="28"/>
-        <v>15.217412769932043</v>
+        <v>15.217412769932047</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="28"/>
-        <v>16.957909562469421</v>
+        <v>16.957909562469418</v>
       </c>
       <c r="AA37">
         <f t="shared" ca="1" si="28"/>
@@ -41546,7 +41546,7 @@
       </c>
       <c r="AB37">
         <f t="shared" ca="1" si="28"/>
-        <v>20.431776772766518</v>
+        <v>20.431776772766511</v>
       </c>
       <c r="AC37">
         <f t="shared" ca="1" si="28"/>
@@ -41554,7 +41554,7 @@
       </c>
       <c r="AD37">
         <f t="shared" ca="1" si="28"/>
-        <v>23.753815835122925</v>
+        <v>23.753815835122921</v>
       </c>
       <c r="AE37">
         <f t="shared" ca="1" si="28"/>
@@ -41583,15 +41583,15 @@
       </c>
       <c r="B38" s="1">
         <f ca="1">SUMPRODUCT(lz,ta3_)</f>
-        <v>1.2413408028844497</v>
+        <v>1.2413408028844499</v>
       </c>
       <c r="C38" s="28">
         <f ca="1">B13/(phi_t3/SUM(B$36:B$38))</f>
-        <v>0.45744785099534596</v>
+        <v>0.45744785099534591</v>
       </c>
       <c r="E38" s="37">
         <f ca="1">C38/AVERAGE(C$36:C$38)</f>
-        <v>0.25005530655891189</v>
+        <v>0.25005530655891206</v>
       </c>
       <c r="G38" t="s">
         <v>69</v>
@@ -41605,39 +41605,39 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="29"/>
-        <v>-7.3174716466439264E-7</v>
+        <v>-7.3174716466439963E-7</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="29"/>
-        <v>-3.2956837929809002E-5</v>
+        <v>-3.2956837929808955E-5</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="29"/>
-        <v>-2.4262659985416538E-4</v>
+        <v>-2.4262659985416473E-4</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="29"/>
-        <v>-8.796812593249826E-4</v>
+        <v>-8.796812593249813E-4</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="29"/>
-        <v>-2.1516203498859608E-3</v>
+        <v>-2.1516203498859756E-3</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="29"/>
-        <v>-5.8612244349712083E-3</v>
+        <v>-5.861224434971191E-3</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="29"/>
-        <v>-1.354064183943085E-2</v>
+        <v>-1.3540641839430908E-2</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="29"/>
-        <v>-1.890436117551289E-2</v>
+        <v>-1.8904361175512897E-2</v>
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="29"/>
-        <v>6.1462923049829893E-2</v>
+        <v>6.1462923049830059E-2</v>
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="29"/>
@@ -41657,19 +41657,19 @@
       </c>
       <c r="Y38">
         <f t="shared" ca="1" si="29"/>
-        <v>40.806672765953749</v>
+        <v>40.806672765953756</v>
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="29"/>
-        <v>51.119646416850614</v>
+        <v>51.1196464168506</v>
       </c>
       <c r="AA38">
         <f t="shared" ca="1" si="29"/>
-        <v>59.042308350111433</v>
+        <v>59.042308350111426</v>
       </c>
       <c r="AB38">
         <f t="shared" ca="1" si="29"/>
-        <v>65.603164915312874</v>
+        <v>65.60316491531286</v>
       </c>
       <c r="AC38">
         <f t="shared" ca="1" si="29"/>
@@ -41677,7 +41677,7 @@
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="29"/>
-        <v>76.859055118734631</v>
+        <v>76.859055118734616</v>
       </c>
       <c r="AE38">
         <f t="shared" ca="1" si="29"/>
@@ -41706,11 +41706,11 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>18.302347642941431</v>
+        <v>18.302347642941438</v>
       </c>
       <c r="C39" s="22">
         <f ca="1">B4/(phi_q1/SUM(B$39:B$41))</f>
-        <v>2.6122937050394333</v>
+        <v>2.6122937050394315</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="38">
@@ -41723,7 +41723,7 @@
       </c>
       <c r="H39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
-        <v>1225714.17202797</v>
+        <v>1225714.1720279697</v>
       </c>
       <c r="I39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
@@ -41738,47 +41738,47 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.7825616818208317E-8</v>
+        <v>-1.7825616818208492E-8</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="30"/>
-        <v>-4.2135337639052265E-7</v>
+        <v>-4.2135337639052201E-7</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="30"/>
-        <v>-6.87706037440306E-6</v>
+        <v>-6.8770603744030405E-6</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="30"/>
-        <v>-8.8767279896296081E-5</v>
+        <v>-8.8767279896295945E-5</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="30"/>
-        <v>-7.6738055150664847E-5</v>
+        <v>-7.6738055150665538E-5</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="30"/>
-        <v>-4.7133209998224236E-3</v>
+        <v>-4.7133209998224106E-3</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="30"/>
-        <v>-2.2772746318829137E-2</v>
+        <v>-2.2772746318829227E-2</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="30"/>
-        <v>-5.1008919371625439E-2</v>
+        <v>-5.1008919371625452E-2</v>
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.5381379991153382E-2</v>
+        <v>-1.5381379991153021E-2</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="30"/>
-        <v>0.61397244469027745</v>
+        <v>0.61397244469027723</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="30"/>
-        <v>3.9127967204578864</v>
+        <v>3.912796720457886</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="30"/>
@@ -41794,15 +41794,15 @@
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="30"/>
-        <v>50.906330855849504</v>
+        <v>50.90633085584949</v>
       </c>
       <c r="AA39">
         <f t="shared" ca="1" si="30"/>
-        <v>58.873354360514277</v>
+        <v>58.87335436051427</v>
       </c>
       <c r="AB39">
         <f t="shared" ca="1" si="30"/>
-        <v>65.47291409387995</v>
+        <v>65.472914093879936</v>
       </c>
       <c r="AC39">
         <f t="shared" ca="1" si="30"/>
@@ -41810,7 +41810,7 @@
       </c>
       <c r="AD39">
         <f t="shared" ca="1" si="30"/>
-        <v>76.78473800717336</v>
+        <v>76.784738007173345</v>
       </c>
       <c r="AE39">
         <f t="shared" ca="1" si="30"/>
@@ -41839,7 +41839,7 @@
       </c>
       <c r="B40" s="1">
         <f ca="1">SUMPRODUCT(lz,qa2_)</f>
-        <v>27.276353163440184</v>
+        <v>27.276353163440191</v>
       </c>
       <c r="C40" s="22">
         <f ca="1">B5/(phi_q2/SUM(B$39:B$41))</f>
@@ -41848,11 +41848,11 @@
       <c r="D40" s="20"/>
       <c r="E40" s="38">
         <f ca="1">C40/AVERAGE(C$39:C$41)</f>
-        <v>0.53447463437514398</v>
+        <v>0.53447463437514442</v>
       </c>
       <c r="G40" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
-        <v>1225714.17202797</v>
+        <v>1225714.1720279697</v>
       </c>
       <c r="H40" s="1">
         <f ca="1">re*phi_q2+f2_*phi_q2*$H32+f2_*re*H36</f>
@@ -41860,7 +41860,7 @@
       </c>
       <c r="I40" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
-        <v>413758.12242903525</v>
+        <v>413758.12242903508</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>65</v>
@@ -41871,39 +41871,39 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="31"/>
-        <v>-7.3174716466439275E-7</v>
+        <v>-7.3174716466439973E-7</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="31"/>
-        <v>-3.2956837929809002E-5</v>
+        <v>-3.2956837929808955E-5</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="31"/>
-        <v>-2.4262659985416538E-4</v>
+        <v>-2.4262659985416473E-4</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="31"/>
-        <v>-8.796812593249826E-4</v>
+        <v>-8.796812593249813E-4</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="31"/>
-        <v>-2.1516203498859608E-3</v>
+        <v>-2.1516203498859756E-3</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="31"/>
-        <v>-5.8612244349712083E-3</v>
+        <v>-5.861224434971191E-3</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.354064183943085E-2</v>
+        <v>-1.3540641839430908E-2</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.8904361175512883E-2</v>
+        <v>-1.890436117551289E-2</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="31"/>
-        <v>6.1462923049829893E-2</v>
+        <v>6.1462923049830059E-2</v>
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="31"/>
@@ -41923,19 +41923,19 @@
       </c>
       <c r="Y40">
         <f t="shared" ca="1" si="31"/>
-        <v>40.806672765953749</v>
+        <v>40.806672765953756</v>
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="31"/>
-        <v>51.119646416850614</v>
+        <v>51.1196464168506</v>
       </c>
       <c r="AA40">
         <f t="shared" ca="1" si="31"/>
-        <v>59.042308350111433</v>
+        <v>59.042308350111426</v>
       </c>
       <c r="AB40">
         <f t="shared" ca="1" si="31"/>
-        <v>65.603164915312874</v>
+        <v>65.60316491531286</v>
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="31"/>
@@ -41943,7 +41943,7 @@
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="31"/>
-        <v>76.859055118734631</v>
+        <v>76.859055118734616</v>
       </c>
       <c r="AE40">
         <f t="shared" ca="1" si="31"/>
@@ -41972,16 +41972,16 @@
       </c>
       <c r="B41" s="1">
         <f ca="1">SUMPRODUCT(lz,qa3_)</f>
-        <v>33.621546391629728</v>
+        <v>33.621546391629735</v>
       </c>
       <c r="C41" s="22">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
-        <v>0.40326273158949116</v>
+        <v>0.40326273158949122</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="38">
         <f ca="1">C41/AVERAGE(C$39:C$41)</f>
-        <v>0.32970846828405925</v>
+        <v>0.32970846828405942</v>
       </c>
       <c r="G41" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
@@ -41989,11 +41989,11 @@
       </c>
       <c r="H41" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>413758.1224290352</v>
+        <v>413758.12242903514</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>215476.29479817732</v>
+        <v>215476.29479817717</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
@@ -42004,31 +42004,31 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.7585788010074612E-5</v>
+        <v>-3.7585788010074965E-5</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="32"/>
-        <v>-2.3565674964096993E-3</v>
+        <v>-2.3565674964096963E-3</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="32"/>
-        <v>-2.3962032782169698E-2</v>
+        <v>-2.3962032782169636E-2</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.11610035625785747</v>
+        <v>-0.11610035625785731</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.8696544622904755E-2</v>
+        <v>-3.8696544622905019E-2</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.65234773709361427</v>
+        <v>-0.6523477370936126</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.1860648823210846</v>
+        <v>-1.1860648823210889</v>
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="32"/>
@@ -42036,11 +42036,11 @@
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.91892942042081893</v>
+        <v>-0.91892942042081649</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="32"/>
-        <v>8.0547923833627744E-2</v>
+        <v>8.0547923833627411E-2</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="32"/>
@@ -42052,7 +42052,7 @@
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="32"/>
-        <v>27.506589258447008</v>
+        <v>27.506589258447004</v>
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="32"/>
@@ -42060,15 +42060,15 @@
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="32"/>
-        <v>51.24692523693566</v>
+        <v>51.246925236935645</v>
       </c>
       <c r="AA41">
         <f t="shared" ca="1" si="32"/>
-        <v>59.146500258299106</v>
+        <v>59.146500258299099</v>
       </c>
       <c r="AB41">
         <f t="shared" ca="1" si="32"/>
-        <v>65.684504775368538</v>
+        <v>65.684504775368524</v>
       </c>
       <c r="AC41">
         <f t="shared" ca="1" si="32"/>
@@ -42076,7 +42076,7 @@
       </c>
       <c r="AD41">
         <f t="shared" ca="1" si="32"/>
-        <v>76.905778267658235</v>
+        <v>76.905778267658221</v>
       </c>
       <c r="AE41">
         <f t="shared" ca="1" si="32"/>
@@ -42105,7 +42105,7 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">SUMPRODUCT(lz/SUM(lz),len,ta1_)</f>
-        <v>7.5104350330022234</v>
+        <v>7.5104350330022269</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
@@ -42116,47 +42116,47 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.7825616818208314E-8</v>
+        <v>-1.7825616818208492E-8</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="33"/>
-        <v>-4.2135337639052265E-7</v>
+        <v>-4.2135337639052201E-7</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="33"/>
-        <v>-6.8770603744030626E-6</v>
+        <v>-6.8770603744030431E-6</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="33"/>
-        <v>-8.8767279896296067E-5</v>
+        <v>-8.8767279896295945E-5</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="33"/>
-        <v>-7.6738055150664847E-5</v>
+        <v>-7.6738055150665538E-5</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="33"/>
-        <v>-4.7133209998224236E-3</v>
+        <v>-4.7133209998224098E-3</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="33"/>
-        <v>-2.2772746318829137E-2</v>
+        <v>-2.2772746318829227E-2</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="33"/>
-        <v>-5.1008919371625439E-2</v>
+        <v>-5.1008919371625452E-2</v>
       </c>
       <c r="T42">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.5381379991153382E-2</v>
+        <v>-1.5381379991153021E-2</v>
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="33"/>
-        <v>0.61397244469027745</v>
+        <v>0.61397244469027734</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="33"/>
-        <v>3.9127967204578864</v>
+        <v>3.912796720457886</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="33"/>
@@ -42172,15 +42172,15 @@
       </c>
       <c r="Z42">
         <f t="shared" ca="1" si="33"/>
-        <v>50.906330855849504</v>
+        <v>50.90633085584949</v>
       </c>
       <c r="AA42">
         <f t="shared" ca="1" si="33"/>
-        <v>58.873354360514277</v>
+        <v>58.87335436051427</v>
       </c>
       <c r="AB42">
         <f t="shared" ca="1" si="33"/>
-        <v>65.47291409387995</v>
+        <v>65.472914093879936</v>
       </c>
       <c r="AC42">
         <f t="shared" ca="1" si="33"/>
@@ -42188,7 +42188,7 @@
       </c>
       <c r="AD42">
         <f t="shared" ca="1" si="33"/>
-        <v>76.78473800717336</v>
+        <v>76.784738007173345</v>
       </c>
       <c r="AE42">
         <f t="shared" ca="1" si="33"/>
@@ -42223,31 +42223,31 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="34"/>
-        <v>-3.7585788010074606E-5</v>
+        <v>-3.7585788010074958E-5</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="34"/>
-        <v>-2.3565674964096993E-3</v>
+        <v>-2.3565674964096959E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="34"/>
-        <v>-2.3962032782169702E-2</v>
+        <v>-2.3962032782169636E-2</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="34"/>
-        <v>-0.11610035625785747</v>
+        <v>-0.11610035625785731</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="34"/>
-        <v>-3.8696544622904755E-2</v>
+        <v>-3.8696544622905019E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="34"/>
-        <v>-0.65234773709361427</v>
+        <v>-0.65234773709361249</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.1860648823210846</v>
+        <v>-1.1860648823210889</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="34"/>
@@ -42255,11 +42255,11 @@
       </c>
       <c r="T43">
         <f t="shared" ca="1" si="34"/>
-        <v>-0.91892942042081893</v>
+        <v>-0.91892942042081649</v>
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="34"/>
-        <v>8.0547923833627744E-2</v>
+        <v>8.0547923833627522E-2</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="34"/>
@@ -42271,7 +42271,7 @@
       </c>
       <c r="X43">
         <f t="shared" ca="1" si="34"/>
-        <v>27.506589258447008</v>
+        <v>27.506589258447004</v>
       </c>
       <c r="Y43">
         <f t="shared" ca="1" si="34"/>
@@ -42279,15 +42279,15 @@
       </c>
       <c r="Z43">
         <f t="shared" ca="1" si="34"/>
-        <v>51.24692523693566</v>
+        <v>51.246925236935645</v>
       </c>
       <c r="AA43">
         <f t="shared" ca="1" si="34"/>
-        <v>59.146500258299106</v>
+        <v>59.146500258299099</v>
       </c>
       <c r="AB43">
         <f t="shared" ca="1" si="34"/>
-        <v>65.684504775368538</v>
+        <v>65.684504775368524</v>
       </c>
       <c r="AC43">
         <f t="shared" ca="1" si="34"/>
@@ -42295,7 +42295,7 @@
       </c>
       <c r="AD43">
         <f t="shared" ca="1" si="34"/>
-        <v>76.905778267658235</v>
+        <v>76.905778267658221</v>
       </c>
       <c r="AE43">
         <f t="shared" ca="1" si="34"/>
@@ -42334,7 +42334,7 @@
       </c>
       <c r="B46" s="1">
         <f ca="1">phif/phie</f>
-        <v>0.26465786010982051</v>
+        <v>0.26465786010982062</v>
       </c>
       <c r="G46" s="31" t="s">
         <v>93</v>
@@ -42350,7 +42350,7 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.6657864082089775E-5</v>
+        <v>1.6657864082089781E-5</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="35"/>
@@ -42358,15 +42358,15 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="35"/>
-        <v>5.0474369838985104E-4</v>
+        <v>5.0474369838985093E-4</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.8995917565930718E-3</v>
+        <v>1.8995917565930716E-3</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="35"/>
-        <v>6.3597780528502649E-3</v>
+        <v>6.3597780528502693E-3</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="35"/>
@@ -42374,11 +42374,11 @@
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="35"/>
-        <v>5.5578154102326985E-2</v>
+        <v>5.557815410232702E-2</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.14796333818609361</v>
+        <v>0.14796333818609364</v>
       </c>
       <c r="T46">
         <f t="shared" ca="1" si="35"/>
@@ -42386,63 +42386,63 @@
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.8211305371759684</v>
+        <v>0.82113053717596873</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.5398095639518412</v>
+        <v>1.5398095639518419</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="35"/>
-        <v>2.2468683359635047</v>
+        <v>2.2468683359635051</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="35"/>
-        <v>2.527995684175476</v>
+        <v>2.5279956841754769</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="35"/>
-        <v>2.353733867540007</v>
+        <v>2.3537338675400084</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.9695305135938139</v>
+        <v>1.9695305135938144</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.5611101118070458</v>
+        <v>1.5611101118070465</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.2038617444428152</v>
+        <v>1.2038617444428157</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.91406853768437391</v>
+        <v>0.91406853768437435</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.68700020339461942</v>
+        <v>0.68700020339461965</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.51241503127779275</v>
+        <v>0.51241503127779298</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.37982104682394863</v>
+        <v>0.37982104682394885</v>
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.28003529985470493</v>
+        <v>0.2800352998547051</v>
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.20549555883757606</v>
+        <v>0.20549555883757614</v>
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.50013437886627909</v>
+        <v>0.50013437886627943</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -42451,7 +42451,7 @@
       </c>
       <c r="B47" s="10">
         <f ca="1">MAX(0,Ro*(reck-1/spr)/(reck-1))</f>
-        <v>7544.9469297836331</v>
+        <v>7544.946929783634</v>
       </c>
       <c r="F47" t="s">
         <v>83</v>
@@ -42466,7 +42466,7 @@
       </c>
       <c r="I47" s="30">
         <f ca="1">I53/I39</f>
-        <v>0.42393294770181855</v>
+        <v>0.4239329477018185</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
@@ -42477,23 +42477,23 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="36"/>
-        <v>3.3491073988701769E-2</v>
+        <v>3.3491073988701783E-2</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.58996266974585398</v>
+        <v>0.58996266974585387</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="36"/>
-        <v>1.6990426153978417</v>
+        <v>1.6990426153978415</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.407728970372927</v>
+        <v>2.4077289703729265</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.3171287215827268</v>
+        <v>2.3171287215827276</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="36"/>
@@ -42501,11 +42501,11 @@
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.6187488433390747</v>
+        <v>2.6187488433390755</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.5427436758906512</v>
+        <v>2.5427436758906516</v>
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="36"/>
@@ -42513,63 +42513,63 @@
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.1253496873916706</v>
+        <v>2.1253496873916711</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="36"/>
-        <v>1.8221206788336464</v>
+        <v>1.822120678833647</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="36"/>
-        <v>1.4820884229864273</v>
+        <v>1.4820884229864277</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="36"/>
-        <v>1.1447587360739462</v>
+        <v>1.1447587360739466</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.84968192195854397</v>
+        <v>0.84968192195854464</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.66914815886601497</v>
+        <v>0.66914815886601531</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.5174641893403189</v>
+        <v>0.51746418934031901</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.39516425808361544</v>
+        <v>0.3951642580836156</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.29889326761431689</v>
+        <v>0.29889326761431706</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.22430893245506986</v>
+        <v>0.22430893245506989</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.16720966479758603</v>
+        <v>0.16720966479758612</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.12391489300872857</v>
+        <v>0.12391489300872864</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="36"/>
-        <v>9.1352982797829482E-2</v>
+        <v>9.1352982797829524E-2</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="36"/>
-        <v>6.7034975487403572E-2</v>
+        <v>6.70349754874036E-2</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.16314883638627684</v>
+        <v>0.16314883638627697</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -42578,11 +42578,11 @@
       </c>
       <c r="B48" s="1">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>24487.654004566437</v>
+        <v>24487.654004566455</v>
       </c>
       <c r="C48" s="19">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.60367371601208442</v>
+        <v>0.60367371601208464</v>
       </c>
       <c r="F48" t="s">
         <v>84</v>
@@ -42593,11 +42593,11 @@
       </c>
       <c r="H48" s="30">
         <f t="shared" ref="H48:I49" ca="1" si="37">H40/H54</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="I48" s="30">
         <f ca="1">I54/I40</f>
-        <v>0.53282875918410288</v>
+        <v>0.532828759184103</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
@@ -42608,7 +42608,7 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="38"/>
-        <v>8.5462645775878491E-4</v>
+        <v>8.5462645775878534E-4</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="38"/>
@@ -42616,27 +42616,27 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="38"/>
-        <v>4.9799891105700267E-2</v>
+        <v>4.9799891105700253E-2</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.2499094575448941</v>
+        <v>0.24990945754489405</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11291602141087004</v>
+        <v>0.11291602141087008</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="38"/>
-        <v>2.0774908340996641</v>
+        <v>2.0774908340996636</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="38"/>
-        <v>4.1305419747707921</v>
+        <v>4.1305419747707939</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="38"/>
-        <v>4.6334402474106939</v>
+        <v>4.6334402474106948</v>
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="38"/>
@@ -42644,63 +42644,63 @@
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="38"/>
-        <v>3.9247884788066485</v>
+        <v>3.9247884788066498</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="38"/>
-        <v>3.3046343060073928</v>
+        <v>3.3046343060073937</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="38"/>
-        <v>2.6342682410901181</v>
+        <v>2.634268241090119</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.9930041668333665</v>
+        <v>1.9930041668333673</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.4487751276420615</v>
+        <v>1.4487751276420624</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.1409507301720145</v>
+        <v>1.1409507301720148</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.88231752093025428</v>
+        <v>0.88231752093025473</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.67378642954416401</v>
+        <v>0.67378642954416423</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.50963674846834306</v>
+        <v>0.50963674846834339</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.38246453625819737</v>
+        <v>0.38246453625819743</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.28510575216395906</v>
+        <v>0.28510575216395917</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.21128472937456724</v>
+        <v>0.21128472937456738</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.15576408758743227</v>
+        <v>0.15576408758743238</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11429995467525553</v>
+        <v>0.11429995467525557</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.27818171736001029</v>
+        <v>0.27818171736001046</v>
       </c>
     </row>
     <row r="49" spans="1:47">
@@ -42709,26 +42709,26 @@
       </c>
       <c r="B49" s="1">
         <f ca="1">f2_*re*phi_q2</f>
-        <v>9132.5017837425039</v>
+        <v>9132.5017837425003</v>
       </c>
       <c r="C49" s="19">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.22513595166163153</v>
+        <v>0.22513595166163136</v>
       </c>
       <c r="F49" t="s">
         <v>85</v>
       </c>
       <c r="G49" s="30">
         <f ca="1">G41/G55</f>
-        <v>2.3588636019471867</v>
+        <v>2.3588636019471871</v>
       </c>
       <c r="H49" s="30">
         <f t="shared" ca="1" si="37"/>
-        <v>1.8767755733216345</v>
+        <v>1.8767755733216347</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" ca="1" si="37"/>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AL49" s="30"/>
       <c r="AM49" s="30"/>
@@ -42744,11 +42744,11 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>6944.2308249327052</v>
+        <v>6944.2308249327025</v>
       </c>
       <c r="C50" s="19">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.17119033232628406</v>
+        <v>0.17119033232628392</v>
       </c>
       <c r="AL50" s="30"/>
       <c r="AM50" s="30"/>
@@ -42764,7 +42764,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>40564.386613241644</v>
+        <v>40564.386613241659</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -42790,7 +42790,7 @@
       </c>
       <c r="I52" s="10">
         <f ca="1">I41^0.5</f>
-        <v>464.19424253019048</v>
+        <v>464.19424253019037</v>
       </c>
       <c r="AL52" s="30"/>
       <c r="AM52" s="30"/>
@@ -42806,7 +42806,7 @@
       </c>
       <c r="B53" s="34">
         <f ca="1">f1_*phi_q1</f>
-        <v>3.2455700792144171</v>
+        <v>3.2455700792144189</v>
       </c>
       <c r="C53">
         <f ca="1">AVERAGE(B53:B55)/B53</f>
@@ -42822,7 +42822,7 @@
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="39"/>
-        <v>522123.72261373641</v>
+        <v>522123.72261373629</v>
       </c>
       <c r="J53">
         <f t="array" aca="1" ref="J53:J55" ca="1">TRANSPOSE(G52:I52)</f>
@@ -42840,11 +42840,11 @@
       </c>
       <c r="B54" s="34">
         <f ca="1">f2_*phi_q2</f>
-        <v>1.2104129914674426</v>
+        <v>1.210412991467442</v>
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
-        <v>1.4805868670602966</v>
+        <v>1.4805868670602975</v>
       </c>
       <c r="G54">
         <f t="shared" ref="G54:I55" ca="1" si="40">G$52*$J54</f>
@@ -42856,7 +42856,7 @@
       </c>
       <c r="I54">
         <f ca="1">I$52*$J54</f>
-        <v>220462.22697620699</v>
+        <v>220462.22697620693</v>
       </c>
       <c r="J54">
         <f ca="1"/>
@@ -42875,27 +42875,27 @@
       </c>
       <c r="B55" s="34">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.92038166597572679</v>
+        <v>0.92038166597572646</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471504541390181</v>
+        <v>1.9471504541390188</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="40"/>
-        <v>522123.72261373641</v>
+        <v>522123.72261373629</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="40"/>
-        <v>220462.22697620699</v>
+        <v>220462.22697620693</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="40"/>
-        <v>215476.29479817729</v>
+        <v>215476.2947981772</v>
       </c>
       <c r="J55">
         <f ca="1"/>
-        <v>464.19424253019048</v>
+        <v>464.19424253019037</v>
       </c>
       <c r="S55" s="32"/>
       <c r="AL55" s="30"/>
@@ -42911,11 +42911,11 @@
       </c>
       <c r="B56" s="33">
         <f ca="1">phi_t1*f1_</f>
-        <v>5.8089214896367924E-2</v>
+        <v>5.8089214896367959E-2</v>
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.1752161457805441</v>
+        <v>1.1752161457805443</v>
       </c>
       <c r="AL56" s="30"/>
       <c r="AM56" s="30"/>
@@ -42930,11 +42930,11 @@
       </c>
       <c r="B57" s="33">
         <f ca="1">phi_t2*f2_</f>
-        <v>0.11273153186554355</v>
+        <v>0.11273153186554344</v>
       </c>
       <c r="C57">
         <f ca="1">AVERAGE(B56:B58)/B57</f>
-        <v>0.60557487432487622</v>
+        <v>0.60557487432487667</v>
       </c>
       <c r="G57">
         <f t="array" aca="1" ref="G57:I59" ca="1">MMULT($G$52:$I$52,TRANSPOSE($G$52:$I$52))</f>
@@ -42961,11 +42961,11 @@
       </c>
       <c r="B58" s="33">
         <f ca="1">phi_t3*f3_</f>
-        <v>3.3981402963870505E-2</v>
+        <v>3.3981402963870491E-2</v>
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>2.0089630588386873</v>
+        <v>2.0089630588386869</v>
       </c>
       <c r="G58">
         <f ca="1"/>
@@ -43010,7 +43010,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>55.872162930839494</v>
+        <v>55.872162930839487</v>
       </c>
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
@@ -43024,7 +43024,7 @@
       </c>
       <c r="B61">
         <f ca="1">ypr2/mpr2_</f>
-        <v>10.737128924240281</v>
+        <v>10.737128924240286</v>
       </c>
       <c r="AL61" s="30"/>
       <c r="AM61" s="30"/>
@@ -43038,7 +43038,7 @@
       </c>
       <c r="B62">
         <f ca="1">ypr3/mpr3_</f>
-        <v>27.084863651871267</v>
+        <v>27.08486365187127</v>
       </c>
       <c r="AL62" s="30"/>
       <c r="AM62" s="30"/>

--- a/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
+++ b/src/dashboard/data/harvestPolicy/SPRbasedPSC.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260" tabRatio="623" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2480" windowWidth="51200" windowHeight="28260" tabRatio="623" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="6" r:id="rId1"/>
@@ -1246,7 +1246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="173">
   <si>
     <t>SPR Based PSC Caps</t>
   </si>
@@ -1762,6 +1762,9 @@
   </si>
   <si>
     <t>Option 3: fixed PSC Limit</t>
+  </si>
+  <si>
+    <t># recruits</t>
   </si>
 </sst>
 </file>
@@ -3564,7 +3567,7 @@
                   <c:v>22.18513399199464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.48765400456645</c:v>
+                  <c:v>24.48765400456643</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.15918775557973</c:v>
@@ -3615,13 +3618,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531395</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.273792814806826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1325017837425</c:v>
+                  <c:v>9.132501783742496</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.38294566774333</c:v>
@@ -3672,10 +3675,10 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.291280140341038</c:v>
+                  <c:v>6.291280140341036</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.944230824932703</c:v>
@@ -3696,11 +3699,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2138686840"/>
-        <c:axId val="2138689816"/>
+        <c:axId val="2119420360"/>
+        <c:axId val="2119423384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138686840"/>
+        <c:axId val="2119420360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3709,7 +3712,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138689816"/>
+        <c:crossAx val="2119423384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3717,7 +3720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138689816"/>
+        <c:axId val="2119423384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3731,7 +3734,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138686840"/>
+        <c:crossAx val="2119420360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3823,7 +3826,7 @@
                   <c:v>22.18513399199464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.48765400456645</c:v>
+                  <c:v>24.48765400456643</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.15918775557973</c:v>
@@ -3874,13 +3877,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531395</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.273792814806826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1325017837425</c:v>
+                  <c:v>9.132501783742496</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.38294566774333</c:v>
@@ -3931,10 +3934,10 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.291280140341038</c:v>
+                  <c:v>6.291280140341036</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.944230824932703</c:v>
@@ -3955,11 +3958,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2138769016"/>
-        <c:axId val="2138771992"/>
+        <c:axId val="2119500936"/>
+        <c:axId val="2119503912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138769016"/>
+        <c:axId val="2119500936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3968,7 +3971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138771992"/>
+        <c:crossAx val="2119503912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3976,7 +3979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138771992"/>
+        <c:axId val="2119503912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,7 +3990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138769016"/>
+        <c:crossAx val="2119500936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4089,7 +4092,7 @@
                   <c:v>22.18513399199464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.48765400456645</c:v>
+                  <c:v>24.48765400456643</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.15918775557973</c:v>
@@ -4158,13 +4161,13 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531395</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.273792814806826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1325017837425</c:v>
+                  <c:v>9.132501783742496</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.38294566774333</c:v>
@@ -4233,10 +4236,10 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.638231415531393</c:v>
+                  <c:v>9.638231415531395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.291280140341038</c:v>
+                  <c:v>6.291280140341036</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.944230824932703</c:v>
@@ -4267,11 +4270,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="2138803624"/>
-        <c:axId val="2138806600"/>
+        <c:axId val="2119535560"/>
+        <c:axId val="2119538536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138803624"/>
+        <c:axId val="2119535560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4280,7 +4283,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138806600"/>
+        <c:crossAx val="2119538536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4288,7 +4291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138806600"/>
+        <c:axId val="2119538536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4302,7 +4305,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138803624"/>
+        <c:crossAx val="2119535560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4827,11 +4830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138175320"/>
-        <c:axId val="2138172184"/>
+        <c:axId val="2119856904"/>
+        <c:axId val="2119860024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138175320"/>
+        <c:axId val="2119856904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4840,7 +4843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138172184"/>
+        <c:crossAx val="2119860024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4848,7 +4851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138172184"/>
+        <c:axId val="2119860024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4859,7 +4862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138175320"/>
+        <c:crossAx val="2119856904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5764,11 +5767,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107584728"/>
-        <c:axId val="2107587864"/>
+        <c:axId val="2119914744"/>
+        <c:axId val="2119917880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107584728"/>
+        <c:axId val="2119914744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5778,12 +5781,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107587864"/>
+        <c:crossAx val="2119917880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107587864"/>
+        <c:axId val="2119917880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5794,7 +5797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107584728"/>
+        <c:crossAx val="2119914744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6486,11 +6489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2106590312"/>
-        <c:axId val="-2111696984"/>
+        <c:axId val="2119952728"/>
+        <c:axId val="2119955800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2106590312"/>
+        <c:axId val="2119952728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6500,12 +6503,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111696984"/>
+        <c:crossAx val="2119955800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111696984"/>
+        <c:axId val="2119955800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6516,7 +6519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106590312"/>
+        <c:crossAx val="2119952728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7850,11 +7853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111645912"/>
-        <c:axId val="-2111642696"/>
+        <c:axId val="2120006168"/>
+        <c:axId val="2120009384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111645912"/>
+        <c:axId val="2120006168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7864,12 +7867,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111642696"/>
+        <c:crossAx val="2120009384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111642696"/>
+        <c:axId val="2120009384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7880,7 +7883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111645912"/>
+        <c:crossAx val="2120006168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8469,7 +8472,7 @@
       </c>
       <c r="C5" s="113">
         <f ca="1">'Status Quo'!ye_1/1000</f>
-        <v>25.844008932292326</v>
+        <v>25.844008932292333</v>
       </c>
       <c r="D5" s="115">
         <f ca="1">'Excluders (1)'!ye_1/1000</f>
@@ -8477,7 +8480,7 @@
       </c>
       <c r="E5" s="115">
         <f ca="1">'No Size Limit (1)'!ye_1/1000</f>
-        <v>24.487654004566451</v>
+        <v>24.487654004566433</v>
       </c>
       <c r="F5" s="115">
         <f ca="1">'Reduce DMR (1)'!ye_1/1000</f>
@@ -8502,7 +8505,7 @@
       </c>
       <c r="C6" s="113">
         <f ca="1">'Status Quo'!ye_2/1000</f>
-        <v>9.6382314155313935</v>
+        <v>9.6382314155313953</v>
       </c>
       <c r="D6" s="115">
         <f ca="1">'Excluders (1)'!ye_2/1000</f>
@@ -8510,7 +8513,7 @@
       </c>
       <c r="E6" s="115">
         <f ca="1">'No Size Limit (1)'!ye_2/1000</f>
-        <v>9.1325017837424998</v>
+        <v>9.1325017837424962</v>
       </c>
       <c r="F6" s="115">
         <f ca="1">'Reduce DMR (1)'!ye_2/1000</f>
@@ -8535,11 +8538,11 @@
       </c>
       <c r="C7" s="114">
         <f ca="1">'Status Quo'!ye_2/1000</f>
-        <v>9.6382314155313935</v>
+        <v>9.6382314155313953</v>
       </c>
       <c r="D7" s="116">
         <f ca="1">'Excluders (1)'!ye_3/1000</f>
-        <v>6.2912801403410388</v>
+        <v>6.291280140341037</v>
       </c>
       <c r="E7" s="116">
         <f ca="1">'No Size Limit (1)'!ye_3/1000</f>
@@ -8568,7 +8571,7 @@
       </c>
       <c r="C8" s="62">
         <f ca="1">SUM(C5:C7)</f>
-        <v>45.120471763355113</v>
+        <v>45.12047176335512</v>
       </c>
       <c r="D8" s="74">
         <f ca="1">SUM(D5:D7)</f>
@@ -8576,7 +8579,7 @@
       </c>
       <c r="E8" s="74">
         <f ca="1">SUM(E5:E7)</f>
-        <v>40.564386613241652</v>
+        <v>40.564386613241631</v>
       </c>
       <c r="F8" s="74">
         <f ca="1">SUM(F5:F7)</f>
@@ -8647,7 +8650,7 @@
       </c>
       <c r="D11" s="75">
         <f ca="1">'Excluders (1)'!E27/10</f>
-        <v>13.771284947495314</v>
+        <v>13.771284947495317</v>
       </c>
       <c r="E11" s="75">
         <f ca="1">'No Size Limit (1)'!$E27/10</f>
@@ -8676,7 +8679,7 @@
       </c>
       <c r="C12" s="65">
         <f ca="1">'Status Quo'!E28</f>
-        <v>39.461917558212193</v>
+        <v>39.461917558212207</v>
       </c>
       <c r="D12" s="75">
         <f ca="1">'Excluders (1)'!E28</f>
@@ -8684,7 +8687,7 @@
       </c>
       <c r="E12" s="75">
         <f ca="1">'No Size Limit (1)'!$E28</f>
-        <v>35.981514314308605</v>
+        <v>35.981514314308633</v>
       </c>
       <c r="F12" s="75">
         <f ca="1">'Reduce DMR (1)'!$E28</f>
@@ -8713,11 +8716,11 @@
       </c>
       <c r="D13" s="76">
         <f ca="1">'Excluders (1)'!E29</f>
-        <v>16.029056510573863</v>
+        <v>16.029056510573859</v>
       </c>
       <c r="E13" s="76">
         <f ca="1">'No Size Limit (1)'!$E29</f>
-        <v>18.007402016540116</v>
+        <v>18.00740201654013</v>
       </c>
       <c r="F13" s="75">
         <f ca="1">'Reduce DMR (1)'!$E29</f>
@@ -8742,15 +8745,15 @@
       </c>
       <c r="C14" s="69">
         <f ca="1">SUM(C11:C13)</f>
-        <v>82.985025230678701</v>
+        <v>82.98502523067873</v>
       </c>
       <c r="D14" s="77">
         <f ca="1">SUM(D11:D13)</f>
-        <v>231.03472377910751</v>
+        <v>231.03472377910754</v>
       </c>
       <c r="E14" s="77">
         <f ca="1">SUM(E11:E13)</f>
-        <v>75.417618111557104</v>
+        <v>75.417618111557147</v>
       </c>
       <c r="F14" s="105">
         <f ca="1">SUM(F11:F13)</f>
@@ -8817,15 +8820,15 @@
       </c>
       <c r="C17" s="65">
         <f ca="1">C5/C11</f>
-        <v>2.0273894254909148</v>
+        <v>2.0273894254909153</v>
       </c>
       <c r="D17" s="75">
         <f t="shared" ref="D17:F17" ca="1" si="0">D5/D11</f>
-        <v>1.6109705141225485</v>
+        <v>1.6109705141225481</v>
       </c>
       <c r="E17" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1427502354161256</v>
+        <v>1.1427502354161247</v>
       </c>
       <c r="F17" s="75">
         <f t="shared" ca="1" si="0"/>
@@ -8850,7 +8853,7 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:F19" ca="1" si="2">C6/C12</f>
-        <v>0.24424133473274759</v>
+        <v>0.24424133473274753</v>
       </c>
       <c r="D18" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8858,7 +8861,7 @@
       </c>
       <c r="E18" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25381093480300854</v>
+        <v>0.25381093480300826</v>
       </c>
       <c r="F18" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8883,7 +8886,7 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31317692363683419</v>
+        <v>0.31317692363683425</v>
       </c>
       <c r="D19" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8891,7 +8894,7 @@
       </c>
       <c r="E19" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38563202057433404</v>
+        <v>0.38563202057433377</v>
       </c>
       <c r="F19" s="75">
         <f t="shared" ca="1" si="2"/>
@@ -8916,15 +8919,15 @@
       </c>
       <c r="C20" s="111">
         <f ca="1">AVERAGE(C17:C19)</f>
-        <v>0.8616025612868321</v>
+        <v>0.86160256128683221</v>
       </c>
       <c r="D20" s="105">
         <f t="shared" ref="D20:F20" ca="1" si="5">AVERAGE(D17:D19)</f>
-        <v>0.6815259830479935</v>
+        <v>0.68152598304799339</v>
       </c>
       <c r="E20" s="105">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59406439693115598</v>
+        <v>0.59406439693115554</v>
       </c>
       <c r="F20" s="105">
         <f t="shared" ca="1" si="5"/>
@@ -8988,7 +8991,7 @@
       </c>
       <c r="C23" s="63">
         <f ca="1">'Status Quo'!C4</f>
-        <v>0.60367653566062185</v>
+        <v>0.60367653566062196</v>
       </c>
       <c r="D23" s="78">
         <f ca="1">'Excluders (1)'!C4</f>
@@ -8996,7 +8999,7 @@
       </c>
       <c r="E23" s="78">
         <f ca="1">'No Size Limit (1)'!$C4</f>
-        <v>0.60367371601208453</v>
+        <v>0.60367371601208464</v>
       </c>
       <c r="F23" s="78">
         <f ca="1">'Reduce DMR (1)'!$C4</f>
@@ -9025,7 +9028,7 @@
       </c>
       <c r="D24" s="78">
         <f ca="1">'Excluders (1)'!C5</f>
-        <v>0.22513595166163142</v>
+        <v>0.2251359516616315</v>
       </c>
       <c r="E24" s="78">
         <f ca="1">'No Size Limit (1)'!$C5</f>
@@ -9054,7 +9057,7 @@
       </c>
       <c r="C25" s="67">
         <f ca="1">'Status Quo'!C6</f>
-        <v>0.17118911439906179</v>
+        <v>0.17118911439906181</v>
       </c>
       <c r="D25" s="79">
         <f ca="1">'Excluders (1)'!C6</f>
@@ -9163,11 +9166,11 @@
       </c>
       <c r="D29" s="78">
         <f ca="1">'Excluders (1)'!C11</f>
-        <v>0.20363299727562001</v>
+        <v>0.20363299727562004</v>
       </c>
       <c r="E29" s="78">
         <f ca="1">'No Size Limit (1)'!$C11</f>
-        <v>0.28363576736936597</v>
+        <v>0.28363576736936613</v>
       </c>
       <c r="F29" s="78">
         <f ca="1">'Reduce DMR (1)'!$C11</f>
@@ -9192,7 +9195,7 @@
       </c>
       <c r="C30" s="63">
         <f ca="1">'Status Quo'!C12</f>
-        <v>0.5289975977792859</v>
+        <v>0.52899759777928579</v>
       </c>
       <c r="D30" s="78">
         <f ca="1">'Excluders (1)'!C12</f>
@@ -9200,7 +9203,7 @@
       </c>
       <c r="E30" s="78">
         <f ca="1">'No Size Limit (1)'!$C12</f>
-        <v>0.55044115511719194</v>
+        <v>0.55044115511719183</v>
       </c>
       <c r="F30" s="78">
         <f ca="1">'Reduce DMR (1)'!$C12</f>
@@ -9229,11 +9232,11 @@
       </c>
       <c r="D31" s="79">
         <f ca="1">'Excluders (1)'!C13</f>
-        <v>0.11478826544274839</v>
+        <v>0.11478826544274841</v>
       </c>
       <c r="E31" s="78">
         <f ca="1">'No Size Limit (1)'!$C13</f>
-        <v>0.16592307751344212</v>
+        <v>0.16592307751344215</v>
       </c>
       <c r="F31" s="78">
         <f ca="1">'Reduce DMR (1)'!$C13</f>
@@ -9258,7 +9261,7 @@
       </c>
       <c r="C32" s="64">
         <f ca="1">SUM(C29:C31)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D32" s="80">
         <f ca="1">SUM(D29:D31)</f>
@@ -9330,15 +9333,15 @@
       </c>
       <c r="C35" s="70">
         <f ca="1">avg_wt1</f>
-        <v>27.965760347362774</v>
+        <v>27.965760347362778</v>
       </c>
       <c r="D35" s="82">
         <f ca="1">'Excluders (1)'!avg_wt1</f>
-        <v>59.725623146655145</v>
+        <v>59.725623146655153</v>
       </c>
       <c r="E35" s="82">
         <f ca="1">'No Size Limit (1)'!avg_wt1</f>
-        <v>55.872162930839487</v>
+        <v>55.87216293083948</v>
       </c>
       <c r="F35" s="82">
         <f ca="1">'Reduce DMR (1)'!avg_wt1</f>
@@ -9363,7 +9366,7 @@
       </c>
       <c r="C36" s="70">
         <f ca="1">avg_wt2</f>
-        <v>6.5616824891453129</v>
+        <v>6.5616824891453138</v>
       </c>
       <c r="D36" s="82">
         <f ca="1">'Excluders (1)'!avg_wt2</f>
@@ -9400,11 +9403,11 @@
       </c>
       <c r="D37" s="83">
         <f ca="1">'Excluders (1)'!avg_wt3</f>
-        <v>30.046114502324624</v>
+        <v>30.04611450232462</v>
       </c>
       <c r="E37" s="82">
         <f ca="1">'No Size Limit (1)'!avg_wt3</f>
-        <v>27.084863651871274</v>
+        <v>27.08486365187127</v>
       </c>
       <c r="F37" s="82">
         <f ca="1">'Reduce DMR (1)'!avg_wt3</f>
@@ -9429,7 +9432,7 @@
       </c>
       <c r="C38" s="72">
         <f ca="1">AVERAGE(C35:C37)</f>
-        <v>17.875903717248821</v>
+        <v>17.875903717248825</v>
       </c>
       <c r="D38" s="84">
         <f ca="1">AVERAGE(D35:D37)</f>
@@ -9437,7 +9440,7 @@
       </c>
       <c r="E38" s="89">
         <f ca="1">AVERAGE(E35:E37)</f>
-        <v>31.231385168983682</v>
+        <v>31.231385168983678</v>
       </c>
       <c r="F38" s="89">
         <f ca="1">AVERAGE(F35:F37)</f>
@@ -9489,7 +9492,7 @@
       </c>
       <c r="E48" s="49">
         <f ca="1">'Status Quo'!H47</f>
-        <v>0.91177356476596549</v>
+        <v>0.91177356476596538</v>
       </c>
       <c r="F48" s="49">
         <f ca="1">'Status Quo'!I47</f>
@@ -9502,15 +9505,15 @@
       </c>
       <c r="D49" s="49">
         <f ca="1">'Status Quo'!G48</f>
-        <v>1.0967635371800681</v>
+        <v>1.0967635371800684</v>
       </c>
       <c r="E49" s="49">
         <f ca="1">'Status Quo'!H48</f>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="F49" s="49">
         <f ca="1">'Status Quo'!I48</f>
-        <v>2.135348609404482</v>
+        <v>2.1353486094044816</v>
       </c>
     </row>
     <row r="50" spans="3:6">
@@ -9523,7 +9526,7 @@
       </c>
       <c r="E50" s="52">
         <f ca="1">'Status Quo'!H49</f>
-        <v>0.46830760822650203</v>
+        <v>0.46830760822650208</v>
       </c>
       <c r="F50" s="52">
         <f ca="1">'Status Quo'!I49</f>
@@ -15674,7 +15677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -18171,7 +18174,7 @@
       </c>
       <c r="C4" s="21">
         <f ca="1">ypr1/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.60367653566062185</v>
+        <v>0.60367653566062196</v>
       </c>
       <c r="E4" s="46">
         <v>24977</v>
@@ -18301,7 +18304,7 @@
       </c>
       <c r="F5" s="46">
         <f ca="1">ye_2</f>
-        <v>9638.2314155313943</v>
+        <v>9638.2314155313925</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -18417,7 +18420,7 @@
       </c>
       <c r="C6" s="21">
         <f ca="1">ypr3/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.17118911439906179</v>
+        <v>0.17118911439906181</v>
       </c>
       <c r="E6" s="46">
         <v>7083</v>
@@ -18574,75 +18577,75 @@
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31607686746223457</v>
+        <v>0.31607686746223462</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26688450833641431</v>
+        <v>0.26688450833641436</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22395385373746995</v>
+        <v>0.22395385373746998</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1856880852915066</v>
+        <v>0.18568808529150663</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15258336881165868</v>
+        <v>0.15258336881165871</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12377254377097818</v>
+        <v>0.12377254377097821</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8710391384072407E-2</v>
+        <v>9.8710391384072421E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.7601973334880628E-2</v>
+        <v>7.7601973334880642E-2</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0531623551544095E-2</v>
+        <v>6.0531623551544102E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.6990376853633116E-2</v>
+        <v>4.6990376853633123E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6404215222345347E-2</v>
+        <v>3.6404215222345354E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8179810905283785E-2</v>
+        <v>2.8179810905283792E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1806396101219167E-2</v>
+        <v>2.1806396101219174E-2</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6872321652001938E-2</v>
+        <v>1.6872321652001941E-2</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3054029127802614E-2</v>
+        <v>1.3054029127802616E-2</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0099648181475336E-2</v>
+        <v>1.0099648181475337E-2</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8138484480065051E-3</v>
+        <v>7.8138484480065069E-3</v>
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>2.6710817648806801E-2</v>
+        <v>2.6710817648806805E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -18654,7 +18657,7 @@
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>916591.23642102233</v>
+        <v>916591.23642102105</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -19083,7 +19086,7 @@
       </c>
       <c r="C12" s="17">
         <f ca="1">mpr2_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.5289975977792859</v>
+        <v>0.52899759777928579</v>
       </c>
       <c r="J12" t="s">
         <v>99</v>
@@ -20513,11 +20516,11 @@
       </c>
       <c r="E28" s="41">
         <f ca="1">f2_/(F5/(f2_*365*re*phib))</f>
-        <v>39.461917558212193</v>
+        <v>39.461917558212207</v>
       </c>
       <c r="F28" s="106">
         <f t="shared" ref="F28:F29" ca="1" si="23">F5/E28</f>
-        <v>244.24133473274762</v>
+        <v>244.24133473274748</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
@@ -20633,7 +20636,7 @@
       </c>
       <c r="C29" s="35">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
-        <v>0.49016680654239447</v>
+        <v>0.49016680654239436</v>
       </c>
       <c r="E29" s="41">
         <f ca="1">f3_/(F6/(f3_*365*re*phib))</f>
@@ -20721,67 +20724,67 @@
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="25"/>
-        <v>-4.1411649209052914E-3</v>
+        <v>-4.1411649209052923E-3</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.5759386634706524E-2</v>
+        <v>-1.5759386634706527E-2</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="25"/>
-        <v>-3.9439965044401865E-2</v>
+        <v>-3.9439965044401872E-2</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.5991028476898953E-2</v>
+        <v>-7.5991028476898967E-2</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.11854540399012867</v>
+        <v>-0.11854540399012869</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.15411197164090754</v>
+        <v>-0.15411197164090756</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.17490869632095624</v>
+        <v>-0.17490869632095629</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.18089793205488996</v>
+        <v>-0.18089793205489005</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.17597081078408616</v>
+        <v>-0.17597081078408625</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.16422054957378651</v>
+        <v>-0.1642205495737866</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.14883308871818421</v>
+        <v>-0.14883308871818426</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.13201410575562264</v>
+        <v>-0.1320141057556227</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.1151883918281158</v>
+        <v>-0.11518839182811584</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="25"/>
-        <v>-9.9217565129233687E-2</v>
+        <v>-9.9217565129233742E-2</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="25"/>
-        <v>-8.4575799879880773E-2</v>
+        <v>-8.4575799879880828E-2</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-0.40713214359874084</v>
+        <v>-0.407132143598741</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -20882,11 +20885,11 @@
       </c>
       <c r="AE32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.14713676467845371</v>
+        <v>-0.14713676467845374</v>
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.11809731805127416</v>
+        <v>-0.11809731805127417</v>
       </c>
       <c r="AG32">
         <f t="shared" ca="1" si="25"/>
@@ -20907,7 +20910,7 @@
       </c>
       <c r="B33" s="59">
         <f ca="1">SUMPRODUCT(lz,wa)</f>
-        <v>38.344083704234279</v>
+        <v>38.344083704234286</v>
       </c>
       <c r="C33" s="58"/>
       <c r="D33" s="60"/>
@@ -20960,11 +20963,11 @@
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.11174591803265005</v>
+        <v>-0.11174591803265006</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.23716264748159879</v>
+        <v>-0.23716264748159882</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="25"/>
@@ -20972,55 +20975,55 @@
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.35479399035832909</v>
+        <v>-0.35479399035832915</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.3508777210257964</v>
+        <v>-0.35087772102579645</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.32386926750544431</v>
+        <v>-0.32386926750544437</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.28629389656638266</v>
+        <v>-0.28629389656638271</v>
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.24838407042009053</v>
+        <v>-0.24838407042009061</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.21267492263584992</v>
+        <v>-0.21267492263585</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.1803009830562666</v>
+        <v>-0.18030098305626668</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.15165092323280069</v>
+        <v>-0.15165092323280077</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.12672151806900711</v>
+        <v>-0.12672151806900719</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.1053043304515487</v>
+        <v>-0.10530433045154877</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="25"/>
-        <v>-8.7089247798048428E-2</v>
+        <v>-8.7089247798048469E-2</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.1724796248663278E-2</v>
+        <v>-7.1724796248663306E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-0.31082467502649103</v>
+        <v>-0.31082467502649114</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -21130,7 +21133,7 @@
       </c>
       <c r="AB35">
         <f t="shared" ca="1" si="27"/>
-        <v>29.316313472708085</v>
+        <v>29.316313472708082</v>
       </c>
       <c r="AC35">
         <f t="shared" ca="1" si="27"/>
@@ -21175,7 +21178,7 @@
       </c>
       <c r="E36" s="37">
         <f ca="1">C36/AVERAGE(C$36:C$38)</f>
-        <v>1.8733132179304632</v>
+        <v>1.8733132179304628</v>
       </c>
       <c r="G36" s="1">
         <f ca="1">SUM(dqa21_)</f>
@@ -21183,7 +21186,7 @@
       </c>
       <c r="H36" s="1">
         <f ca="1">SUM(dqa22_)</f>
-        <v>62.897748080945448</v>
+        <v>62.897748080945462</v>
       </c>
       <c r="I36" s="10">
         <f ca="1">SUM(dqa23_)</f>
@@ -21230,7 +21233,7 @@
       </c>
       <c r="T36">
         <f t="shared" ca="1" si="28"/>
-        <v>2.6115852274658899</v>
+        <v>2.6115852274658895</v>
       </c>
       <c r="U36">
         <f t="shared" ca="1" si="28"/>
@@ -21319,7 +21322,7 @@
       </c>
       <c r="I37" s="1">
         <f ca="1">SUM(dqa33_)</f>
-        <v>155.883634823839</v>
+        <v>155.88363482383903</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>64</v>
@@ -21358,7 +21361,7 @@
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="29"/>
-        <v>1.1770428499227683</v>
+        <v>1.1770428499227681</v>
       </c>
       <c r="T37">
         <f t="shared" ca="1" si="29"/>
@@ -21370,7 +21373,7 @@
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="29"/>
-        <v>8.7309645114259951</v>
+        <v>8.7309645114259933</v>
       </c>
       <c r="W37">
         <f t="shared" ca="1" si="29"/>
@@ -21431,7 +21434,7 @@
       </c>
       <c r="B38" s="1">
         <f ca="1">SUMPRODUCT(lz,ta3_)</f>
-        <v>0.83533748315996559</v>
+        <v>0.8353374831599657</v>
       </c>
       <c r="C38" s="28">
         <f ca="1">B13/(phi_t3/SUM(B$36:B$38))</f>
@@ -21477,11 +21480,11 @@
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.7052423043792805E-3</v>
+        <v>-1.7052423043792807E-3</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="30"/>
-        <v>-7.7979760793800389E-3</v>
+        <v>-7.7979760793800406E-3</v>
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="30"/>
@@ -21554,16 +21557,16 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>14.721699815143705</v>
+        <v>14.721699815143708</v>
       </c>
       <c r="C39" s="22">
         <f ca="1">B4/(phi_q1/SUM(B$39:B$41))</f>
-        <v>1.9205142863537024</v>
+        <v>1.9205142863537017</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="38">
         <f ca="1">C39/AVERAGE(C$39:C$41)</f>
-        <v>1.8733132708564477</v>
+        <v>1.8733132708564475</v>
       </c>
       <c r="G39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
@@ -21618,7 +21621,7 @@
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.3948240548413822E-2</v>
+        <v>-1.3948240548413836E-2</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="31"/>
@@ -21687,7 +21690,7 @@
       </c>
       <c r="B40" s="1">
         <f ca="1">SUMPRODUCT(lz,qa2_)</f>
-        <v>16.158422209266945</v>
+        <v>16.158422209266948</v>
       </c>
       <c r="C40" s="22">
         <f ca="1">B5/(phi_q2/SUM(B$39:B$41))</f>
@@ -21696,7 +21699,7 @@
       <c r="D40" s="20"/>
       <c r="E40" s="38">
         <f ca="1">C40/AVERAGE(C$39:C$41)</f>
-        <v>0.63651992260115786</v>
+        <v>0.63651992260115797</v>
       </c>
       <c r="G40" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
@@ -21704,7 +21707,7 @@
       </c>
       <c r="H40" s="1">
         <f ca="1">re*phi_q2+f2_*phi_q2*$H32+f2_*re*H36</f>
-        <v>356273.50072357676</v>
+        <v>356273.50072357687</v>
       </c>
       <c r="I40" s="1">
         <f ca="1">0*re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
@@ -21743,11 +21746,11 @@
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.7052423043792805E-3</v>
+        <v>-1.7052423043792807E-3</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="32"/>
-        <v>-7.7979760793800389E-3</v>
+        <v>-7.7979760793800406E-3</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="32"/>
@@ -21824,12 +21827,12 @@
       </c>
       <c r="C41" s="22">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
-        <v>0.50251731480590001</v>
+        <v>0.50251731480590012</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="38">
         <f ca="1">C41/AVERAGE(C$39:C$41)</f>
-        <v>0.49016680654239436</v>
+        <v>0.49016680654239458</v>
       </c>
       <c r="G41" s="1">
         <f ca="1">0*re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
@@ -21884,7 +21887,7 @@
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.44176693001975059</v>
+        <v>-0.44176693001975065</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="33"/>
@@ -21988,11 +21991,11 @@
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.8628399711169123E-4</v>
+        <v>-1.8628399711169129E-4</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="34"/>
-        <v>-4.7544772310155331E-3</v>
+        <v>-4.754477231015534E-3</v>
       </c>
       <c r="T42">
         <f t="shared" ca="1" si="34"/>
@@ -22095,19 +22098,19 @@
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="35"/>
-        <v>-5.4620164054280877E-2</v>
+        <v>-5.4620164054280898E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.25177219981753851</v>
+        <v>-0.25177219981753857</v>
       </c>
       <c r="T43">
         <f t="shared" ca="1" si="35"/>
-        <v>-0.44176693001975059</v>
+        <v>-0.44176693001975065</v>
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="35"/>
-        <v>-5.6097880492297358E-2</v>
+        <v>-5.6097880492297414E-2</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="35"/>
@@ -22222,59 +22225,59 @@
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="36"/>
-        <v>6.0605913690544733E-3</v>
+        <v>6.0605913690544742E-3</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="36"/>
-        <v>3.7024726663622713E-2</v>
+        <v>3.702472666362272E-2</v>
       </c>
       <c r="T46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.1730981864599756</v>
+        <v>0.17309818645997563</v>
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.44837588165037517</v>
+        <v>0.44837588165037523</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.87935588862392122</v>
+        <v>0.87935588862392133</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.3447099256166928</v>
+        <v>1.3447099256166932</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.6134801576069786</v>
+        <v>1.6134801576069788</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.6255162208122851</v>
+        <v>1.6255162208122853</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.4844764918188376</v>
+        <v>1.4844764918188378</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.2899580006391818</v>
+        <v>1.289958000639182</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.0929492596547061</v>
+        <v>1.0929492596547064</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.91281154640507201</v>
+        <v>0.91281154640507223</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.75515679671983982</v>
+        <v>0.75515679671984004</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.62027991197419663</v>
+        <v>0.62027991197419674</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="36"/>
@@ -22282,15 +22285,15 @@
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.41153511427477379</v>
+        <v>0.41153511427477391</v>
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="36"/>
-        <v>0.33288494298156573</v>
+        <v>0.33288494298156579</v>
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.1850233107297639</v>
+        <v>1.1850233107297641</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -22310,7 +22313,7 @@
       </c>
       <c r="H47" s="30">
         <f ca="1">H53/H39</f>
-        <v>0.91177356476596549</v>
+        <v>0.91177356476596538</v>
       </c>
       <c r="I47" s="30">
         <f ca="1">I53/I39</f>
@@ -22349,11 +22352,11 @@
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.406973078109792</v>
+        <v>1.4069730781097922</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.3858571887434292</v>
+        <v>1.3858571887434294</v>
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="37"/>
@@ -22361,23 +22364,23 @@
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.1885909707460742</v>
+        <v>1.1885909707460744</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="37"/>
-        <v>1.0446121403726694</v>
+        <v>1.0446121403726696</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.88763541209337093</v>
+        <v>0.88763541209337116</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.73074532885732113</v>
+        <v>0.73074532885732124</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.58682094327420398</v>
+        <v>0.58682094327420409</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="37"/>
@@ -22385,39 +22388,39 @@
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.42758602921731664</v>
+        <v>0.4275860292173167</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.35875785490905787</v>
+        <v>0.35875785490905793</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.29848233156523174</v>
+        <v>0.29848233156523185</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.24656242236227083</v>
+        <v>0.24656242236227091</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.20240780359181609</v>
+        <v>0.20240780359181612</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.16524803990537065</v>
+        <v>0.16524803990537068</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.13425079120963024</v>
+        <v>0.13425079120963027</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.10859083390248021</v>
+        <v>0.10859083390248023</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.38656645669053008</v>
+        <v>0.38656645669053014</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -22426,26 +22429,26 @@
       </c>
       <c r="B48" s="120">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>25844.008932292327</v>
+        <v>25844.008932292334</v>
       </c>
       <c r="C48" s="19">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.60367653566062174</v>
+        <v>0.60367653566062185</v>
       </c>
       <c r="F48" t="s">
         <v>84</v>
       </c>
       <c r="G48" s="30">
         <f ca="1">G40/G54</f>
-        <v>1.0967635371800681</v>
+        <v>1.0967635371800684</v>
       </c>
       <c r="H48" s="30">
         <f t="shared" ref="H48:I49" ca="1" si="38">H40/H54</f>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="I48" s="30">
         <f ca="1">I54/I40</f>
-        <v>2.135348609404482</v>
+        <v>2.1353486094044816</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
@@ -22480,11 +22483,11 @@
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.18885060891744604</v>
+        <v>0.18885060891744607</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.95651541218783032</v>
+        <v>0.95651541218783054</v>
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="39"/>
@@ -22496,55 +22499,55 @@
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.8861252155491548</v>
+        <v>1.8861252155491552</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.576394493068761</v>
+        <v>1.5763944930687612</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.271996355892731</v>
+        <v>1.2719963558927312</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.0005358619527485</v>
+        <v>1.0005358619527487</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.85993173222431452</v>
+        <v>0.85993173222431463</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.72903866367631609</v>
+        <v>0.7290386636763162</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.6116859047173212</v>
+        <v>0.61168590471732132</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.50891550533965624</v>
+        <v>0.50891550533965635</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.42039151569292099</v>
+        <v>0.42039151569292116</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.34510742766396207</v>
+        <v>0.34510742766396213</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.28174964090445787</v>
+        <v>0.28174964090445792</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.22889900682702943</v>
+        <v>0.22889900682702946</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.18514851053640277</v>
+        <v>0.18514851053640283</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="39"/>
@@ -22557,11 +22560,11 @@
       </c>
       <c r="B49" s="120">
         <f ca="1">f2_*re*phi_q2</f>
-        <v>9638.2314155313943</v>
+        <v>9638.2314155313961</v>
       </c>
       <c r="C49" s="19">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.22513434994031634</v>
+        <v>0.22513434994031639</v>
       </c>
       <c r="F49" t="s">
         <v>85</v>
@@ -22572,7 +22575,7 @@
       </c>
       <c r="H49" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>0.46830760822650203</v>
+        <v>0.46830760822650208</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" ca="1" si="38"/>
@@ -22596,7 +22599,7 @@
       </c>
       <c r="C50" s="19">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.17118911439906187</v>
+        <v>0.17118911439906184</v>
       </c>
       <c r="M50" t="s">
         <v>166</v>
@@ -22624,7 +22627,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>42811.021143981416</v>
+        <v>42811.021143981423</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -22646,7 +22649,7 @@
       </c>
       <c r="R51">
         <f ca="1">(ye_1-N51)/hh</f>
-        <v>25843983088.473148</v>
+        <v>25843983088.473152</v>
       </c>
       <c r="AL51" s="30"/>
       <c r="AM51" s="30"/>
@@ -22665,7 +22668,7 @@
       </c>
       <c r="H52" s="56">
         <f ca="1">H40^0.5</f>
-        <v>596.88650573084385</v>
+        <v>596.88650573084396</v>
       </c>
       <c r="I52" s="10">
         <f ca="1">I41^0.5</f>
@@ -22688,7 +22691,7 @@
       </c>
       <c r="R52">
         <f ca="1">(ye_2-N52)/hh</f>
-        <v>9638221777.2572155</v>
+        <v>9638221777.2572174</v>
       </c>
       <c r="AL52" s="30"/>
       <c r="AM52" s="30"/>
@@ -22704,11 +22707,11 @@
       </c>
       <c r="B53" s="34">
         <f ca="1">f1_*phi_q1</f>
-        <v>1.2491659882215269</v>
+        <v>1.2491659882215271</v>
       </c>
       <c r="C53">
         <f ca="1">AVERAGE(B53:B55)/B53</f>
-        <v>0.55217208826670128</v>
+        <v>0.55217208826670117</v>
       </c>
       <c r="G53">
         <f ca="1">G$52*$J53</f>
@@ -22716,7 +22719,7 @@
       </c>
       <c r="H53">
         <f t="shared" ref="G53:I55" ca="1" si="40">H$52*$J53</f>
-        <v>584275.75153516757</v>
+        <v>584275.75153516768</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="40"/>
@@ -22757,27 +22760,27 @@
       </c>
       <c r="B54" s="34">
         <f ca="1">f2_*phi_q2</f>
-        <v>0.46586235527284081</v>
+        <v>0.46586235527284092</v>
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
-        <v>1.4805974007151761</v>
+        <v>1.4805974007151763</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="40"/>
-        <v>584275.75153516757</v>
+        <v>584275.75153516768</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="40"/>
-        <v>356273.5007235767</v>
+        <v>356273.50072357681</v>
       </c>
       <c r="I54">
         <f ca="1">I$52*$J54</f>
-        <v>363766.50830320519</v>
+        <v>363766.50830320525</v>
       </c>
       <c r="J54">
         <f ca="1"/>
-        <v>596.88650573084385</v>
+        <v>596.88650573084396</v>
       </c>
       <c r="AL54" s="30"/>
       <c r="AM54" s="30"/>
@@ -22804,7 +22807,7 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="40"/>
-        <v>363766.50830320519</v>
+        <v>363766.50830320525</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="40"/>
@@ -22832,7 +22835,7 @@
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.0015529916011849</v>
+        <v>1.0015529916011847</v>
       </c>
       <c r="AL56" s="30"/>
       <c r="AM56" s="30"/>
@@ -22894,7 +22897,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>27.965760347362774</v>
+        <v>27.965760347362778</v>
       </c>
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
@@ -22908,7 +22911,7 @@
       </c>
       <c r="B61">
         <f ca="1">ypr2/mpr2_</f>
-        <v>6.5616824891453129</v>
+        <v>6.5616824891453138</v>
       </c>
       <c r="AL61" s="30"/>
       <c r="AM61" s="30"/>
@@ -28347,7 +28350,7 @@
       </c>
       <c r="F4" s="46">
         <f ca="1">ye_1</f>
-        <v>22185.133991994633</v>
+        <v>22185.133991994629</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -28463,7 +28466,7 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">ypr2/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.22513595166163142</v>
+        <v>0.2251359516616315</v>
       </c>
       <c r="E5" s="46">
         <v>9315</v>
@@ -28593,7 +28596,7 @@
       </c>
       <c r="F6" s="46">
         <f ca="1">ye_3</f>
-        <v>6291.2801403410349</v>
+        <v>6291.2801403410331</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -28759,11 +28762,11 @@
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11522138309293593</v>
+        <v>0.11522138309293595</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.2002116389942781E-2</v>
+        <v>9.2002116389942795E-2</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -28775,15 +28778,15 @@
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.079275850306649E-2</v>
+        <v>4.0792758503066483E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0376571826774293E-2</v>
+        <v>3.0376571826774289E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.254828216123269E-2</v>
+        <v>2.2548282161232686E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -28811,7 +28814,7 @@
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>1.0655163487855189E-2</v>
+        <v>1.0655163487855187E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -28823,7 +28826,7 @@
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>9505448.5453321338</v>
+        <v>9505448.545332158</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -29138,7 +29141,7 @@
       </c>
       <c r="C11" s="17">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.20363299727562001</v>
+        <v>0.20363299727562004</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -29370,7 +29373,7 @@
       </c>
       <c r="C13" s="17">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.11478826544274839</v>
+        <v>0.11478826544274841</v>
       </c>
       <c r="J13" t="s">
         <v>100</v>
@@ -30555,15 +30558,15 @@
       </c>
       <c r="C27" s="35">
         <f ca="1">CHOOSE(C$25,E36,E39,1)</f>
-        <v>1.5625829326748903</v>
+        <v>1.5625829326748901</v>
       </c>
       <c r="E27" s="41">
         <f ca="1">f1_/(F4/(f1_*365*re*phib))</f>
-        <v>137.71284947495315</v>
+        <v>137.71284947495317</v>
       </c>
       <c r="F27" s="106">
         <f ca="1">F4/E27</f>
-        <v>161.09705141225479</v>
+        <v>161.09705141225473</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>31</v>
@@ -30799,19 +30802,19 @@
       </c>
       <c r="B29" s="27">
         <f ca="1">fbar*C29</f>
-        <v>2.4092698273042324E-2</v>
+        <v>2.4092698273042321E-2</v>
       </c>
       <c r="C29" s="35">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
-        <v>0.28388883207834081</v>
+        <v>0.28388883207834087</v>
       </c>
       <c r="E29" s="41">
         <f ca="1">f3_/(F6/(f3_*365*re*phib))</f>
-        <v>16.029056510573863</v>
+        <v>16.029056510573859</v>
       </c>
       <c r="F29" s="106">
         <f t="shared" ca="1" si="22"/>
-        <v>392.49223035622066</v>
+        <v>392.4922303562206</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -30823,7 +30826,7 @@
       </c>
       <c r="C30" s="35">
         <f ca="1">AVERAGE(C27:C29)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G30" t="s">
         <v>58</v>
@@ -30845,7 +30848,7 @@
       </c>
       <c r="G31">
         <f ca="1">SUMPRODUCT(dlz1_,wa,ma)</f>
-        <v>-93.602712455615418</v>
+        <v>-93.602712455615404</v>
       </c>
       <c r="H31">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
@@ -30903,55 +30906,55 @@
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.987917377371299E-2</v>
+        <v>-5.9879173773713004E-2</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="24"/>
-        <v>-8.7532109018056733E-2</v>
+        <v>-8.7532109018056747E-2</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.10835901600858783</v>
+        <v>-0.10835901600858784</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.11755239189745684</v>
+        <v>-0.11755239189745686</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.11642415307513278</v>
+        <v>-0.11642415307513279</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.10850031071171044</v>
+        <v>-0.10850031071171046</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="24"/>
-        <v>-9.7007244412971205E-2</v>
+        <v>-9.7007244412971191E-2</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="24"/>
-        <v>-8.4221197168351025E-2</v>
+        <v>-8.4221197168351011E-2</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="24"/>
-        <v>-7.1555422828501025E-2</v>
+        <v>-7.1555422828500997E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="24"/>
-        <v>-5.9798913276542257E-2</v>
+        <v>-5.9798913276542229E-2</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.9329393650679343E-2</v>
+        <v>-4.9329393650679329E-2</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="24"/>
-        <v>-4.0269212266321124E-2</v>
+        <v>-4.0269212266321117E-2</v>
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-0.15614586836874611</v>
+        <v>-0.15614586836874608</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -31082,11 +31085,11 @@
       <c r="C33" s="57"/>
       <c r="G33">
         <f ca="1">SUMPRODUCT(dlz3_,wa,ma)</f>
-        <v>-177.79367079111066</v>
+        <v>-177.79367079111071</v>
       </c>
       <c r="H33">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-19495.231379170451</v>
+        <v>-19495.231379170458</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>54</v>
@@ -31144,51 +31147,51 @@
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.38935153931794719</v>
+        <v>-0.38935153931794725</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.3257671629692025</v>
+        <v>-0.32576716296920255</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.26527396673310755</v>
+        <v>-0.2652739667331076</v>
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.21380657854045862</v>
+        <v>-0.21380657854045867</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.17104520362966502</v>
+        <v>-0.17104520362966508</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.13603631210006742</v>
+        <v>-0.13603631210006747</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.1076676095444776</v>
+        <v>-0.10766760954447764</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="26"/>
-        <v>-8.4859872636847994E-2</v>
+        <v>-8.4859872636848022E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="26"/>
-        <v>-6.6639856271353576E-2</v>
+        <v>-6.663985627135359E-2</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="26"/>
-        <v>-5.2162854459811815E-2</v>
+        <v>-5.2162854459811822E-2</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="26"/>
-        <v>-4.0713055856186564E-2</v>
+        <v>-4.0713055856186571E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-0.13917573018997681</v>
+        <v>-0.13917573018997684</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -31290,7 +31293,7 @@
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="27"/>
-        <v>51.757602954089236</v>
+        <v>51.757602954089243</v>
       </c>
       <c r="AA35">
         <f t="shared" ca="1" si="27"/>
@@ -31335,7 +31338,7 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">SUMPRODUCT(lz,ta1_)</f>
-        <v>0.35658537438540761</v>
+        <v>0.35658537438540755</v>
       </c>
       <c r="C36" s="28">
         <f ca="1">B11/(phi_t1/SUM(B$36:B$38))</f>
@@ -31355,7 +31358,7 @@
       </c>
       <c r="I36" s="10">
         <f ca="1">SUM(dqa23_)</f>
-        <v>891.54007751810127</v>
+        <v>891.54007751810104</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>63</v>
@@ -31483,7 +31486,7 @@
       </c>
       <c r="H37" s="1">
         <f ca="1">SUM(dqa32_)</f>
-        <v>891.54007751810127</v>
+        <v>891.54007751810104</v>
       </c>
       <c r="I37" s="1">
         <f ca="1">SUM(dqa33_)</f>
@@ -31876,7 +31879,7 @@
       </c>
       <c r="I40" s="107">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
-        <v>414240.99236423301</v>
+        <v>414240.99236423289</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>65</v>
@@ -31988,7 +31991,7 @@
       </c>
       <c r="B41" s="1">
         <f ca="1">SUMPRODUCT(lz,qa3_)</f>
-        <v>33.242674119398259</v>
+        <v>33.242674119398252</v>
       </c>
       <c r="C41" s="22">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
@@ -32005,11 +32008,11 @@
       </c>
       <c r="H41" s="107">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
-        <v>414240.99236423307</v>
+        <v>414240.99236423295</v>
       </c>
       <c r="I41" s="107">
         <f ca="1">re*phi_q3+f1_*phi_q3*$H33+f3_*re*I37</f>
-        <v>249577.39331008765</v>
+        <v>249577.3933100875</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>67</v>
@@ -32121,7 +32124,7 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">SUMPRODUCT(lz/SUM(lz),len,ta1_)</f>
-        <v>8.6166059133718278</v>
+        <v>8.6166059133718296</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
@@ -32406,11 +32409,11 @@
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.4652572337848051</v>
+        <v>1.4652572337848053</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="36"/>
-        <v>2.2097804176112139</v>
+        <v>2.2097804176112144</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="36"/>
@@ -32422,15 +32425,15 @@
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="36"/>
-        <v>2.2424653043682308</v>
+        <v>2.2424653043682303</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.8791145355961141</v>
+        <v>1.8791145355961139</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="36"/>
-        <v>1.5331746178019139</v>
+        <v>1.5331746178019137</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="36"/>
@@ -32482,7 +32485,7 @@
       </c>
       <c r="I47" s="30">
         <f ca="1">I53/I39</f>
-        <v>0.49625355222995315</v>
+        <v>0.4962535522299531</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
@@ -32533,11 +32536,11 @@
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.3887883782198514</v>
+        <v>0.38878837821985146</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="37"/>
-        <v>0.27153409741632678</v>
+        <v>0.27153409741632684</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="37"/>
@@ -32549,15 +32552,15 @@
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="37"/>
-        <v>9.7958721521240563E-2</v>
+        <v>9.7958721521240535E-2</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="37"/>
-        <v>8.0086224045328822E-2</v>
+        <v>8.0086224045328808E-2</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="37"/>
-        <v>6.4706880887811125E-2</v>
+        <v>6.4706880887811111E-2</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="37"/>
@@ -32585,7 +32588,7 @@
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="37"/>
-        <v>4.606553734834487E-2</v>
+        <v>4.6065537348344864E-2</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -32613,7 +32616,7 @@
       </c>
       <c r="I48" s="30">
         <f ca="1">I54/I40</f>
-        <v>0.34218704405467876</v>
+        <v>0.34218704405467881</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>77</v>
@@ -32664,11 +32667,11 @@
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="39"/>
-        <v>3.1446354757637955</v>
+        <v>3.144635475763796</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="39"/>
-        <v>2.5907857328070203</v>
+        <v>2.5907857328070207</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="39"/>
@@ -32680,7 +32683,7 @@
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="39"/>
-        <v>1.2990620905880432</v>
+        <v>1.299062090588043</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="39"/>
@@ -32688,7 +32691,7 @@
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.85809874461586255</v>
+        <v>0.85809874461586244</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="39"/>
@@ -32716,7 +32719,7 @@
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="39"/>
-        <v>0.61088989650428227</v>
+        <v>0.61088989650428216</v>
       </c>
     </row>
     <row r="49" spans="1:47">
@@ -32740,11 +32743,11 @@
       </c>
       <c r="H49" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>2.9223783231261327</v>
+        <v>2.9223783231261322</v>
       </c>
       <c r="I49" s="30">
         <f t="shared" ca="1" si="38"/>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="AL49" s="30"/>
       <c r="AM49" s="30"/>
@@ -32760,11 +32763,11 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">f3_*re*phi_q3</f>
-        <v>6291.2801403410385</v>
+        <v>6291.2801403410367</v>
       </c>
       <c r="C50" s="19">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.17119033232628406</v>
+        <v>0.17119033232628403</v>
       </c>
       <c r="AL50" s="30"/>
       <c r="AM50" s="30"/>
@@ -32780,7 +32783,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>36750.206947142506</v>
+        <v>36750.206947142498</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -32806,7 +32809,7 @@
       </c>
       <c r="I52" s="108">
         <f ca="1">I41^0.5</f>
-        <v>499.57721456256155</v>
+        <v>499.57721456256138</v>
       </c>
       <c r="J52" s="107"/>
       <c r="AL52" s="30"/>
@@ -32839,7 +32842,7 @@
       </c>
       <c r="I53" s="107">
         <f t="shared" ca="1" si="40"/>
-        <v>514533.50960067927</v>
+        <v>514533.5096006791</v>
       </c>
       <c r="J53" s="107">
         <f t="array" aca="1" ref="J53:J55" ca="1">TRANSPOSE(G52:I52)</f>
@@ -32861,7 +32864,7 @@
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
-        <v>1.4805868670602971</v>
+        <v>1.4805868670602969</v>
       </c>
       <c r="G54" s="107">
         <f t="shared" ref="G54:I55" ca="1" si="41">G$52*$J54</f>
@@ -32873,7 +32876,7 @@
       </c>
       <c r="I54" s="107">
         <f ca="1">I$52*$J54</f>
-        <v>141747.90070339362</v>
+        <v>141747.90070339356</v>
       </c>
       <c r="J54" s="107">
         <f ca="1"/>
@@ -32892,27 +32895,27 @@
       </c>
       <c r="B55" s="34">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.80090571734773519</v>
+        <v>0.80090571734773497</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471504541390177</v>
+        <v>1.9471504541390183</v>
       </c>
       <c r="G55" s="107">
         <f t="shared" ca="1" si="41"/>
-        <v>514533.50960067927</v>
+        <v>514533.5096006791</v>
       </c>
       <c r="H55" s="107">
         <f t="shared" ca="1" si="41"/>
-        <v>141747.90070339362</v>
+        <v>141747.90070339356</v>
       </c>
       <c r="I55" s="107">
         <f t="shared" ca="1" si="41"/>
-        <v>249577.39331008767</v>
+        <v>249577.3933100875</v>
       </c>
       <c r="J55" s="107">
         <f ca="1"/>
-        <v>499.57721456256155</v>
+        <v>499.57721456256138</v>
       </c>
       <c r="S55" s="32"/>
       <c r="AL55" s="30"/>
@@ -32928,11 +32931,11 @@
       </c>
       <c r="B56" s="33">
         <f ca="1">phi_t1*f1_</f>
-        <v>4.7287214946133603E-2</v>
+        <v>4.7287214946133596E-2</v>
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.6369318224106972</v>
+        <v>1.636931822410697</v>
       </c>
       <c r="AL56" s="30"/>
       <c r="AM56" s="30"/>
@@ -32959,11 +32962,11 @@
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>1644604658047.0205</v>
+        <v>1644604658047.0203</v>
       </c>
       <c r="I57">
         <f ca="1"/>
-        <v>1799654708781.2544</v>
+        <v>1799654708781.2542</v>
       </c>
       <c r="AL57" s="30"/>
       <c r="AM57" s="30"/>
@@ -32978,15 +32981,15 @@
       </c>
       <c r="B58" s="33">
         <f ca="1">phi_t3*f3_</f>
-        <v>2.6655883152071801E-2</v>
+        <v>2.6655883152071798E-2</v>
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>2.9038972934004832</v>
+        <v>2.9038972934004836</v>
       </c>
       <c r="G58">
         <f ca="1"/>
-        <v>1644604658047.0205</v>
+        <v>1644604658047.0203</v>
       </c>
       <c r="H58">
         <f ca="1"/>
@@ -33005,7 +33008,7 @@
     <row r="59" spans="1:47">
       <c r="G59">
         <f ca="1"/>
-        <v>1799654708781.2544</v>
+        <v>1799654708781.2542</v>
       </c>
       <c r="H59">
         <f ca="1"/>
@@ -33013,7 +33016,7 @@
       </c>
       <c r="I59">
         <f ca="1"/>
-        <v>1308913205111.0293</v>
+        <v>1308913205111.0288</v>
       </c>
       <c r="AL59" s="30"/>
       <c r="AM59" s="30"/>
@@ -33027,7 +33030,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>59.725623146655145</v>
+        <v>59.725623146655153</v>
       </c>
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
@@ -33055,7 +33058,7 @@
       </c>
       <c r="B62">
         <f ca="1">ypr3/mpr3_</f>
-        <v>30.046114502324624</v>
+        <v>30.04611450232462</v>
       </c>
       <c r="AL62" s="30"/>
       <c r="AM62" s="30"/>
@@ -38190,9 +38193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -38330,14 +38333,14 @@
       </c>
       <c r="C4" s="21">
         <f ca="1">ypr1/SUM(ypr1,ypr2,ypr3)</f>
-        <v>0.60367371601208453</v>
+        <v>0.60367371601208464</v>
       </c>
       <c r="E4" s="46">
         <v>24977</v>
       </c>
       <c r="F4" s="46">
         <f ca="1">ye_1</f>
-        <v>24487.654004566455</v>
+        <v>24487.654004566451</v>
       </c>
       <c r="J4" t="s">
         <v>78</v>
@@ -38460,7 +38463,7 @@
       </c>
       <c r="F5" s="46">
         <f ca="1">ye_2</f>
-        <v>9132.5017837425057</v>
+        <v>9132.5017837425003</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -38583,7 +38586,7 @@
       </c>
       <c r="F6" s="46">
         <f ca="1">ye_3</f>
-        <v>6944.230824932707</v>
+        <v>6944.2308249327034</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -38713,7 +38716,7 @@
       </c>
       <c r="M7" s="1">
         <f t="shared" ref="M7:AH7" ca="1" si="4">L7*EXP(-L8)</f>
-        <v>0.73755984497438787</v>
+        <v>0.73755984497438776</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -38729,79 +38732,79 @@
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34809491303599066</v>
+        <v>0.34809491303599061</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28666981637689487</v>
+        <v>0.28666981637689481</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23367420616045259</v>
+        <v>0.23367420616045251</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18995007177435672</v>
+        <v>0.18995007177435663</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15371750241926116</v>
+        <v>0.15371750241926108</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12271909263749582</v>
+        <v>0.12271909263749575</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5288835987713469E-2</v>
+        <v>9.5288835987713413E-2</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1286104490039373E-2</v>
+        <v>7.1286104490039331E-2</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.166383247085729E-2</v>
+        <v>5.1663832470857263E-2</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6774757093103155E-2</v>
+        <v>3.6774757093103135E-2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5915622362892535E-2</v>
+        <v>2.5915622362892517E-2</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8185564584877897E-2</v>
+        <v>1.8185564584877887E-2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2739352522182206E-2</v>
+        <v>1.2739352522182199E-2</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8.9181376471470335E-3</v>
+        <v>8.9181376471470283E-3</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.241461908687013E-3</v>
+        <v>6.2414619086870095E-3</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3677134580143873E-3</v>
+        <v>4.3677134580143847E-3</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0563642027834001E-3</v>
+        <v>3.0563642027833984E-3</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1387003848620826E-3</v>
+        <v>2.1387003848620818E-3</v>
       </c>
       <c r="AI7" s="1">
         <f ca="1">AH7*EXP(-AH8)/(1-EXP(-AI8))</f>
-        <v>4.9843566083322454E-3</v>
+        <v>4.9843566083322436E-3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -38813,7 +38816,7 @@
       </c>
       <c r="F8">
         <f ca="1">SUMXMY2(E4:E6,F4:F6)</f>
-        <v>292021.98613287107</v>
+        <v>292021.98613287765</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -38824,11 +38827,11 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" ref="L8:AI8" ca="1" si="5">M+f1_*flt1_ +f2_*flt2_ +f3_*flt3_</f>
-        <v>0.15407718613123417</v>
+        <v>0.15407718613123414</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17771778388825357</v>
+        <v>0.17771778388825354</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -38840,11 +38843,11 @@
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18268204978669481</v>
+        <v>0.18268204978669478</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19414409331688545</v>
+        <v>0.1941440933168854</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -38852,11 +38855,11 @@
       </c>
       <c r="S8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20716660637507986</v>
+        <v>0.20716660637507978</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21164473952595519</v>
+        <v>0.21164473952595517</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -38876,47 +38879,47 @@
       </c>
       <c r="Y8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33994631009620863</v>
+        <v>0.33994631009620857</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34996569434755997</v>
+        <v>0.34996569434755992</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35421784220787556</v>
+        <v>0.3542178422078755</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3559322982742823</v>
+        <v>0.35593229827428224</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35660868557644776</v>
+        <v>0.35660868557644765</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35687270566107809</v>
+        <v>0.35687270566107804</v>
       </c>
       <c r="AE8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35697479916092989</v>
+        <v>0.35697479916092978</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35701359551256934</v>
+        <v>0.35701359551256923</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35702769274586094</v>
+        <v>0.35702769274586083</v>
       </c>
       <c r="AH8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35703215881710104</v>
+        <v>0.35703215881710093</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35703287033438158</v>
+        <v>0.35703287033438147</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -39023,7 +39026,7 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85720585405435878</v>
+        <v>0.8572058540543589</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -39039,7 +39042,7 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83303297664754283</v>
+        <v>0.83303297664754294</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -39051,7 +39054,7 @@
       </c>
       <c r="S10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81288420701396258</v>
+        <v>0.81288420701396269</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -39075,7 +39078,7 @@
       </c>
       <c r="Y10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71180853866865534</v>
+        <v>0.71180853866865545</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -39099,23 +39102,23 @@
       </c>
       <c r="AE10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69979013281092051</v>
+        <v>0.69979013281092062</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69976298403349435</v>
+        <v>0.69976298403349446</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69975311938099194</v>
+        <v>0.69975311938099205</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69974999424068884</v>
+        <v>0.69974999424068896</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69974949635665296</v>
+        <v>0.69974949635665307</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -39128,7 +39131,7 @@
       </c>
       <c r="C11" s="17">
         <f ca="1">mpr1_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.28363576736936597</v>
+        <v>0.28363576736936613</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -39139,7 +39142,7 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" ref="L11:AI11" ca="1" si="7">1-sa</f>
-        <v>0.14279414594564122</v>
+        <v>0.1427941459456411</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -39155,7 +39158,7 @@
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16696702335245717</v>
+        <v>0.16696702335245706</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -39167,7 +39170,7 @@
       </c>
       <c r="S11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18711579298603742</v>
+        <v>0.18711579298603731</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -39191,7 +39194,7 @@
       </c>
       <c r="Y11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28819146133134466</v>
+        <v>0.28819146133134455</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -39215,23 +39218,23 @@
       </c>
       <c r="AE11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30020986718907949</v>
+        <v>0.30020986718907938</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30023701596650565</v>
+        <v>0.30023701596650554</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30024688061900806</v>
+        <v>0.30024688061900795</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30025000575931116</v>
+        <v>0.30025000575931104</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30025050364334704</v>
+        <v>0.30025050364334693</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -39244,7 +39247,7 @@
       </c>
       <c r="C12" s="17">
         <f ca="1">mpr2_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.55044115511719194</v>
+        <v>0.55044115511719183</v>
       </c>
       <c r="J12" t="s">
         <v>99</v>
@@ -39360,7 +39363,7 @@
       </c>
       <c r="C13" s="17">
         <f ca="1">mpr3_/SUM(mpr1_,mpr2_,mpr3_)</f>
-        <v>0.16592307751344212</v>
+        <v>0.16592307751344215</v>
       </c>
       <c r="J13" t="s">
         <v>100</v>
@@ -40083,11 +40086,11 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9360081360862391E-5</v>
+        <v>1.9360081360862381E-5</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.4883748448997299E-4</v>
+        <v>1.4883748448997301E-4</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -40099,11 +40102,11 @@
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5219713485545268E-2</v>
+        <v>1.5219713485545258E-2</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6150303576070482E-2</v>
+        <v>5.6150303576070495E-2</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -40111,11 +40114,11 @@
       </c>
       <c r="S22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0.63320355557127472</v>
+        <v>0.6332035555712745</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9339735053852365</v>
+        <v>1.9339735053852367</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -40135,27 +40138,27 @@
       </c>
       <c r="Y22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>45.558638509206816</v>
+        <v>45.558638509206808</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>53.556587977115029</v>
+        <v>53.556587977115043</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>60.238187219548806</v>
+        <v>60.238187219548813</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>66.198755547236615</v>
+        <v>66.19875554723663</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>71.75156948461597</v>
+        <v>71.751569484615985</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>77.034043493867259</v>
+        <v>77.034043493867273</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -40163,11 +40166,11 @@
       </c>
       <c r="AF22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>86.96107253258775</v>
+        <v>86.961072532587735</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>91.623668278695234</v>
+        <v>91.62366827869522</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -40175,7 +40178,7 @@
       </c>
       <c r="AI22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>100.34080989113325</v>
+        <v>100.34080989113323</v>
       </c>
       <c r="AM22" s="42"/>
     </row>
@@ -40195,11 +40198,11 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>3.8923952920294574E-2</v>
+        <v>3.8923952920294554E-2</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>0.79988447549817554</v>
+        <v>0.79988447549817576</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -40211,11 +40214,11 @@
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>5.5451676078242524</v>
+        <v>5.5451676078242498</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>7.340492612506762</v>
+        <v>7.3404926125067638</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -40223,11 +40226,11 @@
       </c>
       <c r="S23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>10.881576181089812</v>
+        <v>10.881576181089811</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>12.478125060922167</v>
+        <v>12.478125060922169</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -40247,35 +40250,35 @@
       </c>
       <c r="Y23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>16.446358725668215</v>
+        <v>16.446358725668208</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>18.195855302916716</v>
+        <v>18.195855302916719</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>19.967268472056983</v>
+        <v>19.967268472056986</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>21.729556772310062</v>
+        <v>21.729556772310065</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>23.462202423072409</v>
+        <v>23.462202423072416</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>25.151992639049215</v>
+        <v>25.151992639049222</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>26.790144239262251</v>
+        <v>26.790144239262247</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>28.370655309669001</v>
+        <v>28.370655309668997</v>
       </c>
       <c r="AG23" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -40283,11 +40286,11 @@
       </c>
       <c r="AH23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>31.343789883745895</v>
+        <v>31.343789883745892</v>
       </c>
       <c r="AI23" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>32.732175726260131</v>
+        <v>32.732175726260124</v>
       </c>
       <c r="AM23" s="42"/>
     </row>
@@ -40307,11 +40310,11 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>9.9326286214240778E-4</v>
+        <v>9.9326286214240734E-4</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0637117439866102E-2</v>
+        <v>1.0637117439866103E-2</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -40323,11 +40326,11 @@
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0.27022161457834731</v>
+        <v>0.2702216145783472</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>5.9681734960742308</v>
+        <v>5.9681734960742325</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -40339,7 +40342,7 @@
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>23.26634124490538</v>
+        <v>23.266341244905384</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -40359,11 +40362,11 @@
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>28.042347196354285</v>
+        <v>28.042347196354278</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>31.025377741679002</v>
+        <v>31.025377741679009</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -40371,19 +40374,19 @@
       </c>
       <c r="AB24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>37.050619264493299</v>
+        <v>37.050619264493307</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>40.004917642474048</v>
+        <v>40.004917642474062</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>42.88614410213215</v>
+        <v>42.886144102132157</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>45.679322622660308</v>
+        <v>45.679322622660301</v>
       </c>
       <c r="AF24" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -40399,7 +40402,7 @@
       </c>
       <c r="AI24" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>55.810958007093632</v>
+        <v>55.810958007093618</v>
       </c>
       <c r="AM24" s="43"/>
     </row>
@@ -40437,11 +40440,11 @@
       </c>
       <c r="L26">
         <f t="shared" ref="L26:AI26" ca="1" si="20">qa1_/wa</f>
-        <v>4.1614369404162931E-5</v>
+        <v>4.161436940416291E-5</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="20"/>
-        <v>1.055378752220728E-4</v>
+        <v>1.0553787522207281E-4</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="20"/>
@@ -40453,11 +40456,11 @@
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="20"/>
-        <v>1.7747028978357723E-3</v>
+        <v>1.774702897835771E-3</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="20"/>
-        <v>4.5142170202072196E-3</v>
+        <v>4.5142170202072205E-3</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="20"/>
@@ -40465,7 +40468,7 @@
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="20"/>
-        <v>2.8730652752654955E-2</v>
+        <v>2.8730652752654944E-2</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="20"/>
@@ -40489,27 +40492,27 @@
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.76607092066293681</v>
+        <v>0.76607092066293669</v>
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.81013534835615753</v>
+        <v>0.81013534835615775</v>
       </c>
       <c r="AA26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.8287072189596828</v>
+        <v>0.82870721895968291</v>
       </c>
       <c r="AB26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.83617376821888501</v>
+        <v>0.83617376821888512</v>
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.83911606671009009</v>
+        <v>0.8391160667100902</v>
       </c>
       <c r="AD26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.84026403711567688</v>
+        <v>0.8402640371156771</v>
       </c>
       <c r="AE26">
         <f t="shared" ca="1" si="20"/>
@@ -40517,11 +40520,11 @@
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.84087651213253334</v>
+        <v>0.84087651213253312</v>
       </c>
       <c r="AG26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.84093779089637066</v>
+        <v>0.84093779089637044</v>
       </c>
       <c r="AH26">
         <f t="shared" ca="1" si="20"/>
@@ -40529,7 +40532,7 @@
       </c>
       <c r="AI26">
         <f t="shared" ca="1" si="20"/>
-        <v>0.84096029696260588</v>
+        <v>0.84096029696260577</v>
       </c>
       <c r="AM26" s="43"/>
     </row>
@@ -40539,7 +40542,7 @@
       </c>
       <c r="B27" s="27">
         <f ca="1">fbar*C27</f>
-        <v>0.17733080709272395</v>
+        <v>0.17733080709272392</v>
       </c>
       <c r="C27" s="35">
         <f ca="1">CHOOSE(C$25,E36,E39,1)</f>
@@ -40558,11 +40561,11 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="21"/>
-        <v>8.3666784519299736E-2</v>
+        <v>8.3666784519299695E-2</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56718311423011691</v>
+        <v>0.56718311423011702</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="21"/>
@@ -40574,11 +40577,11 @@
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.64659725900472087</v>
+        <v>0.64659725900472065</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.5901406506768232</v>
+        <v>0.59014065067682331</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="21"/>
@@ -40586,11 +40589,11 @@
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.49373504603649015</v>
+        <v>0.4937350460364901</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.45205138556549235</v>
+        <v>0.4520513855654924</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="21"/>
@@ -40610,35 +40613,35 @@
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.2765463934568515</v>
+        <v>0.27654639345685139</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27524355324438537</v>
+        <v>0.27524355324438543</v>
       </c>
       <c r="AA27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.2746931853276251</v>
+        <v>0.27469318532762516</v>
       </c>
       <c r="AB27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.274471705968303</v>
+        <v>0.27447170596830306</v>
       </c>
       <c r="AC27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27438439542183957</v>
+        <v>0.27438439542183962</v>
       </c>
       <c r="AD27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27435032510105484</v>
+        <v>0.27435032510105495</v>
       </c>
       <c r="AE27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27433715206258336</v>
+        <v>0.2743371520625833</v>
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27433214642987458</v>
+        <v>0.27433214642987452</v>
       </c>
       <c r="AG27">
         <f t="shared" ca="1" si="21"/>
@@ -40646,11 +40649,11 @@
       </c>
       <c r="AH27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.2743297513757556</v>
+        <v>0.27432975137575555</v>
       </c>
       <c r="AI27">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27432965957573291</v>
+        <v>0.27432965957573285</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -40663,11 +40666,11 @@
       </c>
       <c r="C28" s="35">
         <f ca="1">CHOOSE(C$25,E37,E40,1)</f>
-        <v>0.53447463437514431</v>
+        <v>0.53447463437514442</v>
       </c>
       <c r="E28" s="41">
         <f ca="1">f2_/(F5/(f2_*365*re*phib))</f>
-        <v>35.981514314308605</v>
+        <v>35.981514314308633</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
@@ -40678,11 +40681,11 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="22"/>
-        <v>2.1350120844114626E-3</v>
+        <v>2.1350120844114617E-3</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="22"/>
-        <v>7.542580936099821E-3</v>
+        <v>7.5425809360998228E-3</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="22"/>
@@ -40694,11 +40697,11 @@
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="22"/>
-        <v>3.1509337078225105E-2</v>
+        <v>3.1509337078225091E-2</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.47981272868860508</v>
+        <v>0.47981272868860525</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="22"/>
@@ -40710,7 +40713,7 @@
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.84288158240511823</v>
+        <v>0.84288158240511835</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="22"/>
@@ -40730,11 +40733,11 @@
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.47153355405736125</v>
+        <v>0.47153355405736114</v>
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46931210807112445</v>
+        <v>0.46931210807112456</v>
       </c>
       <c r="AA28">
         <f t="shared" ca="1" si="22"/>
@@ -40742,19 +40745,19 @@
       </c>
       <c r="AB28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46799604719348575</v>
+        <v>0.46799604719348586</v>
       </c>
       <c r="AC28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46784717578075119</v>
+        <v>0.46784717578075136</v>
       </c>
       <c r="AD28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46778908317919293</v>
+        <v>0.46778908317919299</v>
       </c>
       <c r="AE28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46776662210287745</v>
+        <v>0.46776662210287739</v>
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="22"/>
@@ -40770,7 +40773,7 @@
       </c>
       <c r="AI28">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46775384681801779</v>
+        <v>0.46775384681801768</v>
       </c>
     </row>
     <row r="29" spans="1:39">
@@ -40779,7 +40782,7 @@
       </c>
       <c r="B29" s="27">
         <f ca="1">fbar*C29</f>
-        <v>2.7374757105308529E-2</v>
+        <v>2.7374757105308532E-2</v>
       </c>
       <c r="C29" s="35">
         <f ca="1">CHOOSE(C$25,E38,E41,1)</f>
@@ -40787,7 +40790,7 @@
       </c>
       <c r="E29" s="41">
         <f ca="1">f3_/(F6/(f3_*365*re*phib))</f>
-        <v>18.007402016540116</v>
+        <v>18.00740201654013</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -40817,7 +40820,7 @@
       </c>
       <c r="B31" s="36">
         <f ca="1">SUM(B27:B29)</f>
-        <v>0.24908147413784867</v>
+        <v>0.24908147413784865</v>
       </c>
       <c r="G31">
         <f ca="1">SUMPRODUCT(dlz1_,wa,ma)</f>
@@ -40843,11 +40846,11 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.0874496700883636E-4</v>
+        <v>-1.0874496700883634E-4</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.3956608718024512E-4</v>
+        <v>-2.395660871802451E-4</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="23"/>
@@ -40867,59 +40870,59 @@
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="23"/>
-        <v>-9.96014928693836E-3</v>
+        <v>-9.9601492869383582E-3</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="23"/>
-        <v>-1.990138828729119E-2</v>
+        <v>-1.9901388287291183E-2</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="23"/>
-        <v>-3.727337458830398E-2</v>
+        <v>-3.7273374588303959E-2</v>
       </c>
       <c r="W31">
         <f t="shared" ca="1" si="23"/>
-        <v>-6.188858555855857E-2</v>
+        <v>-6.1888585558558536E-2</v>
       </c>
       <c r="X31">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.6726747031121695E-2</v>
+        <v>-8.6726747031121654E-2</v>
       </c>
       <c r="Y31">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.10229432730133593</v>
+        <v>-0.10229432730133589</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.10531941921003773</v>
+        <v>-0.10531941921003771</v>
       </c>
       <c r="AA31">
         <f t="shared" ca="1" si="23"/>
-        <v>-9.8787764935441322E-2</v>
+        <v>-9.8787764935441294E-2</v>
       </c>
       <c r="AB31">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.7099686265665166E-2</v>
+        <v>-8.7099686265665138E-2</v>
       </c>
       <c r="AC31">
         <f t="shared" ca="1" si="23"/>
-        <v>-7.3634106793823859E-2</v>
+        <v>-7.3634106793823831E-2</v>
       </c>
       <c r="AD31">
         <f t="shared" ca="1" si="23"/>
-        <v>-6.0430486304834045E-2</v>
+        <v>-6.0430486304834025E-2</v>
       </c>
       <c r="AE31">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.8524481948209096E-2</v>
+        <v>-4.8524481948209082E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="23"/>
-        <v>-3.8321918924664175E-2</v>
+        <v>-3.8321918924664168E-2</v>
       </c>
       <c r="AG31">
         <f t="shared" ca="1" si="23"/>
-        <v>-2.9871913945975121E-2</v>
+        <v>-2.9871913945975118E-2</v>
       </c>
       <c r="AH31">
         <f t="shared" ca="1" si="23"/>
@@ -40927,7 +40930,7 @@
       </c>
       <c r="AI31">
         <f ca="1">(AH31*sa-AH$7*AH18*AH$10)/oa-AH$7*AH$10*flt1_*sa/oa^2</f>
-        <v>-7.0300080422182498E-2</v>
+        <v>-7.0300080422182526E-2</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -40938,11 +40941,11 @@
       <c r="C32" s="11"/>
       <c r="G32">
         <f ca="1">SUMPRODUCT(dlz2_,wa,ma)</f>
-        <v>-170.04456820852704</v>
+        <v>-170.04456820852698</v>
       </c>
       <c r="H32">
         <f ca="1">Ro/(reck-1)*phie/phif^2*dphif</f>
-        <v>-22490.143682763806</v>
+        <v>-22490.143682763799</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>53</v>
@@ -40960,11 +40963,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.44119165140935934</v>
+        <v>-0.44119165140935929</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.86821300433379911</v>
+        <v>-0.868213004333799</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="24"/>
@@ -40976,7 +40979,7 @@
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.141790058882564</v>
+        <v>-1.1417900588825638</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="24"/>
@@ -40988,31 +40991,31 @@
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.84957252891428836</v>
+        <v>-0.84957252891428825</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.71615358754291947</v>
+        <v>-0.71615358754291936</v>
       </c>
       <c r="W32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.57599700021930555</v>
+        <v>-0.57599700021930544</v>
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.4450684669055382</v>
+        <v>-0.44506846690553808</v>
       </c>
       <c r="Y32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.33517109724865518</v>
+        <v>-0.33517109724865513</v>
       </c>
       <c r="Z32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.24819547523911126</v>
+        <v>-0.24819547523911123</v>
       </c>
       <c r="AA32">
         <f t="shared" ca="1" si="24"/>
-        <v>-0.1826181808444457</v>
+        <v>-0.18261818084444567</v>
       </c>
       <c r="AB32">
         <f t="shared" ca="1" si="24"/>
@@ -41032,19 +41035,19 @@
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="24"/>
-        <v>-3.781338342560852E-2</v>
+        <v>-3.7813383425608527E-2</v>
       </c>
       <c r="AG32">
         <f t="shared" ca="1" si="24"/>
-        <v>-2.7457049460859553E-2</v>
+        <v>-2.7457049460859563E-2</v>
       </c>
       <c r="AH32">
         <f t="shared" ca="1" si="24"/>
-        <v>-1.9910735576171693E-2</v>
+        <v>-1.9910735576171703E-2</v>
       </c>
       <c r="AI32">
         <f ca="1">(AH32*sa-AH$7*AH19*AH$10)/oa-AH$7*AH$10*flt2_*sa/oa^2</f>
-        <v>-5.1818311007088558E-2</v>
+        <v>-5.1818311007088606E-2</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -41053,7 +41056,7 @@
       </c>
       <c r="B33" s="59">
         <f ca="1">SUMPRODUCT(lz,wa)</f>
-        <v>60.499614666018886</v>
+        <v>60.499614666018871</v>
       </c>
       <c r="C33" s="58"/>
       <c r="D33" s="60"/>
@@ -41082,7 +41085,7 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="25"/>
-        <v>-6.8623676153447503E-3</v>
+        <v>-6.8623676153447494E-3</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="25"/>
@@ -41090,7 +41093,7 @@
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.8696780838790263E-2</v>
+        <v>-5.869678083879027E-2</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="25"/>
@@ -41098,31 +41101,31 @@
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.20051654222613255</v>
+        <v>-0.20051654222613252</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.38257758389408636</v>
+        <v>-0.3825775838940863</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.49881156482393996</v>
+        <v>-0.49881156482393985</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.54198195089785617</v>
+        <v>-0.54198195089785606</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.52513335642850001</v>
+        <v>-0.5251333564284999</v>
       </c>
       <c r="W33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.46583259169849556</v>
+        <v>-0.46583259169849534</v>
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.38670055389274638</v>
+        <v>-0.38670055389274627</v>
       </c>
       <c r="Y33">
         <f t="shared" ca="1" si="25"/>
@@ -41134,27 +41137,27 @@
       </c>
       <c r="AA33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.18069921630540159</v>
+        <v>-0.18069921630540156</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.13669848664043807</v>
+        <v>-0.13669848664043804</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.10278108578561569</v>
+        <v>-0.10278108578561565</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="25"/>
-        <v>-7.6892925112455712E-2</v>
+        <v>-7.6892925112455671E-2</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="25"/>
-        <v>-5.7280498041224946E-2</v>
+        <v>-5.7280498041224925E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="25"/>
-        <v>-4.2512155099078089E-2</v>
+        <v>-4.2512155099078082E-2</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="25"/>
@@ -41162,11 +41165,11 @@
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="25"/>
-        <v>-2.3195316403981276E-2</v>
+        <v>-2.319531640398128E-2</v>
       </c>
       <c r="AI33">
         <f ca="1">(AH33*sa-AH$7*AH20*AH$10)/oa-AH$7*AH$10*flt3_*sa/oa^2</f>
-        <v>-6.329141528453168E-2</v>
+        <v>-6.3291415284531707E-2</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -41188,7 +41191,7 @@
       </c>
       <c r="B35" s="1">
         <f ca="1">SUMPRODUCT(lz,wa,ma)</f>
-        <v>26.217357988882686</v>
+        <v>26.217357988882675</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="1">
@@ -41212,11 +41215,11 @@
       </c>
       <c r="L35">
         <f t="shared" ref="L35:AI35" ca="1" si="26">flt1_*qa1_+lz*wa*flt1_^2/za*(sa-oa/za)</f>
-        <v>5.0492711972962322E-10</v>
+        <v>5.0492711972962612E-10</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1009515921950273E-8</v>
+        <v>1.100951592195027E-8</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="26"/>
@@ -41228,11 +41231,11 @@
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="26"/>
-        <v>2.3566086423250739E-5</v>
+        <v>2.3566086423250759E-5</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="26"/>
-        <v>2.3190759175318026E-4</v>
+        <v>2.3190759175318018E-4</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="26"/>
@@ -41256,7 +41259,7 @@
       </c>
       <c r="W35">
         <f t="shared" ca="1" si="26"/>
-        <v>13.222664563766442</v>
+        <v>13.222664563766443</v>
       </c>
       <c r="X35">
         <f t="shared" ca="1" si="26"/>
@@ -41264,27 +41267,27 @@
       </c>
       <c r="Y35">
         <f t="shared" ca="1" si="26"/>
-        <v>40.165536359444403</v>
+        <v>40.165536359444395</v>
       </c>
       <c r="Z35">
         <f t="shared" ca="1" si="26"/>
-        <v>50.531706018927679</v>
+        <v>50.531706018927693</v>
       </c>
       <c r="AA35">
         <f t="shared" ca="1" si="26"/>
-        <v>58.559023350193328</v>
+        <v>58.559023350193335</v>
       </c>
       <c r="AB35">
         <f t="shared" ca="1" si="26"/>
-        <v>65.225113479790451</v>
+        <v>65.225113479790465</v>
       </c>
       <c r="AC35">
         <f t="shared" ca="1" si="26"/>
-        <v>71.151028063928791</v>
+        <v>71.151028063928806</v>
       </c>
       <c r="AD35">
         <f t="shared" ca="1" si="26"/>
-        <v>76.641637095130193</v>
+        <v>76.641637095130207</v>
       </c>
       <c r="AE35">
         <f t="shared" ca="1" si="26"/>
@@ -41292,11 +41295,11 @@
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="26"/>
-        <v>86.772995328893501</v>
+        <v>86.772995328893487</v>
       </c>
       <c r="AG35">
         <f t="shared" ca="1" si="26"/>
-        <v>91.489282696348127</v>
+        <v>91.489282696348113</v>
       </c>
       <c r="AH35">
         <f t="shared" ca="1" si="26"/>
@@ -41304,7 +41307,7 @@
       </c>
       <c r="AI35">
         <f t="shared" ca="1" si="26"/>
-        <v>100.1055798880432</v>
+        <v>100.10557988804318</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -41313,11 +41316,11 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">SUMPRODUCT(lz,ta1_)</f>
-        <v>0.32757542724087341</v>
+        <v>0.3275754272408733</v>
       </c>
       <c r="C36" s="28">
         <f ca="1">B11/(phi_t1/SUM(B$36:B$38))</f>
-        <v>4.1750065860662469</v>
+        <v>4.1750065860662486</v>
       </c>
       <c r="E36" s="37">
         <f ca="1">C36/AVERAGE(C$36:C$38)</f>
@@ -41344,11 +41347,11 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="27"/>
-        <v>2.0410245019781659E-3</v>
+        <v>2.0410245019781776E-3</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="27"/>
-        <v>0.31797876401714165</v>
+        <v>0.31797876401714154</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="27"/>
@@ -41360,7 +41363,7 @@
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="27"/>
-        <v>3.1282673912263839</v>
+        <v>3.1282673912263874</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="27"/>
@@ -41368,11 +41371,11 @@
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="27"/>
-        <v>4.6887837593406374</v>
+        <v>4.6887837593406383</v>
       </c>
       <c r="S36">
         <f t="shared" ca="1" si="27"/>
-        <v>5.277323695757719</v>
+        <v>5.2773236957577208</v>
       </c>
       <c r="T36">
         <f t="shared" ca="1" si="27"/>
@@ -41384,7 +41387,7 @@
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="27"/>
-        <v>5.9014489596109669</v>
+        <v>5.9014489596109678</v>
       </c>
       <c r="W36">
         <f t="shared" ca="1" si="27"/>
@@ -41396,7 +41399,7 @@
       </c>
       <c r="Y36">
         <f t="shared" ca="1" si="27"/>
-        <v>5.2342156834157967</v>
+        <v>5.234215683415794</v>
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="27"/>
@@ -41404,27 +41407,27 @@
       </c>
       <c r="AA36">
         <f t="shared" ca="1" si="27"/>
-        <v>6.4340932623799194</v>
+        <v>6.4340932623799203</v>
       </c>
       <c r="AB36">
         <f t="shared" ca="1" si="27"/>
-        <v>7.027760108825821</v>
+        <v>7.0277601088258219</v>
       </c>
       <c r="AC36">
         <f t="shared" ca="1" si="27"/>
-        <v>7.6077445917436046</v>
+        <v>7.6077445917436073</v>
       </c>
       <c r="AD36">
         <f t="shared" ca="1" si="27"/>
-        <v>8.1704161715872328</v>
+        <v>8.1704161715872345</v>
       </c>
       <c r="AE36">
         <f t="shared" ca="1" si="27"/>
-        <v>8.7135584170306011</v>
+        <v>8.7135584170305993</v>
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="27"/>
-        <v>9.2357793526131875</v>
+        <v>9.2357793526131857</v>
       </c>
       <c r="AG36">
         <f t="shared" ca="1" si="27"/>
@@ -41432,11 +41435,11 @@
       </c>
       <c r="AH36">
         <f t="shared" ca="1" si="27"/>
-        <v>10.214372047375502</v>
+        <v>10.2143720473755</v>
       </c>
       <c r="AI36">
         <f t="shared" ca="1" si="27"/>
-        <v>10.652531564541089</v>
+        <v>10.652531564541087</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -41445,7 +41448,7 @@
       </c>
       <c r="B37" s="1">
         <f ca="1">SUMPRODUCT(lz,ta2_)</f>
-        <v>2.540376794941964</v>
+        <v>2.5403767949419631</v>
       </c>
       <c r="C37" s="28">
         <f ca="1">B12/(phi_t2/SUM(B$36:B$38))</f>
@@ -41453,7 +41456,7 @@
       </c>
       <c r="E37" s="37">
         <f ca="1">C37/AVERAGE(C$36:C$38)</f>
-        <v>0.46775547888317909</v>
+        <v>0.46775547888317892</v>
       </c>
       <c r="G37" s="1">
         <f ca="1">SUM(dqa31_)</f>
@@ -41476,11 +41479,11 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="28"/>
-        <v>1.3290543351448646E-6</v>
+        <v>1.3290543351448724E-6</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="28"/>
-        <v>5.6233030540588127E-5</v>
+        <v>5.6233030540588093E-5</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="28"/>
@@ -41492,11 +41495,11 @@
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="28"/>
-        <v>7.4287318384967573E-3</v>
+        <v>7.4287318384967669E-3</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="28"/>
-        <v>2.6199537700694995</v>
+        <v>2.619953770069499</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="28"/>
@@ -41504,7 +41507,7 @@
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="28"/>
-        <v>17.523292132516886</v>
+        <v>17.523292132516893</v>
       </c>
       <c r="T37">
         <f t="shared" ca="1" si="28"/>
@@ -41528,11 +41531,11 @@
       </c>
       <c r="Y37">
         <f t="shared" ca="1" si="28"/>
-        <v>15.217412769932047</v>
+        <v>15.217412769932043</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="28"/>
-        <v>16.957909562469418</v>
+        <v>16.957909562469421</v>
       </c>
       <c r="AA37">
         <f t="shared" ca="1" si="28"/>
@@ -41540,19 +41543,19 @@
       </c>
       <c r="AB37">
         <f t="shared" ca="1" si="28"/>
-        <v>20.431776772766511</v>
+        <v>20.431776772766518</v>
       </c>
       <c r="AC37">
         <f t="shared" ca="1" si="28"/>
-        <v>22.117963168309899</v>
+        <v>22.117963168309906</v>
       </c>
       <c r="AD37">
         <f t="shared" ca="1" si="28"/>
-        <v>23.753815835122921</v>
+        <v>23.753815835122925</v>
       </c>
       <c r="AE37">
         <f t="shared" ca="1" si="28"/>
-        <v>25.332890951933102</v>
+        <v>25.332890951933098</v>
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="28"/>
@@ -41568,7 +41571,7 @@
       </c>
       <c r="AI37">
         <f t="shared" ca="1" si="28"/>
-        <v>30.970059253760898</v>
+        <v>30.970059253760891</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -41581,11 +41584,11 @@
       </c>
       <c r="C38" s="28">
         <f ca="1">B13/(phi_t3/SUM(B$36:B$38))</f>
-        <v>0.45744785099534596</v>
+        <v>0.45744785099534579</v>
       </c>
       <c r="E38" s="37">
         <f ca="1">C38/AVERAGE(C$36:C$38)</f>
-        <v>0.250055306558912</v>
+        <v>0.25005530655891189</v>
       </c>
       <c r="G38" t="s">
         <v>69</v>
@@ -41599,11 +41602,11 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="29"/>
-        <v>-7.3174716466439963E-7</v>
+        <v>-7.3174716466439264E-7</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="29"/>
-        <v>-3.2956837929808955E-5</v>
+        <v>-3.2956837929809002E-5</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="29"/>
@@ -41615,23 +41618,23 @@
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="29"/>
-        <v>-2.1516203498859756E-3</v>
+        <v>-2.1516203498859608E-3</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="29"/>
-        <v>-5.861224434971191E-3</v>
+        <v>-5.8612244349712083E-3</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="29"/>
-        <v>-1.3540641839430854E-2</v>
+        <v>-1.354064183943085E-2</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="29"/>
-        <v>-1.8904361175512842E-2</v>
+        <v>-1.890436117551271E-2</v>
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="29"/>
-        <v>6.1462923049829934E-2</v>
+        <v>6.1462923049829907E-2</v>
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="29"/>
@@ -41651,27 +41654,27 @@
       </c>
       <c r="Y38">
         <f t="shared" ca="1" si="29"/>
-        <v>40.806672765953756</v>
+        <v>40.806672765953749</v>
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="29"/>
-        <v>51.1196464168506</v>
+        <v>51.119646416850614</v>
       </c>
       <c r="AA38">
         <f t="shared" ca="1" si="29"/>
-        <v>59.042308350111426</v>
+        <v>59.042308350111433</v>
       </c>
       <c r="AB38">
         <f t="shared" ca="1" si="29"/>
-        <v>65.60316491531286</v>
+        <v>65.603164915312874</v>
       </c>
       <c r="AC38">
         <f t="shared" ca="1" si="29"/>
-        <v>71.439680763602041</v>
+        <v>71.439680763602055</v>
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="29"/>
-        <v>76.859055118734616</v>
+        <v>76.859055118734631</v>
       </c>
       <c r="AE38">
         <f t="shared" ca="1" si="29"/>
@@ -41679,11 +41682,11 @@
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="29"/>
-        <v>86.893337936327669</v>
+        <v>86.893337936327654</v>
       </c>
       <c r="AG38">
         <f t="shared" ca="1" si="29"/>
-        <v>91.578019409408412</v>
+        <v>91.578019409408398</v>
       </c>
       <c r="AH38">
         <f t="shared" ca="1" si="29"/>
@@ -41691,7 +41694,7 @@
       </c>
       <c r="AI38">
         <f t="shared" ca="1" si="29"/>
-        <v>100.26406763458147</v>
+        <v>100.26406763458145</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -41700,28 +41703,28 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">SUMPRODUCT(lz,qa1_)</f>
-        <v>18.302347642941434</v>
+        <v>18.302347642941427</v>
       </c>
       <c r="C39" s="22">
         <f ca="1">B4/(phi_q1/SUM(B$39:B$41))</f>
-        <v>2.6122937050394333</v>
+        <v>2.6122937050394337</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="38">
         <f ca="1">C39/AVERAGE(C$39:C$41)</f>
-        <v>2.1358168973407965</v>
+        <v>2.1358168973407969</v>
       </c>
       <c r="G39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H31+f1_*re*G35</f>
-        <v>1265165.534665264</v>
+        <v>1265165.5346652637</v>
       </c>
       <c r="H39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*H35</f>
-        <v>1225714.1720279702</v>
+        <v>1225714.17202797</v>
       </c>
       <c r="I39" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*I35</f>
-        <v>1231618.6449867121</v>
+        <v>1231618.6449867119</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>66</v>
@@ -41732,11 +41735,11 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.7825616818208492E-8</v>
+        <v>-1.7825616818208317E-8</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="30"/>
-        <v>-4.2135337639052201E-7</v>
+        <v>-4.2135337639052265E-7</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="30"/>
@@ -41748,35 +41751,35 @@
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="30"/>
-        <v>-7.6738055150665538E-5</v>
+        <v>-7.6738055150664847E-5</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="30"/>
-        <v>-4.7133209998224106E-3</v>
+        <v>-4.7133209998224236E-3</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="30"/>
-        <v>-2.277274631882914E-2</v>
+        <v>-2.2772746318829137E-2</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="30"/>
-        <v>-5.1008919371625355E-2</v>
+        <v>-5.1008919371625112E-2</v>
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="30"/>
-        <v>-1.5381379991153243E-2</v>
+        <v>-1.5381379991153382E-2</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="30"/>
-        <v>0.61397244469027723</v>
+        <v>0.61397244469027745</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="30"/>
-        <v>3.912796720457886</v>
+        <v>3.9127967204578864</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="30"/>
-        <v>13.114380308082527</v>
+        <v>13.114380308082529</v>
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="30"/>
@@ -41788,23 +41791,23 @@
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="30"/>
-        <v>50.90633085584949</v>
+        <v>50.906330855849504</v>
       </c>
       <c r="AA39">
         <f t="shared" ca="1" si="30"/>
-        <v>58.87335436051427</v>
+        <v>58.873354360514277</v>
       </c>
       <c r="AB39">
         <f t="shared" ca="1" si="30"/>
-        <v>65.472914093879936</v>
+        <v>65.47291409387995</v>
       </c>
       <c r="AC39">
         <f t="shared" ca="1" si="30"/>
-        <v>71.340795652891856</v>
+        <v>71.34079565289187</v>
       </c>
       <c r="AD39">
         <f t="shared" ca="1" si="30"/>
-        <v>76.784738007173345</v>
+        <v>76.78473800717336</v>
       </c>
       <c r="AE39">
         <f t="shared" ca="1" si="30"/>
@@ -41812,11 +41815,11 @@
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="30"/>
-        <v>86.852251335780522</v>
+        <v>86.852251335780508</v>
       </c>
       <c r="AG39">
         <f t="shared" ca="1" si="30"/>
-        <v>91.547727065044796</v>
+        <v>91.547727065044782</v>
       </c>
       <c r="AH39">
         <f t="shared" ca="1" si="30"/>
@@ -41824,7 +41827,7 @@
       </c>
       <c r="AI39">
         <f t="shared" ca="1" si="30"/>
-        <v>100.20996649436886</v>
+        <v>100.20996649436884</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -41833,7 +41836,7 @@
       </c>
       <c r="B40" s="1">
         <f ca="1">SUMPRODUCT(lz,qa2_)</f>
-        <v>27.276353163440191</v>
+        <v>27.276353163440181</v>
       </c>
       <c r="C40" s="22">
         <f ca="1">B5/(phi_q2/SUM(B$39:B$41))</f>
@@ -41846,11 +41849,11 @@
       </c>
       <c r="G40" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H32+f1_*re*G36</f>
-        <v>1225714.1720279702</v>
+        <v>1225714.17202797</v>
       </c>
       <c r="H40" s="1">
         <f ca="1">re*phi_q2+f2_*phi_q2*$H32+f2_*re*H36</f>
-        <v>225563.52924498008</v>
+        <v>225563.52924498002</v>
       </c>
       <c r="I40" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*I36</f>
@@ -41865,11 +41868,11 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="31"/>
-        <v>-7.3174716466439973E-7</v>
+        <v>-7.3174716466439275E-7</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="31"/>
-        <v>-3.2956837929808955E-5</v>
+        <v>-3.2956837929809002E-5</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="31"/>
@@ -41881,23 +41884,23 @@
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="31"/>
-        <v>-2.1516203498859756E-3</v>
+        <v>-2.1516203498859608E-3</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="31"/>
-        <v>-5.861224434971191E-3</v>
+        <v>-5.8612244349712083E-3</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.3540641839430854E-2</v>
+        <v>-1.354064183943085E-2</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.8904361175512835E-2</v>
+        <v>-1.8904361175512703E-2</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="31"/>
-        <v>6.1462923049829934E-2</v>
+        <v>6.1462923049829907E-2</v>
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="31"/>
@@ -41917,27 +41920,27 @@
       </c>
       <c r="Y40">
         <f t="shared" ca="1" si="31"/>
-        <v>40.806672765953756</v>
+        <v>40.806672765953749</v>
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="31"/>
-        <v>51.1196464168506</v>
+        <v>51.119646416850614</v>
       </c>
       <c r="AA40">
         <f t="shared" ca="1" si="31"/>
-        <v>59.042308350111426</v>
+        <v>59.042308350111433</v>
       </c>
       <c r="AB40">
         <f t="shared" ca="1" si="31"/>
-        <v>65.60316491531286</v>
+        <v>65.603164915312874</v>
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="31"/>
-        <v>71.439680763602041</v>
+        <v>71.439680763602055</v>
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="31"/>
-        <v>76.859055118734616</v>
+        <v>76.859055118734631</v>
       </c>
       <c r="AE40">
         <f t="shared" ca="1" si="31"/>
@@ -41945,11 +41948,11 @@
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="31"/>
-        <v>86.893337936327669</v>
+        <v>86.893337936327654</v>
       </c>
       <c r="AG40">
         <f t="shared" ca="1" si="31"/>
-        <v>91.578019409408412</v>
+        <v>91.578019409408398</v>
       </c>
       <c r="AH40">
         <f t="shared" ca="1" si="31"/>
@@ -41957,7 +41960,7 @@
       </c>
       <c r="AI40">
         <f t="shared" ca="1" si="31"/>
-        <v>100.26406763458147</v>
+        <v>100.26406763458145</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -41966,20 +41969,20 @@
       </c>
       <c r="B41" s="1">
         <f ca="1">SUMPRODUCT(lz,qa3_)</f>
-        <v>33.621546391629735</v>
+        <v>33.621546391629728</v>
       </c>
       <c r="C41" s="22">
         <f ca="1">B6/(phi_q3/SUM(B$39:B$41))</f>
-        <v>0.40326273158949122</v>
+        <v>0.40326273158949116</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="38">
         <f ca="1">C41/AVERAGE(C$39:C$41)</f>
-        <v>0.32970846828405925</v>
+        <v>0.3297084682840592</v>
       </c>
       <c r="G41" s="1">
         <f ca="1">re*phi_q1+f1_*phi_q1*$H33+f1_*re*G37</f>
-        <v>1231618.6449867121</v>
+        <v>1231618.6449867119</v>
       </c>
       <c r="H41" s="1">
         <f ca="1">re*phi_q3+f3_*phi_q3*$H33+f3_*re*H37</f>
@@ -41998,11 +42001,11 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.7585788010074965E-5</v>
+        <v>-3.7585788010074612E-5</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="32"/>
-        <v>-2.3565674964096963E-3</v>
+        <v>-2.3565674964096993E-3</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="32"/>
@@ -42014,11 +42017,11 @@
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="32"/>
-        <v>-3.8696544622905019E-2</v>
+        <v>-3.8696544622904755E-2</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.6523477370936126</v>
+        <v>-0.65234773709361427</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="32"/>
@@ -42026,19 +42029,19 @@
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="32"/>
-        <v>-1.2025801868584585</v>
+        <v>-1.202580186858454</v>
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.91892942042081782</v>
+        <v>-0.91892942042081871</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="32"/>
-        <v>8.0547923833627411E-2</v>
+        <v>8.0547923833627855E-2</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="32"/>
-        <v>3.8092453313576802</v>
+        <v>3.8092453313576806</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="32"/>
@@ -42046,7 +42049,7 @@
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="32"/>
-        <v>27.506589258447004</v>
+        <v>27.506589258447008</v>
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="32"/>
@@ -42054,23 +42057,23 @@
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="32"/>
-        <v>51.246925236935645</v>
+        <v>51.24692523693566</v>
       </c>
       <c r="AA41">
         <f t="shared" ca="1" si="32"/>
-        <v>59.146500258299099</v>
+        <v>59.146500258299106</v>
       </c>
       <c r="AB41">
         <f t="shared" ca="1" si="32"/>
-        <v>65.684504775368524</v>
+        <v>65.684504775368538</v>
       </c>
       <c r="AC41">
         <f t="shared" ca="1" si="32"/>
-        <v>71.501733282000885</v>
+        <v>71.501733282000899</v>
       </c>
       <c r="AD41">
         <f t="shared" ca="1" si="32"/>
-        <v>76.905778267658221</v>
+        <v>76.905778267658235</v>
       </c>
       <c r="AE41">
         <f t="shared" ca="1" si="32"/>
@@ -42078,11 +42081,11 @@
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="32"/>
-        <v>86.919194848933827</v>
+        <v>86.919194848933813</v>
       </c>
       <c r="AG41">
         <f t="shared" ca="1" si="32"/>
-        <v>91.597085103665336</v>
+        <v>91.597085103665322</v>
       </c>
       <c r="AH41">
         <f t="shared" ca="1" si="32"/>
@@ -42090,7 +42093,7 @@
       </c>
       <c r="AI41">
         <f t="shared" ca="1" si="32"/>
-        <v>100.29811958956793</v>
+        <v>100.29811958956792</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -42099,7 +42102,7 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">SUMPRODUCT(lz/SUM(lz),len,ta1_)</f>
-        <v>7.5104350330022269</v>
+        <v>7.5104350330022225</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>68</v>
@@ -42110,11 +42113,11 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.7825616818208492E-8</v>
+        <v>-1.7825616818208314E-8</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="33"/>
-        <v>-4.2135337639052201E-7</v>
+        <v>-4.2135337639052265E-7</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="33"/>
@@ -42126,35 +42129,35 @@
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="33"/>
-        <v>-7.6738055150665538E-5</v>
+        <v>-7.6738055150664847E-5</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="33"/>
-        <v>-4.7133209998224098E-3</v>
+        <v>-4.7133209998224236E-3</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="33"/>
-        <v>-2.277274631882914E-2</v>
+        <v>-2.2772746318829137E-2</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="33"/>
-        <v>-5.1008919371625355E-2</v>
+        <v>-5.1008919371625112E-2</v>
       </c>
       <c r="T42">
         <f t="shared" ca="1" si="33"/>
-        <v>-1.5381379991153243E-2</v>
+        <v>-1.5381379991153382E-2</v>
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="33"/>
-        <v>0.61397244469027734</v>
+        <v>0.61397244469027745</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="33"/>
-        <v>3.912796720457886</v>
+        <v>3.9127967204578864</v>
       </c>
       <c r="W42">
         <f t="shared" ca="1" si="33"/>
-        <v>13.114380308082527</v>
+        <v>13.114380308082529</v>
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="33"/>
@@ -42166,23 +42169,23 @@
       </c>
       <c r="Z42">
         <f t="shared" ca="1" si="33"/>
-        <v>50.90633085584949</v>
+        <v>50.906330855849504</v>
       </c>
       <c r="AA42">
         <f t="shared" ca="1" si="33"/>
-        <v>58.87335436051427</v>
+        <v>58.873354360514277</v>
       </c>
       <c r="AB42">
         <f t="shared" ca="1" si="33"/>
-        <v>65.472914093879936</v>
+        <v>65.47291409387995</v>
       </c>
       <c r="AC42">
         <f t="shared" ca="1" si="33"/>
-        <v>71.340795652891856</v>
+        <v>71.34079565289187</v>
       </c>
       <c r="AD42">
         <f t="shared" ca="1" si="33"/>
-        <v>76.784738007173345</v>
+        <v>76.78473800717336</v>
       </c>
       <c r="AE42">
         <f t="shared" ca="1" si="33"/>
@@ -42190,11 +42193,11 @@
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="33"/>
-        <v>86.852251335780522</v>
+        <v>86.852251335780508</v>
       </c>
       <c r="AG42">
         <f t="shared" ca="1" si="33"/>
-        <v>91.547727065044796</v>
+        <v>91.547727065044782</v>
       </c>
       <c r="AH42">
         <f t="shared" ca="1" si="33"/>
@@ -42202,7 +42205,7 @@
       </c>
       <c r="AI42">
         <f t="shared" ca="1" si="33"/>
-        <v>100.20996649436886</v>
+        <v>100.20996649436884</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -42217,11 +42220,11 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="34"/>
-        <v>-3.7585788010074958E-5</v>
+        <v>-3.7585788010074606E-5</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="34"/>
-        <v>-2.3565674964096959E-3</v>
+        <v>-2.3565674964096993E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="34"/>
@@ -42233,11 +42236,11 @@
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="34"/>
-        <v>-3.8696544622905019E-2</v>
+        <v>-3.8696544622904755E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="34"/>
-        <v>-0.65234773709361249</v>
+        <v>-0.65234773709361427</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="34"/>
@@ -42245,19 +42248,19 @@
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="34"/>
-        <v>-1.2025801868584585</v>
+        <v>-1.202580186858454</v>
       </c>
       <c r="T43">
         <f t="shared" ca="1" si="34"/>
-        <v>-0.91892942042081782</v>
+        <v>-0.91892942042081871</v>
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="34"/>
-        <v>8.0547923833627522E-2</v>
+        <v>8.0547923833627855E-2</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="34"/>
-        <v>3.8092453313576802</v>
+        <v>3.8092453313576806</v>
       </c>
       <c r="W43">
         <f t="shared" ca="1" si="34"/>
@@ -42265,7 +42268,7 @@
       </c>
       <c r="X43">
         <f t="shared" ca="1" si="34"/>
-        <v>27.506589258447004</v>
+        <v>27.506589258447008</v>
       </c>
       <c r="Y43">
         <f t="shared" ca="1" si="34"/>
@@ -42273,23 +42276,23 @@
       </c>
       <c r="Z43">
         <f t="shared" ca="1" si="34"/>
-        <v>51.246925236935645</v>
+        <v>51.24692523693566</v>
       </c>
       <c r="AA43">
         <f t="shared" ca="1" si="34"/>
-        <v>59.146500258299099</v>
+        <v>59.146500258299106</v>
       </c>
       <c r="AB43">
         <f t="shared" ca="1" si="34"/>
-        <v>65.684504775368524</v>
+        <v>65.684504775368538</v>
       </c>
       <c r="AC43">
         <f t="shared" ca="1" si="34"/>
-        <v>71.501733282000885</v>
+        <v>71.501733282000899</v>
       </c>
       <c r="AD43">
         <f t="shared" ca="1" si="34"/>
-        <v>76.905778267658221</v>
+        <v>76.905778267658235</v>
       </c>
       <c r="AE43">
         <f t="shared" ca="1" si="34"/>
@@ -42297,11 +42300,11 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="34"/>
-        <v>86.919194848933827</v>
+        <v>86.919194848933813</v>
       </c>
       <c r="AG43">
         <f t="shared" ca="1" si="34"/>
-        <v>91.597085103665336</v>
+        <v>91.597085103665322</v>
       </c>
       <c r="AH43">
         <f t="shared" ca="1" si="34"/>
@@ -42309,7 +42312,7 @@
       </c>
       <c r="AI43">
         <f t="shared" ca="1" si="34"/>
-        <v>100.29811958956793</v>
+        <v>100.29811958956792</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -42328,7 +42331,7 @@
       </c>
       <c r="B46" s="1">
         <f ca="1">phif/phie</f>
-        <v>0.26465786010982062</v>
+        <v>0.26465786010982051</v>
       </c>
       <c r="G46" s="31" t="s">
         <v>93</v>
@@ -42344,7 +42347,7 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.6657864082089781E-5</v>
+        <v>1.6657864082089775E-5</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="35"/>
@@ -42360,7 +42363,7 @@
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="35"/>
-        <v>6.3597780528502693E-3</v>
+        <v>6.3597780528502649E-3</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="35"/>
@@ -42368,75 +42371,75 @@
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="35"/>
-        <v>5.5578154102326999E-2</v>
+        <v>5.5578154102326985E-2</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.14796333818609364</v>
+        <v>0.14796333818609356</v>
       </c>
       <c r="T46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.36735840615762994</v>
+        <v>0.36735840615762982</v>
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.82113053717596873</v>
+        <v>0.82113053717596829</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.5398095639518419</v>
+        <v>1.539809563951841</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="35"/>
-        <v>2.2468683359635051</v>
+        <v>2.2468683359635038</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="35"/>
-        <v>2.5279956841754769</v>
+        <v>2.5279956841754756</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="35"/>
-        <v>2.3537338675400084</v>
+        <v>2.353733867540007</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.9695305135938141</v>
+        <v>1.9695305135938135</v>
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.5611101118070463</v>
+        <v>1.5611101118070454</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="35"/>
-        <v>1.2038617444428155</v>
+        <v>1.203861744442815</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.91406853768437424</v>
+        <v>0.91406853768437402</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.68700020339461965</v>
+        <v>0.68700020339461931</v>
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.51241503127779309</v>
+        <v>0.51241503127779275</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.37982104682394879</v>
+        <v>0.37982104682394852</v>
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.28003529985470504</v>
+        <v>0.28003529985470488</v>
       </c>
       <c r="AH46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.20549555883757611</v>
+        <v>0.20549555883757603</v>
       </c>
       <c r="AI46">
         <f t="shared" ca="1" si="35"/>
-        <v>0.50013437886627954</v>
+        <v>0.50013437886627932</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="19" thickTop="1">
@@ -42445,22 +42448,22 @@
       </c>
       <c r="B47" s="10">
         <f ca="1">MAX(0,Ro*(reck-1/spr)/(reck-1))</f>
-        <v>7544.946929783634</v>
+        <v>7544.9469297836331</v>
       </c>
       <c r="F47" t="s">
         <v>83</v>
       </c>
       <c r="G47" s="30">
         <f ca="1">G39/G53</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="H47" s="30">
         <f ca="1">H53/H39</f>
-        <v>0.43583179430432673</v>
+        <v>0.43583179430432678</v>
       </c>
       <c r="I47" s="30">
         <f ca="1">I53/I39</f>
-        <v>0.42393294770181839</v>
+        <v>0.4239329477018185</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>76</v>
@@ -42471,11 +42474,11 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="36"/>
-        <v>3.3491073988701783E-2</v>
+        <v>3.3491073988701769E-2</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.58996266974585387</v>
+        <v>0.58996266974585398</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="36"/>
@@ -42487,7 +42490,7 @@
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.3171287215827276</v>
+        <v>2.3171287215827268</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="36"/>
@@ -42495,75 +42498,75 @@
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.6187488433390751</v>
+        <v>2.6187488433390747</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.5427436758906512</v>
+        <v>2.5427436758906499</v>
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.3702207509315651</v>
+        <v>2.3702207509315643</v>
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="36"/>
-        <v>2.1253496873916711</v>
+        <v>2.1253496873916702</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="36"/>
-        <v>1.822120678833647</v>
+        <v>1.8221206788336461</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="36"/>
-        <v>1.4820884229864277</v>
+        <v>1.4820884229864268</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="36"/>
-        <v>1.1447587360739466</v>
+        <v>1.144758736073946</v>
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.84968192195854464</v>
+        <v>0.84968192195854386</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.6691481588660152</v>
+        <v>0.66914815886601486</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.51746418934031901</v>
+        <v>0.51746418934031879</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.39516425808361555</v>
+        <v>0.39516425808361538</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.29889326761431695</v>
+        <v>0.29889326761431689</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.22430893245506989</v>
+        <v>0.2243089324550698</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.16720966479758614</v>
+        <v>0.16720966479758603</v>
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.12391489300872863</v>
+        <v>0.12391489300872854</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="36"/>
-        <v>9.1352982797829524E-2</v>
+        <v>9.1352982797829468E-2</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="36"/>
-        <v>6.70349754874036E-2</v>
+        <v>6.7034975487403559E-2</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="36"/>
-        <v>0.163148836386277</v>
+        <v>0.16314883638627689</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -42572,22 +42575,22 @@
       </c>
       <c r="B48" s="1">
         <f ca="1">f1_*re*phi_q1</f>
-        <v>24487.654004566451</v>
+        <v>24487.654004566433</v>
       </c>
       <c r="C48" s="19">
         <f ca="1">ye_1/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.60367371601208464</v>
+        <v>0.60367371601208453</v>
       </c>
       <c r="F48" t="s">
         <v>84</v>
       </c>
       <c r="G48" s="30">
         <f ca="1">G40/G54</f>
-        <v>2.2944631692054425</v>
+        <v>2.294463169205442</v>
       </c>
       <c r="H48" s="30">
         <f t="shared" ref="H48:I49" ca="1" si="37">H40/H54</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="I48" s="30">
         <f ca="1">I54/I40</f>
@@ -42602,7 +42605,7 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="38"/>
-        <v>8.5462645775878534E-4</v>
+        <v>8.5462645775878491E-4</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="38"/>
@@ -42618,83 +42621,83 @@
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11291602141087008</v>
+        <v>0.11291602141087004</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="38"/>
-        <v>2.0774908340996636</v>
+        <v>2.0774908340996641</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="38"/>
-        <v>4.130541974770793</v>
+        <v>4.1305419747707921</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="38"/>
-        <v>4.6334402474106939</v>
+        <v>4.6334402474106922</v>
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="38"/>
-        <v>4.4194431893964525</v>
+        <v>4.4194431893964516</v>
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="38"/>
-        <v>3.9247884788066498</v>
+        <v>3.9247884788066476</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="38"/>
-        <v>3.3046343060073937</v>
+        <v>3.3046343060073919</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="38"/>
-        <v>2.634268241090119</v>
+        <v>2.6342682410901173</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.9930041668333673</v>
+        <v>1.9930041668333662</v>
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.4487751276420624</v>
+        <v>1.4487751276420613</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="38"/>
-        <v>1.1409507301720145</v>
+        <v>1.1409507301720143</v>
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.88231752093025462</v>
+        <v>0.88231752093025406</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.67378642954416412</v>
+        <v>0.6737864295441639</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.50963674846834317</v>
+        <v>0.50963674846834306</v>
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.38246453625819743</v>
+        <v>0.38246453625819726</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.28510575216395928</v>
+        <v>0.28510575216395906</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.2112847293745673</v>
+        <v>0.21128472937456719</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.15576408758743235</v>
+        <v>0.15576408758743227</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11429995467525556</v>
+        <v>0.11429995467525551</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="38"/>
-        <v>0.27818171736001057</v>
+        <v>0.27818171736001041</v>
       </c>
     </row>
     <row r="49" spans="1:47">
@@ -42703,18 +42706,18 @@
       </c>
       <c r="B49" s="1">
         <f ca="1">f2_*re*phi_q2</f>
-        <v>9132.5017837425003</v>
+        <v>9132.5017837424966</v>
       </c>
       <c r="C49" s="19">
         <f ca="1">ye_2/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.22513595166163136</v>
+        <v>0.22513595166163142</v>
       </c>
       <c r="F49" t="s">
         <v>85</v>
       </c>
       <c r="G49" s="30">
         <f ca="1">G41/G55</f>
-        <v>2.3588636019471876</v>
+        <v>2.3588636019471871</v>
       </c>
       <c r="H49" s="30">
         <f t="shared" ca="1" si="37"/>
@@ -42742,7 +42745,7 @@
       </c>
       <c r="C50" s="19">
         <f ca="1">ye_3/SUM(ye_1,ye_2,ye_3)</f>
-        <v>0.17119033232628392</v>
+        <v>0.17119033232628406</v>
       </c>
       <c r="AL50" s="30"/>
       <c r="AM50" s="30"/>
@@ -42758,7 +42761,7 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">SUM(B48:B50)</f>
-        <v>40564.386613241659</v>
+        <v>40564.38661324163</v>
       </c>
       <c r="G51" t="s">
         <v>70</v>
@@ -42780,7 +42783,7 @@
       </c>
       <c r="H52" s="56">
         <f ca="1">H40^0.5</f>
-        <v>474.93528953424811</v>
+        <v>474.93528953424806</v>
       </c>
       <c r="I52" s="10">
         <f ca="1">I41^0.5</f>
@@ -42800,11 +42803,18 @@
       </c>
       <c r="B53" s="34">
         <f ca="1">f1_*phi_q1</f>
-        <v>3.2455700792144184</v>
+        <v>3.2455700792144166</v>
       </c>
       <c r="C53">
         <f ca="1">AVERAGE(B53:B55)/B53</f>
-        <v>0.55217466736063847</v>
+        <v>0.55217466736063858</v>
+      </c>
+      <c r="E53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" s="46">
+        <f ca="1">ye_1/mpr1_</f>
+        <v>421552.50416540803</v>
       </c>
       <c r="G53">
         <f ca="1">G$52*$J53</f>
@@ -42812,7 +42822,7 @@
       </c>
       <c r="H53">
         <f t="shared" ref="H53:I53" ca="1" si="39">H$52*$J53</f>
-        <v>534205.20689919253</v>
+        <v>534205.20689919242</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="39"/>
@@ -42834,27 +42844,31 @@
       </c>
       <c r="B54" s="34">
         <f ca="1">f2_*phi_q2</f>
-        <v>1.2104129914674422</v>
+        <v>1.2104129914674417</v>
       </c>
       <c r="C54">
         <f ca="1">AVERAGE(B53:B55)/B54</f>
         <v>1.4805868670602971</v>
       </c>
+      <c r="F54" s="46">
+        <f ca="1">ye_2/mpr2_</f>
+        <v>81011.067911637758</v>
+      </c>
       <c r="G54">
         <f t="shared" ref="G54:I55" ca="1" si="40">G$52*$J54</f>
-        <v>534205.20689919253</v>
+        <v>534205.20689919242</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="40"/>
-        <v>225563.52924498008</v>
+        <v>225563.52924498002</v>
       </c>
       <c r="I54">
         <f ca="1">I$52*$J54</f>
-        <v>220462.22697620699</v>
+        <v>220462.22697620696</v>
       </c>
       <c r="J54">
         <f ca="1"/>
-        <v>474.93528953424811</v>
+        <v>474.93528953424806</v>
       </c>
       <c r="AL54" s="30"/>
       <c r="AM54" s="30"/>
@@ -42869,11 +42883,15 @@
       </c>
       <c r="B55" s="34">
         <f ca="1">f3_*phi_q3</f>
-        <v>0.92038166597572646</v>
+        <v>0.92038166597572635</v>
       </c>
       <c r="C55">
         <f ca="1">AVERAGE(B53:B55)/B55</f>
-        <v>1.9471504541390188</v>
+        <v>1.9471504541390181</v>
+      </c>
+      <c r="F55" s="46">
+        <f ca="1">ye_3/mpr3_</f>
+        <v>204353.85885379443</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="40"/>
@@ -42881,7 +42899,7 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="40"/>
-        <v>220462.22697620699</v>
+        <v>220462.22697620696</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="40"/>
@@ -42905,11 +42923,11 @@
       </c>
       <c r="B56" s="33">
         <f ca="1">phi_t1*f1_</f>
-        <v>5.8089214896367952E-2</v>
+        <v>5.8089214896367924E-2</v>
       </c>
       <c r="C56">
         <f ca="1">AVERAGE(B56:B58)/B56</f>
-        <v>1.1752161457805443</v>
+        <v>1.1752161457805441</v>
       </c>
       <c r="AL56" s="30"/>
       <c r="AM56" s="30"/>
@@ -42924,7 +42942,7 @@
       </c>
       <c r="B57" s="33">
         <f ca="1">phi_t2*f2_</f>
-        <v>0.11273153186554348</v>
+        <v>0.11273153186554344</v>
       </c>
       <c r="C57">
         <f ca="1">AVERAGE(B56:B58)/B57</f>
@@ -42959,7 +42977,7 @@
       </c>
       <c r="C58">
         <f ca="1">AVERAGE(B56:B58)/B58</f>
-        <v>2.0089630588386882</v>
+        <v>2.0089630588386873</v>
       </c>
       <c r="G58">
         <f ca="1"/>
@@ -43004,7 +43022,7 @@
       </c>
       <c r="B60">
         <f ca="1">ypr1/mpr1_</f>
-        <v>55.872162930839487</v>
+        <v>55.87216293083948</v>
       </c>
       <c r="AL60" s="30"/>
       <c r="AM60" s="30"/>
@@ -43032,7 +43050,7 @@
       </c>
       <c r="B62">
         <f ca="1">ypr3/mpr3_</f>
-        <v>27.084863651871274</v>
+        <v>27.08486365187127</v>
       </c>
       <c r="AL62" s="30"/>
       <c r="AM62" s="30"/>
